--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5249,6 +5249,143 @@
         <v>8.878500000000001</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B36">
+        <v>123462</v>
+      </c>
+      <c r="C36">
+        <v>77534.92732115249</v>
+      </c>
+      <c r="D36">
+        <v>38107</v>
+      </c>
+      <c r="E36">
+        <v>7820.07267884752</v>
+      </c>
+      <c r="F36">
+        <v>8199.385276890607</v>
+      </c>
+      <c r="G36">
+        <v>69335.54204426188</v>
+      </c>
+      <c r="H36">
+        <v>93998.08371610107</v>
+      </c>
+      <c r="I36">
+        <v>82280.86921193104</v>
+      </c>
+      <c r="J36">
+        <v>11717.21439131465</v>
+      </c>
+      <c r="K36">
+        <v>290.0222325045988</v>
+      </c>
+      <c r="L36">
+        <v>7820.07267884752</v>
+      </c>
+      <c r="M36">
+        <v>4863.149567199719</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>81024.83923754923</v>
+      </c>
+      <c r="P36">
+        <v>51596.9286415601</v>
+      </c>
+      <c r="Q36">
+        <v>40276.98935774017</v>
+      </c>
+      <c r="R36">
+        <v>11319.93928381993</v>
+      </c>
+      <c r="S36">
+        <v>29427.91048313376</v>
+      </c>
+      <c r="T36">
+        <v>26789.53165028383</v>
+      </c>
+      <c r="U36">
+        <v>2241.103725355212</v>
+      </c>
+      <c r="V36">
+        <v>397.275107494724</v>
+      </c>
+      <c r="W36">
+        <v>66994</v>
+      </c>
+      <c r="X36">
+        <v>61914</v>
+      </c>
+      <c r="Y36">
+        <v>5080</v>
+      </c>
+      <c r="Z36">
+        <v>17</v>
+      </c>
+      <c r="AA36">
+        <v>46150</v>
+      </c>
+      <c r="AB36">
+        <v>41070</v>
+      </c>
+      <c r="AC36">
+        <v>5080</v>
+      </c>
+      <c r="AD36">
+        <v>20827</v>
+      </c>
+      <c r="AE36">
+        <v>66977</v>
+      </c>
+      <c r="AF36">
+        <v>61897</v>
+      </c>
+      <c r="AG36">
+        <v>5080</v>
+      </c>
+      <c r="AH36">
+        <v>29463.91628389893</v>
+      </c>
+      <c r="AI36">
+        <v>3074.130788068957</v>
+      </c>
+      <c r="AJ36">
+        <v>26389.78560868535</v>
+      </c>
+      <c r="AK36">
+        <v>-37513.08371610107</v>
+      </c>
+      <c r="AL36">
+        <v>-58822.86921193104</v>
+      </c>
+      <c r="AM36">
+        <v>21309.78560868535</v>
+      </c>
+      <c r="AN36">
+        <v>-58839.86921193104</v>
+      </c>
+      <c r="AO36">
+        <v>160992.0837161011</v>
+      </c>
+      <c r="AP36">
+        <v>261753.66</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5424908068879494</v>
+      </c>
+      <c r="AR36">
+        <v>0.1763108107065246</v>
+      </c>
+      <c r="AS36">
+        <v>8.860900000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5386,6 +5386,143 @@
         <v>8.860900000000001</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B37">
+        <v>125727</v>
+      </c>
+      <c r="C37">
+        <v>78129.22529972871</v>
+      </c>
+      <c r="D37">
+        <v>39772</v>
+      </c>
+      <c r="E37">
+        <v>7825.774700271287</v>
+      </c>
+      <c r="F37">
+        <v>8164.211188413407</v>
+      </c>
+      <c r="G37">
+        <v>69965.01411131531</v>
+      </c>
+      <c r="H37">
+        <v>93756.88807210991</v>
+      </c>
+      <c r="I37">
+        <v>81955.57747002711</v>
+      </c>
+      <c r="J37">
+        <v>11801.31060208279</v>
+      </c>
+      <c r="K37">
+        <v>288.9190076135469</v>
+      </c>
+      <c r="L37">
+        <v>7825.774700271287</v>
+      </c>
+      <c r="M37">
+        <v>4868.356086461889</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>80773.83827776319</v>
+      </c>
+      <c r="P37">
+        <v>51340.25334733526</v>
+      </c>
+      <c r="Q37">
+        <v>39872.2970814737</v>
+      </c>
+      <c r="R37">
+        <v>11467.95626586156</v>
+      </c>
+      <c r="S37">
+        <v>29433.58493042793</v>
+      </c>
+      <c r="T37">
+        <v>26897.0337796447</v>
+      </c>
+      <c r="U37">
+        <v>2203.196814562002</v>
+      </c>
+      <c r="V37">
+        <v>333.3543362212304</v>
+      </c>
+      <c r="W37">
+        <v>68067</v>
+      </c>
+      <c r="X37">
+        <v>62836</v>
+      </c>
+      <c r="Y37">
+        <v>5231</v>
+      </c>
+      <c r="Z37">
+        <v>17</v>
+      </c>
+      <c r="AA37">
+        <v>47076</v>
+      </c>
+      <c r="AB37">
+        <v>41845</v>
+      </c>
+      <c r="AC37">
+        <v>5231</v>
+      </c>
+      <c r="AD37">
+        <v>20974</v>
+      </c>
+      <c r="AE37">
+        <v>68050</v>
+      </c>
+      <c r="AF37">
+        <v>62819</v>
+      </c>
+      <c r="AG37">
+        <v>5231</v>
+      </c>
+      <c r="AH37">
+        <v>31970.11192789009</v>
+      </c>
+      <c r="AI37">
+        <v>3999.422529972886</v>
+      </c>
+      <c r="AJ37">
+        <v>27970.68939791721</v>
+      </c>
+      <c r="AK37">
+        <v>-36079.88807210991</v>
+      </c>
+      <c r="AL37">
+        <v>-58819.57747002711</v>
+      </c>
+      <c r="AM37">
+        <v>22739.68939791721</v>
+      </c>
+      <c r="AN37">
+        <v>-58836.57747002711</v>
+      </c>
+      <c r="AO37">
+        <v>161823.8880721099</v>
+      </c>
+      <c r="AP37">
+        <v>262219.59</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5412520779148472</v>
+      </c>
+      <c r="AR37">
+        <v>0.1795289207797175</v>
+      </c>
+      <c r="AS37">
+        <v>9.1416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS37"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5523,6 +5523,143 @@
         <v>9.1416</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B38">
+        <v>125141</v>
+      </c>
+      <c r="C38">
+        <v>77606.26621579418</v>
+      </c>
+      <c r="D38">
+        <v>39695</v>
+      </c>
+      <c r="E38">
+        <v>7839.733784205821</v>
+      </c>
+      <c r="F38">
+        <v>8258.089104752467</v>
+      </c>
+      <c r="G38">
+        <v>69348.17711104172</v>
+      </c>
+      <c r="H38">
+        <v>92868.56553625465</v>
+      </c>
+      <c r="I38">
+        <v>81145.07016164642</v>
+      </c>
+      <c r="J38">
+        <v>11723.49548230074</v>
+      </c>
+      <c r="K38">
+        <v>288.8957213780329</v>
+      </c>
+      <c r="L38">
+        <v>7839.733784205821</v>
+      </c>
+      <c r="M38">
+        <v>4871.227048041612</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>79868.70898262919</v>
+      </c>
+      <c r="P38">
+        <v>51315.95539377753</v>
+      </c>
+      <c r="Q38">
+        <v>39923.61620556339</v>
+      </c>
+      <c r="R38">
+        <v>11392.33918821414</v>
+      </c>
+      <c r="S38">
+        <v>28552.75358885167</v>
+      </c>
+      <c r="T38">
+        <v>25784.97442303757</v>
+      </c>
+      <c r="U38">
+        <v>2436.622979419968</v>
+      </c>
+      <c r="V38">
+        <v>331.1562940866062</v>
+      </c>
+      <c r="W38">
+        <v>68272</v>
+      </c>
+      <c r="X38">
+        <v>62970</v>
+      </c>
+      <c r="Y38">
+        <v>5302</v>
+      </c>
+      <c r="Z38">
+        <v>17</v>
+      </c>
+      <c r="AA38">
+        <v>47365</v>
+      </c>
+      <c r="AB38">
+        <v>42063</v>
+      </c>
+      <c r="AC38">
+        <v>5302</v>
+      </c>
+      <c r="AD38">
+        <v>20890</v>
+      </c>
+      <c r="AE38">
+        <v>68255</v>
+      </c>
+      <c r="AF38">
+        <v>62953</v>
+      </c>
+      <c r="AG38">
+        <v>5302</v>
+      </c>
+      <c r="AH38">
+        <v>32272.43446374535</v>
+      </c>
+      <c r="AI38">
+        <v>4300.929838353579</v>
+      </c>
+      <c r="AJ38">
+        <v>27971.50451769926</v>
+      </c>
+      <c r="AK38">
+        <v>-35982.56553625465</v>
+      </c>
+      <c r="AL38">
+        <v>-58652.07016164642</v>
+      </c>
+      <c r="AM38">
+        <v>22669.50451769926</v>
+      </c>
+      <c r="AN38">
+        <v>-58669.07016164642</v>
+      </c>
+      <c r="AO38">
+        <v>161140.5655362547</v>
+      </c>
+      <c r="AP38">
+        <v>262439.61</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5454247608697389</v>
+      </c>
+      <c r="AR38">
+        <v>0.1804796158628646</v>
+      </c>
+      <c r="AS38">
+        <v>9.2857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS38"/>
+  <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1966,67 +1966,67 @@
         <v>44308</v>
       </c>
       <c r="B12">
-        <v>87850</v>
+        <v>88676</v>
       </c>
       <c r="C12">
-        <v>45372.41632722959</v>
+        <v>46432.40058529035</v>
       </c>
       <c r="D12">
-        <v>40936</v>
+        <v>40730</v>
       </c>
       <c r="E12">
-        <v>1541.583672770418</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="F12">
-        <v>8708.262326764767</v>
+        <v>8533.597479865528</v>
       </c>
       <c r="G12">
-        <v>36664.15400046482</v>
+        <v>37898.80310542482</v>
       </c>
       <c r="H12">
-        <v>76028.17046469243</v>
+        <v>76239.90845768737</v>
       </c>
       <c r="I12">
-        <v>64989.21739874988</v>
+        <v>65121.73229012988</v>
       </c>
       <c r="J12">
-        <v>11038.9531882622</v>
+        <v>11118.1761675575</v>
       </c>
       <c r="K12">
-        <v>341.3249666678898</v>
+        <v>333.4149998790722</v>
       </c>
       <c r="L12">
-        <v>1541.583672770418</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="M12">
-        <v>4924.54845693736</v>
+        <v>4834.769390765957</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69220.71336831676</v>
+        <v>69558.1246523327</v>
       </c>
       <c r="P12">
-        <v>43670.82602473304</v>
+        <v>42709.46574116623</v>
       </c>
       <c r="Q12">
-        <v>32748.90242559906</v>
+        <v>31860.87043800034</v>
       </c>
       <c r="R12">
-        <v>10921.92372145365</v>
+        <v>10848.59530316589</v>
       </c>
       <c r="S12">
-        <v>25549.88734358372</v>
+        <v>26848.65891116647</v>
       </c>
       <c r="T12">
-        <v>24342.51256834612</v>
+        <v>24960.7528962198</v>
       </c>
       <c r="U12">
-        <v>1090.345308429048</v>
+        <v>1618.325150555058</v>
       </c>
       <c r="V12">
-        <v>117.0294668085575</v>
+        <v>269.5808643916125</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,40 +2062,40 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>11821.82953530757</v>
+        <v>12436.09154231263</v>
       </c>
       <c r="AI12">
-        <v>-18075.21739874988</v>
+        <v>-17175.73229012988</v>
       </c>
       <c r="AJ12">
-        <v>29897.0468117378</v>
+        <v>29611.8238324425</v>
       </c>
       <c r="AK12">
-        <v>-47978.17046469243</v>
+        <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-72723.21739874988</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>24745.0468117378</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-73563.21739874988</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
-        <v>136668.1704646924</v>
+        <v>136879.9084576874</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
       </c>
       <c r="AQ12">
-        <v>0.6807057484348321</v>
+        <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.1753</v>
+        <v>8.269399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>92447</v>
+        <v>91973.99999999999</v>
       </c>
       <c r="C15">
-        <v>47651.06276810572</v>
+        <v>48045.03345119287</v>
       </c>
       <c r="D15">
-        <v>43249</v>
+        <v>42383</v>
       </c>
       <c r="E15">
-        <v>1546.937231894275</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="F15">
-        <v>8776.414104601561</v>
+        <v>8777.650451928996</v>
       </c>
       <c r="G15">
-        <v>38874.64866350417</v>
+        <v>39267.38299926388</v>
       </c>
       <c r="H15">
-        <v>79031.71719102869</v>
+        <v>79402.82525009957</v>
       </c>
       <c r="I15">
-        <v>67486.30058908578</v>
+        <v>67673.1377991239</v>
       </c>
       <c r="J15">
-        <v>11545.41660194291</v>
+        <v>11729.68745097566</v>
       </c>
       <c r="K15">
-        <v>342.3820334811027</v>
+        <v>342.0231213872833</v>
       </c>
       <c r="L15">
-        <v>1546.937231894275</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="M15">
-        <v>4931.586946910586</v>
+        <v>4927.222899344733</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72210.81097874272</v>
+        <v>72587.61268056043</v>
       </c>
       <c r="P15">
-        <v>43959.06044999941</v>
+        <v>44101.28410585638</v>
       </c>
       <c r="Q15">
-        <v>32580.01995483278</v>
+        <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11379.04049516663</v>
+        <v>11306.57426961276</v>
       </c>
       <c r="S15">
-        <v>28251.75052874332</v>
+        <v>28486.32857470405</v>
       </c>
       <c r="T15">
-        <v>26293.68793987262</v>
+        <v>26459.32470102695</v>
       </c>
       <c r="U15">
-        <v>1791.686482094421</v>
+        <v>1603.890812989489</v>
       </c>
       <c r="V15">
-        <v>166.3761067762789</v>
+        <v>423.1131813629069</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,40 +2473,40 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>13415.28280897132</v>
+        <v>12571.17474990041</v>
       </c>
       <c r="AI15">
-        <v>-18288.30058908578</v>
+        <v>-18082.1377991239</v>
       </c>
       <c r="AJ15">
-        <v>31703.58339805709</v>
+        <v>30653.31254902434</v>
       </c>
       <c r="AK15">
-        <v>-46484.71719102869</v>
+        <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72612.30058908578</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>26127.58339805709</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-73171.30058908578</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
-        <v>139490.7171910287</v>
+        <v>139861.8252500996</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
       </c>
       <c r="AQ15">
-        <v>0.647938818998994</v>
+        <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.3689</v>
+        <v>8.2867</v>
       </c>
     </row>
     <row r="16">
@@ -3747,67 +3747,67 @@
         <v>44396</v>
       </c>
       <c r="B25">
-        <v>105720</v>
+        <v>104439</v>
       </c>
       <c r="C25">
-        <v>62597.62800823772</v>
+        <v>61134.82190154996</v>
       </c>
       <c r="D25">
-        <v>41592</v>
+        <v>41778</v>
       </c>
       <c r="E25">
-        <v>1530.371991762283</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="F25">
-        <v>8429.860076493087</v>
+        <v>8386.232858200448</v>
       </c>
       <c r="G25">
-        <v>54167.76793174463</v>
+        <v>52748.58904334951</v>
       </c>
       <c r="H25">
-        <v>81248.54380700206</v>
+        <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69741.54068843779</v>
+        <v>69072.43363611795</v>
       </c>
       <c r="J25">
-        <v>11507.00300088261</v>
+        <v>11716.97857789163</v>
       </c>
       <c r="K25">
-        <v>322.2072374227714</v>
+        <v>322.8921608949577</v>
       </c>
       <c r="L25">
-        <v>1530.371991762283</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="M25">
-        <v>4813.754516034128</v>
+        <v>4883.624836954606</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74582.21006178288</v>
+        <v>74056.71711770997</v>
       </c>
       <c r="P25">
-        <v>44053.77228596646</v>
+        <v>43752.91789562745</v>
       </c>
       <c r="Q25">
-        <v>33348.15063253899</v>
+        <v>32992.72564895005</v>
       </c>
       <c r="R25">
-        <v>10705.62165342748</v>
+        <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30528.43765813475</v>
+        <v>30303.79910457233</v>
       </c>
       <c r="T25">
-        <v>27826.40600176523</v>
+        <v>27845.76387501616</v>
       </c>
       <c r="U25">
-        <v>1900.650308914387</v>
+        <v>1501.249015852125</v>
       </c>
       <c r="V25">
-        <v>801.3813474551339</v>
+        <v>956.7863312142329</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,40 +3843,40 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>24471.45619299794</v>
+        <v>23649.58778599043</v>
       </c>
       <c r="AI25">
-        <v>-5613.540688437788</v>
+        <v>-6411.433636117945</v>
       </c>
       <c r="AJ25">
-        <v>30084.99699911739</v>
+        <v>30061.02142210837</v>
       </c>
       <c r="AK25">
-        <v>-40928.54380700206</v>
+        <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-65488.54068843779</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>24559.99699911739</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-65722.54068843779</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
-        <v>146882.5438070021</v>
+        <v>146423.4122140096</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
       </c>
       <c r="AQ25">
-        <v>0.6186152099886493</v>
+        <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.497500000000001</v>
+        <v>8.5099</v>
       </c>
     </row>
     <row r="26">
@@ -5658,6 +5658,143 @@
       </c>
       <c r="AS38">
         <v>9.2857</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B39">
+        <v>123783</v>
+      </c>
+      <c r="C39">
+        <v>76275.17951124845</v>
+      </c>
+      <c r="D39">
+        <v>39678</v>
+      </c>
+      <c r="E39">
+        <v>7829.820488751543</v>
+      </c>
+      <c r="F39">
+        <v>8143.895668315527</v>
+      </c>
+      <c r="G39">
+        <v>68131.28384293293</v>
+      </c>
+      <c r="H39">
+        <v>91286.49024922743</v>
+      </c>
+      <c r="I39">
+        <v>79444.46647611614</v>
+      </c>
+      <c r="J39">
+        <v>11842.02377311128</v>
+      </c>
+      <c r="K39">
+        <v>286.7190153249027</v>
+      </c>
+      <c r="L39">
+        <v>7829.820488751543</v>
+      </c>
+      <c r="M39">
+        <v>4867.811481547889</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>78302.13926360309</v>
+      </c>
+      <c r="P39">
+        <v>51242.08610633564</v>
+      </c>
+      <c r="Q39">
+        <v>39858.99960975816</v>
+      </c>
+      <c r="R39">
+        <v>11383.08639110671</v>
+      </c>
+      <c r="S39">
+        <v>27060.05315726747</v>
+      </c>
+      <c r="T39">
+        <v>24553.85274171264</v>
+      </c>
+      <c r="U39">
+        <v>2047.26313902102</v>
+      </c>
+      <c r="V39">
+        <v>458.9373820045774</v>
+      </c>
+      <c r="W39">
+        <v>68337</v>
+      </c>
+      <c r="X39">
+        <v>63201</v>
+      </c>
+      <c r="Y39">
+        <v>5136</v>
+      </c>
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <v>47381</v>
+      </c>
+      <c r="AB39">
+        <v>42245</v>
+      </c>
+      <c r="AC39">
+        <v>5136</v>
+      </c>
+      <c r="AD39">
+        <v>20948</v>
+      </c>
+      <c r="AE39">
+        <v>68329</v>
+      </c>
+      <c r="AF39">
+        <v>63193</v>
+      </c>
+      <c r="AG39">
+        <v>5136</v>
+      </c>
+      <c r="AH39">
+        <v>32496.50975077257</v>
+      </c>
+      <c r="AI39">
+        <v>4660.53352388386</v>
+      </c>
+      <c r="AJ39">
+        <v>27835.97622688872</v>
+      </c>
+      <c r="AK39">
+        <v>-35832.49024922743</v>
+      </c>
+      <c r="AL39">
+        <v>-58532.46647611614</v>
+      </c>
+      <c r="AM39">
+        <v>22699.97622688872</v>
+      </c>
+      <c r="AN39">
+        <v>-58540.46647611614</v>
+      </c>
+      <c r="AO39">
+        <v>159623.4902492274</v>
+      </c>
+      <c r="AP39">
+        <v>260322.05</v>
+      </c>
+      <c r="AQ39">
+        <v>0.5520063336645581</v>
+      </c>
+      <c r="AR39">
+        <v>0.1820091690273644</v>
+      </c>
+      <c r="AS39">
+        <v>9.481299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1966,67 +1966,67 @@
         <v>44308</v>
       </c>
       <c r="B12">
-        <v>88676</v>
+        <v>87850</v>
       </c>
       <c r="C12">
-        <v>46432.40058529035</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D12">
-        <v>40730</v>
+        <v>40936</v>
       </c>
       <c r="E12">
-        <v>1513.599414709653</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F12">
-        <v>8533.597479865528</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G12">
-        <v>37898.80310542482</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H12">
-        <v>76239.90845768737</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I12">
-        <v>65121.73229012988</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J12">
-        <v>11118.1761675575</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K12">
-        <v>333.4149998790722</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L12">
-        <v>1513.599414709653</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M12">
-        <v>4834.769390765957</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69558.1246523327</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P12">
-        <v>42709.46574116623</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q12">
-        <v>31860.87043800034</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R12">
-        <v>10848.59530316589</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S12">
-        <v>26848.65891116647</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T12">
-        <v>24960.7528962198</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U12">
-        <v>1618.325150555058</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V12">
-        <v>269.5808643916125</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,40 +2062,40 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12436.09154231263</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI12">
-        <v>-17175.73229012988</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ12">
-        <v>29611.8238324425</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK12">
-        <v>-47363.90845768737</v>
+        <v>-47978.17046469243</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-72723.21739874988</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>24745.0468117378</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-73563.21739874988</v>
       </c>
       <c r="AO12">
-        <v>136879.9084576874</v>
+        <v>136668.1704646924</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
       </c>
       <c r="AQ12">
-        <v>0.6743651044250981</v>
+        <v>0.6807057484348321</v>
       </c>
       <c r="AR12">
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.269399999999999</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="13">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91973.99999999999</v>
+        <v>92447</v>
       </c>
       <c r="C15">
-        <v>48045.03345119287</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D15">
-        <v>42383</v>
+        <v>43249</v>
       </c>
       <c r="E15">
-        <v>1545.966548807125</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F15">
-        <v>8777.650451928996</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G15">
-        <v>39267.38299926388</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H15">
-        <v>79402.82525009957</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I15">
-        <v>67673.1377991239</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J15">
-        <v>11729.68745097566</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K15">
-        <v>342.0231213872833</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L15">
-        <v>1545.966548807125</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M15">
-        <v>4927.222899344733</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72587.61268056043</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P15">
-        <v>44101.28410585638</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q15">
-        <v>32794.70971556832</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R15">
-        <v>11306.57426961276</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S15">
-        <v>28486.32857470405</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T15">
-        <v>26459.32470102695</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U15">
-        <v>1603.890812989489</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V15">
-        <v>423.1131813629069</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,40 +2473,40 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12571.17474990041</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI15">
-        <v>-18082.1377991239</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ15">
-        <v>30653.31254902434</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK15">
-        <v>-47328.82525009959</v>
+        <v>-46484.71719102869</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-72612.30058908578</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>26127.58339805709</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-73171.30058908578</v>
       </c>
       <c r="AO15">
-        <v>139861.8252500996</v>
+        <v>139490.7171910287</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
       </c>
       <c r="AQ15">
-        <v>0.6512710113727793</v>
+        <v>0.647938818998994</v>
       </c>
       <c r="AR15">
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.2867</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="16">
@@ -3747,67 +3747,67 @@
         <v>44396</v>
       </c>
       <c r="B25">
-        <v>104439</v>
+        <v>105720</v>
       </c>
       <c r="C25">
-        <v>61134.82190154996</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D25">
-        <v>41778</v>
+        <v>41592</v>
       </c>
       <c r="E25">
-        <v>1526.178098450041</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F25">
-        <v>8386.232858200448</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G25">
-        <v>52748.58904334951</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H25">
-        <v>80789.41221400957</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J25">
-        <v>11716.97857789163</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K25">
-        <v>322.8921608949577</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L25">
-        <v>1526.178098450041</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M25">
-        <v>4883.624836954606</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74056.71711770997</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P25">
-        <v>43752.91789562745</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q25">
-        <v>32992.72564895005</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R25">
-        <v>10760.1922466774</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T25">
-        <v>27845.76387501616</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U25">
-        <v>1501.249015852125</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V25">
-        <v>956.7863312142329</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,40 +3843,40 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23649.58778599043</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI25">
-        <v>-6411.433636117945</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ25">
-        <v>30061.02142210837</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK25">
-        <v>-41750.41221400957</v>
+        <v>-40928.54380700206</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-65488.54068843779</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>24559.99699911739</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-65722.54068843779</v>
       </c>
       <c r="AO25">
-        <v>146423.4122140096</v>
+        <v>146882.5438070021</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
       </c>
       <c r="AQ25">
-        <v>0.6262028552552208</v>
+        <v>0.6186152099886493</v>
       </c>
       <c r="AR25">
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5099</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5658,143 +5658,6 @@
       </c>
       <c r="AS38">
         <v>9.2857</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>44497</v>
-      </c>
-      <c r="B39">
-        <v>123783</v>
-      </c>
-      <c r="C39">
-        <v>76275.17951124845</v>
-      </c>
-      <c r="D39">
-        <v>39678</v>
-      </c>
-      <c r="E39">
-        <v>7829.820488751543</v>
-      </c>
-      <c r="F39">
-        <v>8143.895668315527</v>
-      </c>
-      <c r="G39">
-        <v>68131.28384293293</v>
-      </c>
-      <c r="H39">
-        <v>91286.49024922743</v>
-      </c>
-      <c r="I39">
-        <v>79444.46647611614</v>
-      </c>
-      <c r="J39">
-        <v>11842.02377311128</v>
-      </c>
-      <c r="K39">
-        <v>286.7190153249027</v>
-      </c>
-      <c r="L39">
-        <v>7829.820488751543</v>
-      </c>
-      <c r="M39">
-        <v>4867.811481547889</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>78302.13926360309</v>
-      </c>
-      <c r="P39">
-        <v>51242.08610633564</v>
-      </c>
-      <c r="Q39">
-        <v>39858.99960975816</v>
-      </c>
-      <c r="R39">
-        <v>11383.08639110671</v>
-      </c>
-      <c r="S39">
-        <v>27060.05315726747</v>
-      </c>
-      <c r="T39">
-        <v>24553.85274171264</v>
-      </c>
-      <c r="U39">
-        <v>2047.26313902102</v>
-      </c>
-      <c r="V39">
-        <v>458.9373820045774</v>
-      </c>
-      <c r="W39">
-        <v>68337</v>
-      </c>
-      <c r="X39">
-        <v>63201</v>
-      </c>
-      <c r="Y39">
-        <v>5136</v>
-      </c>
-      <c r="Z39">
-        <v>8</v>
-      </c>
-      <c r="AA39">
-        <v>47381</v>
-      </c>
-      <c r="AB39">
-        <v>42245</v>
-      </c>
-      <c r="AC39">
-        <v>5136</v>
-      </c>
-      <c r="AD39">
-        <v>20948</v>
-      </c>
-      <c r="AE39">
-        <v>68329</v>
-      </c>
-      <c r="AF39">
-        <v>63193</v>
-      </c>
-      <c r="AG39">
-        <v>5136</v>
-      </c>
-      <c r="AH39">
-        <v>32496.50975077257</v>
-      </c>
-      <c r="AI39">
-        <v>4660.53352388386</v>
-      </c>
-      <c r="AJ39">
-        <v>27835.97622688872</v>
-      </c>
-      <c r="AK39">
-        <v>-35832.49024922743</v>
-      </c>
-      <c r="AL39">
-        <v>-58532.46647611614</v>
-      </c>
-      <c r="AM39">
-        <v>22699.97622688872</v>
-      </c>
-      <c r="AN39">
-        <v>-58540.46647611614</v>
-      </c>
-      <c r="AO39">
-        <v>159623.4902492274</v>
-      </c>
-      <c r="AP39">
-        <v>260322.05</v>
-      </c>
-      <c r="AQ39">
-        <v>0.5520063336645581</v>
-      </c>
-      <c r="AR39">
-        <v>0.1820091690273644</v>
-      </c>
-      <c r="AS39">
-        <v>9.481299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5797,6 +5797,143 @@
         <v>9.481299999999999</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B40">
+        <v>125443</v>
+      </c>
+      <c r="C40">
+        <v>77975.71735271046</v>
+      </c>
+      <c r="D40">
+        <v>39653</v>
+      </c>
+      <c r="E40">
+        <v>7814.282647289542</v>
+      </c>
+      <c r="F40">
+        <v>8176.334172825234</v>
+      </c>
+      <c r="G40">
+        <v>69799.38317988522</v>
+      </c>
+      <c r="H40">
+        <v>93735.14739275834</v>
+      </c>
+      <c r="I40">
+        <v>82217.67908013707</v>
+      </c>
+      <c r="J40">
+        <v>11517.4684158375</v>
+      </c>
+      <c r="K40">
+        <v>285.0104248379506</v>
+      </c>
+      <c r="L40">
+        <v>7814.282647289542</v>
+      </c>
+      <c r="M40">
+        <v>4863.052103546509</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>80772.80221708435</v>
+      </c>
+      <c r="P40">
+        <v>52897.34837537674</v>
+      </c>
+      <c r="Q40">
+        <v>41856.10895503902</v>
+      </c>
+      <c r="R40">
+        <v>11041.23952355394</v>
+      </c>
+      <c r="S40">
+        <v>27875.45384170761</v>
+      </c>
+      <c r="T40">
+        <v>24873.5701457413</v>
+      </c>
+      <c r="U40">
+        <v>2525.654803682755</v>
+      </c>
+      <c r="V40">
+        <v>476.2288922835556</v>
+      </c>
+      <c r="W40">
+        <v>67061</v>
+      </c>
+      <c r="X40">
+        <v>61791</v>
+      </c>
+      <c r="Y40">
+        <v>5270</v>
+      </c>
+      <c r="Z40">
+        <v>8</v>
+      </c>
+      <c r="AA40">
+        <v>46196</v>
+      </c>
+      <c r="AB40">
+        <v>40926</v>
+      </c>
+      <c r="AC40">
+        <v>5270</v>
+      </c>
+      <c r="AD40">
+        <v>20857</v>
+      </c>
+      <c r="AE40">
+        <v>67053</v>
+      </c>
+      <c r="AF40">
+        <v>61783</v>
+      </c>
+      <c r="AG40">
+        <v>5270</v>
+      </c>
+      <c r="AH40">
+        <v>31707.85260724166</v>
+      </c>
+      <c r="AI40">
+        <v>3572.320919862934</v>
+      </c>
+      <c r="AJ40">
+        <v>28135.53158416251</v>
+      </c>
+      <c r="AK40">
+        <v>-35345.14739275834</v>
+      </c>
+      <c r="AL40">
+        <v>-58210.67908013707</v>
+      </c>
+      <c r="AM40">
+        <v>22865.53158416251</v>
+      </c>
+      <c r="AN40">
+        <v>-58218.67908013707</v>
+      </c>
+      <c r="AO40">
+        <v>160796.1473927583</v>
+      </c>
+      <c r="AP40">
+        <v>260698.42</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5345296270019052</v>
+      </c>
+      <c r="AR40">
+        <v>0.177200920511908</v>
+      </c>
+      <c r="AS40">
+        <v>9.6884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262228.93</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540219074989171</v>
+        <v>0.0001540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.155273676548578</v>
+        <v>0.000155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548526590634024</v>
+        <v>0.0001548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711288974371398</v>
+        <v>0.0001711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.1694590296084882</v>
+        <v>0.0001694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711123734180587</v>
+        <v>0.0001711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668599069893508</v>
+        <v>0.0001668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664979777190556</v>
+        <v>0.0001664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820091690273644</v>
+        <v>0.0001820091690273644</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.177200920511908</v>
+        <v>0.000177200920511908</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS40"/>
+  <dimension ref="A1:AS41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5785,13 +5785,13 @@
         <v>159623.4902492274</v>
       </c>
       <c r="AP39">
-        <v>260322.05</v>
+        <v>260333.71</v>
       </c>
       <c r="AQ39">
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820091690273644</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5922,16 +5922,153 @@
         <v>160796.1473927583</v>
       </c>
       <c r="AP40">
-        <v>260698.42</v>
+        <v>260708.52</v>
       </c>
       <c r="AQ40">
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.000177200920511908</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B41">
+        <v>127690</v>
+      </c>
+      <c r="C41">
+        <v>78912.40233941717</v>
+      </c>
+      <c r="D41">
+        <v>40995</v>
+      </c>
+      <c r="E41">
+        <v>7782.597660582837</v>
+      </c>
+      <c r="F41">
+        <v>8210.443279217505</v>
+      </c>
+      <c r="G41">
+        <v>70701.95906019966</v>
+      </c>
+      <c r="H41">
+        <v>99236.83160229906</v>
+      </c>
+      <c r="I41">
+        <v>89812.61802964604</v>
+      </c>
+      <c r="J41">
+        <v>9424.21357265302</v>
+      </c>
+      <c r="K41">
+        <v>281.1380457799738</v>
+      </c>
+      <c r="L41">
+        <v>7782.597660582837</v>
+      </c>
+      <c r="M41">
+        <v>4852.308561056771</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>86320.7873348795</v>
+      </c>
+      <c r="P41">
+        <v>55671.92538065947</v>
+      </c>
+      <c r="Q41">
+        <v>47422.94363214682</v>
+      </c>
+      <c r="R41">
+        <v>8248.981748512655</v>
+      </c>
+      <c r="S41">
+        <v>30648.86205505697</v>
+      </c>
+      <c r="T41">
+        <v>27357.73237874357</v>
+      </c>
+      <c r="U41">
+        <v>2115.89775133609</v>
+      </c>
+      <c r="V41">
+        <v>1175.231824140365</v>
+      </c>
+      <c r="W41">
+        <v>63655</v>
+      </c>
+      <c r="X41">
+        <v>63647.65</v>
+      </c>
+      <c r="Y41">
+        <v>7.35</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+      <c r="AA41">
+        <v>46.34</v>
+      </c>
+      <c r="AB41">
+        <v>38.99</v>
+      </c>
+      <c r="AC41">
+        <v>7.35</v>
+      </c>
+      <c r="AD41">
+        <v>63600.66</v>
+      </c>
+      <c r="AE41">
+        <v>63647</v>
+      </c>
+      <c r="AF41">
+        <v>63639.65</v>
+      </c>
+      <c r="AG41">
+        <v>7.35</v>
+      </c>
+      <c r="AH41">
+        <v>28453.16839770094</v>
+      </c>
+      <c r="AI41">
+        <v>-3117.618029646037</v>
+      </c>
+      <c r="AJ41">
+        <v>31570.78642734698</v>
+      </c>
+      <c r="AK41">
+        <v>-35193.83160229906</v>
+      </c>
+      <c r="AL41">
+        <v>-66757.26802964605</v>
+      </c>
+      <c r="AM41">
+        <v>31563.43642734698</v>
+      </c>
+      <c r="AN41">
+        <v>-66765.26802964605</v>
+      </c>
+      <c r="AO41">
+        <v>162891.8316022991</v>
+      </c>
+      <c r="AP41">
+        <v>262418.4</v>
+      </c>
+      <c r="AQ41">
+        <v>0.4984493695669199</v>
+      </c>
+      <c r="AR41">
+        <v>0.0001765882270450548</v>
+      </c>
+      <c r="AS41">
+        <v>9.917</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262228.93</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540219074989171</v>
+        <v>0.1540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.000155273676548578</v>
+        <v>0.155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548526590634024</v>
+        <v>0.1548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711288974371398</v>
+        <v>0.1711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.0001694590296084882</v>
+        <v>0.1694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711123734180587</v>
+        <v>0.1711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668599069893508</v>
+        <v>0.1668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664979777190556</v>
+        <v>0.1664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>46.34</v>
+        <v>46340</v>
       </c>
       <c r="AB41">
-        <v>38.99</v>
+        <v>38990</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63600.66</v>
+        <v>17307</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001765882270450548</v>
+        <v>0.1765882270450548</v>
       </c>
       <c r="AS41">
         <v>9.917</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS41"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6071,6 +6071,143 @@
         <v>9.917</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B42">
+        <v>128403</v>
+      </c>
+      <c r="C42">
+        <v>80160.59462617914</v>
+      </c>
+      <c r="D42">
+        <v>40482</v>
+      </c>
+      <c r="E42">
+        <v>7760.405373820853</v>
+      </c>
+      <c r="F42">
+        <v>8192.588091209109</v>
+      </c>
+      <c r="G42">
+        <v>71968.00653497003</v>
+      </c>
+      <c r="H42">
+        <v>103376.9288445537</v>
+      </c>
+      <c r="I42">
+        <v>92353.93126595175</v>
+      </c>
+      <c r="J42">
+        <v>11022.99767209222</v>
+      </c>
+      <c r="K42">
+        <v>277.714349821901</v>
+      </c>
+      <c r="L42">
+        <v>7760.405373820853</v>
+      </c>
+      <c r="M42">
+        <v>4836.394080195955</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>90502.415040715</v>
+      </c>
+      <c r="P42">
+        <v>55426.49551714143</v>
+      </c>
+      <c r="Q42">
+        <v>47171.96787674242</v>
+      </c>
+      <c r="R42">
+        <v>8254.527640399016</v>
+      </c>
+      <c r="S42">
+        <v>35075.91961706384</v>
+      </c>
+      <c r="T42">
+        <v>29852.1977693221</v>
+      </c>
+      <c r="U42">
+        <v>2455.25181604854</v>
+      </c>
+      <c r="V42">
+        <v>2768.470031693202</v>
+      </c>
+      <c r="W42">
+        <v>60524</v>
+      </c>
+      <c r="X42">
+        <v>55313</v>
+      </c>
+      <c r="Y42">
+        <v>5211</v>
+      </c>
+      <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42">
+        <v>44651</v>
+      </c>
+      <c r="AB42">
+        <v>39440</v>
+      </c>
+      <c r="AC42">
+        <v>5211</v>
+      </c>
+      <c r="AD42">
+        <v>15865</v>
+      </c>
+      <c r="AE42">
+        <v>60516</v>
+      </c>
+      <c r="AF42">
+        <v>55305</v>
+      </c>
+      <c r="AG42">
+        <v>5211</v>
+      </c>
+      <c r="AH42">
+        <v>25026.07115544631</v>
+      </c>
+      <c r="AI42">
+        <v>-4432.931265951745</v>
+      </c>
+      <c r="AJ42">
+        <v>29459.00232790778</v>
+      </c>
+      <c r="AK42">
+        <v>-35489.9288445537</v>
+      </c>
+      <c r="AL42">
+        <v>-59737.93126595175</v>
+      </c>
+      <c r="AM42">
+        <v>24248.00232790778</v>
+      </c>
+      <c r="AN42">
+        <v>-59745.93126595175</v>
+      </c>
+      <c r="AO42">
+        <v>163900.9288445537</v>
+      </c>
+      <c r="AP42">
+        <v>262156.84</v>
+      </c>
+      <c r="AQ42">
+        <v>0.4712973995934675</v>
+      </c>
+      <c r="AR42">
+        <v>0.1703217051288839</v>
+      </c>
+      <c r="AS42">
+        <v>10.6963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>58285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>58279.78</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
         <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-74690.02540106722</v>
       </c>
       <c r="AO3">
         <v>140324.8501301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>59426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>59420.825</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-74976.79107530171</v>
       </c>
       <c r="AO4">
         <v>140878.3659696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540219074989171</v>
+        <v>0.0001540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.155273676548578</v>
+        <v>0.000155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548526590634024</v>
+        <v>0.0001548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711288974371398</v>
+        <v>0.0001711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.1694590296084882</v>
+        <v>0.0001694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711123734180587</v>
+        <v>0.0001711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668599069893508</v>
+        <v>0.0001668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664979777190556</v>
+        <v>0.0001664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>46340</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>38990</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>17307</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1765882270450548</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>44651</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>39440</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>15865</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1703217051288839</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039.00000000001</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480.00000000001</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15221.99999999999</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>58285</v>
       </c>
       <c r="X3">
-        <v>58279.78</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
         <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-74690.02540106722</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
         <v>140324.8501301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>59426</v>
       </c>
       <c r="X4">
-        <v>59420.825</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389.00000000001</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214.00000000001</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17610.99999999999</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-74976.79107530171</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
         <v>140878.3659696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540219074989171</v>
+        <v>0.1540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.000155273676548578</v>
+        <v>0.155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170.00000000001</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995.00000000001</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17429.99999999999</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548526590634024</v>
+        <v>0.1548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711288974371398</v>
+        <v>0.1711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.0001694590296084882</v>
+        <v>0.1694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42720.99999999999</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37532.99999999999</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179.00000000001</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711123734180587</v>
+        <v>0.1711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668599069893508</v>
+        <v>0.1668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328.00000000001</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059.00000000001</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17271.99999999999</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664979777190556</v>
+        <v>0.1664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43216.99999999999</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37632.99999999999</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483.00000000001</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45848.99999999999</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40635.99999999999</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564.00000000001</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195908</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482.00000000001</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271.00000000001</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21033.99999999999</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS42"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6208,6 +6208,143 @@
         <v>10.6963</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B43">
+        <v>126145</v>
+      </c>
+      <c r="C43">
+        <v>79302.32518062349</v>
+      </c>
+      <c r="D43">
+        <v>39121</v>
+      </c>
+      <c r="E43">
+        <v>7721.674819376505</v>
+      </c>
+      <c r="F43">
+        <v>8156.410363246972</v>
+      </c>
+      <c r="G43">
+        <v>71145.91481737651</v>
+      </c>
+      <c r="H43">
+        <v>101628.7020941492</v>
+      </c>
+      <c r="I43">
+        <v>92820.26808109933</v>
+      </c>
+      <c r="J43">
+        <v>8808.434096382529</v>
+      </c>
+      <c r="K43">
+        <v>274.1440487995934</v>
+      </c>
+      <c r="L43">
+        <v>7721.674819376505</v>
+      </c>
+      <c r="M43">
+        <v>4823.07072441063</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>88809.81250156248</v>
+      </c>
+      <c r="P43">
+        <v>54025.32070566079</v>
+      </c>
+      <c r="Q43">
+        <v>46403.91405071625</v>
+      </c>
+      <c r="R43">
+        <v>7621.406654944542</v>
+      </c>
+      <c r="S43">
+        <v>34784.4917959017</v>
+      </c>
+      <c r="T43">
+        <v>31135.30487245939</v>
+      </c>
+      <c r="U43">
+        <v>2462.159565336955</v>
+      </c>
+      <c r="V43">
+        <v>1187.027441437988</v>
+      </c>
+      <c r="W43">
+        <v>60829</v>
+      </c>
+      <c r="X43">
+        <v>53951</v>
+      </c>
+      <c r="Y43">
+        <v>6878</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>39980.00000000001</v>
+      </c>
+      <c r="AB43">
+        <v>33102.00000000001</v>
+      </c>
+      <c r="AC43">
+        <v>6878</v>
+      </c>
+      <c r="AD43">
+        <v>20840.99999999999</v>
+      </c>
+      <c r="AE43">
+        <v>60821</v>
+      </c>
+      <c r="AF43">
+        <v>53943</v>
+      </c>
+      <c r="AG43">
+        <v>6878</v>
+      </c>
+      <c r="AH43">
+        <v>24516.29790585078</v>
+      </c>
+      <c r="AI43">
+        <v>-5796.268081099333</v>
+      </c>
+      <c r="AJ43">
+        <v>30312.56590361747</v>
+      </c>
+      <c r="AK43">
+        <v>-36304.70209414922</v>
+      </c>
+      <c r="AL43">
+        <v>-59739.26808109933</v>
+      </c>
+      <c r="AM43">
+        <v>23434.56590361747</v>
+      </c>
+      <c r="AN43">
+        <v>-59747.26808109933</v>
+      </c>
+      <c r="AO43">
+        <v>162457.7020941492</v>
+      </c>
+      <c r="AP43">
+        <v>259475.37</v>
+      </c>
+      <c r="AQ43">
+        <v>0.4821514923302548</v>
+      </c>
+      <c r="AR43">
+        <v>0.1540801348505641</v>
+      </c>
+      <c r="AS43">
+        <v>12.0001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>-5498342</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5559000</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039.00000000001</v>
+        <v>44039000</v>
       </c>
       <c r="AB2">
-        <v>38480.00000000001</v>
+        <v>38480000</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5559000</v>
       </c>
       <c r="AD2">
-        <v>15221.99999999999</v>
+        <v>-43979739</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>-5499739</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5559000</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>5481383.766018815</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>-5526256.213386527</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>5479986.766018815</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>166.9603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>58285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>-5161715</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5220000</v>
       </c>
       <c r="Z3">
         <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39899000</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34679000</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5220000</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>-39842000</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>-5163000</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5220000</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>5146589.754598932</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>-5191581.604872927</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>5145304.754598932</v>
       </c>
       <c r="AO3">
         <v>140324.8501301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>150.8809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>59426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>-5115574</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5175000</v>
       </c>
       <c r="Z4">
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389.00000000001</v>
+        <v>40389000</v>
       </c>
       <c r="AB4">
-        <v>35214.00000000001</v>
+        <v>35214000</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5175000</v>
       </c>
       <c r="AD4">
-        <v>17610.99999999999</v>
+        <v>-40331000</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>-5117000</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5175000</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>5101444.033924698</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>-5145683.399894333</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>5100018.033924698</v>
       </c>
       <c r="AO4">
         <v>140878.3659696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540219074989171</v>
+        <v>154.0219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>-5137314</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5196000</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40305000</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35109000</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5196000</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>-40247300</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>-5138300</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5196000</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>5123088.259728409</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>-5169348.957865923</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>5122102.259728409</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.155273676548578</v>
+        <v>155.273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>-5116414</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5175000</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170.00000000001</v>
+        <v>40170000</v>
       </c>
       <c r="AB6">
-        <v>34995.00000000001</v>
+        <v>34995000</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5175000</v>
       </c>
       <c r="AD6">
-        <v>17429.99999999999</v>
+        <v>-40112400</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>-5117400</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5175000</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>5101206.332697526</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>-5147987.789646187</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>5100220.332697526</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548526590634024</v>
+        <v>154.8526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>-5185914</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5249000</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44786000</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39537000</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5249000</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>-44723900</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>-5186900</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5249000</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>5173271.157308945</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>-5221832.386265807</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>5172285.157308945</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711288974371398</v>
+        <v>171.1288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>-5075014</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5136000</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42779000</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37643000</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5136000</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>-42719000</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>-5076000</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5136000</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>5060186.058847234</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>-5107536.735949325</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>5059200.058847234</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.1694590296084882</v>
+        <v>169.4590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>-5127260</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5188000</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42720.99999999999</v>
+        <v>42721000</v>
       </c>
       <c r="AB9">
-        <v>37532.99999999999</v>
+        <v>37533000</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5188000</v>
       </c>
       <c r="AD9">
-        <v>17179.00000000001</v>
+        <v>-42661100</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>-5128100</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5188000</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>5110378.214412474</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>-5159735.882764023</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>5109538.214412474</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711123734180587</v>
+        <v>171.1123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>-5142060</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5202000</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41961000</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36759000</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5202000</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>-41901900</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>-5142900</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5202000</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>5124023.026276405</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>-5173333.996614245</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>5123183.026276405</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668599069893508</v>
+        <v>166.8599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>-5208560</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5269000</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328.00000000001</v>
+        <v>42328000</v>
       </c>
       <c r="AB11">
-        <v>37059.00000000001</v>
+        <v>37059000</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5269000</v>
       </c>
       <c r="AD11">
-        <v>17271.99999999999</v>
+        <v>-42268400</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>-5209400</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5269000</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>5190937.905407921</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>-5240091.349746174</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>5190097.905407921</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664979777190556</v>
+        <v>166.4979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>-5091360</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5152000</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42432000</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37280000</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5152000</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>-42372200</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>-5092200</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5152000</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>5075024.26770987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>-5122388.176167558</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>5074184.26770987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>167.6833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>-5522382</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5584000</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43216.99999999999</v>
+        <v>43217000</v>
       </c>
       <c r="AB13">
-        <v>37632.99999999999</v>
+        <v>37633000</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5584000</v>
       </c>
       <c r="AD13">
-        <v>17483.00000000001</v>
+        <v>-43156300</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>-5523300</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5584000</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>5505224.78260125</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>-5554102.953188262</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>5504306.78260125</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>170.8803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>-5505641</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5566000</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42279000</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36713000</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5566000</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>-42219200</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>-5506200</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5566000</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>5488119.631793118</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>-5535980.759842046</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>5487560.631793118</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>166.2283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>-5515541</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5576000</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42298000</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36722000</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5576000</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>-42238100</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>-5516100</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5576000</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>5498017.862200876</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>-5545346.687450976</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>5497458.862200876</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>165.8049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>-5615241</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5676000</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42514000</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36838000</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5676000</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>-42453800</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>-5615800</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5676000</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>5597511.699410914</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>-5644296.416601943</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>5596952.699410914</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>166.2293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>-5784441</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5845000</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42317000</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36472000</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5845000</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>-42257000</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>-5785000</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5845000</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>5764923.532879523</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>-5812718.445987453</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>5764364.532879523</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>164.9499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>-5806594</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5869000</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44400000</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38531000</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5869000</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>-44337900</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>-5806900</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5869000</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>5789199.328408577</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>-5836761.484292192</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>5788893.328408577</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>173.9791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>-5897788</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5961000</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45204000</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39243000</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5961000</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>-45141094</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>-5898094</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5961000</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>5881285.815655293</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>-5929420.555730077</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>5880979.815655293</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>176.4507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>-5858282</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5925000</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45735000</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39810000</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5925000</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>-45668588</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>-5858588</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5925000</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>5846568.667091822</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>-5894671.806940854</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>5846262.667091822</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>180.3540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>-5549453</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5616000</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45503000</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39887000</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5616000</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>-45436759</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>-5549759</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5616000</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>5540831.580578107</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>-5586301.298557621</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>5540525.580578107</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>178.8816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>-5495522</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5561000</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44766000</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39205000</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5561000</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>-44700756</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>-5495756</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5561000</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>5486393.672229393</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>-5531350.915429652</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>5486159.672229393</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>176.6020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>-5442460</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5508000</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44508000</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39000000</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5508000</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>-44442694</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>-5442694</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5508000</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>5435852.985736816</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>-5478053.62333222</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>5435618.985736816</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>173.9509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>-5459212</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5525000</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44771000</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39246000</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5525000</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>-44705446</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>-5459446</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5525000</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>5453209.868037574</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>-5494774.286880392</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>5452975.868037574</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>173.9517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>-5459366</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5525000</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44771000</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39246000</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5525000</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>-44705600</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>-5459600</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5525000</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>5453188.566363882</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>-5494938.978577891</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>5452954.566363882</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>173.610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>-5470769</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5537000</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45164000</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39627000</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5537000</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>-45098003</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>-5471003</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5537000</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>5465389.459311563</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>-5506915.003000883</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>5465155.459311563</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>173.6684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>-5458451</v>
       </c>
       <c r="Y27">
-        <v>5524.999999999999</v>
+        <v>5525000</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45606000</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40081000</v>
       </c>
       <c r="AC27">
-        <v>5524.999999999999</v>
+        <v>5525000</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>-45539603</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>-5458603</v>
       </c>
       <c r="AG27">
-        <v>5524.999999999999</v>
+        <v>5525000</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>5453765.860242547</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>-5495125.568623772</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>5453613.860242547</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>175.0558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>-5362390</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5428000</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44845000</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39417000</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5428000</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>-44779542</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>-5362542</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5428000</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>5357665.533917385</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>-5399150.448117775</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>5357513.533917385</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>171.465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>-5146435</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5213000</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45848.99999999999</v>
+        <v>45849000</v>
       </c>
       <c r="AB29">
-        <v>40635.99999999999</v>
+        <v>40636000</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5213000</v>
       </c>
       <c r="AD29">
-        <v>20564.00000000001</v>
+        <v>-45782587</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>-5146587</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5213000</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>5143003.305401182</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>-5183782.918471173</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>5142851.305401182</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195908</v>
+        <v>176.3246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>-5178020</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5245000</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46031000</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40786000</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5245000</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>-45964172</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>-5178172</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5245000</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>5175276.994352581</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>-5215799.198305775</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>5175124.994352581</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>173.7831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>-5129547</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5197000</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46570000</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41373000</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5197000</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>-46502590</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>-5129590</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5197000</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>5127626.9289267</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>-5167328.302215822</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>5127583.9289267</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>174.8415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>-5022911</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5091000</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47249000</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42158000</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5091000</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>-47180954</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>-5022954</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5091000</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>5022660.747209261</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>-5061988.950327802</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>5022617.747209261</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>177.564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>-5348404</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5417000</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47673000</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42256000</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5417000</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>-47604447</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>-5348447</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5417000</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>5348631.282931685</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>-5388941.116039904</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>5348588.282931685</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>179.7691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>-5325178</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5393000</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46964000</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41571000</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5393000</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>-46896221</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>-5325221</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5393000</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>5327493.296567495</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>-5364987.109673843</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>5327450.296567495</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>178.3782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>-5008367</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5075000</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45884000</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40809000</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5075000</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>-45817384</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>-5008384</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5075000</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>5010408.681871938</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>-5047880.955059976</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>5010391.681871938</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>176.2943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>-5013006</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5080000</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46150000</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41070000</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5080000</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>-46083023</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>-5013023</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5080000</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>5016097.130788069</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>-5053610.214391314</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>5016080.130788069</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>176.3108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>-5162933</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5231000</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47076000</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41845000</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5231000</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>-47007950</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>-5162950</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5231000</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>5166949.422529973</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>-5203029.310602083</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>5166932.422529973</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>179.5289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>-5233728</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5302000</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47365000</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42063000</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5302000</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>-47296745</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>-5233745</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5302000</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>5238045.929838354</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>-5274028.4954823</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>5238028.929838354</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>180.4796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>-5067663</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5136000</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47381000</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42245000</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5136000</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>-47312671</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>-5067671</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5136000</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>5072331.533523884</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>-5108164.023773111</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>5072323.533523884</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>182.0010170791942</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>-5202939</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5270000</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46196000</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40926000</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5270000</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>-46128947</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>-5202947</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5270000</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>5206519.320919863</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>-5241864.468415838</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>5206511.320919863</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>177.1940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>-7286345</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7350000</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42520000</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35170000</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7350000</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>-42456353</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>-7286353</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7350000</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>7283235.381970354</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>-7318429.213572653</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>7283227.381970354</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>162.0313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>-5150476</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5211000</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482.00000000001</v>
+        <v>39482000</v>
       </c>
       <c r="AB42">
-        <v>34271.00000000001</v>
+        <v>34271000</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5211000</v>
       </c>
       <c r="AD42">
-        <v>21033.99999999999</v>
+        <v>-39421484</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>-5150484</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5211000</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>5146051.068734048</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>-5181540.997672092</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>5146043.068734048</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>150.6045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>-6817171</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6878000</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980.00000000001</v>
+        <v>39980000</v>
       </c>
       <c r="AB43">
-        <v>33102.00000000001</v>
+        <v>33102000</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6878000</v>
       </c>
       <c r="AD43">
-        <v>20840.99999999999</v>
+        <v>-39919179</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>-6817179</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6878000</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>6811382.7319189</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>-6847687.434096383</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>6811374.7319189</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.1540801348505641</v>
+        <v>154.080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>-5498342</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5559000</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039000</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38480000</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
-        <v>5559000</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>-43979739</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>-5499739</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5559000</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>5481383.766018815</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>-5526256.213386527</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>5479986.766018815</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>166.9603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>58285</v>
       </c>
       <c r="X3">
-        <v>-5161715</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5220000</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
         <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39899000</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34679000</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5220000</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>-39842000</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>-5163000</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5220000</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>5146589.754598932</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>-5191581.604872927</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>5145304.754598932</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
         <v>140324.8501301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>150.8809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>59426</v>
       </c>
       <c r="X4">
-        <v>-5115574</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5175000</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
         <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389000</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35214000</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
-        <v>5175000</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>-40331000</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>-5117000</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5175000</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>5101444.033924698</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>-5145683.399894333</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>5100018.033924698</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
         <v>140878.3659696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>154.0219074989171</v>
+        <v>0.1540219074989171</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>-5137314</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5196000</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305000</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35109000</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5196000</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>-40247300</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>-5138300</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5196000</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>5123088.259728409</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>-5169348.957865923</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>5122102.259728409</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>155.273676548578</v>
+        <v>0.155273676548578</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>-5116414</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5175000</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170000</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34995000</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
-        <v>5175000</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>-40112400</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>-5117400</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5175000</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>5101206.332697526</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>-5147987.789646187</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>5100220.332697526</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>154.8526590634024</v>
+        <v>0.1548526590634024</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>-5185914</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5249000</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786000</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39537000</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5249000</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>-44723900</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>-5186900</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5249000</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>5173271.157308945</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>-5221832.386265807</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>5172285.157308945</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>171.1288974371398</v>
+        <v>0.1711288974371398</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>-5075014</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5136000</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779000</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37643000</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5136000</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>-42719000</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>-5076000</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5136000</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>5060186.058847234</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>-5107536.735949325</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>5059200.058847234</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>169.4590296084882</v>
+        <v>0.1694590296084882</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>-5127260</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5188000</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721000</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37533000</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
-        <v>5188000</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>-42661100</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>-5128100</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5188000</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>5110378.214412474</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>-5159735.882764023</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>5109538.214412474</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>171.1123734180587</v>
+        <v>0.1711123734180587</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>-5142060</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5202000</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961000</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36759000</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5202000</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>-41901900</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>-5142900</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5202000</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>5124023.026276405</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>-5173333.996614245</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>5123183.026276405</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>166.8599069893508</v>
+        <v>0.1668599069893508</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>-5208560</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5269000</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328000</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37059000</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
-        <v>5269000</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>-42268400</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>-5209400</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5269000</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>5190937.905407921</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>-5240091.349746174</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>5190097.905407921</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>166.4979777190556</v>
+        <v>0.1664979777190556</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>-5091360</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5152000</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432000</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37280000</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5152000</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>-42372200</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>-5092200</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5152000</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>5075024.26770987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>-5122388.176167558</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>5074184.26770987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>167.6833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>-5522382</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5584000</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217000</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37633000</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
-        <v>5584000</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>-43156300</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>-5523300</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5584000</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>5505224.78260125</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>-5554102.953188262</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>5504306.78260125</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>170.8803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>-5505641</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5566000</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279000</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36713000</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5566000</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>-42219200</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>-5506200</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5566000</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>5488119.631793118</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>-5535980.759842046</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>5487560.631793118</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>166.2283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>-5515541</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5576000</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298000</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36722000</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5576000</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>-42238100</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>-5516100</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5576000</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>5498017.862200876</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>-5545346.687450976</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>5497458.862200876</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>165.8049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>-5615241</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5676000</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514000</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36838000</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5676000</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>-42453800</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>-5615800</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5676000</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>5597511.699410914</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>-5644296.416601943</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>5596952.699410914</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>166.2293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>-5784441</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5845000</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317000</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36472000</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5845000</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>-42257000</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>-5785000</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5845000</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>5764923.532879523</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>-5812718.445987453</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>5764364.532879523</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>164.9499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>-5806594</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5869000</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400000</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38531000</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5869000</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>-44337900</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>-5806900</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5869000</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>5789199.328408577</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>-5836761.484292192</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>5788893.328408577</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>173.9791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>-5897788</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5961000</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204000</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39243000</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5961000</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>-45141094</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>-5898094</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5961000</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>5881285.815655293</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>-5929420.555730077</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>5880979.815655293</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>176.4507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>-5858282</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5925000</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735000</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39810000</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5925000</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>-45668588</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>-5858588</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5925000</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>5846568.667091822</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>-5894671.806940854</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>5846262.667091822</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>180.3540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>-5549453</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5616000</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503000</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39887000</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5616000</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>-45436759</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>-5549759</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5616000</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>5540831.580578107</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>-5586301.298557621</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>5540525.580578107</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>178.8816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>-5495522</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5561000</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766000</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39205000</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5561000</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>-44700756</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>-5495756</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5561000</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>5486393.672229393</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>-5531350.915429652</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>5486159.672229393</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>176.6020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>-5442460</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5508000</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508000</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39000000</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5508000</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>-44442694</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>-5442694</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5508000</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>5435852.985736816</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>-5478053.62333222</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>5435618.985736816</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>173.9509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>-5459212</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771000</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39246000</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>-44705446</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>-5459446</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>5453209.868037574</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>-5494774.286880392</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>5452975.868037574</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>173.9517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>-5459366</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771000</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39246000</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>-44705600</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>-5459600</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>5453188.566363882</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>-5494938.978577891</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>5452954.566363882</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>173.610673517976</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>-5470769</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5537000</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164000</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39627000</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5537000</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>-45098003</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>-5471003</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5537000</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>5465389.459311563</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>-5506915.003000883</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>5465155.459311563</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>173.6684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>-5458451</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606000</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40081000</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
-        <v>-45539603</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>-5458603</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5525000</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>5453765.860242547</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>-5495125.568623772</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>5453613.860242547</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>175.0558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>-5362390</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5428000</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845000</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39417000</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5428000</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>-44779542</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>-5362542</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5428000</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>5357665.533917385</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>-5399150.448117775</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>5357513.533917385</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>171.465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>-5146435</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5213000</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849000</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40636000</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
-        <v>5213000</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>-45782587</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>-5146587</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5213000</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>5143003.305401182</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>-5183782.918471173</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>5142851.305401182</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>176.3246413195909</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>-5178020</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5245000</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031000</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40786000</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5245000</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>-45964172</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>-5178172</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5245000</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>5175276.994352581</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>-5215799.198305775</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>5175124.994352581</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>173.7831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>-5129547</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5197000</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570000</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41373000</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5197000</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>-46502590</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>-5129590</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5197000</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>5127626.9289267</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>-5167328.302215822</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>5127583.9289267</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>174.8415838387357</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>-5022911</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5091000</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249000</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42158000</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5091000</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>-47180954</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>-5022954</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5091000</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>5022660.747209261</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>-5061988.950327802</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>5022617.747209261</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>177.564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>-5348404</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5417000</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673000</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42256000</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5417000</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>-47604447</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>-5348447</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5417000</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>5348631.282931685</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>-5388941.116039904</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>5348588.282931685</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>179.7691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>-5325178</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5393000</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964000</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41571000</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5393000</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>-46896221</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>-5325221</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5393000</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>5327493.296567495</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>-5364987.109673843</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>5327450.296567495</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>178.3782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>-5008367</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5075000</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884000</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40809000</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5075000</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>-45817384</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>-5008384</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5075000</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>5010408.681871938</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>-5047880.955059976</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>5010391.681871938</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>176.2943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>-5013006</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5080000</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150000</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41070000</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5080000</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>-46083023</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>-5013023</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5080000</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>5016097.130788069</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>-5053610.214391314</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>5016080.130788069</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>176.3108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>-5162933</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5231000</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076000</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41845000</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5231000</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>-47007950</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>-5162950</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5231000</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>5166949.422529973</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>-5203029.310602083</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>5166932.422529973</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>179.5289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>-5233728</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5302000</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365000</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42063000</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5302000</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>-47296745</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>-5233745</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5302000</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>5238045.929838354</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>-5274028.4954823</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>5238028.929838354</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>180.4796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>-5067663</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5136000</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381000</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42245000</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5136000</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>-47312671</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>-5067671</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5136000</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>5072331.533523884</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>-5108164.023773111</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>5072323.533523884</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>182.0010170791942</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>-5202939</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5270000</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196000</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40926000</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5270000</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>-46128947</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>-5202947</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5270000</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>5206519.320919863</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>-5241864.468415838</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>5206511.320919863</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>177.1940556449785</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>-7286345</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7350000</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520000</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35170000</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7350000</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>-42456353</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>-7286353</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7350000</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>7283235.381970354</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>-7318429.213572653</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>7283227.381970354</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>162.0313209744438</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>-5150476</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5211000</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482000</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34271000</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
-        <v>5211000</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>-39421484</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>-5150484</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5211000</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>5146051.068734048</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>-5181540.997672092</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>5146043.068734048</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>150.6045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>-6817171</v>
+        <v>53951</v>
       </c>
       <c r="Y43">
-        <v>6878000</v>
+        <v>6878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980000</v>
+        <v>39980</v>
       </c>
       <c r="AB43">
-        <v>33102000</v>
+        <v>33102</v>
       </c>
       <c r="AC43">
-        <v>6878000</v>
+        <v>6878</v>
       </c>
       <c r="AD43">
-        <v>-39919179</v>
+        <v>20841</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>-6817179</v>
+        <v>53943</v>
       </c>
       <c r="AG43">
-        <v>6878000</v>
+        <v>6878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>6811382.7319189</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>-6847687.434096383</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>6811374.7319189</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>154.080134850564</v>
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6345,6 +6345,143 @@
         <v>12.0001</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B44">
+        <v>124025</v>
+      </c>
+      <c r="C44">
+        <v>77251.88611664317</v>
+      </c>
+      <c r="D44">
+        <v>39017</v>
+      </c>
+      <c r="E44">
+        <v>7756.113883356828</v>
+      </c>
+      <c r="F44">
+        <v>8329.857906867461</v>
+      </c>
+      <c r="G44">
+        <v>68922.02820977572</v>
+      </c>
+      <c r="H44">
+        <v>101703.8873100763</v>
+      </c>
+      <c r="I44">
+        <v>92940.77692497036</v>
+      </c>
+      <c r="J44">
+        <v>8763.110385105954</v>
+      </c>
+      <c r="K44">
+        <v>274.3460359372552</v>
+      </c>
+      <c r="L44">
+        <v>7756.113883356828</v>
+      </c>
+      <c r="M44">
+        <v>4837.432328611813</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>88835.99506217041</v>
+      </c>
+      <c r="P44">
+        <v>54159.16825169505</v>
+      </c>
+      <c r="Q44">
+        <v>46601.39213975102</v>
+      </c>
+      <c r="R44">
+        <v>7557.776111944027</v>
+      </c>
+      <c r="S44">
+        <v>34676.82681047536</v>
+      </c>
+      <c r="T44">
+        <v>31209.39388514698</v>
+      </c>
+      <c r="U44">
+        <v>2262.098652166454</v>
+      </c>
+      <c r="V44">
+        <v>1205.334273161926</v>
+      </c>
+      <c r="W44">
+        <v>60792</v>
+      </c>
+      <c r="X44">
+        <v>54067</v>
+      </c>
+      <c r="Y44">
+        <v>6725</v>
+      </c>
+      <c r="Z44">
+        <v>392</v>
+      </c>
+      <c r="AA44">
+        <v>39533</v>
+      </c>
+      <c r="AB44">
+        <v>32808</v>
+      </c>
+      <c r="AC44">
+        <v>6725</v>
+      </c>
+      <c r="AD44">
+        <v>20867</v>
+      </c>
+      <c r="AE44">
+        <v>60400</v>
+      </c>
+      <c r="AF44">
+        <v>53675</v>
+      </c>
+      <c r="AG44">
+        <v>6725</v>
+      </c>
+      <c r="AH44">
+        <v>22321.1126899237</v>
+      </c>
+      <c r="AI44">
+        <v>-7932.776924970356</v>
+      </c>
+      <c r="AJ44">
+        <v>30253.88961489405</v>
+      </c>
+      <c r="AK44">
+        <v>-38078.8873100763</v>
+      </c>
+      <c r="AL44">
+        <v>-61607.77692497036</v>
+      </c>
+      <c r="AM44">
+        <v>23528.88961489405</v>
+      </c>
+      <c r="AN44">
+        <v>-61999.77692497036</v>
+      </c>
+      <c r="AO44">
+        <v>162495.8873100763</v>
+      </c>
+      <c r="AP44">
+        <v>257626.49</v>
+      </c>
+      <c r="AQ44">
+        <v>0.4869985889941544</v>
+      </c>
+      <c r="AR44">
+        <v>0.153450834966544</v>
+      </c>
+      <c r="AS44">
+        <v>13.4067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS44"/>
+  <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,13 +990,13 @@
         <v>140878.3659696346</v>
       </c>
       <c r="AP4">
-        <v>262228.93</v>
+        <v>262229.34</v>
       </c>
       <c r="AQ4">
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540219074989171</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1127,13 +1127,13 @@
         <v>138909.6980033278</v>
       </c>
       <c r="AP5">
-        <v>259573.94</v>
+        <v>259574.43</v>
       </c>
       <c r="AQ5">
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.155273676548578</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1264,13 +1264,13 @@
         <v>139378.4569486608</v>
       </c>
       <c r="AP6">
-        <v>259407.88</v>
+        <v>259408.34</v>
       </c>
       <c r="AQ6">
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548526590634024</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1401,13 +1401,13 @@
         <v>142708.228956861</v>
       </c>
       <c r="AP7">
-        <v>261709.16</v>
+        <v>261709.55</v>
       </c>
       <c r="AQ7">
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711288974371398</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1538,13 +1538,13 @@
         <v>138974.6771020917</v>
       </c>
       <c r="AP8">
-        <v>252444.5</v>
+        <v>252444.9</v>
       </c>
       <c r="AQ8">
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.1694590296084882</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1675,13 +1675,13 @@
         <v>137643.6683515488</v>
       </c>
       <c r="AP9">
-        <v>249666.34</v>
+        <v>249666.78</v>
       </c>
       <c r="AQ9">
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711123734180587</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1812,13 +1812,13 @@
         <v>139470.9702151672</v>
       </c>
       <c r="AP10">
-        <v>251474.43</v>
+        <v>251474.86</v>
       </c>
       <c r="AQ10">
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668599069893508</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1949,13 +1949,13 @@
         <v>139533.4443382527</v>
       </c>
       <c r="AP11">
-        <v>254225.31</v>
+        <v>254225.71</v>
       </c>
       <c r="AQ11">
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664979777190556</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -6480,6 +6480,143 @@
       </c>
       <c r="AS44">
         <v>13.4067</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B45">
+        <v>122890</v>
+      </c>
+      <c r="C45">
+        <v>76402.00801851097</v>
+      </c>
+      <c r="D45">
+        <v>38737</v>
+      </c>
+      <c r="E45">
+        <v>7750.991981489027</v>
+      </c>
+      <c r="F45">
+        <v>8297.574145759358</v>
+      </c>
+      <c r="G45">
+        <v>68104.43387275162</v>
+      </c>
+      <c r="H45">
+        <v>101863.0975318703</v>
+      </c>
+      <c r="I45">
+        <v>94226.7577420106</v>
+      </c>
+      <c r="J45">
+        <v>7636.339862622969</v>
+      </c>
+      <c r="K45">
+        <v>273.816578380581</v>
+      </c>
+      <c r="L45">
+        <v>7750.991981489027</v>
+      </c>
+      <c r="M45">
+        <v>4836.816170906339</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>89001.47280109435</v>
+      </c>
+      <c r="P45">
+        <v>53546.49834099773</v>
+      </c>
+      <c r="Q45">
+        <v>46337.41050119331</v>
+      </c>
+      <c r="R45">
+        <v>7209.087912567669</v>
+      </c>
+      <c r="S45">
+        <v>35454.97446009663</v>
+      </c>
+      <c r="T45">
+        <v>33099.86735258164</v>
+      </c>
+      <c r="U45">
+        <v>1927.855157459689</v>
+      </c>
+      <c r="V45">
+        <v>427.2519500553</v>
+      </c>
+      <c r="W45">
+        <v>60348</v>
+      </c>
+      <c r="X45">
+        <v>53121</v>
+      </c>
+      <c r="Y45">
+        <v>7227</v>
+      </c>
+      <c r="Z45">
+        <v>392</v>
+      </c>
+      <c r="AA45">
+        <v>38991</v>
+      </c>
+      <c r="AB45">
+        <v>31764</v>
+      </c>
+      <c r="AC45">
+        <v>7227</v>
+      </c>
+      <c r="AD45">
+        <v>20965</v>
+      </c>
+      <c r="AE45">
+        <v>59956</v>
+      </c>
+      <c r="AF45">
+        <v>52729</v>
+      </c>
+      <c r="AG45">
+        <v>7227</v>
+      </c>
+      <c r="AH45">
+        <v>21026.9024681297</v>
+      </c>
+      <c r="AI45">
+        <v>-10073.7577420106</v>
+      </c>
+      <c r="AJ45">
+        <v>31100.66013737703</v>
+      </c>
+      <c r="AK45">
+        <v>-38929.0975318703</v>
+      </c>
+      <c r="AL45">
+        <v>-62802.7577420106</v>
+      </c>
+      <c r="AM45">
+        <v>23873.66013737703</v>
+      </c>
+      <c r="AN45">
+        <v>-63194.7577420106</v>
+      </c>
+      <c r="AO45">
+        <v>162211.0975318703</v>
+      </c>
+      <c r="AP45">
+        <v>258126.08</v>
+      </c>
+      <c r="AQ45">
+        <v>0.4878834730246562</v>
+      </c>
+      <c r="AR45">
+        <v>0.1510540895364002</v>
+      </c>
+      <c r="AS45">
+        <v>13.7432</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS45"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6619,6 +6619,143 @@
         <v>13.7432</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B46">
+        <v>116873</v>
+      </c>
+      <c r="C46">
+        <v>70621.12258904272</v>
+      </c>
+      <c r="D46">
+        <v>38506</v>
+      </c>
+      <c r="E46">
+        <v>7745.877410957282</v>
+      </c>
+      <c r="F46">
+        <v>8198.895725686638</v>
+      </c>
+      <c r="G46">
+        <v>62422.22686335607</v>
+      </c>
+      <c r="H46">
+        <v>104859.0792016724</v>
+      </c>
+      <c r="I46">
+        <v>97274.63127309064</v>
+      </c>
+      <c r="J46">
+        <v>7584.447994320198</v>
+      </c>
+      <c r="K46">
+        <v>271.2761803336883</v>
+      </c>
+      <c r="L46">
+        <v>7745.877410957282</v>
+      </c>
+      <c r="M46">
+        <v>4833.618769639359</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>92008.30684074205</v>
+      </c>
+      <c r="P46">
+        <v>53523.8272919707</v>
+      </c>
+      <c r="Q46">
+        <v>46307.66536504556</v>
+      </c>
+      <c r="R46">
+        <v>7216.161992663589</v>
+      </c>
+      <c r="S46">
+        <v>38484.47948303291</v>
+      </c>
+      <c r="T46">
+        <v>35769.46429745329</v>
+      </c>
+      <c r="U46">
+        <v>2346.729249661447</v>
+      </c>
+      <c r="V46">
+        <v>368.2860016566087</v>
+      </c>
+      <c r="W46">
+        <v>59268</v>
+      </c>
+      <c r="X46">
+        <v>52088</v>
+      </c>
+      <c r="Y46">
+        <v>7180</v>
+      </c>
+      <c r="Z46">
+        <v>401</v>
+      </c>
+      <c r="AA46">
+        <v>37900</v>
+      </c>
+      <c r="AB46">
+        <v>30720</v>
+      </c>
+      <c r="AC46">
+        <v>7180</v>
+      </c>
+      <c r="AD46">
+        <v>20967</v>
+      </c>
+      <c r="AE46">
+        <v>58867</v>
+      </c>
+      <c r="AF46">
+        <v>51687</v>
+      </c>
+      <c r="AG46">
+        <v>7180</v>
+      </c>
+      <c r="AH46">
+        <v>12013.92079832761</v>
+      </c>
+      <c r="AI46">
+        <v>-18907.63127309064</v>
+      </c>
+      <c r="AJ46">
+        <v>30921.5520056798</v>
+      </c>
+      <c r="AK46">
+        <v>-46853.07920167239</v>
+      </c>
+      <c r="AL46">
+        <v>-70594.63127309064</v>
+      </c>
+      <c r="AM46">
+        <v>23741.5520056798</v>
+      </c>
+      <c r="AN46">
+        <v>-70995.63127309064</v>
+      </c>
+      <c r="AO46">
+        <v>164127.0792016724</v>
+      </c>
+      <c r="AP46">
+        <v>264458</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5036834854927998</v>
+      </c>
+      <c r="AR46">
+        <v>0.1433119814866633</v>
+      </c>
+      <c r="AS46">
+        <v>15.2118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -596,67 +596,67 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>93206.00000000002</v>
+        <v>93206</v>
       </c>
       <c r="C2">
-        <v>48432.21042132787</v>
+        <v>48431.13538884842</v>
       </c>
       <c r="D2">
         <v>43241</v>
       </c>
       <c r="E2">
-        <v>1532.78957867213</v>
+        <v>1533.864611151574</v>
       </c>
       <c r="F2">
-        <v>8784.572606949349</v>
+        <v>8790.733727172183</v>
       </c>
       <c r="G2">
-        <v>39647.63781437853</v>
+        <v>39640.40166167624</v>
       </c>
       <c r="H2">
-        <v>78817.44736771168</v>
+        <v>78872.72652477678</v>
       </c>
       <c r="I2">
-        <v>68320.23398118447</v>
+        <v>68368.15084567452</v>
       </c>
       <c r="J2">
-        <v>10497.21338652721</v>
+        <v>10504.57567910227</v>
       </c>
       <c r="K2">
-        <v>347.0233442057309</v>
+        <v>347.2667314072995</v>
       </c>
       <c r="L2">
-        <v>1532.78957867213</v>
+        <v>1533.864611151574</v>
       </c>
       <c r="M2">
-        <v>3524.284982613149</v>
+        <v>3526.756764047369</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>73413.34946222066</v>
+        <v>73464.83841817053</v>
       </c>
       <c r="P2">
-        <v>42939.32177804135</v>
+        <v>42969.4375657522</v>
       </c>
       <c r="Q2">
-        <v>32656.18244062862</v>
+        <v>32679.08607806642</v>
       </c>
       <c r="R2">
-        <v>10283.13947219452</v>
+        <v>10290.35162256211</v>
       </c>
       <c r="S2">
-        <v>30474.02768417931</v>
+        <v>30495.40085241833</v>
       </c>
       <c r="T2">
-        <v>25534.34644310861</v>
+        <v>25552.25513204392</v>
       </c>
       <c r="U2">
-        <v>4725.607191956223</v>
+        <v>4728.921528957946</v>
       </c>
       <c r="V2">
-        <v>214.0739143326954</v>
+        <v>214.2240565401527</v>
       </c>
       <c r="W2">
         <v>60658</v>
@@ -692,40 +692,40 @@
         <v>5559</v>
       </c>
       <c r="AH2">
-        <v>14388.55263228834</v>
+        <v>14333.27347522322</v>
       </c>
       <c r="AI2">
-        <v>-18355.23398118447</v>
+        <v>-18403.15084567452</v>
       </c>
       <c r="AJ2">
-        <v>32743.78661347279</v>
+        <v>32736.42432089774</v>
       </c>
       <c r="AK2">
-        <v>-44872.44736771166</v>
+        <v>-44927.72652477678</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-72105.15084567452</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>27177.42432089774</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-73502.15084567452</v>
       </c>
       <c r="AO2">
-        <v>139475.4473677117</v>
+        <v>139530.7265247768</v>
       </c>
       <c r="AP2">
         <v>263769.22</v>
       </c>
       <c r="AQ2">
-        <v>0.6358067077226787</v>
+        <v>0.6358067077226788</v>
       </c>
       <c r="AR2">
         <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
-        <v>7.4194</v>
+        <v>7.4142</v>
       </c>
     </row>
     <row r="3">
@@ -736,64 +736,64 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52321.66853164957</v>
+        <v>52320.58078816316</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="F3">
-        <v>8876.629654666533</v>
+        <v>8882.889979561876</v>
       </c>
       <c r="G3">
-        <v>43445.03887698304</v>
+        <v>43437.69080860129</v>
       </c>
       <c r="H3">
-        <v>82039.85013016526</v>
+        <v>82097.70949077405</v>
       </c>
       <c r="I3">
-        <v>70274.24540106722</v>
+        <v>70323.80696047669</v>
       </c>
       <c r="J3">
-        <v>11765.60487292706</v>
+        <v>11773.90267422781</v>
       </c>
       <c r="K3">
-        <v>342.488961123017</v>
+        <v>342.7305046201676</v>
       </c>
       <c r="L3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="M3">
-        <v>4913.384009089994</v>
+        <v>4916.849218457641</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75241.64569160182</v>
+        <v>75294.71055585941</v>
       </c>
       <c r="P3">
-        <v>45911.31215211357</v>
+        <v>45943.69152825355</v>
       </c>
       <c r="Q3">
-        <v>34936.71782185338</v>
+        <v>34961.35726416995</v>
       </c>
       <c r="R3">
-        <v>10974.5944740892</v>
+        <v>10982.33440801405</v>
       </c>
       <c r="S3">
-        <v>29330.33339565924</v>
+        <v>29351.01888367541</v>
       </c>
       <c r="T3">
-        <v>25497.94151912207</v>
+        <v>25515.92417743746</v>
       </c>
       <c r="U3">
-        <v>3041.381621528327</v>
+        <v>3043.526583954633</v>
       </c>
       <c r="V3">
-        <v>791.0103988378615</v>
+        <v>791.5682662137655</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>12008.14986983474</v>
+        <v>11950.29050922595</v>
       </c>
       <c r="AI3">
-        <v>-16410.24540106722</v>
+        <v>-16459.80696047669</v>
       </c>
       <c r="AJ3">
-        <v>28418.39512707294</v>
+        <v>28410.09732577219</v>
       </c>
       <c r="AK3">
-        <v>-44991.85013016526</v>
+        <v>-45049.70949077405</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-68239.80696047669</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>23190.09732577219</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-69524.80696047669</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>140382.7094907741</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9527</v>
+        <v>6.9478</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213.00000000002</v>
+        <v>95213</v>
       </c>
       <c r="C4">
-        <v>52943.16064178856</v>
+        <v>52942.0817820074</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="F4">
-        <v>8945.758995606473</v>
+        <v>8951.982218883044</v>
       </c>
       <c r="G4">
-        <v>43997.40164618209</v>
+        <v>43990.09956312436</v>
       </c>
       <c r="H4">
-        <v>81452.36596963462</v>
+        <v>81509.02927345075</v>
       </c>
       <c r="I4">
-        <v>70049.96607530171</v>
+        <v>70098.69716448228</v>
       </c>
       <c r="J4">
-        <v>11402.39989433291</v>
+        <v>11410.33210896847</v>
       </c>
       <c r="K4">
-        <v>370.3677492909181</v>
+        <v>370.6254000055653</v>
       </c>
       <c r="L4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="M4">
-        <v>4932.295200489405</v>
+        <v>4935.726410106575</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74598.86366164284</v>
+        <v>74650.75924534601</v>
       </c>
       <c r="P4">
-        <v>46171.38048495634</v>
+        <v>46203.50015304561</v>
       </c>
       <c r="Q4">
-        <v>35139.53701128969</v>
+        <v>35163.98224670952</v>
       </c>
       <c r="R4">
-        <v>11031.84347366665</v>
+        <v>11039.51790633609</v>
       </c>
       <c r="S4">
-        <v>28427.4831766865</v>
+        <v>28447.25909230041</v>
       </c>
       <c r="T4">
-        <v>24889.26464045381</v>
+        <v>24906.5791524056</v>
       </c>
       <c r="U4">
-        <v>3167.662115566431</v>
+        <v>3169.865737262431</v>
       </c>
       <c r="V4">
-        <v>370.5564206662588</v>
+        <v>370.8142026323844</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13760.6340303654</v>
+        <v>13703.97072654925</v>
       </c>
       <c r="AI4">
-        <v>-15555.96607530171</v>
+        <v>-15604.69716448228</v>
       </c>
       <c r="AJ4">
-        <v>29316.60010566709</v>
+        <v>29308.66789103153</v>
       </c>
       <c r="AK4">
-        <v>-44239.3659696346</v>
+        <v>-44296.02927345075</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-68429.69716448228</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>24133.66789103153</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-69855.69716448228</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>140935.0292734508</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953849</v>
+        <v>0.6091605137953851</v>
       </c>
       <c r="AR4">
         <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1924</v>
+        <v>7.1874</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51706.75148945306</v>
+        <v>51705.67601246106</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="F5">
-        <v>8869.395094197842</v>
+        <v>8875.588140509184</v>
       </c>
       <c r="G5">
-        <v>42837.35639525522</v>
+        <v>42830.08787195187</v>
       </c>
       <c r="H5">
-        <v>80223.69800332779</v>
+        <v>80279.71412074337</v>
       </c>
       <c r="I5">
-        <v>68458.74027159036</v>
+        <v>68506.54151896015</v>
       </c>
       <c r="J5">
-        <v>11764.95786592239</v>
+        <v>11773.17273606188</v>
       </c>
       <c r="K5">
-        <v>341.452149643068</v>
+        <v>341.6905682672683</v>
       </c>
       <c r="L5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="M5">
-        <v>4913.17132735763</v>
+        <v>4916.601944354926</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73428.82601578016</v>
+        <v>73480.09762058224</v>
       </c>
       <c r="P5">
-        <v>44873.82105093661</v>
+        <v>44905.15415189602</v>
       </c>
       <c r="Q5">
-        <v>33600.03582738447</v>
+        <v>33623.49701901386</v>
       </c>
       <c r="R5">
-        <v>11273.78535773711</v>
+        <v>11281.65726716081</v>
       </c>
       <c r="S5">
-        <v>28555.00496484354</v>
+        <v>28574.94346868622</v>
       </c>
       <c r="T5">
-        <v>25287.92214588589</v>
+        <v>25305.5794123966</v>
       </c>
       <c r="U5">
-        <v>2775.910310772369</v>
+        <v>2777.848587388549</v>
       </c>
       <c r="V5">
-        <v>491.1725081852826</v>
+        <v>491.5154689010635</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11439.30199667221</v>
+        <v>11383.28587925663</v>
       </c>
       <c r="AI5">
-        <v>-15211.74027159036</v>
+        <v>-15259.54151896015</v>
       </c>
       <c r="AJ5">
-        <v>26651.04213407761</v>
+        <v>26642.82726393813</v>
       </c>
       <c r="AK5">
-        <v>-46260.69800332779</v>
+        <v>-46316.71412074337</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-67763.54151896015</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>21446.82726393813</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-68749.54151896015</v>
       </c>
       <c r="AO5">
-        <v>138909.6980033278</v>
+        <v>138965.7141207434</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4524</v>
+        <v>7.4472</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51129.47699003304</v>
+        <v>51128.4043874506</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="F6">
-        <v>8672.528409854122</v>
+        <v>8678.590343307256</v>
       </c>
       <c r="G6">
-        <v>42456.94858017892</v>
+        <v>42449.81404414335</v>
       </c>
       <c r="H6">
-        <v>80792.45694866077</v>
+        <v>80848.92934914106</v>
       </c>
       <c r="I6">
-        <v>68857.66730247428</v>
+        <v>68905.79751055193</v>
       </c>
       <c r="J6">
-        <v>11934.7896461865</v>
+        <v>11943.13183858913</v>
       </c>
       <c r="K6">
-        <v>338.8779786691025</v>
+        <v>339.1148479716106</v>
       </c>
       <c r="L6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="M6">
-        <v>4902.492410606345</v>
+        <v>4905.919160147324</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74016.56354941837</v>
+        <v>74068.29972847273</v>
       </c>
       <c r="P6">
-        <v>44928.81927840313</v>
+        <v>44960.22367395221</v>
       </c>
       <c r="Q6">
-        <v>33481.6469655858</v>
+        <v>33505.05000403259</v>
       </c>
       <c r="R6">
-        <v>11447.17231281734</v>
+        <v>11455.17366991962</v>
       </c>
       <c r="S6">
-        <v>29087.74427101523</v>
+        <v>29108.07605452053</v>
       </c>
       <c r="T6">
-        <v>26405.42943878784</v>
+        <v>26423.88633491948</v>
       </c>
       <c r="U6">
-        <v>2194.697498858233</v>
+        <v>2196.231550931527</v>
       </c>
       <c r="V6">
-        <v>487.6173333691535</v>
+        <v>487.9581686695164</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10818.54305133924</v>
+        <v>10762.07065085894</v>
       </c>
       <c r="AI6">
-        <v>-16193.66730247428</v>
+        <v>-16241.79751055193</v>
       </c>
       <c r="AJ6">
-        <v>27012.21035381351</v>
+        <v>27003.86816141087</v>
       </c>
       <c r="AK6">
-        <v>-46781.45694866077</v>
+        <v>-46837.92934914106</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-68666.79751055193</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>21828.86816141087</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-69652.79751055193</v>
       </c>
       <c r="AO6">
-        <v>139378.4569486608</v>
+        <v>139434.9293491411</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4446</v>
+        <v>7.4394</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52364.30885172918</v>
+        <v>52363.23865755962</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="F7">
-        <v>8696.179850616174</v>
+        <v>8702.247956951733</v>
       </c>
       <c r="G7">
-        <v>43668.129001113</v>
+        <v>43660.99070060789</v>
       </c>
       <c r="H7">
-        <v>79622.22895686104</v>
+        <v>79677.78854282686</v>
       </c>
       <c r="I7">
-        <v>67526.84269105439</v>
+        <v>67573.962238832</v>
       </c>
       <c r="J7">
-        <v>12095.38626580666</v>
+        <v>12103.82630399485</v>
       </c>
       <c r="K7">
-        <v>338.3054188513269</v>
+        <v>338.5414849505509</v>
       </c>
       <c r="L7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="M7">
-        <v>4901.864615879742</v>
+        <v>4905.285087425022</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72848.36777385917</v>
+        <v>72899.20062801091</v>
       </c>
       <c r="P7">
-        <v>44459.59408901345</v>
+        <v>44490.61754404799</v>
       </c>
       <c r="Q7">
-        <v>33268.97295267724</v>
+        <v>33292.187705479</v>
       </c>
       <c r="R7">
-        <v>11190.62113633621</v>
+        <v>11198.42983856899</v>
       </c>
       <c r="S7">
-        <v>28388.77368484572</v>
+        <v>28408.58308396291</v>
       </c>
       <c r="T7">
-        <v>25430.69287811943</v>
+        <v>25448.43815837147</v>
       </c>
       <c r="U7">
-        <v>2053.315677255843</v>
+        <v>2054.748460165591</v>
       </c>
       <c r="V7">
-        <v>904.7651294704517</v>
+        <v>905.3964654258532</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13538.77104313896</v>
+        <v>13483.21145717314</v>
       </c>
       <c r="AI7">
-        <v>-13628.84269105439</v>
+        <v>-13675.962238832</v>
       </c>
       <c r="AJ7">
-        <v>27167.61373419334</v>
+        <v>27159.17369600515</v>
       </c>
       <c r="AK7">
-        <v>-48561.22895686104</v>
+        <v>-48616.78854282686</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-70526.962238832</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>21910.17369600515</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-71512.962238832</v>
       </c>
       <c r="AO7">
-        <v>142708.228956861</v>
+        <v>142763.7885428269</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4573</v>
+        <v>7.4521</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49368.60578775706</v>
+        <v>49367.53001146775</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="F8">
-        <v>8633.890742862901</v>
+        <v>8639.983743525765</v>
       </c>
       <c r="G8">
-        <v>40734.71504489415</v>
+        <v>40727.54626794198</v>
       </c>
       <c r="H8">
-        <v>77988.67710209171</v>
+        <v>78043.71428931483</v>
       </c>
       <c r="I8">
-        <v>66706.94115276607</v>
+        <v>66754.0167353471</v>
       </c>
       <c r="J8">
-        <v>11281.73594932564</v>
+        <v>11289.69755396772</v>
       </c>
       <c r="K8">
-        <v>334.1376922011359</v>
+        <v>334.3734956460373</v>
       </c>
       <c r="L8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="M8">
-        <v>4885.44270800539</v>
+        <v>4888.89040111905</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71244.70248964224</v>
+        <v>71294.98040401749</v>
       </c>
       <c r="P8">
-        <v>44239.09884270045</v>
+        <v>44270.31870250652</v>
       </c>
       <c r="Q8">
-        <v>33080.09872936317</v>
+        <v>33103.44360011593</v>
       </c>
       <c r="R8">
-        <v>11158.99998740697</v>
+        <v>11166.8749763714</v>
       </c>
       <c r="S8">
-        <v>27005.60364694179</v>
+        <v>27024.66170151097</v>
       </c>
       <c r="T8">
-        <v>25178.00551574759</v>
+        <v>25195.77382077552</v>
       </c>
       <c r="U8">
-        <v>1704.862295205833</v>
+        <v>1706.065429158318</v>
       </c>
       <c r="V8">
-        <v>122.7359619186742</v>
+        <v>122.8225775963102</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12649.32289790829</v>
+        <v>12594.28571068517</v>
       </c>
       <c r="AI8">
-        <v>-15813.94115276607</v>
+        <v>-15861.0167353471</v>
       </c>
       <c r="AJ8">
-        <v>28463.26405067436</v>
+        <v>28455.30244603229</v>
       </c>
       <c r="AK8">
-        <v>-47350.67710209171</v>
+        <v>-47405.71428931483</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-70725.0167353471</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>23319.30244603229</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-71711.0167353471</v>
       </c>
       <c r="AO8">
-        <v>138974.6771020917</v>
+        <v>139029.7142893148</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9409</v>
+        <v>7.9353</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46565.54670958425</v>
+        <v>46564.48597672994</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="F9">
-        <v>8640.524802036545</v>
+        <v>8646.556766687079</v>
       </c>
       <c r="G9">
-        <v>37925.0219075477</v>
+        <v>37917.92921004287</v>
       </c>
       <c r="H9">
-        <v>76903.66835154883</v>
+        <v>76957.35492957747</v>
       </c>
       <c r="I9">
-        <v>65806.78558752616</v>
+        <v>65852.72541334966</v>
       </c>
       <c r="J9">
-        <v>11096.88276402267</v>
+        <v>11104.6295162278</v>
       </c>
       <c r="K9">
-        <v>331.7619053447073</v>
+        <v>331.9935088793632</v>
       </c>
       <c r="L9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="M9">
-        <v>4877.488587269145</v>
+        <v>4880.893570116351</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70174.96456851922</v>
+        <v>70223.95382731171</v>
       </c>
       <c r="P9">
-        <v>44302.54531435495</v>
+        <v>44333.47299448868</v>
       </c>
       <c r="Q9">
-        <v>33217.34159863904</v>
+        <v>33240.53067973056</v>
       </c>
       <c r="R9">
-        <v>11085.20371571591</v>
+        <v>11092.94231475812</v>
       </c>
       <c r="S9">
-        <v>25872.41913177574</v>
+        <v>25890.48071034905</v>
       </c>
       <c r="T9">
-        <v>24600.41661057192</v>
+        <v>24617.59020208206</v>
       </c>
       <c r="U9">
-        <v>1260.323595285594</v>
+        <v>1261.20342927128</v>
       </c>
       <c r="V9">
-        <v>11.67904830675462</v>
+        <v>11.68720146968769</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10542.33164845117</v>
+        <v>10488.64507042253</v>
       </c>
       <c r="AI9">
-        <v>-17721.78558752616</v>
+        <v>-17767.72541334966</v>
       </c>
       <c r="AJ9">
-        <v>28264.11723597733</v>
+        <v>28256.3704837722</v>
       </c>
       <c r="AK9">
-        <v>-49357.66835154883</v>
+        <v>-49411.35492957747</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-72479.72541334966</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>23068.3704837722</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-73319.72541334966</v>
       </c>
       <c r="AO9">
-        <v>137643.6683515488</v>
+        <v>137697.3549295775</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.1707</v>
+        <v>8.164999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47850.0811599892</v>
+        <v>47849.01274229386</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="F10">
-        <v>8664.637994062661</v>
+        <v>8670.700826162212</v>
       </c>
       <c r="G10">
-        <v>39185.44316592654</v>
+        <v>39178.31191613165</v>
       </c>
       <c r="H10">
-        <v>79530.97021516721</v>
+        <v>79586.61973214177</v>
       </c>
       <c r="I10">
-        <v>68253.9737235948</v>
+        <v>68301.73248548387</v>
       </c>
       <c r="J10">
-        <v>11276.99661424471</v>
+        <v>11284.88736941604</v>
       </c>
       <c r="K10">
-        <v>335.2438725189529</v>
+        <v>335.4784498103387</v>
       </c>
       <c r="L10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="M10">
-        <v>4893.744571751025</v>
+        <v>4897.168829255717</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72775.06293088643</v>
+        <v>72825.98519536956</v>
       </c>
       <c r="P10">
-        <v>44671.54174538139</v>
+        <v>44702.7993763887</v>
       </c>
       <c r="Q10">
-        <v>33406.41392085184</v>
+        <v>33429.78910153325</v>
       </c>
       <c r="R10">
-        <v>11265.12794720185</v>
+        <v>11273.01039761358</v>
       </c>
       <c r="S10">
-        <v>28103.52118550504</v>
+        <v>28123.18581898086</v>
       </c>
       <c r="T10">
-        <v>26436.81260580486</v>
+        <v>26455.31100772148</v>
       </c>
       <c r="U10">
-        <v>1654.839912657327</v>
+        <v>1655.997839456918</v>
       </c>
       <c r="V10">
-        <v>11.8686670428617</v>
+        <v>11.87697180245762</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9789.02978483279</v>
+        <v>9733.380267858229</v>
       </c>
       <c r="AI10">
-        <v>-18876.9737235948</v>
+        <v>-18924.73248548387</v>
       </c>
       <c r="AJ10">
-        <v>28666.00338575529</v>
+        <v>28658.11263058396</v>
       </c>
       <c r="AK10">
-        <v>-49310.97021516721</v>
+        <v>-49366.61973214177</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-72822.73248548387</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>23456.11263058396</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-73662.73248548387</v>
       </c>
       <c r="AO10">
-        <v>139470.9702151672</v>
+        <v>139526.6197321418</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.1518</v>
+        <v>8.146100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48152.49065994762</v>
+        <v>48151.40566389269</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="F11">
-        <v>8194.895428649448</v>
+        <v>8200.697304682648</v>
       </c>
       <c r="G11">
-        <v>39957.59523129818</v>
+        <v>39950.70835921004</v>
       </c>
       <c r="H11">
-        <v>79093.44433825265</v>
+        <v>79149.44143584647</v>
       </c>
       <c r="I11">
-        <v>68147.09459207865</v>
+        <v>68195.3418208918</v>
       </c>
       <c r="J11">
-        <v>10946.34974617399</v>
+        <v>10954.09961495467</v>
       </c>
       <c r="K11">
-        <v>337.8329837278291</v>
+        <v>338.0721649484536</v>
       </c>
       <c r="L11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="M11">
-        <v>4905.193069122594</v>
+        <v>4908.665880014905</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72317.90894534985</v>
+        <v>72369.10905477581</v>
       </c>
       <c r="P11">
-        <v>43116.32926632493</v>
+        <v>43146.85504906223</v>
       </c>
       <c r="Q11">
-        <v>32304.17106259387</v>
+        <v>32327.04198236244</v>
       </c>
       <c r="R11">
-        <v>10812.15820373106</v>
+        <v>10819.81306669979</v>
       </c>
       <c r="S11">
-        <v>29201.57967902492</v>
+        <v>29222.25400571358</v>
       </c>
       <c r="T11">
-        <v>26836.37754912061</v>
+        <v>26855.37734442926</v>
       </c>
       <c r="U11">
-        <v>2231.010587461368</v>
+        <v>2232.590113029437</v>
       </c>
       <c r="V11">
-        <v>134.1915424429357</v>
+        <v>134.2865482548752</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10446.55566174735</v>
+        <v>10390.55856415353</v>
       </c>
       <c r="AI11">
-        <v>-18462.09459207865</v>
+        <v>-18510.3418208918</v>
       </c>
       <c r="AJ11">
-        <v>28908.65025382601</v>
+        <v>28900.90038504534</v>
       </c>
       <c r="AK11">
-        <v>-49153.44433825265</v>
+        <v>-49209.44143584647</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-72841.3418208918</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>23631.90038504534</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-73681.3418208918</v>
       </c>
       <c r="AO11">
-        <v>139533.4443382527</v>
+        <v>139589.4414358465</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.056699999999999</v>
+        <v>8.051</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46432.40058529035</v>
+        <v>46431.33823031125</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="F12">
-        <v>8533.597479865528</v>
+        <v>8539.586983881118</v>
       </c>
       <c r="G12">
-        <v>37898.80310542482</v>
+        <v>37891.75124643013</v>
       </c>
       <c r="H12">
-        <v>76239.90845768737</v>
+        <v>76293.41921196572</v>
       </c>
       <c r="I12">
-        <v>65121.73229012988</v>
+        <v>65167.43949368314</v>
       </c>
       <c r="J12">
-        <v>11118.1761675575</v>
+        <v>11125.97971828259</v>
       </c>
       <c r="K12">
-        <v>333.4149998790722</v>
+        <v>333.6490149571615</v>
       </c>
       <c r="L12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="M12">
-        <v>4834.769390765957</v>
+        <v>4838.162786194878</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69558.1246523327</v>
+        <v>69606.94564112493</v>
       </c>
       <c r="P12">
-        <v>42709.46574116623</v>
+        <v>42739.44237378382</v>
       </c>
       <c r="Q12">
-        <v>31860.87043800034</v>
+        <v>31883.23273149717</v>
       </c>
       <c r="R12">
-        <v>10848.59530316589</v>
+        <v>10856.20964228665</v>
       </c>
       <c r="S12">
-        <v>26848.65891116647</v>
+        <v>26867.50326734111</v>
       </c>
       <c r="T12">
-        <v>24960.7528962198</v>
+        <v>24978.27218161576</v>
       </c>
       <c r="U12">
-        <v>1618.325150555058</v>
+        <v>1619.461009729416</v>
       </c>
       <c r="V12">
-        <v>269.5808643916125</v>
+        <v>269.770075995934</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12436.09154231263</v>
+        <v>12382.58078803428</v>
       </c>
       <c r="AI12">
-        <v>-17175.73229012988</v>
+        <v>-17221.43949368314</v>
       </c>
       <c r="AJ12">
-        <v>29611.8238324425</v>
+        <v>29604.02028171741</v>
       </c>
       <c r="AK12">
-        <v>-47363.90845768737</v>
+        <v>-47417.41921196572</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-71869.43949368314</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>24452.02028171741</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-72709.43949368314</v>
       </c>
       <c r="AO12">
-        <v>136879.9084576874</v>
+        <v>136933.4192119657</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.269399999999999</v>
+        <v>8.2636</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45372.41632722959</v>
+        <v>45371.34075107717</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="F13">
-        <v>8708.262326764767</v>
+        <v>8714.338156090873</v>
       </c>
       <c r="G13">
-        <v>36664.15400046482</v>
+        <v>36657.00259498629</v>
       </c>
       <c r="H13">
-        <v>76028.17046469243</v>
+        <v>76081.21597140617</v>
       </c>
       <c r="I13">
-        <v>64989.21739874988</v>
+        <v>65034.56093321581</v>
       </c>
       <c r="J13">
-        <v>11038.9531882622</v>
+        <v>11046.65516059538</v>
       </c>
       <c r="K13">
-        <v>341.3249666678898</v>
+        <v>341.5631120250685</v>
       </c>
       <c r="L13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="M13">
-        <v>4924.54845693736</v>
+        <v>4927.984356639247</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69220.71336831676</v>
+        <v>69269.00925381902</v>
       </c>
       <c r="P13">
-        <v>43670.82602473304</v>
+        <v>43701.29553466509</v>
       </c>
       <c r="Q13">
-        <v>32748.90242559906</v>
+        <v>32771.75161574617</v>
       </c>
       <c r="R13">
-        <v>10921.92372145365</v>
+        <v>10929.54404132393</v>
       </c>
       <c r="S13">
-        <v>25549.88734358372</v>
+        <v>25567.71371915393</v>
       </c>
       <c r="T13">
-        <v>24342.51256834612</v>
+        <v>24359.49654817861</v>
       </c>
       <c r="U13">
-        <v>1090.345308429048</v>
+        <v>1091.106051703878</v>
       </c>
       <c r="V13">
-        <v>117.0294668085575</v>
+        <v>117.1111192714454</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11821.82953530757</v>
+        <v>11768.78402859383</v>
       </c>
       <c r="AI13">
-        <v>-18075.21739874988</v>
+        <v>-18120.56093321581</v>
       </c>
       <c r="AJ13">
-        <v>29897.0468117378</v>
+        <v>29889.34483940463</v>
       </c>
       <c r="AK13">
-        <v>-48878.17046469243</v>
+        <v>-48931.21597140617</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-73236.56093321581</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>24305.34483940463</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-74154.56093321581</v>
       </c>
       <c r="AO13">
-        <v>137646.1704646924</v>
+        <v>137699.2159714062</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.1753</v>
+        <v>8.169600000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90325.99999999999</v>
+        <v>90326</v>
       </c>
       <c r="C14">
-        <v>47320.75757867617</v>
+        <v>47319.68341284758</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="F14">
-        <v>8720.194794250077</v>
+        <v>8726.288130692497</v>
       </c>
       <c r="G14">
-        <v>38600.56278442609</v>
+        <v>38593.39528215508</v>
       </c>
       <c r="H14">
-        <v>78387.12804892729</v>
+        <v>78441.90195653221</v>
       </c>
       <c r="I14">
-        <v>66938.3682068816</v>
+        <v>66985.14216182353</v>
       </c>
       <c r="J14">
-        <v>11448.7598420457</v>
+        <v>11456.75979470869</v>
       </c>
       <c r="K14">
-        <v>338.8061929642917</v>
+        <v>339.0429376897499</v>
       </c>
       <c r="L14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="M14">
-        <v>4913.337868098529</v>
+        <v>4916.771119464122</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71597.74156654064</v>
+        <v>71647.77131222592</v>
       </c>
       <c r="P14">
-        <v>43673.50930630131</v>
+        <v>43704.02667341333</v>
       </c>
       <c r="Q14">
-        <v>32637.72904577303</v>
+        <v>32660.53503445617</v>
       </c>
       <c r="R14">
-        <v>11035.78026052828</v>
+        <v>11043.49163895716</v>
       </c>
       <c r="S14">
-        <v>27924.23213984734</v>
+        <v>27943.74451833647</v>
       </c>
       <c r="T14">
-        <v>25639.84565746069</v>
+        <v>25657.76179461231</v>
       </c>
       <c r="U14">
-        <v>1871.407021261226</v>
+        <v>1872.71468844875</v>
       </c>
       <c r="V14">
-        <v>412.9795815174207</v>
+        <v>413.2681557515301</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11938.8719510727</v>
+        <v>11884.09804346779</v>
       </c>
       <c r="AI14">
-        <v>-18080.3682068816</v>
+        <v>-18127.14216182353</v>
       </c>
       <c r="AJ14">
-        <v>30019.2401579543</v>
+        <v>30011.24020529131</v>
       </c>
       <c r="AK14">
-        <v>-47861.12804892731</v>
+        <v>-47915.90195653221</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-72361.14216182353</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>24445.24020529131</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-72920.14216182353</v>
       </c>
       <c r="AO14">
-        <v>138746.1280489273</v>
+        <v>138800.9019565322</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875962</v>
+        <v>0.6620463653875961</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.306200000000001</v>
+        <v>8.3004</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91973.99999999999</v>
+        <v>91974</v>
       </c>
       <c r="C15">
-        <v>48045.03345119287</v>
+        <v>48043.95064546124</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="F15">
-        <v>8777.650451928996</v>
+        <v>8783.798379403204</v>
       </c>
       <c r="G15">
-        <v>39267.38299926388</v>
+        <v>39260.15226605804</v>
       </c>
       <c r="H15">
-        <v>79402.82525009957</v>
+        <v>79458.4395415957</v>
       </c>
       <c r="I15">
-        <v>67673.1377991239</v>
+        <v>67720.53653588376</v>
       </c>
       <c r="J15">
-        <v>11729.68745097566</v>
+        <v>11737.90300571194</v>
       </c>
       <c r="K15">
-        <v>342.0231213872833</v>
+        <v>342.2626767621877</v>
       </c>
       <c r="L15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="M15">
-        <v>4927.222899344733</v>
+        <v>4930.673960559841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72587.61268056043</v>
+        <v>72638.45354973491</v>
       </c>
       <c r="P15">
-        <v>44101.28410585638</v>
+        <v>44132.17295221533</v>
       </c>
       <c r="Q15">
-        <v>32794.70971556832</v>
+        <v>32817.67935852383</v>
       </c>
       <c r="R15">
-        <v>11306.57426961276</v>
+        <v>11314.49347293169</v>
       </c>
       <c r="S15">
-        <v>28486.32857470405</v>
+        <v>28506.28059751959</v>
       </c>
       <c r="T15">
-        <v>26459.32470102695</v>
+        <v>26477.85699622021</v>
       </c>
       <c r="U15">
-        <v>1603.890812989489</v>
+        <v>1605.014189278943</v>
       </c>
       <c r="V15">
-        <v>423.1131813629069</v>
+        <v>423.4095327802533</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12571.17474990041</v>
+        <v>12515.5604584043</v>
       </c>
       <c r="AI15">
-        <v>-18082.1377991239</v>
+        <v>-18129.53653588376</v>
       </c>
       <c r="AJ15">
-        <v>30653.31254902434</v>
+        <v>30645.09699428806</v>
       </c>
       <c r="AK15">
-        <v>-47328.82525009959</v>
+        <v>-47384.4395415957</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-72453.53653588376</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>25069.09699428806</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-73012.53653588376</v>
       </c>
       <c r="AO15">
-        <v>139861.8252500996</v>
+        <v>139917.4395415957</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.2867</v>
+        <v>8.280900000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447</v>
+        <v>92447.00000000002</v>
       </c>
       <c r="C16">
-        <v>47651.06276810572</v>
+        <v>47649.97142173861</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="F16">
-        <v>8776.414104601561</v>
+        <v>8782.605763482005</v>
       </c>
       <c r="G16">
-        <v>38874.64866350417</v>
+        <v>38867.36565825661</v>
       </c>
       <c r="H16">
-        <v>79031.71719102869</v>
+        <v>79087.4731555662</v>
       </c>
       <c r="I16">
-        <v>67486.30058908578</v>
+        <v>67533.91139543227</v>
       </c>
       <c r="J16">
-        <v>11545.41660194291</v>
+        <v>11553.56176013392</v>
       </c>
       <c r="K16">
-        <v>342.3820334811027</v>
+        <v>342.6235800550042</v>
       </c>
       <c r="L16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="M16">
-        <v>4931.586946910586</v>
+        <v>4935.066124596437</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72210.81097874272</v>
+        <v>72261.75487265336</v>
       </c>
       <c r="P16">
-        <v>43959.06044999941</v>
+        <v>43990.07305990673</v>
       </c>
       <c r="Q16">
-        <v>32580.01995483278</v>
+        <v>32603.00478297262</v>
       </c>
       <c r="R16">
-        <v>11379.04049516663</v>
+        <v>11387.06827693412</v>
       </c>
       <c r="S16">
-        <v>28251.75052874332</v>
+        <v>28271.68181274662</v>
       </c>
       <c r="T16">
-        <v>26293.68793987262</v>
+        <v>26312.2378333134</v>
       </c>
       <c r="U16">
-        <v>1791.686482094421</v>
+        <v>1792.950496233409</v>
       </c>
       <c r="V16">
-        <v>166.3761067762789</v>
+        <v>166.4934831998087</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13415.28280897132</v>
+        <v>13359.52684443381</v>
       </c>
       <c r="AI16">
-        <v>-18288.30058908578</v>
+        <v>-18335.91139543227</v>
       </c>
       <c r="AJ16">
-        <v>31703.58339805709</v>
+        <v>31695.43823986608</v>
       </c>
       <c r="AK16">
-        <v>-46784.71719102869</v>
+        <v>-46840.47315556619</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-72859.91139543227</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>26019.43823986608</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-73418.91139543227</v>
       </c>
       <c r="AO16">
-        <v>139790.7171910287</v>
+        <v>139846.4731555662</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983212</v>
+        <v>0.6511839215983211</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.3689</v>
+        <v>8.363</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47172.41693250951</v>
+        <v>47171.33264502041</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="F17">
-        <v>8797.694104811262</v>
+        <v>8803.854077660686</v>
       </c>
       <c r="G17">
-        <v>38374.72282769825</v>
+        <v>38367.47856735972</v>
       </c>
       <c r="H17">
-        <v>80398.91310793025</v>
+        <v>80455.20684990031</v>
       </c>
       <c r="I17">
-        <v>68797.46712047723</v>
+        <v>68845.63775752396</v>
       </c>
       <c r="J17">
-        <v>11601.44598745301</v>
+        <v>11609.56909237634</v>
       </c>
       <c r="K17">
-        <v>421.765354648198</v>
+        <v>422.0606664767873</v>
       </c>
       <c r="L17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="M17">
-        <v>4871.000557380549</v>
+        <v>4874.411136428368</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73557.564128411</v>
+        <v>73609.06769201557</v>
       </c>
       <c r="P17">
-        <v>44082.1842202009</v>
+        <v>44113.0497009399</v>
       </c>
       <c r="Q17">
-        <v>32675.4694448727</v>
+        <v>32698.34816766354</v>
       </c>
       <c r="R17">
-        <v>11406.7147753282</v>
+        <v>11414.70153327637</v>
       </c>
       <c r="S17">
-        <v>29475.3799082101</v>
+        <v>29496.01799107567</v>
       </c>
       <c r="T17">
-        <v>27292.03349026956</v>
+        <v>27311.14283679863</v>
       </c>
       <c r="U17">
-        <v>1988.615205815733</v>
+        <v>1990.007595177063</v>
       </c>
       <c r="V17">
-        <v>194.7312121248058</v>
+        <v>194.8675590999715</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12205.08689206975</v>
+        <v>12148.79315009969</v>
       </c>
       <c r="AI17">
-        <v>-20076.46712047723</v>
+        <v>-20124.63775752396</v>
       </c>
       <c r="AJ17">
-        <v>32281.55401254699</v>
+        <v>32273.43090762366</v>
       </c>
       <c r="AK17">
-        <v>-47794.91310793025</v>
+        <v>-47851.20684990031</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-74279.63775752396</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>26428.43090762366</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-74838.63775752396</v>
       </c>
       <c r="AO17">
-        <v>140957.9131079303</v>
+        <v>141014.2068499003</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.4323</v>
+        <v>8.426399999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686.00000000002</v>
+        <v>93686</v>
       </c>
       <c r="C18">
-        <v>48090.49747770523</v>
+        <v>48089.41996727437</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="F18">
-        <v>8805.042270181257</v>
+        <v>8811.173132492369</v>
       </c>
       <c r="G18">
-        <v>39285.45520752398</v>
+        <v>39278.246834782</v>
       </c>
       <c r="H18">
-        <v>79148.15599958252</v>
+        <v>79203.26606398904</v>
       </c>
       <c r="I18">
-        <v>67338.67159142304</v>
+        <v>67385.55883069709</v>
       </c>
       <c r="J18">
-        <v>11809.4842921919</v>
+        <v>11817.70711724362</v>
       </c>
       <c r="K18">
-        <v>341.1056348644919</v>
+        <v>341.3431432848638</v>
       </c>
       <c r="L18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="M18">
-        <v>4872.071412832972</v>
+        <v>4875.463787120957</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72387.47642959029</v>
+        <v>72437.87910085759</v>
       </c>
       <c r="P18">
-        <v>44051.80225209031</v>
+        <v>44082.47507862274</v>
       </c>
       <c r="Q18">
-        <v>32662.54316892997</v>
+        <v>32685.28576899421</v>
       </c>
       <c r="R18">
-        <v>11389.25908316035</v>
+        <v>11397.18930962853</v>
       </c>
       <c r="S18">
-        <v>28335.67406153239</v>
+        <v>28355.40390618653</v>
       </c>
       <c r="T18">
-        <v>26407.08237176885</v>
+        <v>26425.46935744044</v>
       </c>
       <c r="U18">
-        <v>1508.366480731987</v>
+        <v>1509.416741131007</v>
       </c>
       <c r="V18">
-        <v>420.2252090315548</v>
+        <v>420.5178076150909</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14537.84400041749</v>
+        <v>14482.73393601096</v>
       </c>
       <c r="AI18">
-        <v>-17700.67159142304</v>
+        <v>-17747.55883069709</v>
       </c>
       <c r="AJ18">
-        <v>32238.5157078081</v>
+        <v>32230.29288275638</v>
       </c>
       <c r="AK18">
-        <v>-47562.15599958251</v>
+        <v>-47617.26606398904</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-73978.55883069709</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>26361.29288275638</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-74284.55883069709</v>
       </c>
       <c r="AO18">
-        <v>141554.1559995825</v>
+        <v>141609.266063989</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.662852507311658</v>
+        <v>0.6628525073116581</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.623100000000001</v>
+        <v>8.617100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50166.64000797065</v>
+        <v>50165.56985009501</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="F19">
-        <v>8796.559023829897</v>
+        <v>8802.646679334694</v>
       </c>
       <c r="G19">
-        <v>41370.08098414075</v>
+        <v>41362.92317076032</v>
       </c>
       <c r="H19">
-        <v>80094.74007478345</v>
+        <v>80150.16961081006</v>
       </c>
       <c r="I19">
-        <v>68521.18434470714</v>
+        <v>68568.60440565839</v>
       </c>
       <c r="J19">
-        <v>11573.55573007631</v>
+        <v>11581.56520515166</v>
       </c>
       <c r="K19">
-        <v>339.0075369521644</v>
+        <v>339.2421469960354</v>
       </c>
       <c r="L19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="M19">
-        <v>4869.913846658775</v>
+        <v>4873.284068782697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73339.45869914316</v>
+        <v>73390.21324512633</v>
       </c>
       <c r="P19">
-        <v>43642.71400607177</v>
+        <v>43672.9169305839</v>
       </c>
       <c r="Q19">
-        <v>32869.23798248802</v>
+        <v>32891.98512679757</v>
       </c>
       <c r="R19">
-        <v>10773.47602358375</v>
+        <v>10780.93180378633</v>
       </c>
       <c r="S19">
-        <v>29696.7446930714</v>
+        <v>29717.29631454243</v>
       </c>
       <c r="T19">
-        <v>27326.20890133977</v>
+        <v>27345.11999436977</v>
       </c>
       <c r="U19">
-        <v>1570.456085239061</v>
+        <v>1571.542918807329</v>
       </c>
       <c r="V19">
-        <v>800.0797064925628</v>
+        <v>800.6334013653319</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14771.25992521655</v>
+        <v>14715.83038918994</v>
       </c>
       <c r="AI19">
-        <v>-16808.18434470714</v>
+        <v>-16855.60440565839</v>
       </c>
       <c r="AJ19">
-        <v>31579.44426992369</v>
+        <v>31571.43479484833</v>
       </c>
       <c r="AK19">
-        <v>-48134.74007478345</v>
+        <v>-48190.16961081006</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-73800.60440565839</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>25610.43479484833</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-74106.60440565839</v>
       </c>
       <c r="AO19">
-        <v>143306.7400747835</v>
+        <v>143362.1696108101</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.5313</v>
+        <v>8.525399999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54490.16606565171</v>
+        <v>54489.08041122276</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="F20">
-        <v>8720.168825295967</v>
+        <v>8726.340999280592</v>
       </c>
       <c r="G20">
-        <v>45769.99724035574</v>
+        <v>45762.73941194217</v>
       </c>
       <c r="H20">
-        <v>79013.13996498268</v>
+        <v>79069.06581420713</v>
       </c>
       <c r="I20">
-        <v>68043.33290817805</v>
+        <v>68091.49427954792</v>
       </c>
       <c r="J20">
-        <v>10969.80694085317</v>
+        <v>10977.5714186257</v>
       </c>
       <c r="K20">
-        <v>333.8897069907123</v>
+        <v>334.126035599081</v>
       </c>
       <c r="L20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="M20">
-        <v>4845.551175167841</v>
+        <v>4848.980877677473</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72299.86514847583</v>
+        <v>72351.03931215334</v>
       </c>
       <c r="P20">
-        <v>42925.88279628492</v>
+        <v>42956.26592559931</v>
       </c>
       <c r="Q20">
-        <v>32583.17405470589</v>
+        <v>32606.23656912116</v>
       </c>
       <c r="R20">
-        <v>10342.70874157903</v>
+        <v>10350.02935647815</v>
       </c>
       <c r="S20">
-        <v>29373.98235219091</v>
+        <v>29394.77338655404</v>
       </c>
       <c r="T20">
-        <v>26683.95997356307</v>
+        <v>26702.84699821308</v>
       </c>
       <c r="U20">
-        <v>2062.924063402247</v>
+        <v>2064.384210159894</v>
       </c>
       <c r="V20">
-        <v>627.098199274144</v>
+        <v>627.5420621475481</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18308.86003501732</v>
+        <v>18252.93418579287</v>
       </c>
       <c r="AI20">
-        <v>-12019.33290817805</v>
+        <v>-12067.49427954792</v>
       </c>
       <c r="AJ20">
-        <v>30328.19305914683</v>
+        <v>30320.4285813743</v>
       </c>
       <c r="AK20">
-        <v>-48103.13996498268</v>
+        <v>-48159.06581420713</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-72554.49427954792</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>24395.4285813743</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-72860.49427954792</v>
       </c>
       <c r="AO20">
-        <v>145731.1399649827</v>
+        <v>145787.0658142071</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6243</v>
+        <v>8.6182</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57708.09730578684</v>
+        <v>57707.03511954976</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="F21">
-        <v>8701.518598501034</v>
+        <v>8707.552032172698</v>
       </c>
       <c r="G21">
-        <v>49006.57870728581</v>
+        <v>48999.48308737707</v>
       </c>
       <c r="H21">
-        <v>79386.71797951337</v>
+        <v>79441.7629112593</v>
       </c>
       <c r="I21">
-        <v>68167.41942189324</v>
+        <v>68214.6851490183</v>
       </c>
       <c r="J21">
-        <v>11219.29855762013</v>
+        <v>11227.077762241</v>
       </c>
       <c r="K21">
-        <v>331.7797050569908</v>
+        <v>332.0097535044434</v>
       </c>
       <c r="L21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="M21">
-        <v>4902.303534927766</v>
+        <v>4905.702679902465</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72620.73204531545</v>
+        <v>72671.08559740215</v>
       </c>
       <c r="P21">
-        <v>43104.92788100655</v>
+        <v>43134.81585060035</v>
       </c>
       <c r="Q21">
-        <v>32900.08776690957</v>
+        <v>32922.89993412918</v>
       </c>
       <c r="R21">
-        <v>10204.84011409698</v>
+        <v>10211.91591647118</v>
       </c>
       <c r="S21">
-        <v>29515.8041643089</v>
+        <v>29536.2697468018</v>
       </c>
       <c r="T21">
-        <v>26339.60504890696</v>
+        <v>26357.86832769002</v>
       </c>
       <c r="U21">
-        <v>2161.740671878789</v>
+        <v>2163.239573341962</v>
       </c>
       <c r="V21">
-        <v>1014.458443523149</v>
+        <v>1015.161845769822</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20771.28202048663</v>
+        <v>20716.2370887407</v>
       </c>
       <c r="AI21">
-        <v>-8927.419421893239</v>
+        <v>-8974.685149018304</v>
       </c>
       <c r="AJ21">
-        <v>29698.70144237987</v>
+        <v>29690.92223775901</v>
       </c>
       <c r="AK21">
-        <v>-45469.71797951337</v>
+        <v>-45524.7629112593</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-69599.6851490183</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>24074.92223775901</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-69905.6851490183</v>
       </c>
       <c r="AO21">
-        <v>145933.7179795134</v>
+        <v>145988.7629112593</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6593</v>
+        <v>8.6533</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58091.17490319011</v>
+        <v>58090.10075311105</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="F22">
-        <v>8376.097754932694</v>
+        <v>8381.990496730366</v>
       </c>
       <c r="G22">
-        <v>49715.07714825742</v>
+        <v>49708.11025638069</v>
       </c>
       <c r="H22">
-        <v>79926.24354600777</v>
+        <v>79982.47315672321</v>
       </c>
       <c r="I22">
-        <v>68980.32777060669</v>
+        <v>69028.85672437056</v>
       </c>
       <c r="J22">
-        <v>10945.91542965148</v>
+        <v>10953.61608635981</v>
       </c>
       <c r="K22">
-        <v>329.0391619030057</v>
+        <v>329.2706471219163</v>
       </c>
       <c r="L22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="M22">
-        <v>4894.842222939333</v>
+        <v>4898.285836206996</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73175.53706435554</v>
+        <v>73227.01742650535</v>
       </c>
       <c r="P22">
-        <v>42964.56389452333</v>
+        <v>42994.79027068172</v>
       </c>
       <c r="Q22">
-        <v>32795.26472893233</v>
+        <v>32818.33681248342</v>
       </c>
       <c r="R22">
-        <v>10169.29905034114</v>
+        <v>10176.45334286736</v>
       </c>
       <c r="S22">
-        <v>30210.97305458234</v>
+        <v>30232.22704049269</v>
       </c>
       <c r="T22">
-        <v>27689.69804536235</v>
+        <v>27709.17826703726</v>
       </c>
       <c r="U22">
-        <v>1744.658514659783</v>
+        <v>1745.885914632037</v>
       </c>
       <c r="V22">
-        <v>776.6163793103449</v>
+        <v>777.1627434924516</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20286.75645399223</v>
+        <v>20230.52684327679</v>
       </c>
       <c r="AI22">
-        <v>-9362.327770606687</v>
+        <v>-9410.856724370562</v>
       </c>
       <c r="AJ22">
-        <v>29649.08457034852</v>
+        <v>29641.38391364019</v>
       </c>
       <c r="AK22">
-        <v>-44957.24354600777</v>
+        <v>-45013.47315672321</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-69093.85672437056</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>24080.38391364019</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-69327.85672437056</v>
       </c>
       <c r="AO22">
-        <v>145404.2435460078</v>
+        <v>145460.4731567232</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6768</v>
+        <v>8.6707</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61055.66928753151</v>
+        <v>61054.61430529796</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="F23">
-        <v>8359.322757779133</v>
+        <v>8365.100625525591</v>
       </c>
       <c r="G23">
-        <v>52696.34652975238</v>
+        <v>52689.51367977237</v>
       </c>
       <c r="H23">
-        <v>80962.63771052298</v>
+        <v>81018.59815452668</v>
       </c>
       <c r="I23">
-        <v>69423.01426318394</v>
+        <v>69470.99865218242</v>
       </c>
       <c r="J23">
-        <v>11539.62333222052</v>
+        <v>11547.5993871462</v>
       </c>
       <c r="K23">
-        <v>324.7829440408901</v>
+        <v>325.0074302763602</v>
       </c>
       <c r="L23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="M23">
-        <v>4890.745852855514</v>
+        <v>4894.126280138698</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74220.77820115809</v>
+        <v>74272.0787494096</v>
       </c>
       <c r="P23">
-        <v>43707.386003891</v>
+        <v>43737.59604640178</v>
       </c>
       <c r="Q23">
-        <v>33016.58569997812</v>
+        <v>33039.40638427776</v>
       </c>
       <c r="R23">
-        <v>10690.80018879436</v>
+        <v>10698.18954692594</v>
       </c>
       <c r="S23">
-        <v>30513.39219726708</v>
+        <v>30534.48270300782</v>
       </c>
       <c r="T23">
-        <v>28078.38730473022</v>
+        <v>28097.79476309514</v>
       </c>
       <c r="U23">
-        <v>1586.181749110709</v>
+        <v>1587.278099692421</v>
       </c>
       <c r="V23">
-        <v>848.8231434261571</v>
+        <v>849.4098402202586</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23105.36228947702</v>
+        <v>23049.40184547332</v>
       </c>
       <c r="AI23">
-        <v>-6841.014263183941</v>
+        <v>-6888.998652182418</v>
       </c>
       <c r="AJ23">
-        <v>29946.37666777948</v>
+        <v>29938.4006128538</v>
       </c>
       <c r="AK23">
-        <v>-42200.63771052298</v>
+        <v>-42256.59815452668</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-66686.99865218242</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>24430.4006128538</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-66920.99865218242</v>
       </c>
       <c r="AO23">
-        <v>146502.637710523</v>
+        <v>146558.5981545267</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6867</v>
+        <v>8.6807</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61353.62733532274</v>
+        <v>61352.56390086332</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="F24">
-        <v>8388.600025544862</v>
+        <v>8394.448253023948</v>
       </c>
       <c r="G24">
-        <v>52965.02730977788</v>
+        <v>52958.11564783938</v>
       </c>
       <c r="H24">
-        <v>80896.41884281785</v>
+        <v>80952.81688995272</v>
       </c>
       <c r="I24">
-        <v>69115.13196242585</v>
+        <v>69163.31652394177</v>
       </c>
       <c r="J24">
-        <v>11781.286880392</v>
+        <v>11789.50036601095</v>
       </c>
       <c r="K24">
-        <v>322.5180265434321</v>
+        <v>322.7428744059585</v>
       </c>
       <c r="L24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="M24">
-        <v>4881.921089604403</v>
+        <v>4885.32458780196</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74166.60706199273</v>
+        <v>74218.31332860811</v>
       </c>
       <c r="P24">
-        <v>43790.83229799241</v>
+        <v>43821.3616769111</v>
       </c>
       <c r="Q24">
-        <v>32971.58308465799</v>
+        <v>32994.56967570269</v>
       </c>
       <c r="R24">
-        <v>10819.24932944742</v>
+        <v>10826.79211740237</v>
       </c>
       <c r="S24">
-        <v>30375.77464788733</v>
+        <v>30396.95153550306</v>
       </c>
       <c r="T24">
-        <v>27855.43733961892</v>
+        <v>27874.85713953732</v>
       </c>
       <c r="U24">
-        <v>1558.299757323828</v>
+        <v>1559.386147357169</v>
       </c>
       <c r="V24">
-        <v>962.0375509445794</v>
+        <v>962.7082486085775</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23989.58115718215</v>
+        <v>23933.18311004728</v>
       </c>
       <c r="AI24">
-        <v>-6236.131962425847</v>
+        <v>-6284.316523941772</v>
       </c>
       <c r="AJ24">
-        <v>30225.713119608</v>
+        <v>30217.49963398905</v>
       </c>
       <c r="AK24">
-        <v>-41564.41884281785</v>
+        <v>-41620.81688995272</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-66313.31652394177</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>24692.49963398905</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-66547.31652394177</v>
       </c>
       <c r="AO24">
-        <v>146684.4188428178</v>
+        <v>146740.8168899527</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.612299999999999</v>
+        <v>8.606299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61134.82190154996</v>
+        <v>61133.74509342772</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="F25">
-        <v>8386.232858200448</v>
+        <v>8392.149837133551</v>
       </c>
       <c r="G25">
-        <v>52748.58904334951</v>
+        <v>52741.59525629417</v>
       </c>
       <c r="H25">
-        <v>80789.41221400957</v>
+        <v>80846.41388069005</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69121.16828749164</v>
       </c>
       <c r="J25">
-        <v>11716.97857789163</v>
+        <v>11725.24559319842</v>
       </c>
       <c r="K25">
-        <v>322.8921608949577</v>
+        <v>323.1199802443585</v>
       </c>
       <c r="L25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="M25">
-        <v>4883.624836954606</v>
+        <v>4887.070520584673</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74056.71711770997</v>
+        <v>74108.96847328873</v>
       </c>
       <c r="P25">
-        <v>43752.91789562745</v>
+        <v>43783.78814426322</v>
       </c>
       <c r="Q25">
-        <v>32992.72564895005</v>
+        <v>33016.00395112831</v>
       </c>
       <c r="R25">
-        <v>10760.1922466774</v>
+        <v>10767.78419313492</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30325.1802114324</v>
       </c>
       <c r="T25">
-        <v>27845.76387501616</v>
+        <v>27865.41069391691</v>
       </c>
       <c r="U25">
-        <v>1501.249015852125</v>
+        <v>1502.308235045097</v>
       </c>
       <c r="V25">
-        <v>956.7863312142329</v>
+        <v>957.4614000635003</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23649.58778599043</v>
+        <v>23592.58611930996</v>
       </c>
       <c r="AI25">
-        <v>-6411.433636117945</v>
+        <v>-6460.168287491644</v>
       </c>
       <c r="AJ25">
-        <v>30061.02142210837</v>
+        <v>30052.75440680159</v>
       </c>
       <c r="AK25">
-        <v>-41750.41221400957</v>
+        <v>-41807.41388069005</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-66335.16828749164</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>24527.75440680159</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-66569.16828749164</v>
       </c>
       <c r="AO25">
-        <v>146423.4122140096</v>
+        <v>146480.4138806901</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5099</v>
+        <v>8.5039</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62597.62800823772</v>
+        <v>62596.56469923219</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="F26">
-        <v>8429.860076493087</v>
+        <v>8435.71717933016</v>
       </c>
       <c r="G26">
-        <v>54167.76793174463</v>
+        <v>54160.84751990203</v>
       </c>
       <c r="H26">
-        <v>81248.54380700206</v>
+        <v>81304.99564275284</v>
       </c>
       <c r="I26">
-        <v>69741.54068843779</v>
+        <v>69789.99740920439</v>
       </c>
       <c r="J26">
-        <v>11507.00300088261</v>
+        <v>11514.99811578501</v>
       </c>
       <c r="K26">
-        <v>322.2072374227714</v>
+        <v>322.4311083894672</v>
       </c>
       <c r="L26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="M26">
-        <v>4813.754516034128</v>
+        <v>4817.099133261105</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74582.21006178288</v>
+        <v>74634.03010033445</v>
       </c>
       <c r="P26">
-        <v>44053.77228596646</v>
+        <v>44084.38103537614</v>
       </c>
       <c r="Q26">
-        <v>33348.15063253899</v>
+        <v>33371.32107023411</v>
       </c>
       <c r="R26">
-        <v>10705.62165342748</v>
+        <v>10713.05996514202</v>
       </c>
       <c r="S26">
-        <v>30528.43765813475</v>
+        <v>30549.64894719487</v>
       </c>
       <c r="T26">
-        <v>27826.40600176523</v>
+        <v>27845.73990767347</v>
       </c>
       <c r="U26">
-        <v>1900.650308914387</v>
+        <v>1901.970888878421</v>
       </c>
       <c r="V26">
-        <v>801.3813474551339</v>
+        <v>801.9381506429884</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24471.45619299794</v>
+        <v>24415.00435724716</v>
       </c>
       <c r="AI26">
-        <v>-5613.540688437788</v>
+        <v>-5661.997409204385</v>
       </c>
       <c r="AJ26">
-        <v>30084.99699911739</v>
+        <v>30077.00188421499</v>
       </c>
       <c r="AK26">
-        <v>-41525.54380700206</v>
+        <v>-41581.99564275284</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-66121.99740920439</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>24540.00188421499</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-66355.99740920439</v>
       </c>
       <c r="AO26">
-        <v>147479.5438070021</v>
+        <v>147535.9956427529</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.497500000000001</v>
+        <v>8.4916</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66205.7082873965</v>
+        <v>66204.631346682</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="F27">
-        <v>8332.08228753724</v>
+        <v>8337.949813384661</v>
       </c>
       <c r="G27">
-        <v>57873.62599985926</v>
+        <v>57866.68153329734</v>
       </c>
       <c r="H27">
-        <v>83971.70838122495</v>
+        <v>84030.8419990141</v>
       </c>
       <c r="I27">
-        <v>72572.13975745351</v>
+        <v>72623.24569845777</v>
       </c>
       <c r="J27">
-        <v>11399.56862377143</v>
+        <v>11407.59630055632</v>
       </c>
       <c r="K27">
-        <v>317.625085032019</v>
+        <v>317.848759418793</v>
       </c>
       <c r="L27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="M27">
-        <v>4810.815720954236</v>
+        <v>4814.203539823008</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77313.97586263518</v>
+        <v>77368.4210464543</v>
       </c>
       <c r="P27">
-        <v>47195.79085641904</v>
+        <v>47229.02654867256</v>
       </c>
       <c r="Q27">
-        <v>36328.71935915179</v>
+        <v>36354.30236379428</v>
       </c>
       <c r="R27">
-        <v>10867.0713799817</v>
+        <v>10874.72406751015</v>
       </c>
       <c r="S27">
-        <v>30118.18512350168</v>
+        <v>30139.39461514988</v>
       </c>
       <c r="T27">
-        <v>28044.51783913115</v>
+        <v>28064.26703598507</v>
       </c>
       <c r="U27">
-        <v>1541.170040580798</v>
+        <v>1542.255346118636</v>
       </c>
       <c r="V27">
-        <v>532.4972437897305</v>
+        <v>532.8722330461726</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>25037.29161877505</v>
+        <v>24978.1580009859</v>
       </c>
       <c r="AI27">
-        <v>-4837.139757453508</v>
+        <v>-4888.245698457773</v>
       </c>
       <c r="AJ27">
-        <v>29874.43137622857</v>
+        <v>29866.40369944368</v>
       </c>
       <c r="AK27">
-        <v>-41359.70838122495</v>
+        <v>-41418.8419990141</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-65760.24569845777</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>24341.40369944368</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-65912.24569845777</v>
       </c>
       <c r="AO27">
-        <v>150520.708381225</v>
+        <v>150579.8419990141</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.526199999999999</v>
+        <v>8.520200000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65832.79537580346</v>
+        <v>65831.7284942157</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="F28">
-        <v>8250.839797953873</v>
+        <v>8256.618843608092</v>
       </c>
       <c r="G28">
-        <v>57581.95557784959</v>
+        <v>57575.10965060761</v>
       </c>
       <c r="H28">
-        <v>83124.91408373482</v>
+        <v>83183.13635992202</v>
       </c>
       <c r="I28">
-        <v>72232.46608261493</v>
+        <v>72283.05908034975</v>
       </c>
       <c r="J28">
-        <v>10892.44811777469</v>
+        <v>10900.07739630879</v>
       </c>
       <c r="K28">
-        <v>312.6621793450999</v>
+        <v>312.8811739023849</v>
       </c>
       <c r="L28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="M28">
-        <v>4881.622901671663</v>
+        <v>4885.042083513303</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76407.42437852151</v>
+        <v>76460.94159672204</v>
       </c>
       <c r="P28">
-        <v>46716.52310348448</v>
+        <v>46749.24424780827</v>
       </c>
       <c r="Q28">
-        <v>36183.64767915262</v>
+        <v>36208.99139651892</v>
       </c>
       <c r="R28">
-        <v>10532.87542433186</v>
+        <v>10540.25285128936</v>
       </c>
       <c r="S28">
-        <v>29690.90139169184</v>
+        <v>29711.69746565028</v>
       </c>
       <c r="T28">
-        <v>27768.06644657793</v>
+        <v>27787.51573024526</v>
       </c>
       <c r="U28">
-        <v>1563.26225167108</v>
+        <v>1564.357190385581</v>
       </c>
       <c r="V28">
-        <v>359.5726934428333</v>
+        <v>359.8245450194366</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23973.08591626518</v>
+        <v>23914.86364007798</v>
       </c>
       <c r="AI28">
-        <v>-4876.466082614934</v>
+        <v>-4927.059080349747</v>
       </c>
       <c r="AJ28">
-        <v>28849.55188222531</v>
+        <v>28841.92260369121</v>
       </c>
       <c r="AK28">
-        <v>-41484.91408373482</v>
+        <v>-41543.13635992202</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-64957.05908034975</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>23413.92260369121</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-65109.05908034975</v>
       </c>
       <c r="AO28">
-        <v>148734.9140837348</v>
+        <v>148793.136359922</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5723</v>
+        <v>8.5663</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66649.11678866422</v>
+        <v>66648.04457325605</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="F29">
-        <v>8214.081376085347</v>
+        <v>8219.876074355387</v>
       </c>
       <c r="G29">
-        <v>58435.03541257887</v>
+        <v>58428.16849890066</v>
       </c>
       <c r="H29">
-        <v>82921.61306999096</v>
+        <v>82980.11087465168</v>
       </c>
       <c r="I29">
-        <v>71752.69459881801</v>
+        <v>71803.31318855746</v>
       </c>
       <c r="J29">
-        <v>11168.91847117294</v>
+        <v>11176.79768609423</v>
       </c>
       <c r="K29">
-        <v>306.9637297176628</v>
+        <v>307.1802800672538</v>
       </c>
       <c r="L29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="M29">
-        <v>4875.514328347687</v>
+        <v>4878.953804188075</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76219.25180058982</v>
+        <v>76273.0213636524</v>
       </c>
       <c r="P29">
-        <v>47225.23763085852</v>
+        <v>47258.55310343206</v>
       </c>
       <c r="Q29">
-        <v>36401.78989789804</v>
+        <v>36427.46987101856</v>
       </c>
       <c r="R29">
-        <v>10823.44773296049</v>
+        <v>10831.08323241349</v>
       </c>
       <c r="S29">
-        <v>28994.01428722492</v>
+        <v>29014.46837779685</v>
       </c>
       <c r="T29">
-        <v>26852.2511778736</v>
+        <v>26871.1943422182</v>
       </c>
       <c r="U29">
-        <v>1796.29225364524</v>
+        <v>1797.559464321407</v>
       </c>
       <c r="V29">
-        <v>345.470738212452</v>
+        <v>345.7144536807327</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25633.38693000905</v>
+        <v>25574.88912534832</v>
       </c>
       <c r="AI29">
-        <v>-3583.694598818009</v>
+        <v>-3634.313188557455</v>
       </c>
       <c r="AJ29">
-        <v>29217.08152882706</v>
+        <v>29209.20231390578</v>
       </c>
       <c r="AK29">
-        <v>-40779.61306999096</v>
+        <v>-40838.11087465168</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-64834.31318855746</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>23996.20231390578</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-64986.31318855746</v>
       </c>
       <c r="AO29">
-        <v>149486.6130699909</v>
+        <v>149545.1108746517</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.511100000000001</v>
+        <v>8.505100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70083.58142094809</v>
+        <v>70078.11446360154</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="F30">
-        <v>8240.958625475605</v>
+        <v>8246.681513409962</v>
       </c>
       <c r="G30">
-        <v>61842.62279547248</v>
+        <v>61831.43295019158</v>
       </c>
       <c r="H30">
-        <v>91958.20395319343</v>
+        <v>92022.06381704981</v>
       </c>
       <c r="I30">
-        <v>80851.00564741917</v>
+        <v>80907.15217911877</v>
       </c>
       <c r="J30">
-        <v>11107.19830577425</v>
+        <v>11114.91163793103</v>
       </c>
       <c r="K30">
-        <v>306.5671588216995</v>
+        <v>306.7800526819923</v>
       </c>
       <c r="L30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="M30">
-        <v>4884.697408408912</v>
+        <v>4888.089559386974</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78894.52080691092</v>
+        <v>78949.30866858238</v>
       </c>
       <c r="P30">
-        <v>47310.04474861806</v>
+        <v>47342.89894636015</v>
       </c>
       <c r="Q30">
-        <v>36513.2289597741</v>
+        <v>36538.58536877394</v>
       </c>
       <c r="R30">
-        <v>10796.81578884396</v>
+        <v>10804.31357758621</v>
       </c>
       <c r="S30">
-        <v>31584.47605829285</v>
+        <v>31606.40972222222</v>
       </c>
       <c r="T30">
-        <v>29377.73792146259</v>
+        <v>29398.13912835249</v>
       </c>
       <c r="U30">
-        <v>1896.355619899974</v>
+        <v>1897.672533524904</v>
       </c>
       <c r="V30">
-        <v>310.3825169302927</v>
+        <v>310.5980603448276</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26305.79604680657</v>
+        <v>26241.93618295019</v>
       </c>
       <c r="AI30">
-        <v>-2895.005647419166</v>
+        <v>-2951.15217911877</v>
       </c>
       <c r="AJ30">
-        <v>29200.80169422575</v>
+        <v>29193.08836206896</v>
       </c>
       <c r="AK30">
-        <v>-40522.20395319343</v>
+        <v>-40586.06381704981</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-64534.15217911877</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>23948.08836206896</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-64686.15217911877</v>
       </c>
       <c r="AO30">
-        <v>158938.2039531934</v>
+        <v>159002.0638170498</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.357799999999999</v>
+        <v>8.352</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70150.01534495903</v>
+        <v>70144.56495834141</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="F31">
-        <v>8273.167136616123</v>
+        <v>8278.877882193374</v>
       </c>
       <c r="G31">
-        <v>61876.8482083429</v>
+        <v>61865.68707614803</v>
       </c>
       <c r="H31">
-        <v>91488.3732891218</v>
+        <v>91551.5252615772</v>
       </c>
       <c r="I31">
-        <v>80009.07107330005</v>
+        <v>80064.29919104825</v>
       </c>
       <c r="J31">
-        <v>11479.30221582177</v>
+        <v>11487.22607052897</v>
       </c>
       <c r="K31">
-        <v>306.3042610095241</v>
+        <v>306.5156946328231</v>
       </c>
       <c r="L31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="M31">
-        <v>4896.131448694832</v>
+        <v>4899.511117031583</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78389.95292437647</v>
+        <v>78444.06340825421</v>
       </c>
       <c r="P31">
-        <v>47936.61648493943</v>
+        <v>47969.70584673512</v>
       </c>
       <c r="Q31">
-        <v>36807.99160141833</v>
+        <v>36833.39917167216</v>
       </c>
       <c r="R31">
-        <v>11128.62488352111</v>
+        <v>11136.30667506297</v>
       </c>
       <c r="S31">
-        <v>30453.33643943703</v>
+        <v>30474.35756151909</v>
       </c>
       <c r="T31">
-        <v>27990.14364721116</v>
+        <v>28009.46449331525</v>
       </c>
       <c r="U31">
-        <v>2112.515459925212</v>
+        <v>2113.973672737841</v>
       </c>
       <c r="V31">
-        <v>350.6773323006547</v>
+        <v>350.919395465995</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27708.62671087821</v>
+        <v>27645.4747384228</v>
       </c>
       <c r="AI31">
-        <v>-1963.071073300045</v>
+        <v>-2018.299191048252</v>
       </c>
       <c r="AJ31">
-        <v>29671.69778417824</v>
+        <v>29663.77392947103</v>
       </c>
       <c r="AK31">
-        <v>-39701.3732891218</v>
+        <v>-39764.5252615772</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-64231.29919104825</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>24466.77392947103</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-64274.29919104825</v>
       </c>
       <c r="AO31">
-        <v>158941.3732891218</v>
+        <v>159004.5252615772</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.263299999999999</v>
+        <v>8.2576</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71767.55106018546</v>
+        <v>71762.04591233628</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="F32">
-        <v>8266.489516271928</v>
+        <v>8272.254834743959</v>
       </c>
       <c r="G32">
-        <v>63501.06154391354</v>
+        <v>63489.79107759232</v>
       </c>
       <c r="H32">
-        <v>91423.20300041344</v>
+        <v>91486.96451368858</v>
       </c>
       <c r="I32">
-        <v>79954.25279073889</v>
+        <v>80010.01548536573</v>
       </c>
       <c r="J32">
-        <v>11468.95032780108</v>
+        <v>11476.94914653175</v>
       </c>
       <c r="K32">
-        <v>304.1522650758963</v>
+        <v>304.3643907513358</v>
       </c>
       <c r="L32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="M32">
-        <v>4893.84289173705</v>
+        <v>4897.256016832947</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78331.75890378596</v>
+        <v>78386.39001844058</v>
       </c>
       <c r="P32">
-        <v>47787.15728545272</v>
+        <v>47820.48560215613</v>
       </c>
       <c r="Q32">
-        <v>36779.92546216999</v>
+        <v>36805.57697763488</v>
       </c>
       <c r="R32">
-        <v>11007.23182328274</v>
+        <v>11014.90862452125</v>
       </c>
       <c r="S32">
-        <v>30544.60173645975</v>
+        <v>30565.90453449336</v>
       </c>
       <c r="T32">
-        <v>27820.2923631209</v>
+        <v>27839.69513925008</v>
       </c>
       <c r="U32">
-        <v>2262.590868820507</v>
+        <v>2264.168873232777</v>
       </c>
       <c r="V32">
-        <v>461.7185045183392</v>
+        <v>462.0405220104969</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28717.79699958656</v>
+        <v>28654.03548631142</v>
       </c>
       <c r="AI32">
-        <v>-293.2527907388867</v>
+        <v>-349.0154853657296</v>
       </c>
       <c r="AJ32">
-        <v>29011.04967219893</v>
+        <v>29003.05085346825</v>
       </c>
       <c r="AK32">
-        <v>-39328.20300041344</v>
+        <v>-39391.96451368858</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-63304.01548536573</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>23912.05085346825</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-63347.01548536573</v>
       </c>
       <c r="AO32">
-        <v>159512.2030004134</v>
+        <v>159575.9645136886</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.465500000000001</v>
+        <v>8.4596</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73531.80147389873</v>
+        <v>73526.28418481676</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="F33">
-        <v>8256.226155778299</v>
+        <v>8262.001588750696</v>
       </c>
       <c r="G33">
-        <v>65275.57531812043</v>
+        <v>65264.28259606606</v>
       </c>
       <c r="H33">
-        <v>92542.83310822018</v>
+        <v>92607.56909287076</v>
       </c>
       <c r="I33">
-        <v>81234.71706831591</v>
+        <v>81291.54274806444</v>
       </c>
       <c r="J33">
-        <v>11308.11603990427</v>
+        <v>11316.02634480633</v>
       </c>
       <c r="K33">
-        <v>301.214544679036</v>
+        <v>301.4252516509965</v>
       </c>
       <c r="L33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="M33">
-        <v>4886.212767469965</v>
+        <v>4889.630793308276</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79468.20726996991</v>
+        <v>79523.79723272825</v>
       </c>
       <c r="P33">
-        <v>48254.87796497713</v>
+        <v>48288.63343727398</v>
       </c>
       <c r="Q33">
-        <v>37261.19025615507</v>
+        <v>37287.25537388994</v>
       </c>
       <c r="R33">
-        <v>10993.68770882206</v>
+        <v>11001.37806338404</v>
       </c>
       <c r="S33">
-        <v>31213.32930499277</v>
+        <v>31235.16379545427</v>
       </c>
       <c r="T33">
-        <v>28793.86696997701</v>
+        <v>28814.00898711215</v>
       </c>
       <c r="U33">
-        <v>2105.034003933556</v>
+        <v>2106.506526919839</v>
       </c>
       <c r="V33">
-        <v>314.4283310822018</v>
+        <v>314.6482814222875</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28243.16689177982</v>
+        <v>28178.43090712924</v>
       </c>
       <c r="AI33">
-        <v>184.2829316840944</v>
+        <v>127.457251935557</v>
       </c>
       <c r="AJ33">
-        <v>28058.88396009574</v>
+        <v>28050.97365519367</v>
       </c>
       <c r="AK33">
-        <v>-40309.83310822018</v>
+        <v>-40374.56909287076</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-63008.54274806444</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>22633.97365519367</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-63051.54274806444</v>
       </c>
       <c r="AO33">
-        <v>161138.8331082202</v>
+        <v>161203.5690928708</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.440200000000001</v>
+        <v>8.4343</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74976.2595398688</v>
+        <v>74970.80712865795</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="F34">
-        <v>8230.643883396471</v>
+        <v>8236.351416947899</v>
       </c>
       <c r="G34">
-        <v>66745.61565647234</v>
+        <v>66734.45571171005</v>
       </c>
       <c r="H34">
-        <v>91757.81322184237</v>
+        <v>91821.44260551986</v>
       </c>
       <c r="I34">
-        <v>80566.70343250486</v>
+        <v>80622.57234986824</v>
       </c>
       <c r="J34">
-        <v>11191.10967384274</v>
+        <v>11198.87014007674</v>
       </c>
       <c r="K34">
-        <v>297.85214358311</v>
+        <v>298.0586889186815</v>
       </c>
       <c r="L34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="M34">
-        <v>4879.489975053128</v>
+        <v>4882.873653552771</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78717.73064307493</v>
+        <v>78772.31739170635</v>
       </c>
       <c r="P34">
-        <v>48108.0354337984</v>
+        <v>48141.39591327262</v>
       </c>
       <c r="Q34">
-        <v>37178.5282500231</v>
+        <v>37204.30967130508</v>
       </c>
       <c r="R34">
-        <v>10929.50718377529</v>
+        <v>10937.08624196755</v>
       </c>
       <c r="S34">
-        <v>30609.69520927654</v>
+        <v>30630.92147843373</v>
       </c>
       <c r="T34">
-        <v>28317.658805322</v>
+        <v>28337.2956636309</v>
       </c>
       <c r="U34">
-        <v>2030.433798392313</v>
+        <v>2031.841801118765</v>
       </c>
       <c r="V34">
-        <v>261.602490067449</v>
+        <v>261.7838981091952</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30285.18677815763</v>
+        <v>30221.55739448014</v>
       </c>
       <c r="AI34">
-        <v>2272.296567495141</v>
+        <v>2216.427650131765</v>
       </c>
       <c r="AJ34">
-        <v>28012.89032615726</v>
+        <v>28005.12985992326</v>
       </c>
       <c r="AK34">
-        <v>-37493.81322184237</v>
+        <v>-37557.44260551986</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-60169.57234986824</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>22612.12985992326</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-60212.57234986824</v>
       </c>
       <c r="AO34">
-        <v>159579.8132218424</v>
+        <v>159643.4426055198</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6584</v>
+        <v>8.6524</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75390.01317790167</v>
+        <v>75384.55273153522</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="F35">
-        <v>8185.418482851833</v>
+        <v>8191.138487201741</v>
       </c>
       <c r="G35">
-        <v>67204.59469504983</v>
+        <v>67193.41424433349</v>
       </c>
       <c r="H35">
-        <v>92577.27307540689</v>
+        <v>92641.96645740114</v>
       </c>
       <c r="I35">
-        <v>81179.31812806218</v>
+        <v>81236.04657191483</v>
       </c>
       <c r="J35">
-        <v>11397.95505997635</v>
+        <v>11405.91999819664</v>
       </c>
       <c r="K35">
-        <v>292.406037055809</v>
+        <v>292.6103716060097</v>
       </c>
       <c r="L35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="M35">
-        <v>4866.59784873571</v>
+        <v>4869.998647475853</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79604.28236751704</v>
+        <v>79659.9101698545</v>
       </c>
       <c r="P35">
-        <v>51463.73317564904</v>
+        <v>51499.69624561839</v>
       </c>
       <c r="Q35">
-        <v>40321.45756603029</v>
+        <v>40349.63436763861</v>
       </c>
       <c r="R35">
-        <v>11142.27572225038</v>
+        <v>11150.06199069013</v>
       </c>
       <c r="S35">
-        <v>28140.549191868</v>
+        <v>28160.21392423611</v>
       </c>
       <c r="T35">
-        <v>26252.57487188151</v>
+        <v>26270.9202799725</v>
       </c>
       <c r="U35">
-        <v>1632.294982260517</v>
+        <v>1633.435636757098</v>
       </c>
       <c r="V35">
-        <v>255.6793377259672</v>
+        <v>255.858007506509</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29143.72692459311</v>
+        <v>29079.03354259886</v>
       </c>
       <c r="AI35">
-        <v>2024.681871937821</v>
+        <v>1967.953428085166</v>
       </c>
       <c r="AJ35">
-        <v>27119.04494002365</v>
+        <v>27111.08000180336</v>
       </c>
       <c r="AK35">
-        <v>-37472.27307540689</v>
+        <v>-37536.96645740114</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-59573.04657191483</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>22036.08000180336</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-59590.04657191483</v>
       </c>
       <c r="AO35">
-        <v>159210.2730754069</v>
+        <v>159274.9664574011</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.878500000000001</v>
+        <v>8.872299999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77534.92732115249</v>
+        <v>77529.45176008222</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="F36">
-        <v>8199.385276890607</v>
+        <v>8205.126430031511</v>
       </c>
       <c r="G36">
-        <v>69335.54204426188</v>
+        <v>69324.32533005071</v>
       </c>
       <c r="H36">
-        <v>93998.08371610107</v>
+        <v>94063.90052740354</v>
       </c>
       <c r="I36">
-        <v>82280.86921193104</v>
+        <v>82338.48171027818</v>
       </c>
       <c r="J36">
-        <v>11717.21439131465</v>
+        <v>11725.418704191</v>
       </c>
       <c r="K36">
-        <v>290.0222325045988</v>
+        <v>290.2253040758016</v>
       </c>
       <c r="L36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="M36">
-        <v>4863.149567199719</v>
+        <v>4866.554711057405</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81024.83923754923</v>
+        <v>81081.57227235254</v>
       </c>
       <c r="P36">
-        <v>51596.9286415601</v>
+        <v>51633.05645589349</v>
       </c>
       <c r="Q36">
-        <v>40276.98935774017</v>
+        <v>40305.19102849335</v>
       </c>
       <c r="R36">
-        <v>11319.93928381993</v>
+        <v>11327.86542740014</v>
       </c>
       <c r="S36">
-        <v>29427.91048313376</v>
+        <v>29448.51570352469</v>
       </c>
       <c r="T36">
-        <v>26789.53165028383</v>
+        <v>26808.28949597389</v>
       </c>
       <c r="U36">
-        <v>2241.103725355212</v>
+        <v>2242.672930759936</v>
       </c>
       <c r="V36">
-        <v>397.275107494724</v>
+        <v>397.5532767908569</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29463.91628389893</v>
+        <v>29398.09947259646</v>
       </c>
       <c r="AI36">
-        <v>3074.130788068957</v>
+        <v>3016.518289721818</v>
       </c>
       <c r="AJ36">
-        <v>26389.78560868535</v>
+        <v>26381.581295809</v>
       </c>
       <c r="AK36">
-        <v>-37513.08371610107</v>
+        <v>-37578.90052740354</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-58880.48171027818</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>21301.581295809</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-58897.48171027818</v>
       </c>
       <c r="AO36">
-        <v>160992.0837161011</v>
+        <v>161057.9005274035</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.860900000000001</v>
+        <v>8.854699999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78129.22529972871</v>
+        <v>78123.74266573256</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="F37">
-        <v>8164.211188413407</v>
+        <v>8169.930926525966</v>
       </c>
       <c r="G37">
-        <v>69965.01411131531</v>
+        <v>69953.81173920659</v>
       </c>
       <c r="H37">
-        <v>93756.88807210991</v>
+        <v>93822.57290480779</v>
       </c>
       <c r="I37">
-        <v>81955.57747002711</v>
+        <v>82012.99446098608</v>
       </c>
       <c r="J37">
-        <v>11801.31060208279</v>
+        <v>11809.5784438217</v>
       </c>
       <c r="K37">
-        <v>288.9190076135469</v>
+        <v>289.1214204396182</v>
       </c>
       <c r="L37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="M37">
-        <v>4868.356086461889</v>
+        <v>4871.766792188459</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80773.83827776319</v>
+        <v>80830.42735791227</v>
       </c>
       <c r="P37">
-        <v>51340.25334733526</v>
+        <v>51376.22164813032</v>
       </c>
       <c r="Q37">
-        <v>39872.2970814737</v>
+        <v>39900.23108415799</v>
       </c>
       <c r="R37">
-        <v>11467.95626586156</v>
+        <v>11475.99056397233</v>
       </c>
       <c r="S37">
-        <v>29433.58493042793</v>
+        <v>29454.20570978195</v>
       </c>
       <c r="T37">
-        <v>26897.0337796447</v>
+        <v>26915.8774848936</v>
       </c>
       <c r="U37">
-        <v>2203.196814562002</v>
+        <v>2204.74034503897</v>
       </c>
       <c r="V37">
-        <v>333.3543362212304</v>
+        <v>333.5878798493739</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31970.11192789009</v>
+        <v>31904.42709519221</v>
       </c>
       <c r="AI37">
-        <v>3999.422529972886</v>
+        <v>3942.005539013917</v>
       </c>
       <c r="AJ37">
-        <v>27970.68939791721</v>
+        <v>27962.4215561783</v>
       </c>
       <c r="AK37">
-        <v>-36079.88807210991</v>
+        <v>-36145.57290480779</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-58876.99446098608</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>22731.4215561783</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-58893.99446098608</v>
       </c>
       <c r="AO37">
-        <v>161823.8880721099</v>
+        <v>161889.5729048078</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.1416</v>
+        <v>9.135199999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77606.26621579418</v>
+        <v>77600.77454953014</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="F38">
-        <v>8258.089104752467</v>
+        <v>8263.873825329771</v>
       </c>
       <c r="G38">
-        <v>69348.17711104172</v>
+        <v>69336.90072420036</v>
       </c>
       <c r="H38">
-        <v>92868.56553625465</v>
+        <v>92933.61916975603</v>
       </c>
       <c r="I38">
-        <v>81145.07016164642</v>
+        <v>81201.9115872058</v>
       </c>
       <c r="J38">
-        <v>11723.49548230074</v>
+        <v>11731.70769031813</v>
       </c>
       <c r="K38">
-        <v>288.8957213780329</v>
+        <v>289.0980903526166</v>
       </c>
       <c r="L38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="M38">
-        <v>4871.227048041612</v>
+        <v>4874.639300801794</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79868.70898262919</v>
+        <v>79924.65632813175</v>
       </c>
       <c r="P38">
-        <v>51315.95539377753</v>
+        <v>51351.9017803259</v>
       </c>
       <c r="Q38">
-        <v>39923.61620556339</v>
+        <v>39951.58235623761</v>
       </c>
       <c r="R38">
-        <v>11392.33918821414</v>
+        <v>11400.31942408828</v>
       </c>
       <c r="S38">
-        <v>28552.75358885167</v>
+        <v>28572.75454780585</v>
       </c>
       <c r="T38">
-        <v>25784.97442303757</v>
+        <v>25803.03657642901</v>
       </c>
       <c r="U38">
-        <v>2436.622979419968</v>
+        <v>2438.329812914907</v>
       </c>
       <c r="V38">
-        <v>331.1562940866062</v>
+        <v>331.3882662298474</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32272.43446374535</v>
+        <v>32207.38083024397</v>
       </c>
       <c r="AI38">
-        <v>4300.929838353579</v>
+        <v>4244.088412794197</v>
       </c>
       <c r="AJ38">
-        <v>27971.50451769926</v>
+        <v>27963.29230968187</v>
       </c>
       <c r="AK38">
-        <v>-35982.56553625465</v>
+        <v>-36047.61916975603</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-58708.9115872058</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>22661.29230968187</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-58725.9115872058</v>
       </c>
       <c r="AO38">
-        <v>161140.5655362547</v>
+        <v>161205.619169756</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.2857</v>
+        <v>9.279199999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76275.17951124845</v>
+        <v>76269.64262343528</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="F39">
-        <v>8143.895668315527</v>
+        <v>8149.654655605514</v>
       </c>
       <c r="G39">
-        <v>68131.28384293293</v>
+        <v>68119.98796782977</v>
       </c>
       <c r="H39">
-        <v>91286.49024922743</v>
+        <v>91351.04384353958</v>
       </c>
       <c r="I39">
-        <v>79444.46647611614</v>
+        <v>79500.64593755937</v>
       </c>
       <c r="J39">
-        <v>11842.02377311128</v>
+        <v>11850.3979059802</v>
       </c>
       <c r="K39">
-        <v>286.7190153249027</v>
+        <v>286.9217697844764</v>
       </c>
       <c r="L39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="M39">
-        <v>4867.811481547889</v>
+        <v>4871.253773246363</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78302.13926360309</v>
+        <v>78357.51092394402</v>
       </c>
       <c r="P39">
-        <v>51242.08610633564</v>
+        <v>51278.32214552593</v>
       </c>
       <c r="Q39">
-        <v>39858.99960975816</v>
+        <v>39887.18605534798</v>
       </c>
       <c r="R39">
-        <v>11383.08639110671</v>
+        <v>11391.1359846326</v>
       </c>
       <c r="S39">
-        <v>27060.05315726747</v>
+        <v>27079.18877841808</v>
       </c>
       <c r="T39">
-        <v>24553.85274171264</v>
+        <v>24571.2160935554</v>
       </c>
       <c r="U39">
-        <v>2047.26313902102</v>
+        <v>2048.710869060435</v>
       </c>
       <c r="V39">
-        <v>458.9373820045774</v>
+        <v>459.2619213476031</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32496.50975077257</v>
+        <v>32431.95615646042</v>
       </c>
       <c r="AI39">
-        <v>4660.53352388386</v>
+        <v>4604.354062440631</v>
       </c>
       <c r="AJ39">
-        <v>27835.97622688872</v>
+        <v>27827.6020940198</v>
       </c>
       <c r="AK39">
-        <v>-35832.49024922743</v>
+        <v>-35897.04384353958</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-58588.64593755937</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>22691.6020940198</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-58596.64593755937</v>
       </c>
       <c r="AO39">
-        <v>159623.4902492274</v>
+        <v>159688.0438435396</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.481299999999999</v>
+        <v>9.474600000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77975.71735271046</v>
+        <v>77970.22888778715</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="F40">
-        <v>8176.334172825234</v>
+        <v>8182.076929433151</v>
       </c>
       <c r="G40">
-        <v>69799.38317988522</v>
+        <v>69788.15195835399</v>
       </c>
       <c r="H40">
-        <v>93735.14739275834</v>
+        <v>93800.98351512147</v>
       </c>
       <c r="I40">
-        <v>82217.67908013707</v>
+        <v>82275.42575607338</v>
       </c>
       <c r="J40">
-        <v>11517.4684158375</v>
+        <v>11525.5578623368</v>
       </c>
       <c r="K40">
-        <v>285.0104248379506</v>
+        <v>285.2106056850107</v>
       </c>
       <c r="L40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="M40">
-        <v>4863.052103546509</v>
+        <v>4866.467732606181</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80772.80221708435</v>
+        <v>80829.53406461742</v>
       </c>
       <c r="P40">
-        <v>52897.34837537674</v>
+        <v>52934.50152867295</v>
       </c>
       <c r="Q40">
-        <v>41856.10895503902</v>
+        <v>41885.50714757891</v>
       </c>
       <c r="R40">
-        <v>11041.23952355394</v>
+        <v>11048.99448438275</v>
       </c>
       <c r="S40">
-        <v>27875.45384170761</v>
+        <v>27895.03253594447</v>
       </c>
       <c r="T40">
-        <v>24873.5701457413</v>
+        <v>24891.04042720212</v>
       </c>
       <c r="U40">
-        <v>2525.654803682755</v>
+        <v>2527.428730788299</v>
       </c>
       <c r="V40">
-        <v>476.2288922835556</v>
+        <v>476.5633779540572</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31707.85260724166</v>
+        <v>31642.01648487854</v>
       </c>
       <c r="AI40">
-        <v>3572.320919862934</v>
+        <v>3514.574243926618</v>
       </c>
       <c r="AJ40">
-        <v>28135.53158416251</v>
+        <v>28127.44213766319</v>
       </c>
       <c r="AK40">
-        <v>-35345.14739275834</v>
+        <v>-35410.98351512147</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-58268.42575607338</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>22857.44213766319</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-58276.42575607338</v>
       </c>
       <c r="AO40">
-        <v>160796.1473927583</v>
+        <v>160861.9835151215</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6884</v>
+        <v>9.6816</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78912.40233941717</v>
+        <v>78906.98363285941</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="F41">
-        <v>8210.443279217505</v>
+        <v>8216.159877296899</v>
       </c>
       <c r="G41">
-        <v>70701.95906019966</v>
+        <v>70690.82375556251</v>
       </c>
       <c r="H41">
-        <v>99236.83160229906</v>
+        <v>99305.92617632516</v>
       </c>
       <c r="I41">
-        <v>89812.61802964604</v>
+        <v>89875.15090665077</v>
       </c>
       <c r="J41">
-        <v>9424.21357265302</v>
+        <v>9430.775269674374</v>
       </c>
       <c r="K41">
-        <v>281.1380457799738</v>
+        <v>281.3337907791042</v>
       </c>
       <c r="L41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="M41">
-        <v>4852.308561056771</v>
+        <v>4855.68702636704</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86320.7873348795</v>
+        <v>86380.88899203842</v>
       </c>
       <c r="P41">
-        <v>55671.92538065947</v>
+        <v>55710.68748044924</v>
       </c>
       <c r="Q41">
-        <v>47422.94363214682</v>
+        <v>47455.96230108677</v>
       </c>
       <c r="R41">
-        <v>8248.981748512655</v>
+        <v>8254.725179362469</v>
       </c>
       <c r="S41">
-        <v>30648.86205505697</v>
+        <v>30670.20161249634</v>
       </c>
       <c r="T41">
-        <v>27357.73237874357</v>
+        <v>27376.78045630216</v>
       </c>
       <c r="U41">
-        <v>2115.89775133609</v>
+        <v>2117.370964975126</v>
       </c>
       <c r="V41">
-        <v>1175.231824140365</v>
+        <v>1176.050090311904</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28453.16839770094</v>
+        <v>28384.07382367484</v>
       </c>
       <c r="AI41">
-        <v>-3117.618029646037</v>
+        <v>-3180.150906650772</v>
       </c>
       <c r="AJ41">
-        <v>31570.78642734698</v>
+        <v>31564.22473032563</v>
       </c>
       <c r="AK41">
-        <v>-35193.83160229906</v>
+        <v>-35262.92617632516</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-59477.15090665077</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>24214.22473032563</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-59485.15090665077</v>
       </c>
       <c r="AO41">
-        <v>162891.8316022991</v>
+        <v>162960.9261763252</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.917</v>
+        <v>9.9101</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80160.59462617914</v>
+        <v>80155.14939001572</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="F42">
-        <v>8192.588091209109</v>
+        <v>8198.336576603548</v>
       </c>
       <c r="G42">
-        <v>71968.00653497003</v>
+        <v>71956.81281341218</v>
       </c>
       <c r="H42">
-        <v>103376.9288445537</v>
+        <v>103449.4652346381</v>
       </c>
       <c r="I42">
-        <v>92353.93126595175</v>
+        <v>92418.73315994309</v>
       </c>
       <c r="J42">
-        <v>11022.99767209222</v>
+        <v>11030.73216825088</v>
       </c>
       <c r="K42">
-        <v>277.714349821901</v>
+        <v>277.9092133822318</v>
       </c>
       <c r="L42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="M42">
-        <v>4836.394080195955</v>
+        <v>4839.787628171544</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90502.415040715</v>
+        <v>90565.91778310006</v>
       </c>
       <c r="P42">
-        <v>55426.49551714143</v>
+        <v>55465.38657286131</v>
       </c>
       <c r="Q42">
-        <v>47171.96787674242</v>
+        <v>47205.06698600404</v>
       </c>
       <c r="R42">
-        <v>8254.527640399016</v>
+        <v>8260.319586857271</v>
       </c>
       <c r="S42">
-        <v>35075.91961706384</v>
+        <v>35100.53130379463</v>
       </c>
       <c r="T42">
-        <v>29852.1977693221</v>
+        <v>29873.14413217573</v>
       </c>
       <c r="U42">
-        <v>2455.25181604854</v>
+        <v>2456.974590225282</v>
       </c>
       <c r="V42">
-        <v>2768.470031693202</v>
+        <v>2770.412581393608</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>25026.07115544631</v>
+        <v>24953.5347653619</v>
       </c>
       <c r="AI42">
-        <v>-4432.931265951745</v>
+        <v>-4497.733159943091</v>
       </c>
       <c r="AJ42">
-        <v>29459.00232790778</v>
+        <v>29451.26783174912</v>
       </c>
       <c r="AK42">
-        <v>-35489.9288445537</v>
+        <v>-35562.4652346381</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-59802.73315994309</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>24240.26783174912</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-59810.73315994309</v>
       </c>
       <c r="AO42">
-        <v>163900.9288445537</v>
+        <v>163973.4652346381</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6963</v>
+        <v>10.6888</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79302.32518062349</v>
+        <v>79296.91626708473</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="F43">
-        <v>8156.410363246972</v>
+        <v>8162.123802296589</v>
       </c>
       <c r="G43">
-        <v>71145.91481737651</v>
+        <v>71134.79246478815</v>
       </c>
       <c r="H43">
-        <v>101628.7020941492</v>
+        <v>101699.8914249022</v>
       </c>
       <c r="I43">
-        <v>92820.26808109933</v>
+        <v>92885.28724034125</v>
       </c>
       <c r="J43">
-        <v>8808.434096382529</v>
+        <v>8814.604267952002</v>
       </c>
       <c r="K43">
-        <v>274.1440487995934</v>
+        <v>274.3360824570328</v>
       </c>
       <c r="L43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="M43">
-        <v>4823.07072441063</v>
+        <v>4826.449210704071</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88809.81250156248</v>
+        <v>88872.02239882587</v>
       </c>
       <c r="P43">
-        <v>54025.32070566079</v>
+        <v>54063.16460551883</v>
       </c>
       <c r="Q43">
-        <v>46403.91405071625</v>
+        <v>46436.41927333073</v>
       </c>
       <c r="R43">
-        <v>7621.406654944542</v>
+        <v>7626.745332188098</v>
       </c>
       <c r="S43">
-        <v>34784.4917959017</v>
+        <v>34808.85779330704</v>
       </c>
       <c r="T43">
-        <v>31135.30487245939</v>
+        <v>31157.11467098077</v>
       </c>
       <c r="U43">
-        <v>2462.159565336955</v>
+        <v>2463.884269953385</v>
       </c>
       <c r="V43">
-        <v>1187.027441437988</v>
+        <v>1187.858935763903</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24516.29790585078</v>
+        <v>24445.10857509777</v>
       </c>
       <c r="AI43">
-        <v>-5796.268081099333</v>
+        <v>-5861.287240341248</v>
       </c>
       <c r="AJ43">
-        <v>30312.56590361747</v>
+        <v>30306.395732048</v>
       </c>
       <c r="AK43">
-        <v>-36304.70209414922</v>
+        <v>-36375.89142490224</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-59804.28724034125</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>23428.395732048</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-59812.28724034125</v>
       </c>
       <c r="AO43">
-        <v>162457.7020941492</v>
+        <v>162528.8914249023</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6342,7 +6342,7 @@
         <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>12.0001</v>
+        <v>11.9917</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77251.88611664317</v>
+        <v>77246.50209742189</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="F44">
-        <v>8329.857906867461</v>
+        <v>8335.640198844552</v>
       </c>
       <c r="G44">
-        <v>68922.02820977572</v>
+        <v>68910.86189857734</v>
       </c>
       <c r="H44">
-        <v>101703.8873100763</v>
+        <v>101774.4865421649</v>
       </c>
       <c r="I44">
-        <v>92940.77692497036</v>
+        <v>93005.29311657486</v>
       </c>
       <c r="J44">
-        <v>8763.110385105954</v>
+        <v>8769.19342559004</v>
       </c>
       <c r="K44">
-        <v>274.3460359372552</v>
+        <v>274.5364772269247</v>
       </c>
       <c r="L44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="M44">
-        <v>4837.432328611813</v>
+        <v>4840.790302596026</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88835.99506217041</v>
+        <v>88897.66185976384</v>
       </c>
       <c r="P44">
-        <v>54159.16825169505</v>
+        <v>54196.76362577813</v>
       </c>
       <c r="Q44">
-        <v>46601.39213975102</v>
+        <v>46633.74117366057</v>
       </c>
       <c r="R44">
-        <v>7557.776111944027</v>
+        <v>7563.022452117575</v>
       </c>
       <c r="S44">
-        <v>34676.82681047536</v>
+        <v>34700.8982339857</v>
       </c>
       <c r="T44">
-        <v>31209.39388514698</v>
+        <v>31231.05833967785</v>
       </c>
       <c r="U44">
-        <v>2262.098652166454</v>
+        <v>2263.668920835386</v>
       </c>
       <c r="V44">
-        <v>1205.334273161926</v>
+        <v>1206.170973472465</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22321.1126899237</v>
+        <v>22250.5134578351</v>
       </c>
       <c r="AI44">
-        <v>-7932.776924970356</v>
+        <v>-7997.29311657486</v>
       </c>
       <c r="AJ44">
-        <v>30253.88961489405</v>
+        <v>30247.80657440996</v>
       </c>
       <c r="AK44">
-        <v>-38078.8873100763</v>
+        <v>-38149.4865421649</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-61672.29311657486</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>23522.80657440996</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-62064.29311657486</v>
       </c>
       <c r="AO44">
-        <v>162495.8873100763</v>
+        <v>162566.4865421649</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.4067</v>
+        <v>13.3974</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76402.00801851097</v>
+        <v>76396.53347653548</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="F45">
-        <v>8297.574145759358</v>
+        <v>8303.434739869661</v>
       </c>
       <c r="G45">
-        <v>68104.43387275162</v>
+        <v>68093.09873666582</v>
       </c>
       <c r="H45">
-        <v>101863.0975318703</v>
+        <v>101935.0436523829</v>
       </c>
       <c r="I45">
-        <v>94226.7577420106</v>
+        <v>94293.3102996323</v>
       </c>
       <c r="J45">
-        <v>7636.339862622969</v>
+        <v>7641.733425565223</v>
       </c>
       <c r="K45">
-        <v>273.816578380581</v>
+        <v>274.0099756070921</v>
       </c>
       <c r="L45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="M45">
-        <v>4836.816170906339</v>
+        <v>4840.232424363782</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89001.47280109435</v>
+        <v>89064.33472894746</v>
       </c>
       <c r="P45">
-        <v>53546.49834099773</v>
+        <v>53584.31834565115</v>
       </c>
       <c r="Q45">
-        <v>46337.41050119331</v>
+        <v>46370.13871190884</v>
       </c>
       <c r="R45">
-        <v>7209.087912567669</v>
+        <v>7214.179706556959</v>
       </c>
       <c r="S45">
-        <v>35454.97446009663</v>
+        <v>35480.01638329632</v>
       </c>
       <c r="T45">
-        <v>33099.86735258164</v>
+        <v>33123.24585866676</v>
       </c>
       <c r="U45">
-        <v>1927.855157459689</v>
+        <v>1929.216805621291</v>
       </c>
       <c r="V45">
-        <v>427.2519500553</v>
+        <v>427.5537190082645</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>21026.9024681297</v>
+        <v>20954.95634761715</v>
       </c>
       <c r="AI45">
-        <v>-10073.7577420106</v>
+        <v>-10140.3102996323</v>
       </c>
       <c r="AJ45">
-        <v>31100.66013737703</v>
+        <v>31095.26657443478</v>
       </c>
       <c r="AK45">
-        <v>-38929.0975318703</v>
+        <v>-39001.04365238285</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-62869.3102996323</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>23868.26657443478</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-63261.3102996323</v>
       </c>
       <c r="AO45">
-        <v>162211.0975318703</v>
+        <v>162283.0436523829</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,7 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7432</v>
+        <v>13.7335</v>
       </c>
     </row>
     <row r="46">
@@ -6627,64 +6627,64 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70621.12258904272</v>
+        <v>70615.72128516169</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7745.877410957282</v>
+        <v>7751.278714838302</v>
       </c>
       <c r="F46">
-        <v>8198.895725686638</v>
+        <v>8204.612925295371</v>
       </c>
       <c r="G46">
-        <v>62422.22686335607</v>
+        <v>62411.10835986632</v>
       </c>
       <c r="H46">
-        <v>104859.0792016724</v>
+        <v>104932.1988395653</v>
       </c>
       <c r="I46">
-        <v>97274.63127309064</v>
+        <v>97342.4621740389</v>
       </c>
       <c r="J46">
-        <v>7584.447994320198</v>
+        <v>7589.736731310686</v>
       </c>
       <c r="K46">
-        <v>271.2761803336883</v>
+        <v>271.4653448411967</v>
       </c>
       <c r="L46">
-        <v>7745.877410957282</v>
+        <v>7751.278714838302</v>
       </c>
       <c r="M46">
-        <v>4833.618769639359</v>
+        <v>4836.989316632898</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92008.30684074205</v>
+        <v>92072.4654632529</v>
       </c>
       <c r="P46">
-        <v>53523.8272919707</v>
+        <v>53561.15017235481</v>
       </c>
       <c r="Q46">
-        <v>46307.66536504556</v>
+        <v>46339.95631923795</v>
       </c>
       <c r="R46">
-        <v>7216.161992663589</v>
+        <v>7221.193918901139</v>
       </c>
       <c r="S46">
-        <v>38484.47948303291</v>
+        <v>38511.3152251138</v>
       </c>
       <c r="T46">
-        <v>35769.46429745329</v>
+        <v>35794.40682314554</v>
       </c>
       <c r="U46">
-        <v>2346.729249661447</v>
+        <v>2348.365655342999</v>
       </c>
       <c r="V46">
-        <v>368.2860016566087</v>
+        <v>368.5428124095466</v>
       </c>
       <c r="W46">
         <v>59268</v>
@@ -6720,28 +6720,28 @@
         <v>7180</v>
       </c>
       <c r="AH46">
-        <v>12013.92079832761</v>
+        <v>11940.8011604347</v>
       </c>
       <c r="AI46">
-        <v>-18907.63127309064</v>
+        <v>-18975.4621740389</v>
       </c>
       <c r="AJ46">
-        <v>30921.5520056798</v>
+        <v>30916.26326868931</v>
       </c>
       <c r="AK46">
-        <v>-46853.07920167239</v>
+        <v>-46926.1988395653</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-70662.4621740389</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>23736.26326868931</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-71063.4621740389</v>
       </c>
       <c r="AO46">
-        <v>164127.0792016724</v>
+        <v>164200.1988395653</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6753,7 +6753,7 @@
         <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2118</v>
+        <v>15.2012</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -736,64 +736,64 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52320.58078816316</v>
+        <v>52321.66853164957</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="F3">
-        <v>8882.889979561876</v>
+        <v>8876.629654666533</v>
       </c>
       <c r="G3">
-        <v>43437.69080860129</v>
+        <v>43445.03887698304</v>
       </c>
       <c r="H3">
-        <v>82097.70949077405</v>
+        <v>82039.85013016526</v>
       </c>
       <c r="I3">
-        <v>70323.80696047669</v>
+        <v>70274.24540106722</v>
       </c>
       <c r="J3">
-        <v>11773.90267422781</v>
+        <v>11765.60487292706</v>
       </c>
       <c r="K3">
-        <v>342.7305046201676</v>
+        <v>342.488961123017</v>
       </c>
       <c r="L3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="M3">
-        <v>4916.849218457641</v>
+        <v>4913.384009089994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75294.71055585941</v>
+        <v>75241.64569160182</v>
       </c>
       <c r="P3">
-        <v>45943.69152825355</v>
+        <v>45911.31215211357</v>
       </c>
       <c r="Q3">
-        <v>34961.35726416995</v>
+        <v>34936.71782185338</v>
       </c>
       <c r="R3">
-        <v>10982.33440801405</v>
+        <v>10974.5944740892</v>
       </c>
       <c r="S3">
-        <v>29351.01888367541</v>
+        <v>29330.33339565924</v>
       </c>
       <c r="T3">
-        <v>25515.92417743746</v>
+        <v>25497.94151912207</v>
       </c>
       <c r="U3">
-        <v>3043.526583954633</v>
+        <v>3041.381621528327</v>
       </c>
       <c r="V3">
-        <v>791.5682662137655</v>
+        <v>791.0103988378615</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>11950.29050922595</v>
+        <v>12008.14986983474</v>
       </c>
       <c r="AI3">
-        <v>-16459.80696047669</v>
+        <v>-16410.24540106722</v>
       </c>
       <c r="AJ3">
-        <v>28410.09732577219</v>
+        <v>28418.39512707294</v>
       </c>
       <c r="AK3">
-        <v>-45049.70949077405</v>
+        <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68239.80696047669</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>23190.09732577219</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-69524.80696047669</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>140382.7094907741</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9478</v>
+        <v>6.9527</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213</v>
+        <v>95213.00000000002</v>
       </c>
       <c r="C4">
-        <v>52942.0817820074</v>
+        <v>52943.16064178856</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="F4">
-        <v>8951.982218883044</v>
+        <v>8945.758995606473</v>
       </c>
       <c r="G4">
-        <v>43990.09956312436</v>
+        <v>43997.40164618209</v>
       </c>
       <c r="H4">
-        <v>81509.02927345075</v>
+        <v>81452.36596963462</v>
       </c>
       <c r="I4">
-        <v>70098.69716448228</v>
+        <v>70049.96607530171</v>
       </c>
       <c r="J4">
-        <v>11410.33210896847</v>
+        <v>11402.39989433291</v>
       </c>
       <c r="K4">
-        <v>370.6254000055653</v>
+        <v>370.3677492909181</v>
       </c>
       <c r="L4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="M4">
-        <v>4935.726410106575</v>
+        <v>4932.295200489405</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74650.75924534601</v>
+        <v>74598.86366164284</v>
       </c>
       <c r="P4">
-        <v>46203.50015304561</v>
+        <v>46171.38048495634</v>
       </c>
       <c r="Q4">
-        <v>35163.98224670952</v>
+        <v>35139.53701128969</v>
       </c>
       <c r="R4">
-        <v>11039.51790633609</v>
+        <v>11031.84347366665</v>
       </c>
       <c r="S4">
-        <v>28447.25909230041</v>
+        <v>28427.4831766865</v>
       </c>
       <c r="T4">
-        <v>24906.5791524056</v>
+        <v>24889.26464045381</v>
       </c>
       <c r="U4">
-        <v>3169.865737262431</v>
+        <v>3167.662115566431</v>
       </c>
       <c r="V4">
-        <v>370.8142026323844</v>
+        <v>370.5564206662588</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13703.97072654925</v>
+        <v>13760.6340303654</v>
       </c>
       <c r="AI4">
-        <v>-15604.69716448228</v>
+        <v>-15555.96607530171</v>
       </c>
       <c r="AJ4">
-        <v>29308.66789103153</v>
+        <v>29316.60010566709</v>
       </c>
       <c r="AK4">
-        <v>-44296.02927345075</v>
+        <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68429.69716448228</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>24133.66789103153</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-69855.69716448228</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>140935.0292734508</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953851</v>
+        <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
         <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1874</v>
+        <v>7.1924</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51705.67601246106</v>
+        <v>51706.75148945306</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="F5">
-        <v>8875.588140509184</v>
+        <v>8869.395094197842</v>
       </c>
       <c r="G5">
-        <v>42830.08787195187</v>
+        <v>42837.35639525522</v>
       </c>
       <c r="H5">
-        <v>80279.71412074337</v>
+        <v>80223.69800332779</v>
       </c>
       <c r="I5">
-        <v>68506.54151896015</v>
+        <v>68458.74027159036</v>
       </c>
       <c r="J5">
-        <v>11773.17273606188</v>
+        <v>11764.95786592239</v>
       </c>
       <c r="K5">
-        <v>341.6905682672683</v>
+        <v>341.452149643068</v>
       </c>
       <c r="L5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="M5">
-        <v>4916.601944354926</v>
+        <v>4913.17132735763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73480.09762058224</v>
+        <v>73428.82601578016</v>
       </c>
       <c r="P5">
-        <v>44905.15415189602</v>
+        <v>44873.82105093661</v>
       </c>
       <c r="Q5">
-        <v>33623.49701901386</v>
+        <v>33600.03582738447</v>
       </c>
       <c r="R5">
-        <v>11281.65726716081</v>
+        <v>11273.78535773711</v>
       </c>
       <c r="S5">
-        <v>28574.94346868622</v>
+        <v>28555.00496484354</v>
       </c>
       <c r="T5">
-        <v>25305.5794123966</v>
+        <v>25287.92214588589</v>
       </c>
       <c r="U5">
-        <v>2777.848587388549</v>
+        <v>2775.910310772369</v>
       </c>
       <c r="V5">
-        <v>491.5154689010635</v>
+        <v>491.1725081852826</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11383.28587925663</v>
+        <v>11439.30199667221</v>
       </c>
       <c r="AI5">
-        <v>-15259.54151896015</v>
+        <v>-15211.74027159036</v>
       </c>
       <c r="AJ5">
-        <v>26642.82726393813</v>
+        <v>26651.04213407761</v>
       </c>
       <c r="AK5">
-        <v>-46316.71412074337</v>
+        <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67763.54151896015</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>21446.82726393813</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-68749.54151896015</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
-        <v>138965.7141207434</v>
+        <v>138909.6980033278</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4472</v>
+        <v>7.4524</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51128.4043874506</v>
+        <v>51129.47699003304</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="F6">
-        <v>8678.590343307256</v>
+        <v>8672.528409854122</v>
       </c>
       <c r="G6">
-        <v>42449.81404414335</v>
+        <v>42456.94858017892</v>
       </c>
       <c r="H6">
-        <v>80848.92934914106</v>
+        <v>80792.45694866077</v>
       </c>
       <c r="I6">
-        <v>68905.79751055193</v>
+        <v>68857.66730247428</v>
       </c>
       <c r="J6">
-        <v>11943.13183858913</v>
+        <v>11934.7896461865</v>
       </c>
       <c r="K6">
-        <v>339.1148479716106</v>
+        <v>338.8779786691025</v>
       </c>
       <c r="L6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="M6">
-        <v>4905.919160147324</v>
+        <v>4902.492410606345</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74068.29972847273</v>
+        <v>74016.56354941837</v>
       </c>
       <c r="P6">
-        <v>44960.22367395221</v>
+        <v>44928.81927840313</v>
       </c>
       <c r="Q6">
-        <v>33505.05000403259</v>
+        <v>33481.6469655858</v>
       </c>
       <c r="R6">
-        <v>11455.17366991962</v>
+        <v>11447.17231281734</v>
       </c>
       <c r="S6">
-        <v>29108.07605452053</v>
+        <v>29087.74427101523</v>
       </c>
       <c r="T6">
-        <v>26423.88633491948</v>
+        <v>26405.42943878784</v>
       </c>
       <c r="U6">
-        <v>2196.231550931527</v>
+        <v>2194.697498858233</v>
       </c>
       <c r="V6">
-        <v>487.9581686695164</v>
+        <v>487.6173333691535</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10762.07065085894</v>
+        <v>10818.54305133924</v>
       </c>
       <c r="AI6">
-        <v>-16241.79751055193</v>
+        <v>-16193.66730247428</v>
       </c>
       <c r="AJ6">
-        <v>27003.86816141087</v>
+        <v>27012.21035381351</v>
       </c>
       <c r="AK6">
-        <v>-46837.92934914106</v>
+        <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68666.79751055193</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>21828.86816141087</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-69652.79751055193</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
-        <v>139434.9293491411</v>
+        <v>139378.4569486608</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4394</v>
+        <v>7.4446</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52363.23865755962</v>
+        <v>52364.30885172918</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="F7">
-        <v>8702.247956951733</v>
+        <v>8696.179850616174</v>
       </c>
       <c r="G7">
-        <v>43660.99070060789</v>
+        <v>43668.129001113</v>
       </c>
       <c r="H7">
-        <v>79677.78854282686</v>
+        <v>79622.22895686104</v>
       </c>
       <c r="I7">
-        <v>67573.962238832</v>
+        <v>67526.84269105439</v>
       </c>
       <c r="J7">
-        <v>12103.82630399485</v>
+        <v>12095.38626580666</v>
       </c>
       <c r="K7">
-        <v>338.5414849505509</v>
+        <v>338.3054188513269</v>
       </c>
       <c r="L7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="M7">
-        <v>4905.285087425022</v>
+        <v>4901.864615879742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72899.20062801091</v>
+        <v>72848.36777385917</v>
       </c>
       <c r="P7">
-        <v>44490.61754404799</v>
+        <v>44459.59408901345</v>
       </c>
       <c r="Q7">
-        <v>33292.187705479</v>
+        <v>33268.97295267724</v>
       </c>
       <c r="R7">
-        <v>11198.42983856899</v>
+        <v>11190.62113633621</v>
       </c>
       <c r="S7">
-        <v>28408.58308396291</v>
+        <v>28388.77368484572</v>
       </c>
       <c r="T7">
-        <v>25448.43815837147</v>
+        <v>25430.69287811943</v>
       </c>
       <c r="U7">
-        <v>2054.748460165591</v>
+        <v>2053.315677255843</v>
       </c>
       <c r="V7">
-        <v>905.3964654258532</v>
+        <v>904.7651294704517</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13483.21145717314</v>
+        <v>13538.77104313896</v>
       </c>
       <c r="AI7">
-        <v>-13675.962238832</v>
+        <v>-13628.84269105439</v>
       </c>
       <c r="AJ7">
-        <v>27159.17369600515</v>
+        <v>27167.61373419334</v>
       </c>
       <c r="AK7">
-        <v>-48616.78854282686</v>
+        <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70526.962238832</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>21910.17369600515</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-71512.962238832</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
-        <v>142763.7885428269</v>
+        <v>142708.228956861</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4521</v>
+        <v>7.4573</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49367.53001146775</v>
+        <v>49368.60578775706</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="F8">
-        <v>8639.983743525765</v>
+        <v>8633.890742862901</v>
       </c>
       <c r="G8">
-        <v>40727.54626794198</v>
+        <v>40734.71504489415</v>
       </c>
       <c r="H8">
-        <v>78043.71428931483</v>
+        <v>77988.67710209171</v>
       </c>
       <c r="I8">
-        <v>66754.0167353471</v>
+        <v>66706.94115276607</v>
       </c>
       <c r="J8">
-        <v>11289.69755396772</v>
+        <v>11281.73594932564</v>
       </c>
       <c r="K8">
-        <v>334.3734956460373</v>
+        <v>334.1376922011359</v>
       </c>
       <c r="L8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="M8">
-        <v>4888.89040111905</v>
+        <v>4885.44270800539</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71294.98040401749</v>
+        <v>71244.70248964224</v>
       </c>
       <c r="P8">
-        <v>44270.31870250652</v>
+        <v>44239.09884270045</v>
       </c>
       <c r="Q8">
-        <v>33103.44360011593</v>
+        <v>33080.09872936317</v>
       </c>
       <c r="R8">
-        <v>11166.8749763714</v>
+        <v>11158.99998740697</v>
       </c>
       <c r="S8">
-        <v>27024.66170151097</v>
+        <v>27005.60364694179</v>
       </c>
       <c r="T8">
-        <v>25195.77382077552</v>
+        <v>25178.00551574759</v>
       </c>
       <c r="U8">
-        <v>1706.065429158318</v>
+        <v>1704.862295205833</v>
       </c>
       <c r="V8">
-        <v>122.8225775963102</v>
+        <v>122.7359619186742</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12594.28571068517</v>
+        <v>12649.32289790829</v>
       </c>
       <c r="AI8">
-        <v>-15861.0167353471</v>
+        <v>-15813.94115276607</v>
       </c>
       <c r="AJ8">
-        <v>28455.30244603229</v>
+        <v>28463.26405067436</v>
       </c>
       <c r="AK8">
-        <v>-47405.71428931483</v>
+        <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70725.0167353471</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>23319.30244603229</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-71711.0167353471</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
-        <v>139029.7142893148</v>
+        <v>138974.6771020917</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9353</v>
+        <v>7.9409</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46564.48597672994</v>
+        <v>46565.54670958425</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="F9">
-        <v>8646.556766687079</v>
+        <v>8640.524802036545</v>
       </c>
       <c r="G9">
-        <v>37917.92921004287</v>
+        <v>37925.0219075477</v>
       </c>
       <c r="H9">
-        <v>76957.35492957747</v>
+        <v>76903.66835154883</v>
       </c>
       <c r="I9">
-        <v>65852.72541334966</v>
+        <v>65806.78558752616</v>
       </c>
       <c r="J9">
-        <v>11104.6295162278</v>
+        <v>11096.88276402267</v>
       </c>
       <c r="K9">
-        <v>331.9935088793632</v>
+        <v>331.7619053447073</v>
       </c>
       <c r="L9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="M9">
-        <v>4880.893570116351</v>
+        <v>4877.488587269145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70223.95382731171</v>
+        <v>70174.96456851922</v>
       </c>
       <c r="P9">
-        <v>44333.47299448868</v>
+        <v>44302.54531435495</v>
       </c>
       <c r="Q9">
-        <v>33240.53067973056</v>
+        <v>33217.34159863904</v>
       </c>
       <c r="R9">
-        <v>11092.94231475812</v>
+        <v>11085.20371571591</v>
       </c>
       <c r="S9">
-        <v>25890.48071034905</v>
+        <v>25872.41913177574</v>
       </c>
       <c r="T9">
-        <v>24617.59020208206</v>
+        <v>24600.41661057192</v>
       </c>
       <c r="U9">
-        <v>1261.20342927128</v>
+        <v>1260.323595285594</v>
       </c>
       <c r="V9">
-        <v>11.68720146968769</v>
+        <v>11.67904830675462</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10488.64507042253</v>
+        <v>10542.33164845117</v>
       </c>
       <c r="AI9">
-        <v>-17767.72541334966</v>
+        <v>-17721.78558752616</v>
       </c>
       <c r="AJ9">
-        <v>28256.3704837722</v>
+        <v>28264.11723597733</v>
       </c>
       <c r="AK9">
-        <v>-49411.35492957747</v>
+        <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72479.72541334966</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>23068.3704837722</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-73319.72541334966</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
-        <v>137697.3549295775</v>
+        <v>137643.6683515488</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.164999999999999</v>
+        <v>8.1707</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47849.01274229386</v>
+        <v>47850.0811599892</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="F10">
-        <v>8670.700826162212</v>
+        <v>8664.637994062661</v>
       </c>
       <c r="G10">
-        <v>39178.31191613165</v>
+        <v>39185.44316592654</v>
       </c>
       <c r="H10">
-        <v>79586.61973214177</v>
+        <v>79530.97021516721</v>
       </c>
       <c r="I10">
-        <v>68301.73248548387</v>
+        <v>68253.9737235948</v>
       </c>
       <c r="J10">
-        <v>11284.88736941604</v>
+        <v>11276.99661424471</v>
       </c>
       <c r="K10">
-        <v>335.4784498103387</v>
+        <v>335.2438725189529</v>
       </c>
       <c r="L10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="M10">
-        <v>4897.168829255717</v>
+        <v>4893.744571751025</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72825.98519536956</v>
+        <v>72775.06293088643</v>
       </c>
       <c r="P10">
-        <v>44702.7993763887</v>
+        <v>44671.54174538139</v>
       </c>
       <c r="Q10">
-        <v>33429.78910153325</v>
+        <v>33406.41392085184</v>
       </c>
       <c r="R10">
-        <v>11273.01039761358</v>
+        <v>11265.12794720185</v>
       </c>
       <c r="S10">
-        <v>28123.18581898086</v>
+        <v>28103.52118550504</v>
       </c>
       <c r="T10">
-        <v>26455.31100772148</v>
+        <v>26436.81260580486</v>
       </c>
       <c r="U10">
-        <v>1655.997839456918</v>
+        <v>1654.839912657327</v>
       </c>
       <c r="V10">
-        <v>11.87697180245762</v>
+        <v>11.8686670428617</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9733.380267858229</v>
+        <v>9789.02978483279</v>
       </c>
       <c r="AI10">
-        <v>-18924.73248548387</v>
+        <v>-18876.9737235948</v>
       </c>
       <c r="AJ10">
-        <v>28658.11263058396</v>
+        <v>28666.00338575529</v>
       </c>
       <c r="AK10">
-        <v>-49366.61973214177</v>
+        <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72822.73248548387</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>23456.11263058396</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-73662.73248548387</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
-        <v>139526.6197321418</v>
+        <v>139470.9702151672</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.146100000000001</v>
+        <v>8.1518</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48151.40566389269</v>
+        <v>48152.49065994762</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="F11">
-        <v>8200.697304682648</v>
+        <v>8194.895428649448</v>
       </c>
       <c r="G11">
-        <v>39950.70835921004</v>
+        <v>39957.59523129818</v>
       </c>
       <c r="H11">
-        <v>79149.44143584647</v>
+        <v>79093.44433825265</v>
       </c>
       <c r="I11">
-        <v>68195.3418208918</v>
+        <v>68147.09459207865</v>
       </c>
       <c r="J11">
-        <v>10954.09961495467</v>
+        <v>10946.34974617399</v>
       </c>
       <c r="K11">
-        <v>338.0721649484536</v>
+        <v>337.8329837278291</v>
       </c>
       <c r="L11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="M11">
-        <v>4908.665880014905</v>
+        <v>4905.193069122594</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72369.10905477581</v>
+        <v>72317.90894534985</v>
       </c>
       <c r="P11">
-        <v>43146.85504906223</v>
+        <v>43116.32926632493</v>
       </c>
       <c r="Q11">
-        <v>32327.04198236244</v>
+        <v>32304.17106259387</v>
       </c>
       <c r="R11">
-        <v>10819.81306669979</v>
+        <v>10812.15820373106</v>
       </c>
       <c r="S11">
-        <v>29222.25400571358</v>
+        <v>29201.57967902492</v>
       </c>
       <c r="T11">
-        <v>26855.37734442926</v>
+        <v>26836.37754912061</v>
       </c>
       <c r="U11">
-        <v>2232.590113029437</v>
+        <v>2231.010587461368</v>
       </c>
       <c r="V11">
-        <v>134.2865482548752</v>
+        <v>134.1915424429357</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10390.55856415353</v>
+        <v>10446.55566174735</v>
       </c>
       <c r="AI11">
-        <v>-18510.3418208918</v>
+        <v>-18462.09459207865</v>
       </c>
       <c r="AJ11">
-        <v>28900.90038504534</v>
+        <v>28908.65025382601</v>
       </c>
       <c r="AK11">
-        <v>-49209.44143584647</v>
+        <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72841.3418208918</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>23631.90038504534</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-73681.3418208918</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
-        <v>139589.4414358465</v>
+        <v>139533.4443382527</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.051</v>
+        <v>8.056699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46431.33823031125</v>
+        <v>46432.40058529035</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="F12">
-        <v>8539.586983881118</v>
+        <v>8533.597479865528</v>
       </c>
       <c r="G12">
-        <v>37891.75124643013</v>
+        <v>37898.80310542482</v>
       </c>
       <c r="H12">
-        <v>76293.41921196572</v>
+        <v>76239.90845768737</v>
       </c>
       <c r="I12">
-        <v>65167.43949368314</v>
+        <v>65121.73229012988</v>
       </c>
       <c r="J12">
-        <v>11125.97971828259</v>
+        <v>11118.1761675575</v>
       </c>
       <c r="K12">
-        <v>333.6490149571615</v>
+        <v>333.4149998790722</v>
       </c>
       <c r="L12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="M12">
-        <v>4838.162786194878</v>
+        <v>4834.769390765957</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69606.94564112493</v>
+        <v>69558.1246523327</v>
       </c>
       <c r="P12">
-        <v>42739.44237378382</v>
+        <v>42709.46574116623</v>
       </c>
       <c r="Q12">
-        <v>31883.23273149717</v>
+        <v>31860.87043800034</v>
       </c>
       <c r="R12">
-        <v>10856.20964228665</v>
+        <v>10848.59530316589</v>
       </c>
       <c r="S12">
-        <v>26867.50326734111</v>
+        <v>26848.65891116647</v>
       </c>
       <c r="T12">
-        <v>24978.27218161576</v>
+        <v>24960.7528962198</v>
       </c>
       <c r="U12">
-        <v>1619.461009729416</v>
+        <v>1618.325150555058</v>
       </c>
       <c r="V12">
-        <v>269.770075995934</v>
+        <v>269.5808643916125</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12382.58078803428</v>
+        <v>12436.09154231263</v>
       </c>
       <c r="AI12">
-        <v>-17221.43949368314</v>
+        <v>-17175.73229012988</v>
       </c>
       <c r="AJ12">
-        <v>29604.02028171741</v>
+        <v>29611.8238324425</v>
       </c>
       <c r="AK12">
-        <v>-47417.41921196572</v>
+        <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71869.43949368314</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>24452.02028171741</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-72709.43949368314</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
-        <v>136933.4192119657</v>
+        <v>136879.9084576874</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.2636</v>
+        <v>8.269399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45371.34075107717</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F13">
-        <v>8714.338156090873</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G13">
-        <v>36657.00259498629</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H13">
-        <v>76081.21597140617</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I13">
-        <v>65034.56093321581</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J13">
-        <v>11046.65516059538</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K13">
-        <v>341.5631120250685</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M13">
-        <v>4927.984356639247</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69269.00925381902</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P13">
-        <v>43701.29553466509</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q13">
-        <v>32771.75161574617</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R13">
-        <v>10929.54404132393</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S13">
-        <v>25567.71371915393</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T13">
-        <v>24359.49654817861</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U13">
-        <v>1091.106051703878</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V13">
-        <v>117.1111192714454</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11768.78402859383</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI13">
-        <v>-18120.56093321581</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ13">
-        <v>29889.34483940463</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK13">
-        <v>-48931.21597140617</v>
+        <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73236.56093321581</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>24305.34483940463</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-74154.56093321581</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
-        <v>137699.2159714062</v>
+        <v>137646.1704646924</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.169600000000001</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90326</v>
+        <v>90325.99999999999</v>
       </c>
       <c r="C14">
-        <v>47319.68341284758</v>
+        <v>47320.75757867617</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="F14">
-        <v>8726.288130692497</v>
+        <v>8720.194794250077</v>
       </c>
       <c r="G14">
-        <v>38593.39528215508</v>
+        <v>38600.56278442609</v>
       </c>
       <c r="H14">
-        <v>78441.90195653221</v>
+        <v>78387.12804892729</v>
       </c>
       <c r="I14">
-        <v>66985.14216182353</v>
+        <v>66938.3682068816</v>
       </c>
       <c r="J14">
-        <v>11456.75979470869</v>
+        <v>11448.7598420457</v>
       </c>
       <c r="K14">
-        <v>339.0429376897499</v>
+        <v>338.8061929642917</v>
       </c>
       <c r="L14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="M14">
-        <v>4916.771119464122</v>
+        <v>4913.337868098529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71647.77131222592</v>
+        <v>71597.74156654064</v>
       </c>
       <c r="P14">
-        <v>43704.02667341333</v>
+        <v>43673.50930630131</v>
       </c>
       <c r="Q14">
-        <v>32660.53503445617</v>
+        <v>32637.72904577303</v>
       </c>
       <c r="R14">
-        <v>11043.49163895716</v>
+        <v>11035.78026052828</v>
       </c>
       <c r="S14">
-        <v>27943.74451833647</v>
+        <v>27924.23213984734</v>
       </c>
       <c r="T14">
-        <v>25657.76179461231</v>
+        <v>25639.84565746069</v>
       </c>
       <c r="U14">
-        <v>1872.71468844875</v>
+        <v>1871.407021261226</v>
       </c>
       <c r="V14">
-        <v>413.2681557515301</v>
+        <v>412.9795815174207</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11884.09804346779</v>
+        <v>11938.8719510727</v>
       </c>
       <c r="AI14">
-        <v>-18127.14216182353</v>
+        <v>-18080.3682068816</v>
       </c>
       <c r="AJ14">
-        <v>30011.24020529131</v>
+        <v>30019.2401579543</v>
       </c>
       <c r="AK14">
-        <v>-47915.90195653221</v>
+        <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72361.14216182353</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>24445.24020529131</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-72920.14216182353</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
-        <v>138800.9019565322</v>
+        <v>138746.1280489273</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875961</v>
+        <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.3004</v>
+        <v>8.306200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91974</v>
+        <v>91973.99999999999</v>
       </c>
       <c r="C15">
-        <v>48043.95064546124</v>
+        <v>48045.03345119287</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="F15">
-        <v>8783.798379403204</v>
+        <v>8777.650451928996</v>
       </c>
       <c r="G15">
-        <v>39260.15226605804</v>
+        <v>39267.38299926388</v>
       </c>
       <c r="H15">
-        <v>79458.4395415957</v>
+        <v>79402.82525009957</v>
       </c>
       <c r="I15">
-        <v>67720.53653588376</v>
+        <v>67673.1377991239</v>
       </c>
       <c r="J15">
-        <v>11737.90300571194</v>
+        <v>11729.68745097566</v>
       </c>
       <c r="K15">
-        <v>342.2626767621877</v>
+        <v>342.0231213872833</v>
       </c>
       <c r="L15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="M15">
-        <v>4930.673960559841</v>
+        <v>4927.222899344733</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72638.45354973491</v>
+        <v>72587.61268056043</v>
       </c>
       <c r="P15">
-        <v>44132.17295221533</v>
+        <v>44101.28410585638</v>
       </c>
       <c r="Q15">
-        <v>32817.67935852383</v>
+        <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11314.49347293169</v>
+        <v>11306.57426961276</v>
       </c>
       <c r="S15">
-        <v>28506.28059751959</v>
+        <v>28486.32857470405</v>
       </c>
       <c r="T15">
-        <v>26477.85699622021</v>
+        <v>26459.32470102695</v>
       </c>
       <c r="U15">
-        <v>1605.014189278943</v>
+        <v>1603.890812989489</v>
       </c>
       <c r="V15">
-        <v>423.4095327802533</v>
+        <v>423.1131813629069</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12515.5604584043</v>
+        <v>12571.17474990041</v>
       </c>
       <c r="AI15">
-        <v>-18129.53653588376</v>
+        <v>-18082.1377991239</v>
       </c>
       <c r="AJ15">
-        <v>30645.09699428806</v>
+        <v>30653.31254902434</v>
       </c>
       <c r="AK15">
-        <v>-47384.4395415957</v>
+        <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72453.53653588376</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>25069.09699428806</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-73012.53653588376</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
-        <v>139917.4395415957</v>
+        <v>139861.8252500996</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.280900000000001</v>
+        <v>8.2867</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447.00000000002</v>
+        <v>92447</v>
       </c>
       <c r="C16">
-        <v>47649.97142173861</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F16">
-        <v>8782.605763482005</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G16">
-        <v>38867.36565825661</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H16">
-        <v>79087.4731555662</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I16">
-        <v>67533.91139543227</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J16">
-        <v>11553.56176013392</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K16">
-        <v>342.6235800550042</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M16">
-        <v>4935.066124596437</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72261.75487265336</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P16">
-        <v>43990.07305990673</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q16">
-        <v>32603.00478297262</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R16">
-        <v>11387.06827693412</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S16">
-        <v>28271.68181274662</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T16">
-        <v>26312.2378333134</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U16">
-        <v>1792.950496233409</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V16">
-        <v>166.4934831998087</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13359.52684443381</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI16">
-        <v>-18335.91139543227</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ16">
-        <v>31695.43823986608</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK16">
-        <v>-46840.47315556619</v>
+        <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72859.91139543227</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>26019.43823986608</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-73418.91139543227</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
-        <v>139846.4731555662</v>
+        <v>139790.7171910287</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983211</v>
+        <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.363</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47171.33264502041</v>
+        <v>47172.41693250951</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="F17">
-        <v>8803.854077660686</v>
+        <v>8797.694104811262</v>
       </c>
       <c r="G17">
-        <v>38367.47856735972</v>
+        <v>38374.72282769825</v>
       </c>
       <c r="H17">
-        <v>80455.20684990031</v>
+        <v>80398.91310793025</v>
       </c>
       <c r="I17">
-        <v>68845.63775752396</v>
+        <v>68797.46712047723</v>
       </c>
       <c r="J17">
-        <v>11609.56909237634</v>
+        <v>11601.44598745301</v>
       </c>
       <c r="K17">
-        <v>422.0606664767873</v>
+        <v>421.765354648198</v>
       </c>
       <c r="L17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="M17">
-        <v>4874.411136428368</v>
+        <v>4871.000557380549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73609.06769201557</v>
+        <v>73557.564128411</v>
       </c>
       <c r="P17">
-        <v>44113.0497009399</v>
+        <v>44082.1842202009</v>
       </c>
       <c r="Q17">
-        <v>32698.34816766354</v>
+        <v>32675.4694448727</v>
       </c>
       <c r="R17">
-        <v>11414.70153327637</v>
+        <v>11406.7147753282</v>
       </c>
       <c r="S17">
-        <v>29496.01799107567</v>
+        <v>29475.3799082101</v>
       </c>
       <c r="T17">
-        <v>27311.14283679863</v>
+        <v>27292.03349026956</v>
       </c>
       <c r="U17">
-        <v>1990.007595177063</v>
+        <v>1988.615205815733</v>
       </c>
       <c r="V17">
-        <v>194.8675590999715</v>
+        <v>194.7312121248058</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12148.79315009969</v>
+        <v>12205.08689206975</v>
       </c>
       <c r="AI17">
-        <v>-20124.63775752396</v>
+        <v>-20076.46712047723</v>
       </c>
       <c r="AJ17">
-        <v>32273.43090762366</v>
+        <v>32281.55401254699</v>
       </c>
       <c r="AK17">
-        <v>-47851.20684990031</v>
+        <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74279.63775752396</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>26428.43090762366</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-74838.63775752396</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
-        <v>141014.2068499003</v>
+        <v>140957.9131079303</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.426399999999999</v>
+        <v>8.4323</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686</v>
+        <v>93686.00000000002</v>
       </c>
       <c r="C18">
-        <v>48089.41996727437</v>
+        <v>48090.49747770523</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="F18">
-        <v>8811.173132492369</v>
+        <v>8805.042270181257</v>
       </c>
       <c r="G18">
-        <v>39278.246834782</v>
+        <v>39285.45520752398</v>
       </c>
       <c r="H18">
-        <v>79203.26606398904</v>
+        <v>79148.15599958252</v>
       </c>
       <c r="I18">
-        <v>67385.55883069709</v>
+        <v>67338.67159142304</v>
       </c>
       <c r="J18">
-        <v>11817.70711724362</v>
+        <v>11809.4842921919</v>
       </c>
       <c r="K18">
-        <v>341.3431432848638</v>
+        <v>341.1056348644919</v>
       </c>
       <c r="L18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="M18">
-        <v>4875.463787120957</v>
+        <v>4872.071412832972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72437.87910085759</v>
+        <v>72387.47642959029</v>
       </c>
       <c r="P18">
-        <v>44082.47507862274</v>
+        <v>44051.80225209031</v>
       </c>
       <c r="Q18">
-        <v>32685.28576899421</v>
+        <v>32662.54316892997</v>
       </c>
       <c r="R18">
-        <v>11397.18930962853</v>
+        <v>11389.25908316035</v>
       </c>
       <c r="S18">
-        <v>28355.40390618653</v>
+        <v>28335.67406153239</v>
       </c>
       <c r="T18">
-        <v>26425.46935744044</v>
+        <v>26407.08237176885</v>
       </c>
       <c r="U18">
-        <v>1509.416741131007</v>
+        <v>1508.366480731987</v>
       </c>
       <c r="V18">
-        <v>420.5178076150909</v>
+        <v>420.2252090315548</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14482.73393601096</v>
+        <v>14537.84400041749</v>
       </c>
       <c r="AI18">
-        <v>-17747.55883069709</v>
+        <v>-17700.67159142304</v>
       </c>
       <c r="AJ18">
-        <v>32230.29288275638</v>
+        <v>32238.5157078081</v>
       </c>
       <c r="AK18">
-        <v>-47617.26606398904</v>
+        <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73978.55883069709</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>26361.29288275638</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-74284.55883069709</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
-        <v>141609.266063989</v>
+        <v>141554.1559995825</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.6628525073116581</v>
+        <v>0.662852507311658</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.617100000000001</v>
+        <v>8.623100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50165.56985009501</v>
+        <v>50166.64000797065</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="F19">
-        <v>8802.646679334694</v>
+        <v>8796.559023829897</v>
       </c>
       <c r="G19">
-        <v>41362.92317076032</v>
+        <v>41370.08098414075</v>
       </c>
       <c r="H19">
-        <v>80150.16961081006</v>
+        <v>80094.74007478345</v>
       </c>
       <c r="I19">
-        <v>68568.60440565839</v>
+        <v>68521.18434470714</v>
       </c>
       <c r="J19">
-        <v>11581.56520515166</v>
+        <v>11573.55573007631</v>
       </c>
       <c r="K19">
-        <v>339.2421469960354</v>
+        <v>339.0075369521644</v>
       </c>
       <c r="L19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="M19">
-        <v>4873.284068782697</v>
+        <v>4869.913846658775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73390.21324512633</v>
+        <v>73339.45869914316</v>
       </c>
       <c r="P19">
-        <v>43672.9169305839</v>
+        <v>43642.71400607177</v>
       </c>
       <c r="Q19">
-        <v>32891.98512679757</v>
+        <v>32869.23798248802</v>
       </c>
       <c r="R19">
-        <v>10780.93180378633</v>
+        <v>10773.47602358375</v>
       </c>
       <c r="S19">
-        <v>29717.29631454243</v>
+        <v>29696.7446930714</v>
       </c>
       <c r="T19">
-        <v>27345.11999436977</v>
+        <v>27326.20890133977</v>
       </c>
       <c r="U19">
-        <v>1571.542918807329</v>
+        <v>1570.456085239061</v>
       </c>
       <c r="V19">
-        <v>800.6334013653319</v>
+        <v>800.0797064925628</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14715.83038918994</v>
+        <v>14771.25992521655</v>
       </c>
       <c r="AI19">
-        <v>-16855.60440565839</v>
+        <v>-16808.18434470714</v>
       </c>
       <c r="AJ19">
-        <v>31571.43479484833</v>
+        <v>31579.44426992369</v>
       </c>
       <c r="AK19">
-        <v>-48190.16961081006</v>
+        <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73800.60440565839</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>25610.43479484833</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-74106.60440565839</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
-        <v>143362.1696108101</v>
+        <v>143306.7400747835</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.525399999999999</v>
+        <v>8.5313</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54489.08041122276</v>
+        <v>54490.16606565171</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="F20">
-        <v>8726.340999280592</v>
+        <v>8720.168825295967</v>
       </c>
       <c r="G20">
-        <v>45762.73941194217</v>
+        <v>45769.99724035574</v>
       </c>
       <c r="H20">
-        <v>79069.06581420713</v>
+        <v>79013.13996498268</v>
       </c>
       <c r="I20">
-        <v>68091.49427954792</v>
+        <v>68043.33290817805</v>
       </c>
       <c r="J20">
-        <v>10977.5714186257</v>
+        <v>10969.80694085317</v>
       </c>
       <c r="K20">
-        <v>334.126035599081</v>
+        <v>333.8897069907123</v>
       </c>
       <c r="L20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="M20">
-        <v>4848.980877677473</v>
+        <v>4845.551175167841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72351.03931215334</v>
+        <v>72299.86514847583</v>
       </c>
       <c r="P20">
-        <v>42956.26592559931</v>
+        <v>42925.88279628492</v>
       </c>
       <c r="Q20">
-        <v>32606.23656912116</v>
+        <v>32583.17405470589</v>
       </c>
       <c r="R20">
-        <v>10350.02935647815</v>
+        <v>10342.70874157903</v>
       </c>
       <c r="S20">
-        <v>29394.77338655404</v>
+        <v>29373.98235219091</v>
       </c>
       <c r="T20">
-        <v>26702.84699821308</v>
+        <v>26683.95997356307</v>
       </c>
       <c r="U20">
-        <v>2064.384210159894</v>
+        <v>2062.924063402247</v>
       </c>
       <c r="V20">
-        <v>627.5420621475481</v>
+        <v>627.098199274144</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18252.93418579287</v>
+        <v>18308.86003501732</v>
       </c>
       <c r="AI20">
-        <v>-12067.49427954792</v>
+        <v>-12019.33290817805</v>
       </c>
       <c r="AJ20">
-        <v>30320.4285813743</v>
+        <v>30328.19305914683</v>
       </c>
       <c r="AK20">
-        <v>-48159.06581420713</v>
+        <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72554.49427954792</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>24395.4285813743</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-72860.49427954792</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
-        <v>145787.0658142071</v>
+        <v>145731.1399649827</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6182</v>
+        <v>8.6243</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57707.03511954976</v>
+        <v>57708.09730578684</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="F21">
-        <v>8707.552032172698</v>
+        <v>8701.518598501034</v>
       </c>
       <c r="G21">
-        <v>48999.48308737707</v>
+        <v>49006.57870728581</v>
       </c>
       <c r="H21">
-        <v>79441.7629112593</v>
+        <v>79386.71797951337</v>
       </c>
       <c r="I21">
-        <v>68214.6851490183</v>
+        <v>68167.41942189324</v>
       </c>
       <c r="J21">
-        <v>11227.077762241</v>
+        <v>11219.29855762013</v>
       </c>
       <c r="K21">
-        <v>332.0097535044434</v>
+        <v>331.7797050569908</v>
       </c>
       <c r="L21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="M21">
-        <v>4905.702679902465</v>
+        <v>4902.303534927766</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72671.08559740215</v>
+        <v>72620.73204531545</v>
       </c>
       <c r="P21">
-        <v>43134.81585060035</v>
+        <v>43104.92788100655</v>
       </c>
       <c r="Q21">
-        <v>32922.89993412918</v>
+        <v>32900.08776690957</v>
       </c>
       <c r="R21">
-        <v>10211.91591647118</v>
+        <v>10204.84011409698</v>
       </c>
       <c r="S21">
-        <v>29536.2697468018</v>
+        <v>29515.8041643089</v>
       </c>
       <c r="T21">
-        <v>26357.86832769002</v>
+        <v>26339.60504890696</v>
       </c>
       <c r="U21">
-        <v>2163.239573341962</v>
+        <v>2161.740671878789</v>
       </c>
       <c r="V21">
-        <v>1015.161845769822</v>
+        <v>1014.458443523149</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20716.2370887407</v>
+        <v>20771.28202048663</v>
       </c>
       <c r="AI21">
-        <v>-8974.685149018304</v>
+        <v>-8927.419421893239</v>
       </c>
       <c r="AJ21">
-        <v>29690.92223775901</v>
+        <v>29698.70144237987</v>
       </c>
       <c r="AK21">
-        <v>-45524.7629112593</v>
+        <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69599.6851490183</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>24074.92223775901</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-69905.6851490183</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
-        <v>145988.7629112593</v>
+        <v>145933.7179795134</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6533</v>
+        <v>8.6593</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58090.10075311105</v>
+        <v>58091.17490319011</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="F22">
-        <v>8381.990496730366</v>
+        <v>8376.097754932694</v>
       </c>
       <c r="G22">
-        <v>49708.11025638069</v>
+        <v>49715.07714825742</v>
       </c>
       <c r="H22">
-        <v>79982.47315672321</v>
+        <v>79926.24354600777</v>
       </c>
       <c r="I22">
-        <v>69028.85672437056</v>
+        <v>68980.32777060669</v>
       </c>
       <c r="J22">
-        <v>10953.61608635981</v>
+        <v>10945.91542965148</v>
       </c>
       <c r="K22">
-        <v>329.2706471219163</v>
+        <v>329.0391619030057</v>
       </c>
       <c r="L22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="M22">
-        <v>4898.285836206996</v>
+        <v>4894.842222939333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73227.01742650535</v>
+        <v>73175.53706435554</v>
       </c>
       <c r="P22">
-        <v>42994.79027068172</v>
+        <v>42964.56389452333</v>
       </c>
       <c r="Q22">
-        <v>32818.33681248342</v>
+        <v>32795.26472893233</v>
       </c>
       <c r="R22">
-        <v>10176.45334286736</v>
+        <v>10169.29905034114</v>
       </c>
       <c r="S22">
-        <v>30232.22704049269</v>
+        <v>30210.97305458234</v>
       </c>
       <c r="T22">
-        <v>27709.17826703726</v>
+        <v>27689.69804536235</v>
       </c>
       <c r="U22">
-        <v>1745.885914632037</v>
+        <v>1744.658514659783</v>
       </c>
       <c r="V22">
-        <v>777.1627434924516</v>
+        <v>776.6163793103449</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20230.52684327679</v>
+        <v>20286.75645399223</v>
       </c>
       <c r="AI22">
-        <v>-9410.856724370562</v>
+        <v>-9362.327770606687</v>
       </c>
       <c r="AJ22">
-        <v>29641.38391364019</v>
+        <v>29649.08457034852</v>
       </c>
       <c r="AK22">
-        <v>-45013.47315672321</v>
+        <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69093.85672437056</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>24080.38391364019</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-69327.85672437056</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
-        <v>145460.4731567232</v>
+        <v>145404.2435460078</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6707</v>
+        <v>8.6768</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61054.61430529796</v>
+        <v>61055.66928753151</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="F23">
-        <v>8365.100625525591</v>
+        <v>8359.322757779133</v>
       </c>
       <c r="G23">
-        <v>52689.51367977237</v>
+        <v>52696.34652975238</v>
       </c>
       <c r="H23">
-        <v>81018.59815452668</v>
+        <v>80962.63771052298</v>
       </c>
       <c r="I23">
-        <v>69470.99865218242</v>
+        <v>69423.01426318394</v>
       </c>
       <c r="J23">
-        <v>11547.5993871462</v>
+        <v>11539.62333222052</v>
       </c>
       <c r="K23">
-        <v>325.0074302763602</v>
+        <v>324.7829440408901</v>
       </c>
       <c r="L23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="M23">
-        <v>4894.126280138698</v>
+        <v>4890.745852855514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74272.0787494096</v>
+        <v>74220.77820115809</v>
       </c>
       <c r="P23">
-        <v>43737.59604640178</v>
+        <v>43707.386003891</v>
       </c>
       <c r="Q23">
-        <v>33039.40638427776</v>
+        <v>33016.58569997812</v>
       </c>
       <c r="R23">
-        <v>10698.18954692594</v>
+        <v>10690.80018879436</v>
       </c>
       <c r="S23">
-        <v>30534.48270300782</v>
+        <v>30513.39219726708</v>
       </c>
       <c r="T23">
-        <v>28097.79476309514</v>
+        <v>28078.38730473022</v>
       </c>
       <c r="U23">
-        <v>1587.278099692421</v>
+        <v>1586.181749110709</v>
       </c>
       <c r="V23">
-        <v>849.4098402202586</v>
+        <v>848.8231434261571</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23049.40184547332</v>
+        <v>23105.36228947702</v>
       </c>
       <c r="AI23">
-        <v>-6888.998652182418</v>
+        <v>-6841.014263183941</v>
       </c>
       <c r="AJ23">
-        <v>29938.4006128538</v>
+        <v>29946.37666777948</v>
       </c>
       <c r="AK23">
-        <v>-42256.59815452668</v>
+        <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66686.99865218242</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>24430.4006128538</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-66920.99865218242</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
-        <v>146558.5981545267</v>
+        <v>146502.637710523</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6807</v>
+        <v>8.6867</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61352.56390086332</v>
+        <v>61353.62733532274</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="F24">
-        <v>8394.448253023948</v>
+        <v>8388.600025544862</v>
       </c>
       <c r="G24">
-        <v>52958.11564783938</v>
+        <v>52965.02730977788</v>
       </c>
       <c r="H24">
-        <v>80952.81688995272</v>
+        <v>80896.41884281785</v>
       </c>
       <c r="I24">
-        <v>69163.31652394177</v>
+        <v>69115.13196242585</v>
       </c>
       <c r="J24">
-        <v>11789.50036601095</v>
+        <v>11781.286880392</v>
       </c>
       <c r="K24">
-        <v>322.7428744059585</v>
+        <v>322.5180265434321</v>
       </c>
       <c r="L24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="M24">
-        <v>4885.32458780196</v>
+        <v>4881.921089604403</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74218.31332860811</v>
+        <v>74166.60706199273</v>
       </c>
       <c r="P24">
-        <v>43821.3616769111</v>
+        <v>43790.83229799241</v>
       </c>
       <c r="Q24">
-        <v>32994.56967570269</v>
+        <v>32971.58308465799</v>
       </c>
       <c r="R24">
-        <v>10826.79211740237</v>
+        <v>10819.24932944742</v>
       </c>
       <c r="S24">
-        <v>30396.95153550306</v>
+        <v>30375.77464788733</v>
       </c>
       <c r="T24">
-        <v>27874.85713953732</v>
+        <v>27855.43733961892</v>
       </c>
       <c r="U24">
-        <v>1559.386147357169</v>
+        <v>1558.299757323828</v>
       </c>
       <c r="V24">
-        <v>962.7082486085775</v>
+        <v>962.0375509445794</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23933.18311004728</v>
+        <v>23989.58115718215</v>
       </c>
       <c r="AI24">
-        <v>-6284.316523941772</v>
+        <v>-6236.131962425847</v>
       </c>
       <c r="AJ24">
-        <v>30217.49963398905</v>
+        <v>30225.713119608</v>
       </c>
       <c r="AK24">
-        <v>-41620.81688995272</v>
+        <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66313.31652394177</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>24692.49963398905</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-66547.31652394177</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
-        <v>146740.8168899527</v>
+        <v>146684.4188428178</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.606299999999999</v>
+        <v>8.612299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61133.74509342772</v>
+        <v>61134.82190154996</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="F25">
-        <v>8392.149837133551</v>
+        <v>8386.232858200448</v>
       </c>
       <c r="G25">
-        <v>52741.59525629417</v>
+        <v>52748.58904334951</v>
       </c>
       <c r="H25">
-        <v>80846.41388069005</v>
+        <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69121.16828749164</v>
+        <v>69072.43363611795</v>
       </c>
       <c r="J25">
-        <v>11725.24559319842</v>
+        <v>11716.97857789163</v>
       </c>
       <c r="K25">
-        <v>323.1199802443585</v>
+        <v>322.8921608949577</v>
       </c>
       <c r="L25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="M25">
-        <v>4887.070520584673</v>
+        <v>4883.624836954606</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74108.96847328873</v>
+        <v>74056.71711770997</v>
       </c>
       <c r="P25">
-        <v>43783.78814426322</v>
+        <v>43752.91789562745</v>
       </c>
       <c r="Q25">
-        <v>33016.00395112831</v>
+        <v>32992.72564895005</v>
       </c>
       <c r="R25">
-        <v>10767.78419313492</v>
+        <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30325.1802114324</v>
+        <v>30303.79910457233</v>
       </c>
       <c r="T25">
-        <v>27865.41069391691</v>
+        <v>27845.76387501616</v>
       </c>
       <c r="U25">
-        <v>1502.308235045097</v>
+        <v>1501.249015852125</v>
       </c>
       <c r="V25">
-        <v>957.4614000635003</v>
+        <v>956.7863312142329</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23592.58611930996</v>
+        <v>23649.58778599043</v>
       </c>
       <c r="AI25">
-        <v>-6460.168287491644</v>
+        <v>-6411.433636117945</v>
       </c>
       <c r="AJ25">
-        <v>30052.75440680159</v>
+        <v>30061.02142210837</v>
       </c>
       <c r="AK25">
-        <v>-41807.41388069005</v>
+        <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66335.16828749164</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>24527.75440680159</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-66569.16828749164</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
-        <v>146480.4138806901</v>
+        <v>146423.4122140096</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5039</v>
+        <v>8.5099</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62596.56469923219</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F26">
-        <v>8435.71717933016</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G26">
-        <v>54160.84751990203</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H26">
-        <v>81304.99564275284</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I26">
-        <v>69789.99740920439</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J26">
-        <v>11514.99811578501</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K26">
-        <v>322.4311083894672</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M26">
-        <v>4817.099133261105</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74634.03010033445</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P26">
-        <v>44084.38103537614</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q26">
-        <v>33371.32107023411</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R26">
-        <v>10713.05996514202</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S26">
-        <v>30549.64894719487</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T26">
-        <v>27845.73990767347</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U26">
-        <v>1901.970888878421</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V26">
-        <v>801.9381506429884</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24415.00435724716</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI26">
-        <v>-5661.997409204385</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ26">
-        <v>30077.00188421499</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK26">
-        <v>-41581.99564275284</v>
+        <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66121.99740920439</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>24540.00188421499</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-66355.99740920439</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
-        <v>147535.9956427529</v>
+        <v>147479.5438070021</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.4916</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66204.631346682</v>
+        <v>66205.7082873965</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="F27">
-        <v>8337.949813384661</v>
+        <v>8332.08228753724</v>
       </c>
       <c r="G27">
-        <v>57866.68153329734</v>
+        <v>57873.62599985926</v>
       </c>
       <c r="H27">
-        <v>84030.8419990141</v>
+        <v>83971.70838122495</v>
       </c>
       <c r="I27">
-        <v>72623.24569845777</v>
+        <v>72572.13975745351</v>
       </c>
       <c r="J27">
-        <v>11407.59630055632</v>
+        <v>11399.56862377143</v>
       </c>
       <c r="K27">
-        <v>317.848759418793</v>
+        <v>317.625085032019</v>
       </c>
       <c r="L27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="M27">
-        <v>4814.203539823008</v>
+        <v>4810.815720954236</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77368.4210464543</v>
+        <v>77313.97586263518</v>
       </c>
       <c r="P27">
-        <v>47229.02654867256</v>
+        <v>47195.79085641904</v>
       </c>
       <c r="Q27">
-        <v>36354.30236379428</v>
+        <v>36328.71935915179</v>
       </c>
       <c r="R27">
-        <v>10874.72406751015</v>
+        <v>10867.0713799817</v>
       </c>
       <c r="S27">
-        <v>30139.39461514988</v>
+        <v>30118.18512350168</v>
       </c>
       <c r="T27">
-        <v>28064.26703598507</v>
+        <v>28044.51783913115</v>
       </c>
       <c r="U27">
-        <v>1542.255346118636</v>
+        <v>1541.170040580798</v>
       </c>
       <c r="V27">
-        <v>532.8722330461726</v>
+        <v>532.4972437897305</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>24978.1580009859</v>
+        <v>25037.29161877505</v>
       </c>
       <c r="AI27">
-        <v>-4888.245698457773</v>
+        <v>-4837.139757453508</v>
       </c>
       <c r="AJ27">
-        <v>29866.40369944368</v>
+        <v>29874.43137622857</v>
       </c>
       <c r="AK27">
-        <v>-41418.8419990141</v>
+        <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65760.24569845777</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>24341.40369944368</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-65912.24569845777</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
-        <v>150579.8419990141</v>
+        <v>150520.708381225</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.520200000000001</v>
+        <v>8.526199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65831.7284942157</v>
+        <v>65832.79537580346</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="F28">
-        <v>8256.618843608092</v>
+        <v>8250.839797953873</v>
       </c>
       <c r="G28">
-        <v>57575.10965060761</v>
+        <v>57581.95557784959</v>
       </c>
       <c r="H28">
-        <v>83183.13635992202</v>
+        <v>83124.91408373482</v>
       </c>
       <c r="I28">
-        <v>72283.05908034975</v>
+        <v>72232.46608261493</v>
       </c>
       <c r="J28">
-        <v>10900.07739630879</v>
+        <v>10892.44811777469</v>
       </c>
       <c r="K28">
-        <v>312.8811739023849</v>
+        <v>312.6621793450999</v>
       </c>
       <c r="L28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="M28">
-        <v>4885.042083513303</v>
+        <v>4881.622901671663</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76460.94159672204</v>
+        <v>76407.42437852151</v>
       </c>
       <c r="P28">
-        <v>46749.24424780827</v>
+        <v>46716.52310348448</v>
       </c>
       <c r="Q28">
-        <v>36208.99139651892</v>
+        <v>36183.64767915262</v>
       </c>
       <c r="R28">
-        <v>10540.25285128936</v>
+        <v>10532.87542433186</v>
       </c>
       <c r="S28">
-        <v>29711.69746565028</v>
+        <v>29690.90139169184</v>
       </c>
       <c r="T28">
-        <v>27787.51573024526</v>
+        <v>27768.06644657793</v>
       </c>
       <c r="U28">
-        <v>1564.357190385581</v>
+        <v>1563.26225167108</v>
       </c>
       <c r="V28">
-        <v>359.8245450194366</v>
+        <v>359.5726934428333</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23914.86364007798</v>
+        <v>23973.08591626518</v>
       </c>
       <c r="AI28">
-        <v>-4927.059080349747</v>
+        <v>-4876.466082614934</v>
       </c>
       <c r="AJ28">
-        <v>28841.92260369121</v>
+        <v>28849.55188222531</v>
       </c>
       <c r="AK28">
-        <v>-41543.13635992202</v>
+        <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64957.05908034975</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>23413.92260369121</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-65109.05908034975</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
-        <v>148793.136359922</v>
+        <v>148734.9140837348</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5663</v>
+        <v>8.5723</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66648.04457325605</v>
+        <v>66649.11678866422</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="F29">
-        <v>8219.876074355387</v>
+        <v>8214.081376085347</v>
       </c>
       <c r="G29">
-        <v>58428.16849890066</v>
+        <v>58435.03541257887</v>
       </c>
       <c r="H29">
-        <v>82980.11087465168</v>
+        <v>82921.61306999096</v>
       </c>
       <c r="I29">
-        <v>71803.31318855746</v>
+        <v>71752.69459881801</v>
       </c>
       <c r="J29">
-        <v>11176.79768609423</v>
+        <v>11168.91847117294</v>
       </c>
       <c r="K29">
-        <v>307.1802800672538</v>
+        <v>306.9637297176628</v>
       </c>
       <c r="L29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="M29">
-        <v>4878.953804188075</v>
+        <v>4875.514328347687</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76273.0213636524</v>
+        <v>76219.25180058982</v>
       </c>
       <c r="P29">
-        <v>47258.55310343206</v>
+        <v>47225.23763085852</v>
       </c>
       <c r="Q29">
-        <v>36427.46987101856</v>
+        <v>36401.78989789804</v>
       </c>
       <c r="R29">
-        <v>10831.08323241349</v>
+        <v>10823.44773296049</v>
       </c>
       <c r="S29">
-        <v>29014.46837779685</v>
+        <v>28994.01428722492</v>
       </c>
       <c r="T29">
-        <v>26871.1943422182</v>
+        <v>26852.2511778736</v>
       </c>
       <c r="U29">
-        <v>1797.559464321407</v>
+        <v>1796.29225364524</v>
       </c>
       <c r="V29">
-        <v>345.7144536807327</v>
+        <v>345.470738212452</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25574.88912534832</v>
+        <v>25633.38693000905</v>
       </c>
       <c r="AI29">
-        <v>-3634.313188557455</v>
+        <v>-3583.694598818009</v>
       </c>
       <c r="AJ29">
-        <v>29209.20231390578</v>
+        <v>29217.08152882706</v>
       </c>
       <c r="AK29">
-        <v>-40838.11087465168</v>
+        <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64834.31318855746</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>23996.20231390578</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-64986.31318855746</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
-        <v>149545.1108746517</v>
+        <v>149486.6130699909</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.505100000000001</v>
+        <v>8.511100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70078.11446360154</v>
+        <v>70083.58142094809</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="F30">
-        <v>8246.681513409962</v>
+        <v>8240.958625475605</v>
       </c>
       <c r="G30">
-        <v>61831.43295019158</v>
+        <v>61842.62279547248</v>
       </c>
       <c r="H30">
-        <v>92022.06381704981</v>
+        <v>91958.20395319343</v>
       </c>
       <c r="I30">
-        <v>80907.15217911877</v>
+        <v>80851.00564741917</v>
       </c>
       <c r="J30">
-        <v>11114.91163793103</v>
+        <v>11107.19830577425</v>
       </c>
       <c r="K30">
-        <v>306.7800526819923</v>
+        <v>306.5671588216995</v>
       </c>
       <c r="L30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="M30">
-        <v>4888.089559386974</v>
+        <v>4884.697408408912</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78949.30866858238</v>
+        <v>78894.52080691092</v>
       </c>
       <c r="P30">
-        <v>47342.89894636015</v>
+        <v>47310.04474861806</v>
       </c>
       <c r="Q30">
-        <v>36538.58536877394</v>
+        <v>36513.2289597741</v>
       </c>
       <c r="R30">
-        <v>10804.31357758621</v>
+        <v>10796.81578884396</v>
       </c>
       <c r="S30">
-        <v>31606.40972222222</v>
+        <v>31584.47605829285</v>
       </c>
       <c r="T30">
-        <v>29398.13912835249</v>
+        <v>29377.73792146259</v>
       </c>
       <c r="U30">
-        <v>1897.672533524904</v>
+        <v>1896.355619899974</v>
       </c>
       <c r="V30">
-        <v>310.5980603448276</v>
+        <v>310.3825169302927</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26241.93618295019</v>
+        <v>26305.79604680657</v>
       </c>
       <c r="AI30">
-        <v>-2951.15217911877</v>
+        <v>-2895.005647419166</v>
       </c>
       <c r="AJ30">
-        <v>29193.08836206896</v>
+        <v>29200.80169422575</v>
       </c>
       <c r="AK30">
-        <v>-40586.06381704981</v>
+        <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64534.15217911877</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>23948.08836206896</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-64686.15217911877</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
-        <v>159002.0638170498</v>
+        <v>158938.2039531934</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.352</v>
+        <v>8.357799999999999</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70144.56495834141</v>
+        <v>70150.01534495903</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="F31">
-        <v>8278.877882193374</v>
+        <v>8273.167136616123</v>
       </c>
       <c r="G31">
-        <v>61865.68707614803</v>
+        <v>61876.8482083429</v>
       </c>
       <c r="H31">
-        <v>91551.5252615772</v>
+        <v>91488.3732891218</v>
       </c>
       <c r="I31">
-        <v>80064.29919104825</v>
+        <v>80009.07107330005</v>
       </c>
       <c r="J31">
-        <v>11487.22607052897</v>
+        <v>11479.30221582177</v>
       </c>
       <c r="K31">
-        <v>306.5156946328231</v>
+        <v>306.3042610095241</v>
       </c>
       <c r="L31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="M31">
-        <v>4899.511117031583</v>
+        <v>4896.131448694832</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78444.06340825421</v>
+        <v>78389.95292437647</v>
       </c>
       <c r="P31">
-        <v>47969.70584673512</v>
+        <v>47936.61648493943</v>
       </c>
       <c r="Q31">
-        <v>36833.39917167216</v>
+        <v>36807.99160141833</v>
       </c>
       <c r="R31">
-        <v>11136.30667506297</v>
+        <v>11128.62488352111</v>
       </c>
       <c r="S31">
-        <v>30474.35756151909</v>
+        <v>30453.33643943703</v>
       </c>
       <c r="T31">
-        <v>28009.46449331525</v>
+        <v>27990.14364721116</v>
       </c>
       <c r="U31">
-        <v>2113.973672737841</v>
+        <v>2112.515459925212</v>
       </c>
       <c r="V31">
-        <v>350.919395465995</v>
+        <v>350.6773323006547</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27645.4747384228</v>
+        <v>27708.62671087821</v>
       </c>
       <c r="AI31">
-        <v>-2018.299191048252</v>
+        <v>-1963.071073300045</v>
       </c>
       <c r="AJ31">
-        <v>29663.77392947103</v>
+        <v>29671.69778417824</v>
       </c>
       <c r="AK31">
-        <v>-39764.5252615772</v>
+        <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64231.29919104825</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>24466.77392947103</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-64274.29919104825</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
-        <v>159004.5252615772</v>
+        <v>158941.3732891218</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.2576</v>
+        <v>8.263299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71762.04591233628</v>
+        <v>71767.55106018546</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="F32">
-        <v>8272.254834743959</v>
+        <v>8266.489516271928</v>
       </c>
       <c r="G32">
-        <v>63489.79107759232</v>
+        <v>63501.06154391354</v>
       </c>
       <c r="H32">
-        <v>91486.96451368858</v>
+        <v>91423.20300041344</v>
       </c>
       <c r="I32">
-        <v>80010.01548536573</v>
+        <v>79954.25279073889</v>
       </c>
       <c r="J32">
-        <v>11476.94914653175</v>
+        <v>11468.95032780108</v>
       </c>
       <c r="K32">
-        <v>304.3643907513358</v>
+        <v>304.1522650758963</v>
       </c>
       <c r="L32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="M32">
-        <v>4897.256016832947</v>
+        <v>4893.84289173705</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78386.39001844058</v>
+        <v>78331.75890378596</v>
       </c>
       <c r="P32">
-        <v>47820.48560215613</v>
+        <v>47787.15728545272</v>
       </c>
       <c r="Q32">
-        <v>36805.57697763488</v>
+        <v>36779.92546216999</v>
       </c>
       <c r="R32">
-        <v>11014.90862452125</v>
+        <v>11007.23182328274</v>
       </c>
       <c r="S32">
-        <v>30565.90453449336</v>
+        <v>30544.60173645975</v>
       </c>
       <c r="T32">
-        <v>27839.69513925008</v>
+        <v>27820.2923631209</v>
       </c>
       <c r="U32">
-        <v>2264.168873232777</v>
+        <v>2262.590868820507</v>
       </c>
       <c r="V32">
-        <v>462.0405220104969</v>
+        <v>461.7185045183392</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28654.03548631142</v>
+        <v>28717.79699958656</v>
       </c>
       <c r="AI32">
-        <v>-349.0154853657296</v>
+        <v>-293.2527907388867</v>
       </c>
       <c r="AJ32">
-        <v>29003.05085346825</v>
+        <v>29011.04967219893</v>
       </c>
       <c r="AK32">
-        <v>-39391.96451368858</v>
+        <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63304.01548536573</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>23912.05085346825</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-63347.01548536573</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
-        <v>159575.9645136886</v>
+        <v>159512.2030004134</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.4596</v>
+        <v>8.465500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73526.28418481676</v>
+        <v>73531.80147389873</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="F33">
-        <v>8262.001588750696</v>
+        <v>8256.226155778299</v>
       </c>
       <c r="G33">
-        <v>65264.28259606606</v>
+        <v>65275.57531812043</v>
       </c>
       <c r="H33">
-        <v>92607.56909287076</v>
+        <v>92542.83310822018</v>
       </c>
       <c r="I33">
-        <v>81291.54274806444</v>
+        <v>81234.71706831591</v>
       </c>
       <c r="J33">
-        <v>11316.02634480633</v>
+        <v>11308.11603990427</v>
       </c>
       <c r="K33">
-        <v>301.4252516509965</v>
+        <v>301.214544679036</v>
       </c>
       <c r="L33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="M33">
-        <v>4889.630793308276</v>
+        <v>4886.212767469965</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79523.79723272825</v>
+        <v>79468.20726996991</v>
       </c>
       <c r="P33">
-        <v>48288.63343727398</v>
+        <v>48254.87796497713</v>
       </c>
       <c r="Q33">
-        <v>37287.25537388994</v>
+        <v>37261.19025615507</v>
       </c>
       <c r="R33">
-        <v>11001.37806338404</v>
+        <v>10993.68770882206</v>
       </c>
       <c r="S33">
-        <v>31235.16379545427</v>
+        <v>31213.32930499277</v>
       </c>
       <c r="T33">
-        <v>28814.00898711215</v>
+        <v>28793.86696997701</v>
       </c>
       <c r="U33">
-        <v>2106.506526919839</v>
+        <v>2105.034003933556</v>
       </c>
       <c r="V33">
-        <v>314.6482814222875</v>
+        <v>314.4283310822018</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28178.43090712924</v>
+        <v>28243.16689177982</v>
       </c>
       <c r="AI33">
-        <v>127.457251935557</v>
+        <v>184.2829316840944</v>
       </c>
       <c r="AJ33">
-        <v>28050.97365519367</v>
+        <v>28058.88396009574</v>
       </c>
       <c r="AK33">
-        <v>-40374.56909287076</v>
+        <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-63008.54274806444</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>22633.97365519367</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-63051.54274806444</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
-        <v>161203.5690928708</v>
+        <v>161138.8331082202</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.4343</v>
+        <v>8.440200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74970.80712865795</v>
+        <v>74976.2595398688</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="F34">
-        <v>8236.351416947899</v>
+        <v>8230.643883396471</v>
       </c>
       <c r="G34">
-        <v>66734.45571171005</v>
+        <v>66745.61565647234</v>
       </c>
       <c r="H34">
-        <v>91821.44260551986</v>
+        <v>91757.81322184237</v>
       </c>
       <c r="I34">
-        <v>80622.57234986824</v>
+        <v>80566.70343250486</v>
       </c>
       <c r="J34">
-        <v>11198.87014007674</v>
+        <v>11191.10967384274</v>
       </c>
       <c r="K34">
-        <v>298.0586889186815</v>
+        <v>297.85214358311</v>
       </c>
       <c r="L34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="M34">
-        <v>4882.873653552771</v>
+        <v>4879.489975053128</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78772.31739170635</v>
+        <v>78717.73064307493</v>
       </c>
       <c r="P34">
-        <v>48141.39591327262</v>
+        <v>48108.0354337984</v>
       </c>
       <c r="Q34">
-        <v>37204.30967130508</v>
+        <v>37178.5282500231</v>
       </c>
       <c r="R34">
-        <v>10937.08624196755</v>
+        <v>10929.50718377529</v>
       </c>
       <c r="S34">
-        <v>30630.92147843373</v>
+        <v>30609.69520927654</v>
       </c>
       <c r="T34">
-        <v>28337.2956636309</v>
+        <v>28317.658805322</v>
       </c>
       <c r="U34">
-        <v>2031.841801118765</v>
+        <v>2030.433798392313</v>
       </c>
       <c r="V34">
-        <v>261.7838981091952</v>
+        <v>261.602490067449</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30221.55739448014</v>
+        <v>30285.18677815763</v>
       </c>
       <c r="AI34">
-        <v>2216.427650131765</v>
+        <v>2272.296567495141</v>
       </c>
       <c r="AJ34">
-        <v>28005.12985992326</v>
+        <v>28012.89032615726</v>
       </c>
       <c r="AK34">
-        <v>-37557.44260551986</v>
+        <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60169.57234986824</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>22612.12985992326</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-60212.57234986824</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
-        <v>159643.4426055198</v>
+        <v>159579.8132218424</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6524</v>
+        <v>8.6584</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75384.55273153522</v>
+        <v>75390.01317790167</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="F35">
-        <v>8191.138487201741</v>
+        <v>8185.418482851833</v>
       </c>
       <c r="G35">
-        <v>67193.41424433349</v>
+        <v>67204.59469504983</v>
       </c>
       <c r="H35">
-        <v>92641.96645740114</v>
+        <v>92577.27307540689</v>
       </c>
       <c r="I35">
-        <v>81236.04657191483</v>
+        <v>81179.31812806218</v>
       </c>
       <c r="J35">
-        <v>11405.91999819664</v>
+        <v>11397.95505997635</v>
       </c>
       <c r="K35">
-        <v>292.6103716060097</v>
+        <v>292.406037055809</v>
       </c>
       <c r="L35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="M35">
-        <v>4869.998647475853</v>
+        <v>4866.59784873571</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79659.9101698545</v>
+        <v>79604.28236751704</v>
       </c>
       <c r="P35">
-        <v>51499.69624561839</v>
+        <v>51463.73317564904</v>
       </c>
       <c r="Q35">
-        <v>40349.63436763861</v>
+        <v>40321.45756603029</v>
       </c>
       <c r="R35">
-        <v>11150.06199069013</v>
+        <v>11142.27572225038</v>
       </c>
       <c r="S35">
-        <v>28160.21392423611</v>
+        <v>28140.549191868</v>
       </c>
       <c r="T35">
-        <v>26270.9202799725</v>
+        <v>26252.57487188151</v>
       </c>
       <c r="U35">
-        <v>1633.435636757098</v>
+        <v>1632.294982260517</v>
       </c>
       <c r="V35">
-        <v>255.858007506509</v>
+        <v>255.6793377259672</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29079.03354259886</v>
+        <v>29143.72692459311</v>
       </c>
       <c r="AI35">
-        <v>1967.953428085166</v>
+        <v>2024.681871937821</v>
       </c>
       <c r="AJ35">
-        <v>27111.08000180336</v>
+        <v>27119.04494002365</v>
       </c>
       <c r="AK35">
-        <v>-37536.96645740114</v>
+        <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59573.04657191483</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>22036.08000180336</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-59590.04657191483</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
-        <v>159274.9664574011</v>
+        <v>159210.2730754069</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.872299999999999</v>
+        <v>8.878500000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77529.45176008222</v>
+        <v>77534.92732115249</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="F36">
-        <v>8205.126430031511</v>
+        <v>8199.385276890607</v>
       </c>
       <c r="G36">
-        <v>69324.32533005071</v>
+        <v>69335.54204426188</v>
       </c>
       <c r="H36">
-        <v>94063.90052740354</v>
+        <v>93998.08371610107</v>
       </c>
       <c r="I36">
-        <v>82338.48171027818</v>
+        <v>82280.86921193104</v>
       </c>
       <c r="J36">
-        <v>11725.418704191</v>
+        <v>11717.21439131465</v>
       </c>
       <c r="K36">
-        <v>290.2253040758016</v>
+        <v>290.0222325045988</v>
       </c>
       <c r="L36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="M36">
-        <v>4866.554711057405</v>
+        <v>4863.149567199719</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81081.57227235254</v>
+        <v>81024.83923754923</v>
       </c>
       <c r="P36">
-        <v>51633.05645589349</v>
+        <v>51596.9286415601</v>
       </c>
       <c r="Q36">
-        <v>40305.19102849335</v>
+        <v>40276.98935774017</v>
       </c>
       <c r="R36">
-        <v>11327.86542740014</v>
+        <v>11319.93928381993</v>
       </c>
       <c r="S36">
-        <v>29448.51570352469</v>
+        <v>29427.91048313376</v>
       </c>
       <c r="T36">
-        <v>26808.28949597389</v>
+        <v>26789.53165028383</v>
       </c>
       <c r="U36">
-        <v>2242.672930759936</v>
+        <v>2241.103725355212</v>
       </c>
       <c r="V36">
-        <v>397.5532767908569</v>
+        <v>397.275107494724</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29398.09947259646</v>
+        <v>29463.91628389893</v>
       </c>
       <c r="AI36">
-        <v>3016.518289721818</v>
+        <v>3074.130788068957</v>
       </c>
       <c r="AJ36">
-        <v>26381.581295809</v>
+        <v>26389.78560868535</v>
       </c>
       <c r="AK36">
-        <v>-37578.90052740354</v>
+        <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58880.48171027818</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>21301.581295809</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-58897.48171027818</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
-        <v>161057.9005274035</v>
+        <v>160992.0837161011</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.854699999999999</v>
+        <v>8.860900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78123.74266573256</v>
+        <v>78129.22529972871</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="F37">
-        <v>8169.930926525966</v>
+        <v>8164.211188413407</v>
       </c>
       <c r="G37">
-        <v>69953.81173920659</v>
+        <v>69965.01411131531</v>
       </c>
       <c r="H37">
-        <v>93822.57290480779</v>
+        <v>93756.88807210991</v>
       </c>
       <c r="I37">
-        <v>82012.99446098608</v>
+        <v>81955.57747002711</v>
       </c>
       <c r="J37">
-        <v>11809.5784438217</v>
+        <v>11801.31060208279</v>
       </c>
       <c r="K37">
-        <v>289.1214204396182</v>
+        <v>288.9190076135469</v>
       </c>
       <c r="L37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="M37">
-        <v>4871.766792188459</v>
+        <v>4868.356086461889</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80830.42735791227</v>
+        <v>80773.83827776319</v>
       </c>
       <c r="P37">
-        <v>51376.22164813032</v>
+        <v>51340.25334733526</v>
       </c>
       <c r="Q37">
-        <v>39900.23108415799</v>
+        <v>39872.2970814737</v>
       </c>
       <c r="R37">
-        <v>11475.99056397233</v>
+        <v>11467.95626586156</v>
       </c>
       <c r="S37">
-        <v>29454.20570978195</v>
+        <v>29433.58493042793</v>
       </c>
       <c r="T37">
-        <v>26915.8774848936</v>
+        <v>26897.0337796447</v>
       </c>
       <c r="U37">
-        <v>2204.74034503897</v>
+        <v>2203.196814562002</v>
       </c>
       <c r="V37">
-        <v>333.5878798493739</v>
+        <v>333.3543362212304</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31904.42709519221</v>
+        <v>31970.11192789009</v>
       </c>
       <c r="AI37">
-        <v>3942.005539013917</v>
+        <v>3999.422529972886</v>
       </c>
       <c r="AJ37">
-        <v>27962.4215561783</v>
+        <v>27970.68939791721</v>
       </c>
       <c r="AK37">
-        <v>-36145.57290480779</v>
+        <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58876.99446098608</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>22731.4215561783</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-58893.99446098608</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
-        <v>161889.5729048078</v>
+        <v>161823.8880721099</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.135199999999999</v>
+        <v>9.1416</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77600.77454953014</v>
+        <v>77606.26621579418</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="F38">
-        <v>8263.873825329771</v>
+        <v>8258.089104752467</v>
       </c>
       <c r="G38">
-        <v>69336.90072420036</v>
+        <v>69348.17711104172</v>
       </c>
       <c r="H38">
-        <v>92933.61916975603</v>
+        <v>92868.56553625465</v>
       </c>
       <c r="I38">
-        <v>81201.9115872058</v>
+        <v>81145.07016164642</v>
       </c>
       <c r="J38">
-        <v>11731.70769031813</v>
+        <v>11723.49548230074</v>
       </c>
       <c r="K38">
-        <v>289.0980903526166</v>
+        <v>288.8957213780329</v>
       </c>
       <c r="L38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="M38">
-        <v>4874.639300801794</v>
+        <v>4871.227048041612</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79924.65632813175</v>
+        <v>79868.70898262919</v>
       </c>
       <c r="P38">
-        <v>51351.9017803259</v>
+        <v>51315.95539377753</v>
       </c>
       <c r="Q38">
-        <v>39951.58235623761</v>
+        <v>39923.61620556339</v>
       </c>
       <c r="R38">
-        <v>11400.31942408828</v>
+        <v>11392.33918821414</v>
       </c>
       <c r="S38">
-        <v>28572.75454780585</v>
+        <v>28552.75358885167</v>
       </c>
       <c r="T38">
-        <v>25803.03657642901</v>
+        <v>25784.97442303757</v>
       </c>
       <c r="U38">
-        <v>2438.329812914907</v>
+        <v>2436.622979419968</v>
       </c>
       <c r="V38">
-        <v>331.3882662298474</v>
+        <v>331.1562940866062</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32207.38083024397</v>
+        <v>32272.43446374535</v>
       </c>
       <c r="AI38">
-        <v>4244.088412794197</v>
+        <v>4300.929838353579</v>
       </c>
       <c r="AJ38">
-        <v>27963.29230968187</v>
+        <v>27971.50451769926</v>
       </c>
       <c r="AK38">
-        <v>-36047.61916975603</v>
+        <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58708.9115872058</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>22661.29230968187</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-58725.9115872058</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
-        <v>161205.619169756</v>
+        <v>161140.5655362547</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.279199999999999</v>
+        <v>9.2857</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76269.64262343528</v>
+        <v>76275.17951124845</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="F39">
-        <v>8149.654655605514</v>
+        <v>8143.895668315527</v>
       </c>
       <c r="G39">
-        <v>68119.98796782977</v>
+        <v>68131.28384293293</v>
       </c>
       <c r="H39">
-        <v>91351.04384353958</v>
+        <v>91286.49024922743</v>
       </c>
       <c r="I39">
-        <v>79500.64593755937</v>
+        <v>79444.46647611614</v>
       </c>
       <c r="J39">
-        <v>11850.3979059802</v>
+        <v>11842.02377311128</v>
       </c>
       <c r="K39">
-        <v>286.9217697844764</v>
+        <v>286.7190153249027</v>
       </c>
       <c r="L39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="M39">
-        <v>4871.253773246363</v>
+        <v>4867.811481547889</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78357.51092394402</v>
+        <v>78302.13926360309</v>
       </c>
       <c r="P39">
-        <v>51278.32214552593</v>
+        <v>51242.08610633564</v>
       </c>
       <c r="Q39">
-        <v>39887.18605534798</v>
+        <v>39858.99960975816</v>
       </c>
       <c r="R39">
-        <v>11391.1359846326</v>
+        <v>11383.08639110671</v>
       </c>
       <c r="S39">
-        <v>27079.18877841808</v>
+        <v>27060.05315726747</v>
       </c>
       <c r="T39">
-        <v>24571.2160935554</v>
+        <v>24553.85274171264</v>
       </c>
       <c r="U39">
-        <v>2048.710869060435</v>
+        <v>2047.26313902102</v>
       </c>
       <c r="V39">
-        <v>459.2619213476031</v>
+        <v>458.9373820045774</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32431.95615646042</v>
+        <v>32496.50975077257</v>
       </c>
       <c r="AI39">
-        <v>4604.354062440631</v>
+        <v>4660.53352388386</v>
       </c>
       <c r="AJ39">
-        <v>27827.6020940198</v>
+        <v>27835.97622688872</v>
       </c>
       <c r="AK39">
-        <v>-35897.04384353958</v>
+        <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58588.64593755937</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>22691.6020940198</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-58596.64593755937</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
-        <v>159688.0438435396</v>
+        <v>159623.4902492274</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.474600000000001</v>
+        <v>9.481299999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77970.22888778715</v>
+        <v>77975.71735271046</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="F40">
-        <v>8182.076929433151</v>
+        <v>8176.334172825234</v>
       </c>
       <c r="G40">
-        <v>69788.15195835399</v>
+        <v>69799.38317988522</v>
       </c>
       <c r="H40">
-        <v>93800.98351512147</v>
+        <v>93735.14739275834</v>
       </c>
       <c r="I40">
-        <v>82275.42575607338</v>
+        <v>82217.67908013707</v>
       </c>
       <c r="J40">
-        <v>11525.5578623368</v>
+        <v>11517.4684158375</v>
       </c>
       <c r="K40">
-        <v>285.2106056850107</v>
+        <v>285.0104248379506</v>
       </c>
       <c r="L40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="M40">
-        <v>4866.467732606181</v>
+        <v>4863.052103546509</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80829.53406461742</v>
+        <v>80772.80221708435</v>
       </c>
       <c r="P40">
-        <v>52934.50152867295</v>
+        <v>52897.34837537674</v>
       </c>
       <c r="Q40">
-        <v>41885.50714757891</v>
+        <v>41856.10895503902</v>
       </c>
       <c r="R40">
-        <v>11048.99448438275</v>
+        <v>11041.23952355394</v>
       </c>
       <c r="S40">
-        <v>27895.03253594447</v>
+        <v>27875.45384170761</v>
       </c>
       <c r="T40">
-        <v>24891.04042720212</v>
+        <v>24873.5701457413</v>
       </c>
       <c r="U40">
-        <v>2527.428730788299</v>
+        <v>2525.654803682755</v>
       </c>
       <c r="V40">
-        <v>476.5633779540572</v>
+        <v>476.2288922835556</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31642.01648487854</v>
+        <v>31707.85260724166</v>
       </c>
       <c r="AI40">
-        <v>3514.574243926618</v>
+        <v>3572.320919862934</v>
       </c>
       <c r="AJ40">
-        <v>28127.44213766319</v>
+        <v>28135.53158416251</v>
       </c>
       <c r="AK40">
-        <v>-35410.98351512147</v>
+        <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58268.42575607338</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>22857.44213766319</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-58276.42575607338</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
-        <v>160861.9835151215</v>
+        <v>160796.1473927583</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6816</v>
+        <v>9.6884</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78906.98363285941</v>
+        <v>78912.40233941717</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="F41">
-        <v>8216.159877296899</v>
+        <v>8210.443279217505</v>
       </c>
       <c r="G41">
-        <v>70690.82375556251</v>
+        <v>70701.95906019966</v>
       </c>
       <c r="H41">
-        <v>99305.92617632516</v>
+        <v>99236.83160229906</v>
       </c>
       <c r="I41">
-        <v>89875.15090665077</v>
+        <v>89812.61802964604</v>
       </c>
       <c r="J41">
-        <v>9430.775269674374</v>
+        <v>9424.21357265302</v>
       </c>
       <c r="K41">
-        <v>281.3337907791042</v>
+        <v>281.1380457799738</v>
       </c>
       <c r="L41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="M41">
-        <v>4855.68702636704</v>
+        <v>4852.308561056771</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86380.88899203842</v>
+        <v>86320.7873348795</v>
       </c>
       <c r="P41">
-        <v>55710.68748044924</v>
+        <v>55671.92538065947</v>
       </c>
       <c r="Q41">
-        <v>47455.96230108677</v>
+        <v>47422.94363214682</v>
       </c>
       <c r="R41">
-        <v>8254.725179362469</v>
+        <v>8248.981748512655</v>
       </c>
       <c r="S41">
-        <v>30670.20161249634</v>
+        <v>30648.86205505697</v>
       </c>
       <c r="T41">
-        <v>27376.78045630216</v>
+        <v>27357.73237874357</v>
       </c>
       <c r="U41">
-        <v>2117.370964975126</v>
+        <v>2115.89775133609</v>
       </c>
       <c r="V41">
-        <v>1176.050090311904</v>
+        <v>1175.231824140365</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28384.07382367484</v>
+        <v>28453.16839770094</v>
       </c>
       <c r="AI41">
-        <v>-3180.150906650772</v>
+        <v>-3117.618029646037</v>
       </c>
       <c r="AJ41">
-        <v>31564.22473032563</v>
+        <v>31570.78642734698</v>
       </c>
       <c r="AK41">
-        <v>-35262.92617632516</v>
+        <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59477.15090665077</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>24214.22473032563</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-59485.15090665077</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
-        <v>162960.9261763252</v>
+        <v>162891.8316022991</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.9101</v>
+        <v>9.917</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80155.14939001572</v>
+        <v>80160.59462617914</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="F42">
-        <v>8198.336576603548</v>
+        <v>8192.588091209109</v>
       </c>
       <c r="G42">
-        <v>71956.81281341218</v>
+        <v>71968.00653497003</v>
       </c>
       <c r="H42">
-        <v>103449.4652346381</v>
+        <v>103376.9288445537</v>
       </c>
       <c r="I42">
-        <v>92418.73315994309</v>
+        <v>92353.93126595175</v>
       </c>
       <c r="J42">
-        <v>11030.73216825088</v>
+        <v>11022.99767209222</v>
       </c>
       <c r="K42">
-        <v>277.9092133822318</v>
+        <v>277.714349821901</v>
       </c>
       <c r="L42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="M42">
-        <v>4839.787628171544</v>
+        <v>4836.394080195955</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90565.91778310006</v>
+        <v>90502.415040715</v>
       </c>
       <c r="P42">
-        <v>55465.38657286131</v>
+        <v>55426.49551714143</v>
       </c>
       <c r="Q42">
-        <v>47205.06698600404</v>
+        <v>47171.96787674242</v>
       </c>
       <c r="R42">
-        <v>8260.319586857271</v>
+        <v>8254.527640399016</v>
       </c>
       <c r="S42">
-        <v>35100.53130379463</v>
+        <v>35075.91961706384</v>
       </c>
       <c r="T42">
-        <v>29873.14413217573</v>
+        <v>29852.1977693221</v>
       </c>
       <c r="U42">
-        <v>2456.974590225282</v>
+        <v>2455.25181604854</v>
       </c>
       <c r="V42">
-        <v>2770.412581393608</v>
+        <v>2768.470031693202</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>24953.5347653619</v>
+        <v>25026.07115544631</v>
       </c>
       <c r="AI42">
-        <v>-4497.733159943091</v>
+        <v>-4432.931265951745</v>
       </c>
       <c r="AJ42">
-        <v>29451.26783174912</v>
+        <v>29459.00232790778</v>
       </c>
       <c r="AK42">
-        <v>-35562.4652346381</v>
+        <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59802.73315994309</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>24240.26783174912</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-59810.73315994309</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
-        <v>163973.4652346381</v>
+        <v>163900.9288445537</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6888</v>
+        <v>10.6963</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79296.91626708473</v>
+        <v>79302.32518062349</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="F43">
-        <v>8162.123802296589</v>
+        <v>8156.410363246972</v>
       </c>
       <c r="G43">
-        <v>71134.79246478815</v>
+        <v>71145.91481737651</v>
       </c>
       <c r="H43">
-        <v>101699.8914249022</v>
+        <v>101628.7020941492</v>
       </c>
       <c r="I43">
-        <v>92885.28724034125</v>
+        <v>92820.26808109933</v>
       </c>
       <c r="J43">
-        <v>8814.604267952002</v>
+        <v>8808.434096382529</v>
       </c>
       <c r="K43">
-        <v>274.3360824570328</v>
+        <v>274.1440487995934</v>
       </c>
       <c r="L43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="M43">
-        <v>4826.449210704071</v>
+        <v>4823.07072441063</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88872.02239882587</v>
+        <v>88809.81250156248</v>
       </c>
       <c r="P43">
-        <v>54063.16460551883</v>
+        <v>54025.32070566079</v>
       </c>
       <c r="Q43">
-        <v>46436.41927333073</v>
+        <v>46403.91405071625</v>
       </c>
       <c r="R43">
-        <v>7626.745332188098</v>
+        <v>7621.406654944542</v>
       </c>
       <c r="S43">
-        <v>34808.85779330704</v>
+        <v>34784.4917959017</v>
       </c>
       <c r="T43">
-        <v>31157.11467098077</v>
+        <v>31135.30487245939</v>
       </c>
       <c r="U43">
-        <v>2463.884269953385</v>
+        <v>2462.159565336955</v>
       </c>
       <c r="V43">
-        <v>1187.858935763903</v>
+        <v>1187.027441437988</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24445.10857509777</v>
+        <v>24516.29790585078</v>
       </c>
       <c r="AI43">
-        <v>-5861.287240341248</v>
+        <v>-5796.268081099333</v>
       </c>
       <c r="AJ43">
-        <v>30306.395732048</v>
+        <v>30312.56590361747</v>
       </c>
       <c r="AK43">
-        <v>-36375.89142490224</v>
+        <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59804.28724034125</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>23428.395732048</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-59812.28724034125</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
-        <v>162528.8914249023</v>
+        <v>162457.7020941492</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6342,7 +6342,7 @@
         <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>11.9917</v>
+        <v>12.0001</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77246.50209742189</v>
+        <v>77251.88611664317</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="F44">
-        <v>8335.640198844552</v>
+        <v>8329.857906867461</v>
       </c>
       <c r="G44">
-        <v>68910.86189857734</v>
+        <v>68922.02820977572</v>
       </c>
       <c r="H44">
-        <v>101774.4865421649</v>
+        <v>101703.8873100763</v>
       </c>
       <c r="I44">
-        <v>93005.29311657486</v>
+        <v>92940.77692497036</v>
       </c>
       <c r="J44">
-        <v>8769.19342559004</v>
+        <v>8763.110385105954</v>
       </c>
       <c r="K44">
-        <v>274.5364772269247</v>
+        <v>274.3460359372552</v>
       </c>
       <c r="L44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="M44">
-        <v>4840.790302596026</v>
+        <v>4837.432328611813</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88897.66185976384</v>
+        <v>88835.99506217041</v>
       </c>
       <c r="P44">
-        <v>54196.76362577813</v>
+        <v>54159.16825169505</v>
       </c>
       <c r="Q44">
-        <v>46633.74117366057</v>
+        <v>46601.39213975102</v>
       </c>
       <c r="R44">
-        <v>7563.022452117575</v>
+        <v>7557.776111944027</v>
       </c>
       <c r="S44">
-        <v>34700.8982339857</v>
+        <v>34676.82681047536</v>
       </c>
       <c r="T44">
-        <v>31231.05833967785</v>
+        <v>31209.39388514698</v>
       </c>
       <c r="U44">
-        <v>2263.668920835386</v>
+        <v>2262.098652166454</v>
       </c>
       <c r="V44">
-        <v>1206.170973472465</v>
+        <v>1205.334273161926</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22250.5134578351</v>
+        <v>22321.1126899237</v>
       </c>
       <c r="AI44">
-        <v>-7997.29311657486</v>
+        <v>-7932.776924970356</v>
       </c>
       <c r="AJ44">
-        <v>30247.80657440996</v>
+        <v>30253.88961489405</v>
       </c>
       <c r="AK44">
-        <v>-38149.4865421649</v>
+        <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61672.29311657486</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>23522.80657440996</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-62064.29311657486</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
-        <v>162566.4865421649</v>
+        <v>162495.8873100763</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.3974</v>
+        <v>13.4067</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76396.53347653548</v>
+        <v>76402.00801851097</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="F45">
-        <v>8303.434739869661</v>
+        <v>8297.574145759358</v>
       </c>
       <c r="G45">
-        <v>68093.09873666582</v>
+        <v>68104.43387275162</v>
       </c>
       <c r="H45">
-        <v>101935.0436523829</v>
+        <v>101863.0975318703</v>
       </c>
       <c r="I45">
-        <v>94293.3102996323</v>
+        <v>94226.7577420106</v>
       </c>
       <c r="J45">
-        <v>7641.733425565223</v>
+        <v>7636.339862622969</v>
       </c>
       <c r="K45">
-        <v>274.0099756070921</v>
+        <v>273.816578380581</v>
       </c>
       <c r="L45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="M45">
-        <v>4840.232424363782</v>
+        <v>4836.816170906339</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89064.33472894746</v>
+        <v>89001.47280109435</v>
       </c>
       <c r="P45">
-        <v>53584.31834565115</v>
+        <v>53546.49834099773</v>
       </c>
       <c r="Q45">
-        <v>46370.13871190884</v>
+        <v>46337.41050119331</v>
       </c>
       <c r="R45">
-        <v>7214.179706556959</v>
+        <v>7209.087912567669</v>
       </c>
       <c r="S45">
-        <v>35480.01638329632</v>
+        <v>35454.97446009663</v>
       </c>
       <c r="T45">
-        <v>33123.24585866676</v>
+        <v>33099.86735258164</v>
       </c>
       <c r="U45">
-        <v>1929.216805621291</v>
+        <v>1927.855157459689</v>
       </c>
       <c r="V45">
-        <v>427.5537190082645</v>
+        <v>427.2519500553</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>20954.95634761715</v>
+        <v>21026.9024681297</v>
       </c>
       <c r="AI45">
-        <v>-10140.3102996323</v>
+        <v>-10073.7577420106</v>
       </c>
       <c r="AJ45">
-        <v>31095.26657443478</v>
+        <v>31100.66013737703</v>
       </c>
       <c r="AK45">
-        <v>-39001.04365238285</v>
+        <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62869.3102996323</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>23868.26657443478</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-63261.3102996323</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
-        <v>162283.0436523829</v>
+        <v>162211.0975318703</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,7 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7335</v>
+        <v>13.7432</v>
       </c>
     </row>
     <row r="46">
@@ -6627,64 +6627,64 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70615.72128516169</v>
+        <v>70621.12258904272</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="F46">
-        <v>8204.612925295371</v>
+        <v>8198.895725686638</v>
       </c>
       <c r="G46">
-        <v>62411.10835986632</v>
+        <v>62422.22686335607</v>
       </c>
       <c r="H46">
-        <v>104932.1988395653</v>
+        <v>104859.0792016724</v>
       </c>
       <c r="I46">
-        <v>97342.4621740389</v>
+        <v>97274.63127309064</v>
       </c>
       <c r="J46">
-        <v>7589.736731310686</v>
+        <v>7584.447994320198</v>
       </c>
       <c r="K46">
-        <v>271.4653448411967</v>
+        <v>271.2761803336883</v>
       </c>
       <c r="L46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="M46">
-        <v>4836.989316632898</v>
+        <v>4833.618769639359</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92072.4654632529</v>
+        <v>92008.30684074205</v>
       </c>
       <c r="P46">
-        <v>53561.15017235481</v>
+        <v>53523.8272919707</v>
       </c>
       <c r="Q46">
-        <v>46339.95631923795</v>
+        <v>46307.66536504556</v>
       </c>
       <c r="R46">
-        <v>7221.193918901139</v>
+        <v>7216.161992663589</v>
       </c>
       <c r="S46">
-        <v>38511.3152251138</v>
+        <v>38484.47948303291</v>
       </c>
       <c r="T46">
-        <v>35794.40682314554</v>
+        <v>35769.46429745329</v>
       </c>
       <c r="U46">
-        <v>2348.365655342999</v>
+        <v>2346.729249661447</v>
       </c>
       <c r="V46">
-        <v>368.5428124095466</v>
+        <v>368.2860016566087</v>
       </c>
       <c r="W46">
         <v>59268</v>
@@ -6720,28 +6720,28 @@
         <v>7180</v>
       </c>
       <c r="AH46">
-        <v>11940.8011604347</v>
+        <v>12013.92079832761</v>
       </c>
       <c r="AI46">
-        <v>-18975.4621740389</v>
+        <v>-18907.63127309064</v>
       </c>
       <c r="AJ46">
-        <v>30916.26326868931</v>
+        <v>30921.5520056798</v>
       </c>
       <c r="AK46">
-        <v>-46926.1988395653</v>
+        <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70662.4621740389</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>23736.26326868931</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-71063.4621740389</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
-        <v>164200.1988395653</v>
+        <v>164127.0792016724</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6753,7 +6753,7 @@
         <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2012</v>
+        <v>15.2118</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6756,6 +6756,143 @@
         <v>15.2118</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B47">
+        <v>110925</v>
+      </c>
+      <c r="C47">
+        <v>64800.29482656233</v>
+      </c>
+      <c r="D47">
+        <v>38370</v>
+      </c>
+      <c r="E47">
+        <v>7754.705173437665</v>
+      </c>
+      <c r="F47">
+        <v>8207.213906451951</v>
+      </c>
+      <c r="G47">
+        <v>56593.08092011038</v>
+      </c>
+      <c r="H47">
+        <v>102448.4012470744</v>
+      </c>
+      <c r="I47">
+        <v>93807.0724316205</v>
+      </c>
+      <c r="J47">
+        <v>8641.328728123801</v>
+      </c>
+      <c r="K47">
+        <v>271.109704125476</v>
+      </c>
+      <c r="L47">
+        <v>7754.705173437665</v>
+      </c>
+      <c r="M47">
+        <v>4836.093024068187</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>89586.49334544312</v>
+      </c>
+      <c r="P47">
+        <v>53006.56713941384</v>
+      </c>
+      <c r="Q47">
+        <v>44822.36149439341</v>
+      </c>
+      <c r="R47">
+        <v>8184.205557690293</v>
+      </c>
+      <c r="S47">
+        <v>36579.92620602928</v>
+      </c>
+      <c r="T47">
+        <v>33871.17895692877</v>
+      </c>
+      <c r="U47">
+        <v>2251.624078666993</v>
+      </c>
+      <c r="V47">
+        <v>457.1231704335069</v>
+      </c>
+      <c r="W47">
+        <v>65292</v>
+      </c>
+      <c r="X47">
+        <v>59035</v>
+      </c>
+      <c r="Y47">
+        <v>6257</v>
+      </c>
+      <c r="Z47">
+        <v>978</v>
+      </c>
+      <c r="AA47">
+        <v>43317</v>
+      </c>
+      <c r="AB47">
+        <v>37060</v>
+      </c>
+      <c r="AC47">
+        <v>6257</v>
+      </c>
+      <c r="AD47">
+        <v>20997</v>
+      </c>
+      <c r="AE47">
+        <v>64314</v>
+      </c>
+      <c r="AF47">
+        <v>58057</v>
+      </c>
+      <c r="AG47">
+        <v>6257</v>
+      </c>
+      <c r="AH47">
+        <v>8476.598752925565</v>
+      </c>
+      <c r="AI47">
+        <v>-21252.0724316205</v>
+      </c>
+      <c r="AJ47">
+        <v>29728.6712718762</v>
+      </c>
+      <c r="AK47">
+        <v>-55837.40124707444</v>
+      </c>
+      <c r="AL47">
+        <v>-79309.0724316205</v>
+      </c>
+      <c r="AM47">
+        <v>23471.6712718762</v>
+      </c>
+      <c r="AN47">
+        <v>-80287.0724316205</v>
+      </c>
+      <c r="AO47">
+        <v>167740.4012470744</v>
+      </c>
+      <c r="AP47">
+        <v>265603.11</v>
+      </c>
+      <c r="AQ47">
+        <v>0.5797971602434077</v>
+      </c>
+      <c r="AR47">
+        <v>0.1630892047913144</v>
+      </c>
+      <c r="AS47">
+        <v>11.4508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14333.27347522322</v>
@@ -704,13 +704,13 @@
         <v>-44927.72652477678</v>
       </c>
       <c r="AL2">
-        <v>-72105.15084567452</v>
+        <v>-77658.59184567453</v>
       </c>
       <c r="AM2">
-        <v>27177.42432089774</v>
+        <v>32730.86532089773</v>
       </c>
       <c r="AN2">
-        <v>-73502.15084567452</v>
+        <v>-79055.59184567453</v>
       </c>
       <c r="AO2">
         <v>139530.7265247768</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226788</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4142</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830645</v>
+        <v>0.0001540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.1552733834376522</v>
+        <v>0.0001552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548523844684408</v>
+        <v>0.0001548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711286424205766</v>
+        <v>0.0001711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.169458761099947</v>
+        <v>0.000169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711120718583385</v>
+        <v>0.0001711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668596216735144</v>
+        <v>0.0001668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664977157503071</v>
+        <v>0.0001664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>34271</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>21034</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>60822.122</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980</v>
+        <v>39.98</v>
       </c>
       <c r="AB43">
-        <v>33102</v>
+        <v>33.102</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AD43">
-        <v>20841</v>
+        <v>60781.02</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>60814.122</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-66610.39008109934</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>30305.68790361747</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-66618.39008109932</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.154080134850564</v>
+        <v>0.0001540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>54067</v>
+        <v>60785.27499999999</v>
       </c>
       <c r="Y44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39533</v>
+        <v>39.533</v>
       </c>
       <c r="AB44">
-        <v>32808</v>
+        <v>32.808</v>
       </c>
       <c r="AC44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AD44">
-        <v>20867</v>
+        <v>60360.467</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>53675</v>
+        <v>60393.275</v>
       </c>
       <c r="AG44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-68326.05192497035</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>30247.16461489405</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-68718.05192497035</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.153450834966544</v>
+        <v>0.000153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>53121</v>
+        <v>60340.773</v>
       </c>
       <c r="Y45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38991</v>
+        <v>38.991</v>
       </c>
       <c r="AB45">
-        <v>31764</v>
+        <v>31.764</v>
       </c>
       <c r="AC45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AD45">
-        <v>20965</v>
+        <v>59917.009</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>52729</v>
+        <v>59948.773</v>
       </c>
       <c r="AG45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-70022.5307420106</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>31093.43313737703</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-70414.5307420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.1510540895364002</v>
+        <v>0.0001510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>52088</v>
+        <v>59260.82</v>
       </c>
       <c r="Y46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="AB46">
-        <v>30720</v>
+        <v>30.72000000000001</v>
       </c>
       <c r="AC46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AD46">
-        <v>20967</v>
+        <v>58829.1</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>51687</v>
+        <v>58859.82</v>
       </c>
       <c r="AG46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-77767.45127309064</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>30914.3720056798</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-78168.45127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.1433119814866633</v>
+        <v>0.0001433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>59035</v>
+        <v>65285.743</v>
       </c>
       <c r="Y47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43317</v>
+        <v>43.317</v>
       </c>
       <c r="AB47">
-        <v>37060</v>
+        <v>37.06</v>
       </c>
       <c r="AC47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AD47">
-        <v>20997</v>
+        <v>64270.683</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>58057</v>
+        <v>64307.743</v>
       </c>
       <c r="AG47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79309.0724316205</v>
+        <v>-85559.8154316205</v>
       </c>
       <c r="AM47">
-        <v>23471.6712718762</v>
+        <v>29722.4142718762</v>
       </c>
       <c r="AN47">
-        <v>-80287.0724316205</v>
+        <v>-86537.81543162049</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,10 +6887,147 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.1630892047913144</v>
+        <v>0.0001630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B48">
+        <v>111051</v>
+      </c>
+      <c r="C48">
+        <v>64811.67239452899</v>
+      </c>
+      <c r="D48">
+        <v>38488</v>
+      </c>
+      <c r="E48">
+        <v>7751.327605471008</v>
+      </c>
+      <c r="F48">
+        <v>8205.615873627432</v>
+      </c>
+      <c r="G48">
+        <v>56606.05652090156</v>
+      </c>
+      <c r="H48">
+        <v>102890.5606626854</v>
+      </c>
+      <c r="I48">
+        <v>94183.64392217298</v>
+      </c>
+      <c r="J48">
+        <v>8706.916740512426</v>
+      </c>
+      <c r="K48">
+        <v>270.1827008283568</v>
+      </c>
+      <c r="L48">
+        <v>7751.327605471008</v>
+      </c>
+      <c r="M48">
+        <v>4836.533384704296</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>90032.51697168176</v>
+      </c>
+      <c r="P48">
+        <v>53052.67832787517</v>
+      </c>
+      <c r="Q48">
+        <v>44802.52043922173</v>
+      </c>
+      <c r="R48">
+        <v>8250.157888653439</v>
+      </c>
+      <c r="S48">
+        <v>36979.83864380659</v>
+      </c>
+      <c r="T48">
+        <v>34136.67185513389</v>
+      </c>
+      <c r="U48">
+        <v>2386.407936813716</v>
+      </c>
+      <c r="V48">
+        <v>456.7588518589867</v>
+      </c>
+      <c r="W48">
+        <v>64695.074</v>
+      </c>
+      <c r="X48">
+        <v>64688.948</v>
+      </c>
+      <c r="Y48">
+        <v>6.126</v>
+      </c>
+      <c r="Z48">
+        <v>1.074</v>
+      </c>
+      <c r="AA48">
+        <v>43.704</v>
+      </c>
+      <c r="AB48">
+        <v>37.578</v>
+      </c>
+      <c r="AC48">
+        <v>6.126</v>
+      </c>
+      <c r="AD48">
+        <v>64650.296</v>
+      </c>
+      <c r="AE48">
+        <v>64694</v>
+      </c>
+      <c r="AF48">
+        <v>64687.874</v>
+      </c>
+      <c r="AG48">
+        <v>6.126</v>
+      </c>
+      <c r="AH48">
+        <v>8160.439337314572</v>
+      </c>
+      <c r="AI48">
+        <v>-21620.64392217298</v>
+      </c>
+      <c r="AJ48">
+        <v>29781.08325948758</v>
+      </c>
+      <c r="AK48">
+        <v>-56533.56066268543</v>
+      </c>
+      <c r="AL48">
+        <v>-86308.51792217299</v>
+      </c>
+      <c r="AM48">
+        <v>29774.95725948758</v>
+      </c>
+      <c r="AN48">
+        <v>-86309.59192217299</v>
+      </c>
+      <c r="AO48">
+        <v>167585.6346626854</v>
+      </c>
+      <c r="AP48">
+        <v>263842.17</v>
+      </c>
+      <c r="AQ48">
+        <v>0.5825611655905845</v>
+      </c>
+      <c r="AR48">
+        <v>0.0001656444835941124</v>
+      </c>
+      <c r="AS48">
+        <v>12.9775</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039.00000000001</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480.00000000001</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15221.99999999999</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14333.27347522322</v>
@@ -704,13 +704,13 @@
         <v>-44927.72652477678</v>
       </c>
       <c r="AL2">
-        <v>-77658.59184567453</v>
+        <v>-72105.15084567452</v>
       </c>
       <c r="AM2">
-        <v>32730.86532089773</v>
+        <v>27177.42432089774</v>
       </c>
       <c r="AN2">
-        <v>-79055.59184567453</v>
+        <v>-73502.15084567452</v>
       </c>
       <c r="AO2">
         <v>139530.7265247768</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226788</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4142</v>
@@ -799,34 +799,34 @@
         <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>51781.285</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
         <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-68191.53040106723</v>
       </c>
       <c r="AO3">
         <v>139041.1351301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>52826.426</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
         <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389.00000000001</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214.00000000001</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17610.99999999999</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-68382.3920753017</v>
       </c>
       <c r="AO4">
         <v>139453.7919696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540216666830645</v>
+        <v>0.1540216666830646</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.0001552733834376522</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170.00000000001</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995.00000000001</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17429.99999999999</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548523844684408</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711286424205766</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.000169458761099947</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42720.99999999999</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37532.99999999999</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179.00000000001</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711120718583385</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668596216735144</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328.00000000001</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059.00000000001</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17271.99999999999</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664977157503071</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43216.99999999999</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37632.99999999999</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483.00000000001</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5524.999999999999</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45848.99999999999</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40635.99999999999</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564.00000000001</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195908</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482.00000000001</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271.00000000001</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21033.99999999999</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>60822.122</v>
+        <v>53951</v>
       </c>
       <c r="Y43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39.98</v>
+        <v>39980.00000000001</v>
       </c>
       <c r="AB43">
-        <v>33.102</v>
+        <v>33102.00000000001</v>
       </c>
       <c r="AC43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AD43">
-        <v>60781.02</v>
+        <v>20840.99999999999</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>60814.122</v>
+        <v>53943</v>
       </c>
       <c r="AG43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-66610.39008109934</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>30305.68790361747</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-66618.39008109932</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.0001540801348505641</v>
+        <v>0.1540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>60785.27499999999</v>
+        <v>54067</v>
       </c>
       <c r="Y44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39.533</v>
+        <v>39533</v>
       </c>
       <c r="AB44">
-        <v>32.808</v>
+        <v>32808</v>
       </c>
       <c r="AC44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AD44">
-        <v>60360.467</v>
+        <v>20867</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>60393.275</v>
+        <v>53675</v>
       </c>
       <c r="AG44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-68326.05192497035</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>30247.16461489405</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-68718.05192497035</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.000153450834966544</v>
+        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>60340.773</v>
+        <v>53121</v>
       </c>
       <c r="Y45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38.991</v>
+        <v>38991</v>
       </c>
       <c r="AB45">
-        <v>31.764</v>
+        <v>31764</v>
       </c>
       <c r="AC45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AD45">
-        <v>59917.009</v>
+        <v>20965</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>59948.773</v>
+        <v>52729</v>
       </c>
       <c r="AG45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-70022.5307420106</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>31093.43313737703</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-70414.5307420106</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.0001510540895364002</v>
+        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>59260.82</v>
+        <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7.180000000000001</v>
+        <v>7180.000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37.90000000000001</v>
+        <v>37900.00000000001</v>
       </c>
       <c r="AB46">
-        <v>30.72000000000001</v>
+        <v>30720.00000000001</v>
       </c>
       <c r="AC46">
-        <v>7.180000000000001</v>
+        <v>7180.000000000001</v>
       </c>
       <c r="AD46">
-        <v>58829.1</v>
+        <v>20966.99999999999</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>58859.82</v>
+        <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7.180000000000001</v>
+        <v>7180.000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-77767.45127309064</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>30914.3720056798</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-78168.45127309064</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.0001433119814866633</v>
+        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>65285.743</v>
+        <v>59035</v>
       </c>
       <c r="Y47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43.317</v>
+        <v>43317</v>
       </c>
       <c r="AB47">
-        <v>37.06</v>
+        <v>37060</v>
       </c>
       <c r="AC47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AD47">
-        <v>64270.683</v>
+        <v>20997</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>64307.743</v>
+        <v>58057</v>
       </c>
       <c r="AG47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-85559.8154316205</v>
+        <v>-79309.0724316205</v>
       </c>
       <c r="AM47">
-        <v>29722.4142718762</v>
+        <v>23471.6712718762</v>
       </c>
       <c r="AN47">
-        <v>-86537.81543162049</v>
+        <v>-80287.0724316205</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.0001630892047913144</v>
+        <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6964,34 +6964,34 @@
         <v>64695.074</v>
       </c>
       <c r="X48">
-        <v>64688.948</v>
+        <v>58569.074</v>
       </c>
       <c r="Y48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="Z48">
         <v>1.074</v>
       </c>
       <c r="AA48">
-        <v>43.704</v>
+        <v>43704</v>
       </c>
       <c r="AB48">
-        <v>37.578</v>
+        <v>37578</v>
       </c>
       <c r="AC48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AD48">
-        <v>64650.296</v>
+        <v>20990</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>64687.874</v>
+        <v>58568</v>
       </c>
       <c r="AG48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,13 +7006,13 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-86308.51792217299</v>
+        <v>-80188.64392217298</v>
       </c>
       <c r="AM48">
-        <v>29774.95725948758</v>
+        <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-86309.59192217299</v>
+        <v>-80189.71792217298</v>
       </c>
       <c r="AO48">
         <v>167585.6346626854</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.0001656444835941124</v>
+        <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -671,16 +671,16 @@
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039.00000000001</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38480.00000000001</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
         <v>5559</v>
       </c>
       <c r="AD2">
-        <v>15221.99999999999</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
@@ -736,76 +736,76 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52321.66853164957</v>
+        <v>52320.58078816316</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="F3">
-        <v>8876.629654666533</v>
+        <v>8882.889979561876</v>
       </c>
       <c r="G3">
-        <v>43445.03887698304</v>
+        <v>43437.69080860129</v>
       </c>
       <c r="H3">
-        <v>82039.85013016526</v>
+        <v>82097.70949077405</v>
       </c>
       <c r="I3">
-        <v>70274.24540106722</v>
+        <v>70323.80696047669</v>
       </c>
       <c r="J3">
-        <v>11765.60487292706</v>
+        <v>11773.90267422781</v>
       </c>
       <c r="K3">
-        <v>342.488961123017</v>
+        <v>342.7305046201676</v>
       </c>
       <c r="L3">
-        <v>1542.331468350425</v>
+        <v>1543.41921183684</v>
       </c>
       <c r="M3">
-        <v>4913.384009089994</v>
+        <v>4916.849218457641</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75241.64569160182</v>
+        <v>75294.71055585941</v>
       </c>
       <c r="P3">
-        <v>45911.31215211357</v>
+        <v>45943.69152825355</v>
       </c>
       <c r="Q3">
-        <v>34936.71782185338</v>
+        <v>34961.35726416995</v>
       </c>
       <c r="R3">
-        <v>10974.5944740892</v>
+        <v>10982.33440801405</v>
       </c>
       <c r="S3">
-        <v>29330.33339565924</v>
+        <v>29351.01888367541</v>
       </c>
       <c r="T3">
-        <v>25497.94151912207</v>
+        <v>25515.92417743746</v>
       </c>
       <c r="U3">
-        <v>3041.381621528327</v>
+        <v>3043.526583954633</v>
       </c>
       <c r="V3">
-        <v>791.0103988378615</v>
+        <v>791.5682662137655</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>51781.285</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
         <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
         <v>39899</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>12008.14986983474</v>
+        <v>11950.29050922595</v>
       </c>
       <c r="AI3">
-        <v>-16410.24540106722</v>
+        <v>-16459.80696047669</v>
       </c>
       <c r="AJ3">
-        <v>28418.39512707294</v>
+        <v>28410.09732577219</v>
       </c>
       <c r="AK3">
-        <v>-44991.85013016526</v>
+        <v>-45049.70949077405</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-68239.80696047669</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>23190.09732577219</v>
       </c>
       <c r="AN3">
-        <v>-68191.53040106723</v>
+        <v>-69524.80696047669</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140382.7094907741</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9527</v>
+        <v>6.9478</v>
       </c>
     </row>
     <row r="4">
@@ -870,91 +870,91 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213.00000000002</v>
+        <v>95213</v>
       </c>
       <c r="C4">
-        <v>52943.16064178856</v>
+        <v>52942.0817820074</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="F4">
-        <v>8945.758995606473</v>
+        <v>8951.982218883044</v>
       </c>
       <c r="G4">
-        <v>43997.40164618209</v>
+        <v>43990.09956312436</v>
       </c>
       <c r="H4">
-        <v>81452.36596963462</v>
+        <v>81509.02927345075</v>
       </c>
       <c r="I4">
-        <v>70049.96607530171</v>
+        <v>70098.69716448228</v>
       </c>
       <c r="J4">
-        <v>11402.39989433291</v>
+        <v>11410.33210896847</v>
       </c>
       <c r="K4">
-        <v>370.3677492909181</v>
+        <v>370.6254000055653</v>
       </c>
       <c r="L4">
-        <v>1550.839358211445</v>
+        <v>1551.918217992598</v>
       </c>
       <c r="M4">
-        <v>4932.295200489405</v>
+        <v>4935.726410106575</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74598.86366164284</v>
+        <v>74650.75924534601</v>
       </c>
       <c r="P4">
-        <v>46171.38048495634</v>
+        <v>46203.50015304561</v>
       </c>
       <c r="Q4">
-        <v>35139.53701128969</v>
+        <v>35163.98224670952</v>
       </c>
       <c r="R4">
-        <v>11031.84347366665</v>
+        <v>11039.51790633609</v>
       </c>
       <c r="S4">
-        <v>28427.4831766865</v>
+        <v>28447.25909230041</v>
       </c>
       <c r="T4">
-        <v>24889.26464045381</v>
+        <v>24906.5791524056</v>
       </c>
       <c r="U4">
-        <v>3167.662115566431</v>
+        <v>3169.865737262431</v>
       </c>
       <c r="V4">
-        <v>370.5564206662588</v>
+        <v>370.8142026323844</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>52826.426</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
         <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40389.00000000001</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35214.00000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
         <v>5175</v>
       </c>
       <c r="AD4">
-        <v>17610.99999999999</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13760.6340303654</v>
+        <v>13703.97072654925</v>
       </c>
       <c r="AI4">
-        <v>-15555.96607530171</v>
+        <v>-15604.69716448228</v>
       </c>
       <c r="AJ4">
-        <v>29316.60010566709</v>
+        <v>29308.66789103153</v>
       </c>
       <c r="AK4">
-        <v>-44239.3659696346</v>
+        <v>-44296.02927345075</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-68429.69716448228</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>24133.66789103153</v>
       </c>
       <c r="AN4">
-        <v>-68382.3920753017</v>
+        <v>-69855.69716448228</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140935.0292734508</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953849</v>
+        <v>0.6091605137953851</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830646</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1924</v>
+        <v>7.1874</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51706.75148945306</v>
+        <v>51705.67601246106</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="F5">
-        <v>8869.395094197842</v>
+        <v>8875.588140509184</v>
       </c>
       <c r="G5">
-        <v>42837.35639525522</v>
+        <v>42830.08787195187</v>
       </c>
       <c r="H5">
-        <v>80223.69800332779</v>
+        <v>80279.71412074337</v>
       </c>
       <c r="I5">
-        <v>68458.74027159036</v>
+        <v>68506.54151896015</v>
       </c>
       <c r="J5">
-        <v>11764.95786592239</v>
+        <v>11773.17273606188</v>
       </c>
       <c r="K5">
-        <v>341.452149643068</v>
+        <v>341.6905682672683</v>
       </c>
       <c r="L5">
-        <v>1540.248510546938</v>
+        <v>1541.323987538941</v>
       </c>
       <c r="M5">
-        <v>4913.17132735763</v>
+        <v>4916.601944354926</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73428.82601578016</v>
+        <v>73480.09762058224</v>
       </c>
       <c r="P5">
-        <v>44873.82105093661</v>
+        <v>44905.15415189602</v>
       </c>
       <c r="Q5">
-        <v>33600.03582738447</v>
+        <v>33623.49701901386</v>
       </c>
       <c r="R5">
-        <v>11273.78535773711</v>
+        <v>11281.65726716081</v>
       </c>
       <c r="S5">
-        <v>28555.00496484354</v>
+        <v>28574.94346868622</v>
       </c>
       <c r="T5">
-        <v>25287.92214588589</v>
+        <v>25305.5794123966</v>
       </c>
       <c r="U5">
-        <v>2775.910310772369</v>
+        <v>2777.848587388549</v>
       </c>
       <c r="V5">
-        <v>491.1725081852826</v>
+        <v>491.5154689010635</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11439.30199667221</v>
+        <v>11383.28587925663</v>
       </c>
       <c r="AI5">
-        <v>-15211.74027159036</v>
+        <v>-15259.54151896015</v>
       </c>
       <c r="AJ5">
-        <v>26651.04213407761</v>
+        <v>26642.82726393813</v>
       </c>
       <c r="AK5">
-        <v>-46260.69800332779</v>
+        <v>-46316.71412074337</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-67763.54151896015</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>21446.82726393813</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-68749.54151896015</v>
       </c>
       <c r="AO5">
-        <v>138909.6980033278</v>
+        <v>138965.7141207434</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4524</v>
+        <v>7.4472</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51129.47699003304</v>
+        <v>51128.4043874506</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="F6">
-        <v>8672.528409854122</v>
+        <v>8678.590343307256</v>
       </c>
       <c r="G6">
-        <v>42456.94858017892</v>
+        <v>42449.81404414335</v>
       </c>
       <c r="H6">
-        <v>80792.45694866077</v>
+        <v>80848.92934914106</v>
       </c>
       <c r="I6">
-        <v>68857.66730247428</v>
+        <v>68905.79751055193</v>
       </c>
       <c r="J6">
-        <v>11934.7896461865</v>
+        <v>11943.13183858913</v>
       </c>
       <c r="K6">
-        <v>338.8779786691025</v>
+        <v>339.1148479716106</v>
       </c>
       <c r="L6">
-        <v>1534.523009966956</v>
+        <v>1535.595612549399</v>
       </c>
       <c r="M6">
-        <v>4902.492410606345</v>
+        <v>4905.919160147324</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74016.56354941837</v>
+        <v>74068.29972847273</v>
       </c>
       <c r="P6">
-        <v>44928.81927840313</v>
+        <v>44960.22367395221</v>
       </c>
       <c r="Q6">
-        <v>33481.6469655858</v>
+        <v>33505.05000403259</v>
       </c>
       <c r="R6">
-        <v>11447.17231281734</v>
+        <v>11455.17366991962</v>
       </c>
       <c r="S6">
-        <v>29087.74427101523</v>
+        <v>29108.07605452053</v>
       </c>
       <c r="T6">
-        <v>26405.42943878784</v>
+        <v>26423.88633491948</v>
       </c>
       <c r="U6">
-        <v>2194.697498858233</v>
+        <v>2196.231550931527</v>
       </c>
       <c r="V6">
-        <v>487.6173333691535</v>
+        <v>487.9581686695164</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1219,16 +1219,16 @@
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170.00000000001</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34995.00000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
         <v>5175</v>
       </c>
       <c r="AD6">
-        <v>17429.99999999999</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10818.54305133924</v>
+        <v>10762.07065085894</v>
       </c>
       <c r="AI6">
-        <v>-16193.66730247428</v>
+        <v>-16241.79751055193</v>
       </c>
       <c r="AJ6">
-        <v>27012.21035381351</v>
+        <v>27003.86816141087</v>
       </c>
       <c r="AK6">
-        <v>-46781.45694866077</v>
+        <v>-46837.92934914106</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-68666.79751055193</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>21828.86816141087</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-69652.79751055193</v>
       </c>
       <c r="AO6">
-        <v>139378.4569486608</v>
+        <v>139434.9293491411</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4446</v>
+        <v>7.4394</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52364.30885172918</v>
+        <v>52363.23865755962</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="F7">
-        <v>8696.179850616174</v>
+        <v>8702.247956951733</v>
       </c>
       <c r="G7">
-        <v>43668.129001113</v>
+        <v>43660.99070060789</v>
       </c>
       <c r="H7">
-        <v>79622.22895686104</v>
+        <v>79677.78854282686</v>
       </c>
       <c r="I7">
-        <v>67526.84269105439</v>
+        <v>67573.962238832</v>
       </c>
       <c r="J7">
-        <v>12095.38626580666</v>
+        <v>12103.82630399485</v>
       </c>
       <c r="K7">
-        <v>338.3054188513269</v>
+        <v>338.5414849505509</v>
       </c>
       <c r="L7">
-        <v>1533.691148270822</v>
+        <v>1534.761342440386</v>
       </c>
       <c r="M7">
-        <v>4901.864615879742</v>
+        <v>4905.285087425022</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72848.36777385917</v>
+        <v>72899.20062801091</v>
       </c>
       <c r="P7">
-        <v>44459.59408901345</v>
+        <v>44490.61754404799</v>
       </c>
       <c r="Q7">
-        <v>33268.97295267724</v>
+        <v>33292.187705479</v>
       </c>
       <c r="R7">
-        <v>11190.62113633621</v>
+        <v>11198.42983856899</v>
       </c>
       <c r="S7">
-        <v>28388.77368484572</v>
+        <v>28408.58308396291</v>
       </c>
       <c r="T7">
-        <v>25430.69287811943</v>
+        <v>25448.43815837147</v>
       </c>
       <c r="U7">
-        <v>2053.315677255843</v>
+        <v>2054.748460165591</v>
       </c>
       <c r="V7">
-        <v>904.7651294704517</v>
+        <v>905.3964654258532</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13538.77104313896</v>
+        <v>13483.21145717314</v>
       </c>
       <c r="AI7">
-        <v>-13628.84269105439</v>
+        <v>-13675.962238832</v>
       </c>
       <c r="AJ7">
-        <v>27167.61373419334</v>
+        <v>27159.17369600515</v>
       </c>
       <c r="AK7">
-        <v>-48561.22895686104</v>
+        <v>-48616.78854282686</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-70526.962238832</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>21910.17369600515</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-71512.962238832</v>
       </c>
       <c r="AO7">
-        <v>142708.228956861</v>
+        <v>142763.7885428269</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4573</v>
+        <v>7.4521</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49368.60578775706</v>
+        <v>49367.53001146775</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="F8">
-        <v>8633.890742862901</v>
+        <v>8639.983743525765</v>
       </c>
       <c r="G8">
-        <v>40734.71504489415</v>
+        <v>40727.54626794198</v>
       </c>
       <c r="H8">
-        <v>77988.67710209171</v>
+        <v>78043.71428931483</v>
       </c>
       <c r="I8">
-        <v>66706.94115276607</v>
+        <v>66754.0167353471</v>
       </c>
       <c r="J8">
-        <v>11281.73594932564</v>
+        <v>11289.69755396772</v>
       </c>
       <c r="K8">
-        <v>334.1376922011359</v>
+        <v>334.3734956460373</v>
       </c>
       <c r="L8">
-        <v>1524.394212242945</v>
+        <v>1525.469988532255</v>
       </c>
       <c r="M8">
-        <v>4885.44270800539</v>
+        <v>4888.89040111905</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71244.70248964224</v>
+        <v>71294.98040401749</v>
       </c>
       <c r="P8">
-        <v>44239.09884270045</v>
+        <v>44270.31870250652</v>
       </c>
       <c r="Q8">
-        <v>33080.09872936317</v>
+        <v>33103.44360011593</v>
       </c>
       <c r="R8">
-        <v>11158.99998740697</v>
+        <v>11166.8749763714</v>
       </c>
       <c r="S8">
-        <v>27005.60364694179</v>
+        <v>27024.66170151097</v>
       </c>
       <c r="T8">
-        <v>25178.00551574759</v>
+        <v>25195.77382077552</v>
       </c>
       <c r="U8">
-        <v>1704.862295205833</v>
+        <v>1706.065429158318</v>
       </c>
       <c r="V8">
-        <v>122.7359619186742</v>
+        <v>122.8225775963102</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12649.32289790829</v>
+        <v>12594.28571068517</v>
       </c>
       <c r="AI8">
-        <v>-15813.94115276607</v>
+        <v>-15861.0167353471</v>
       </c>
       <c r="AJ8">
-        <v>28463.26405067436</v>
+        <v>28455.30244603229</v>
       </c>
       <c r="AK8">
-        <v>-47350.67710209171</v>
+        <v>-47405.71428931483</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-70725.0167353471</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>23319.30244603229</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-71711.0167353471</v>
       </c>
       <c r="AO8">
-        <v>138974.6771020917</v>
+        <v>139029.7142893148</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9409</v>
+        <v>7.9353</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46565.54670958425</v>
+        <v>46564.48597672994</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="F9">
-        <v>8640.524802036545</v>
+        <v>8646.556766687079</v>
       </c>
       <c r="G9">
-        <v>37925.0219075477</v>
+        <v>37917.92921004287</v>
       </c>
       <c r="H9">
-        <v>76903.66835154883</v>
+        <v>76957.35492957747</v>
       </c>
       <c r="I9">
-        <v>65806.78558752616</v>
+        <v>65852.72541334966</v>
       </c>
       <c r="J9">
-        <v>11096.88276402267</v>
+        <v>11104.6295162278</v>
       </c>
       <c r="K9">
-        <v>331.7619053447073</v>
+        <v>331.9935088793632</v>
       </c>
       <c r="L9">
-        <v>1519.453290415754</v>
+        <v>1520.514023270055</v>
       </c>
       <c r="M9">
-        <v>4877.488587269145</v>
+        <v>4880.893570116351</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70174.96456851922</v>
+        <v>70223.95382731171</v>
       </c>
       <c r="P9">
-        <v>44302.54531435495</v>
+        <v>44333.47299448868</v>
       </c>
       <c r="Q9">
-        <v>33217.34159863904</v>
+        <v>33240.53067973056</v>
       </c>
       <c r="R9">
-        <v>11085.20371571591</v>
+        <v>11092.94231475812</v>
       </c>
       <c r="S9">
-        <v>25872.41913177574</v>
+        <v>25890.48071034905</v>
       </c>
       <c r="T9">
-        <v>24600.41661057192</v>
+        <v>24617.59020208206</v>
       </c>
       <c r="U9">
-        <v>1260.323595285594</v>
+        <v>1261.20342927128</v>
       </c>
       <c r="V9">
-        <v>11.67904830675462</v>
+        <v>11.68720146968769</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1630,16 +1630,16 @@
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42720.99999999999</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37532.99999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
         <v>5188</v>
       </c>
       <c r="AD9">
-        <v>17179.00000000001</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10542.33164845117</v>
+        <v>10488.64507042253</v>
       </c>
       <c r="AI9">
-        <v>-17721.78558752616</v>
+        <v>-17767.72541334966</v>
       </c>
       <c r="AJ9">
-        <v>28264.11723597733</v>
+        <v>28256.3704837722</v>
       </c>
       <c r="AK9">
-        <v>-49357.66835154883</v>
+        <v>-49411.35492957747</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-72479.72541334966</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>23068.3704837722</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-73319.72541334966</v>
       </c>
       <c r="AO9">
-        <v>137643.6683515488</v>
+        <v>137697.3549295775</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.1707</v>
+        <v>8.164999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47850.0811599892</v>
+        <v>47849.01274229386</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="F10">
-        <v>8664.637994062661</v>
+        <v>8670.700826162212</v>
       </c>
       <c r="G10">
-        <v>39185.44316592654</v>
+        <v>39178.31191613165</v>
       </c>
       <c r="H10">
-        <v>79530.97021516721</v>
+        <v>79586.61973214177</v>
       </c>
       <c r="I10">
-        <v>68253.9737235948</v>
+        <v>68301.73248548387</v>
       </c>
       <c r="J10">
-        <v>11276.99661424471</v>
+        <v>11284.88736941604</v>
       </c>
       <c r="K10">
-        <v>335.2438725189529</v>
+        <v>335.4784498103387</v>
       </c>
       <c r="L10">
-        <v>1526.918840010795</v>
+        <v>1527.987257706142</v>
       </c>
       <c r="M10">
-        <v>4893.744571751025</v>
+        <v>4897.168829255717</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72775.06293088643</v>
+        <v>72825.98519536956</v>
       </c>
       <c r="P10">
-        <v>44671.54174538139</v>
+        <v>44702.7993763887</v>
       </c>
       <c r="Q10">
-        <v>33406.41392085184</v>
+        <v>33429.78910153325</v>
       </c>
       <c r="R10">
-        <v>11265.12794720185</v>
+        <v>11273.01039761358</v>
       </c>
       <c r="S10">
-        <v>28103.52118550504</v>
+        <v>28123.18581898086</v>
       </c>
       <c r="T10">
-        <v>26436.81260580486</v>
+        <v>26455.31100772148</v>
       </c>
       <c r="U10">
-        <v>1654.839912657327</v>
+        <v>1655.997839456918</v>
       </c>
       <c r="V10">
-        <v>11.8686670428617</v>
+        <v>11.87697180245762</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9789.02978483279</v>
+        <v>9733.380267858229</v>
       </c>
       <c r="AI10">
-        <v>-18876.9737235948</v>
+        <v>-18924.73248548387</v>
       </c>
       <c r="AJ10">
-        <v>28666.00338575529</v>
+        <v>28658.11263058396</v>
       </c>
       <c r="AK10">
-        <v>-49310.97021516721</v>
+        <v>-49366.61973214177</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-72822.73248548387</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>23456.11263058396</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-73662.73248548387</v>
       </c>
       <c r="AO10">
-        <v>139470.9702151672</v>
+        <v>139526.6197321418</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.1518</v>
+        <v>8.146100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48152.49065994762</v>
+        <v>48151.40566389269</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="F11">
-        <v>8194.895428649448</v>
+        <v>8200.697304682648</v>
       </c>
       <c r="G11">
-        <v>39957.59523129818</v>
+        <v>39950.70835921004</v>
       </c>
       <c r="H11">
-        <v>79093.44433825265</v>
+        <v>79149.44143584647</v>
       </c>
       <c r="I11">
-        <v>68147.09459207865</v>
+        <v>68195.3418208918</v>
       </c>
       <c r="J11">
-        <v>10946.34974617399</v>
+        <v>10954.09961495467</v>
       </c>
       <c r="K11">
-        <v>337.8329837278291</v>
+        <v>338.0721649484536</v>
       </c>
       <c r="L11">
-        <v>1532.509340052379</v>
+        <v>1533.594336107316</v>
       </c>
       <c r="M11">
-        <v>4905.193069122594</v>
+        <v>4908.665880014905</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72317.90894534985</v>
+        <v>72369.10905477581</v>
       </c>
       <c r="P11">
-        <v>43116.32926632493</v>
+        <v>43146.85504906223</v>
       </c>
       <c r="Q11">
-        <v>32304.17106259387</v>
+        <v>32327.04198236244</v>
       </c>
       <c r="R11">
-        <v>10812.15820373106</v>
+        <v>10819.81306669979</v>
       </c>
       <c r="S11">
-        <v>29201.57967902492</v>
+        <v>29222.25400571358</v>
       </c>
       <c r="T11">
-        <v>26836.37754912061</v>
+        <v>26855.37734442926</v>
       </c>
       <c r="U11">
-        <v>2231.010587461368</v>
+        <v>2232.590113029437</v>
       </c>
       <c r="V11">
-        <v>134.1915424429357</v>
+        <v>134.2865482548752</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1904,16 +1904,16 @@
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328.00000000001</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37059.00000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
         <v>5269</v>
       </c>
       <c r="AD11">
-        <v>17271.99999999999</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10446.55566174735</v>
+        <v>10390.55856415353</v>
       </c>
       <c r="AI11">
-        <v>-18462.09459207865</v>
+        <v>-18510.3418208918</v>
       </c>
       <c r="AJ11">
-        <v>28908.65025382601</v>
+        <v>28900.90038504534</v>
       </c>
       <c r="AK11">
-        <v>-49153.44433825265</v>
+        <v>-49209.44143584647</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-72841.3418208918</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>23631.90038504534</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-73681.3418208918</v>
       </c>
       <c r="AO11">
-        <v>139533.4443382527</v>
+        <v>139589.4414358465</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.056699999999999</v>
+        <v>8.051</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46432.40058529035</v>
+        <v>46431.33823031125</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="F12">
-        <v>8533.597479865528</v>
+        <v>8539.586983881118</v>
       </c>
       <c r="G12">
-        <v>37898.80310542482</v>
+        <v>37891.75124643013</v>
       </c>
       <c r="H12">
-        <v>76239.90845768737</v>
+        <v>76293.41921196572</v>
       </c>
       <c r="I12">
-        <v>65121.73229012988</v>
+        <v>65167.43949368314</v>
       </c>
       <c r="J12">
-        <v>11118.1761675575</v>
+        <v>11125.97971828259</v>
       </c>
       <c r="K12">
-        <v>333.4149998790722</v>
+        <v>333.6490149571615</v>
       </c>
       <c r="L12">
-        <v>1513.599414709653</v>
+        <v>1514.661769688755</v>
       </c>
       <c r="M12">
-        <v>4834.769390765957</v>
+        <v>4838.162786194878</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69558.1246523327</v>
+        <v>69606.94564112493</v>
       </c>
       <c r="P12">
-        <v>42709.46574116623</v>
+        <v>42739.44237378382</v>
       </c>
       <c r="Q12">
-        <v>31860.87043800034</v>
+        <v>31883.23273149717</v>
       </c>
       <c r="R12">
-        <v>10848.59530316589</v>
+        <v>10856.20964228665</v>
       </c>
       <c r="S12">
-        <v>26848.65891116647</v>
+        <v>26867.50326734111</v>
       </c>
       <c r="T12">
-        <v>24960.7528962198</v>
+        <v>24978.27218161576</v>
       </c>
       <c r="U12">
-        <v>1618.325150555058</v>
+        <v>1619.461009729416</v>
       </c>
       <c r="V12">
-        <v>269.5808643916125</v>
+        <v>269.770075995934</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12436.09154231263</v>
+        <v>12382.58078803428</v>
       </c>
       <c r="AI12">
-        <v>-17175.73229012988</v>
+        <v>-17221.43949368314</v>
       </c>
       <c r="AJ12">
-        <v>29611.8238324425</v>
+        <v>29604.02028171741</v>
       </c>
       <c r="AK12">
-        <v>-47363.90845768737</v>
+        <v>-47417.41921196572</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-71869.43949368314</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>24452.02028171741</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-72709.43949368314</v>
       </c>
       <c r="AO12">
-        <v>136879.9084576874</v>
+        <v>136933.4192119657</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.269399999999999</v>
+        <v>8.2636</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45372.41632722959</v>
+        <v>45371.34075107717</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="F13">
-        <v>8708.262326764767</v>
+        <v>8714.338156090873</v>
       </c>
       <c r="G13">
-        <v>36664.15400046482</v>
+        <v>36657.00259498629</v>
       </c>
       <c r="H13">
-        <v>76028.17046469243</v>
+        <v>76081.21597140617</v>
       </c>
       <c r="I13">
-        <v>64989.21739874988</v>
+        <v>65034.56093321581</v>
       </c>
       <c r="J13">
-        <v>11038.9531882622</v>
+        <v>11046.65516059538</v>
       </c>
       <c r="K13">
-        <v>341.3249666678898</v>
+        <v>341.5631120250685</v>
       </c>
       <c r="L13">
-        <v>1541.583672770418</v>
+        <v>1542.659248922836</v>
       </c>
       <c r="M13">
-        <v>4924.54845693736</v>
+        <v>4927.984356639247</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69220.71336831676</v>
+        <v>69269.00925381902</v>
       </c>
       <c r="P13">
-        <v>43670.82602473304</v>
+        <v>43701.29553466509</v>
       </c>
       <c r="Q13">
-        <v>32748.90242559906</v>
+        <v>32771.75161574617</v>
       </c>
       <c r="R13">
-        <v>10921.92372145365</v>
+        <v>10929.54404132393</v>
       </c>
       <c r="S13">
-        <v>25549.88734358372</v>
+        <v>25567.71371915393</v>
       </c>
       <c r="T13">
-        <v>24342.51256834612</v>
+        <v>24359.49654817861</v>
       </c>
       <c r="U13">
-        <v>1090.345308429048</v>
+        <v>1091.106051703878</v>
       </c>
       <c r="V13">
-        <v>117.0294668085575</v>
+        <v>117.1111192714454</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2178,16 +2178,16 @@
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43216.99999999999</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37632.99999999999</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
         <v>5584</v>
       </c>
       <c r="AD13">
-        <v>17483.00000000001</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11821.82953530757</v>
+        <v>11768.78402859383</v>
       </c>
       <c r="AI13">
-        <v>-18075.21739874988</v>
+        <v>-18120.56093321581</v>
       </c>
       <c r="AJ13">
-        <v>29897.0468117378</v>
+        <v>29889.34483940463</v>
       </c>
       <c r="AK13">
-        <v>-48878.17046469243</v>
+        <v>-48931.21597140617</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-73236.56093321581</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>24305.34483940463</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-74154.56093321581</v>
       </c>
       <c r="AO13">
-        <v>137646.1704646924</v>
+        <v>137699.2159714062</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.1753</v>
+        <v>8.169600000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90325.99999999999</v>
+        <v>90326</v>
       </c>
       <c r="C14">
-        <v>47320.75757867617</v>
+        <v>47319.68341284758</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="F14">
-        <v>8720.194794250077</v>
+        <v>8726.288130692497</v>
       </c>
       <c r="G14">
-        <v>38600.56278442609</v>
+        <v>38593.39528215508</v>
       </c>
       <c r="H14">
-        <v>78387.12804892729</v>
+        <v>78441.90195653221</v>
       </c>
       <c r="I14">
-        <v>66938.3682068816</v>
+        <v>66985.14216182353</v>
       </c>
       <c r="J14">
-        <v>11448.7598420457</v>
+        <v>11456.75979470869</v>
       </c>
       <c r="K14">
-        <v>338.8061929642917</v>
+        <v>339.0429376897499</v>
       </c>
       <c r="L14">
-        <v>1537.24242132383</v>
+        <v>1538.316587152427</v>
       </c>
       <c r="M14">
-        <v>4913.337868098529</v>
+        <v>4916.771119464122</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71597.74156654064</v>
+        <v>71647.77131222592</v>
       </c>
       <c r="P14">
-        <v>43673.50930630131</v>
+        <v>43704.02667341333</v>
       </c>
       <c r="Q14">
-        <v>32637.72904577303</v>
+        <v>32660.53503445617</v>
       </c>
       <c r="R14">
-        <v>11035.78026052828</v>
+        <v>11043.49163895716</v>
       </c>
       <c r="S14">
-        <v>27924.23213984734</v>
+        <v>27943.74451833647</v>
       </c>
       <c r="T14">
-        <v>25639.84565746069</v>
+        <v>25657.76179461231</v>
       </c>
       <c r="U14">
-        <v>1871.407021261226</v>
+        <v>1872.71468844875</v>
       </c>
       <c r="V14">
-        <v>412.9795815174207</v>
+        <v>413.2681557515301</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11938.8719510727</v>
+        <v>11884.09804346779</v>
       </c>
       <c r="AI14">
-        <v>-18080.3682068816</v>
+        <v>-18127.14216182353</v>
       </c>
       <c r="AJ14">
-        <v>30019.2401579543</v>
+        <v>30011.24020529131</v>
       </c>
       <c r="AK14">
-        <v>-47861.12804892731</v>
+        <v>-47915.90195653221</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-72361.14216182353</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>24445.24020529131</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-72920.14216182353</v>
       </c>
       <c r="AO14">
-        <v>138746.1280489273</v>
+        <v>138800.9019565322</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875962</v>
+        <v>0.6620463653875961</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.306200000000001</v>
+        <v>8.3004</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91973.99999999999</v>
+        <v>91974</v>
       </c>
       <c r="C15">
-        <v>48045.03345119287</v>
+        <v>48043.95064546124</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="F15">
-        <v>8777.650451928996</v>
+        <v>8783.798379403204</v>
       </c>
       <c r="G15">
-        <v>39267.38299926388</v>
+        <v>39260.15226605804</v>
       </c>
       <c r="H15">
-        <v>79402.82525009957</v>
+        <v>79458.4395415957</v>
       </c>
       <c r="I15">
-        <v>67673.1377991239</v>
+        <v>67720.53653588376</v>
       </c>
       <c r="J15">
-        <v>11729.68745097566</v>
+        <v>11737.90300571194</v>
       </c>
       <c r="K15">
-        <v>342.0231213872833</v>
+        <v>342.2626767621877</v>
       </c>
       <c r="L15">
-        <v>1545.966548807125</v>
+        <v>1547.049354538758</v>
       </c>
       <c r="M15">
-        <v>4927.222899344733</v>
+        <v>4930.673960559841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72587.61268056043</v>
+        <v>72638.45354973491</v>
       </c>
       <c r="P15">
-        <v>44101.28410585638</v>
+        <v>44132.17295221533</v>
       </c>
       <c r="Q15">
-        <v>32794.70971556832</v>
+        <v>32817.67935852383</v>
       </c>
       <c r="R15">
-        <v>11306.57426961276</v>
+        <v>11314.49347293169</v>
       </c>
       <c r="S15">
-        <v>28486.32857470405</v>
+        <v>28506.28059751959</v>
       </c>
       <c r="T15">
-        <v>26459.32470102695</v>
+        <v>26477.85699622021</v>
       </c>
       <c r="U15">
-        <v>1603.890812989489</v>
+        <v>1605.014189278943</v>
       </c>
       <c r="V15">
-        <v>423.1131813629069</v>
+        <v>423.4095327802533</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12571.17474990041</v>
+        <v>12515.5604584043</v>
       </c>
       <c r="AI15">
-        <v>-18082.1377991239</v>
+        <v>-18129.53653588376</v>
       </c>
       <c r="AJ15">
-        <v>30653.31254902434</v>
+        <v>30645.09699428806</v>
       </c>
       <c r="AK15">
-        <v>-47328.82525009959</v>
+        <v>-47384.4395415957</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-72453.53653588376</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>25069.09699428806</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-73012.53653588376</v>
       </c>
       <c r="AO15">
-        <v>139861.8252500996</v>
+        <v>139917.4395415957</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.2867</v>
+        <v>8.280900000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447</v>
+        <v>92447.00000000002</v>
       </c>
       <c r="C16">
-        <v>47651.06276810572</v>
+        <v>47649.97142173861</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="F16">
-        <v>8776.414104601561</v>
+        <v>8782.605763482005</v>
       </c>
       <c r="G16">
-        <v>38874.64866350417</v>
+        <v>38867.36565825661</v>
       </c>
       <c r="H16">
-        <v>79031.71719102869</v>
+        <v>79087.4731555662</v>
       </c>
       <c r="I16">
-        <v>67486.30058908578</v>
+        <v>67533.91139543227</v>
       </c>
       <c r="J16">
-        <v>11545.41660194291</v>
+        <v>11553.56176013392</v>
       </c>
       <c r="K16">
-        <v>342.3820334811027</v>
+        <v>342.6235800550042</v>
       </c>
       <c r="L16">
-        <v>1546.937231894275</v>
+        <v>1548.028578261389</v>
       </c>
       <c r="M16">
-        <v>4931.586946910586</v>
+        <v>4935.066124596437</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72210.81097874272</v>
+        <v>72261.75487265336</v>
       </c>
       <c r="P16">
-        <v>43959.06044999941</v>
+        <v>43990.07305990673</v>
       </c>
       <c r="Q16">
-        <v>32580.01995483278</v>
+        <v>32603.00478297262</v>
       </c>
       <c r="R16">
-        <v>11379.04049516663</v>
+        <v>11387.06827693412</v>
       </c>
       <c r="S16">
-        <v>28251.75052874332</v>
+        <v>28271.68181274662</v>
       </c>
       <c r="T16">
-        <v>26293.68793987262</v>
+        <v>26312.2378333134</v>
       </c>
       <c r="U16">
-        <v>1791.686482094421</v>
+        <v>1792.950496233409</v>
       </c>
       <c r="V16">
-        <v>166.3761067762789</v>
+        <v>166.4934831998087</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13415.28280897132</v>
+        <v>13359.52684443381</v>
       </c>
       <c r="AI16">
-        <v>-18288.30058908578</v>
+        <v>-18335.91139543227</v>
       </c>
       <c r="AJ16">
-        <v>31703.58339805709</v>
+        <v>31695.43823986608</v>
       </c>
       <c r="AK16">
-        <v>-46784.71719102869</v>
+        <v>-46840.47315556619</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-72859.91139543227</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>26019.43823986608</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-73418.91139543227</v>
       </c>
       <c r="AO16">
-        <v>139790.7171910287</v>
+        <v>139846.4731555662</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983212</v>
+        <v>0.6511839215983211</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.3689</v>
+        <v>8.363</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47172.41693250951</v>
+        <v>47171.33264502041</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="F17">
-        <v>8797.694104811262</v>
+        <v>8803.854077660686</v>
       </c>
       <c r="G17">
-        <v>38374.72282769825</v>
+        <v>38367.47856735972</v>
       </c>
       <c r="H17">
-        <v>80398.91310793025</v>
+        <v>80455.20684990031</v>
       </c>
       <c r="I17">
-        <v>68797.46712047723</v>
+        <v>68845.63775752396</v>
       </c>
       <c r="J17">
-        <v>11601.44598745301</v>
+        <v>11609.56909237634</v>
       </c>
       <c r="K17">
-        <v>421.765354648198</v>
+        <v>422.0606664767873</v>
       </c>
       <c r="L17">
-        <v>1548.583067490483</v>
+        <v>1549.667354979588</v>
       </c>
       <c r="M17">
-        <v>4871.000557380549</v>
+        <v>4874.411136428368</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73557.564128411</v>
+        <v>73609.06769201557</v>
       </c>
       <c r="P17">
-        <v>44082.1842202009</v>
+        <v>44113.0497009399</v>
       </c>
       <c r="Q17">
-        <v>32675.4694448727</v>
+        <v>32698.34816766354</v>
       </c>
       <c r="R17">
-        <v>11406.7147753282</v>
+        <v>11414.70153327637</v>
       </c>
       <c r="S17">
-        <v>29475.3799082101</v>
+        <v>29496.01799107567</v>
       </c>
       <c r="T17">
-        <v>27292.03349026956</v>
+        <v>27311.14283679863</v>
       </c>
       <c r="U17">
-        <v>1988.615205815733</v>
+        <v>1990.007595177063</v>
       </c>
       <c r="V17">
-        <v>194.7312121248058</v>
+        <v>194.8675590999715</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12205.08689206975</v>
+        <v>12148.79315009969</v>
       </c>
       <c r="AI17">
-        <v>-20076.46712047723</v>
+        <v>-20124.63775752396</v>
       </c>
       <c r="AJ17">
-        <v>32281.55401254699</v>
+        <v>32273.43090762366</v>
       </c>
       <c r="AK17">
-        <v>-47794.91310793025</v>
+        <v>-47851.20684990031</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-74279.63775752396</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>26428.43090762366</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-74838.63775752396</v>
       </c>
       <c r="AO17">
-        <v>140957.9131079303</v>
+        <v>141014.2068499003</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.4323</v>
+        <v>8.426399999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686.00000000002</v>
+        <v>93686</v>
       </c>
       <c r="C18">
-        <v>48090.49747770523</v>
+        <v>48089.41996727437</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="F18">
-        <v>8805.042270181257</v>
+        <v>8811.173132492369</v>
       </c>
       <c r="G18">
-        <v>39285.45520752398</v>
+        <v>39278.246834782</v>
       </c>
       <c r="H18">
-        <v>79148.15599958252</v>
+        <v>79203.26606398904</v>
       </c>
       <c r="I18">
-        <v>67338.67159142304</v>
+        <v>67385.55883069709</v>
       </c>
       <c r="J18">
-        <v>11809.4842921919</v>
+        <v>11817.70711724362</v>
       </c>
       <c r="K18">
-        <v>341.1056348644919</v>
+        <v>341.3431432848638</v>
       </c>
       <c r="L18">
-        <v>1547.502522294766</v>
+        <v>1548.580032725627</v>
       </c>
       <c r="M18">
-        <v>4872.071412832972</v>
+        <v>4875.463787120957</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72387.47642959029</v>
+        <v>72437.87910085759</v>
       </c>
       <c r="P18">
-        <v>44051.80225209031</v>
+        <v>44082.47507862274</v>
       </c>
       <c r="Q18">
-        <v>32662.54316892997</v>
+        <v>32685.28576899421</v>
       </c>
       <c r="R18">
-        <v>11389.25908316035</v>
+        <v>11397.18930962853</v>
       </c>
       <c r="S18">
-        <v>28335.67406153239</v>
+        <v>28355.40390618653</v>
       </c>
       <c r="T18">
-        <v>26407.08237176885</v>
+        <v>26425.46935744044</v>
       </c>
       <c r="U18">
-        <v>1508.366480731987</v>
+        <v>1509.416741131007</v>
       </c>
       <c r="V18">
-        <v>420.2252090315548</v>
+        <v>420.5178076150909</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14537.84400041749</v>
+        <v>14482.73393601096</v>
       </c>
       <c r="AI18">
-        <v>-17700.67159142304</v>
+        <v>-17747.55883069709</v>
       </c>
       <c r="AJ18">
-        <v>32238.5157078081</v>
+        <v>32230.29288275638</v>
       </c>
       <c r="AK18">
-        <v>-47562.15599958251</v>
+        <v>-47617.26606398904</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-73978.55883069709</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>26361.29288275638</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-74284.55883069709</v>
       </c>
       <c r="AO18">
-        <v>141554.1559995825</v>
+        <v>141609.266063989</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.662852507311658</v>
+        <v>0.6628525073116581</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.623100000000001</v>
+        <v>8.617100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50166.64000797065</v>
+        <v>50165.56985009501</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="F19">
-        <v>8796.559023829897</v>
+        <v>8802.646679334694</v>
       </c>
       <c r="G19">
-        <v>41370.08098414075</v>
+        <v>41362.92317076032</v>
       </c>
       <c r="H19">
-        <v>80094.74007478345</v>
+        <v>80150.16961081006</v>
       </c>
       <c r="I19">
-        <v>68521.18434470714</v>
+        <v>68568.60440565839</v>
       </c>
       <c r="J19">
-        <v>11573.55573007631</v>
+        <v>11581.56520515166</v>
       </c>
       <c r="K19">
-        <v>339.0075369521644</v>
+        <v>339.2421469960354</v>
       </c>
       <c r="L19">
-        <v>1546.359992029351</v>
+        <v>1547.43014990499</v>
       </c>
       <c r="M19">
-        <v>4869.913846658775</v>
+        <v>4873.284068782697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73339.45869914316</v>
+        <v>73390.21324512633</v>
       </c>
       <c r="P19">
-        <v>43642.71400607177</v>
+        <v>43672.9169305839</v>
       </c>
       <c r="Q19">
-        <v>32869.23798248802</v>
+        <v>32891.98512679757</v>
       </c>
       <c r="R19">
-        <v>10773.47602358375</v>
+        <v>10780.93180378633</v>
       </c>
       <c r="S19">
-        <v>29696.7446930714</v>
+        <v>29717.29631454243</v>
       </c>
       <c r="T19">
-        <v>27326.20890133977</v>
+        <v>27345.11999436977</v>
       </c>
       <c r="U19">
-        <v>1570.456085239061</v>
+        <v>1571.542918807329</v>
       </c>
       <c r="V19">
-        <v>800.0797064925628</v>
+        <v>800.6334013653319</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14771.25992521655</v>
+        <v>14715.83038918994</v>
       </c>
       <c r="AI19">
-        <v>-16808.18434470714</v>
+        <v>-16855.60440565839</v>
       </c>
       <c r="AJ19">
-        <v>31579.44426992369</v>
+        <v>31571.43479484833</v>
       </c>
       <c r="AK19">
-        <v>-48134.74007478345</v>
+        <v>-48190.16961081006</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-73800.60440565839</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>25610.43479484833</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-74106.60440565839</v>
       </c>
       <c r="AO19">
-        <v>143306.7400747835</v>
+        <v>143362.1696108101</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.5313</v>
+        <v>8.525399999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54490.16606565171</v>
+        <v>54489.08041122276</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="F20">
-        <v>8720.168825295967</v>
+        <v>8726.340999280592</v>
       </c>
       <c r="G20">
-        <v>45769.99724035574</v>
+        <v>45762.73941194217</v>
       </c>
       <c r="H20">
-        <v>79013.13996498268</v>
+        <v>79069.06581420713</v>
       </c>
       <c r="I20">
-        <v>68043.33290817805</v>
+        <v>68091.49427954792</v>
       </c>
       <c r="J20">
-        <v>10969.80694085317</v>
+        <v>10977.5714186257</v>
       </c>
       <c r="K20">
-        <v>333.8897069907123</v>
+        <v>334.126035599081</v>
       </c>
       <c r="L20">
-        <v>1533.833934348295</v>
+        <v>1534.919588777239</v>
       </c>
       <c r="M20">
-        <v>4845.551175167841</v>
+        <v>4848.980877677473</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72299.86514847583</v>
+        <v>72351.03931215334</v>
       </c>
       <c r="P20">
-        <v>42925.88279628492</v>
+        <v>42956.26592559931</v>
       </c>
       <c r="Q20">
-        <v>32583.17405470589</v>
+        <v>32606.23656912116</v>
       </c>
       <c r="R20">
-        <v>10342.70874157903</v>
+        <v>10350.02935647815</v>
       </c>
       <c r="S20">
-        <v>29373.98235219091</v>
+        <v>29394.77338655404</v>
       </c>
       <c r="T20">
-        <v>26683.95997356307</v>
+        <v>26702.84699821308</v>
       </c>
       <c r="U20">
-        <v>2062.924063402247</v>
+        <v>2064.384210159894</v>
       </c>
       <c r="V20">
-        <v>627.098199274144</v>
+        <v>627.5420621475481</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18308.86003501732</v>
+        <v>18252.93418579287</v>
       </c>
       <c r="AI20">
-        <v>-12019.33290817805</v>
+        <v>-12067.49427954792</v>
       </c>
       <c r="AJ20">
-        <v>30328.19305914683</v>
+        <v>30320.4285813743</v>
       </c>
       <c r="AK20">
-        <v>-48103.13996498268</v>
+        <v>-48159.06581420713</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-72554.49427954792</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>24395.4285813743</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-72860.49427954792</v>
       </c>
       <c r="AO20">
-        <v>145731.1399649827</v>
+        <v>145787.0658142071</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6243</v>
+        <v>8.6182</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57708.09730578684</v>
+        <v>57707.03511954976</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="F21">
-        <v>8701.518598501034</v>
+        <v>8707.552032172698</v>
       </c>
       <c r="G21">
-        <v>49006.57870728581</v>
+        <v>48999.48308737707</v>
       </c>
       <c r="H21">
-        <v>79386.71797951337</v>
+        <v>79441.7629112593</v>
       </c>
       <c r="I21">
-        <v>68167.41942189324</v>
+        <v>68214.6851490183</v>
       </c>
       <c r="J21">
-        <v>11219.29855762013</v>
+        <v>11227.077762241</v>
       </c>
       <c r="K21">
-        <v>331.7797050569908</v>
+        <v>332.0097535044434</v>
       </c>
       <c r="L21">
-        <v>1531.902694213158</v>
+        <v>1532.964880450233</v>
       </c>
       <c r="M21">
-        <v>4902.303534927766</v>
+        <v>4905.702679902465</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72620.73204531545</v>
+        <v>72671.08559740215</v>
       </c>
       <c r="P21">
-        <v>43104.92788100655</v>
+        <v>43134.81585060035</v>
       </c>
       <c r="Q21">
-        <v>32900.08776690957</v>
+        <v>32922.89993412918</v>
       </c>
       <c r="R21">
-        <v>10204.84011409698</v>
+        <v>10211.91591647118</v>
       </c>
       <c r="S21">
-        <v>29515.8041643089</v>
+        <v>29536.2697468018</v>
       </c>
       <c r="T21">
-        <v>26339.60504890696</v>
+        <v>26357.86832769002</v>
       </c>
       <c r="U21">
-        <v>2161.740671878789</v>
+        <v>2163.239573341962</v>
       </c>
       <c r="V21">
-        <v>1014.458443523149</v>
+        <v>1015.161845769822</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20771.28202048663</v>
+        <v>20716.2370887407</v>
       </c>
       <c r="AI21">
-        <v>-8927.419421893239</v>
+        <v>-8974.685149018304</v>
       </c>
       <c r="AJ21">
-        <v>29698.70144237987</v>
+        <v>29690.92223775901</v>
       </c>
       <c r="AK21">
-        <v>-45469.71797951337</v>
+        <v>-45524.7629112593</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-69599.6851490183</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>24074.92223775901</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-69905.6851490183</v>
       </c>
       <c r="AO21">
-        <v>145933.7179795134</v>
+        <v>145988.7629112593</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6593</v>
+        <v>8.6533</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58091.17490319011</v>
+        <v>58090.10075311105</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="F22">
-        <v>8376.097754932694</v>
+        <v>8381.990496730366</v>
       </c>
       <c r="G22">
-        <v>49715.07714825742</v>
+        <v>49708.11025638069</v>
       </c>
       <c r="H22">
-        <v>79926.24354600777</v>
+        <v>79982.47315672321</v>
       </c>
       <c r="I22">
-        <v>68980.32777060669</v>
+        <v>69028.85672437056</v>
       </c>
       <c r="J22">
-        <v>10945.91542965148</v>
+        <v>10953.61608635981</v>
       </c>
       <c r="K22">
-        <v>329.0391619030057</v>
+        <v>329.2706471219163</v>
       </c>
       <c r="L22">
-        <v>1526.825096809884</v>
+        <v>1527.899246888948</v>
       </c>
       <c r="M22">
-        <v>4894.842222939333</v>
+        <v>4898.285836206996</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73175.53706435554</v>
+        <v>73227.01742650535</v>
       </c>
       <c r="P22">
-        <v>42964.56389452333</v>
+        <v>42994.79027068172</v>
       </c>
       <c r="Q22">
-        <v>32795.26472893233</v>
+        <v>32818.33681248342</v>
       </c>
       <c r="R22">
-        <v>10169.29905034114</v>
+        <v>10176.45334286736</v>
       </c>
       <c r="S22">
-        <v>30210.97305458234</v>
+        <v>30232.22704049269</v>
       </c>
       <c r="T22">
-        <v>27689.69804536235</v>
+        <v>27709.17826703726</v>
       </c>
       <c r="U22">
-        <v>1744.658514659783</v>
+        <v>1745.885914632037</v>
       </c>
       <c r="V22">
-        <v>776.6163793103449</v>
+        <v>777.1627434924516</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20286.75645399223</v>
+        <v>20230.52684327679</v>
       </c>
       <c r="AI22">
-        <v>-9362.327770606687</v>
+        <v>-9410.856724370562</v>
       </c>
       <c r="AJ22">
-        <v>29649.08457034852</v>
+        <v>29641.38391364019</v>
       </c>
       <c r="AK22">
-        <v>-44957.24354600777</v>
+        <v>-45013.47315672321</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-69093.85672437056</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>24080.38391364019</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-69327.85672437056</v>
       </c>
       <c r="AO22">
-        <v>145404.2435460078</v>
+        <v>145460.4731567232</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6768</v>
+        <v>8.6707</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61055.66928753151</v>
+        <v>61054.61430529796</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="F23">
-        <v>8359.322757779133</v>
+        <v>8365.100625525591</v>
       </c>
       <c r="G23">
-        <v>52696.34652975238</v>
+        <v>52689.51367977237</v>
       </c>
       <c r="H23">
-        <v>80962.63771052298</v>
+        <v>81018.59815452668</v>
       </c>
       <c r="I23">
-        <v>69423.01426318394</v>
+        <v>69470.99865218242</v>
       </c>
       <c r="J23">
-        <v>11539.62333222052</v>
+        <v>11547.5993871462</v>
       </c>
       <c r="K23">
-        <v>324.7829440408901</v>
+        <v>325.0074302763602</v>
       </c>
       <c r="L23">
-        <v>1526.330712468486</v>
+        <v>1527.38569470204</v>
       </c>
       <c r="M23">
-        <v>4890.745852855514</v>
+        <v>4894.126280138698</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74220.77820115809</v>
+        <v>74272.0787494096</v>
       </c>
       <c r="P23">
-        <v>43707.386003891</v>
+        <v>43737.59604640178</v>
       </c>
       <c r="Q23">
-        <v>33016.58569997812</v>
+        <v>33039.40638427776</v>
       </c>
       <c r="R23">
-        <v>10690.80018879436</v>
+        <v>10698.18954692594</v>
       </c>
       <c r="S23">
-        <v>30513.39219726708</v>
+        <v>30534.48270300782</v>
       </c>
       <c r="T23">
-        <v>28078.38730473022</v>
+        <v>28097.79476309514</v>
       </c>
       <c r="U23">
-        <v>1586.181749110709</v>
+        <v>1587.278099692421</v>
       </c>
       <c r="V23">
-        <v>848.8231434261571</v>
+        <v>849.4098402202586</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23105.36228947702</v>
+        <v>23049.40184547332</v>
       </c>
       <c r="AI23">
-        <v>-6841.014263183941</v>
+        <v>-6888.998652182418</v>
       </c>
       <c r="AJ23">
-        <v>29946.37666777948</v>
+        <v>29938.4006128538</v>
       </c>
       <c r="AK23">
-        <v>-42200.63771052298</v>
+        <v>-42256.59815452668</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-66686.99865218242</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>24430.4006128538</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-66920.99865218242</v>
       </c>
       <c r="AO23">
-        <v>146502.637710523</v>
+        <v>146558.5981545267</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6867</v>
+        <v>8.6807</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61353.62733532274</v>
+        <v>61352.56390086332</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="F24">
-        <v>8388.600025544862</v>
+        <v>8394.448253023948</v>
       </c>
       <c r="G24">
-        <v>52965.02730977788</v>
+        <v>52958.11564783938</v>
       </c>
       <c r="H24">
-        <v>80896.41884281785</v>
+        <v>80952.81688995272</v>
       </c>
       <c r="I24">
-        <v>69115.13196242585</v>
+        <v>69163.31652394177</v>
       </c>
       <c r="J24">
-        <v>11781.286880392</v>
+        <v>11789.50036601095</v>
       </c>
       <c r="K24">
-        <v>322.5180265434321</v>
+        <v>322.7428744059585</v>
       </c>
       <c r="L24">
-        <v>1525.372664677264</v>
+        <v>1526.436099136679</v>
       </c>
       <c r="M24">
-        <v>4881.921089604403</v>
+        <v>4885.32458780196</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74166.60706199273</v>
+        <v>74218.31332860811</v>
       </c>
       <c r="P24">
-        <v>43790.83229799241</v>
+        <v>43821.3616769111</v>
       </c>
       <c r="Q24">
-        <v>32971.58308465799</v>
+        <v>32994.56967570269</v>
       </c>
       <c r="R24">
-        <v>10819.24932944742</v>
+        <v>10826.79211740237</v>
       </c>
       <c r="S24">
-        <v>30375.77464788733</v>
+        <v>30396.95153550306</v>
       </c>
       <c r="T24">
-        <v>27855.43733961892</v>
+        <v>27874.85713953732</v>
       </c>
       <c r="U24">
-        <v>1558.299757323828</v>
+        <v>1559.386147357169</v>
       </c>
       <c r="V24">
-        <v>962.0375509445794</v>
+        <v>962.7082486085775</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23989.58115718215</v>
+        <v>23933.18311004728</v>
       </c>
       <c r="AI24">
-        <v>-6236.131962425847</v>
+        <v>-6284.316523941772</v>
       </c>
       <c r="AJ24">
-        <v>30225.713119608</v>
+        <v>30217.49963398905</v>
       </c>
       <c r="AK24">
-        <v>-41564.41884281785</v>
+        <v>-41620.81688995272</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-66313.31652394177</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>24692.49963398905</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-66547.31652394177</v>
       </c>
       <c r="AO24">
-        <v>146684.4188428178</v>
+        <v>146740.8168899527</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.612299999999999</v>
+        <v>8.606299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61134.82190154996</v>
+        <v>61133.74509342772</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="F25">
-        <v>8386.232858200448</v>
+        <v>8392.149837133551</v>
       </c>
       <c r="G25">
-        <v>52748.58904334951</v>
+        <v>52741.59525629417</v>
       </c>
       <c r="H25">
-        <v>80789.41221400957</v>
+        <v>80846.41388069005</v>
       </c>
       <c r="I25">
-        <v>69072.43363611795</v>
+        <v>69121.16828749164</v>
       </c>
       <c r="J25">
-        <v>11716.97857789163</v>
+        <v>11725.24559319842</v>
       </c>
       <c r="K25">
-        <v>322.8921608949577</v>
+        <v>323.1199802443585</v>
       </c>
       <c r="L25">
-        <v>1526.178098450041</v>
+        <v>1527.254906572279</v>
       </c>
       <c r="M25">
-        <v>4883.624836954606</v>
+        <v>4887.070520584673</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74056.71711770997</v>
+        <v>74108.96847328873</v>
       </c>
       <c r="P25">
-        <v>43752.91789562745</v>
+        <v>43783.78814426322</v>
       </c>
       <c r="Q25">
-        <v>32992.72564895005</v>
+        <v>33016.00395112831</v>
       </c>
       <c r="R25">
-        <v>10760.1922466774</v>
+        <v>10767.78419313492</v>
       </c>
       <c r="S25">
-        <v>30303.79910457233</v>
+        <v>30325.1802114324</v>
       </c>
       <c r="T25">
-        <v>27845.76387501616</v>
+        <v>27865.41069391691</v>
       </c>
       <c r="U25">
-        <v>1501.249015852125</v>
+        <v>1502.308235045097</v>
       </c>
       <c r="V25">
-        <v>956.7863312142329</v>
+        <v>957.4614000635003</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23649.58778599043</v>
+        <v>23592.58611930996</v>
       </c>
       <c r="AI25">
-        <v>-6411.433636117945</v>
+        <v>-6460.168287491644</v>
       </c>
       <c r="AJ25">
-        <v>30061.02142210837</v>
+        <v>30052.75440680159</v>
       </c>
       <c r="AK25">
-        <v>-41750.41221400957</v>
+        <v>-41807.41388069005</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-66335.16828749164</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>24527.75440680159</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-66569.16828749164</v>
       </c>
       <c r="AO25">
-        <v>146423.4122140096</v>
+        <v>146480.4138806901</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5099</v>
+        <v>8.5039</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62597.62800823772</v>
+        <v>62596.56469923219</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="F26">
-        <v>8429.860076493087</v>
+        <v>8435.71717933016</v>
       </c>
       <c r="G26">
-        <v>54167.76793174463</v>
+        <v>54160.84751990203</v>
       </c>
       <c r="H26">
-        <v>81248.54380700206</v>
+        <v>81304.99564275284</v>
       </c>
       <c r="I26">
-        <v>69741.54068843779</v>
+        <v>69789.99740920439</v>
       </c>
       <c r="J26">
-        <v>11507.00300088261</v>
+        <v>11514.99811578501</v>
       </c>
       <c r="K26">
-        <v>322.2072374227714</v>
+        <v>322.4311083894672</v>
       </c>
       <c r="L26">
-        <v>1530.371991762283</v>
+        <v>1531.435300767818</v>
       </c>
       <c r="M26">
-        <v>4813.754516034128</v>
+        <v>4817.099133261105</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74582.21006178288</v>
+        <v>74634.03010033445</v>
       </c>
       <c r="P26">
-        <v>44053.77228596646</v>
+        <v>44084.38103537614</v>
       </c>
       <c r="Q26">
-        <v>33348.15063253899</v>
+        <v>33371.32107023411</v>
       </c>
       <c r="R26">
-        <v>10705.62165342748</v>
+        <v>10713.05996514202</v>
       </c>
       <c r="S26">
-        <v>30528.43765813475</v>
+        <v>30549.64894719487</v>
       </c>
       <c r="T26">
-        <v>27826.40600176523</v>
+        <v>27845.73990767347</v>
       </c>
       <c r="U26">
-        <v>1900.650308914387</v>
+        <v>1901.970888878421</v>
       </c>
       <c r="V26">
-        <v>801.3813474551339</v>
+        <v>801.9381506429884</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24471.45619299794</v>
+        <v>24415.00435724716</v>
       </c>
       <c r="AI26">
-        <v>-5613.540688437788</v>
+        <v>-5661.997409204385</v>
       </c>
       <c r="AJ26">
-        <v>30084.99699911739</v>
+        <v>30077.00188421499</v>
       </c>
       <c r="AK26">
-        <v>-41525.54380700206</v>
+        <v>-41581.99564275284</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-66121.99740920439</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>24540.00188421499</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-66355.99740920439</v>
       </c>
       <c r="AO26">
-        <v>147479.5438070021</v>
+        <v>147535.9956427529</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.497500000000001</v>
+        <v>8.4916</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66205.7082873965</v>
+        <v>66204.631346682</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="F27">
-        <v>8332.08228753724</v>
+        <v>8337.949813384661</v>
       </c>
       <c r="G27">
-        <v>57873.62599985926</v>
+        <v>57866.68153329734</v>
       </c>
       <c r="H27">
-        <v>83971.70838122495</v>
+        <v>84030.8419990141</v>
       </c>
       <c r="I27">
-        <v>72572.13975745351</v>
+        <v>72623.24569845777</v>
       </c>
       <c r="J27">
-        <v>11399.56862377143</v>
+        <v>11407.59630055632</v>
       </c>
       <c r="K27">
-        <v>317.625085032019</v>
+        <v>317.848759418793</v>
       </c>
       <c r="L27">
-        <v>1529.291712603505</v>
+        <v>1530.368653317997</v>
       </c>
       <c r="M27">
-        <v>4810.815720954236</v>
+        <v>4814.203539823008</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77313.97586263518</v>
+        <v>77368.4210464543</v>
       </c>
       <c r="P27">
-        <v>47195.79085641904</v>
+        <v>47229.02654867256</v>
       </c>
       <c r="Q27">
-        <v>36328.71935915179</v>
+        <v>36354.30236379428</v>
       </c>
       <c r="R27">
-        <v>10867.0713799817</v>
+        <v>10874.72406751015</v>
       </c>
       <c r="S27">
-        <v>30118.18512350168</v>
+        <v>30139.39461514988</v>
       </c>
       <c r="T27">
-        <v>28044.51783913115</v>
+        <v>28064.26703598507</v>
       </c>
       <c r="U27">
-        <v>1541.170040580798</v>
+        <v>1542.255346118636</v>
       </c>
       <c r="V27">
-        <v>532.4972437897305</v>
+        <v>532.8722330461726</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4090,7 +4090,7 @@
         <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
@@ -4102,7 +4102,7 @@
         <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
         <v>20791</v>
@@ -4114,31 +4114,31 @@
         <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5524.999999999999</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
-        <v>25037.29161877505</v>
+        <v>24978.1580009859</v>
       </c>
       <c r="AI27">
-        <v>-4837.139757453508</v>
+        <v>-4888.245698457773</v>
       </c>
       <c r="AJ27">
-        <v>29874.43137622857</v>
+        <v>29866.40369944368</v>
       </c>
       <c r="AK27">
-        <v>-41359.70838122495</v>
+        <v>-41418.8419990141</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-65760.24569845777</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>24341.40369944368</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-65912.24569845777</v>
       </c>
       <c r="AO27">
-        <v>150520.708381225</v>
+        <v>150579.8419990141</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.526199999999999</v>
+        <v>8.520200000000001</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65832.79537580346</v>
+        <v>65831.7284942157</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="F28">
-        <v>8250.839797953873</v>
+        <v>8256.618843608092</v>
       </c>
       <c r="G28">
-        <v>57581.95557784959</v>
+        <v>57575.10965060761</v>
       </c>
       <c r="H28">
-        <v>83124.91408373482</v>
+        <v>83183.13635992202</v>
       </c>
       <c r="I28">
-        <v>72232.46608261493</v>
+        <v>72283.05908034975</v>
       </c>
       <c r="J28">
-        <v>10892.44811777469</v>
+        <v>10900.07739630879</v>
       </c>
       <c r="K28">
-        <v>312.6621793450999</v>
+        <v>312.8811739023849</v>
       </c>
       <c r="L28">
-        <v>1523.20462419654</v>
+        <v>1524.271505784295</v>
       </c>
       <c r="M28">
-        <v>4881.622901671663</v>
+        <v>4885.042083513303</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76407.42437852151</v>
+        <v>76460.94159672204</v>
       </c>
       <c r="P28">
-        <v>46716.52310348448</v>
+        <v>46749.24424780827</v>
       </c>
       <c r="Q28">
-        <v>36183.64767915262</v>
+        <v>36208.99139651892</v>
       </c>
       <c r="R28">
-        <v>10532.87542433186</v>
+        <v>10540.25285128936</v>
       </c>
       <c r="S28">
-        <v>29690.90139169184</v>
+        <v>29711.69746565028</v>
       </c>
       <c r="T28">
-        <v>27768.06644657793</v>
+        <v>27787.51573024526</v>
       </c>
       <c r="U28">
-        <v>1563.26225167108</v>
+        <v>1564.357190385581</v>
       </c>
       <c r="V28">
-        <v>359.5726934428333</v>
+        <v>359.8245450194366</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23973.08591626518</v>
+        <v>23914.86364007798</v>
       </c>
       <c r="AI28">
-        <v>-4876.466082614934</v>
+        <v>-4927.059080349747</v>
       </c>
       <c r="AJ28">
-        <v>28849.55188222531</v>
+        <v>28841.92260369121</v>
       </c>
       <c r="AK28">
-        <v>-41484.91408373482</v>
+        <v>-41543.13635992202</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-64957.05908034975</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>23413.92260369121</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-65109.05908034975</v>
       </c>
       <c r="AO28">
-        <v>148734.9140837348</v>
+        <v>148793.136359922</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5723</v>
+        <v>8.5663</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66649.11678866422</v>
+        <v>66648.04457325605</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="F29">
-        <v>8214.081376085347</v>
+        <v>8219.876074355387</v>
       </c>
       <c r="G29">
-        <v>58435.03541257887</v>
+        <v>58428.16849890066</v>
       </c>
       <c r="H29">
-        <v>82921.61306999096</v>
+        <v>82980.11087465168</v>
       </c>
       <c r="I29">
-        <v>71752.69459881801</v>
+        <v>71803.31318855746</v>
       </c>
       <c r="J29">
-        <v>11168.91847117294</v>
+        <v>11176.79768609423</v>
       </c>
       <c r="K29">
-        <v>306.9637297176628</v>
+        <v>307.1802800672538</v>
       </c>
       <c r="L29">
-        <v>1519.883211335785</v>
+        <v>1520.955426743954</v>
       </c>
       <c r="M29">
-        <v>4875.514328347687</v>
+        <v>4878.953804188075</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76219.25180058982</v>
+        <v>76273.0213636524</v>
       </c>
       <c r="P29">
-        <v>47225.23763085852</v>
+        <v>47258.55310343206</v>
       </c>
       <c r="Q29">
-        <v>36401.78989789804</v>
+        <v>36427.46987101856</v>
       </c>
       <c r="R29">
-        <v>10823.44773296049</v>
+        <v>10831.08323241349</v>
       </c>
       <c r="S29">
-        <v>28994.01428722492</v>
+        <v>29014.46837779685</v>
       </c>
       <c r="T29">
-        <v>26852.2511778736</v>
+        <v>26871.1943422182</v>
       </c>
       <c r="U29">
-        <v>1796.29225364524</v>
+        <v>1797.559464321407</v>
       </c>
       <c r="V29">
-        <v>345.470738212452</v>
+        <v>345.7144536807327</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4370,16 +4370,16 @@
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45848.99999999999</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40635.99999999999</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
         <v>5213</v>
       </c>
       <c r="AD29">
-        <v>20564.00000000001</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25633.38693000905</v>
+        <v>25574.88912534832</v>
       </c>
       <c r="AI29">
-        <v>-3583.694598818009</v>
+        <v>-3634.313188557455</v>
       </c>
       <c r="AJ29">
-        <v>29217.08152882706</v>
+        <v>29209.20231390578</v>
       </c>
       <c r="AK29">
-        <v>-40779.61306999096</v>
+        <v>-40838.11087465168</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-64834.31318855746</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>23996.20231390578</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-64986.31318855746</v>
       </c>
       <c r="AO29">
-        <v>149486.6130699909</v>
+        <v>149545.1108746517</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4421,10 +4421,10 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195908</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.511100000000001</v>
+        <v>8.505100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70083.58142094809</v>
+        <v>70078.11446360154</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="F30">
-        <v>8240.958625475605</v>
+        <v>8246.681513409962</v>
       </c>
       <c r="G30">
-        <v>61842.62279547248</v>
+        <v>61831.43295019158</v>
       </c>
       <c r="H30">
-        <v>91958.20395319343</v>
+        <v>92022.06381704981</v>
       </c>
       <c r="I30">
-        <v>80851.00564741917</v>
+        <v>80907.15217911877</v>
       </c>
       <c r="J30">
-        <v>11107.19830577425</v>
+        <v>11114.91163793103</v>
       </c>
       <c r="K30">
-        <v>306.5671588216995</v>
+        <v>306.7800526819923</v>
       </c>
       <c r="L30">
-        <v>7872.418579051904</v>
+        <v>7877.885536398468</v>
       </c>
       <c r="M30">
-        <v>4884.697408408912</v>
+        <v>4888.089559386974</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78894.52080691092</v>
+        <v>78949.30866858238</v>
       </c>
       <c r="P30">
-        <v>47310.04474861806</v>
+        <v>47342.89894636015</v>
       </c>
       <c r="Q30">
-        <v>36513.2289597741</v>
+        <v>36538.58536877394</v>
       </c>
       <c r="R30">
-        <v>10796.81578884396</v>
+        <v>10804.31357758621</v>
       </c>
       <c r="S30">
-        <v>31584.47605829285</v>
+        <v>31606.40972222222</v>
       </c>
       <c r="T30">
-        <v>29377.73792146259</v>
+        <v>29398.13912835249</v>
       </c>
       <c r="U30">
-        <v>1896.355619899974</v>
+        <v>1897.672533524904</v>
       </c>
       <c r="V30">
-        <v>310.3825169302927</v>
+        <v>310.5980603448276</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26305.79604680657</v>
+        <v>26241.93618295019</v>
       </c>
       <c r="AI30">
-        <v>-2895.005647419166</v>
+        <v>-2951.15217911877</v>
       </c>
       <c r="AJ30">
-        <v>29200.80169422575</v>
+        <v>29193.08836206896</v>
       </c>
       <c r="AK30">
-        <v>-40522.20395319343</v>
+        <v>-40586.06381704981</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-64534.15217911877</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>23948.08836206896</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-64686.15217911877</v>
       </c>
       <c r="AO30">
-        <v>158938.2039531934</v>
+        <v>159002.0638170498</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.357799999999999</v>
+        <v>8.352</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70150.01534495903</v>
+        <v>70144.56495834141</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="F31">
-        <v>8273.167136616123</v>
+        <v>8278.877882193374</v>
       </c>
       <c r="G31">
-        <v>61876.8482083429</v>
+        <v>61865.68707614803</v>
       </c>
       <c r="H31">
-        <v>91488.3732891218</v>
+        <v>91551.5252615772</v>
       </c>
       <c r="I31">
-        <v>80009.07107330005</v>
+        <v>80064.29919104825</v>
       </c>
       <c r="J31">
-        <v>11479.30221582177</v>
+        <v>11487.22607052897</v>
       </c>
       <c r="K31">
-        <v>306.3042610095241</v>
+        <v>306.5156946328231</v>
       </c>
       <c r="L31">
-        <v>7895.984655040965</v>
+        <v>7901.435041658593</v>
       </c>
       <c r="M31">
-        <v>4896.131448694832</v>
+        <v>4899.511117031583</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78389.95292437647</v>
+        <v>78444.06340825421</v>
       </c>
       <c r="P31">
-        <v>47936.61648493943</v>
+        <v>47969.70584673512</v>
       </c>
       <c r="Q31">
-        <v>36807.99160141833</v>
+        <v>36833.39917167216</v>
       </c>
       <c r="R31">
-        <v>11128.62488352111</v>
+        <v>11136.30667506297</v>
       </c>
       <c r="S31">
-        <v>30453.33643943703</v>
+        <v>30474.35756151909</v>
       </c>
       <c r="T31">
-        <v>27990.14364721116</v>
+        <v>28009.46449331525</v>
       </c>
       <c r="U31">
-        <v>2112.515459925212</v>
+        <v>2113.973672737841</v>
       </c>
       <c r="V31">
-        <v>350.6773323006547</v>
+        <v>350.919395465995</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27708.62671087821</v>
+        <v>27645.4747384228</v>
       </c>
       <c r="AI31">
-        <v>-1963.071073300045</v>
+        <v>-2018.299191048252</v>
       </c>
       <c r="AJ31">
-        <v>29671.69778417824</v>
+        <v>29663.77392947103</v>
       </c>
       <c r="AK31">
-        <v>-39701.3732891218</v>
+        <v>-39764.5252615772</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-64231.29919104825</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>24466.77392947103</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-64274.29919104825</v>
       </c>
       <c r="AO31">
-        <v>158941.3732891218</v>
+        <v>159004.5252615772</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.263299999999999</v>
+        <v>8.2576</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71767.55106018546</v>
+        <v>71762.04591233628</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="F32">
-        <v>8266.489516271928</v>
+        <v>8272.254834743959</v>
       </c>
       <c r="G32">
-        <v>63501.06154391354</v>
+        <v>63489.79107759232</v>
       </c>
       <c r="H32">
-        <v>91423.20300041344</v>
+        <v>91486.96451368858</v>
       </c>
       <c r="I32">
-        <v>79954.25279073889</v>
+        <v>80010.01548536573</v>
       </c>
       <c r="J32">
-        <v>11468.95032780108</v>
+        <v>11476.94914653175</v>
       </c>
       <c r="K32">
-        <v>304.1522650758963</v>
+        <v>304.3643907513358</v>
       </c>
       <c r="L32">
-        <v>7893.448939814542</v>
+        <v>7898.954087663719</v>
       </c>
       <c r="M32">
-        <v>4893.84289173705</v>
+        <v>4897.256016832947</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78331.75890378596</v>
+        <v>78386.39001844058</v>
       </c>
       <c r="P32">
-        <v>47787.15728545272</v>
+        <v>47820.48560215613</v>
       </c>
       <c r="Q32">
-        <v>36779.92546216999</v>
+        <v>36805.57697763488</v>
       </c>
       <c r="R32">
-        <v>11007.23182328274</v>
+        <v>11014.90862452125</v>
       </c>
       <c r="S32">
-        <v>30544.60173645975</v>
+        <v>30565.90453449336</v>
       </c>
       <c r="T32">
-        <v>27820.2923631209</v>
+        <v>27839.69513925008</v>
       </c>
       <c r="U32">
-        <v>2262.590868820507</v>
+        <v>2264.168873232777</v>
       </c>
       <c r="V32">
-        <v>461.7185045183392</v>
+        <v>462.0405220104969</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28717.79699958656</v>
+        <v>28654.03548631142</v>
       </c>
       <c r="AI32">
-        <v>-293.2527907388867</v>
+        <v>-349.0154853657296</v>
       </c>
       <c r="AJ32">
-        <v>29011.04967219893</v>
+        <v>29003.05085346825</v>
       </c>
       <c r="AK32">
-        <v>-39328.20300041344</v>
+        <v>-39391.96451368858</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-63304.01548536573</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>23912.05085346825</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-63347.01548536573</v>
       </c>
       <c r="AO32">
-        <v>159512.2030004134</v>
+        <v>159575.9645136886</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.465500000000001</v>
+        <v>8.4596</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73531.80147389873</v>
+        <v>73526.28418481676</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="F33">
-        <v>8256.226155778299</v>
+        <v>8262.001588750696</v>
       </c>
       <c r="G33">
-        <v>65275.57531812043</v>
+        <v>65264.28259606606</v>
       </c>
       <c r="H33">
-        <v>92542.83310822018</v>
+        <v>92607.56909287076</v>
       </c>
       <c r="I33">
-        <v>81234.71706831591</v>
+        <v>81291.54274806444</v>
       </c>
       <c r="J33">
-        <v>11308.11603990427</v>
+        <v>11316.02634480633</v>
       </c>
       <c r="K33">
-        <v>301.214544679036</v>
+        <v>301.4252516509965</v>
       </c>
       <c r="L33">
-        <v>7887.198526101277</v>
+        <v>7892.715815183239</v>
       </c>
       <c r="M33">
-        <v>4886.212767469965</v>
+        <v>4889.630793308276</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79468.20726996991</v>
+        <v>79523.79723272825</v>
       </c>
       <c r="P33">
-        <v>48254.87796497713</v>
+        <v>48288.63343727398</v>
       </c>
       <c r="Q33">
-        <v>37261.19025615507</v>
+        <v>37287.25537388994</v>
       </c>
       <c r="R33">
-        <v>10993.68770882206</v>
+        <v>11001.37806338404</v>
       </c>
       <c r="S33">
-        <v>31213.32930499277</v>
+        <v>31235.16379545427</v>
       </c>
       <c r="T33">
-        <v>28793.86696997701</v>
+        <v>28814.00898711215</v>
       </c>
       <c r="U33">
-        <v>2105.034003933556</v>
+        <v>2106.506526919839</v>
       </c>
       <c r="V33">
-        <v>314.4283310822018</v>
+        <v>314.6482814222875</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28243.16689177982</v>
+        <v>28178.43090712924</v>
       </c>
       <c r="AI33">
-        <v>184.2829316840944</v>
+        <v>127.457251935557</v>
       </c>
       <c r="AJ33">
-        <v>28058.88396009574</v>
+        <v>28050.97365519367</v>
       </c>
       <c r="AK33">
-        <v>-40309.83310822018</v>
+        <v>-40374.56909287076</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-63008.54274806444</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>22633.97365519367</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-63051.54274806444</v>
       </c>
       <c r="AO33">
-        <v>161138.8331082202</v>
+        <v>161203.5690928708</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.440200000000001</v>
+        <v>8.4343</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74976.2595398688</v>
+        <v>74970.80712865795</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="F34">
-        <v>8230.643883396471</v>
+        <v>8236.351416947899</v>
       </c>
       <c r="G34">
-        <v>66745.61565647234</v>
+        <v>66734.45571171005</v>
       </c>
       <c r="H34">
-        <v>91757.81322184237</v>
+        <v>91821.44260551986</v>
       </c>
       <c r="I34">
-        <v>80566.70343250486</v>
+        <v>80622.57234986824</v>
       </c>
       <c r="J34">
-        <v>11191.10967384274</v>
+        <v>11198.87014007674</v>
       </c>
       <c r="K34">
-        <v>297.85214358311</v>
+        <v>298.0586889186815</v>
       </c>
       <c r="L34">
-        <v>7862.740460131203</v>
+        <v>7868.192871342056</v>
       </c>
       <c r="M34">
-        <v>4879.489975053128</v>
+        <v>4882.873653552771</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78717.73064307493</v>
+        <v>78772.31739170635</v>
       </c>
       <c r="P34">
-        <v>48108.0354337984</v>
+        <v>48141.39591327262</v>
       </c>
       <c r="Q34">
-        <v>37178.5282500231</v>
+        <v>37204.30967130508</v>
       </c>
       <c r="R34">
-        <v>10929.50718377529</v>
+        <v>10937.08624196755</v>
       </c>
       <c r="S34">
-        <v>30609.69520927654</v>
+        <v>30630.92147843373</v>
       </c>
       <c r="T34">
-        <v>28317.658805322</v>
+        <v>28337.2956636309</v>
       </c>
       <c r="U34">
-        <v>2030.433798392313</v>
+        <v>2031.841801118765</v>
       </c>
       <c r="V34">
-        <v>261.602490067449</v>
+        <v>261.7838981091952</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30285.18677815763</v>
+        <v>30221.55739448014</v>
       </c>
       <c r="AI34">
-        <v>2272.296567495141</v>
+        <v>2216.427650131765</v>
       </c>
       <c r="AJ34">
-        <v>28012.89032615726</v>
+        <v>28005.12985992326</v>
       </c>
       <c r="AK34">
-        <v>-37493.81322184237</v>
+        <v>-37557.44260551986</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-60169.57234986824</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>22612.12985992326</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-60212.57234986824</v>
       </c>
       <c r="AO34">
-        <v>159579.8132218424</v>
+        <v>159643.4426055198</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6584</v>
+        <v>8.6524</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75390.01317790167</v>
+        <v>75384.55273153522</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="F35">
-        <v>8185.418482851833</v>
+        <v>8191.138487201741</v>
       </c>
       <c r="G35">
-        <v>67204.59469504983</v>
+        <v>67193.41424433349</v>
       </c>
       <c r="H35">
-        <v>92577.27307540689</v>
+        <v>92641.96645740114</v>
       </c>
       <c r="I35">
-        <v>81179.31812806218</v>
+        <v>81236.04657191483</v>
       </c>
       <c r="J35">
-        <v>11397.95505997635</v>
+        <v>11405.91999819664</v>
       </c>
       <c r="K35">
-        <v>292.406037055809</v>
+        <v>292.6103716060097</v>
       </c>
       <c r="L35">
-        <v>7813.986822098327</v>
+        <v>7819.447268464773</v>
       </c>
       <c r="M35">
-        <v>4866.59784873571</v>
+        <v>4869.998647475853</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79604.28236751704</v>
+        <v>79659.9101698545</v>
       </c>
       <c r="P35">
-        <v>51463.73317564904</v>
+        <v>51499.69624561839</v>
       </c>
       <c r="Q35">
-        <v>40321.45756603029</v>
+        <v>40349.63436763861</v>
       </c>
       <c r="R35">
-        <v>11142.27572225038</v>
+        <v>11150.06199069013</v>
       </c>
       <c r="S35">
-        <v>28140.549191868</v>
+        <v>28160.21392423611</v>
       </c>
       <c r="T35">
-        <v>26252.57487188151</v>
+        <v>26270.9202799725</v>
       </c>
       <c r="U35">
-        <v>1632.294982260517</v>
+        <v>1633.435636757098</v>
       </c>
       <c r="V35">
-        <v>255.6793377259672</v>
+        <v>255.858007506509</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29143.72692459311</v>
+        <v>29079.03354259886</v>
       </c>
       <c r="AI35">
-        <v>2024.681871937821</v>
+        <v>1967.953428085166</v>
       </c>
       <c r="AJ35">
-        <v>27119.04494002365</v>
+        <v>27111.08000180336</v>
       </c>
       <c r="AK35">
-        <v>-37472.27307540689</v>
+        <v>-37536.96645740114</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-59573.04657191483</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>22036.08000180336</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-59590.04657191483</v>
       </c>
       <c r="AO35">
-        <v>159210.2730754069</v>
+        <v>159274.9664574011</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.878500000000001</v>
+        <v>8.872299999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77534.92732115249</v>
+        <v>77529.45176008222</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="F36">
-        <v>8199.385276890607</v>
+        <v>8205.126430031511</v>
       </c>
       <c r="G36">
-        <v>69335.54204426188</v>
+        <v>69324.32533005071</v>
       </c>
       <c r="H36">
-        <v>93998.08371610107</v>
+        <v>94063.90052740354</v>
       </c>
       <c r="I36">
-        <v>82280.86921193104</v>
+        <v>82338.48171027818</v>
       </c>
       <c r="J36">
-        <v>11717.21439131465</v>
+        <v>11725.418704191</v>
       </c>
       <c r="K36">
-        <v>290.0222325045988</v>
+        <v>290.2253040758016</v>
       </c>
       <c r="L36">
-        <v>7820.07267884752</v>
+        <v>7825.548239917785</v>
       </c>
       <c r="M36">
-        <v>4863.149567199719</v>
+        <v>4866.554711057405</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81024.83923754923</v>
+        <v>81081.57227235254</v>
       </c>
       <c r="P36">
-        <v>51596.9286415601</v>
+        <v>51633.05645589349</v>
       </c>
       <c r="Q36">
-        <v>40276.98935774017</v>
+        <v>40305.19102849335</v>
       </c>
       <c r="R36">
-        <v>11319.93928381993</v>
+        <v>11327.86542740014</v>
       </c>
       <c r="S36">
-        <v>29427.91048313376</v>
+        <v>29448.51570352469</v>
       </c>
       <c r="T36">
-        <v>26789.53165028383</v>
+        <v>26808.28949597389</v>
       </c>
       <c r="U36">
-        <v>2241.103725355212</v>
+        <v>2242.672930759936</v>
       </c>
       <c r="V36">
-        <v>397.275107494724</v>
+        <v>397.5532767908569</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29463.91628389893</v>
+        <v>29398.09947259646</v>
       </c>
       <c r="AI36">
-        <v>3074.130788068957</v>
+        <v>3016.518289721818</v>
       </c>
       <c r="AJ36">
-        <v>26389.78560868535</v>
+        <v>26381.581295809</v>
       </c>
       <c r="AK36">
-        <v>-37513.08371610107</v>
+        <v>-37578.90052740354</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-58880.48171027818</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>21301.581295809</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-58897.48171027818</v>
       </c>
       <c r="AO36">
-        <v>160992.0837161011</v>
+        <v>161057.9005274035</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.860900000000001</v>
+        <v>8.854699999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78129.22529972871</v>
+        <v>78123.74266573256</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="F37">
-        <v>8164.211188413407</v>
+        <v>8169.930926525966</v>
       </c>
       <c r="G37">
-        <v>69965.01411131531</v>
+        <v>69953.81173920659</v>
       </c>
       <c r="H37">
-        <v>93756.88807210991</v>
+        <v>93822.57290480779</v>
       </c>
       <c r="I37">
-        <v>81955.57747002711</v>
+        <v>82012.99446098608</v>
       </c>
       <c r="J37">
-        <v>11801.31060208279</v>
+        <v>11809.5784438217</v>
       </c>
       <c r="K37">
-        <v>288.9190076135469</v>
+        <v>289.1214204396182</v>
       </c>
       <c r="L37">
-        <v>7825.774700271287</v>
+        <v>7831.25733426745</v>
       </c>
       <c r="M37">
-        <v>4868.356086461889</v>
+        <v>4871.766792188459</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80773.83827776319</v>
+        <v>80830.42735791227</v>
       </c>
       <c r="P37">
-        <v>51340.25334733526</v>
+        <v>51376.22164813032</v>
       </c>
       <c r="Q37">
-        <v>39872.2970814737</v>
+        <v>39900.23108415799</v>
       </c>
       <c r="R37">
-        <v>11467.95626586156</v>
+        <v>11475.99056397233</v>
       </c>
       <c r="S37">
-        <v>29433.58493042793</v>
+        <v>29454.20570978195</v>
       </c>
       <c r="T37">
-        <v>26897.0337796447</v>
+        <v>26915.8774848936</v>
       </c>
       <c r="U37">
-        <v>2203.196814562002</v>
+        <v>2204.74034503897</v>
       </c>
       <c r="V37">
-        <v>333.3543362212304</v>
+        <v>333.5878798493739</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31970.11192789009</v>
+        <v>31904.42709519221</v>
       </c>
       <c r="AI37">
-        <v>3999.422529972886</v>
+        <v>3942.005539013917</v>
       </c>
       <c r="AJ37">
-        <v>27970.68939791721</v>
+        <v>27962.4215561783</v>
       </c>
       <c r="AK37">
-        <v>-36079.88807210991</v>
+        <v>-36145.57290480779</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-58876.99446098608</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>22731.4215561783</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-58893.99446098608</v>
       </c>
       <c r="AO37">
-        <v>161823.8880721099</v>
+        <v>161889.5729048078</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.1416</v>
+        <v>9.135199999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77606.26621579418</v>
+        <v>77600.77454953014</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="F38">
-        <v>8258.089104752467</v>
+        <v>8263.873825329771</v>
       </c>
       <c r="G38">
-        <v>69348.17711104172</v>
+        <v>69336.90072420036</v>
       </c>
       <c r="H38">
-        <v>92868.56553625465</v>
+        <v>92933.61916975603</v>
       </c>
       <c r="I38">
-        <v>81145.07016164642</v>
+        <v>81201.9115872058</v>
       </c>
       <c r="J38">
-        <v>11723.49548230074</v>
+        <v>11731.70769031813</v>
       </c>
       <c r="K38">
-        <v>288.8957213780329</v>
+        <v>289.0980903526166</v>
       </c>
       <c r="L38">
-        <v>7839.733784205821</v>
+        <v>7845.225450469869</v>
       </c>
       <c r="M38">
-        <v>4871.227048041612</v>
+        <v>4874.639300801794</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79868.70898262919</v>
+        <v>79924.65632813175</v>
       </c>
       <c r="P38">
-        <v>51315.95539377753</v>
+        <v>51351.9017803259</v>
       </c>
       <c r="Q38">
-        <v>39923.61620556339</v>
+        <v>39951.58235623761</v>
       </c>
       <c r="R38">
-        <v>11392.33918821414</v>
+        <v>11400.31942408828</v>
       </c>
       <c r="S38">
-        <v>28552.75358885167</v>
+        <v>28572.75454780585</v>
       </c>
       <c r="T38">
-        <v>25784.97442303757</v>
+        <v>25803.03657642901</v>
       </c>
       <c r="U38">
-        <v>2436.622979419968</v>
+        <v>2438.329812914907</v>
       </c>
       <c r="V38">
-        <v>331.1562940866062</v>
+        <v>331.3882662298474</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32272.43446374535</v>
+        <v>32207.38083024397</v>
       </c>
       <c r="AI38">
-        <v>4300.929838353579</v>
+        <v>4244.088412794197</v>
       </c>
       <c r="AJ38">
-        <v>27971.50451769926</v>
+        <v>27963.29230968187</v>
       </c>
       <c r="AK38">
-        <v>-35982.56553625465</v>
+        <v>-36047.61916975603</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-58708.9115872058</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>22661.29230968187</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-58725.9115872058</v>
       </c>
       <c r="AO38">
-        <v>161140.5655362547</v>
+        <v>161205.619169756</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.2857</v>
+        <v>9.279199999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76275.17951124845</v>
+        <v>76269.64262343528</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="F39">
-        <v>8143.895668315527</v>
+        <v>8149.654655605514</v>
       </c>
       <c r="G39">
-        <v>68131.28384293293</v>
+        <v>68119.98796782977</v>
       </c>
       <c r="H39">
-        <v>91286.49024922743</v>
+        <v>91351.04384353958</v>
       </c>
       <c r="I39">
-        <v>79444.46647611614</v>
+        <v>79500.64593755937</v>
       </c>
       <c r="J39">
-        <v>11842.02377311128</v>
+        <v>11850.3979059802</v>
       </c>
       <c r="K39">
-        <v>286.7190153249027</v>
+        <v>286.9217697844764</v>
       </c>
       <c r="L39">
-        <v>7829.820488751543</v>
+        <v>7835.35737656471</v>
       </c>
       <c r="M39">
-        <v>4867.811481547889</v>
+        <v>4871.253773246363</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78302.13926360309</v>
+        <v>78357.51092394402</v>
       </c>
       <c r="P39">
-        <v>51242.08610633564</v>
+        <v>51278.32214552593</v>
       </c>
       <c r="Q39">
-        <v>39858.99960975816</v>
+        <v>39887.18605534798</v>
       </c>
       <c r="R39">
-        <v>11383.08639110671</v>
+        <v>11391.1359846326</v>
       </c>
       <c r="S39">
-        <v>27060.05315726747</v>
+        <v>27079.18877841808</v>
       </c>
       <c r="T39">
-        <v>24553.85274171264</v>
+        <v>24571.2160935554</v>
       </c>
       <c r="U39">
-        <v>2047.26313902102</v>
+        <v>2048.710869060435</v>
       </c>
       <c r="V39">
-        <v>458.9373820045774</v>
+        <v>459.2619213476031</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32496.50975077257</v>
+        <v>32431.95615646042</v>
       </c>
       <c r="AI39">
-        <v>4660.53352388386</v>
+        <v>4604.354062440631</v>
       </c>
       <c r="AJ39">
-        <v>27835.97622688872</v>
+        <v>27827.6020940198</v>
       </c>
       <c r="AK39">
-        <v>-35832.49024922743</v>
+        <v>-35897.04384353958</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-58588.64593755937</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>22691.6020940198</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-58596.64593755937</v>
       </c>
       <c r="AO39">
-        <v>159623.4902492274</v>
+        <v>159688.0438435396</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.481299999999999</v>
+        <v>9.474600000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77975.71735271046</v>
+        <v>77970.22888778715</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="F40">
-        <v>8176.334172825234</v>
+        <v>8182.076929433151</v>
       </c>
       <c r="G40">
-        <v>69799.38317988522</v>
+        <v>69788.15195835399</v>
       </c>
       <c r="H40">
-        <v>93735.14739275834</v>
+        <v>93800.98351512147</v>
       </c>
       <c r="I40">
-        <v>82217.67908013707</v>
+        <v>82275.42575607338</v>
       </c>
       <c r="J40">
-        <v>11517.4684158375</v>
+        <v>11525.5578623368</v>
       </c>
       <c r="K40">
-        <v>285.0104248379506</v>
+        <v>285.2106056850107</v>
       </c>
       <c r="L40">
-        <v>7814.282647289542</v>
+        <v>7819.771112212857</v>
       </c>
       <c r="M40">
-        <v>4863.052103546509</v>
+        <v>4866.467732606181</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80772.80221708435</v>
+        <v>80829.53406461742</v>
       </c>
       <c r="P40">
-        <v>52897.34837537674</v>
+        <v>52934.50152867295</v>
       </c>
       <c r="Q40">
-        <v>41856.10895503902</v>
+        <v>41885.50714757891</v>
       </c>
       <c r="R40">
-        <v>11041.23952355394</v>
+        <v>11048.99448438275</v>
       </c>
       <c r="S40">
-        <v>27875.45384170761</v>
+        <v>27895.03253594447</v>
       </c>
       <c r="T40">
-        <v>24873.5701457413</v>
+        <v>24891.04042720212</v>
       </c>
       <c r="U40">
-        <v>2525.654803682755</v>
+        <v>2527.428730788299</v>
       </c>
       <c r="V40">
-        <v>476.2288922835556</v>
+        <v>476.5633779540572</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31707.85260724166</v>
+        <v>31642.01648487854</v>
       </c>
       <c r="AI40">
-        <v>3572.320919862934</v>
+        <v>3514.574243926618</v>
       </c>
       <c r="AJ40">
-        <v>28135.53158416251</v>
+        <v>28127.44213766319</v>
       </c>
       <c r="AK40">
-        <v>-35345.14739275834</v>
+        <v>-35410.98351512147</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-58268.42575607338</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>22857.44213766319</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-58276.42575607338</v>
       </c>
       <c r="AO40">
-        <v>160796.1473927583</v>
+        <v>160861.9835151215</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6884</v>
+        <v>9.6816</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78912.40233941717</v>
+        <v>78906.98363285941</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="F41">
-        <v>8210.443279217505</v>
+        <v>8216.159877296899</v>
       </c>
       <c r="G41">
-        <v>70701.95906019966</v>
+        <v>70690.82375556251</v>
       </c>
       <c r="H41">
-        <v>99236.83160229906</v>
+        <v>99305.92617632516</v>
       </c>
       <c r="I41">
-        <v>89812.61802964604</v>
+        <v>89875.15090665077</v>
       </c>
       <c r="J41">
-        <v>9424.21357265302</v>
+        <v>9430.775269674374</v>
       </c>
       <c r="K41">
-        <v>281.1380457799738</v>
+        <v>281.3337907791042</v>
       </c>
       <c r="L41">
-        <v>7782.597660582837</v>
+        <v>7788.016367140594</v>
       </c>
       <c r="M41">
-        <v>4852.308561056771</v>
+        <v>4855.68702636704</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86320.7873348795</v>
+        <v>86380.88899203842</v>
       </c>
       <c r="P41">
-        <v>55671.92538065947</v>
+        <v>55710.68748044924</v>
       </c>
       <c r="Q41">
-        <v>47422.94363214682</v>
+        <v>47455.96230108677</v>
       </c>
       <c r="R41">
-        <v>8248.981748512655</v>
+        <v>8254.725179362469</v>
       </c>
       <c r="S41">
-        <v>30648.86205505697</v>
+        <v>30670.20161249634</v>
       </c>
       <c r="T41">
-        <v>27357.73237874357</v>
+        <v>27376.78045630216</v>
       </c>
       <c r="U41">
-        <v>2115.89775133609</v>
+        <v>2117.370964975126</v>
       </c>
       <c r="V41">
-        <v>1175.231824140365</v>
+        <v>1176.050090311904</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28453.16839770094</v>
+        <v>28384.07382367484</v>
       </c>
       <c r="AI41">
-        <v>-3117.618029646037</v>
+        <v>-3180.150906650772</v>
       </c>
       <c r="AJ41">
-        <v>31570.78642734698</v>
+        <v>31564.22473032563</v>
       </c>
       <c r="AK41">
-        <v>-35193.83160229906</v>
+        <v>-35262.92617632516</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-59477.15090665077</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>24214.22473032563</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-59485.15090665077</v>
       </c>
       <c r="AO41">
-        <v>162891.8316022991</v>
+        <v>162960.9261763252</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.917</v>
+        <v>9.9101</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80160.59462617914</v>
+        <v>80155.14939001572</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="F42">
-        <v>8192.588091209109</v>
+        <v>8198.336576603548</v>
       </c>
       <c r="G42">
-        <v>71968.00653497003</v>
+        <v>71956.81281341218</v>
       </c>
       <c r="H42">
-        <v>103376.9288445537</v>
+        <v>103449.4652346381</v>
       </c>
       <c r="I42">
-        <v>92353.93126595175</v>
+        <v>92418.73315994309</v>
       </c>
       <c r="J42">
-        <v>11022.99767209222</v>
+        <v>11030.73216825088</v>
       </c>
       <c r="K42">
-        <v>277.714349821901</v>
+        <v>277.9092133822318</v>
       </c>
       <c r="L42">
-        <v>7760.405373820853</v>
+        <v>7765.850609984282</v>
       </c>
       <c r="M42">
-        <v>4836.394080195955</v>
+        <v>4839.787628171544</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90502.415040715</v>
+        <v>90565.91778310006</v>
       </c>
       <c r="P42">
-        <v>55426.49551714143</v>
+        <v>55465.38657286131</v>
       </c>
       <c r="Q42">
-        <v>47171.96787674242</v>
+        <v>47205.06698600404</v>
       </c>
       <c r="R42">
-        <v>8254.527640399016</v>
+        <v>8260.319586857271</v>
       </c>
       <c r="S42">
-        <v>35075.91961706384</v>
+        <v>35100.53130379463</v>
       </c>
       <c r="T42">
-        <v>29852.1977693221</v>
+        <v>29873.14413217573</v>
       </c>
       <c r="U42">
-        <v>2455.25181604854</v>
+        <v>2456.974590225282</v>
       </c>
       <c r="V42">
-        <v>2768.470031693202</v>
+        <v>2770.412581393608</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6151,16 +6151,16 @@
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482.00000000001</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34271.00000000001</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
         <v>5211</v>
       </c>
       <c r="AD42">
-        <v>21033.99999999999</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>25026.07115544631</v>
+        <v>24953.5347653619</v>
       </c>
       <c r="AI42">
-        <v>-4432.931265951745</v>
+        <v>-4497.733159943091</v>
       </c>
       <c r="AJ42">
-        <v>29459.00232790778</v>
+        <v>29451.26783174912</v>
       </c>
       <c r="AK42">
-        <v>-35489.9288445537</v>
+        <v>-35562.4652346381</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-59802.73315994309</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>24240.26783174912</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-59810.73315994309</v>
       </c>
       <c r="AO42">
-        <v>163900.9288445537</v>
+        <v>163973.4652346381</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6963</v>
+        <v>10.6888</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79302.32518062349</v>
+        <v>79296.91626708473</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="F43">
-        <v>8156.410363246972</v>
+        <v>8162.123802296589</v>
       </c>
       <c r="G43">
-        <v>71145.91481737651</v>
+        <v>71134.79246478815</v>
       </c>
       <c r="H43">
-        <v>101628.7020941492</v>
+        <v>101699.8914249022</v>
       </c>
       <c r="I43">
-        <v>92820.26808109933</v>
+        <v>92885.28724034125</v>
       </c>
       <c r="J43">
-        <v>8808.434096382529</v>
+        <v>8814.604267952002</v>
       </c>
       <c r="K43">
-        <v>274.1440487995934</v>
+        <v>274.3360824570328</v>
       </c>
       <c r="L43">
-        <v>7721.674819376505</v>
+        <v>7727.083732915267</v>
       </c>
       <c r="M43">
-        <v>4823.07072441063</v>
+        <v>4826.449210704071</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88809.81250156248</v>
+        <v>88872.02239882587</v>
       </c>
       <c r="P43">
-        <v>54025.32070566079</v>
+        <v>54063.16460551883</v>
       </c>
       <c r="Q43">
-        <v>46403.91405071625</v>
+        <v>46436.41927333073</v>
       </c>
       <c r="R43">
-        <v>7621.406654944542</v>
+        <v>7626.745332188098</v>
       </c>
       <c r="S43">
-        <v>34784.4917959017</v>
+        <v>34808.85779330704</v>
       </c>
       <c r="T43">
-        <v>31135.30487245939</v>
+        <v>31157.11467098077</v>
       </c>
       <c r="U43">
-        <v>2462.159565336955</v>
+        <v>2463.884269953385</v>
       </c>
       <c r="V43">
-        <v>1187.027441437988</v>
+        <v>1187.858935763903</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6288,16 +6288,16 @@
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980.00000000001</v>
+        <v>39980</v>
       </c>
       <c r="AB43">
-        <v>33102.00000000001</v>
+        <v>33102</v>
       </c>
       <c r="AC43">
         <v>6878</v>
       </c>
       <c r="AD43">
-        <v>20840.99999999999</v>
+        <v>20841</v>
       </c>
       <c r="AE43">
         <v>60821</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24516.29790585078</v>
+        <v>24445.10857509777</v>
       </c>
       <c r="AI43">
-        <v>-5796.268081099333</v>
+        <v>-5861.287240341248</v>
       </c>
       <c r="AJ43">
-        <v>30312.56590361747</v>
+        <v>30306.395732048</v>
       </c>
       <c r="AK43">
-        <v>-36304.70209414922</v>
+        <v>-36375.89142490224</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-59804.28724034125</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>23428.395732048</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-59812.28724034125</v>
       </c>
       <c r="AO43">
-        <v>162457.7020941492</v>
+        <v>162528.8914249023</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6339,10 +6339,10 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.1540801348505641</v>
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>12.0001</v>
+        <v>11.9917</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77251.88611664317</v>
+        <v>77246.50209742189</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="F44">
-        <v>8329.857906867461</v>
+        <v>8335.640198844552</v>
       </c>
       <c r="G44">
-        <v>68922.02820977572</v>
+        <v>68910.86189857734</v>
       </c>
       <c r="H44">
-        <v>101703.8873100763</v>
+        <v>101774.4865421649</v>
       </c>
       <c r="I44">
-        <v>92940.77692497036</v>
+        <v>93005.29311657486</v>
       </c>
       <c r="J44">
-        <v>8763.110385105954</v>
+        <v>8769.19342559004</v>
       </c>
       <c r="K44">
-        <v>274.3460359372552</v>
+        <v>274.5364772269247</v>
       </c>
       <c r="L44">
-        <v>7756.113883356828</v>
+        <v>7761.497902578112</v>
       </c>
       <c r="M44">
-        <v>4837.432328611813</v>
+        <v>4840.790302596026</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88835.99506217041</v>
+        <v>88897.66185976384</v>
       </c>
       <c r="P44">
-        <v>54159.16825169505</v>
+        <v>54196.76362577813</v>
       </c>
       <c r="Q44">
-        <v>46601.39213975102</v>
+        <v>46633.74117366057</v>
       </c>
       <c r="R44">
-        <v>7557.776111944027</v>
+        <v>7563.022452117575</v>
       </c>
       <c r="S44">
-        <v>34676.82681047536</v>
+        <v>34700.8982339857</v>
       </c>
       <c r="T44">
-        <v>31209.39388514698</v>
+        <v>31231.05833967785</v>
       </c>
       <c r="U44">
-        <v>2262.098652166454</v>
+        <v>2263.668920835386</v>
       </c>
       <c r="V44">
-        <v>1205.334273161926</v>
+        <v>1206.170973472465</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22321.1126899237</v>
+        <v>22250.5134578351</v>
       </c>
       <c r="AI44">
-        <v>-7932.776924970356</v>
+        <v>-7997.29311657486</v>
       </c>
       <c r="AJ44">
-        <v>30253.88961489405</v>
+        <v>30247.80657440996</v>
       </c>
       <c r="AK44">
-        <v>-38078.8873100763</v>
+        <v>-38149.4865421649</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-61672.29311657486</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>23522.80657440996</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-62064.29311657486</v>
       </c>
       <c r="AO44">
-        <v>162495.8873100763</v>
+        <v>162566.4865421649</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.4067</v>
+        <v>13.3974</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76402.00801851097</v>
+        <v>76396.53347653548</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="F45">
-        <v>8297.574145759358</v>
+        <v>8303.434739869661</v>
       </c>
       <c r="G45">
-        <v>68104.43387275162</v>
+        <v>68093.09873666582</v>
       </c>
       <c r="H45">
-        <v>101863.0975318703</v>
+        <v>101935.0436523829</v>
       </c>
       <c r="I45">
-        <v>94226.7577420106</v>
+        <v>94293.3102996323</v>
       </c>
       <c r="J45">
-        <v>7636.339862622969</v>
+        <v>7641.733425565223</v>
       </c>
       <c r="K45">
-        <v>273.816578380581</v>
+        <v>274.0099756070921</v>
       </c>
       <c r="L45">
-        <v>7750.991981489027</v>
+        <v>7756.466523464521</v>
       </c>
       <c r="M45">
-        <v>4836.816170906339</v>
+        <v>4840.232424363782</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89001.47280109435</v>
+        <v>89064.33472894746</v>
       </c>
       <c r="P45">
-        <v>53546.49834099773</v>
+        <v>53584.31834565115</v>
       </c>
       <c r="Q45">
-        <v>46337.41050119331</v>
+        <v>46370.13871190884</v>
       </c>
       <c r="R45">
-        <v>7209.087912567669</v>
+        <v>7214.179706556959</v>
       </c>
       <c r="S45">
-        <v>35454.97446009663</v>
+        <v>35480.01638329632</v>
       </c>
       <c r="T45">
-        <v>33099.86735258164</v>
+        <v>33123.24585866676</v>
       </c>
       <c r="U45">
-        <v>1927.855157459689</v>
+        <v>1929.216805621291</v>
       </c>
       <c r="V45">
-        <v>427.2519500553</v>
+        <v>427.5537190082645</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>21026.9024681297</v>
+        <v>20954.95634761715</v>
       </c>
       <c r="AI45">
-        <v>-10073.7577420106</v>
+        <v>-10140.3102996323</v>
       </c>
       <c r="AJ45">
-        <v>31100.66013737703</v>
+        <v>31095.26657443478</v>
       </c>
       <c r="AK45">
-        <v>-38929.0975318703</v>
+        <v>-39001.04365238285</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-62869.3102996323</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>23868.26657443478</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-63261.3102996323</v>
       </c>
       <c r="AO45">
-        <v>162211.0975318703</v>
+        <v>162283.0436523829</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,7 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7432</v>
+        <v>13.7335</v>
       </c>
     </row>
     <row r="46">
@@ -6627,64 +6627,64 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70621.12258904272</v>
+        <v>70615.72128516169</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7745.877410957282</v>
+        <v>7751.278714838302</v>
       </c>
       <c r="F46">
-        <v>8198.895725686638</v>
+        <v>8204.612925295371</v>
       </c>
       <c r="G46">
-        <v>62422.22686335607</v>
+        <v>62411.10835986632</v>
       </c>
       <c r="H46">
-        <v>104859.0792016724</v>
+        <v>104932.1988395653</v>
       </c>
       <c r="I46">
-        <v>97274.63127309064</v>
+        <v>97342.4621740389</v>
       </c>
       <c r="J46">
-        <v>7584.447994320198</v>
+        <v>7589.736731310686</v>
       </c>
       <c r="K46">
-        <v>271.2761803336883</v>
+        <v>271.4653448411967</v>
       </c>
       <c r="L46">
-        <v>7745.877410957282</v>
+        <v>7751.278714838302</v>
       </c>
       <c r="M46">
-        <v>4833.618769639359</v>
+        <v>4836.989316632898</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92008.30684074205</v>
+        <v>92072.4654632529</v>
       </c>
       <c r="P46">
-        <v>53523.8272919707</v>
+        <v>53561.15017235481</v>
       </c>
       <c r="Q46">
-        <v>46307.66536504556</v>
+        <v>46339.95631923795</v>
       </c>
       <c r="R46">
-        <v>7216.161992663589</v>
+        <v>7221.193918901139</v>
       </c>
       <c r="S46">
-        <v>38484.47948303291</v>
+        <v>38511.3152251138</v>
       </c>
       <c r="T46">
-        <v>35769.46429745329</v>
+        <v>35794.40682314554</v>
       </c>
       <c r="U46">
-        <v>2346.729249661447</v>
+        <v>2348.365655342999</v>
       </c>
       <c r="V46">
-        <v>368.2860016566087</v>
+        <v>368.5428124095466</v>
       </c>
       <c r="W46">
         <v>59268</v>
@@ -6693,22 +6693,22 @@
         <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7180.000000000001</v>
+        <v>7180</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900.00000000001</v>
+        <v>37900</v>
       </c>
       <c r="AB46">
-        <v>30720.00000000001</v>
+        <v>30720</v>
       </c>
       <c r="AC46">
-        <v>7180.000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AD46">
-        <v>20966.99999999999</v>
+        <v>20967</v>
       </c>
       <c r="AE46">
         <v>58867</v>
@@ -6717,31 +6717,31 @@
         <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7180.000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AH46">
-        <v>12013.92079832761</v>
+        <v>11940.8011604347</v>
       </c>
       <c r="AI46">
-        <v>-18907.63127309064</v>
+        <v>-18975.4621740389</v>
       </c>
       <c r="AJ46">
-        <v>30921.5520056798</v>
+        <v>30916.26326868931</v>
       </c>
       <c r="AK46">
-        <v>-46853.07920167239</v>
+        <v>-46926.1988395653</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-70662.4621740389</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>23736.26326868931</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-71063.4621740389</v>
       </c>
       <c r="AO46">
-        <v>164127.0792016724</v>
+        <v>164200.1988395653</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6753,7 +6753,7 @@
         <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2118</v>
+        <v>15.2012</v>
       </c>
     </row>
     <row r="47">
@@ -6764,64 +6764,64 @@
         <v>110925</v>
       </c>
       <c r="C47">
-        <v>64800.29482656233</v>
+        <v>64794.87328276296</v>
       </c>
       <c r="D47">
         <v>38370</v>
       </c>
       <c r="E47">
-        <v>7754.705173437665</v>
+        <v>7760.126717237041</v>
       </c>
       <c r="F47">
-        <v>8207.213906451951</v>
+        <v>8212.951812493446</v>
       </c>
       <c r="G47">
-        <v>56593.08092011038</v>
+        <v>56581.92147026951</v>
       </c>
       <c r="H47">
-        <v>102448.4012470744</v>
+        <v>102520.0259551858</v>
       </c>
       <c r="I47">
-        <v>93807.0724316205</v>
+        <v>93872.65573111476</v>
       </c>
       <c r="J47">
-        <v>8641.328728123801</v>
+        <v>8647.370136679834</v>
       </c>
       <c r="K47">
-        <v>271.109704125476</v>
+        <v>271.2992449400497</v>
       </c>
       <c r="L47">
-        <v>7754.705173437665</v>
+        <v>7760.126717237041</v>
       </c>
       <c r="M47">
-        <v>4836.093024068187</v>
+        <v>4839.474079770685</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>89586.49334544312</v>
+        <v>89649.12591323802</v>
       </c>
       <c r="P47">
-        <v>53006.56713941384</v>
+        <v>53043.62559862971</v>
       </c>
       <c r="Q47">
-        <v>44822.36149439341</v>
+        <v>44853.69813332401</v>
       </c>
       <c r="R47">
-        <v>8184.205557690293</v>
+        <v>8189.927377914497</v>
       </c>
       <c r="S47">
-        <v>36579.92620602928</v>
+        <v>36605.50031460832</v>
       </c>
       <c r="T47">
-        <v>33871.17895692877</v>
+        <v>33894.85930017129</v>
       </c>
       <c r="U47">
-        <v>2251.624078666993</v>
+        <v>2253.198255671689</v>
       </c>
       <c r="V47">
-        <v>457.1231704335069</v>
+        <v>457.4427587653372</v>
       </c>
       <c r="W47">
         <v>65292</v>
@@ -6857,28 +6857,28 @@
         <v>6257</v>
       </c>
       <c r="AH47">
-        <v>8476.598752925565</v>
+        <v>8404.974044814197</v>
       </c>
       <c r="AI47">
-        <v>-21252.0724316205</v>
+        <v>-21317.65573111476</v>
       </c>
       <c r="AJ47">
-        <v>29728.6712718762</v>
+        <v>29722.62986332017</v>
       </c>
       <c r="AK47">
-        <v>-55837.40124707444</v>
+        <v>-55909.0259551858</v>
       </c>
       <c r="AL47">
-        <v>-79309.0724316205</v>
+        <v>-79374.65573111476</v>
       </c>
       <c r="AM47">
-        <v>23471.6712718762</v>
+        <v>23465.62986332017</v>
       </c>
       <c r="AN47">
-        <v>-80287.0724316205</v>
+        <v>-80352.65573111476</v>
       </c>
       <c r="AO47">
-        <v>167740.4012470744</v>
+        <v>167812.0259551858</v>
       </c>
       <c r="AP47">
         <v>265603.11</v>
@@ -6890,7 +6890,7 @@
         <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
-        <v>11.4508</v>
+        <v>11.4428</v>
       </c>
     </row>
     <row r="48">
@@ -6901,76 +6901,76 @@
         <v>111051</v>
       </c>
       <c r="C48">
-        <v>64811.67239452899</v>
+        <v>64806.23324388514</v>
       </c>
       <c r="D48">
         <v>38488</v>
       </c>
       <c r="E48">
-        <v>7751.327605471008</v>
+        <v>7756.766756114863</v>
       </c>
       <c r="F48">
-        <v>8205.615873627432</v>
+        <v>8211.373800931495</v>
       </c>
       <c r="G48">
-        <v>56606.05652090156</v>
+        <v>56594.85944295365</v>
       </c>
       <c r="H48">
-        <v>102890.5606626854</v>
+        <v>102962.7595539928</v>
       </c>
       <c r="I48">
-        <v>94183.64392217298</v>
+        <v>94249.73312050829</v>
       </c>
       <c r="J48">
-        <v>8706.916740512426</v>
+        <v>8713.026433484469</v>
       </c>
       <c r="K48">
-        <v>270.1827008283568</v>
+        <v>270.3722895654051</v>
       </c>
       <c r="L48">
-        <v>7751.327605471008</v>
+        <v>7756.766756114863</v>
       </c>
       <c r="M48">
-        <v>4836.533384704296</v>
+        <v>4839.927207674038</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>90032.51697168176</v>
+        <v>90095.69330063846</v>
       </c>
       <c r="P48">
-        <v>53052.67832787517</v>
+        <v>53089.9056938404</v>
       </c>
       <c r="Q48">
-        <v>44802.52043922173</v>
+        <v>44833.95862249776</v>
       </c>
       <c r="R48">
-        <v>8250.157888653439</v>
+        <v>8255.947071342647</v>
       </c>
       <c r="S48">
-        <v>36979.83864380659</v>
+        <v>37005.78760679806</v>
       </c>
       <c r="T48">
-        <v>34136.67185513389</v>
+        <v>34160.62575182752</v>
       </c>
       <c r="U48">
-        <v>2386.407936813716</v>
+        <v>2388.082492828722</v>
       </c>
       <c r="V48">
-        <v>456.7588518589867</v>
+        <v>457.0793621418216</v>
       </c>
       <c r="W48">
-        <v>64695.074</v>
+        <v>65768</v>
       </c>
       <c r="X48">
-        <v>58569.074</v>
+        <v>59642</v>
       </c>
       <c r="Y48">
         <v>6126</v>
       </c>
       <c r="Z48">
-        <v>1.074</v>
+        <v>1074</v>
       </c>
       <c r="AA48">
         <v>43704</v>
@@ -6994,28 +6994,28 @@
         <v>6126</v>
       </c>
       <c r="AH48">
-        <v>8160.439337314572</v>
+        <v>8088.240446007214</v>
       </c>
       <c r="AI48">
-        <v>-21620.64392217298</v>
+        <v>-21686.73312050829</v>
       </c>
       <c r="AJ48">
-        <v>29781.08325948758</v>
+        <v>29774.97356651553</v>
       </c>
       <c r="AK48">
-        <v>-56533.56066268543</v>
+        <v>-56605.75955399279</v>
       </c>
       <c r="AL48">
-        <v>-80188.64392217298</v>
+        <v>-80254.73312050829</v>
       </c>
       <c r="AM48">
-        <v>23655.08325948758</v>
+        <v>23648.97356651553</v>
       </c>
       <c r="AN48">
-        <v>-80189.71792217298</v>
+        <v>-81328.73312050829</v>
       </c>
       <c r="AO48">
-        <v>167585.6346626854</v>
+        <v>168730.7595539928</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7027,7 +7027,7 @@
         <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
-        <v>12.9775</v>
+        <v>12.9684</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -596,67 +596,67 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>93206</v>
+        <v>93206.00000000002</v>
       </c>
       <c r="C2">
-        <v>48431.13538884842</v>
+        <v>48432.21042132787</v>
       </c>
       <c r="D2">
         <v>43241</v>
       </c>
       <c r="E2">
-        <v>1533.864611151574</v>
+        <v>1532.78957867213</v>
       </c>
       <c r="F2">
-        <v>8790.733727172183</v>
+        <v>8784.572606949349</v>
       </c>
       <c r="G2">
-        <v>39640.40166167624</v>
+        <v>39647.63781437853</v>
       </c>
       <c r="H2">
-        <v>78872.72652477678</v>
+        <v>78817.44736771168</v>
       </c>
       <c r="I2">
-        <v>68368.15084567452</v>
+        <v>68320.23398118447</v>
       </c>
       <c r="J2">
-        <v>10504.57567910227</v>
+        <v>10497.21338652721</v>
       </c>
       <c r="K2">
-        <v>347.2667314072995</v>
+        <v>347.0233442057309</v>
       </c>
       <c r="L2">
-        <v>1533.864611151574</v>
+        <v>1532.78957867213</v>
       </c>
       <c r="M2">
-        <v>3526.756764047369</v>
+        <v>3524.284982613149</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>73464.83841817053</v>
+        <v>73413.34946222066</v>
       </c>
       <c r="P2">
-        <v>42969.4375657522</v>
+        <v>42939.32177804135</v>
       </c>
       <c r="Q2">
-        <v>32679.08607806642</v>
+        <v>32656.18244062862</v>
       </c>
       <c r="R2">
-        <v>10290.35162256211</v>
+        <v>10283.13947219452</v>
       </c>
       <c r="S2">
-        <v>30495.40085241833</v>
+        <v>30474.02768417931</v>
       </c>
       <c r="T2">
-        <v>25552.25513204392</v>
+        <v>25534.34644310861</v>
       </c>
       <c r="U2">
-        <v>4728.921528957946</v>
+        <v>4725.607191956223</v>
       </c>
       <c r="V2">
-        <v>214.2240565401527</v>
+        <v>214.0739143326954</v>
       </c>
       <c r="W2">
         <v>60658</v>
@@ -692,40 +692,40 @@
         <v>5559</v>
       </c>
       <c r="AH2">
-        <v>14333.27347522322</v>
+        <v>14388.55263228834</v>
       </c>
       <c r="AI2">
-        <v>-18403.15084567452</v>
+        <v>-18355.23398118447</v>
       </c>
       <c r="AJ2">
-        <v>32736.42432089774</v>
+        <v>32743.78661347279</v>
       </c>
       <c r="AK2">
-        <v>-44927.72652477678</v>
+        <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72105.15084567452</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>27177.42432089774</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-73502.15084567452</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
-        <v>139530.7265247768</v>
+        <v>139475.4473677117</v>
       </c>
       <c r="AP2">
         <v>263769.22</v>
       </c>
       <c r="AQ2">
-        <v>0.6358067077226788</v>
+        <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
         <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
-        <v>7.4142</v>
+        <v>7.4194</v>
       </c>
     </row>
     <row r="3">
@@ -736,64 +736,64 @@
         <v>94048</v>
       </c>
       <c r="C3">
-        <v>52320.58078816316</v>
+        <v>52321.66853164957</v>
       </c>
       <c r="D3">
         <v>40184</v>
       </c>
       <c r="E3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="F3">
-        <v>8882.889979561876</v>
+        <v>8876.629654666533</v>
       </c>
       <c r="G3">
-        <v>43437.69080860129</v>
+        <v>43445.03887698304</v>
       </c>
       <c r="H3">
-        <v>82097.70949077405</v>
+        <v>82039.85013016526</v>
       </c>
       <c r="I3">
-        <v>70323.80696047669</v>
+        <v>70274.24540106722</v>
       </c>
       <c r="J3">
-        <v>11773.90267422781</v>
+        <v>11765.60487292706</v>
       </c>
       <c r="K3">
-        <v>342.7305046201676</v>
+        <v>342.488961123017</v>
       </c>
       <c r="L3">
-        <v>1543.41921183684</v>
+        <v>1542.331468350425</v>
       </c>
       <c r="M3">
-        <v>4916.849218457641</v>
+        <v>4913.384009089994</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>75294.71055585941</v>
+        <v>75241.64569160182</v>
       </c>
       <c r="P3">
-        <v>45943.69152825355</v>
+        <v>45911.31215211357</v>
       </c>
       <c r="Q3">
-        <v>34961.35726416995</v>
+        <v>34936.71782185338</v>
       </c>
       <c r="R3">
-        <v>10982.33440801405</v>
+        <v>10974.5944740892</v>
       </c>
       <c r="S3">
-        <v>29351.01888367541</v>
+        <v>29330.33339565924</v>
       </c>
       <c r="T3">
-        <v>25515.92417743746</v>
+        <v>25497.94151912207</v>
       </c>
       <c r="U3">
-        <v>3043.526583954633</v>
+        <v>3041.381621528327</v>
       </c>
       <c r="V3">
-        <v>791.5682662137655</v>
+        <v>791.0103988378615</v>
       </c>
       <c r="W3">
         <v>58285</v>
@@ -829,28 +829,28 @@
         <v>5220</v>
       </c>
       <c r="AH3">
-        <v>11950.29050922595</v>
+        <v>12008.14986983474</v>
       </c>
       <c r="AI3">
-        <v>-16459.80696047669</v>
+        <v>-16410.24540106722</v>
       </c>
       <c r="AJ3">
-        <v>28410.09732577219</v>
+        <v>28418.39512707294</v>
       </c>
       <c r="AK3">
-        <v>-45049.70949077405</v>
+        <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68239.80696047669</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>23190.09732577219</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-69524.80696047669</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>140382.7094907741</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -862,7 +862,7 @@
         <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
-        <v>6.9478</v>
+        <v>6.9527</v>
       </c>
     </row>
     <row r="4">
@@ -870,67 +870,67 @@
         <v>44253</v>
       </c>
       <c r="B4">
-        <v>95213</v>
+        <v>95213.00000000002</v>
       </c>
       <c r="C4">
-        <v>52942.0817820074</v>
+        <v>52943.16064178856</v>
       </c>
       <c r="D4">
         <v>40719</v>
       </c>
       <c r="E4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="F4">
-        <v>8951.982218883044</v>
+        <v>8945.758995606473</v>
       </c>
       <c r="G4">
-        <v>43990.09956312436</v>
+        <v>43997.40164618209</v>
       </c>
       <c r="H4">
-        <v>81509.02927345075</v>
+        <v>81452.36596963462</v>
       </c>
       <c r="I4">
-        <v>70098.69716448228</v>
+        <v>70049.96607530171</v>
       </c>
       <c r="J4">
-        <v>11410.33210896847</v>
+        <v>11402.39989433291</v>
       </c>
       <c r="K4">
-        <v>370.6254000055653</v>
+        <v>370.3677492909181</v>
       </c>
       <c r="L4">
-        <v>1551.918217992598</v>
+        <v>1550.839358211445</v>
       </c>
       <c r="M4">
-        <v>4935.726410106575</v>
+        <v>4932.295200489405</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>74650.75924534601</v>
+        <v>74598.86366164284</v>
       </c>
       <c r="P4">
-        <v>46203.50015304561</v>
+        <v>46171.38048495634</v>
       </c>
       <c r="Q4">
-        <v>35163.98224670952</v>
+        <v>35139.53701128969</v>
       </c>
       <c r="R4">
-        <v>11039.51790633609</v>
+        <v>11031.84347366665</v>
       </c>
       <c r="S4">
-        <v>28447.25909230041</v>
+        <v>28427.4831766865</v>
       </c>
       <c r="T4">
-        <v>24906.5791524056</v>
+        <v>24889.26464045381</v>
       </c>
       <c r="U4">
-        <v>3169.865737262431</v>
+        <v>3167.662115566431</v>
       </c>
       <c r="V4">
-        <v>370.8142026323844</v>
+        <v>370.5564206662588</v>
       </c>
       <c r="W4">
         <v>59426</v>
@@ -966,40 +966,40 @@
         <v>5175</v>
       </c>
       <c r="AH4">
-        <v>13703.97072654925</v>
+        <v>13760.6340303654</v>
       </c>
       <c r="AI4">
-        <v>-15604.69716448228</v>
+        <v>-15555.96607530171</v>
       </c>
       <c r="AJ4">
-        <v>29308.66789103153</v>
+        <v>29316.60010566709</v>
       </c>
       <c r="AK4">
-        <v>-44296.02927345075</v>
+        <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68429.69716448228</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>24133.66789103153</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-69855.69716448228</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>140935.0292734508</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
-        <v>0.6091605137953851</v>
+        <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
         <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
-        <v>7.1874</v>
+        <v>7.1924</v>
       </c>
     </row>
     <row r="5">
@@ -1010,64 +1010,64 @@
         <v>91663</v>
       </c>
       <c r="C5">
-        <v>51705.67601246106</v>
+        <v>51706.75148945306</v>
       </c>
       <c r="D5">
         <v>38416</v>
       </c>
       <c r="E5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="F5">
-        <v>8875.588140509184</v>
+        <v>8869.395094197842</v>
       </c>
       <c r="G5">
-        <v>42830.08787195187</v>
+        <v>42837.35639525522</v>
       </c>
       <c r="H5">
-        <v>80279.71412074337</v>
+        <v>80223.69800332779</v>
       </c>
       <c r="I5">
-        <v>68506.54151896015</v>
+        <v>68458.74027159036</v>
       </c>
       <c r="J5">
-        <v>11773.17273606188</v>
+        <v>11764.95786592239</v>
       </c>
       <c r="K5">
-        <v>341.6905682672683</v>
+        <v>341.452149643068</v>
       </c>
       <c r="L5">
-        <v>1541.323987538941</v>
+        <v>1540.248510546938</v>
       </c>
       <c r="M5">
-        <v>4916.601944354926</v>
+        <v>4913.17132735763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>73480.09762058224</v>
+        <v>73428.82601578016</v>
       </c>
       <c r="P5">
-        <v>44905.15415189602</v>
+        <v>44873.82105093661</v>
       </c>
       <c r="Q5">
-        <v>33623.49701901386</v>
+        <v>33600.03582738447</v>
       </c>
       <c r="R5">
-        <v>11281.65726716081</v>
+        <v>11273.78535773711</v>
       </c>
       <c r="S5">
-        <v>28574.94346868622</v>
+        <v>28555.00496484354</v>
       </c>
       <c r="T5">
-        <v>25305.5794123966</v>
+        <v>25287.92214588589</v>
       </c>
       <c r="U5">
-        <v>2777.848587388549</v>
+        <v>2775.910310772369</v>
       </c>
       <c r="V5">
-        <v>491.5154689010635</v>
+        <v>491.1725081852826</v>
       </c>
       <c r="W5">
         <v>58686</v>
@@ -1103,28 +1103,28 @@
         <v>5196</v>
       </c>
       <c r="AH5">
-        <v>11383.28587925663</v>
+        <v>11439.30199667221</v>
       </c>
       <c r="AI5">
-        <v>-15259.54151896015</v>
+        <v>-15211.74027159036</v>
       </c>
       <c r="AJ5">
-        <v>26642.82726393813</v>
+        <v>26651.04213407761</v>
       </c>
       <c r="AK5">
-        <v>-46316.71412074337</v>
+        <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67763.54151896015</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>21446.82726393813</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-68749.54151896015</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
-        <v>138965.7141207434</v>
+        <v>138909.6980033278</v>
       </c>
       <c r="AP5">
         <v>259574.43</v>
@@ -1136,7 +1136,7 @@
         <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
-        <v>7.4472</v>
+        <v>7.4524</v>
       </c>
     </row>
     <row r="6">
@@ -1147,64 +1147,64 @@
         <v>91611</v>
       </c>
       <c r="C6">
-        <v>51128.4043874506</v>
+        <v>51129.47699003304</v>
       </c>
       <c r="D6">
         <v>38947</v>
       </c>
       <c r="E6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="F6">
-        <v>8678.590343307256</v>
+        <v>8672.528409854122</v>
       </c>
       <c r="G6">
-        <v>42449.81404414335</v>
+        <v>42456.94858017892</v>
       </c>
       <c r="H6">
-        <v>80848.92934914106</v>
+        <v>80792.45694866077</v>
       </c>
       <c r="I6">
-        <v>68905.79751055193</v>
+        <v>68857.66730247428</v>
       </c>
       <c r="J6">
-        <v>11943.13183858913</v>
+        <v>11934.7896461865</v>
       </c>
       <c r="K6">
-        <v>339.1148479716106</v>
+        <v>338.8779786691025</v>
       </c>
       <c r="L6">
-        <v>1535.595612549399</v>
+        <v>1534.523009966956</v>
       </c>
       <c r="M6">
-        <v>4905.919160147324</v>
+        <v>4902.492410606345</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>74068.29972847273</v>
+        <v>74016.56354941837</v>
       </c>
       <c r="P6">
-        <v>44960.22367395221</v>
+        <v>44928.81927840313</v>
       </c>
       <c r="Q6">
-        <v>33505.05000403259</v>
+        <v>33481.6469655858</v>
       </c>
       <c r="R6">
-        <v>11455.17366991962</v>
+        <v>11447.17231281734</v>
       </c>
       <c r="S6">
-        <v>29108.07605452053</v>
+        <v>29087.74427101523</v>
       </c>
       <c r="T6">
-        <v>26423.88633491948</v>
+        <v>26405.42943878784</v>
       </c>
       <c r="U6">
-        <v>2196.231550931527</v>
+        <v>2194.697498858233</v>
       </c>
       <c r="V6">
-        <v>487.9581686695164</v>
+        <v>487.6173333691535</v>
       </c>
       <c r="W6">
         <v>58586</v>
@@ -1240,28 +1240,28 @@
         <v>5175</v>
       </c>
       <c r="AH6">
-        <v>10762.07065085894</v>
+        <v>10818.54305133924</v>
       </c>
       <c r="AI6">
-        <v>-16241.79751055193</v>
+        <v>-16193.66730247428</v>
       </c>
       <c r="AJ6">
-        <v>27003.86816141087</v>
+        <v>27012.21035381351</v>
       </c>
       <c r="AK6">
-        <v>-46837.92934914106</v>
+        <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68666.79751055193</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>21828.86816141087</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-69652.79751055193</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
-        <v>139434.9293491411</v>
+        <v>139378.4569486608</v>
       </c>
       <c r="AP6">
         <v>259408.34</v>
@@ -1273,7 +1273,7 @@
         <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
-        <v>7.4394</v>
+        <v>7.4446</v>
       </c>
     </row>
     <row r="7">
@@ -1284,64 +1284,64 @@
         <v>93161</v>
       </c>
       <c r="C7">
-        <v>52363.23865755962</v>
+        <v>52364.30885172918</v>
       </c>
       <c r="D7">
         <v>39263</v>
       </c>
       <c r="E7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="F7">
-        <v>8702.247956951733</v>
+        <v>8696.179850616174</v>
       </c>
       <c r="G7">
-        <v>43660.99070060789</v>
+        <v>43668.129001113</v>
       </c>
       <c r="H7">
-        <v>79677.78854282686</v>
+        <v>79622.22895686104</v>
       </c>
       <c r="I7">
-        <v>67573.962238832</v>
+        <v>67526.84269105439</v>
       </c>
       <c r="J7">
-        <v>12103.82630399485</v>
+        <v>12095.38626580666</v>
       </c>
       <c r="K7">
-        <v>338.5414849505509</v>
+        <v>338.3054188513269</v>
       </c>
       <c r="L7">
-        <v>1534.761342440386</v>
+        <v>1533.691148270822</v>
       </c>
       <c r="M7">
-        <v>4905.285087425022</v>
+        <v>4901.864615879742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>72899.20062801091</v>
+        <v>72848.36777385917</v>
       </c>
       <c r="P7">
-        <v>44490.61754404799</v>
+        <v>44459.59408901345</v>
       </c>
       <c r="Q7">
-        <v>33292.187705479</v>
+        <v>33268.97295267724</v>
       </c>
       <c r="R7">
-        <v>11198.42983856899</v>
+        <v>11190.62113633621</v>
       </c>
       <c r="S7">
-        <v>28408.58308396291</v>
+        <v>28388.77368484572</v>
       </c>
       <c r="T7">
-        <v>25448.43815837147</v>
+        <v>25430.69287811943</v>
       </c>
       <c r="U7">
-        <v>2054.748460165591</v>
+        <v>2053.315677255843</v>
       </c>
       <c r="V7">
-        <v>905.3964654258532</v>
+        <v>904.7651294704517</v>
       </c>
       <c r="W7">
         <v>63086</v>
@@ -1377,28 +1377,28 @@
         <v>5249</v>
       </c>
       <c r="AH7">
-        <v>13483.21145717314</v>
+        <v>13538.77104313896</v>
       </c>
       <c r="AI7">
-        <v>-13675.962238832</v>
+        <v>-13628.84269105439</v>
       </c>
       <c r="AJ7">
-        <v>27159.17369600515</v>
+        <v>27167.61373419334</v>
       </c>
       <c r="AK7">
-        <v>-48616.78854282686</v>
+        <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70526.962238832</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>21910.17369600515</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-71512.962238832</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
-        <v>142763.7885428269</v>
+        <v>142708.228956861</v>
       </c>
       <c r="AP7">
         <v>261709.55</v>
@@ -1410,7 +1410,7 @@
         <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
-        <v>7.4521</v>
+        <v>7.4573</v>
       </c>
     </row>
     <row r="8">
@@ -1421,64 +1421,64 @@
         <v>90638</v>
       </c>
       <c r="C8">
-        <v>49367.53001146775</v>
+        <v>49368.60578775706</v>
       </c>
       <c r="D8">
         <v>39745</v>
       </c>
       <c r="E8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="F8">
-        <v>8639.983743525765</v>
+        <v>8633.890742862901</v>
       </c>
       <c r="G8">
-        <v>40727.54626794198</v>
+        <v>40734.71504489415</v>
       </c>
       <c r="H8">
-        <v>78043.71428931483</v>
+        <v>77988.67710209171</v>
       </c>
       <c r="I8">
-        <v>66754.0167353471</v>
+        <v>66706.94115276607</v>
       </c>
       <c r="J8">
-        <v>11289.69755396772</v>
+        <v>11281.73594932564</v>
       </c>
       <c r="K8">
-        <v>334.3734956460373</v>
+        <v>334.1376922011359</v>
       </c>
       <c r="L8">
-        <v>1525.469988532255</v>
+        <v>1524.394212242945</v>
       </c>
       <c r="M8">
-        <v>4888.89040111905</v>
+        <v>4885.44270800539</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>71294.98040401749</v>
+        <v>71244.70248964224</v>
       </c>
       <c r="P8">
-        <v>44270.31870250652</v>
+        <v>44239.09884270045</v>
       </c>
       <c r="Q8">
-        <v>33103.44360011593</v>
+        <v>33080.09872936317</v>
       </c>
       <c r="R8">
-        <v>11166.8749763714</v>
+        <v>11158.99998740697</v>
       </c>
       <c r="S8">
-        <v>27024.66170151097</v>
+        <v>27005.60364694179</v>
       </c>
       <c r="T8">
-        <v>25195.77382077552</v>
+        <v>25178.00551574759</v>
       </c>
       <c r="U8">
-        <v>1706.065429158318</v>
+        <v>1704.862295205833</v>
       </c>
       <c r="V8">
-        <v>122.8225775963102</v>
+        <v>122.7359619186742</v>
       </c>
       <c r="W8">
         <v>60986</v>
@@ -1514,28 +1514,28 @@
         <v>5136</v>
       </c>
       <c r="AH8">
-        <v>12594.28571068517</v>
+        <v>12649.32289790829</v>
       </c>
       <c r="AI8">
-        <v>-15861.0167353471</v>
+        <v>-15813.94115276607</v>
       </c>
       <c r="AJ8">
-        <v>28455.30244603229</v>
+        <v>28463.26405067436</v>
       </c>
       <c r="AK8">
-        <v>-47405.71428931483</v>
+        <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70725.0167353471</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>23319.30244603229</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-71711.0167353471</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
-        <v>139029.7142893148</v>
+        <v>138974.6771020917</v>
       </c>
       <c r="AP8">
         <v>252444.9</v>
@@ -1547,7 +1547,7 @@
         <v>0.169458761099947</v>
       </c>
       <c r="AS8">
-        <v>7.9353</v>
+        <v>7.9409</v>
       </c>
     </row>
     <row r="9">
@@ -1558,64 +1558,64 @@
         <v>87446</v>
       </c>
       <c r="C9">
-        <v>46564.48597672994</v>
+        <v>46565.54670958425</v>
       </c>
       <c r="D9">
         <v>39361</v>
       </c>
       <c r="E9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="F9">
-        <v>8646.556766687079</v>
+        <v>8640.524802036545</v>
       </c>
       <c r="G9">
-        <v>37917.92921004287</v>
+        <v>37925.0219075477</v>
       </c>
       <c r="H9">
-        <v>76957.35492957747</v>
+        <v>76903.66835154883</v>
       </c>
       <c r="I9">
-        <v>65852.72541334966</v>
+        <v>65806.78558752616</v>
       </c>
       <c r="J9">
-        <v>11104.6295162278</v>
+        <v>11096.88276402267</v>
       </c>
       <c r="K9">
-        <v>331.9935088793632</v>
+        <v>331.7619053447073</v>
       </c>
       <c r="L9">
-        <v>1520.514023270055</v>
+        <v>1519.453290415754</v>
       </c>
       <c r="M9">
-        <v>4880.893570116351</v>
+        <v>4877.488587269145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>70223.95382731171</v>
+        <v>70174.96456851922</v>
       </c>
       <c r="P9">
-        <v>44333.47299448868</v>
+        <v>44302.54531435495</v>
       </c>
       <c r="Q9">
-        <v>33240.53067973056</v>
+        <v>33217.34159863904</v>
       </c>
       <c r="R9">
-        <v>11092.94231475812</v>
+        <v>11085.20371571591</v>
       </c>
       <c r="S9">
-        <v>25890.48071034905</v>
+        <v>25872.41913177574</v>
       </c>
       <c r="T9">
-        <v>24617.59020208206</v>
+        <v>24600.41661057192</v>
       </c>
       <c r="U9">
-        <v>1261.20342927128</v>
+        <v>1260.323595285594</v>
       </c>
       <c r="V9">
-        <v>11.68720146968769</v>
+        <v>11.67904830675462</v>
       </c>
       <c r="W9">
         <v>60740</v>
@@ -1651,28 +1651,28 @@
         <v>5188</v>
       </c>
       <c r="AH9">
-        <v>10488.64507042253</v>
+        <v>10542.33164845117</v>
       </c>
       <c r="AI9">
-        <v>-17767.72541334966</v>
+        <v>-17721.78558752616</v>
       </c>
       <c r="AJ9">
-        <v>28256.3704837722</v>
+        <v>28264.11723597733</v>
       </c>
       <c r="AK9">
-        <v>-49411.35492957747</v>
+        <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72479.72541334966</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>23068.3704837722</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-73319.72541334966</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
-        <v>137697.3549295775</v>
+        <v>137643.6683515488</v>
       </c>
       <c r="AP9">
         <v>249666.78</v>
@@ -1684,7 +1684,7 @@
         <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
-        <v>8.164999999999999</v>
+        <v>8.1707</v>
       </c>
     </row>
     <row r="10">
@@ -1695,64 +1695,64 @@
         <v>89320</v>
       </c>
       <c r="C10">
-        <v>47849.01274229386</v>
+        <v>47850.0811599892</v>
       </c>
       <c r="D10">
         <v>39943</v>
       </c>
       <c r="E10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="F10">
-        <v>8670.700826162212</v>
+        <v>8664.637994062661</v>
       </c>
       <c r="G10">
-        <v>39178.31191613165</v>
+        <v>39185.44316592654</v>
       </c>
       <c r="H10">
-        <v>79586.61973214177</v>
+        <v>79530.97021516721</v>
       </c>
       <c r="I10">
-        <v>68301.73248548387</v>
+        <v>68253.9737235948</v>
       </c>
       <c r="J10">
-        <v>11284.88736941604</v>
+        <v>11276.99661424471</v>
       </c>
       <c r="K10">
-        <v>335.4784498103387</v>
+        <v>335.2438725189529</v>
       </c>
       <c r="L10">
-        <v>1527.987257706142</v>
+        <v>1526.918840010795</v>
       </c>
       <c r="M10">
-        <v>4897.168829255717</v>
+        <v>4893.744571751025</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>72825.98519536956</v>
+        <v>72775.06293088643</v>
       </c>
       <c r="P10">
-        <v>44702.7993763887</v>
+        <v>44671.54174538139</v>
       </c>
       <c r="Q10">
-        <v>33429.78910153325</v>
+        <v>33406.41392085184</v>
       </c>
       <c r="R10">
-        <v>11273.01039761358</v>
+        <v>11265.12794720185</v>
       </c>
       <c r="S10">
-        <v>28123.18581898086</v>
+        <v>28103.52118550504</v>
       </c>
       <c r="T10">
-        <v>26455.31100772148</v>
+        <v>26436.81260580486</v>
       </c>
       <c r="U10">
-        <v>1655.997839456918</v>
+        <v>1654.839912657327</v>
       </c>
       <c r="V10">
-        <v>11.87697180245762</v>
+        <v>11.8686670428617</v>
       </c>
       <c r="W10">
         <v>59940</v>
@@ -1788,28 +1788,28 @@
         <v>5202</v>
       </c>
       <c r="AH10">
-        <v>9733.380267858229</v>
+        <v>9789.02978483279</v>
       </c>
       <c r="AI10">
-        <v>-18924.73248548387</v>
+        <v>-18876.9737235948</v>
       </c>
       <c r="AJ10">
-        <v>28658.11263058396</v>
+        <v>28666.00338575529</v>
       </c>
       <c r="AK10">
-        <v>-49366.61973214177</v>
+        <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72822.73248548387</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>23456.11263058396</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-73662.73248548387</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
-        <v>139526.6197321418</v>
+        <v>139470.9702151672</v>
       </c>
       <c r="AP10">
         <v>251474.86</v>
@@ -1821,7 +1821,7 @@
         <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
-        <v>8.146100000000001</v>
+        <v>8.1518</v>
       </c>
     </row>
     <row r="11">
@@ -1832,64 +1832,64 @@
         <v>89540</v>
       </c>
       <c r="C11">
-        <v>48151.40566389269</v>
+        <v>48152.49065994762</v>
       </c>
       <c r="D11">
         <v>39855</v>
       </c>
       <c r="E11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="F11">
-        <v>8200.697304682648</v>
+        <v>8194.895428649448</v>
       </c>
       <c r="G11">
-        <v>39950.70835921004</v>
+        <v>39957.59523129818</v>
       </c>
       <c r="H11">
-        <v>79149.44143584647</v>
+        <v>79093.44433825265</v>
       </c>
       <c r="I11">
-        <v>68195.3418208918</v>
+        <v>68147.09459207865</v>
       </c>
       <c r="J11">
-        <v>10954.09961495467</v>
+        <v>10946.34974617399</v>
       </c>
       <c r="K11">
-        <v>338.0721649484536</v>
+        <v>337.8329837278291</v>
       </c>
       <c r="L11">
-        <v>1533.594336107316</v>
+        <v>1532.509340052379</v>
       </c>
       <c r="M11">
-        <v>4908.665880014905</v>
+        <v>4905.193069122594</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>72369.10905477581</v>
+        <v>72317.90894534985</v>
       </c>
       <c r="P11">
-        <v>43146.85504906223</v>
+        <v>43116.32926632493</v>
       </c>
       <c r="Q11">
-        <v>32327.04198236244</v>
+        <v>32304.17106259387</v>
       </c>
       <c r="R11">
-        <v>10819.81306669979</v>
+        <v>10812.15820373106</v>
       </c>
       <c r="S11">
-        <v>29222.25400571358</v>
+        <v>29201.57967902492</v>
       </c>
       <c r="T11">
-        <v>26855.37734442926</v>
+        <v>26836.37754912061</v>
       </c>
       <c r="U11">
-        <v>2232.590113029437</v>
+        <v>2231.010587461368</v>
       </c>
       <c r="V11">
-        <v>134.2865482548752</v>
+        <v>134.1915424429357</v>
       </c>
       <c r="W11">
         <v>60440</v>
@@ -1925,28 +1925,28 @@
         <v>5269</v>
       </c>
       <c r="AH11">
-        <v>10390.55856415353</v>
+        <v>10446.55566174735</v>
       </c>
       <c r="AI11">
-        <v>-18510.3418208918</v>
+        <v>-18462.09459207865</v>
       </c>
       <c r="AJ11">
-        <v>28900.90038504534</v>
+        <v>28908.65025382601</v>
       </c>
       <c r="AK11">
-        <v>-49209.44143584647</v>
+        <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72841.3418208918</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>23631.90038504534</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-73681.3418208918</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
-        <v>139589.4414358465</v>
+        <v>139533.4443382527</v>
       </c>
       <c r="AP11">
         <v>254225.71</v>
@@ -1958,7 +1958,7 @@
         <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
-        <v>8.051</v>
+        <v>8.056699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1969,64 +1969,64 @@
         <v>88676</v>
       </c>
       <c r="C12">
-        <v>46431.33823031125</v>
+        <v>46432.40058529035</v>
       </c>
       <c r="D12">
         <v>40730</v>
       </c>
       <c r="E12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="F12">
-        <v>8539.586983881118</v>
+        <v>8533.597479865528</v>
       </c>
       <c r="G12">
-        <v>37891.75124643013</v>
+        <v>37898.80310542482</v>
       </c>
       <c r="H12">
-        <v>76293.41921196572</v>
+        <v>76239.90845768737</v>
       </c>
       <c r="I12">
-        <v>65167.43949368314</v>
+        <v>65121.73229012988</v>
       </c>
       <c r="J12">
-        <v>11125.97971828259</v>
+        <v>11118.1761675575</v>
       </c>
       <c r="K12">
-        <v>333.6490149571615</v>
+        <v>333.4149998790722</v>
       </c>
       <c r="L12">
-        <v>1514.661769688755</v>
+        <v>1513.599414709653</v>
       </c>
       <c r="M12">
-        <v>4838.162786194878</v>
+        <v>4834.769390765957</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>69606.94564112493</v>
+        <v>69558.1246523327</v>
       </c>
       <c r="P12">
-        <v>42739.44237378382</v>
+        <v>42709.46574116623</v>
       </c>
       <c r="Q12">
-        <v>31883.23273149717</v>
+        <v>31860.87043800034</v>
       </c>
       <c r="R12">
-        <v>10856.20964228665</v>
+        <v>10848.59530316589</v>
       </c>
       <c r="S12">
-        <v>26867.50326734111</v>
+        <v>26848.65891116647</v>
       </c>
       <c r="T12">
-        <v>24978.27218161576</v>
+        <v>24960.7528962198</v>
       </c>
       <c r="U12">
-        <v>1619.461009729416</v>
+        <v>1618.325150555058</v>
       </c>
       <c r="V12">
-        <v>269.770075995934</v>
+        <v>269.5808643916125</v>
       </c>
       <c r="W12">
         <v>60640</v>
@@ -2062,28 +2062,28 @@
         <v>5152</v>
       </c>
       <c r="AH12">
-        <v>12382.58078803428</v>
+        <v>12436.09154231263</v>
       </c>
       <c r="AI12">
-        <v>-17221.43949368314</v>
+        <v>-17175.73229012988</v>
       </c>
       <c r="AJ12">
-        <v>29604.02028171741</v>
+        <v>29611.8238324425</v>
       </c>
       <c r="AK12">
-        <v>-47417.41921196572</v>
+        <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71869.43949368314</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>24452.02028171741</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-72709.43949368314</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
-        <v>136933.4192119657</v>
+        <v>136879.9084576874</v>
       </c>
       <c r="AP12">
         <v>253048.41</v>
@@ -2095,7 +2095,7 @@
         <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
-        <v>8.2636</v>
+        <v>8.269399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2106,64 +2106,64 @@
         <v>87850</v>
       </c>
       <c r="C13">
-        <v>45371.34075107717</v>
+        <v>45372.41632722959</v>
       </c>
       <c r="D13">
         <v>40936</v>
       </c>
       <c r="E13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="F13">
-        <v>8714.338156090873</v>
+        <v>8708.262326764767</v>
       </c>
       <c r="G13">
-        <v>36657.00259498629</v>
+        <v>36664.15400046482</v>
       </c>
       <c r="H13">
-        <v>76081.21597140617</v>
+        <v>76028.17046469243</v>
       </c>
       <c r="I13">
-        <v>65034.56093321581</v>
+        <v>64989.21739874988</v>
       </c>
       <c r="J13">
-        <v>11046.65516059538</v>
+        <v>11038.9531882622</v>
       </c>
       <c r="K13">
-        <v>341.5631120250685</v>
+        <v>341.3249666678898</v>
       </c>
       <c r="L13">
-        <v>1542.659248922836</v>
+        <v>1541.583672770418</v>
       </c>
       <c r="M13">
-        <v>4927.984356639247</v>
+        <v>4924.54845693736</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>69269.00925381902</v>
+        <v>69220.71336831676</v>
       </c>
       <c r="P13">
-        <v>43701.29553466509</v>
+        <v>43670.82602473304</v>
       </c>
       <c r="Q13">
-        <v>32771.75161574617</v>
+        <v>32748.90242559906</v>
       </c>
       <c r="R13">
-        <v>10929.54404132393</v>
+        <v>10921.92372145365</v>
       </c>
       <c r="S13">
-        <v>25567.71371915393</v>
+        <v>25549.88734358372</v>
       </c>
       <c r="T13">
-        <v>24359.49654817861</v>
+        <v>24342.51256834612</v>
       </c>
       <c r="U13">
-        <v>1091.106051703878</v>
+        <v>1090.345308429048</v>
       </c>
       <c r="V13">
-        <v>117.1111192714454</v>
+        <v>117.0294668085575</v>
       </c>
       <c r="W13">
         <v>61618</v>
@@ -2199,28 +2199,28 @@
         <v>5584</v>
       </c>
       <c r="AH13">
-        <v>11768.78402859383</v>
+        <v>11821.82953530757</v>
       </c>
       <c r="AI13">
-        <v>-18120.56093321581</v>
+        <v>-18075.21739874988</v>
       </c>
       <c r="AJ13">
-        <v>29889.34483940463</v>
+        <v>29897.0468117378</v>
       </c>
       <c r="AK13">
-        <v>-48931.21597140617</v>
+        <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73236.56093321581</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>24305.34483940463</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-74154.56093321581</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
-        <v>137699.2159714062</v>
+        <v>137646.1704646924</v>
       </c>
       <c r="AP13">
         <v>252907.94</v>
@@ -2232,7 +2232,7 @@
         <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
-        <v>8.169600000000001</v>
+        <v>8.1753</v>
       </c>
     </row>
     <row r="14">
@@ -2240,67 +2240,67 @@
         <v>44323</v>
       </c>
       <c r="B14">
-        <v>90326</v>
+        <v>90325.99999999999</v>
       </c>
       <c r="C14">
-        <v>47319.68341284758</v>
+        <v>47320.75757867617</v>
       </c>
       <c r="D14">
         <v>41468</v>
       </c>
       <c r="E14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="F14">
-        <v>8726.288130692497</v>
+        <v>8720.194794250077</v>
       </c>
       <c r="G14">
-        <v>38593.39528215508</v>
+        <v>38600.56278442609</v>
       </c>
       <c r="H14">
-        <v>78441.90195653221</v>
+        <v>78387.12804892729</v>
       </c>
       <c r="I14">
-        <v>66985.14216182353</v>
+        <v>66938.3682068816</v>
       </c>
       <c r="J14">
-        <v>11456.75979470869</v>
+        <v>11448.7598420457</v>
       </c>
       <c r="K14">
-        <v>339.0429376897499</v>
+        <v>338.8061929642917</v>
       </c>
       <c r="L14">
-        <v>1538.316587152427</v>
+        <v>1537.24242132383</v>
       </c>
       <c r="M14">
-        <v>4916.771119464122</v>
+        <v>4913.337868098529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>71647.77131222592</v>
+        <v>71597.74156654064</v>
       </c>
       <c r="P14">
-        <v>43704.02667341333</v>
+        <v>43673.50930630131</v>
       </c>
       <c r="Q14">
-        <v>32660.53503445617</v>
+        <v>32637.72904577303</v>
       </c>
       <c r="R14">
-        <v>11043.49163895716</v>
+        <v>11035.78026052828</v>
       </c>
       <c r="S14">
-        <v>27943.74451833647</v>
+        <v>27924.23213984734</v>
       </c>
       <c r="T14">
-        <v>25657.76179461231</v>
+        <v>25639.84565746069</v>
       </c>
       <c r="U14">
-        <v>1872.71468844875</v>
+        <v>1871.407021261226</v>
       </c>
       <c r="V14">
-        <v>413.2681557515301</v>
+        <v>412.9795815174207</v>
       </c>
       <c r="W14">
         <v>60359</v>
@@ -2336,40 +2336,40 @@
         <v>5566</v>
       </c>
       <c r="AH14">
-        <v>11884.09804346779</v>
+        <v>11938.8719510727</v>
       </c>
       <c r="AI14">
-        <v>-18127.14216182353</v>
+        <v>-18080.3682068816</v>
       </c>
       <c r="AJ14">
-        <v>30011.24020529131</v>
+        <v>30019.2401579543</v>
       </c>
       <c r="AK14">
-        <v>-47915.90195653221</v>
+        <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72361.14216182353</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>24445.24020529131</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-72920.14216182353</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
-        <v>138800.9019565322</v>
+        <v>138746.1280489273</v>
       </c>
       <c r="AP14">
         <v>254342.94</v>
       </c>
       <c r="AQ14">
-        <v>0.6620463653875961</v>
+        <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
         <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
-        <v>8.3004</v>
+        <v>8.306200000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2377,67 +2377,67 @@
         <v>44328</v>
       </c>
       <c r="B15">
-        <v>91974</v>
+        <v>91973.99999999999</v>
       </c>
       <c r="C15">
-        <v>48043.95064546124</v>
+        <v>48045.03345119287</v>
       </c>
       <c r="D15">
         <v>42383</v>
       </c>
       <c r="E15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="F15">
-        <v>8783.798379403204</v>
+        <v>8777.650451928996</v>
       </c>
       <c r="G15">
-        <v>39260.15226605804</v>
+        <v>39267.38299926388</v>
       </c>
       <c r="H15">
-        <v>79458.4395415957</v>
+        <v>79402.82525009957</v>
       </c>
       <c r="I15">
-        <v>67720.53653588376</v>
+        <v>67673.1377991239</v>
       </c>
       <c r="J15">
-        <v>11737.90300571194</v>
+        <v>11729.68745097566</v>
       </c>
       <c r="K15">
-        <v>342.2626767621877</v>
+        <v>342.0231213872833</v>
       </c>
       <c r="L15">
-        <v>1547.049354538758</v>
+        <v>1545.966548807125</v>
       </c>
       <c r="M15">
-        <v>4930.673960559841</v>
+        <v>4927.222899344733</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>72638.45354973491</v>
+        <v>72587.61268056043</v>
       </c>
       <c r="P15">
-        <v>44132.17295221533</v>
+        <v>44101.28410585638</v>
       </c>
       <c r="Q15">
-        <v>32817.67935852383</v>
+        <v>32794.70971556832</v>
       </c>
       <c r="R15">
-        <v>11314.49347293169</v>
+        <v>11306.57426961276</v>
       </c>
       <c r="S15">
-        <v>28506.28059751959</v>
+        <v>28486.32857470405</v>
       </c>
       <c r="T15">
-        <v>26477.85699622021</v>
+        <v>26459.32470102695</v>
       </c>
       <c r="U15">
-        <v>1605.014189278943</v>
+        <v>1603.890812989489</v>
       </c>
       <c r="V15">
-        <v>423.4095327802533</v>
+        <v>423.1131813629069</v>
       </c>
       <c r="W15">
         <v>60459</v>
@@ -2473,28 +2473,28 @@
         <v>5576</v>
       </c>
       <c r="AH15">
-        <v>12515.5604584043</v>
+        <v>12571.17474990041</v>
       </c>
       <c r="AI15">
-        <v>-18129.53653588376</v>
+        <v>-18082.1377991239</v>
       </c>
       <c r="AJ15">
-        <v>30645.09699428806</v>
+        <v>30653.31254902434</v>
       </c>
       <c r="AK15">
-        <v>-47384.4395415957</v>
+        <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72453.53653588376</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>25069.09699428806</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-73012.53653588376</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
-        <v>139917.4395415957</v>
+        <v>139861.8252500996</v>
       </c>
       <c r="AP15">
         <v>255106.93</v>
@@ -2506,7 +2506,7 @@
         <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
-        <v>8.280900000000001</v>
+        <v>8.2867</v>
       </c>
     </row>
     <row r="16">
@@ -2514,67 +2514,67 @@
         <v>44337</v>
       </c>
       <c r="B16">
-        <v>92447.00000000002</v>
+        <v>92447</v>
       </c>
       <c r="C16">
-        <v>47649.97142173861</v>
+        <v>47651.06276810572</v>
       </c>
       <c r="D16">
         <v>43249</v>
       </c>
       <c r="E16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="F16">
-        <v>8782.605763482005</v>
+        <v>8776.414104601561</v>
       </c>
       <c r="G16">
-        <v>38867.36565825661</v>
+        <v>38874.64866350417</v>
       </c>
       <c r="H16">
-        <v>79087.4731555662</v>
+        <v>79031.71719102869</v>
       </c>
       <c r="I16">
-        <v>67533.91139543227</v>
+        <v>67486.30058908578</v>
       </c>
       <c r="J16">
-        <v>11553.56176013392</v>
+        <v>11545.41660194291</v>
       </c>
       <c r="K16">
-        <v>342.6235800550042</v>
+        <v>342.3820334811027</v>
       </c>
       <c r="L16">
-        <v>1548.028578261389</v>
+        <v>1546.937231894275</v>
       </c>
       <c r="M16">
-        <v>4935.066124596437</v>
+        <v>4931.586946910586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>72261.75487265336</v>
+        <v>72210.81097874272</v>
       </c>
       <c r="P16">
-        <v>43990.07305990673</v>
+        <v>43959.06044999941</v>
       </c>
       <c r="Q16">
-        <v>32603.00478297262</v>
+        <v>32580.01995483278</v>
       </c>
       <c r="R16">
-        <v>11387.06827693412</v>
+        <v>11379.04049516663</v>
       </c>
       <c r="S16">
-        <v>28271.68181274662</v>
+        <v>28251.75052874332</v>
       </c>
       <c r="T16">
-        <v>26312.2378333134</v>
+        <v>26293.68793987262</v>
       </c>
       <c r="U16">
-        <v>1792.950496233409</v>
+        <v>1791.686482094421</v>
       </c>
       <c r="V16">
-        <v>166.4934831998087</v>
+        <v>166.3761067762789</v>
       </c>
       <c r="W16">
         <v>60759</v>
@@ -2610,40 +2610,40 @@
         <v>5676</v>
       </c>
       <c r="AH16">
-        <v>13359.52684443381</v>
+        <v>13415.28280897132</v>
       </c>
       <c r="AI16">
-        <v>-18335.91139543227</v>
+        <v>-18288.30058908578</v>
       </c>
       <c r="AJ16">
-        <v>31695.43823986608</v>
+        <v>31703.58339805709</v>
       </c>
       <c r="AK16">
-        <v>-46840.47315556619</v>
+        <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72859.91139543227</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>26019.43823986608</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-73418.91139543227</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
-        <v>139846.4731555662</v>
+        <v>139790.7171910287</v>
       </c>
       <c r="AP16">
         <v>255755.02</v>
       </c>
       <c r="AQ16">
-        <v>0.6511839215983211</v>
+        <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
         <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
-        <v>8.363</v>
+        <v>8.3689</v>
       </c>
     </row>
     <row r="17">
@@ -2654,64 +2654,64 @@
         <v>92604</v>
       </c>
       <c r="C17">
-        <v>47171.33264502041</v>
+        <v>47172.41693250951</v>
       </c>
       <c r="D17">
         <v>43883</v>
       </c>
       <c r="E17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="F17">
-        <v>8803.854077660686</v>
+        <v>8797.694104811262</v>
       </c>
       <c r="G17">
-        <v>38367.47856735972</v>
+        <v>38374.72282769825</v>
       </c>
       <c r="H17">
-        <v>80455.20684990031</v>
+        <v>80398.91310793025</v>
       </c>
       <c r="I17">
-        <v>68845.63775752396</v>
+        <v>68797.46712047723</v>
       </c>
       <c r="J17">
-        <v>11609.56909237634</v>
+        <v>11601.44598745301</v>
       </c>
       <c r="K17">
-        <v>422.0606664767873</v>
+        <v>421.765354648198</v>
       </c>
       <c r="L17">
-        <v>1549.667354979588</v>
+        <v>1548.583067490483</v>
       </c>
       <c r="M17">
-        <v>4874.411136428368</v>
+        <v>4871.000557380549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>73609.06769201557</v>
+        <v>73557.564128411</v>
       </c>
       <c r="P17">
-        <v>44113.0497009399</v>
+        <v>44082.1842202009</v>
       </c>
       <c r="Q17">
-        <v>32698.34816766354</v>
+        <v>32675.4694448727</v>
       </c>
       <c r="R17">
-        <v>11414.70153327637</v>
+        <v>11406.7147753282</v>
       </c>
       <c r="S17">
-        <v>29496.01799107567</v>
+        <v>29475.3799082101</v>
       </c>
       <c r="T17">
-        <v>27311.14283679863</v>
+        <v>27292.03349026956</v>
       </c>
       <c r="U17">
-        <v>1990.007595177063</v>
+        <v>1988.615205815733</v>
       </c>
       <c r="V17">
-        <v>194.8675590999715</v>
+        <v>194.7312121248058</v>
       </c>
       <c r="W17">
         <v>60559</v>
@@ -2747,28 +2747,28 @@
         <v>5845</v>
       </c>
       <c r="AH17">
-        <v>12148.79315009969</v>
+        <v>12205.08689206975</v>
       </c>
       <c r="AI17">
-        <v>-20124.63775752396</v>
+        <v>-20076.46712047723</v>
       </c>
       <c r="AJ17">
-        <v>32273.43090762366</v>
+        <v>32281.55401254699</v>
       </c>
       <c r="AK17">
-        <v>-47851.20684990031</v>
+        <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74279.63775752396</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>26428.43090762366</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-74838.63775752396</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
-        <v>141014.2068499003</v>
+        <v>140957.9131079303</v>
       </c>
       <c r="AP17">
         <v>256544.5</v>
@@ -2780,7 +2780,7 @@
         <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
-        <v>8.426399999999999</v>
+        <v>8.4323</v>
       </c>
     </row>
     <row r="18">
@@ -2788,67 +2788,67 @@
         <v>44351</v>
       </c>
       <c r="B18">
-        <v>93686</v>
+        <v>93686.00000000002</v>
       </c>
       <c r="C18">
-        <v>48089.41996727437</v>
+        <v>48090.49747770523</v>
       </c>
       <c r="D18">
         <v>44048</v>
       </c>
       <c r="E18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="F18">
-        <v>8811.173132492369</v>
+        <v>8805.042270181257</v>
       </c>
       <c r="G18">
-        <v>39278.246834782</v>
+        <v>39285.45520752398</v>
       </c>
       <c r="H18">
-        <v>79203.26606398904</v>
+        <v>79148.15599958252</v>
       </c>
       <c r="I18">
-        <v>67385.55883069709</v>
+        <v>67338.67159142304</v>
       </c>
       <c r="J18">
-        <v>11817.70711724362</v>
+        <v>11809.4842921919</v>
       </c>
       <c r="K18">
-        <v>341.3431432848638</v>
+        <v>341.1056348644919</v>
       </c>
       <c r="L18">
-        <v>1548.580032725627</v>
+        <v>1547.502522294766</v>
       </c>
       <c r="M18">
-        <v>4875.463787120957</v>
+        <v>4872.071412832972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>72437.87910085759</v>
+        <v>72387.47642959029</v>
       </c>
       <c r="P18">
-        <v>44082.47507862274</v>
+        <v>44051.80225209031</v>
       </c>
       <c r="Q18">
-        <v>32685.28576899421</v>
+        <v>32662.54316892997</v>
       </c>
       <c r="R18">
-        <v>11397.18930962853</v>
+        <v>11389.25908316035</v>
       </c>
       <c r="S18">
-        <v>28355.40390618653</v>
+        <v>28335.67406153239</v>
       </c>
       <c r="T18">
-        <v>26425.46935744044</v>
+        <v>26407.08237176885</v>
       </c>
       <c r="U18">
-        <v>1509.416741131007</v>
+        <v>1508.366480731987</v>
       </c>
       <c r="V18">
-        <v>420.5178076150909</v>
+        <v>420.2252090315548</v>
       </c>
       <c r="W18">
         <v>62406</v>
@@ -2884,40 +2884,40 @@
         <v>5869</v>
       </c>
       <c r="AH18">
-        <v>14482.73393601096</v>
+        <v>14537.84400041749</v>
       </c>
       <c r="AI18">
-        <v>-17747.55883069709</v>
+        <v>-17700.67159142304</v>
       </c>
       <c r="AJ18">
-        <v>32230.29288275638</v>
+        <v>32238.5157078081</v>
       </c>
       <c r="AK18">
-        <v>-47617.26606398904</v>
+        <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73978.55883069709</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>26361.29288275638</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-74284.55883069709</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
-        <v>141609.266063989</v>
+        <v>141554.1559995825</v>
       </c>
       <c r="AP18">
         <v>255203</v>
       </c>
       <c r="AQ18">
-        <v>0.6628525073116581</v>
+        <v>0.662852507311658</v>
       </c>
       <c r="AR18">
         <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
-        <v>8.617100000000001</v>
+        <v>8.623100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2928,64 +2928,64 @@
         <v>94866</v>
       </c>
       <c r="C19">
-        <v>50165.56985009501</v>
+        <v>50166.64000797065</v>
       </c>
       <c r="D19">
         <v>43153</v>
       </c>
       <c r="E19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="F19">
-        <v>8802.646679334694</v>
+        <v>8796.559023829897</v>
       </c>
       <c r="G19">
-        <v>41362.92317076032</v>
+        <v>41370.08098414075</v>
       </c>
       <c r="H19">
-        <v>80150.16961081006</v>
+        <v>80094.74007478345</v>
       </c>
       <c r="I19">
-        <v>68568.60440565839</v>
+        <v>68521.18434470714</v>
       </c>
       <c r="J19">
-        <v>11581.56520515166</v>
+        <v>11573.55573007631</v>
       </c>
       <c r="K19">
-        <v>339.2421469960354</v>
+        <v>339.0075369521644</v>
       </c>
       <c r="L19">
-        <v>1547.43014990499</v>
+        <v>1546.359992029351</v>
       </c>
       <c r="M19">
-        <v>4873.284068782697</v>
+        <v>4869.913846658775</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>73390.21324512633</v>
+        <v>73339.45869914316</v>
       </c>
       <c r="P19">
-        <v>43672.9169305839</v>
+        <v>43642.71400607177</v>
       </c>
       <c r="Q19">
-        <v>32891.98512679757</v>
+        <v>32869.23798248802</v>
       </c>
       <c r="R19">
-        <v>10780.93180378633</v>
+        <v>10773.47602358375</v>
       </c>
       <c r="S19">
-        <v>29717.29631454243</v>
+        <v>29696.7446930714</v>
       </c>
       <c r="T19">
-        <v>27345.11999436977</v>
+        <v>27326.20890133977</v>
       </c>
       <c r="U19">
-        <v>1571.542918807329</v>
+        <v>1570.456085239061</v>
       </c>
       <c r="V19">
-        <v>800.6334013653319</v>
+        <v>800.0797064925628</v>
       </c>
       <c r="W19">
         <v>63212</v>
@@ -3021,28 +3021,28 @@
         <v>5961</v>
       </c>
       <c r="AH19">
-        <v>14715.83038918994</v>
+        <v>14771.25992521655</v>
       </c>
       <c r="AI19">
-        <v>-16855.60440565839</v>
+        <v>-16808.18434470714</v>
       </c>
       <c r="AJ19">
-        <v>31571.43479484833</v>
+        <v>31579.44426992369</v>
       </c>
       <c r="AK19">
-        <v>-48190.16961081006</v>
+        <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73800.60440565839</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>25610.43479484833</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-74106.60440565839</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
-        <v>143362.1696108101</v>
+        <v>143306.7400747835</v>
       </c>
       <c r="AP19">
         <v>256184.83</v>
@@ -3054,7 +3054,7 @@
         <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
-        <v>8.525399999999999</v>
+        <v>8.5313</v>
       </c>
     </row>
     <row r="20">
@@ -3065,64 +3065,64 @@
         <v>97322</v>
       </c>
       <c r="C20">
-        <v>54489.08041122276</v>
+        <v>54490.16606565171</v>
       </c>
       <c r="D20">
         <v>41298</v>
       </c>
       <c r="E20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="F20">
-        <v>8726.340999280592</v>
+        <v>8720.168825295967</v>
       </c>
       <c r="G20">
-        <v>45762.73941194217</v>
+        <v>45769.99724035574</v>
       </c>
       <c r="H20">
-        <v>79069.06581420713</v>
+        <v>79013.13996498268</v>
       </c>
       <c r="I20">
-        <v>68091.49427954792</v>
+        <v>68043.33290817805</v>
       </c>
       <c r="J20">
-        <v>10977.5714186257</v>
+        <v>10969.80694085317</v>
       </c>
       <c r="K20">
-        <v>334.126035599081</v>
+        <v>333.8897069907123</v>
       </c>
       <c r="L20">
-        <v>1534.919588777239</v>
+        <v>1533.833934348295</v>
       </c>
       <c r="M20">
-        <v>4848.980877677473</v>
+        <v>4845.551175167841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>72351.03931215334</v>
+        <v>72299.86514847583</v>
       </c>
       <c r="P20">
-        <v>42956.26592559931</v>
+        <v>42925.88279628492</v>
       </c>
       <c r="Q20">
-        <v>32606.23656912116</v>
+        <v>32583.17405470589</v>
       </c>
       <c r="R20">
-        <v>10350.02935647815</v>
+        <v>10342.70874157903</v>
       </c>
       <c r="S20">
-        <v>29394.77338655404</v>
+        <v>29373.98235219091</v>
       </c>
       <c r="T20">
-        <v>26702.84699821308</v>
+        <v>26683.95997356307</v>
       </c>
       <c r="U20">
-        <v>2064.384210159894</v>
+        <v>2062.924063402247</v>
       </c>
       <c r="V20">
-        <v>627.5420621475481</v>
+        <v>627.098199274144</v>
       </c>
       <c r="W20">
         <v>66718</v>
@@ -3158,28 +3158,28 @@
         <v>5925</v>
       </c>
       <c r="AH20">
-        <v>18252.93418579287</v>
+        <v>18308.86003501732</v>
       </c>
       <c r="AI20">
-        <v>-12067.49427954792</v>
+        <v>-12019.33290817805</v>
       </c>
       <c r="AJ20">
-        <v>30320.4285813743</v>
+        <v>30328.19305914683</v>
       </c>
       <c r="AK20">
-        <v>-48159.06581420713</v>
+        <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72554.49427954792</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>24395.4285813743</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-72860.49427954792</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
-        <v>145787.0658142071</v>
+        <v>145731.1399649827</v>
       </c>
       <c r="AP20">
         <v>253584.57</v>
@@ -3191,7 +3191,7 @@
         <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
-        <v>8.6182</v>
+        <v>8.6243</v>
       </c>
     </row>
     <row r="21">
@@ -3202,64 +3202,64 @@
         <v>100158</v>
       </c>
       <c r="C21">
-        <v>57707.03511954976</v>
+        <v>57708.09730578684</v>
       </c>
       <c r="D21">
         <v>40918</v>
       </c>
       <c r="E21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="F21">
-        <v>8707.552032172698</v>
+        <v>8701.518598501034</v>
       </c>
       <c r="G21">
-        <v>48999.48308737707</v>
+        <v>49006.57870728581</v>
       </c>
       <c r="H21">
-        <v>79441.7629112593</v>
+        <v>79386.71797951337</v>
       </c>
       <c r="I21">
-        <v>68214.6851490183</v>
+        <v>68167.41942189324</v>
       </c>
       <c r="J21">
-        <v>11227.077762241</v>
+        <v>11219.29855762013</v>
       </c>
       <c r="K21">
-        <v>332.0097535044434</v>
+        <v>331.7797050569908</v>
       </c>
       <c r="L21">
-        <v>1532.964880450233</v>
+        <v>1531.902694213158</v>
       </c>
       <c r="M21">
-        <v>4905.702679902465</v>
+        <v>4902.303534927766</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>72671.08559740215</v>
+        <v>72620.73204531545</v>
       </c>
       <c r="P21">
-        <v>43134.81585060035</v>
+        <v>43104.92788100655</v>
       </c>
       <c r="Q21">
-        <v>32922.89993412918</v>
+        <v>32900.08776690957</v>
       </c>
       <c r="R21">
-        <v>10211.91591647118</v>
+        <v>10204.84011409698</v>
       </c>
       <c r="S21">
-        <v>29536.2697468018</v>
+        <v>29515.8041643089</v>
       </c>
       <c r="T21">
-        <v>26357.86832769002</v>
+        <v>26339.60504890696</v>
       </c>
       <c r="U21">
-        <v>2163.239573341962</v>
+        <v>2161.740671878789</v>
       </c>
       <c r="V21">
-        <v>1015.161845769822</v>
+        <v>1014.458443523149</v>
       </c>
       <c r="W21">
         <v>66547</v>
@@ -3295,28 +3295,28 @@
         <v>5616</v>
       </c>
       <c r="AH21">
-        <v>20716.2370887407</v>
+        <v>20771.28202048663</v>
       </c>
       <c r="AI21">
-        <v>-8974.685149018304</v>
+        <v>-8927.419421893239</v>
       </c>
       <c r="AJ21">
-        <v>29690.92223775901</v>
+        <v>29698.70144237987</v>
       </c>
       <c r="AK21">
-        <v>-45524.7629112593</v>
+        <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69599.6851490183</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>24074.92223775901</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-69905.6851490183</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
-        <v>145988.7629112593</v>
+        <v>145933.7179795134</v>
       </c>
       <c r="AP21">
         <v>254374.84</v>
@@ -3328,7 +3328,7 @@
         <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
-        <v>8.6533</v>
+        <v>8.6593</v>
       </c>
     </row>
     <row r="22">
@@ -3339,64 +3339,64 @@
         <v>100213</v>
       </c>
       <c r="C22">
-        <v>58090.10075311105</v>
+        <v>58091.17490319011</v>
       </c>
       <c r="D22">
         <v>40595</v>
       </c>
       <c r="E22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="F22">
-        <v>8381.990496730366</v>
+        <v>8376.097754932694</v>
       </c>
       <c r="G22">
-        <v>49708.11025638069</v>
+        <v>49715.07714825742</v>
       </c>
       <c r="H22">
-        <v>79982.47315672321</v>
+        <v>79926.24354600777</v>
       </c>
       <c r="I22">
-        <v>69028.85672437056</v>
+        <v>68980.32777060669</v>
       </c>
       <c r="J22">
-        <v>10953.61608635981</v>
+        <v>10945.91542965148</v>
       </c>
       <c r="K22">
-        <v>329.2706471219163</v>
+        <v>329.0391619030057</v>
       </c>
       <c r="L22">
-        <v>1527.899246888948</v>
+        <v>1526.825096809884</v>
       </c>
       <c r="M22">
-        <v>4898.285836206996</v>
+        <v>4894.842222939333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>73227.01742650535</v>
+        <v>73175.53706435554</v>
       </c>
       <c r="P22">
-        <v>42994.79027068172</v>
+        <v>42964.56389452333</v>
       </c>
       <c r="Q22">
-        <v>32818.33681248342</v>
+        <v>32795.26472893233</v>
       </c>
       <c r="R22">
-        <v>10176.45334286736</v>
+        <v>10169.29905034114</v>
       </c>
       <c r="S22">
-        <v>30232.22704049269</v>
+        <v>30210.97305458234</v>
       </c>
       <c r="T22">
-        <v>27709.17826703726</v>
+        <v>27689.69804536235</v>
       </c>
       <c r="U22">
-        <v>1745.885914632037</v>
+        <v>1744.658514659783</v>
       </c>
       <c r="V22">
-        <v>777.1627434924516</v>
+        <v>776.6163793103449</v>
       </c>
       <c r="W22">
         <v>65478</v>
@@ -3432,28 +3432,28 @@
         <v>5561</v>
       </c>
       <c r="AH22">
-        <v>20230.52684327679</v>
+        <v>20286.75645399223</v>
       </c>
       <c r="AI22">
-        <v>-9410.856724370562</v>
+        <v>-9362.327770606687</v>
       </c>
       <c r="AJ22">
-        <v>29641.38391364019</v>
+        <v>29649.08457034852</v>
       </c>
       <c r="AK22">
-        <v>-45013.47315672321</v>
+        <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69093.85672437056</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>24080.38391364019</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-69327.85672437056</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
-        <v>145460.4731567232</v>
+        <v>145404.2435460078</v>
       </c>
       <c r="AP22">
         <v>253485.21</v>
@@ -3465,7 +3465,7 @@
         <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
-        <v>8.6707</v>
+        <v>8.6768</v>
       </c>
     </row>
     <row r="23">
@@ -3476,64 +3476,64 @@
         <v>104068</v>
       </c>
       <c r="C23">
-        <v>61054.61430529796</v>
+        <v>61055.66928753151</v>
       </c>
       <c r="D23">
         <v>41486</v>
       </c>
       <c r="E23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="F23">
-        <v>8365.100625525591</v>
+        <v>8359.322757779133</v>
       </c>
       <c r="G23">
-        <v>52689.51367977237</v>
+        <v>52696.34652975238</v>
       </c>
       <c r="H23">
-        <v>81018.59815452668</v>
+        <v>80962.63771052298</v>
       </c>
       <c r="I23">
-        <v>69470.99865218242</v>
+        <v>69423.01426318394</v>
       </c>
       <c r="J23">
-        <v>11547.5993871462</v>
+        <v>11539.62333222052</v>
       </c>
       <c r="K23">
-        <v>325.0074302763602</v>
+        <v>324.7829440408901</v>
       </c>
       <c r="L23">
-        <v>1527.38569470204</v>
+        <v>1526.330712468486</v>
       </c>
       <c r="M23">
-        <v>4894.126280138698</v>
+        <v>4890.745852855514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74272.0787494096</v>
+        <v>74220.77820115809</v>
       </c>
       <c r="P23">
-        <v>43737.59604640178</v>
+        <v>43707.386003891</v>
       </c>
       <c r="Q23">
-        <v>33039.40638427776</v>
+        <v>33016.58569997812</v>
       </c>
       <c r="R23">
-        <v>10698.18954692594</v>
+        <v>10690.80018879436</v>
       </c>
       <c r="S23">
-        <v>30534.48270300782</v>
+        <v>30513.39219726708</v>
       </c>
       <c r="T23">
-        <v>28097.79476309514</v>
+        <v>28078.38730473022</v>
       </c>
       <c r="U23">
-        <v>1587.278099692421</v>
+        <v>1586.181749110709</v>
       </c>
       <c r="V23">
-        <v>849.4098402202586</v>
+        <v>848.8231434261571</v>
       </c>
       <c r="W23">
         <v>65540</v>
@@ -3569,28 +3569,28 @@
         <v>5508</v>
       </c>
       <c r="AH23">
-        <v>23049.40184547332</v>
+        <v>23105.36228947702</v>
       </c>
       <c r="AI23">
-        <v>-6888.998652182418</v>
+        <v>-6841.014263183941</v>
       </c>
       <c r="AJ23">
-        <v>29938.4006128538</v>
+        <v>29946.37666777948</v>
       </c>
       <c r="AK23">
-        <v>-42256.59815452668</v>
+        <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66686.99865218242</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>24430.4006128538</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-66920.99865218242</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
-        <v>146558.5981545267</v>
+        <v>146502.637710523</v>
       </c>
       <c r="AP23">
         <v>255865.25</v>
@@ -3602,7 +3602,7 @@
         <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
-        <v>8.6807</v>
+        <v>8.6867</v>
       </c>
     </row>
     <row r="24">
@@ -3613,64 +3613,64 @@
         <v>104886</v>
       </c>
       <c r="C24">
-        <v>61352.56390086332</v>
+        <v>61353.62733532274</v>
       </c>
       <c r="D24">
         <v>42007</v>
       </c>
       <c r="E24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="F24">
-        <v>8394.448253023948</v>
+        <v>8388.600025544862</v>
       </c>
       <c r="G24">
-        <v>52958.11564783938</v>
+        <v>52965.02730977788</v>
       </c>
       <c r="H24">
-        <v>80952.81688995272</v>
+        <v>80896.41884281785</v>
       </c>
       <c r="I24">
-        <v>69163.31652394177</v>
+        <v>69115.13196242585</v>
       </c>
       <c r="J24">
-        <v>11789.50036601095</v>
+        <v>11781.286880392</v>
       </c>
       <c r="K24">
-        <v>322.7428744059585</v>
+        <v>322.5180265434321</v>
       </c>
       <c r="L24">
-        <v>1526.436099136679</v>
+        <v>1525.372664677264</v>
       </c>
       <c r="M24">
-        <v>4885.32458780196</v>
+        <v>4881.921089604403</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>74218.31332860811</v>
+        <v>74166.60706199273</v>
       </c>
       <c r="P24">
-        <v>43821.3616769111</v>
+        <v>43790.83229799241</v>
       </c>
       <c r="Q24">
-        <v>32994.56967570269</v>
+        <v>32971.58308465799</v>
       </c>
       <c r="R24">
-        <v>10826.79211740237</v>
+        <v>10819.24932944742</v>
       </c>
       <c r="S24">
-        <v>30396.95153550306</v>
+        <v>30375.77464788733</v>
       </c>
       <c r="T24">
-        <v>27874.85713953732</v>
+        <v>27855.43733961892</v>
       </c>
       <c r="U24">
-        <v>1559.386147357169</v>
+        <v>1558.299757323828</v>
       </c>
       <c r="V24">
-        <v>962.7082486085775</v>
+        <v>962.0375509445794</v>
       </c>
       <c r="W24">
         <v>65788</v>
@@ -3706,28 +3706,28 @@
         <v>5525</v>
       </c>
       <c r="AH24">
-        <v>23933.18311004728</v>
+        <v>23989.58115718215</v>
       </c>
       <c r="AI24">
-        <v>-6284.316523941772</v>
+        <v>-6236.131962425847</v>
       </c>
       <c r="AJ24">
-        <v>30217.49963398905</v>
+        <v>30225.713119608</v>
       </c>
       <c r="AK24">
-        <v>-41620.81688995272</v>
+        <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66313.31652394177</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>24692.49963398905</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-66547.31652394177</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
-        <v>146740.8168899527</v>
+        <v>146684.4188428178</v>
       </c>
       <c r="AP24">
         <v>257375.94</v>
@@ -3739,7 +3739,7 @@
         <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
-        <v>8.606299999999999</v>
+        <v>8.612299999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3750,64 +3750,64 @@
         <v>104439</v>
       </c>
       <c r="C25">
-        <v>61133.74509342772</v>
+        <v>61134.82190154996</v>
       </c>
       <c r="D25">
         <v>41778</v>
       </c>
       <c r="E25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="F25">
-        <v>8392.149837133551</v>
+        <v>8386.232858200448</v>
       </c>
       <c r="G25">
-        <v>52741.59525629417</v>
+        <v>52748.58904334951</v>
       </c>
       <c r="H25">
-        <v>80846.41388069005</v>
+        <v>80789.41221400957</v>
       </c>
       <c r="I25">
-        <v>69121.16828749164</v>
+        <v>69072.43363611795</v>
       </c>
       <c r="J25">
-        <v>11725.24559319842</v>
+        <v>11716.97857789163</v>
       </c>
       <c r="K25">
-        <v>323.1199802443585</v>
+        <v>322.8921608949577</v>
       </c>
       <c r="L25">
-        <v>1527.254906572279</v>
+        <v>1526.178098450041</v>
       </c>
       <c r="M25">
-        <v>4887.070520584673</v>
+        <v>4883.624836954606</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>74108.96847328873</v>
+        <v>74056.71711770997</v>
       </c>
       <c r="P25">
-        <v>43783.78814426322</v>
+        <v>43752.91789562745</v>
       </c>
       <c r="Q25">
-        <v>33016.00395112831</v>
+        <v>32992.72564895005</v>
       </c>
       <c r="R25">
-        <v>10767.78419313492</v>
+        <v>10760.1922466774</v>
       </c>
       <c r="S25">
-        <v>30325.1802114324</v>
+        <v>30303.79910457233</v>
       </c>
       <c r="T25">
-        <v>27865.41069391691</v>
+        <v>27845.76387501616</v>
       </c>
       <c r="U25">
-        <v>1502.308235045097</v>
+        <v>1501.249015852125</v>
       </c>
       <c r="V25">
-        <v>957.4614000635003</v>
+        <v>956.7863312142329</v>
       </c>
       <c r="W25">
         <v>65634</v>
@@ -3843,28 +3843,28 @@
         <v>5525</v>
       </c>
       <c r="AH25">
-        <v>23592.58611930996</v>
+        <v>23649.58778599043</v>
       </c>
       <c r="AI25">
-        <v>-6460.168287491644</v>
+        <v>-6411.433636117945</v>
       </c>
       <c r="AJ25">
-        <v>30052.75440680159</v>
+        <v>30061.02142210837</v>
       </c>
       <c r="AK25">
-        <v>-41807.41388069005</v>
+        <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66335.16828749164</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>24527.75440680159</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-66569.16828749164</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
-        <v>146480.4138806901</v>
+        <v>146423.4122140096</v>
       </c>
       <c r="AP25">
         <v>257881.61</v>
@@ -3876,7 +3876,7 @@
         <v>0.173610673517976</v>
       </c>
       <c r="AS25">
-        <v>8.5039</v>
+        <v>8.5099</v>
       </c>
     </row>
     <row r="26">
@@ -3887,64 +3887,64 @@
         <v>105720</v>
       </c>
       <c r="C26">
-        <v>62596.56469923219</v>
+        <v>62597.62800823772</v>
       </c>
       <c r="D26">
         <v>41592</v>
       </c>
       <c r="E26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="F26">
-        <v>8435.71717933016</v>
+        <v>8429.860076493087</v>
       </c>
       <c r="G26">
-        <v>54160.84751990203</v>
+        <v>54167.76793174463</v>
       </c>
       <c r="H26">
-        <v>81304.99564275284</v>
+        <v>81248.54380700206</v>
       </c>
       <c r="I26">
-        <v>69789.99740920439</v>
+        <v>69741.54068843779</v>
       </c>
       <c r="J26">
-        <v>11514.99811578501</v>
+        <v>11507.00300088261</v>
       </c>
       <c r="K26">
-        <v>322.4311083894672</v>
+        <v>322.2072374227714</v>
       </c>
       <c r="L26">
-        <v>1531.435300767818</v>
+        <v>1530.371991762283</v>
       </c>
       <c r="M26">
-        <v>4817.099133261105</v>
+        <v>4813.754516034128</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>74634.03010033445</v>
+        <v>74582.21006178288</v>
       </c>
       <c r="P26">
-        <v>44084.38103537614</v>
+        <v>44053.77228596646</v>
       </c>
       <c r="Q26">
-        <v>33371.32107023411</v>
+        <v>33348.15063253899</v>
       </c>
       <c r="R26">
-        <v>10713.05996514202</v>
+        <v>10705.62165342748</v>
       </c>
       <c r="S26">
-        <v>30549.64894719487</v>
+        <v>30528.43765813475</v>
       </c>
       <c r="T26">
-        <v>27845.73990767347</v>
+        <v>27826.40600176523</v>
       </c>
       <c r="U26">
-        <v>1901.970888878421</v>
+        <v>1900.650308914387</v>
       </c>
       <c r="V26">
-        <v>801.9381506429884</v>
+        <v>801.3813474551339</v>
       </c>
       <c r="W26">
         <v>66231</v>
@@ -3980,28 +3980,28 @@
         <v>5537</v>
       </c>
       <c r="AH26">
-        <v>24415.00435724716</v>
+        <v>24471.45619299794</v>
       </c>
       <c r="AI26">
-        <v>-5661.997409204385</v>
+        <v>-5613.540688437788</v>
       </c>
       <c r="AJ26">
-        <v>30077.00188421499</v>
+        <v>30084.99699911739</v>
       </c>
       <c r="AK26">
-        <v>-41581.99564275284</v>
+        <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66121.99740920439</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>24540.00188421499</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-66355.99740920439</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
-        <v>147535.9956427529</v>
+        <v>147479.5438070021</v>
       </c>
       <c r="AP26">
         <v>260058.77</v>
@@ -4013,7 +4013,7 @@
         <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
-        <v>8.4916</v>
+        <v>8.497500000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4024,64 +4024,64 @@
         <v>109009</v>
       </c>
       <c r="C27">
-        <v>66204.631346682</v>
+        <v>66205.7082873965</v>
       </c>
       <c r="D27">
         <v>41274</v>
       </c>
       <c r="E27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="F27">
-        <v>8337.949813384661</v>
+        <v>8332.08228753724</v>
       </c>
       <c r="G27">
-        <v>57866.68153329734</v>
+        <v>57873.62599985926</v>
       </c>
       <c r="H27">
-        <v>84030.8419990141</v>
+        <v>83971.70838122495</v>
       </c>
       <c r="I27">
-        <v>72623.24569845777</v>
+        <v>72572.13975745351</v>
       </c>
       <c r="J27">
-        <v>11407.59630055632</v>
+        <v>11399.56862377143</v>
       </c>
       <c r="K27">
-        <v>317.848759418793</v>
+        <v>317.625085032019</v>
       </c>
       <c r="L27">
-        <v>1530.368653317997</v>
+        <v>1529.291712603505</v>
       </c>
       <c r="M27">
-        <v>4814.203539823008</v>
+        <v>4810.815720954236</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>77368.4210464543</v>
+        <v>77313.97586263518</v>
       </c>
       <c r="P27">
-        <v>47229.02654867256</v>
+        <v>47195.79085641904</v>
       </c>
       <c r="Q27">
-        <v>36354.30236379428</v>
+        <v>36328.71935915179</v>
       </c>
       <c r="R27">
-        <v>10874.72406751015</v>
+        <v>10867.0713799817</v>
       </c>
       <c r="S27">
-        <v>30139.39461514988</v>
+        <v>30118.18512350168</v>
       </c>
       <c r="T27">
-        <v>28064.26703598507</v>
+        <v>28044.51783913115</v>
       </c>
       <c r="U27">
-        <v>1542.255346118636</v>
+        <v>1541.170040580798</v>
       </c>
       <c r="V27">
-        <v>532.8722330461726</v>
+        <v>532.4972437897305</v>
       </c>
       <c r="W27">
         <v>66549</v>
@@ -4117,28 +4117,28 @@
         <v>5525</v>
       </c>
       <c r="AH27">
-        <v>24978.1580009859</v>
+        <v>25037.29161877505</v>
       </c>
       <c r="AI27">
-        <v>-4888.245698457773</v>
+        <v>-4837.139757453508</v>
       </c>
       <c r="AJ27">
-        <v>29866.40369944368</v>
+        <v>29874.43137622857</v>
       </c>
       <c r="AK27">
-        <v>-41418.8419990141</v>
+        <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65760.24569845777</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>24341.40369944368</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-65912.24569845777</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
-        <v>150579.8419990141</v>
+        <v>150520.708381225</v>
       </c>
       <c r="AP27">
         <v>260522.54</v>
@@ -4150,7 +4150,7 @@
         <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
-        <v>8.520200000000001</v>
+        <v>8.526199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4161,64 +4161,64 @@
         <v>107098</v>
       </c>
       <c r="C28">
-        <v>65831.7284942157</v>
+        <v>65832.79537580346</v>
       </c>
       <c r="D28">
         <v>39742</v>
       </c>
       <c r="E28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="F28">
-        <v>8256.618843608092</v>
+        <v>8250.839797953873</v>
       </c>
       <c r="G28">
-        <v>57575.10965060761</v>
+        <v>57581.95557784959</v>
       </c>
       <c r="H28">
-        <v>83183.13635992202</v>
+        <v>83124.91408373482</v>
       </c>
       <c r="I28">
-        <v>72283.05908034975</v>
+        <v>72232.46608261493</v>
       </c>
       <c r="J28">
-        <v>10900.07739630879</v>
+        <v>10892.44811777469</v>
       </c>
       <c r="K28">
-        <v>312.8811739023849</v>
+        <v>312.6621793450999</v>
       </c>
       <c r="L28">
-        <v>1524.271505784295</v>
+        <v>1523.20462419654</v>
       </c>
       <c r="M28">
-        <v>4885.042083513303</v>
+        <v>4881.622901671663</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>76460.94159672204</v>
+        <v>76407.42437852151</v>
       </c>
       <c r="P28">
-        <v>46749.24424780827</v>
+        <v>46716.52310348448</v>
       </c>
       <c r="Q28">
-        <v>36208.99139651892</v>
+        <v>36183.64767915262</v>
       </c>
       <c r="R28">
-        <v>10540.25285128936</v>
+        <v>10532.87542433186</v>
       </c>
       <c r="S28">
-        <v>29711.69746565028</v>
+        <v>29690.90139169184</v>
       </c>
       <c r="T28">
-        <v>27787.51573024526</v>
+        <v>27768.06644657793</v>
       </c>
       <c r="U28">
-        <v>1564.357190385581</v>
+        <v>1563.26225167108</v>
       </c>
       <c r="V28">
-        <v>359.8245450194366</v>
+        <v>359.5726934428333</v>
       </c>
       <c r="W28">
         <v>65610</v>
@@ -4254,28 +4254,28 @@
         <v>5428</v>
       </c>
       <c r="AH28">
-        <v>23914.86364007798</v>
+        <v>23973.08591626518</v>
       </c>
       <c r="AI28">
-        <v>-4927.059080349747</v>
+        <v>-4876.466082614934</v>
       </c>
       <c r="AJ28">
-        <v>28841.92260369121</v>
+        <v>28849.55188222531</v>
       </c>
       <c r="AK28">
-        <v>-41543.13635992202</v>
+        <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64957.05908034975</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>23413.92260369121</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-65109.05908034975</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
-        <v>148793.136359922</v>
+        <v>148734.9140837348</v>
       </c>
       <c r="AP28">
         <v>261539.46</v>
@@ -4287,7 +4287,7 @@
         <v>0.171465521875743</v>
       </c>
       <c r="AS28">
-        <v>8.5663</v>
+        <v>8.5723</v>
       </c>
     </row>
     <row r="29">
@@ -4298,64 +4298,64 @@
         <v>108555</v>
       </c>
       <c r="C29">
-        <v>66648.04457325605</v>
+        <v>66649.11678866422</v>
       </c>
       <c r="D29">
         <v>40386</v>
       </c>
       <c r="E29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="F29">
-        <v>8219.876074355387</v>
+        <v>8214.081376085347</v>
       </c>
       <c r="G29">
-        <v>58428.16849890066</v>
+        <v>58435.03541257887</v>
       </c>
       <c r="H29">
-        <v>82980.11087465168</v>
+        <v>82921.61306999096</v>
       </c>
       <c r="I29">
-        <v>71803.31318855746</v>
+        <v>71752.69459881801</v>
       </c>
       <c r="J29">
-        <v>11176.79768609423</v>
+        <v>11168.91847117294</v>
       </c>
       <c r="K29">
-        <v>307.1802800672538</v>
+        <v>306.9637297176628</v>
       </c>
       <c r="L29">
-        <v>1520.955426743954</v>
+        <v>1519.883211335785</v>
       </c>
       <c r="M29">
-        <v>4878.953804188075</v>
+        <v>4875.514328347687</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>76273.0213636524</v>
+        <v>76219.25180058982</v>
       </c>
       <c r="P29">
-        <v>47258.55310343206</v>
+        <v>47225.23763085852</v>
       </c>
       <c r="Q29">
-        <v>36427.46987101856</v>
+        <v>36401.78989789804</v>
       </c>
       <c r="R29">
-        <v>10831.08323241349</v>
+        <v>10823.44773296049</v>
       </c>
       <c r="S29">
-        <v>29014.46837779685</v>
+        <v>28994.01428722492</v>
       </c>
       <c r="T29">
-        <v>26871.1943422182</v>
+        <v>26852.2511778736</v>
       </c>
       <c r="U29">
-        <v>1797.559464321407</v>
+        <v>1796.29225364524</v>
       </c>
       <c r="V29">
-        <v>345.7144536807327</v>
+        <v>345.470738212452</v>
       </c>
       <c r="W29">
         <v>66565</v>
@@ -4391,28 +4391,28 @@
         <v>5213</v>
       </c>
       <c r="AH29">
-        <v>25574.88912534832</v>
+        <v>25633.38693000905</v>
       </c>
       <c r="AI29">
-        <v>-3634.313188557455</v>
+        <v>-3583.694598818009</v>
       </c>
       <c r="AJ29">
-        <v>29209.20231390578</v>
+        <v>29217.08152882706</v>
       </c>
       <c r="AK29">
-        <v>-40838.11087465168</v>
+        <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64834.31318855746</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>23996.20231390578</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-64986.31318855746</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
-        <v>149545.1108746517</v>
+        <v>149486.6130699909</v>
       </c>
       <c r="AP29">
         <v>260026.05</v>
@@ -4424,7 +4424,7 @@
         <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
-        <v>8.505100000000001</v>
+        <v>8.511100000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4435,64 +4435,64 @@
         <v>118264</v>
       </c>
       <c r="C30">
-        <v>70078.11446360154</v>
+        <v>70083.58142094809</v>
       </c>
       <c r="D30">
         <v>40308</v>
       </c>
       <c r="E30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="F30">
-        <v>8246.681513409962</v>
+        <v>8240.958625475605</v>
       </c>
       <c r="G30">
-        <v>61831.43295019158</v>
+        <v>61842.62279547248</v>
       </c>
       <c r="H30">
-        <v>92022.06381704981</v>
+        <v>91958.20395319343</v>
       </c>
       <c r="I30">
-        <v>80907.15217911877</v>
+        <v>80851.00564741917</v>
       </c>
       <c r="J30">
-        <v>11114.91163793103</v>
+        <v>11107.19830577425</v>
       </c>
       <c r="K30">
-        <v>306.7800526819923</v>
+        <v>306.5671588216995</v>
       </c>
       <c r="L30">
-        <v>7877.885536398468</v>
+        <v>7872.418579051904</v>
       </c>
       <c r="M30">
-        <v>4888.089559386974</v>
+        <v>4884.697408408912</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>78949.30866858238</v>
+        <v>78894.52080691092</v>
       </c>
       <c r="P30">
-        <v>47342.89894636015</v>
+        <v>47310.04474861806</v>
       </c>
       <c r="Q30">
-        <v>36538.58536877394</v>
+        <v>36513.2289597741</v>
       </c>
       <c r="R30">
-        <v>10804.31357758621</v>
+        <v>10796.81578884396</v>
       </c>
       <c r="S30">
-        <v>31606.40972222222</v>
+        <v>31584.47605829285</v>
       </c>
       <c r="T30">
-        <v>29398.13912835249</v>
+        <v>29377.73792146259</v>
       </c>
       <c r="U30">
-        <v>1897.672533524904</v>
+        <v>1896.355619899974</v>
       </c>
       <c r="V30">
-        <v>310.5980603448276</v>
+        <v>310.3825169302927</v>
       </c>
       <c r="W30">
         <v>66980</v>
@@ -4528,28 +4528,28 @@
         <v>5245</v>
       </c>
       <c r="AH30">
-        <v>26241.93618295019</v>
+        <v>26305.79604680657</v>
       </c>
       <c r="AI30">
-        <v>-2951.15217911877</v>
+        <v>-2895.005647419166</v>
       </c>
       <c r="AJ30">
-        <v>29193.08836206896</v>
+        <v>29200.80169422575</v>
       </c>
       <c r="AK30">
-        <v>-40586.06381704981</v>
+        <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64534.15217911877</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>23948.08836206896</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-64686.15217911877</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
-        <v>159002.0638170498</v>
+        <v>158938.2039531934</v>
       </c>
       <c r="AP30">
         <v>264876.15</v>
@@ -4561,7 +4561,7 @@
         <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
-        <v>8.352</v>
+        <v>8.357799999999999</v>
       </c>
     </row>
     <row r="31">
@@ -4572,64 +4572,64 @@
         <v>119197</v>
       </c>
       <c r="C31">
-        <v>70144.56495834141</v>
+        <v>70150.01534495903</v>
       </c>
       <c r="D31">
         <v>41151</v>
       </c>
       <c r="E31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="F31">
-        <v>8278.877882193374</v>
+        <v>8273.167136616123</v>
       </c>
       <c r="G31">
-        <v>61865.68707614803</v>
+        <v>61876.8482083429</v>
       </c>
       <c r="H31">
-        <v>91551.5252615772</v>
+        <v>91488.3732891218</v>
       </c>
       <c r="I31">
-        <v>80064.29919104825</v>
+        <v>80009.07107330005</v>
       </c>
       <c r="J31">
-        <v>11487.22607052897</v>
+        <v>11479.30221582177</v>
       </c>
       <c r="K31">
-        <v>306.5156946328231</v>
+        <v>306.3042610095241</v>
       </c>
       <c r="L31">
-        <v>7901.435041658593</v>
+        <v>7895.984655040965</v>
       </c>
       <c r="M31">
-        <v>4899.511117031583</v>
+        <v>4896.131448694832</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>78444.06340825421</v>
+        <v>78389.95292437647</v>
       </c>
       <c r="P31">
-        <v>47969.70584673512</v>
+        <v>47936.61648493943</v>
       </c>
       <c r="Q31">
-        <v>36833.39917167216</v>
+        <v>36807.99160141833</v>
       </c>
       <c r="R31">
-        <v>11136.30667506297</v>
+        <v>11128.62488352111</v>
       </c>
       <c r="S31">
-        <v>30474.35756151909</v>
+        <v>30453.33643943703</v>
       </c>
       <c r="T31">
-        <v>28009.46449331525</v>
+        <v>27990.14364721116</v>
       </c>
       <c r="U31">
-        <v>2113.973672737841</v>
+        <v>2112.515459925212</v>
       </c>
       <c r="V31">
-        <v>350.919395465995</v>
+        <v>350.6773323006547</v>
       </c>
       <c r="W31">
         <v>67453</v>
@@ -4665,28 +4665,28 @@
         <v>5197</v>
       </c>
       <c r="AH31">
-        <v>27645.4747384228</v>
+        <v>27708.62671087821</v>
       </c>
       <c r="AI31">
-        <v>-2018.299191048252</v>
+        <v>-1963.071073300045</v>
       </c>
       <c r="AJ31">
-        <v>29663.77392947103</v>
+        <v>29671.69778417824</v>
       </c>
       <c r="AK31">
-        <v>-39764.5252615772</v>
+        <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64231.29919104825</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>24466.77392947103</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-64274.29919104825</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
-        <v>159004.5252615772</v>
+        <v>158941.3732891218</v>
       </c>
       <c r="AP31">
         <v>266355.4</v>
@@ -4698,7 +4698,7 @@
         <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
-        <v>8.2576</v>
+        <v>8.263299999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4709,64 +4709,64 @@
         <v>120141</v>
       </c>
       <c r="C32">
-        <v>71762.04591233628</v>
+        <v>71767.55106018546</v>
       </c>
       <c r="D32">
         <v>40480</v>
       </c>
       <c r="E32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="F32">
-        <v>8272.254834743959</v>
+        <v>8266.489516271928</v>
       </c>
       <c r="G32">
-        <v>63489.79107759232</v>
+        <v>63501.06154391354</v>
       </c>
       <c r="H32">
-        <v>91486.96451368858</v>
+        <v>91423.20300041344</v>
       </c>
       <c r="I32">
-        <v>80010.01548536573</v>
+        <v>79954.25279073889</v>
       </c>
       <c r="J32">
-        <v>11476.94914653175</v>
+        <v>11468.95032780108</v>
       </c>
       <c r="K32">
-        <v>304.3643907513358</v>
+        <v>304.1522650758963</v>
       </c>
       <c r="L32">
-        <v>7898.954087663719</v>
+        <v>7893.448939814542</v>
       </c>
       <c r="M32">
-        <v>4897.256016832947</v>
+        <v>4893.84289173705</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78386.39001844058</v>
+        <v>78331.75890378596</v>
       </c>
       <c r="P32">
-        <v>47820.48560215613</v>
+        <v>47787.15728545272</v>
       </c>
       <c r="Q32">
-        <v>36805.57697763488</v>
+        <v>36779.92546216999</v>
       </c>
       <c r="R32">
-        <v>11014.90862452125</v>
+        <v>11007.23182328274</v>
       </c>
       <c r="S32">
-        <v>30565.90453449336</v>
+        <v>30544.60173645975</v>
       </c>
       <c r="T32">
-        <v>27839.69513925008</v>
+        <v>27820.2923631209</v>
       </c>
       <c r="U32">
-        <v>2264.168873232777</v>
+        <v>2262.590868820507</v>
       </c>
       <c r="V32">
-        <v>462.0405220104969</v>
+        <v>461.7185045183392</v>
       </c>
       <c r="W32">
         <v>68089</v>
@@ -4802,28 +4802,28 @@
         <v>5091</v>
       </c>
       <c r="AH32">
-        <v>28654.03548631142</v>
+        <v>28717.79699958656</v>
       </c>
       <c r="AI32">
-        <v>-349.0154853657296</v>
+        <v>-293.2527907388867</v>
       </c>
       <c r="AJ32">
-        <v>29003.05085346825</v>
+        <v>29011.04967219893</v>
       </c>
       <c r="AK32">
-        <v>-39391.96451368858</v>
+        <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63304.01548536573</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>23912.05085346825</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-63347.01548536573</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
-        <v>159575.9645136886</v>
+        <v>159512.2030004134</v>
       </c>
       <c r="AP32">
         <v>266094.48</v>
@@ -4835,7 +4835,7 @@
         <v>0.177564750685546</v>
       </c>
       <c r="AS32">
-        <v>8.4596</v>
+        <v>8.465500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4846,64 +4846,64 @@
         <v>120786</v>
       </c>
       <c r="C33">
-        <v>73526.28418481676</v>
+        <v>73531.80147389873</v>
       </c>
       <c r="D33">
         <v>39367</v>
       </c>
       <c r="E33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="F33">
-        <v>8262.001588750696</v>
+        <v>8256.226155778299</v>
       </c>
       <c r="G33">
-        <v>65264.28259606606</v>
+        <v>65275.57531812043</v>
       </c>
       <c r="H33">
-        <v>92607.56909287076</v>
+        <v>92542.83310822018</v>
       </c>
       <c r="I33">
-        <v>81291.54274806444</v>
+        <v>81234.71706831591</v>
       </c>
       <c r="J33">
-        <v>11316.02634480633</v>
+        <v>11308.11603990427</v>
       </c>
       <c r="K33">
-        <v>301.4252516509965</v>
+        <v>301.214544679036</v>
       </c>
       <c r="L33">
-        <v>7892.715815183239</v>
+        <v>7887.198526101277</v>
       </c>
       <c r="M33">
-        <v>4889.630793308276</v>
+        <v>4886.212767469965</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>79523.79723272825</v>
+        <v>79468.20726996991</v>
       </c>
       <c r="P33">
-        <v>48288.63343727398</v>
+        <v>48254.87796497713</v>
       </c>
       <c r="Q33">
-        <v>37287.25537388994</v>
+        <v>37261.19025615507</v>
       </c>
       <c r="R33">
-        <v>11001.37806338404</v>
+        <v>10993.68770882206</v>
       </c>
       <c r="S33">
-        <v>31235.16379545427</v>
+        <v>31213.32930499277</v>
       </c>
       <c r="T33">
-        <v>28814.00898711215</v>
+        <v>28793.86696997701</v>
       </c>
       <c r="U33">
-        <v>2106.506526919839</v>
+        <v>2105.034003933556</v>
       </c>
       <c r="V33">
-        <v>314.6482814222875</v>
+        <v>314.4283310822018</v>
       </c>
       <c r="W33">
         <v>68596</v>
@@ -4939,28 +4939,28 @@
         <v>5417</v>
       </c>
       <c r="AH33">
-        <v>28178.43090712924</v>
+        <v>28243.16689177982</v>
       </c>
       <c r="AI33">
-        <v>127.457251935557</v>
+        <v>184.2829316840944</v>
       </c>
       <c r="AJ33">
-        <v>28050.97365519367</v>
+        <v>28058.88396009574</v>
       </c>
       <c r="AK33">
-        <v>-40374.56909287076</v>
+        <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-63008.54274806444</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>22633.97365519367</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-63051.54274806444</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
-        <v>161203.5690928708</v>
+        <v>161138.8331082202</v>
       </c>
       <c r="AP33">
         <v>265190.09</v>
@@ -4972,7 +4972,7 @@
         <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
-        <v>8.4343</v>
+        <v>8.440200000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4983,64 +4983,64 @@
         <v>122043</v>
       </c>
       <c r="C34">
-        <v>74970.80712865795</v>
+        <v>74976.2595398688</v>
       </c>
       <c r="D34">
         <v>39204</v>
       </c>
       <c r="E34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="F34">
-        <v>8236.351416947899</v>
+        <v>8230.643883396471</v>
       </c>
       <c r="G34">
-        <v>66734.45571171005</v>
+        <v>66745.61565647234</v>
       </c>
       <c r="H34">
-        <v>91821.44260551986</v>
+        <v>91757.81322184237</v>
       </c>
       <c r="I34">
-        <v>80622.57234986824</v>
+        <v>80566.70343250486</v>
       </c>
       <c r="J34">
-        <v>11198.87014007674</v>
+        <v>11191.10967384274</v>
       </c>
       <c r="K34">
-        <v>298.0586889186815</v>
+        <v>297.85214358311</v>
       </c>
       <c r="L34">
-        <v>7868.192871342056</v>
+        <v>7862.740460131203</v>
       </c>
       <c r="M34">
-        <v>4882.873653552771</v>
+        <v>4879.489975053128</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>78772.31739170635</v>
+        <v>78717.73064307493</v>
       </c>
       <c r="P34">
-        <v>48141.39591327262</v>
+        <v>48108.0354337984</v>
       </c>
       <c r="Q34">
-        <v>37204.30967130508</v>
+        <v>37178.5282500231</v>
       </c>
       <c r="R34">
-        <v>10937.08624196755</v>
+        <v>10929.50718377529</v>
       </c>
       <c r="S34">
-        <v>30630.92147843373</v>
+        <v>30609.69520927654</v>
       </c>
       <c r="T34">
-        <v>28337.2956636309</v>
+        <v>28317.658805322</v>
       </c>
       <c r="U34">
-        <v>2031.841801118765</v>
+        <v>2030.433798392313</v>
       </c>
       <c r="V34">
-        <v>261.7838981091952</v>
+        <v>261.602490067449</v>
       </c>
       <c r="W34">
         <v>67822</v>
@@ -5076,28 +5076,28 @@
         <v>5393</v>
       </c>
       <c r="AH34">
-        <v>30221.55739448014</v>
+        <v>30285.18677815763</v>
       </c>
       <c r="AI34">
-        <v>2216.427650131765</v>
+        <v>2272.296567495141</v>
       </c>
       <c r="AJ34">
-        <v>28005.12985992326</v>
+        <v>28012.89032615726</v>
       </c>
       <c r="AK34">
-        <v>-37557.44260551986</v>
+        <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60169.57234986824</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>22612.12985992326</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-60212.57234986824</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
-        <v>159643.4426055198</v>
+        <v>159579.8132218424</v>
       </c>
       <c r="AP34">
         <v>263283.28</v>
@@ -5109,7 +5109,7 @@
         <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
-        <v>8.6524</v>
+        <v>8.6584</v>
       </c>
     </row>
     <row r="35">
@@ -5120,64 +5120,64 @@
         <v>121721</v>
       </c>
       <c r="C35">
-        <v>75384.55273153522</v>
+        <v>75390.01317790167</v>
       </c>
       <c r="D35">
         <v>38517</v>
       </c>
       <c r="E35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="F35">
-        <v>8191.138487201741</v>
+        <v>8185.418482851833</v>
       </c>
       <c r="G35">
-        <v>67193.41424433349</v>
+        <v>67204.59469504983</v>
       </c>
       <c r="H35">
-        <v>92641.96645740114</v>
+        <v>92577.27307540689</v>
       </c>
       <c r="I35">
-        <v>81236.04657191483</v>
+        <v>81179.31812806218</v>
       </c>
       <c r="J35">
-        <v>11405.91999819664</v>
+        <v>11397.95505997635</v>
       </c>
       <c r="K35">
-        <v>292.6103716060097</v>
+        <v>292.406037055809</v>
       </c>
       <c r="L35">
-        <v>7819.447268464773</v>
+        <v>7813.986822098327</v>
       </c>
       <c r="M35">
-        <v>4869.998647475853</v>
+        <v>4866.59784873571</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>79659.9101698545</v>
+        <v>79604.28236751704</v>
       </c>
       <c r="P35">
-        <v>51499.69624561839</v>
+        <v>51463.73317564904</v>
       </c>
       <c r="Q35">
-        <v>40349.63436763861</v>
+        <v>40321.45756603029</v>
       </c>
       <c r="R35">
-        <v>11150.06199069013</v>
+        <v>11142.27572225038</v>
       </c>
       <c r="S35">
-        <v>28160.21392423611</v>
+        <v>28140.549191868</v>
       </c>
       <c r="T35">
-        <v>26270.9202799725</v>
+        <v>26252.57487188151</v>
       </c>
       <c r="U35">
-        <v>1633.435636757098</v>
+        <v>1632.294982260517</v>
       </c>
       <c r="V35">
-        <v>255.858007506509</v>
+        <v>255.6793377259672</v>
       </c>
       <c r="W35">
         <v>66633</v>
@@ -5213,28 +5213,28 @@
         <v>5075</v>
       </c>
       <c r="AH35">
-        <v>29079.03354259886</v>
+        <v>29143.72692459311</v>
       </c>
       <c r="AI35">
-        <v>1967.953428085166</v>
+        <v>2024.681871937821</v>
       </c>
       <c r="AJ35">
-        <v>27111.08000180336</v>
+        <v>27119.04494002365</v>
       </c>
       <c r="AK35">
-        <v>-37536.96645740114</v>
+        <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59573.04657191483</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>22036.08000180336</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-59590.04657191483</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
-        <v>159274.9664574011</v>
+        <v>159210.2730754069</v>
       </c>
       <c r="AP35">
         <v>260269.29</v>
@@ -5246,7 +5246,7 @@
         <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
-        <v>8.872299999999999</v>
+        <v>8.878500000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5257,64 +5257,64 @@
         <v>123462</v>
       </c>
       <c r="C36">
-        <v>77529.45176008222</v>
+        <v>77534.92732115249</v>
       </c>
       <c r="D36">
         <v>38107</v>
       </c>
       <c r="E36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="F36">
-        <v>8205.126430031511</v>
+        <v>8199.385276890607</v>
       </c>
       <c r="G36">
-        <v>69324.32533005071</v>
+        <v>69335.54204426188</v>
       </c>
       <c r="H36">
-        <v>94063.90052740354</v>
+        <v>93998.08371610107</v>
       </c>
       <c r="I36">
-        <v>82338.48171027818</v>
+        <v>82280.86921193104</v>
       </c>
       <c r="J36">
-        <v>11725.418704191</v>
+        <v>11717.21439131465</v>
       </c>
       <c r="K36">
-        <v>290.2253040758016</v>
+        <v>290.0222325045988</v>
       </c>
       <c r="L36">
-        <v>7825.548239917785</v>
+        <v>7820.07267884752</v>
       </c>
       <c r="M36">
-        <v>4866.554711057405</v>
+        <v>4863.149567199719</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>81081.57227235254</v>
+        <v>81024.83923754923</v>
       </c>
       <c r="P36">
-        <v>51633.05645589349</v>
+        <v>51596.9286415601</v>
       </c>
       <c r="Q36">
-        <v>40305.19102849335</v>
+        <v>40276.98935774017</v>
       </c>
       <c r="R36">
-        <v>11327.86542740014</v>
+        <v>11319.93928381993</v>
       </c>
       <c r="S36">
-        <v>29448.51570352469</v>
+        <v>29427.91048313376</v>
       </c>
       <c r="T36">
-        <v>26808.28949597389</v>
+        <v>26789.53165028383</v>
       </c>
       <c r="U36">
-        <v>2242.672930759936</v>
+        <v>2241.103725355212</v>
       </c>
       <c r="V36">
-        <v>397.5532767908569</v>
+        <v>397.275107494724</v>
       </c>
       <c r="W36">
         <v>66994</v>
@@ -5350,28 +5350,28 @@
         <v>5080</v>
       </c>
       <c r="AH36">
-        <v>29398.09947259646</v>
+        <v>29463.91628389893</v>
       </c>
       <c r="AI36">
-        <v>3016.518289721818</v>
+        <v>3074.130788068957</v>
       </c>
       <c r="AJ36">
-        <v>26381.581295809</v>
+        <v>26389.78560868535</v>
       </c>
       <c r="AK36">
-        <v>-37578.90052740354</v>
+        <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58880.48171027818</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>21301.581295809</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-58897.48171027818</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
-        <v>161057.9005274035</v>
+        <v>160992.0837161011</v>
       </c>
       <c r="AP36">
         <v>261753.66</v>
@@ -5383,7 +5383,7 @@
         <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
-        <v>8.854699999999999</v>
+        <v>8.860900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5394,64 +5394,64 @@
         <v>125727</v>
       </c>
       <c r="C37">
-        <v>78123.74266573256</v>
+        <v>78129.22529972871</v>
       </c>
       <c r="D37">
         <v>39772</v>
       </c>
       <c r="E37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="F37">
-        <v>8169.930926525966</v>
+        <v>8164.211188413407</v>
       </c>
       <c r="G37">
-        <v>69953.81173920659</v>
+        <v>69965.01411131531</v>
       </c>
       <c r="H37">
-        <v>93822.57290480779</v>
+        <v>93756.88807210991</v>
       </c>
       <c r="I37">
-        <v>82012.99446098608</v>
+        <v>81955.57747002711</v>
       </c>
       <c r="J37">
-        <v>11809.5784438217</v>
+        <v>11801.31060208279</v>
       </c>
       <c r="K37">
-        <v>289.1214204396182</v>
+        <v>288.9190076135469</v>
       </c>
       <c r="L37">
-        <v>7831.25733426745</v>
+        <v>7825.774700271287</v>
       </c>
       <c r="M37">
-        <v>4871.766792188459</v>
+        <v>4868.356086461889</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>80830.42735791227</v>
+        <v>80773.83827776319</v>
       </c>
       <c r="P37">
-        <v>51376.22164813032</v>
+        <v>51340.25334733526</v>
       </c>
       <c r="Q37">
-        <v>39900.23108415799</v>
+        <v>39872.2970814737</v>
       </c>
       <c r="R37">
-        <v>11475.99056397233</v>
+        <v>11467.95626586156</v>
       </c>
       <c r="S37">
-        <v>29454.20570978195</v>
+        <v>29433.58493042793</v>
       </c>
       <c r="T37">
-        <v>26915.8774848936</v>
+        <v>26897.0337796447</v>
       </c>
       <c r="U37">
-        <v>2204.74034503897</v>
+        <v>2203.196814562002</v>
       </c>
       <c r="V37">
-        <v>333.5878798493739</v>
+        <v>333.3543362212304</v>
       </c>
       <c r="W37">
         <v>68067</v>
@@ -5487,28 +5487,28 @@
         <v>5231</v>
       </c>
       <c r="AH37">
-        <v>31904.42709519221</v>
+        <v>31970.11192789009</v>
       </c>
       <c r="AI37">
-        <v>3942.005539013917</v>
+        <v>3999.422529972886</v>
       </c>
       <c r="AJ37">
-        <v>27962.4215561783</v>
+        <v>27970.68939791721</v>
       </c>
       <c r="AK37">
-        <v>-36145.57290480779</v>
+        <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58876.99446098608</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>22731.4215561783</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-58893.99446098608</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
-        <v>161889.5729048078</v>
+        <v>161823.8880721099</v>
       </c>
       <c r="AP37">
         <v>262219.59</v>
@@ -5520,7 +5520,7 @@
         <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
-        <v>9.135199999999999</v>
+        <v>9.1416</v>
       </c>
     </row>
     <row r="38">
@@ -5531,64 +5531,64 @@
         <v>125141</v>
       </c>
       <c r="C38">
-        <v>77600.77454953014</v>
+        <v>77606.26621579418</v>
       </c>
       <c r="D38">
         <v>39695</v>
       </c>
       <c r="E38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="F38">
-        <v>8263.873825329771</v>
+        <v>8258.089104752467</v>
       </c>
       <c r="G38">
-        <v>69336.90072420036</v>
+        <v>69348.17711104172</v>
       </c>
       <c r="H38">
-        <v>92933.61916975603</v>
+        <v>92868.56553625465</v>
       </c>
       <c r="I38">
-        <v>81201.9115872058</v>
+        <v>81145.07016164642</v>
       </c>
       <c r="J38">
-        <v>11731.70769031813</v>
+        <v>11723.49548230074</v>
       </c>
       <c r="K38">
-        <v>289.0980903526166</v>
+        <v>288.8957213780329</v>
       </c>
       <c r="L38">
-        <v>7845.225450469869</v>
+        <v>7839.733784205821</v>
       </c>
       <c r="M38">
-        <v>4874.639300801794</v>
+        <v>4871.227048041612</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>79924.65632813175</v>
+        <v>79868.70898262919</v>
       </c>
       <c r="P38">
-        <v>51351.9017803259</v>
+        <v>51315.95539377753</v>
       </c>
       <c r="Q38">
-        <v>39951.58235623761</v>
+        <v>39923.61620556339</v>
       </c>
       <c r="R38">
-        <v>11400.31942408828</v>
+        <v>11392.33918821414</v>
       </c>
       <c r="S38">
-        <v>28572.75454780585</v>
+        <v>28552.75358885167</v>
       </c>
       <c r="T38">
-        <v>25803.03657642901</v>
+        <v>25784.97442303757</v>
       </c>
       <c r="U38">
-        <v>2438.329812914907</v>
+        <v>2436.622979419968</v>
       </c>
       <c r="V38">
-        <v>331.3882662298474</v>
+        <v>331.1562940866062</v>
       </c>
       <c r="W38">
         <v>68272</v>
@@ -5624,28 +5624,28 @@
         <v>5302</v>
       </c>
       <c r="AH38">
-        <v>32207.38083024397</v>
+        <v>32272.43446374535</v>
       </c>
       <c r="AI38">
-        <v>4244.088412794197</v>
+        <v>4300.929838353579</v>
       </c>
       <c r="AJ38">
-        <v>27963.29230968187</v>
+        <v>27971.50451769926</v>
       </c>
       <c r="AK38">
-        <v>-36047.61916975603</v>
+        <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58708.9115872058</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>22661.29230968187</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-58725.9115872058</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
-        <v>161205.619169756</v>
+        <v>161140.5655362547</v>
       </c>
       <c r="AP38">
         <v>262439.61</v>
@@ -5657,7 +5657,7 @@
         <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
-        <v>9.279199999999999</v>
+        <v>9.2857</v>
       </c>
     </row>
     <row r="39">
@@ -5668,64 +5668,64 @@
         <v>123783</v>
       </c>
       <c r="C39">
-        <v>76269.64262343528</v>
+        <v>76275.17951124845</v>
       </c>
       <c r="D39">
         <v>39678</v>
       </c>
       <c r="E39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="F39">
-        <v>8149.654655605514</v>
+        <v>8143.895668315527</v>
       </c>
       <c r="G39">
-        <v>68119.98796782977</v>
+        <v>68131.28384293293</v>
       </c>
       <c r="H39">
-        <v>91351.04384353958</v>
+        <v>91286.49024922743</v>
       </c>
       <c r="I39">
-        <v>79500.64593755937</v>
+        <v>79444.46647611614</v>
       </c>
       <c r="J39">
-        <v>11850.3979059802</v>
+        <v>11842.02377311128</v>
       </c>
       <c r="K39">
-        <v>286.9217697844764</v>
+        <v>286.7190153249027</v>
       </c>
       <c r="L39">
-        <v>7835.35737656471</v>
+        <v>7829.820488751543</v>
       </c>
       <c r="M39">
-        <v>4871.253773246363</v>
+        <v>4867.811481547889</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>78357.51092394402</v>
+        <v>78302.13926360309</v>
       </c>
       <c r="P39">
-        <v>51278.32214552593</v>
+        <v>51242.08610633564</v>
       </c>
       <c r="Q39">
-        <v>39887.18605534798</v>
+        <v>39858.99960975816</v>
       </c>
       <c r="R39">
-        <v>11391.1359846326</v>
+        <v>11383.08639110671</v>
       </c>
       <c r="S39">
-        <v>27079.18877841808</v>
+        <v>27060.05315726747</v>
       </c>
       <c r="T39">
-        <v>24571.2160935554</v>
+        <v>24553.85274171264</v>
       </c>
       <c r="U39">
-        <v>2048.710869060435</v>
+        <v>2047.26313902102</v>
       </c>
       <c r="V39">
-        <v>459.2619213476031</v>
+        <v>458.9373820045774</v>
       </c>
       <c r="W39">
         <v>68337</v>
@@ -5761,28 +5761,28 @@
         <v>5136</v>
       </c>
       <c r="AH39">
-        <v>32431.95615646042</v>
+        <v>32496.50975077257</v>
       </c>
       <c r="AI39">
-        <v>4604.354062440631</v>
+        <v>4660.53352388386</v>
       </c>
       <c r="AJ39">
-        <v>27827.6020940198</v>
+        <v>27835.97622688872</v>
       </c>
       <c r="AK39">
-        <v>-35897.04384353958</v>
+        <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58588.64593755937</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>22691.6020940198</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-58596.64593755937</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
-        <v>159688.0438435396</v>
+        <v>159623.4902492274</v>
       </c>
       <c r="AP39">
         <v>260333.71</v>
@@ -5794,7 +5794,7 @@
         <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
-        <v>9.474600000000001</v>
+        <v>9.481299999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5805,64 +5805,64 @@
         <v>125443</v>
       </c>
       <c r="C40">
-        <v>77970.22888778715</v>
+        <v>77975.71735271046</v>
       </c>
       <c r="D40">
         <v>39653</v>
       </c>
       <c r="E40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="F40">
-        <v>8182.076929433151</v>
+        <v>8176.334172825234</v>
       </c>
       <c r="G40">
-        <v>69788.15195835399</v>
+        <v>69799.38317988522</v>
       </c>
       <c r="H40">
-        <v>93800.98351512147</v>
+        <v>93735.14739275834</v>
       </c>
       <c r="I40">
-        <v>82275.42575607338</v>
+        <v>82217.67908013707</v>
       </c>
       <c r="J40">
-        <v>11525.5578623368</v>
+        <v>11517.4684158375</v>
       </c>
       <c r="K40">
-        <v>285.2106056850107</v>
+        <v>285.0104248379506</v>
       </c>
       <c r="L40">
-        <v>7819.771112212857</v>
+        <v>7814.282647289542</v>
       </c>
       <c r="M40">
-        <v>4866.467732606181</v>
+        <v>4863.052103546509</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>80829.53406461742</v>
+        <v>80772.80221708435</v>
       </c>
       <c r="P40">
-        <v>52934.50152867295</v>
+        <v>52897.34837537674</v>
       </c>
       <c r="Q40">
-        <v>41885.50714757891</v>
+        <v>41856.10895503902</v>
       </c>
       <c r="R40">
-        <v>11048.99448438275</v>
+        <v>11041.23952355394</v>
       </c>
       <c r="S40">
-        <v>27895.03253594447</v>
+        <v>27875.45384170761</v>
       </c>
       <c r="T40">
-        <v>24891.04042720212</v>
+        <v>24873.5701457413</v>
       </c>
       <c r="U40">
-        <v>2527.428730788299</v>
+        <v>2525.654803682755</v>
       </c>
       <c r="V40">
-        <v>476.5633779540572</v>
+        <v>476.2288922835556</v>
       </c>
       <c r="W40">
         <v>67061</v>
@@ -5898,28 +5898,28 @@
         <v>5270</v>
       </c>
       <c r="AH40">
-        <v>31642.01648487854</v>
+        <v>31707.85260724166</v>
       </c>
       <c r="AI40">
-        <v>3514.574243926618</v>
+        <v>3572.320919862934</v>
       </c>
       <c r="AJ40">
-        <v>28127.44213766319</v>
+        <v>28135.53158416251</v>
       </c>
       <c r="AK40">
-        <v>-35410.98351512147</v>
+        <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58268.42575607338</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>22857.44213766319</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-58276.42575607338</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
-        <v>160861.9835151215</v>
+        <v>160796.1473927583</v>
       </c>
       <c r="AP40">
         <v>260708.52</v>
@@ -5931,7 +5931,7 @@
         <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
-        <v>9.6816</v>
+        <v>9.6884</v>
       </c>
     </row>
     <row r="41">
@@ -5942,64 +5942,64 @@
         <v>127690</v>
       </c>
       <c r="C41">
-        <v>78906.98363285941</v>
+        <v>78912.40233941717</v>
       </c>
       <c r="D41">
         <v>40995</v>
       </c>
       <c r="E41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="F41">
-        <v>8216.159877296899</v>
+        <v>8210.443279217505</v>
       </c>
       <c r="G41">
-        <v>70690.82375556251</v>
+        <v>70701.95906019966</v>
       </c>
       <c r="H41">
-        <v>99305.92617632516</v>
+        <v>99236.83160229906</v>
       </c>
       <c r="I41">
-        <v>89875.15090665077</v>
+        <v>89812.61802964604</v>
       </c>
       <c r="J41">
-        <v>9430.775269674374</v>
+        <v>9424.21357265302</v>
       </c>
       <c r="K41">
-        <v>281.3337907791042</v>
+        <v>281.1380457799738</v>
       </c>
       <c r="L41">
-        <v>7788.016367140594</v>
+        <v>7782.597660582837</v>
       </c>
       <c r="M41">
-        <v>4855.68702636704</v>
+        <v>4852.308561056771</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>86380.88899203842</v>
+        <v>86320.7873348795</v>
       </c>
       <c r="P41">
-        <v>55710.68748044924</v>
+        <v>55671.92538065947</v>
       </c>
       <c r="Q41">
-        <v>47455.96230108677</v>
+        <v>47422.94363214682</v>
       </c>
       <c r="R41">
-        <v>8254.725179362469</v>
+        <v>8248.981748512655</v>
       </c>
       <c r="S41">
-        <v>30670.20161249634</v>
+        <v>30648.86205505697</v>
       </c>
       <c r="T41">
-        <v>27376.78045630216</v>
+        <v>27357.73237874357</v>
       </c>
       <c r="U41">
-        <v>2117.370964975126</v>
+        <v>2115.89775133609</v>
       </c>
       <c r="V41">
-        <v>1176.050090311904</v>
+        <v>1175.231824140365</v>
       </c>
       <c r="W41">
         <v>63655</v>
@@ -6035,28 +6035,28 @@
         <v>7350</v>
       </c>
       <c r="AH41">
-        <v>28384.07382367484</v>
+        <v>28453.16839770094</v>
       </c>
       <c r="AI41">
-        <v>-3180.150906650772</v>
+        <v>-3117.618029646037</v>
       </c>
       <c r="AJ41">
-        <v>31564.22473032563</v>
+        <v>31570.78642734698</v>
       </c>
       <c r="AK41">
-        <v>-35262.92617632516</v>
+        <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59477.15090665077</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>24214.22473032563</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-59485.15090665077</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
-        <v>162960.9261763252</v>
+        <v>162891.8316022991</v>
       </c>
       <c r="AP41">
         <v>262418.4</v>
@@ -6068,7 +6068,7 @@
         <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
-        <v>9.9101</v>
+        <v>9.917</v>
       </c>
     </row>
     <row r="42">
@@ -6079,64 +6079,64 @@
         <v>128403</v>
       </c>
       <c r="C42">
-        <v>80155.14939001572</v>
+        <v>80160.59462617914</v>
       </c>
       <c r="D42">
         <v>40482</v>
       </c>
       <c r="E42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="F42">
-        <v>8198.336576603548</v>
+        <v>8192.588091209109</v>
       </c>
       <c r="G42">
-        <v>71956.81281341218</v>
+        <v>71968.00653497003</v>
       </c>
       <c r="H42">
-        <v>103449.4652346381</v>
+        <v>103376.9288445537</v>
       </c>
       <c r="I42">
-        <v>92418.73315994309</v>
+        <v>92353.93126595175</v>
       </c>
       <c r="J42">
-        <v>11030.73216825088</v>
+        <v>11022.99767209222</v>
       </c>
       <c r="K42">
-        <v>277.9092133822318</v>
+        <v>277.714349821901</v>
       </c>
       <c r="L42">
-        <v>7765.850609984282</v>
+        <v>7760.405373820853</v>
       </c>
       <c r="M42">
-        <v>4839.787628171544</v>
+        <v>4836.394080195955</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>90565.91778310006</v>
+        <v>90502.415040715</v>
       </c>
       <c r="P42">
-        <v>55465.38657286131</v>
+        <v>55426.49551714143</v>
       </c>
       <c r="Q42">
-        <v>47205.06698600404</v>
+        <v>47171.96787674242</v>
       </c>
       <c r="R42">
-        <v>8260.319586857271</v>
+        <v>8254.527640399016</v>
       </c>
       <c r="S42">
-        <v>35100.53130379463</v>
+        <v>35075.91961706384</v>
       </c>
       <c r="T42">
-        <v>29873.14413217573</v>
+        <v>29852.1977693221</v>
       </c>
       <c r="U42">
-        <v>2456.974590225282</v>
+        <v>2455.25181604854</v>
       </c>
       <c r="V42">
-        <v>2770.412581393608</v>
+        <v>2768.470031693202</v>
       </c>
       <c r="W42">
         <v>60524</v>
@@ -6172,28 +6172,28 @@
         <v>5211</v>
       </c>
       <c r="AH42">
-        <v>24953.5347653619</v>
+        <v>25026.07115544631</v>
       </c>
       <c r="AI42">
-        <v>-4497.733159943091</v>
+        <v>-4432.931265951745</v>
       </c>
       <c r="AJ42">
-        <v>29451.26783174912</v>
+        <v>29459.00232790778</v>
       </c>
       <c r="AK42">
-        <v>-35562.4652346381</v>
+        <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59802.73315994309</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>24240.26783174912</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-59810.73315994309</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
-        <v>163973.4652346381</v>
+        <v>163900.9288445537</v>
       </c>
       <c r="AP42">
         <v>262156.84</v>
@@ -6205,7 +6205,7 @@
         <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
-        <v>10.6888</v>
+        <v>10.6963</v>
       </c>
     </row>
     <row r="43">
@@ -6216,64 +6216,64 @@
         <v>126145</v>
       </c>
       <c r="C43">
-        <v>79296.91626708473</v>
+        <v>79302.32518062349</v>
       </c>
       <c r="D43">
         <v>39121</v>
       </c>
       <c r="E43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="F43">
-        <v>8162.123802296589</v>
+        <v>8156.410363246972</v>
       </c>
       <c r="G43">
-        <v>71134.79246478815</v>
+        <v>71145.91481737651</v>
       </c>
       <c r="H43">
-        <v>101699.8914249022</v>
+        <v>101628.7020941492</v>
       </c>
       <c r="I43">
-        <v>92885.28724034125</v>
+        <v>92820.26808109933</v>
       </c>
       <c r="J43">
-        <v>8814.604267952002</v>
+        <v>8808.434096382529</v>
       </c>
       <c r="K43">
-        <v>274.3360824570328</v>
+        <v>274.1440487995934</v>
       </c>
       <c r="L43">
-        <v>7727.083732915267</v>
+        <v>7721.674819376505</v>
       </c>
       <c r="M43">
-        <v>4826.449210704071</v>
+        <v>4823.07072441063</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>88872.02239882587</v>
+        <v>88809.81250156248</v>
       </c>
       <c r="P43">
-        <v>54063.16460551883</v>
+        <v>54025.32070566079</v>
       </c>
       <c r="Q43">
-        <v>46436.41927333073</v>
+        <v>46403.91405071625</v>
       </c>
       <c r="R43">
-        <v>7626.745332188098</v>
+        <v>7621.406654944542</v>
       </c>
       <c r="S43">
-        <v>34808.85779330704</v>
+        <v>34784.4917959017</v>
       </c>
       <c r="T43">
-        <v>31157.11467098077</v>
+        <v>31135.30487245939</v>
       </c>
       <c r="U43">
-        <v>2463.884269953385</v>
+        <v>2462.159565336955</v>
       </c>
       <c r="V43">
-        <v>1187.858935763903</v>
+        <v>1187.027441437988</v>
       </c>
       <c r="W43">
         <v>60829</v>
@@ -6309,28 +6309,28 @@
         <v>6878</v>
       </c>
       <c r="AH43">
-        <v>24445.10857509777</v>
+        <v>24516.29790585078</v>
       </c>
       <c r="AI43">
-        <v>-5861.287240341248</v>
+        <v>-5796.268081099333</v>
       </c>
       <c r="AJ43">
-        <v>30306.395732048</v>
+        <v>30312.56590361747</v>
       </c>
       <c r="AK43">
-        <v>-36375.89142490224</v>
+        <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59804.28724034125</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>23428.395732048</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-59812.28724034125</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
-        <v>162528.8914249023</v>
+        <v>162457.7020941492</v>
       </c>
       <c r="AP43">
         <v>259475.37</v>
@@ -6342,7 +6342,7 @@
         <v>0.154080134850564</v>
       </c>
       <c r="AS43">
-        <v>11.9917</v>
+        <v>12.0001</v>
       </c>
     </row>
     <row r="44">
@@ -6353,64 +6353,64 @@
         <v>124025</v>
       </c>
       <c r="C44">
-        <v>77246.50209742189</v>
+        <v>77251.88611664317</v>
       </c>
       <c r="D44">
         <v>39017</v>
       </c>
       <c r="E44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="F44">
-        <v>8335.640198844552</v>
+        <v>8329.857906867461</v>
       </c>
       <c r="G44">
-        <v>68910.86189857734</v>
+        <v>68922.02820977572</v>
       </c>
       <c r="H44">
-        <v>101774.4865421649</v>
+        <v>101703.8873100763</v>
       </c>
       <c r="I44">
-        <v>93005.29311657486</v>
+        <v>92940.77692497036</v>
       </c>
       <c r="J44">
-        <v>8769.19342559004</v>
+        <v>8763.110385105954</v>
       </c>
       <c r="K44">
-        <v>274.5364772269247</v>
+        <v>274.3460359372552</v>
       </c>
       <c r="L44">
-        <v>7761.497902578112</v>
+        <v>7756.113883356828</v>
       </c>
       <c r="M44">
-        <v>4840.790302596026</v>
+        <v>4837.432328611813</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>88897.66185976384</v>
+        <v>88835.99506217041</v>
       </c>
       <c r="P44">
-        <v>54196.76362577813</v>
+        <v>54159.16825169505</v>
       </c>
       <c r="Q44">
-        <v>46633.74117366057</v>
+        <v>46601.39213975102</v>
       </c>
       <c r="R44">
-        <v>7563.022452117575</v>
+        <v>7557.776111944027</v>
       </c>
       <c r="S44">
-        <v>34700.8982339857</v>
+        <v>34676.82681047536</v>
       </c>
       <c r="T44">
-        <v>31231.05833967785</v>
+        <v>31209.39388514698</v>
       </c>
       <c r="U44">
-        <v>2263.668920835386</v>
+        <v>2262.098652166454</v>
       </c>
       <c r="V44">
-        <v>1206.170973472465</v>
+        <v>1205.334273161926</v>
       </c>
       <c r="W44">
         <v>60792</v>
@@ -6446,28 +6446,28 @@
         <v>6725</v>
       </c>
       <c r="AH44">
-        <v>22250.5134578351</v>
+        <v>22321.1126899237</v>
       </c>
       <c r="AI44">
-        <v>-7997.29311657486</v>
+        <v>-7932.776924970356</v>
       </c>
       <c r="AJ44">
-        <v>30247.80657440996</v>
+        <v>30253.88961489405</v>
       </c>
       <c r="AK44">
-        <v>-38149.4865421649</v>
+        <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61672.29311657486</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>23522.80657440996</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-62064.29311657486</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
-        <v>162566.4865421649</v>
+        <v>162495.8873100763</v>
       </c>
       <c r="AP44">
         <v>257626.49</v>
@@ -6479,7 +6479,7 @@
         <v>0.153450834966544</v>
       </c>
       <c r="AS44">
-        <v>13.3974</v>
+        <v>13.4067</v>
       </c>
     </row>
     <row r="45">
@@ -6490,64 +6490,64 @@
         <v>122890</v>
       </c>
       <c r="C45">
-        <v>76396.53347653548</v>
+        <v>76402.00801851097</v>
       </c>
       <c r="D45">
         <v>38737</v>
       </c>
       <c r="E45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="F45">
-        <v>8303.434739869661</v>
+        <v>8297.574145759358</v>
       </c>
       <c r="G45">
-        <v>68093.09873666582</v>
+        <v>68104.43387275162</v>
       </c>
       <c r="H45">
-        <v>101935.0436523829</v>
+        <v>101863.0975318703</v>
       </c>
       <c r="I45">
-        <v>94293.3102996323</v>
+        <v>94226.7577420106</v>
       </c>
       <c r="J45">
-        <v>7641.733425565223</v>
+        <v>7636.339862622969</v>
       </c>
       <c r="K45">
-        <v>274.0099756070921</v>
+        <v>273.816578380581</v>
       </c>
       <c r="L45">
-        <v>7756.466523464521</v>
+        <v>7750.991981489027</v>
       </c>
       <c r="M45">
-        <v>4840.232424363782</v>
+        <v>4836.816170906339</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>89064.33472894746</v>
+        <v>89001.47280109435</v>
       </c>
       <c r="P45">
-        <v>53584.31834565115</v>
+        <v>53546.49834099773</v>
       </c>
       <c r="Q45">
-        <v>46370.13871190884</v>
+        <v>46337.41050119331</v>
       </c>
       <c r="R45">
-        <v>7214.179706556959</v>
+        <v>7209.087912567669</v>
       </c>
       <c r="S45">
-        <v>35480.01638329632</v>
+        <v>35454.97446009663</v>
       </c>
       <c r="T45">
-        <v>33123.24585866676</v>
+        <v>33099.86735258164</v>
       </c>
       <c r="U45">
-        <v>1929.216805621291</v>
+        <v>1927.855157459689</v>
       </c>
       <c r="V45">
-        <v>427.5537190082645</v>
+        <v>427.2519500553</v>
       </c>
       <c r="W45">
         <v>60348</v>
@@ -6583,28 +6583,28 @@
         <v>7227</v>
       </c>
       <c r="AH45">
-        <v>20954.95634761715</v>
+        <v>21026.9024681297</v>
       </c>
       <c r="AI45">
-        <v>-10140.3102996323</v>
+        <v>-10073.7577420106</v>
       </c>
       <c r="AJ45">
-        <v>31095.26657443478</v>
+        <v>31100.66013737703</v>
       </c>
       <c r="AK45">
-        <v>-39001.04365238285</v>
+        <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62869.3102996323</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>23868.26657443478</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-63261.3102996323</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
-        <v>162283.0436523829</v>
+        <v>162211.0975318703</v>
       </c>
       <c r="AP45">
         <v>258126.08</v>
@@ -6616,7 +6616,7 @@
         <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
-        <v>13.7335</v>
+        <v>13.7432</v>
       </c>
     </row>
     <row r="46">
@@ -6627,64 +6627,64 @@
         <v>116873</v>
       </c>
       <c r="C46">
-        <v>70615.72128516169</v>
+        <v>70621.12258904272</v>
       </c>
       <c r="D46">
         <v>38506</v>
       </c>
       <c r="E46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="F46">
-        <v>8204.612925295371</v>
+        <v>8198.895725686638</v>
       </c>
       <c r="G46">
-        <v>62411.10835986632</v>
+        <v>62422.22686335607</v>
       </c>
       <c r="H46">
-        <v>104932.1988395653</v>
+        <v>104859.0792016724</v>
       </c>
       <c r="I46">
-        <v>97342.4621740389</v>
+        <v>97274.63127309064</v>
       </c>
       <c r="J46">
-        <v>7589.736731310686</v>
+        <v>7584.447994320198</v>
       </c>
       <c r="K46">
-        <v>271.4653448411967</v>
+        <v>271.2761803336883</v>
       </c>
       <c r="L46">
-        <v>7751.278714838302</v>
+        <v>7745.877410957282</v>
       </c>
       <c r="M46">
-        <v>4836.989316632898</v>
+        <v>4833.618769639359</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>92072.4654632529</v>
+        <v>92008.30684074205</v>
       </c>
       <c r="P46">
-        <v>53561.15017235481</v>
+        <v>53523.8272919707</v>
       </c>
       <c r="Q46">
-        <v>46339.95631923795</v>
+        <v>46307.66536504556</v>
       </c>
       <c r="R46">
-        <v>7221.193918901139</v>
+        <v>7216.161992663589</v>
       </c>
       <c r="S46">
-        <v>38511.3152251138</v>
+        <v>38484.47948303291</v>
       </c>
       <c r="T46">
-        <v>35794.40682314554</v>
+        <v>35769.46429745329</v>
       </c>
       <c r="U46">
-        <v>2348.365655342999</v>
+        <v>2346.729249661447</v>
       </c>
       <c r="V46">
-        <v>368.5428124095466</v>
+        <v>368.2860016566087</v>
       </c>
       <c r="W46">
         <v>59268</v>
@@ -6720,28 +6720,28 @@
         <v>7180</v>
       </c>
       <c r="AH46">
-        <v>11940.8011604347</v>
+        <v>12013.92079832761</v>
       </c>
       <c r="AI46">
-        <v>-18975.4621740389</v>
+        <v>-18907.63127309064</v>
       </c>
       <c r="AJ46">
-        <v>30916.26326868931</v>
+        <v>30921.5520056798</v>
       </c>
       <c r="AK46">
-        <v>-46926.1988395653</v>
+        <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70662.4621740389</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>23736.26326868931</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-71063.4621740389</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
-        <v>164200.1988395653</v>
+        <v>164127.0792016724</v>
       </c>
       <c r="AP46">
         <v>264458</v>
@@ -6753,7 +6753,7 @@
         <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
-        <v>15.2012</v>
+        <v>15.2118</v>
       </c>
     </row>
     <row r="47">
@@ -6764,64 +6764,64 @@
         <v>110925</v>
       </c>
       <c r="C47">
-        <v>64794.87328276296</v>
+        <v>64800.29482656233</v>
       </c>
       <c r="D47">
         <v>38370</v>
       </c>
       <c r="E47">
-        <v>7760.126717237041</v>
+        <v>7754.705173437665</v>
       </c>
       <c r="F47">
-        <v>8212.951812493446</v>
+        <v>8207.213906451951</v>
       </c>
       <c r="G47">
-        <v>56581.92147026951</v>
+        <v>56593.08092011038</v>
       </c>
       <c r="H47">
-        <v>102520.0259551858</v>
+        <v>102448.4012470744</v>
       </c>
       <c r="I47">
-        <v>93872.65573111476</v>
+        <v>93807.0724316205</v>
       </c>
       <c r="J47">
-        <v>8647.370136679834</v>
+        <v>8641.328728123801</v>
       </c>
       <c r="K47">
-        <v>271.2992449400497</v>
+        <v>271.109704125476</v>
       </c>
       <c r="L47">
-        <v>7760.126717237041</v>
+        <v>7754.705173437665</v>
       </c>
       <c r="M47">
-        <v>4839.474079770685</v>
+        <v>4836.093024068187</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>89649.12591323802</v>
+        <v>89586.49334544312</v>
       </c>
       <c r="P47">
-        <v>53043.62559862971</v>
+        <v>53006.56713941384</v>
       </c>
       <c r="Q47">
-        <v>44853.69813332401</v>
+        <v>44822.36149439341</v>
       </c>
       <c r="R47">
-        <v>8189.927377914497</v>
+        <v>8184.205557690293</v>
       </c>
       <c r="S47">
-        <v>36605.50031460832</v>
+        <v>36579.92620602928</v>
       </c>
       <c r="T47">
-        <v>33894.85930017129</v>
+        <v>33871.17895692877</v>
       </c>
       <c r="U47">
-        <v>2253.198255671689</v>
+        <v>2251.624078666993</v>
       </c>
       <c r="V47">
-        <v>457.4427587653372</v>
+        <v>457.1231704335069</v>
       </c>
       <c r="W47">
         <v>65292</v>
@@ -6857,28 +6857,28 @@
         <v>6257</v>
       </c>
       <c r="AH47">
-        <v>8404.974044814197</v>
+        <v>8476.598752925565</v>
       </c>
       <c r="AI47">
-        <v>-21317.65573111476</v>
+        <v>-21252.0724316205</v>
       </c>
       <c r="AJ47">
-        <v>29722.62986332017</v>
+        <v>29728.6712718762</v>
       </c>
       <c r="AK47">
-        <v>-55909.0259551858</v>
+        <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79374.65573111476</v>
+        <v>-79309.0724316205</v>
       </c>
       <c r="AM47">
-        <v>23465.62986332017</v>
+        <v>23471.6712718762</v>
       </c>
       <c r="AN47">
-        <v>-80352.65573111476</v>
+        <v>-80287.0724316205</v>
       </c>
       <c r="AO47">
-        <v>167812.0259551858</v>
+        <v>167740.4012470744</v>
       </c>
       <c r="AP47">
         <v>265603.11</v>
@@ -6890,7 +6890,7 @@
         <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
-        <v>11.4428</v>
+        <v>11.4508</v>
       </c>
     </row>
     <row r="48">
@@ -6901,64 +6901,64 @@
         <v>111051</v>
       </c>
       <c r="C48">
-        <v>64806.23324388514</v>
+        <v>64811.67239452899</v>
       </c>
       <c r="D48">
         <v>38488</v>
       </c>
       <c r="E48">
-        <v>7756.766756114863</v>
+        <v>7751.327605471008</v>
       </c>
       <c r="F48">
-        <v>8211.373800931495</v>
+        <v>8205.615873627432</v>
       </c>
       <c r="G48">
-        <v>56594.85944295365</v>
+        <v>56606.05652090156</v>
       </c>
       <c r="H48">
-        <v>102962.7595539928</v>
+        <v>102890.5606626854</v>
       </c>
       <c r="I48">
-        <v>94249.73312050829</v>
+        <v>94183.64392217298</v>
       </c>
       <c r="J48">
-        <v>8713.026433484469</v>
+        <v>8706.916740512426</v>
       </c>
       <c r="K48">
-        <v>270.3722895654051</v>
+        <v>270.1827008283568</v>
       </c>
       <c r="L48">
-        <v>7756.766756114863</v>
+        <v>7751.327605471008</v>
       </c>
       <c r="M48">
-        <v>4839.927207674038</v>
+        <v>4836.533384704296</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>90095.69330063846</v>
+        <v>90032.51697168176</v>
       </c>
       <c r="P48">
-        <v>53089.9056938404</v>
+        <v>53052.67832787517</v>
       </c>
       <c r="Q48">
-        <v>44833.95862249776</v>
+        <v>44802.52043922173</v>
       </c>
       <c r="R48">
-        <v>8255.947071342647</v>
+        <v>8250.157888653439</v>
       </c>
       <c r="S48">
-        <v>37005.78760679806</v>
+        <v>36979.83864380659</v>
       </c>
       <c r="T48">
-        <v>34160.62575182752</v>
+        <v>34136.67185513389</v>
       </c>
       <c r="U48">
-        <v>2388.082492828722</v>
+        <v>2386.407936813716</v>
       </c>
       <c r="V48">
-        <v>457.0793621418216</v>
+        <v>456.7588518589867</v>
       </c>
       <c r="W48">
         <v>65768</v>
@@ -6994,28 +6994,28 @@
         <v>6126</v>
       </c>
       <c r="AH48">
-        <v>8088.240446007214</v>
+        <v>8160.439337314572</v>
       </c>
       <c r="AI48">
-        <v>-21686.73312050829</v>
+        <v>-21620.64392217298</v>
       </c>
       <c r="AJ48">
-        <v>29774.97356651553</v>
+        <v>29781.08325948758</v>
       </c>
       <c r="AK48">
-        <v>-56605.75955399279</v>
+        <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-80254.73312050829</v>
+        <v>-80188.64392217298</v>
       </c>
       <c r="AM48">
-        <v>23648.97356651553</v>
+        <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-81328.73312050829</v>
+        <v>-81262.64392217298</v>
       </c>
       <c r="AO48">
-        <v>168730.7595539928</v>
+        <v>168658.5606626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7027,7 +7027,7 @@
         <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
-        <v>12.9684</v>
+        <v>12.9775</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7030,6 +7030,143 @@
         <v>12.9775</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B49">
+        <v>109443</v>
+      </c>
+      <c r="C49">
+        <v>63240.94619807557</v>
+      </c>
+      <c r="D49">
+        <v>38455</v>
+      </c>
+      <c r="E49">
+        <v>7747.053801924431</v>
+      </c>
+      <c r="F49">
+        <v>8201.814788195259</v>
+      </c>
+      <c r="G49">
+        <v>55039.13140988031</v>
+      </c>
+      <c r="H49">
+        <v>101667.5975416569</v>
+      </c>
+      <c r="I49">
+        <v>92671.23980579675</v>
+      </c>
+      <c r="J49">
+        <v>8996.357735860127</v>
+      </c>
+      <c r="K49">
+        <v>269.1300457639052</v>
+      </c>
+      <c r="L49">
+        <v>7747.053801924431</v>
+      </c>
+      <c r="M49">
+        <v>4830.500542712978</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>88820.91315125558</v>
+      </c>
+      <c r="P49">
+        <v>54591.06709105845</v>
+      </c>
+      <c r="Q49">
+        <v>45929.92966733161</v>
+      </c>
+      <c r="R49">
+        <v>8661.137423726825</v>
+      </c>
+      <c r="S49">
+        <v>34229.84606019714</v>
+      </c>
+      <c r="T49">
+        <v>31718.68377434875</v>
+      </c>
+      <c r="U49">
+        <v>2175.941973715091</v>
+      </c>
+      <c r="V49">
+        <v>335.2203121333021</v>
+      </c>
+      <c r="W49">
+        <v>65402</v>
+      </c>
+      <c r="X49">
+        <v>59320</v>
+      </c>
+      <c r="Y49">
+        <v>6082</v>
+      </c>
+      <c r="Z49">
+        <v>559</v>
+      </c>
+      <c r="AA49">
+        <v>43911</v>
+      </c>
+      <c r="AB49">
+        <v>37829</v>
+      </c>
+      <c r="AC49">
+        <v>6082</v>
+      </c>
+      <c r="AD49">
+        <v>20932</v>
+      </c>
+      <c r="AE49">
+        <v>64843</v>
+      </c>
+      <c r="AF49">
+        <v>58761</v>
+      </c>
+      <c r="AG49">
+        <v>6082</v>
+      </c>
+      <c r="AH49">
+        <v>7775.402458343117</v>
+      </c>
+      <c r="AI49">
+        <v>-21683.23980579675</v>
+      </c>
+      <c r="AJ49">
+        <v>29458.64226413988</v>
+      </c>
+      <c r="AK49">
+        <v>-57067.59754165688</v>
+      </c>
+      <c r="AL49">
+        <v>-80444.23980579675</v>
+      </c>
+      <c r="AM49">
+        <v>23376.64226413988</v>
+      </c>
+      <c r="AN49">
+        <v>-81003.23980579675</v>
+      </c>
+      <c r="AO49">
+        <v>167069.5975416569</v>
+      </c>
+      <c r="AP49">
+        <v>260689.82</v>
+      </c>
+      <c r="AQ49">
+        <v>0.5924819312336102</v>
+      </c>
+      <c r="AR49">
+        <v>0.1684415601652569</v>
+      </c>
+      <c r="AS49">
+        <v>13.6352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS49"/>
+  <dimension ref="A1:AS50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7167,6 +7167,143 @@
         <v>13.6352</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B50">
+        <v>109548</v>
+      </c>
+      <c r="C50">
+        <v>62902.07119645495</v>
+      </c>
+      <c r="D50">
+        <v>38846</v>
+      </c>
+      <c r="E50">
+        <v>7799.928803545052</v>
+      </c>
+      <c r="F50">
+        <v>8229.998744460856</v>
+      </c>
+      <c r="G50">
+        <v>54672.07245199409</v>
+      </c>
+      <c r="H50">
+        <v>102194.9679468242</v>
+      </c>
+      <c r="I50">
+        <v>92859.90169867058</v>
+      </c>
+      <c r="J50">
+        <v>9335.066248153618</v>
+      </c>
+      <c r="K50">
+        <v>272.6093796159527</v>
+      </c>
+      <c r="L50">
+        <v>7799.928803545052</v>
+      </c>
+      <c r="M50">
+        <v>5191.708419497784</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>88930.72134416543</v>
+      </c>
+      <c r="P50">
+        <v>54952.15</v>
+      </c>
+      <c r="Q50">
+        <v>46207.27791728213</v>
+      </c>
+      <c r="R50">
+        <v>8744.872082717873</v>
+      </c>
+      <c r="S50">
+        <v>33978.57134416544</v>
+      </c>
+      <c r="T50">
+        <v>31302.44039881832</v>
+      </c>
+      <c r="U50">
+        <v>2085.936779911374</v>
+      </c>
+      <c r="V50">
+        <v>590.194165435746</v>
+      </c>
+      <c r="W50">
+        <v>65011</v>
+      </c>
+      <c r="X50">
+        <v>59441</v>
+      </c>
+      <c r="Y50">
+        <v>5570</v>
+      </c>
+      <c r="Z50">
+        <v>812</v>
+      </c>
+      <c r="AA50">
+        <v>43133</v>
+      </c>
+      <c r="AB50">
+        <v>37563</v>
+      </c>
+      <c r="AC50">
+        <v>5570</v>
+      </c>
+      <c r="AD50">
+        <v>21066</v>
+      </c>
+      <c r="AE50">
+        <v>64199</v>
+      </c>
+      <c r="AF50">
+        <v>58629</v>
+      </c>
+      <c r="AG50">
+        <v>5570</v>
+      </c>
+      <c r="AH50">
+        <v>7353.03205317579</v>
+      </c>
+      <c r="AI50">
+        <v>-22157.90169867058</v>
+      </c>
+      <c r="AJ50">
+        <v>29510.93375184638</v>
+      </c>
+      <c r="AK50">
+        <v>-56845.96794682421</v>
+      </c>
+      <c r="AL50">
+        <v>-80786.90169867058</v>
+      </c>
+      <c r="AM50">
+        <v>23940.93375184638</v>
+      </c>
+      <c r="AN50">
+        <v>-81598.90169867058</v>
+      </c>
+      <c r="AO50">
+        <v>167205.9679468242</v>
+      </c>
+      <c r="AP50">
+        <v>261380.17</v>
+      </c>
+      <c r="AQ50">
+        <v>0.5860353452367911</v>
+      </c>
+      <c r="AR50">
+        <v>0.1650201696632151</v>
+      </c>
+      <c r="AS50">
+        <v>13.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS50"/>
+  <dimension ref="A1:AS51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7304,6 +7304,143 @@
         <v>13.54</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B51">
+        <v>109813</v>
+      </c>
+      <c r="C51">
+        <v>63021.59803914276</v>
+      </c>
+      <c r="D51">
+        <v>39017</v>
+      </c>
+      <c r="E51">
+        <v>7774.401960857244</v>
+      </c>
+      <c r="F51">
+        <v>7685.236292224265</v>
+      </c>
+      <c r="G51">
+        <v>55336.3617469185</v>
+      </c>
+      <c r="H51">
+        <v>100726.6587319889</v>
+      </c>
+      <c r="I51">
+        <v>91724.28956118753</v>
+      </c>
+      <c r="J51">
+        <v>9002.369170801378</v>
+      </c>
+      <c r="K51">
+        <v>270.101836629944</v>
+      </c>
+      <c r="L51">
+        <v>7774.401960857244</v>
+      </c>
+      <c r="M51">
+        <v>5515.855420252769</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>87166.29951424895</v>
+      </c>
+      <c r="P51">
+        <v>53345.39592802256</v>
+      </c>
+      <c r="Q51">
+        <v>44925.91671563851</v>
+      </c>
+      <c r="R51">
+        <v>8419.479212384049</v>
+      </c>
+      <c r="S51">
+        <v>33820.90358622639</v>
+      </c>
+      <c r="T51">
+        <v>31112.61874121297</v>
+      </c>
+      <c r="U51">
+        <v>2125.394886596098</v>
+      </c>
+      <c r="V51">
+        <v>582.8899584173294</v>
+      </c>
+      <c r="W51">
+        <v>65698</v>
+      </c>
+      <c r="X51">
+        <v>60026</v>
+      </c>
+      <c r="Y51">
+        <v>5672</v>
+      </c>
+      <c r="Z51">
+        <v>817</v>
+      </c>
+      <c r="AA51">
+        <v>43805</v>
+      </c>
+      <c r="AB51">
+        <v>38133</v>
+      </c>
+      <c r="AC51">
+        <v>5672</v>
+      </c>
+      <c r="AD51">
+        <v>21076</v>
+      </c>
+      <c r="AE51">
+        <v>64881</v>
+      </c>
+      <c r="AF51">
+        <v>59209</v>
+      </c>
+      <c r="AG51">
+        <v>5672</v>
+      </c>
+      <c r="AH51">
+        <v>9086.341268011092</v>
+      </c>
+      <c r="AI51">
+        <v>-20928.28956118753</v>
+      </c>
+      <c r="AJ51">
+        <v>30014.63082919862</v>
+      </c>
+      <c r="AK51">
+        <v>-55794.65873198891</v>
+      </c>
+      <c r="AL51">
+        <v>-80137.28956118753</v>
+      </c>
+      <c r="AM51">
+        <v>24342.63082919862</v>
+      </c>
+      <c r="AN51">
+        <v>-80954.28956118753</v>
+      </c>
+      <c r="AO51">
+        <v>166424.6587319889</v>
+      </c>
+      <c r="AP51">
+        <v>259533.94</v>
+      </c>
+      <c r="AQ51">
+        <v>0.5908316865944834</v>
+      </c>
+      <c r="AR51">
+        <v>0.1687833198232185</v>
+      </c>
+      <c r="AS51">
+        <v>13.4431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS51"/>
+  <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7441,6 +7441,143 @@
         <v>13.4431</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B52">
+        <v>110213</v>
+      </c>
+      <c r="C52">
+        <v>63910.46318747609</v>
+      </c>
+      <c r="D52">
+        <v>38577</v>
+      </c>
+      <c r="E52">
+        <v>7725.536812523909</v>
+      </c>
+      <c r="F52">
+        <v>7328.072050731249</v>
+      </c>
+      <c r="G52">
+        <v>56582.39113674484</v>
+      </c>
+      <c r="H52">
+        <v>99865.24159138392</v>
+      </c>
+      <c r="I52">
+        <v>90637.16100697407</v>
+      </c>
+      <c r="J52">
+        <v>9228.080584409854</v>
+      </c>
+      <c r="K52">
+        <v>266.4547715033988</v>
+      </c>
+      <c r="L52">
+        <v>7725.536812523909</v>
+      </c>
+      <c r="M52">
+        <v>5935.89404996616</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>85937.35595739046</v>
+      </c>
+      <c r="P52">
+        <v>52983.14657328665</v>
+      </c>
+      <c r="Q52">
+        <v>44660.84873319013</v>
+      </c>
+      <c r="R52">
+        <v>8322.29784009652</v>
+      </c>
+      <c r="S52">
+        <v>32954.20938410382</v>
+      </c>
+      <c r="T52">
+        <v>30080.71263572963</v>
+      </c>
+      <c r="U52">
+        <v>1967.714004060854</v>
+      </c>
+      <c r="V52">
+        <v>905.7827443133332</v>
+      </c>
+      <c r="W52">
+        <v>65432</v>
+      </c>
+      <c r="X52">
+        <v>60151</v>
+      </c>
+      <c r="Y52">
+        <v>5281</v>
+      </c>
+      <c r="Z52">
+        <v>822</v>
+      </c>
+      <c r="AA52">
+        <v>43702</v>
+      </c>
+      <c r="AB52">
+        <v>38421</v>
+      </c>
+      <c r="AC52">
+        <v>5281</v>
+      </c>
+      <c r="AD52">
+        <v>20908</v>
+      </c>
+      <c r="AE52">
+        <v>64610</v>
+      </c>
+      <c r="AF52">
+        <v>59329</v>
+      </c>
+      <c r="AG52">
+        <v>5281</v>
+      </c>
+      <c r="AH52">
+        <v>10347.75840861608</v>
+      </c>
+      <c r="AI52">
+        <v>-19001.16100697407</v>
+      </c>
+      <c r="AJ52">
+        <v>29348.91941559015</v>
+      </c>
+      <c r="AK52">
+        <v>-54262.24159138392</v>
+      </c>
+      <c r="AL52">
+        <v>-78330.16100697407</v>
+      </c>
+      <c r="AM52">
+        <v>24067.91941559015</v>
+      </c>
+      <c r="AN52">
+        <v>-79152.16100697407</v>
+      </c>
+      <c r="AO52">
+        <v>165297.2415913839</v>
+      </c>
+      <c r="AP52">
+        <v>255384.29</v>
+      </c>
+      <c r="AQ52">
+        <v>0.5862284848429858</v>
+      </c>
+      <c r="AR52">
+        <v>0.1711225071831944</v>
+      </c>
+      <c r="AS52">
+        <v>13.5932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:AS53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7155,13 +7155,13 @@
         <v>167069.5975416569</v>
       </c>
       <c r="AP49">
-        <v>260689.82</v>
+        <v>260689.81</v>
       </c>
       <c r="AQ49">
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.1684415601652569</v>
+        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7292,13 +7292,13 @@
         <v>167205.9679468242</v>
       </c>
       <c r="AP50">
-        <v>261380.17</v>
+        <v>261380.16</v>
       </c>
       <c r="AQ50">
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.1650201696632151</v>
+        <v>0.1650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7576,6 +7576,143 @@
       </c>
       <c r="AS52">
         <v>13.5932</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B53">
+        <v>114655</v>
+      </c>
+      <c r="C53">
+        <v>67962.24613591259</v>
+      </c>
+      <c r="D53">
+        <v>38939</v>
+      </c>
+      <c r="E53">
+        <v>7753.753864087412</v>
+      </c>
+      <c r="F53">
+        <v>7347.5216720893</v>
+      </c>
+      <c r="G53">
+        <v>60614.72446382329</v>
+      </c>
+      <c r="H53">
+        <v>98496.89493371108</v>
+      </c>
+      <c r="I53">
+        <v>89395.71294718282</v>
+      </c>
+      <c r="J53">
+        <v>9101.182060305586</v>
+      </c>
+      <c r="K53">
+        <v>268.3603727230473</v>
+      </c>
+      <c r="L53">
+        <v>7753.753864087412</v>
+      </c>
+      <c r="M53">
+        <v>5958.299432652369</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>84516.48126424826</v>
+      </c>
+      <c r="P53">
+        <v>52692.41805183595</v>
+      </c>
+      <c r="Q53">
+        <v>44406.57739610309</v>
+      </c>
+      <c r="R53">
+        <v>8285.840655732867</v>
+      </c>
+      <c r="S53">
+        <v>31824.0632124123</v>
+      </c>
+      <c r="T53">
+        <v>29339.40092811875</v>
+      </c>
+      <c r="U53">
+        <v>1669.320953498152</v>
+      </c>
+      <c r="V53">
+        <v>815.3414045727187</v>
+      </c>
+      <c r="W53">
+        <v>67122</v>
+      </c>
+      <c r="X53">
+        <v>61518</v>
+      </c>
+      <c r="Y53">
+        <v>5604</v>
+      </c>
+      <c r="Z53">
+        <v>563</v>
+      </c>
+      <c r="AA53">
+        <v>42872</v>
+      </c>
+      <c r="AB53">
+        <v>37268</v>
+      </c>
+      <c r="AC53">
+        <v>5604</v>
+      </c>
+      <c r="AD53">
+        <v>23687</v>
+      </c>
+      <c r="AE53">
+        <v>66559</v>
+      </c>
+      <c r="AF53">
+        <v>60955</v>
+      </c>
+      <c r="AG53">
+        <v>5604</v>
+      </c>
+      <c r="AH53">
+        <v>16158.10506628892</v>
+      </c>
+      <c r="AI53">
+        <v>-13679.71294718282</v>
+      </c>
+      <c r="AJ53">
+        <v>29837.81793969441</v>
+      </c>
+      <c r="AK53">
+        <v>-50400.89493371108</v>
+      </c>
+      <c r="AL53">
+        <v>-74634.71294718282</v>
+      </c>
+      <c r="AM53">
+        <v>24233.81793969441</v>
+      </c>
+      <c r="AN53">
+        <v>-75197.71294718282</v>
+      </c>
+      <c r="AO53">
+        <v>165618.8949337111</v>
+      </c>
+      <c r="AP53">
+        <v>252653.45</v>
+      </c>
+      <c r="AQ53">
+        <v>0.5805154594217435</v>
+      </c>
+      <c r="AR53">
+        <v>0.1696869763702019</v>
+      </c>
+      <c r="AS53">
+        <v>13.5543</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS53"/>
+  <dimension ref="A1:AS54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830645</v>
+        <v>0.0001540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.1552733834376522</v>
+        <v>0.0001552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548523844684408</v>
+        <v>0.0001548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711286424205766</v>
+        <v>0.0001711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.169458761099947</v>
+        <v>0.000169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711120718583385</v>
+        <v>0.0001711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668596216735144</v>
+        <v>0.0001668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664977157503071</v>
+        <v>0.0001664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>34271</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>21034</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>60822.122</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980</v>
+        <v>39.98</v>
       </c>
       <c r="AB43">
-        <v>33102</v>
+        <v>33.102</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AD43">
-        <v>20841</v>
+        <v>60781.02</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>60814.122</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-66610.39008109934</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>30305.68790361747</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-66618.39008109932</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.154080134850564</v>
+        <v>0.0001540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>54067</v>
+        <v>60785.27499999999</v>
       </c>
       <c r="Y44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39533</v>
+        <v>39.533</v>
       </c>
       <c r="AB44">
-        <v>32808</v>
+        <v>32.808</v>
       </c>
       <c r="AC44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AD44">
-        <v>20867</v>
+        <v>60360.467</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>53675</v>
+        <v>60393.275</v>
       </c>
       <c r="AG44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-68326.05192497035</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>30247.16461489405</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-68718.05192497035</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.153450834966544</v>
+        <v>0.000153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>53121</v>
+        <v>60340.773</v>
       </c>
       <c r="Y45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38991</v>
+        <v>38.991</v>
       </c>
       <c r="AB45">
-        <v>31764</v>
+        <v>31.764</v>
       </c>
       <c r="AC45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AD45">
-        <v>20965</v>
+        <v>59917.009</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>52729</v>
+        <v>59948.773</v>
       </c>
       <c r="AG45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-70022.5307420106</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>31093.43313737703</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-70414.5307420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.1510540895364002</v>
+        <v>0.0001510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>52088</v>
+        <v>59260.82</v>
       </c>
       <c r="Y46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="AB46">
-        <v>30720</v>
+        <v>30.72000000000001</v>
       </c>
       <c r="AC46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AD46">
-        <v>20967</v>
+        <v>58829.1</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>51687</v>
+        <v>58859.82</v>
       </c>
       <c r="AG46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-77767.45127309064</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>30914.3720056798</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-78168.45127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.1433119814866633</v>
+        <v>0.0001433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>59035</v>
+        <v>65285.743</v>
       </c>
       <c r="Y47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43317</v>
+        <v>43.317</v>
       </c>
       <c r="AB47">
-        <v>37060</v>
+        <v>37.06</v>
       </c>
       <c r="AC47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AD47">
-        <v>20997</v>
+        <v>64270.683</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>58057</v>
+        <v>64307.743</v>
       </c>
       <c r="AG47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79309.0724316205</v>
+        <v>-85559.8154316205</v>
       </c>
       <c r="AM47">
-        <v>23471.6712718762</v>
+        <v>29722.4142718762</v>
       </c>
       <c r="AN47">
-        <v>-80287.0724316205</v>
+        <v>-86537.81543162049</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.1630892047913144</v>
+        <v>0.0001630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6961,37 +6961,37 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>65768</v>
+        <v>64695.074</v>
       </c>
       <c r="X48">
-        <v>59642</v>
+        <v>64688.948</v>
       </c>
       <c r="Y48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="Z48">
-        <v>1074</v>
+        <v>1.074</v>
       </c>
       <c r="AA48">
-        <v>43704</v>
+        <v>43.704</v>
       </c>
       <c r="AB48">
-        <v>37578</v>
+        <v>37.578</v>
       </c>
       <c r="AC48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AD48">
-        <v>20990</v>
+        <v>64650.296</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>58568</v>
+        <v>64687.874</v>
       </c>
       <c r="AG48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,16 +7006,16 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-80188.64392217298</v>
+        <v>-86308.51792217299</v>
       </c>
       <c r="AM48">
-        <v>23655.08325948758</v>
+        <v>29774.95725948758</v>
       </c>
       <c r="AN48">
-        <v>-81262.64392217298</v>
+        <v>-86309.59192217299</v>
       </c>
       <c r="AO48">
-        <v>168658.5606626854</v>
+        <v>167585.6346626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.1656444835941124</v>
+        <v>0.0001656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>59320</v>
+        <v>65395.918</v>
       </c>
       <c r="Y49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43911</v>
+        <v>43.911</v>
       </c>
       <c r="AB49">
-        <v>37829</v>
+        <v>37.829</v>
       </c>
       <c r="AC49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AD49">
-        <v>20932</v>
+        <v>64799.089</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>58761</v>
+        <v>64836.918</v>
       </c>
       <c r="AG49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-80444.23980579675</v>
+        <v>-86520.15780579674</v>
       </c>
       <c r="AM49">
-        <v>23376.64226413988</v>
+        <v>29452.56026413988</v>
       </c>
       <c r="AN49">
-        <v>-81003.23980579675</v>
+        <v>-87079.15780579674</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.1684415666266357</v>
+        <v>0.0001684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>59441</v>
+        <v>65005.43</v>
       </c>
       <c r="Y50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43133</v>
+        <v>43.133</v>
       </c>
       <c r="AB50">
-        <v>37563</v>
+        <v>37.563</v>
       </c>
       <c r="AC50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AD50">
-        <v>21066</v>
+        <v>64155.867</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>58629</v>
+        <v>64193.43</v>
       </c>
       <c r="AG50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-80786.90169867058</v>
+        <v>-86351.33169867058</v>
       </c>
       <c r="AM50">
-        <v>23940.93375184638</v>
+        <v>29505.36375184638</v>
       </c>
       <c r="AN50">
-        <v>-81598.90169867058</v>
+        <v>-87163.33169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.1650201759766311</v>
+        <v>0.0001650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>60026</v>
+        <v>65692.32800000001</v>
       </c>
       <c r="Y51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43805</v>
+        <v>43.80499999999999</v>
       </c>
       <c r="AB51">
-        <v>38133</v>
+        <v>38.133</v>
       </c>
       <c r="AC51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AD51">
-        <v>21076</v>
+        <v>64837.195</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>59209</v>
+        <v>64875.328</v>
       </c>
       <c r="AG51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-80137.28956118753</v>
+        <v>-85803.61756118754</v>
       </c>
       <c r="AM51">
-        <v>24342.63082919862</v>
+        <v>30008.95882919862</v>
       </c>
       <c r="AN51">
-        <v>-80954.28956118753</v>
+        <v>-86620.61756118754</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.1687833198232185</v>
+        <v>0.0001687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>60151</v>
+        <v>65426.71900000001</v>
       </c>
       <c r="Y52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43702</v>
+        <v>43.70200000000001</v>
       </c>
       <c r="AB52">
-        <v>38421</v>
+        <v>38.42100000000001</v>
       </c>
       <c r="AC52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AD52">
-        <v>20908</v>
+        <v>64566.298</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>59329</v>
+        <v>64604.719</v>
       </c>
       <c r="AG52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-78330.16100697407</v>
+        <v>-83605.88000697407</v>
       </c>
       <c r="AM52">
-        <v>24067.91941559015</v>
+        <v>29343.63841559015</v>
       </c>
       <c r="AN52">
-        <v>-79152.16100697407</v>
+        <v>-84427.88000697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.1711225071831944</v>
+        <v>0.0001711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>61518</v>
+        <v>67116.39600000001</v>
       </c>
       <c r="Y53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42872</v>
+        <v>42.84699999999999</v>
       </c>
       <c r="AB53">
-        <v>37268</v>
+        <v>37.243</v>
       </c>
       <c r="AC53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AD53">
-        <v>23687</v>
+        <v>66516.15300000001</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>60955</v>
+        <v>66553.39599999999</v>
       </c>
       <c r="AG53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-74634.71294718282</v>
+        <v>-80233.10894718282</v>
       </c>
       <c r="AM53">
-        <v>24233.81793969441</v>
+        <v>29832.21393969442</v>
       </c>
       <c r="AN53">
-        <v>-75197.71294718282</v>
+        <v>-80796.10894718283</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,10 +7709,147 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.1696869763702019</v>
+        <v>0.0001695880266032385</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B54">
+        <v>114847</v>
+      </c>
+      <c r="C54">
+        <v>67334.75465925717</v>
+      </c>
+      <c r="D54">
+        <v>39732</v>
+      </c>
+      <c r="E54">
+        <v>7780.245340742821</v>
+      </c>
+      <c r="F54">
+        <v>7405.287610292488</v>
+      </c>
+      <c r="G54">
+        <v>59929.46704896469</v>
+      </c>
+      <c r="H54">
+        <v>99227.87920663309</v>
+      </c>
+      <c r="I54">
+        <v>89971.6049127267</v>
+      </c>
+      <c r="J54">
+        <v>9256.274367804203</v>
+      </c>
+      <c r="K54">
+        <v>271.5500066508033</v>
+      </c>
+      <c r="L54">
+        <v>7780.245340742821</v>
+      </c>
+      <c r="M54">
+        <v>5989.81806358168</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>85186.26579565778</v>
+      </c>
+      <c r="P54">
+        <v>53066.53921756995</v>
+      </c>
+      <c r="Q54">
+        <v>44649.54914943616</v>
+      </c>
+      <c r="R54">
+        <v>8416.990068133786</v>
+      </c>
+      <c r="S54">
+        <v>32119.72657808782</v>
+      </c>
+      <c r="T54">
+        <v>29860.62214569693</v>
+      </c>
+      <c r="U54">
+        <v>1419.820206618288</v>
+      </c>
+      <c r="V54">
+        <v>839.2842996704159</v>
+      </c>
+      <c r="W54">
+        <v>64510</v>
+      </c>
+      <c r="X54">
+        <v>64504.698</v>
+      </c>
+      <c r="Y54">
+        <v>5.302</v>
+      </c>
+      <c r="Z54">
+        <v>563</v>
+      </c>
+      <c r="AA54">
+        <v>40.219</v>
+      </c>
+      <c r="AB54">
+        <v>34.917</v>
+      </c>
+      <c r="AC54">
+        <v>5.302</v>
+      </c>
+      <c r="AD54">
+        <v>63906.781</v>
+      </c>
+      <c r="AE54">
+        <v>63947</v>
+      </c>
+      <c r="AF54">
+        <v>63941.698</v>
+      </c>
+      <c r="AG54">
+        <v>5.302</v>
+      </c>
+      <c r="AH54">
+        <v>15619.12079336691</v>
+      </c>
+      <c r="AI54">
+        <v>-14856.6049127267</v>
+      </c>
+      <c r="AJ54">
+        <v>30475.7256321958</v>
+      </c>
+      <c r="AK54">
+        <v>-48327.87920663309</v>
+      </c>
+      <c r="AL54">
+        <v>-78798.30291272671</v>
+      </c>
+      <c r="AM54">
+        <v>30470.4236321958</v>
+      </c>
+      <c r="AN54">
+        <v>-79361.30291272671</v>
+      </c>
+      <c r="AO54">
+        <v>163737.8792066331</v>
+      </c>
+      <c r="AP54">
+        <v>250812.07</v>
+      </c>
+      <c r="AQ54">
+        <v>0.5568016578578456</v>
+      </c>
+      <c r="AR54">
+        <v>0.0001603551216653967</v>
+      </c>
+      <c r="AS54">
+        <v>13.5322</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS54"/>
+  <dimension ref="A1:AS55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540216666830645</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.0001552733834376522</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548523844684408</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711286424205766</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.000169458761099947</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711120718583385</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668596216735144</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664977157503071</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>60822.122</v>
+        <v>53951</v>
       </c>
       <c r="Y43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39.98</v>
+        <v>39980</v>
       </c>
       <c r="AB43">
-        <v>33.102</v>
+        <v>33102</v>
       </c>
       <c r="AC43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AD43">
-        <v>60781.02</v>
+        <v>20841</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>60814.122</v>
+        <v>53943</v>
       </c>
       <c r="AG43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-66610.39008109934</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>30305.68790361747</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-66618.39008109932</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.0001540801348505641</v>
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>60785.27499999999</v>
+        <v>54067</v>
       </c>
       <c r="Y44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39.533</v>
+        <v>39533</v>
       </c>
       <c r="AB44">
-        <v>32.808</v>
+        <v>32808</v>
       </c>
       <c r="AC44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AD44">
-        <v>60360.467</v>
+        <v>20867</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>60393.275</v>
+        <v>53675</v>
       </c>
       <c r="AG44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-68326.05192497035</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>30247.16461489405</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-68718.05192497035</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.000153450834966544</v>
+        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>60340.773</v>
+        <v>53121</v>
       </c>
       <c r="Y45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38.991</v>
+        <v>38991</v>
       </c>
       <c r="AB45">
-        <v>31.764</v>
+        <v>31764</v>
       </c>
       <c r="AC45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AD45">
-        <v>59917.009</v>
+        <v>20965</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>59948.773</v>
+        <v>52729</v>
       </c>
       <c r="AG45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-70022.5307420106</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>31093.43313737703</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-70414.5307420106</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.0001510540895364002</v>
+        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>59260.82</v>
+        <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37.90000000000001</v>
+        <v>37900</v>
       </c>
       <c r="AB46">
-        <v>30.72000000000001</v>
+        <v>30720</v>
       </c>
       <c r="AC46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AD46">
-        <v>58829.1</v>
+        <v>20967</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>58859.82</v>
+        <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-77767.45127309064</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>30914.3720056798</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-78168.45127309064</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.0001433119814866633</v>
+        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>65285.743</v>
+        <v>59035</v>
       </c>
       <c r="Y47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43.317</v>
+        <v>43317</v>
       </c>
       <c r="AB47">
-        <v>37.06</v>
+        <v>37060</v>
       </c>
       <c r="AC47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AD47">
-        <v>64270.683</v>
+        <v>20997</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>64307.743</v>
+        <v>58057</v>
       </c>
       <c r="AG47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-85559.8154316205</v>
+        <v>-79309.0724316205</v>
       </c>
       <c r="AM47">
-        <v>29722.4142718762</v>
+        <v>23471.6712718762</v>
       </c>
       <c r="AN47">
-        <v>-86537.81543162049</v>
+        <v>-80287.0724316205</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.0001630892047913144</v>
+        <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6961,37 +6961,37 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>64695.074</v>
+        <v>65768</v>
       </c>
       <c r="X48">
-        <v>64688.948</v>
+        <v>59642</v>
       </c>
       <c r="Y48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="Z48">
-        <v>1.074</v>
+        <v>1074</v>
       </c>
       <c r="AA48">
-        <v>43.704</v>
+        <v>43704</v>
       </c>
       <c r="AB48">
-        <v>37.578</v>
+        <v>37578</v>
       </c>
       <c r="AC48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AD48">
-        <v>64650.296</v>
+        <v>20990</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>64687.874</v>
+        <v>58568</v>
       </c>
       <c r="AG48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,16 +7006,16 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-86308.51792217299</v>
+        <v>-80188.64392217298</v>
       </c>
       <c r="AM48">
-        <v>29774.95725948758</v>
+        <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-86309.59192217299</v>
+        <v>-81262.64392217298</v>
       </c>
       <c r="AO48">
-        <v>167585.6346626854</v>
+        <v>168658.5606626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.0001656444835941124</v>
+        <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>65395.918</v>
+        <v>59320</v>
       </c>
       <c r="Y49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43.911</v>
+        <v>43911</v>
       </c>
       <c r="AB49">
-        <v>37.829</v>
+        <v>37829</v>
       </c>
       <c r="AC49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="AD49">
-        <v>64799.089</v>
+        <v>20932</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>64836.918</v>
+        <v>58761</v>
       </c>
       <c r="AG49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-86520.15780579674</v>
+        <v>-80444.23980579675</v>
       </c>
       <c r="AM49">
-        <v>29452.56026413988</v>
+        <v>23376.64226413988</v>
       </c>
       <c r="AN49">
-        <v>-87079.15780579674</v>
+        <v>-81003.23980579675</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.0001684415666266357</v>
+        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>65005.43</v>
+        <v>59441</v>
       </c>
       <c r="Y50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43.133</v>
+        <v>43133</v>
       </c>
       <c r="AB50">
-        <v>37.563</v>
+        <v>37563</v>
       </c>
       <c r="AC50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="AD50">
-        <v>64155.867</v>
+        <v>21066</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>64193.43</v>
+        <v>58629</v>
       </c>
       <c r="AG50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-86351.33169867058</v>
+        <v>-80786.90169867058</v>
       </c>
       <c r="AM50">
-        <v>29505.36375184638</v>
+        <v>23940.93375184638</v>
       </c>
       <c r="AN50">
-        <v>-87163.33169867058</v>
+        <v>-81598.90169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.0001650201759766311</v>
+        <v>0.1650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>65692.32800000001</v>
+        <v>60026</v>
       </c>
       <c r="Y51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43.80499999999999</v>
+        <v>43805</v>
       </c>
       <c r="AB51">
-        <v>38.133</v>
+        <v>38133</v>
       </c>
       <c r="AC51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="AD51">
-        <v>64837.195</v>
+        <v>21076</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>64875.328</v>
+        <v>59209</v>
       </c>
       <c r="AG51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-85803.61756118754</v>
+        <v>-80137.28956118753</v>
       </c>
       <c r="AM51">
-        <v>30008.95882919862</v>
+        <v>24342.63082919862</v>
       </c>
       <c r="AN51">
-        <v>-86620.61756118754</v>
+        <v>-80954.28956118753</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.0001687833198232185</v>
+        <v>0.1687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>65426.71900000001</v>
+        <v>60151</v>
       </c>
       <c r="Y52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43.70200000000001</v>
+        <v>43702</v>
       </c>
       <c r="AB52">
-        <v>38.42100000000001</v>
+        <v>38421</v>
       </c>
       <c r="AC52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="AD52">
-        <v>64566.298</v>
+        <v>20908</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>64604.719</v>
+        <v>59329</v>
       </c>
       <c r="AG52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-83605.88000697407</v>
+        <v>-78330.16100697407</v>
       </c>
       <c r="AM52">
-        <v>29343.63841559015</v>
+        <v>24067.91941559015</v>
       </c>
       <c r="AN52">
-        <v>-84427.88000697407</v>
+        <v>-79152.16100697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.0001711225071831944</v>
+        <v>0.1711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>67116.39600000001</v>
+        <v>61518</v>
       </c>
       <c r="Y53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42.84699999999999</v>
+        <v>42847</v>
       </c>
       <c r="AB53">
-        <v>37.243</v>
+        <v>37243</v>
       </c>
       <c r="AC53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="AD53">
-        <v>66516.15300000001</v>
+        <v>23712</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>66553.39599999999</v>
+        <v>60955</v>
       </c>
       <c r="AG53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-80233.10894718282</v>
+        <v>-74634.71294718282</v>
       </c>
       <c r="AM53">
-        <v>29832.21393969442</v>
+        <v>24233.81793969441</v>
       </c>
       <c r="AN53">
-        <v>-80796.10894718283</v>
+        <v>-75197.71294718282</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,7 +7709,7 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.0001695880266032385</v>
+        <v>0.1695880266032386</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7786,34 +7786,34 @@
         <v>64510</v>
       </c>
       <c r="X54">
-        <v>64504.698</v>
+        <v>59208</v>
       </c>
       <c r="Y54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z54">
         <v>563</v>
       </c>
       <c r="AA54">
-        <v>40.219</v>
+        <v>40219</v>
       </c>
       <c r="AB54">
-        <v>34.917</v>
+        <v>34917</v>
       </c>
       <c r="AC54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD54">
-        <v>63906.781</v>
+        <v>23728</v>
       </c>
       <c r="AE54">
         <v>63947</v>
       </c>
       <c r="AF54">
-        <v>63941.698</v>
+        <v>58645</v>
       </c>
       <c r="AG54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH54">
         <v>15619.12079336691</v>
@@ -7828,13 +7828,13 @@
         <v>-48327.87920663309</v>
       </c>
       <c r="AL54">
-        <v>-78798.30291272671</v>
+        <v>-73501.6049127267</v>
       </c>
       <c r="AM54">
-        <v>30470.4236321958</v>
+        <v>25173.7256321958</v>
       </c>
       <c r="AN54">
-        <v>-79361.30291272671</v>
+        <v>-74064.6049127267</v>
       </c>
       <c r="AO54">
         <v>163737.8792066331</v>
@@ -7846,10 +7846,147 @@
         <v>0.5568016578578456</v>
       </c>
       <c r="AR54">
-        <v>0.0001603551216653967</v>
+        <v>0.1603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B55">
+        <v>114010</v>
+      </c>
+      <c r="C55">
+        <v>65007.34674899842</v>
+      </c>
+      <c r="D55">
+        <v>41229</v>
+      </c>
+      <c r="E55">
+        <v>7773.65325100158</v>
+      </c>
+      <c r="F55">
+        <v>7384.375197559451</v>
+      </c>
+      <c r="G55">
+        <v>57622.97155143897</v>
+      </c>
+      <c r="H55">
+        <v>94402.12776123792</v>
+      </c>
+      <c r="I55">
+        <v>84984.26838681221</v>
+      </c>
+      <c r="J55">
+        <v>9417.8593744257</v>
+      </c>
+      <c r="K55">
+        <v>269.9975741537105</v>
+      </c>
+      <c r="L55">
+        <v>7773.65325100158</v>
+      </c>
+      <c r="M55">
+        <v>5975.293858198258</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>80383.18307788437</v>
+      </c>
+      <c r="P55">
+        <v>51923.88502958798</v>
+      </c>
+      <c r="Q55">
+        <v>43314.90226779873</v>
+      </c>
+      <c r="R55">
+        <v>8608.982761789246</v>
+      </c>
+      <c r="S55">
+        <v>28459.29804829639</v>
+      </c>
+      <c r="T55">
+        <v>26352.40783621862</v>
+      </c>
+      <c r="U55">
+        <v>1298.01359944132</v>
+      </c>
+      <c r="V55">
+        <v>808.8766126364538</v>
+      </c>
+      <c r="W55">
+        <v>63570</v>
+      </c>
+      <c r="X55">
+        <v>59333</v>
+      </c>
+      <c r="Y55">
+        <v>4237</v>
+      </c>
+      <c r="Z55">
+        <v>567</v>
+      </c>
+      <c r="AA55">
+        <v>39207</v>
+      </c>
+      <c r="AB55">
+        <v>34970</v>
+      </c>
+      <c r="AC55">
+        <v>4237</v>
+      </c>
+      <c r="AD55">
+        <v>23796</v>
+      </c>
+      <c r="AE55">
+        <v>63003</v>
+      </c>
+      <c r="AF55">
+        <v>58766</v>
+      </c>
+      <c r="AG55">
+        <v>4237</v>
+      </c>
+      <c r="AH55">
+        <v>19607.87223876208</v>
+      </c>
+      <c r="AI55">
+        <v>-12203.26838681221</v>
+      </c>
+      <c r="AJ55">
+        <v>31811.1406255743</v>
+      </c>
+      <c r="AK55">
+        <v>-43395.12776123792</v>
+      </c>
+      <c r="AL55">
+        <v>-70969.26838681221</v>
+      </c>
+      <c r="AM55">
+        <v>27574.1406255743</v>
+      </c>
+      <c r="AN55">
+        <v>-71536.26838681221</v>
+      </c>
+      <c r="AO55">
+        <v>157972.1277612379</v>
+      </c>
+      <c r="AP55">
+        <v>243309.2</v>
+      </c>
+      <c r="AQ55">
+        <v>0.5526094202262959</v>
+      </c>
+      <c r="AR55">
+        <v>0.161140639153801</v>
+      </c>
+      <c r="AS55">
+        <v>13.6035</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS55"/>
+  <dimension ref="A1:AS56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830645</v>
+        <v>0.0001540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.1552733834376522</v>
+        <v>0.0001552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548523844684408</v>
+        <v>0.0001548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711286424205766</v>
+        <v>0.0001711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.169458761099947</v>
+        <v>0.000169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711120718583385</v>
+        <v>0.0001711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668596216735144</v>
+        <v>0.0001668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664977157503071</v>
+        <v>0.0001664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>34271</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>21034</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>60822.122</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980</v>
+        <v>39.98</v>
       </c>
       <c r="AB43">
-        <v>33102</v>
+        <v>33.102</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AD43">
-        <v>20841</v>
+        <v>60781.02</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>60814.122</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-66610.39008109934</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>30305.68790361747</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-66618.39008109932</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.154080134850564</v>
+        <v>0.0001540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>54067</v>
+        <v>60785.27499999999</v>
       </c>
       <c r="Y44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39533</v>
+        <v>39.533</v>
       </c>
       <c r="AB44">
-        <v>32808</v>
+        <v>32.808</v>
       </c>
       <c r="AC44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AD44">
-        <v>20867</v>
+        <v>60360.467</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>53675</v>
+        <v>60393.275</v>
       </c>
       <c r="AG44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-68326.05192497035</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>30247.16461489405</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-68718.05192497035</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.153450834966544</v>
+        <v>0.000153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>53121</v>
+        <v>60340.773</v>
       </c>
       <c r="Y45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38991</v>
+        <v>38.991</v>
       </c>
       <c r="AB45">
-        <v>31764</v>
+        <v>31.764</v>
       </c>
       <c r="AC45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AD45">
-        <v>20965</v>
+        <v>59917.009</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>52729</v>
+        <v>59948.773</v>
       </c>
       <c r="AG45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-70022.5307420106</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>31093.43313737703</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-70414.5307420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.1510540895364002</v>
+        <v>0.0001510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>52088</v>
+        <v>59260.82</v>
       </c>
       <c r="Y46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="AB46">
-        <v>30720</v>
+        <v>30.72000000000001</v>
       </c>
       <c r="AC46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AD46">
-        <v>20967</v>
+        <v>58829.1</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>51687</v>
+        <v>58859.82</v>
       </c>
       <c r="AG46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-77767.45127309064</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>30914.3720056798</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-78168.45127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.1433119814866633</v>
+        <v>0.0001433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>59035</v>
+        <v>65285.743</v>
       </c>
       <c r="Y47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43317</v>
+        <v>43.317</v>
       </c>
       <c r="AB47">
-        <v>37060</v>
+        <v>37.06</v>
       </c>
       <c r="AC47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AD47">
-        <v>20997</v>
+        <v>64270.683</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>58057</v>
+        <v>64307.743</v>
       </c>
       <c r="AG47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79309.0724316205</v>
+        <v>-85559.8154316205</v>
       </c>
       <c r="AM47">
-        <v>23471.6712718762</v>
+        <v>29722.4142718762</v>
       </c>
       <c r="AN47">
-        <v>-80287.0724316205</v>
+        <v>-86537.81543162049</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.1630892047913144</v>
+        <v>0.0001630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6961,37 +6961,37 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>65768</v>
+        <v>64695.074</v>
       </c>
       <c r="X48">
-        <v>59642</v>
+        <v>64688.948</v>
       </c>
       <c r="Y48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="Z48">
-        <v>1074</v>
+        <v>1.074</v>
       </c>
       <c r="AA48">
-        <v>43704</v>
+        <v>43.704</v>
       </c>
       <c r="AB48">
-        <v>37578</v>
+        <v>37.578</v>
       </c>
       <c r="AC48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AD48">
-        <v>20990</v>
+        <v>64650.296</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>58568</v>
+        <v>64687.874</v>
       </c>
       <c r="AG48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,16 +7006,16 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-80188.64392217298</v>
+        <v>-86308.51792217299</v>
       </c>
       <c r="AM48">
-        <v>23655.08325948758</v>
+        <v>29774.95725948758</v>
       </c>
       <c r="AN48">
-        <v>-81262.64392217298</v>
+        <v>-86309.59192217299</v>
       </c>
       <c r="AO48">
-        <v>168658.5606626854</v>
+        <v>167585.6346626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.1656444835941124</v>
+        <v>0.0001656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>59320</v>
+        <v>65395.918</v>
       </c>
       <c r="Y49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43911</v>
+        <v>43.911</v>
       </c>
       <c r="AB49">
-        <v>37829</v>
+        <v>37.829</v>
       </c>
       <c r="AC49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AD49">
-        <v>20932</v>
+        <v>64799.089</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>58761</v>
+        <v>64836.918</v>
       </c>
       <c r="AG49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-80444.23980579675</v>
+        <v>-86520.15780579674</v>
       </c>
       <c r="AM49">
-        <v>23376.64226413988</v>
+        <v>29452.56026413988</v>
       </c>
       <c r="AN49">
-        <v>-81003.23980579675</v>
+        <v>-87079.15780579674</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.1684415666266357</v>
+        <v>0.0001684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>59441</v>
+        <v>65005.43</v>
       </c>
       <c r="Y50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43133</v>
+        <v>43.133</v>
       </c>
       <c r="AB50">
-        <v>37563</v>
+        <v>37.563</v>
       </c>
       <c r="AC50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AD50">
-        <v>21066</v>
+        <v>64155.867</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>58629</v>
+        <v>64193.43</v>
       </c>
       <c r="AG50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-80786.90169867058</v>
+        <v>-86351.33169867058</v>
       </c>
       <c r="AM50">
-        <v>23940.93375184638</v>
+        <v>29505.36375184638</v>
       </c>
       <c r="AN50">
-        <v>-81598.90169867058</v>
+        <v>-87163.33169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.1650201759766311</v>
+        <v>0.0001650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>60026</v>
+        <v>65692.32800000001</v>
       </c>
       <c r="Y51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43805</v>
+        <v>43.80499999999999</v>
       </c>
       <c r="AB51">
-        <v>38133</v>
+        <v>38.133</v>
       </c>
       <c r="AC51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AD51">
-        <v>21076</v>
+        <v>64837.195</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>59209</v>
+        <v>64875.328</v>
       </c>
       <c r="AG51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-80137.28956118753</v>
+        <v>-85803.61756118754</v>
       </c>
       <c r="AM51">
-        <v>24342.63082919862</v>
+        <v>30008.95882919862</v>
       </c>
       <c r="AN51">
-        <v>-80954.28956118753</v>
+        <v>-86620.61756118754</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.1687833198232185</v>
+        <v>0.0001687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>60151</v>
+        <v>65426.71900000001</v>
       </c>
       <c r="Y52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43702</v>
+        <v>43.70200000000001</v>
       </c>
       <c r="AB52">
-        <v>38421</v>
+        <v>38.42100000000001</v>
       </c>
       <c r="AC52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AD52">
-        <v>20908</v>
+        <v>64566.298</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>59329</v>
+        <v>64604.719</v>
       </c>
       <c r="AG52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-78330.16100697407</v>
+        <v>-83605.88000697407</v>
       </c>
       <c r="AM52">
-        <v>24067.91941559015</v>
+        <v>29343.63841559015</v>
       </c>
       <c r="AN52">
-        <v>-79152.16100697407</v>
+        <v>-84427.88000697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.1711225071831944</v>
+        <v>0.0001711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>61518</v>
+        <v>67116.39600000001</v>
       </c>
       <c r="Y53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42847</v>
+        <v>42.84699999999999</v>
       </c>
       <c r="AB53">
-        <v>37243</v>
+        <v>37.243</v>
       </c>
       <c r="AC53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AD53">
-        <v>23712</v>
+        <v>66516.15300000001</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>60955</v>
+        <v>66553.39599999999</v>
       </c>
       <c r="AG53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-74634.71294718282</v>
+        <v>-80233.10894718282</v>
       </c>
       <c r="AM53">
-        <v>24233.81793969441</v>
+        <v>29832.21393969442</v>
       </c>
       <c r="AN53">
-        <v>-75197.71294718282</v>
+        <v>-80796.10894718283</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,7 +7709,7 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.1695880266032386</v>
+        <v>0.0001695880266032385</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7786,34 +7786,34 @@
         <v>64510</v>
       </c>
       <c r="X54">
-        <v>59208</v>
+        <v>64504.698</v>
       </c>
       <c r="Y54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z54">
         <v>563</v>
       </c>
       <c r="AA54">
-        <v>40219</v>
+        <v>40.219</v>
       </c>
       <c r="AB54">
-        <v>34917</v>
+        <v>34.917</v>
       </c>
       <c r="AC54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD54">
-        <v>23728</v>
+        <v>63906.781</v>
       </c>
       <c r="AE54">
         <v>63947</v>
       </c>
       <c r="AF54">
-        <v>58645</v>
+        <v>63941.698</v>
       </c>
       <c r="AG54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH54">
         <v>15619.12079336691</v>
@@ -7828,13 +7828,13 @@
         <v>-48327.87920663309</v>
       </c>
       <c r="AL54">
-        <v>-73501.6049127267</v>
+        <v>-78798.30291272671</v>
       </c>
       <c r="AM54">
-        <v>25173.7256321958</v>
+        <v>30470.4236321958</v>
       </c>
       <c r="AN54">
-        <v>-74064.6049127267</v>
+        <v>-79361.30291272671</v>
       </c>
       <c r="AO54">
         <v>163737.8792066331</v>
@@ -7846,7 +7846,7 @@
         <v>0.5568016578578456</v>
       </c>
       <c r="AR54">
-        <v>0.1603551216653967</v>
+        <v>0.0001603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -7923,34 +7923,34 @@
         <v>63570</v>
       </c>
       <c r="X55">
-        <v>59333</v>
+        <v>63565.763</v>
       </c>
       <c r="Y55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="Z55">
         <v>567</v>
       </c>
       <c r="AA55">
-        <v>39207</v>
+        <v>39.207</v>
       </c>
       <c r="AB55">
-        <v>34970</v>
+        <v>34.97</v>
       </c>
       <c r="AC55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="AD55">
-        <v>23796</v>
+        <v>62963.793</v>
       </c>
       <c r="AE55">
         <v>63003</v>
       </c>
       <c r="AF55">
-        <v>58766</v>
+        <v>62998.763</v>
       </c>
       <c r="AG55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="AH55">
         <v>19607.87223876208</v>
@@ -7965,13 +7965,13 @@
         <v>-43395.12776123792</v>
       </c>
       <c r="AL55">
-        <v>-70969.26838681221</v>
+        <v>-75202.03138681222</v>
       </c>
       <c r="AM55">
-        <v>27574.1406255743</v>
+        <v>31806.9036255743</v>
       </c>
       <c r="AN55">
-        <v>-71536.26838681221</v>
+        <v>-75769.03138681222</v>
       </c>
       <c r="AO55">
         <v>157972.1277612379</v>
@@ -7983,10 +7983,147 @@
         <v>0.5526094202262959</v>
       </c>
       <c r="AR55">
-        <v>0.161140639153801</v>
+        <v>0.000161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B56">
+        <v>113143</v>
+      </c>
+      <c r="C56">
+        <v>62460.29430032882</v>
+      </c>
+      <c r="D56">
+        <v>42944</v>
+      </c>
+      <c r="E56">
+        <v>7738.705699671173</v>
+      </c>
+      <c r="F56">
+        <v>7350.963576065878</v>
+      </c>
+      <c r="G56">
+        <v>55109.33072426295</v>
+      </c>
+      <c r="H56">
+        <v>95167.08060481718</v>
+      </c>
+      <c r="I56">
+        <v>84857.76327253309</v>
+      </c>
+      <c r="J56">
+        <v>10309.31747280852</v>
+      </c>
+      <c r="K56">
+        <v>273.5180995475113</v>
+      </c>
+      <c r="L56">
+        <v>7738.705699671173</v>
+      </c>
+      <c r="M56">
+        <v>5942.563095472303</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>81212.29371012619</v>
+      </c>
+      <c r="P56">
+        <v>52047.02889182429</v>
+      </c>
+      <c r="Q56">
+        <v>43064.76441078103</v>
+      </c>
+      <c r="R56">
+        <v>8982.264551305472</v>
+      </c>
+      <c r="S56">
+        <v>29165.26481830191</v>
+      </c>
+      <c r="T56">
+        <v>26747.71598605998</v>
+      </c>
+      <c r="U56">
+        <v>1090.495981001096</v>
+      </c>
+      <c r="V56">
+        <v>1327.052921503049</v>
+      </c>
+      <c r="W56">
+        <v>61901</v>
+      </c>
+      <c r="X56">
+        <v>60941.466</v>
+      </c>
+      <c r="Y56">
+        <v>959.534</v>
+      </c>
+      <c r="Z56">
+        <v>770</v>
+      </c>
+      <c r="AA56">
+        <v>37.19100000000003</v>
+      </c>
+      <c r="AB56">
+        <v>-922.343</v>
+      </c>
+      <c r="AC56">
+        <v>959.534</v>
+      </c>
+      <c r="AD56">
+        <v>61093.809</v>
+      </c>
+      <c r="AE56">
+        <v>61131</v>
+      </c>
+      <c r="AF56">
+        <v>60171.466</v>
+      </c>
+      <c r="AG56">
+        <v>959.534</v>
+      </c>
+      <c r="AH56">
+        <v>17975.91939518282</v>
+      </c>
+      <c r="AI56">
+        <v>-14658.76327253309</v>
+      </c>
+      <c r="AJ56">
+        <v>32634.68252719148</v>
+      </c>
+      <c r="AK56">
+        <v>-43155.08060481718</v>
+      </c>
+      <c r="AL56">
+        <v>-74830.22927253309</v>
+      </c>
+      <c r="AM56">
+        <v>31675.14852719148</v>
+      </c>
+      <c r="AN56">
+        <v>-75600.22927253309</v>
+      </c>
+      <c r="AO56">
+        <v>157068.0806048172</v>
+      </c>
+      <c r="AP56">
+        <v>243218.05</v>
+      </c>
+      <c r="AQ56">
+        <v>0.5402985602290906</v>
+      </c>
+      <c r="AR56">
+        <v>0.0001529121707866667</v>
+      </c>
+      <c r="AS56">
+        <v>14.2324</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AS57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540216666830645</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.0001552733834376522</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548523844684408</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711286424205766</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.000169458761099947</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711120718583385</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668596216735144</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664977157503071</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.1649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.1739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>60822.122</v>
+        <v>53951</v>
       </c>
       <c r="Y43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39.98</v>
+        <v>39980</v>
       </c>
       <c r="AB43">
-        <v>33.102</v>
+        <v>33102</v>
       </c>
       <c r="AC43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AD43">
-        <v>60781.02</v>
+        <v>20841</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>60814.122</v>
+        <v>53943</v>
       </c>
       <c r="AG43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-66610.39008109934</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>30305.68790361747</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-66618.39008109932</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.0001540801348505641</v>
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>60785.27499999999</v>
+        <v>54067</v>
       </c>
       <c r="Y44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39.533</v>
+        <v>39533</v>
       </c>
       <c r="AB44">
-        <v>32.808</v>
+        <v>32808</v>
       </c>
       <c r="AC44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AD44">
-        <v>60360.467</v>
+        <v>20867</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>60393.275</v>
+        <v>53675</v>
       </c>
       <c r="AG44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-68326.05192497035</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>30247.16461489405</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-68718.05192497035</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.000153450834966544</v>
+        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>60340.773</v>
+        <v>53121</v>
       </c>
       <c r="Y45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38.991</v>
+        <v>38991</v>
       </c>
       <c r="AB45">
-        <v>31.764</v>
+        <v>31764</v>
       </c>
       <c r="AC45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AD45">
-        <v>59917.009</v>
+        <v>20965</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>59948.773</v>
+        <v>52729</v>
       </c>
       <c r="AG45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-70022.5307420106</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>31093.43313737703</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-70414.5307420106</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.0001510540895364002</v>
+        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>59260.82</v>
+        <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37.90000000000001</v>
+        <v>37900</v>
       </c>
       <c r="AB46">
-        <v>30.72000000000001</v>
+        <v>30720</v>
       </c>
       <c r="AC46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AD46">
-        <v>58829.1</v>
+        <v>20967</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>58859.82</v>
+        <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-77767.45127309064</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>30914.3720056798</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-78168.45127309064</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.0001433119814866633</v>
+        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>65285.743</v>
+        <v>59035</v>
       </c>
       <c r="Y47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43.317</v>
+        <v>43317</v>
       </c>
       <c r="AB47">
-        <v>37.06</v>
+        <v>37060</v>
       </c>
       <c r="AC47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AD47">
-        <v>64270.683</v>
+        <v>20997</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>64307.743</v>
+        <v>58057</v>
       </c>
       <c r="AG47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-85559.8154316205</v>
+        <v>-79309.0724316205</v>
       </c>
       <c r="AM47">
-        <v>29722.4142718762</v>
+        <v>23471.6712718762</v>
       </c>
       <c r="AN47">
-        <v>-86537.81543162049</v>
+        <v>-80287.0724316205</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.0001630892047913144</v>
+        <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6961,37 +6961,37 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>64695.074</v>
+        <v>65768</v>
       </c>
       <c r="X48">
-        <v>64688.948</v>
+        <v>59642</v>
       </c>
       <c r="Y48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="Z48">
-        <v>1.074</v>
+        <v>1074</v>
       </c>
       <c r="AA48">
-        <v>43.704</v>
+        <v>43704</v>
       </c>
       <c r="AB48">
-        <v>37.578</v>
+        <v>37578</v>
       </c>
       <c r="AC48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AD48">
-        <v>64650.296</v>
+        <v>20990</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>64687.874</v>
+        <v>58568</v>
       </c>
       <c r="AG48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,16 +7006,16 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-86308.51792217299</v>
+        <v>-80188.64392217298</v>
       </c>
       <c r="AM48">
-        <v>29774.95725948758</v>
+        <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-86309.59192217299</v>
+        <v>-81262.64392217298</v>
       </c>
       <c r="AO48">
-        <v>167585.6346626854</v>
+        <v>168658.5606626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.0001656444835941124</v>
+        <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>65395.918</v>
+        <v>59320</v>
       </c>
       <c r="Y49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43.911</v>
+        <v>43911</v>
       </c>
       <c r="AB49">
-        <v>37.829</v>
+        <v>37829</v>
       </c>
       <c r="AC49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="AD49">
-        <v>64799.089</v>
+        <v>20932</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>64836.918</v>
+        <v>58761</v>
       </c>
       <c r="AG49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-86520.15780579674</v>
+        <v>-80444.23980579675</v>
       </c>
       <c r="AM49">
-        <v>29452.56026413988</v>
+        <v>23376.64226413988</v>
       </c>
       <c r="AN49">
-        <v>-87079.15780579674</v>
+        <v>-81003.23980579675</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.0001684415666266357</v>
+        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>65005.43</v>
+        <v>59441</v>
       </c>
       <c r="Y50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43.133</v>
+        <v>43133</v>
       </c>
       <c r="AB50">
-        <v>37.563</v>
+        <v>37563</v>
       </c>
       <c r="AC50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="AD50">
-        <v>64155.867</v>
+        <v>21066</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>64193.43</v>
+        <v>58629</v>
       </c>
       <c r="AG50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-86351.33169867058</v>
+        <v>-80786.90169867058</v>
       </c>
       <c r="AM50">
-        <v>29505.36375184638</v>
+        <v>23940.93375184638</v>
       </c>
       <c r="AN50">
-        <v>-87163.33169867058</v>
+        <v>-81598.90169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.0001650201759766311</v>
+        <v>0.1650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>65692.32800000001</v>
+        <v>60026</v>
       </c>
       <c r="Y51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43.80499999999999</v>
+        <v>43805</v>
       </c>
       <c r="AB51">
-        <v>38.133</v>
+        <v>38133</v>
       </c>
       <c r="AC51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="AD51">
-        <v>64837.195</v>
+        <v>21076</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>64875.328</v>
+        <v>59209</v>
       </c>
       <c r="AG51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-85803.61756118754</v>
+        <v>-80137.28956118753</v>
       </c>
       <c r="AM51">
-        <v>30008.95882919862</v>
+        <v>24342.63082919862</v>
       </c>
       <c r="AN51">
-        <v>-86620.61756118754</v>
+        <v>-80954.28956118753</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.0001687833198232185</v>
+        <v>0.1687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>65426.71900000001</v>
+        <v>60151</v>
       </c>
       <c r="Y52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43.70200000000001</v>
+        <v>43702</v>
       </c>
       <c r="AB52">
-        <v>38.42100000000001</v>
+        <v>38421</v>
       </c>
       <c r="AC52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="AD52">
-        <v>64566.298</v>
+        <v>20908</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>64604.719</v>
+        <v>59329</v>
       </c>
       <c r="AG52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-83605.88000697407</v>
+        <v>-78330.16100697407</v>
       </c>
       <c r="AM52">
-        <v>29343.63841559015</v>
+        <v>24067.91941559015</v>
       </c>
       <c r="AN52">
-        <v>-84427.88000697407</v>
+        <v>-79152.16100697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.0001711225071831944</v>
+        <v>0.1711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>67116.39600000001</v>
+        <v>61518</v>
       </c>
       <c r="Y53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42.84699999999999</v>
+        <v>42847</v>
       </c>
       <c r="AB53">
-        <v>37.243</v>
+        <v>37243</v>
       </c>
       <c r="AC53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="AD53">
-        <v>66516.15300000001</v>
+        <v>23712</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>66553.39599999999</v>
+        <v>60955</v>
       </c>
       <c r="AG53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-80233.10894718282</v>
+        <v>-74634.71294718282</v>
       </c>
       <c r="AM53">
-        <v>29832.21393969442</v>
+        <v>24233.81793969441</v>
       </c>
       <c r="AN53">
-        <v>-80796.10894718283</v>
+        <v>-75197.71294718282</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,7 +7709,7 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.0001695880266032385</v>
+        <v>0.1695880266032386</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7786,34 +7786,34 @@
         <v>64510</v>
       </c>
       <c r="X54">
-        <v>64504.698</v>
+        <v>59208</v>
       </c>
       <c r="Y54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z54">
         <v>563</v>
       </c>
       <c r="AA54">
-        <v>40.219</v>
+        <v>40219</v>
       </c>
       <c r="AB54">
-        <v>34.917</v>
+        <v>34917</v>
       </c>
       <c r="AC54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD54">
-        <v>63906.781</v>
+        <v>23728</v>
       </c>
       <c r="AE54">
         <v>63947</v>
       </c>
       <c r="AF54">
-        <v>63941.698</v>
+        <v>58645</v>
       </c>
       <c r="AG54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH54">
         <v>15619.12079336691</v>
@@ -7828,13 +7828,13 @@
         <v>-48327.87920663309</v>
       </c>
       <c r="AL54">
-        <v>-78798.30291272671</v>
+        <v>-73501.6049127267</v>
       </c>
       <c r="AM54">
-        <v>30470.4236321958</v>
+        <v>25173.7256321958</v>
       </c>
       <c r="AN54">
-        <v>-79361.30291272671</v>
+        <v>-74064.6049127267</v>
       </c>
       <c r="AO54">
         <v>163737.8792066331</v>
@@ -7846,7 +7846,7 @@
         <v>0.5568016578578456</v>
       </c>
       <c r="AR54">
-        <v>0.0001603551216653967</v>
+        <v>0.1603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -7923,34 +7923,34 @@
         <v>63570</v>
       </c>
       <c r="X55">
-        <v>63565.763</v>
+        <v>59333</v>
       </c>
       <c r="Y55">
-        <v>4.237</v>
+        <v>4237</v>
       </c>
       <c r="Z55">
         <v>567</v>
       </c>
       <c r="AA55">
-        <v>39.207</v>
+        <v>39207</v>
       </c>
       <c r="AB55">
-        <v>34.97</v>
+        <v>34970</v>
       </c>
       <c r="AC55">
-        <v>4.237</v>
+        <v>4237</v>
       </c>
       <c r="AD55">
-        <v>62963.793</v>
+        <v>23796</v>
       </c>
       <c r="AE55">
         <v>63003</v>
       </c>
       <c r="AF55">
-        <v>62998.763</v>
+        <v>58766</v>
       </c>
       <c r="AG55">
-        <v>4.237</v>
+        <v>4237</v>
       </c>
       <c r="AH55">
         <v>19607.87223876208</v>
@@ -7965,13 +7965,13 @@
         <v>-43395.12776123792</v>
       </c>
       <c r="AL55">
-        <v>-75202.03138681222</v>
+        <v>-70969.26838681221</v>
       </c>
       <c r="AM55">
-        <v>31806.9036255743</v>
+        <v>27574.1406255743</v>
       </c>
       <c r="AN55">
-        <v>-75769.03138681222</v>
+        <v>-71536.26838681221</v>
       </c>
       <c r="AO55">
         <v>157972.1277612379</v>
@@ -7983,7 +7983,7 @@
         <v>0.5526094202262959</v>
       </c>
       <c r="AR55">
-        <v>0.000161140639153801</v>
+        <v>0.161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
@@ -8060,34 +8060,34 @@
         <v>61901</v>
       </c>
       <c r="X56">
-        <v>60941.466</v>
+        <v>58410</v>
       </c>
       <c r="Y56">
-        <v>959.534</v>
+        <v>3491</v>
       </c>
       <c r="Z56">
         <v>770</v>
       </c>
       <c r="AA56">
-        <v>37.19100000000003</v>
+        <v>37191</v>
       </c>
       <c r="AB56">
-        <v>-922.343</v>
+        <v>33700</v>
       </c>
       <c r="AC56">
-        <v>959.534</v>
+        <v>3491</v>
       </c>
       <c r="AD56">
-        <v>61093.809</v>
+        <v>23940</v>
       </c>
       <c r="AE56">
         <v>61131</v>
       </c>
       <c r="AF56">
-        <v>60171.466</v>
+        <v>57640</v>
       </c>
       <c r="AG56">
-        <v>959.534</v>
+        <v>3491</v>
       </c>
       <c r="AH56">
         <v>17975.91939518282</v>
@@ -8102,13 +8102,13 @@
         <v>-43155.08060481718</v>
       </c>
       <c r="AL56">
-        <v>-74830.22927253309</v>
+        <v>-72298.76327253309</v>
       </c>
       <c r="AM56">
-        <v>31675.14852719148</v>
+        <v>29143.68252719148</v>
       </c>
       <c r="AN56">
-        <v>-75600.22927253309</v>
+        <v>-73068.76327253309</v>
       </c>
       <c r="AO56">
         <v>157068.0806048172</v>
@@ -8120,10 +8120,147 @@
         <v>0.5402985602290906</v>
       </c>
       <c r="AR56">
-        <v>0.0001529121707866667</v>
+        <v>0.1529121707866666</v>
       </c>
       <c r="AS56">
         <v>14.2324</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B57">
+        <v>110260</v>
+      </c>
+      <c r="C57">
+        <v>60475.74220521542</v>
+      </c>
+      <c r="D57">
+        <v>42080</v>
+      </c>
+      <c r="E57">
+        <v>7704.25779478458</v>
+      </c>
+      <c r="F57">
+        <v>7387.343891723356</v>
+      </c>
+      <c r="G57">
+        <v>53088.39831349206</v>
+      </c>
+      <c r="H57">
+        <v>92283.8456632653</v>
+      </c>
+      <c r="I57">
+        <v>82368.46315192744</v>
+      </c>
+      <c r="J57">
+        <v>9915.382653061224</v>
+      </c>
+      <c r="K57">
+        <v>263.1894841269842</v>
+      </c>
+      <c r="L57">
+        <v>7704.25779478458</v>
+      </c>
+      <c r="M57">
+        <v>5917.573696145125</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>78398.82468820861</v>
+      </c>
+      <c r="P57">
+        <v>49921.8898100907</v>
+      </c>
+      <c r="Q57">
+        <v>40949.43473639456</v>
+      </c>
+      <c r="R57">
+        <v>8972.455073696145</v>
+      </c>
+      <c r="S57">
+        <v>28476.93494897959</v>
+      </c>
+      <c r="T57">
+        <v>26632.245819161</v>
+      </c>
+      <c r="U57">
+        <v>901.7616213151928</v>
+      </c>
+      <c r="V57">
+        <v>942.9275793650794</v>
+      </c>
+      <c r="W57">
+        <v>61934</v>
+      </c>
+      <c r="X57">
+        <v>58582</v>
+      </c>
+      <c r="Y57">
+        <v>3352</v>
+      </c>
+      <c r="Z57">
+        <v>1139</v>
+      </c>
+      <c r="AA57">
+        <v>36917</v>
+      </c>
+      <c r="AB57">
+        <v>33565</v>
+      </c>
+      <c r="AC57">
+        <v>3352</v>
+      </c>
+      <c r="AD57">
+        <v>23878</v>
+      </c>
+      <c r="AE57">
+        <v>60795</v>
+      </c>
+      <c r="AF57">
+        <v>57443</v>
+      </c>
+      <c r="AG57">
+        <v>3352</v>
+      </c>
+      <c r="AH57">
+        <v>17976.1543367347</v>
+      </c>
+      <c r="AI57">
+        <v>-14188.46315192744</v>
+      </c>
+      <c r="AJ57">
+        <v>32164.61734693878</v>
+      </c>
+      <c r="AK57">
+        <v>-42818.8456632653</v>
+      </c>
+      <c r="AL57">
+        <v>-71631.46315192744</v>
+      </c>
+      <c r="AM57">
+        <v>28812.61734693878</v>
+      </c>
+      <c r="AN57">
+        <v>-72770.46315192744</v>
+      </c>
+      <c r="AO57">
+        <v>154217.8456632653</v>
+      </c>
+      <c r="AP57">
+        <v>240759.93</v>
+      </c>
+      <c r="AQ57">
+        <v>0.5513785597678215</v>
+      </c>
+      <c r="AR57">
+        <v>0.1533353162214327</v>
+      </c>
+      <c r="AS57">
+        <v>14.112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS57"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8251,16 +8251,153 @@
         <v>154217.8456632653</v>
       </c>
       <c r="AP57">
-        <v>240759.93</v>
+        <v>240549.96</v>
       </c>
       <c r="AQ57">
         <v>0.5513785597678215</v>
       </c>
       <c r="AR57">
-        <v>0.1533353162214327</v>
+        <v>0.1534691587560439</v>
       </c>
       <c r="AS57">
         <v>14.112</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B58">
+        <v>108863</v>
+      </c>
+      <c r="C58">
+        <v>57652.55010682674</v>
+      </c>
+      <c r="D58">
+        <v>43528</v>
+      </c>
+      <c r="E58">
+        <v>7682.449893173262</v>
+      </c>
+      <c r="F58">
+        <v>7072.649913521213</v>
+      </c>
+      <c r="G58">
+        <v>50579.90019330553</v>
+      </c>
+      <c r="H58">
+        <v>93187.13202428189</v>
+      </c>
+      <c r="I58">
+        <v>83140.39257978094</v>
+      </c>
+      <c r="J58">
+        <v>10046.73951232747</v>
+      </c>
+      <c r="K58">
+        <v>261.4339878590565</v>
+      </c>
+      <c r="L58">
+        <v>7682.449893173262</v>
+      </c>
+      <c r="M58">
+        <v>5907.491979516397</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>79335.75616373317</v>
+      </c>
+      <c r="P58">
+        <v>50137.47875334894</v>
+      </c>
+      <c r="Q58">
+        <v>40876.4345643843</v>
+      </c>
+      <c r="R58">
+        <v>9261.044188964628</v>
+      </c>
+      <c r="S58">
+        <v>29198.27741038424</v>
+      </c>
+      <c r="T58">
+        <v>27383.00939397022</v>
+      </c>
+      <c r="U58">
+        <v>1029.572760877675</v>
+      </c>
+      <c r="V58">
+        <v>785.6953233628378</v>
+      </c>
+      <c r="W58">
+        <v>61093</v>
+      </c>
+      <c r="X58">
+        <v>57387</v>
+      </c>
+      <c r="Y58">
+        <v>3706</v>
+      </c>
+      <c r="Z58">
+        <v>1352</v>
+      </c>
+      <c r="AA58">
+        <v>35847</v>
+      </c>
+      <c r="AB58">
+        <v>32141</v>
+      </c>
+      <c r="AC58">
+        <v>3706</v>
+      </c>
+      <c r="AD58">
+        <v>23894</v>
+      </c>
+      <c r="AE58">
+        <v>59741</v>
+      </c>
+      <c r="AF58">
+        <v>56035</v>
+      </c>
+      <c r="AG58">
+        <v>3706</v>
+      </c>
+      <c r="AH58">
+        <v>15675.86797571811</v>
+      </c>
+      <c r="AI58">
+        <v>-17805.39257978094</v>
+      </c>
+      <c r="AJ58">
+        <v>33481.26048767254</v>
+      </c>
+      <c r="AK58">
+        <v>-44065.13202428189</v>
+      </c>
+      <c r="AL58">
+        <v>-73840.39257978094</v>
+      </c>
+      <c r="AM58">
+        <v>29775.26048767254</v>
+      </c>
+      <c r="AN58">
+        <v>-75192.39257978094</v>
+      </c>
+      <c r="AO58">
+        <v>154280.1320242819</v>
+      </c>
+      <c r="AP58">
+        <v>242730.9</v>
+      </c>
+      <c r="AQ58">
+        <v>0.548772310151291</v>
+      </c>
+      <c r="AR58">
+        <v>0.1476820627287255</v>
+      </c>
+      <c r="AS58">
+        <v>14.7435</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS58"/>
+  <dimension ref="A1:AS59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830645</v>
+        <v>0.0001540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.1552733834376522</v>
+        <v>0.0001552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548523844684408</v>
+        <v>0.0001548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711286424205766</v>
+        <v>0.0001711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.169458761099947</v>
+        <v>0.000169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711120718583385</v>
+        <v>0.0001711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668596216735144</v>
+        <v>0.0001668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664977157503071</v>
+        <v>0.0001664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499404586729</v>
+        <v>0.0001649499404586729</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509370655062</v>
+        <v>0.0001739509370655062</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>34271</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>21034</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>60822.122</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980</v>
+        <v>39.98</v>
       </c>
       <c r="AB43">
-        <v>33102</v>
+        <v>33.102</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AD43">
-        <v>20841</v>
+        <v>60781.02</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>60814.122</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-66610.39008109934</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>30305.68790361747</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-66618.39008109932</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.154080134850564</v>
+        <v>0.0001540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>54067</v>
+        <v>60785.27499999999</v>
       </c>
       <c r="Y44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39533</v>
+        <v>39.533</v>
       </c>
       <c r="AB44">
-        <v>32808</v>
+        <v>32.808</v>
       </c>
       <c r="AC44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AD44">
-        <v>20867</v>
+        <v>60360.467</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>53675</v>
+        <v>60393.275</v>
       </c>
       <c r="AG44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-68326.05192497035</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>30247.16461489405</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-68718.05192497035</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.153450834966544</v>
+        <v>0.000153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>53121</v>
+        <v>60340.773</v>
       </c>
       <c r="Y45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38991</v>
+        <v>38.991</v>
       </c>
       <c r="AB45">
-        <v>31764</v>
+        <v>31.764</v>
       </c>
       <c r="AC45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AD45">
-        <v>20965</v>
+        <v>59917.009</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>52729</v>
+        <v>59948.773</v>
       </c>
       <c r="AG45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-70022.5307420106</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>31093.43313737703</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-70414.5307420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.1510540895364002</v>
+        <v>0.0001510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>52088</v>
+        <v>59260.82</v>
       </c>
       <c r="Y46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="AB46">
-        <v>30720</v>
+        <v>30.72000000000001</v>
       </c>
       <c r="AC46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AD46">
-        <v>20967</v>
+        <v>58829.1</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>51687</v>
+        <v>58859.82</v>
       </c>
       <c r="AG46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-77767.45127309064</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>30914.3720056798</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-78168.45127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.1433119814866633</v>
+        <v>0.0001433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>59035</v>
+        <v>65285.743</v>
       </c>
       <c r="Y47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43317</v>
+        <v>43.317</v>
       </c>
       <c r="AB47">
-        <v>37060</v>
+        <v>37.06</v>
       </c>
       <c r="AC47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AD47">
-        <v>20997</v>
+        <v>64270.683</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>58057</v>
+        <v>64307.743</v>
       </c>
       <c r="AG47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79309.0724316205</v>
+        <v>-85559.8154316205</v>
       </c>
       <c r="AM47">
-        <v>23471.6712718762</v>
+        <v>29722.4142718762</v>
       </c>
       <c r="AN47">
-        <v>-80287.0724316205</v>
+        <v>-86537.81543162049</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.1630892047913144</v>
+        <v>0.0001630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6961,37 +6961,37 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>65768</v>
+        <v>64695.074</v>
       </c>
       <c r="X48">
-        <v>59642</v>
+        <v>64688.948</v>
       </c>
       <c r="Y48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="Z48">
-        <v>1074</v>
+        <v>1.074</v>
       </c>
       <c r="AA48">
-        <v>43704</v>
+        <v>43.704</v>
       </c>
       <c r="AB48">
-        <v>37578</v>
+        <v>37.578</v>
       </c>
       <c r="AC48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AD48">
-        <v>20990</v>
+        <v>64650.296</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>58568</v>
+        <v>64687.874</v>
       </c>
       <c r="AG48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,16 +7006,16 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-80188.64392217298</v>
+        <v>-86308.51792217299</v>
       </c>
       <c r="AM48">
-        <v>23655.08325948758</v>
+        <v>29774.95725948758</v>
       </c>
       <c r="AN48">
-        <v>-81262.64392217298</v>
+        <v>-86309.59192217299</v>
       </c>
       <c r="AO48">
-        <v>168658.5606626854</v>
+        <v>167585.6346626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.1656444835941124</v>
+        <v>0.0001656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>59320</v>
+        <v>65395.918</v>
       </c>
       <c r="Y49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43911</v>
+        <v>43.911</v>
       </c>
       <c r="AB49">
-        <v>37829</v>
+        <v>37.829</v>
       </c>
       <c r="AC49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AD49">
-        <v>20932</v>
+        <v>64799.089</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>58761</v>
+        <v>64836.918</v>
       </c>
       <c r="AG49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-80444.23980579675</v>
+        <v>-86520.15780579674</v>
       </c>
       <c r="AM49">
-        <v>23376.64226413988</v>
+        <v>29452.56026413988</v>
       </c>
       <c r="AN49">
-        <v>-81003.23980579675</v>
+        <v>-87079.15780579674</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.1684415666266357</v>
+        <v>0.0001684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>59441</v>
+        <v>65005.43</v>
       </c>
       <c r="Y50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43133</v>
+        <v>43.133</v>
       </c>
       <c r="AB50">
-        <v>37563</v>
+        <v>37.563</v>
       </c>
       <c r="AC50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AD50">
-        <v>21066</v>
+        <v>64155.867</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>58629</v>
+        <v>64193.43</v>
       </c>
       <c r="AG50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-80786.90169867058</v>
+        <v>-86351.33169867058</v>
       </c>
       <c r="AM50">
-        <v>23940.93375184638</v>
+        <v>29505.36375184638</v>
       </c>
       <c r="AN50">
-        <v>-81598.90169867058</v>
+        <v>-87163.33169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.1650201759766311</v>
+        <v>0.0001650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>60026</v>
+        <v>65692.32800000001</v>
       </c>
       <c r="Y51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43805</v>
+        <v>43.80499999999999</v>
       </c>
       <c r="AB51">
-        <v>38133</v>
+        <v>38.133</v>
       </c>
       <c r="AC51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AD51">
-        <v>21076</v>
+        <v>64837.195</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>59209</v>
+        <v>64875.328</v>
       </c>
       <c r="AG51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-80137.28956118753</v>
+        <v>-85803.61756118754</v>
       </c>
       <c r="AM51">
-        <v>24342.63082919862</v>
+        <v>30008.95882919862</v>
       </c>
       <c r="AN51">
-        <v>-80954.28956118753</v>
+        <v>-86620.61756118754</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.1687833198232185</v>
+        <v>0.0001687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>60151</v>
+        <v>65426.71900000001</v>
       </c>
       <c r="Y52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43702</v>
+        <v>43.70200000000001</v>
       </c>
       <c r="AB52">
-        <v>38421</v>
+        <v>38.42100000000001</v>
       </c>
       <c r="AC52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AD52">
-        <v>20908</v>
+        <v>64566.298</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>59329</v>
+        <v>64604.719</v>
       </c>
       <c r="AG52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-78330.16100697407</v>
+        <v>-83605.88000697407</v>
       </c>
       <c r="AM52">
-        <v>24067.91941559015</v>
+        <v>29343.63841559015</v>
       </c>
       <c r="AN52">
-        <v>-79152.16100697407</v>
+        <v>-84427.88000697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.1711225071831944</v>
+        <v>0.0001711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>61518</v>
+        <v>67116.39600000001</v>
       </c>
       <c r="Y53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42847</v>
+        <v>42.84699999999999</v>
       </c>
       <c r="AB53">
-        <v>37243</v>
+        <v>37.243</v>
       </c>
       <c r="AC53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AD53">
-        <v>23712</v>
+        <v>66516.15300000001</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>60955</v>
+        <v>66553.39599999999</v>
       </c>
       <c r="AG53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-74634.71294718282</v>
+        <v>-80233.10894718282</v>
       </c>
       <c r="AM53">
-        <v>24233.81793969441</v>
+        <v>29832.21393969442</v>
       </c>
       <c r="AN53">
-        <v>-75197.71294718282</v>
+        <v>-80796.10894718283</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,7 +7709,7 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.1695880266032386</v>
+        <v>0.0001695880266032385</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7786,34 +7786,34 @@
         <v>64510</v>
       </c>
       <c r="X54">
-        <v>59208</v>
+        <v>64504.698</v>
       </c>
       <c r="Y54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z54">
         <v>563</v>
       </c>
       <c r="AA54">
-        <v>40219</v>
+        <v>40.219</v>
       </c>
       <c r="AB54">
-        <v>34917</v>
+        <v>34.917</v>
       </c>
       <c r="AC54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD54">
-        <v>23728</v>
+        <v>63906.781</v>
       </c>
       <c r="AE54">
         <v>63947</v>
       </c>
       <c r="AF54">
-        <v>58645</v>
+        <v>63941.698</v>
       </c>
       <c r="AG54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH54">
         <v>15619.12079336691</v>
@@ -7828,13 +7828,13 @@
         <v>-48327.87920663309</v>
       </c>
       <c r="AL54">
-        <v>-73501.6049127267</v>
+        <v>-78798.30291272671</v>
       </c>
       <c r="AM54">
-        <v>25173.7256321958</v>
+        <v>30470.4236321958</v>
       </c>
       <c r="AN54">
-        <v>-74064.6049127267</v>
+        <v>-79361.30291272671</v>
       </c>
       <c r="AO54">
         <v>163737.8792066331</v>
@@ -7846,7 +7846,7 @@
         <v>0.5568016578578456</v>
       </c>
       <c r="AR54">
-        <v>0.1603551216653967</v>
+        <v>0.0001603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -7923,34 +7923,34 @@
         <v>63570</v>
       </c>
       <c r="X55">
-        <v>59333</v>
+        <v>63565.763</v>
       </c>
       <c r="Y55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="Z55">
         <v>567</v>
       </c>
       <c r="AA55">
-        <v>39207</v>
+        <v>39.207</v>
       </c>
       <c r="AB55">
-        <v>34970</v>
+        <v>34.97</v>
       </c>
       <c r="AC55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="AD55">
-        <v>23796</v>
+        <v>62963.793</v>
       </c>
       <c r="AE55">
         <v>63003</v>
       </c>
       <c r="AF55">
-        <v>58766</v>
+        <v>62998.763</v>
       </c>
       <c r="AG55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="AH55">
         <v>19607.87223876208</v>
@@ -7965,13 +7965,13 @@
         <v>-43395.12776123792</v>
       </c>
       <c r="AL55">
-        <v>-70969.26838681221</v>
+        <v>-75202.03138681222</v>
       </c>
       <c r="AM55">
-        <v>27574.1406255743</v>
+        <v>31806.9036255743</v>
       </c>
       <c r="AN55">
-        <v>-71536.26838681221</v>
+        <v>-75769.03138681222</v>
       </c>
       <c r="AO55">
         <v>157972.1277612379</v>
@@ -7983,7 +7983,7 @@
         <v>0.5526094202262959</v>
       </c>
       <c r="AR55">
-        <v>0.161140639153801</v>
+        <v>0.000161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
@@ -8060,34 +8060,34 @@
         <v>61901</v>
       </c>
       <c r="X56">
-        <v>58410</v>
+        <v>60941.466</v>
       </c>
       <c r="Y56">
-        <v>3491</v>
+        <v>959.534</v>
       </c>
       <c r="Z56">
         <v>770</v>
       </c>
       <c r="AA56">
-        <v>37191</v>
+        <v>37.19100000000003</v>
       </c>
       <c r="AB56">
-        <v>33700</v>
+        <v>-922.343</v>
       </c>
       <c r="AC56">
-        <v>3491</v>
+        <v>959.534</v>
       </c>
       <c r="AD56">
-        <v>23940</v>
+        <v>61093.809</v>
       </c>
       <c r="AE56">
         <v>61131</v>
       </c>
       <c r="AF56">
-        <v>57640</v>
+        <v>60171.466</v>
       </c>
       <c r="AG56">
-        <v>3491</v>
+        <v>959.534</v>
       </c>
       <c r="AH56">
         <v>17975.91939518282</v>
@@ -8102,13 +8102,13 @@
         <v>-43155.08060481718</v>
       </c>
       <c r="AL56">
-        <v>-72298.76327253309</v>
+        <v>-74830.22927253309</v>
       </c>
       <c r="AM56">
-        <v>29143.68252719148</v>
+        <v>31675.14852719148</v>
       </c>
       <c r="AN56">
-        <v>-73068.76327253309</v>
+        <v>-75600.22927253309</v>
       </c>
       <c r="AO56">
         <v>157068.0806048172</v>
@@ -8120,7 +8120,7 @@
         <v>0.5402985602290906</v>
       </c>
       <c r="AR56">
-        <v>0.1529121707866666</v>
+        <v>0.0001529121707866667</v>
       </c>
       <c r="AS56">
         <v>14.2324</v>
@@ -8194,37 +8194,37 @@
         <v>942.9275793650794</v>
       </c>
       <c r="W57">
-        <v>61934</v>
+        <v>60796.139</v>
       </c>
       <c r="X57">
-        <v>58582</v>
+        <v>59975.605</v>
       </c>
       <c r="Y57">
-        <v>3352</v>
+        <v>820.534</v>
       </c>
       <c r="Z57">
-        <v>1139</v>
+        <v>1.139</v>
       </c>
       <c r="AA57">
-        <v>36917</v>
+        <v>36.91700000000003</v>
       </c>
       <c r="AB57">
-        <v>33565</v>
+        <v>-783.617</v>
       </c>
       <c r="AC57">
-        <v>3352</v>
+        <v>820.534</v>
       </c>
       <c r="AD57">
-        <v>23878</v>
+        <v>60758.083</v>
       </c>
       <c r="AE57">
         <v>60795</v>
       </c>
       <c r="AF57">
-        <v>57443</v>
+        <v>59974.466</v>
       </c>
       <c r="AG57">
-        <v>3352</v>
+        <v>820.534</v>
       </c>
       <c r="AH57">
         <v>17976.1543367347</v>
@@ -8239,16 +8239,16 @@
         <v>-42818.8456632653</v>
       </c>
       <c r="AL57">
-        <v>-71631.46315192744</v>
+        <v>-74162.92915192744</v>
       </c>
       <c r="AM57">
-        <v>28812.61734693878</v>
+        <v>31344.08334693878</v>
       </c>
       <c r="AN57">
-        <v>-72770.46315192744</v>
+        <v>-74164.06815192744</v>
       </c>
       <c r="AO57">
-        <v>154217.8456632653</v>
+        <v>153079.9846632653</v>
       </c>
       <c r="AP57">
         <v>240549.96</v>
@@ -8257,7 +8257,7 @@
         <v>0.5513785597678215</v>
       </c>
       <c r="AR57">
-        <v>0.1534691587560439</v>
+        <v>0.000153469158756044</v>
       </c>
       <c r="AS57">
         <v>14.112</v>
@@ -8331,37 +8331,37 @@
         <v>785.6953233628378</v>
       </c>
       <c r="W58">
-        <v>61093</v>
+        <v>59742.352</v>
       </c>
       <c r="X58">
-        <v>57387</v>
+        <v>59738.646</v>
       </c>
       <c r="Y58">
-        <v>3706</v>
+        <v>3.706</v>
       </c>
       <c r="Z58">
-        <v>1352</v>
+        <v>1.352</v>
       </c>
       <c r="AA58">
-        <v>35847</v>
+        <v>35.84700000000001</v>
       </c>
       <c r="AB58">
-        <v>32141</v>
+        <v>32.14100000000001</v>
       </c>
       <c r="AC58">
-        <v>3706</v>
+        <v>3.706</v>
       </c>
       <c r="AD58">
-        <v>23894</v>
+        <v>59705.153</v>
       </c>
       <c r="AE58">
         <v>59741</v>
       </c>
       <c r="AF58">
-        <v>56035</v>
+        <v>59737.294</v>
       </c>
       <c r="AG58">
-        <v>3706</v>
+        <v>3.706</v>
       </c>
       <c r="AH58">
         <v>15675.86797571811</v>
@@ -8376,16 +8376,16 @@
         <v>-44065.13202428189</v>
       </c>
       <c r="AL58">
-        <v>-73840.39257978094</v>
+        <v>-77542.68657978094</v>
       </c>
       <c r="AM58">
-        <v>29775.26048767254</v>
+        <v>33477.55448767254</v>
       </c>
       <c r="AN58">
-        <v>-75192.39257978094</v>
+        <v>-77544.03857978093</v>
       </c>
       <c r="AO58">
-        <v>154280.1320242819</v>
+        <v>152929.4840242819</v>
       </c>
       <c r="AP58">
         <v>242730.9</v>
@@ -8394,10 +8394,147 @@
         <v>0.548772310151291</v>
       </c>
       <c r="AR58">
-        <v>0.1476820627287255</v>
+        <v>0.0001476820627287256</v>
       </c>
       <c r="AS58">
         <v>14.7435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B59">
+        <v>108707</v>
+      </c>
+      <c r="C59">
+        <v>58832.2851387554</v>
+      </c>
+      <c r="D59">
+        <v>42208</v>
+      </c>
+      <c r="E59">
+        <v>7666.714861244606</v>
+      </c>
+      <c r="F59">
+        <v>7065.865423287456</v>
+      </c>
+      <c r="G59">
+        <v>51766.41971546794</v>
+      </c>
+      <c r="H59">
+        <v>91682.52711371056</v>
+      </c>
+      <c r="I59">
+        <v>82287.57977327415</v>
+      </c>
+      <c r="J59">
+        <v>9394.947340436409</v>
+      </c>
+      <c r="K59">
+        <v>261.1029537073014</v>
+      </c>
+      <c r="L59">
+        <v>7666.714861244606</v>
+      </c>
+      <c r="M59">
+        <v>5906.434828251429</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>77848.27447050723</v>
+      </c>
+      <c r="P59">
+        <v>49721.09068351772</v>
+      </c>
+      <c r="Q59">
+        <v>40968.46213624</v>
+      </c>
+      <c r="R59">
+        <v>8752.628547277722</v>
+      </c>
+      <c r="S59">
+        <v>28127.18385515723</v>
+      </c>
+      <c r="T59">
+        <v>26870.38971485443</v>
+      </c>
+      <c r="U59">
+        <v>614.4752789763935</v>
+      </c>
+      <c r="V59">
+        <v>642.3187931586876</v>
+      </c>
+      <c r="W59">
+        <v>62505.432</v>
+      </c>
+      <c r="X59">
+        <v>62501.80300000001</v>
+      </c>
+      <c r="Y59">
+        <v>3.629</v>
+      </c>
+      <c r="Z59">
+        <v>1.432</v>
+      </c>
+      <c r="AA59">
+        <v>-925.177</v>
+      </c>
+      <c r="AB59">
+        <v>-928.806</v>
+      </c>
+      <c r="AC59">
+        <v>3.629</v>
+      </c>
+      <c r="AD59">
+        <v>63429.177</v>
+      </c>
+      <c r="AE59">
+        <v>62504</v>
+      </c>
+      <c r="AF59">
+        <v>62500.371</v>
+      </c>
+      <c r="AG59">
+        <v>3.629</v>
+      </c>
+      <c r="AH59">
+        <v>17024.47288628944</v>
+      </c>
+      <c r="AI59">
+        <v>-15788.57977327415</v>
+      </c>
+      <c r="AJ59">
+        <v>32813.05265956359</v>
+      </c>
+      <c r="AK59">
+        <v>-45479.52711371056</v>
+      </c>
+      <c r="AL59">
+        <v>-78288.95077327415</v>
+      </c>
+      <c r="AM59">
+        <v>32809.42365956359</v>
+      </c>
+      <c r="AN59">
+        <v>-78290.38277327415</v>
+      </c>
+      <c r="AO59">
+        <v>154187.9591137106</v>
+      </c>
+      <c r="AP59">
+        <v>243057.06</v>
+      </c>
+      <c r="AQ59">
+        <v>0.5749767724249588</v>
+      </c>
+      <c r="AR59">
+        <v>-0.00380641895363994</v>
+      </c>
+      <c r="AS59">
+        <v>14.6697</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS59"/>
+  <dimension ref="A1:AS60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8537,6 +8537,143 @@
         <v>14.6697</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B60">
+        <v>108036</v>
+      </c>
+      <c r="C60">
+        <v>58001.10522552181</v>
+      </c>
+      <c r="D60">
+        <v>42398</v>
+      </c>
+      <c r="E60">
+        <v>7636.89477447819</v>
+      </c>
+      <c r="F60">
+        <v>7353.369334970384</v>
+      </c>
+      <c r="G60">
+        <v>50647.73589055143</v>
+      </c>
+      <c r="H60">
+        <v>92263.70137755173</v>
+      </c>
+      <c r="I60">
+        <v>82861.35690867144</v>
+      </c>
+      <c r="J60">
+        <v>9402.344468880285</v>
+      </c>
+      <c r="K60">
+        <v>259.2928747790655</v>
+      </c>
+      <c r="L60">
+        <v>7636.89477447819</v>
+      </c>
+      <c r="M60">
+        <v>5892.668011387401</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>78474.84571690706</v>
+      </c>
+      <c r="P60">
+        <v>49640.70442678468</v>
+      </c>
+      <c r="Q60">
+        <v>40867.7880243399</v>
+      </c>
+      <c r="R60">
+        <v>8772.916402444784</v>
+      </c>
+      <c r="S60">
+        <v>28834.14129012237</v>
+      </c>
+      <c r="T60">
+        <v>27488.68525439508</v>
+      </c>
+      <c r="U60">
+        <v>716.0279692917954</v>
+      </c>
+      <c r="V60">
+        <v>629.4280664355007</v>
+      </c>
+      <c r="W60">
+        <v>62475.432</v>
+      </c>
+      <c r="X60">
+        <v>62471.721</v>
+      </c>
+      <c r="Y60">
+        <v>3.711</v>
+      </c>
+      <c r="Z60">
+        <v>1.432</v>
+      </c>
+      <c r="AA60">
+        <v>-870.252</v>
+      </c>
+      <c r="AB60">
+        <v>-873.963</v>
+      </c>
+      <c r="AC60">
+        <v>3.711</v>
+      </c>
+      <c r="AD60">
+        <v>63344.252</v>
+      </c>
+      <c r="AE60">
+        <v>62474</v>
+      </c>
+      <c r="AF60">
+        <v>62470.289</v>
+      </c>
+      <c r="AG60">
+        <v>3.711</v>
+      </c>
+      <c r="AH60">
+        <v>15772.29862244827</v>
+      </c>
+      <c r="AI60">
+        <v>-17223.35690867144</v>
+      </c>
+      <c r="AJ60">
+        <v>32995.65553111972</v>
+      </c>
+      <c r="AK60">
+        <v>-46701.70137755173</v>
+      </c>
+      <c r="AL60">
+        <v>-79693.64590867143</v>
+      </c>
+      <c r="AM60">
+        <v>32991.94453111971</v>
+      </c>
+      <c r="AN60">
+        <v>-79695.07790867143</v>
+      </c>
+      <c r="AO60">
+        <v>154739.1333775517</v>
+      </c>
+      <c r="AP60">
+        <v>244914.74</v>
+      </c>
+      <c r="AQ60">
+        <v>0.5782702062275538</v>
+      </c>
+      <c r="AR60">
+        <v>-0.003553285522953825</v>
+      </c>
+      <c r="AS60">
+        <v>14.8234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS60"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2771,13 +2771,13 @@
         <v>140957.9131079303</v>
       </c>
       <c r="AP17">
-        <v>256544.5</v>
+        <v>256544.49</v>
       </c>
       <c r="AQ17">
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499404586729</v>
+        <v>0.0001649499468883546</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -3593,13 +3593,13 @@
         <v>146502.637710523</v>
       </c>
       <c r="AP23">
-        <v>255865.25</v>
+        <v>255865.24</v>
       </c>
       <c r="AQ23">
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509370655062</v>
+        <v>0.0001739509438640435</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -8672,6 +8672,143 @@
       </c>
       <c r="AS60">
         <v>14.8234</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B61">
+        <v>108961</v>
+      </c>
+      <c r="C61">
+        <v>59189.24723476645</v>
+      </c>
+      <c r="D61">
+        <v>42104</v>
+      </c>
+      <c r="E61">
+        <v>7667.75276523355</v>
+      </c>
+      <c r="F61">
+        <v>7392.514364184162</v>
+      </c>
+      <c r="G61">
+        <v>51796.73287058229</v>
+      </c>
+      <c r="H61">
+        <v>92743.60105485376</v>
+      </c>
+      <c r="I61">
+        <v>83521.39672476106</v>
+      </c>
+      <c r="J61">
+        <v>9222.204398412252</v>
+      </c>
+      <c r="K61">
+        <v>261.9167048117455</v>
+      </c>
+      <c r="L61">
+        <v>7667.75276523355</v>
+      </c>
+      <c r="M61">
+        <v>5925.809142521401</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>78888.12244228706</v>
+      </c>
+      <c r="P61">
+        <v>50348.2397469444</v>
+      </c>
+      <c r="Q61">
+        <v>41770.10726168435</v>
+      </c>
+      <c r="R61">
+        <v>8578.132485260057</v>
+      </c>
+      <c r="S61">
+        <v>28539.8827636622</v>
+      </c>
+      <c r="T61">
+        <v>27047.48713884581</v>
+      </c>
+      <c r="U61">
+        <v>848.3237116641958</v>
+      </c>
+      <c r="V61">
+        <v>644.0719131521954</v>
+      </c>
+      <c r="W61">
+        <v>61898.115</v>
+      </c>
+      <c r="X61">
+        <v>61894.33499999999</v>
+      </c>
+      <c r="Y61">
+        <v>3.78</v>
+      </c>
+      <c r="Z61">
+        <v>1.115</v>
+      </c>
+      <c r="AA61">
+        <v>-745.9690000000001</v>
+      </c>
+      <c r="AB61">
+        <v>-749.749</v>
+      </c>
+      <c r="AC61">
+        <v>3.78</v>
+      </c>
+      <c r="AD61">
+        <v>62642.969</v>
+      </c>
+      <c r="AE61">
+        <v>61897</v>
+      </c>
+      <c r="AF61">
+        <v>61893.22</v>
+      </c>
+      <c r="AG61">
+        <v>3.78</v>
+      </c>
+      <c r="AH61">
+        <v>16217.39894514626</v>
+      </c>
+      <c r="AI61">
+        <v>-16664.39672476106</v>
+      </c>
+      <c r="AJ61">
+        <v>32881.79560158775</v>
+      </c>
+      <c r="AK61">
+        <v>-45679.60105485375</v>
+      </c>
+      <c r="AL61">
+        <v>-78557.61672476106</v>
+      </c>
+      <c r="AM61">
+        <v>32878.01560158775</v>
+      </c>
+      <c r="AN61">
+        <v>-78558.73172476105</v>
+      </c>
+      <c r="AO61">
+        <v>154641.7160548538</v>
+      </c>
+      <c r="AP61">
+        <v>243166.85</v>
+      </c>
+      <c r="AQ61">
+        <v>0.5680656381641137</v>
+      </c>
+      <c r="AR61">
+        <v>-0.003067724897534348</v>
+      </c>
+      <c r="AS61">
+        <v>14.6371</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -799,34 +799,34 @@
         <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>51781.285</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
         <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,13 +841,13 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-68191.53040106723</v>
       </c>
       <c r="AO3">
         <v>139041.1351301653</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -936,34 +936,34 @@
         <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>52826.426</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
         <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,13 +978,13 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-68382.3920753017</v>
       </c>
       <c r="AO4">
         <v>139453.7919696346</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540216666830645</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.0001552733834376522</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548523844684408</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711286424205766</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.000169458761099947</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711120718583385</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668596216735144</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664977157503071</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499468883546</v>
+        <v>0.1649499468883545</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509438640435</v>
+        <v>0.1739509438640434</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-68334.16179073889</v>
+        <v>-63248.25279073889</v>
       </c>
       <c r="AM32">
-        <v>29005.95867219893</v>
+        <v>23920.04967219893</v>
       </c>
       <c r="AN32">
-        <v>-68377.16179073889</v>
+        <v>-63291.25279073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.000177564750685546</v>
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>68590.583</v>
+        <v>63179</v>
       </c>
       <c r="Y33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47.673</v>
+        <v>47673</v>
       </c>
       <c r="AB33">
-        <v>42.256</v>
+        <v>42256</v>
       </c>
       <c r="AC33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AD33">
-        <v>68505.32700000001</v>
+        <v>20880</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>68547.583</v>
+        <v>63136</v>
       </c>
       <c r="AG33">
-        <v>5.417</v>
+        <v>5417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-68363.3000683159</v>
+        <v>-62951.71706831591</v>
       </c>
       <c r="AM33">
-        <v>28053.46696009574</v>
+        <v>22641.88396009574</v>
       </c>
       <c r="AN33">
-        <v>-68406.3000683159</v>
+        <v>-62994.71706831591</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.0001797691610572627</v>
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>67816.60699999999</v>
+        <v>62429</v>
       </c>
       <c r="Y34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46.964</v>
+        <v>46964</v>
       </c>
       <c r="AB34">
-        <v>41.571</v>
+        <v>41571</v>
       </c>
       <c r="AC34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AD34">
-        <v>67732.03599999999</v>
+        <v>20815</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>67773.607</v>
+        <v>62386</v>
       </c>
       <c r="AG34">
-        <v>5.393</v>
+        <v>5393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-65501.31043250486</v>
+        <v>-60113.70343250486</v>
       </c>
       <c r="AM34">
-        <v>28007.49732615726</v>
+        <v>22619.89032615726</v>
       </c>
       <c r="AN34">
-        <v>-65544.31043250485</v>
+        <v>-60156.70343250486</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.0001783782092049294</v>
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>66627.92499999999</v>
+        <v>61558</v>
       </c>
       <c r="Y35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45.884</v>
+        <v>45884</v>
       </c>
       <c r="AB35">
-        <v>40.809</v>
+        <v>40809</v>
       </c>
       <c r="AC35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AD35">
-        <v>66570.116</v>
+        <v>20732</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>66610.925</v>
+        <v>61541</v>
       </c>
       <c r="AG35">
-        <v>5.075</v>
+        <v>5075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-64586.24312806218</v>
+        <v>-59516.31812806218</v>
       </c>
       <c r="AM35">
-        <v>27113.96994002365</v>
+        <v>22044.04494002365</v>
       </c>
       <c r="AN35">
-        <v>-64603.24312806217</v>
+        <v>-59533.31812806218</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.0001762943296152996</v>
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>66988.92000000001</v>
+        <v>61914</v>
       </c>
       <c r="Y36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46.15</v>
+        <v>46150</v>
       </c>
       <c r="AB36">
-        <v>41.07</v>
+        <v>41070</v>
       </c>
       <c r="AC36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AD36">
-        <v>66930.85000000001</v>
+        <v>20827</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>66971.92</v>
+        <v>61897</v>
       </c>
       <c r="AG36">
-        <v>5.08</v>
+        <v>5080</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-63897.78921193104</v>
+        <v>-58822.86921193104</v>
       </c>
       <c r="AM36">
-        <v>26384.70560868535</v>
+        <v>21309.78560868535</v>
       </c>
       <c r="AN36">
-        <v>-63914.78921193106</v>
+        <v>-58839.86921193104</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.0001763108107065246</v>
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>68061.769</v>
+        <v>62836</v>
       </c>
       <c r="Y37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47.076</v>
+        <v>47076</v>
       </c>
       <c r="AB37">
-        <v>41.845</v>
+        <v>41845</v>
       </c>
       <c r="AC37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AD37">
-        <v>68002.924</v>
+        <v>20974</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>68044.769</v>
+        <v>62819</v>
       </c>
       <c r="AG37">
-        <v>5.231</v>
+        <v>5231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-64045.34647002711</v>
+        <v>-58819.57747002711</v>
       </c>
       <c r="AM37">
-        <v>27965.45839791721</v>
+        <v>22739.68939791721</v>
       </c>
       <c r="AN37">
-        <v>-64062.34647002711</v>
+        <v>-58836.57747002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.0001795289207797175</v>
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>68266.69799999999</v>
+        <v>62970</v>
       </c>
       <c r="Y38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47.365</v>
+        <v>47365</v>
       </c>
       <c r="AB38">
-        <v>42.063</v>
+        <v>42063</v>
       </c>
       <c r="AC38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD38">
-        <v>68207.635</v>
+        <v>20890</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>68249.698</v>
+        <v>62953</v>
       </c>
       <c r="AG38">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-63948.76816164643</v>
+        <v>-58652.07016164642</v>
       </c>
       <c r="AM38">
-        <v>27966.20251769926</v>
+        <v>22669.50451769926</v>
       </c>
       <c r="AN38">
-        <v>-63965.76816164641</v>
+        <v>-58669.07016164642</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.0001804796158628646</v>
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>68331.864</v>
+        <v>63201</v>
       </c>
       <c r="Y39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47.381</v>
+        <v>47381</v>
       </c>
       <c r="AB39">
-        <v>42.245</v>
+        <v>42245</v>
       </c>
       <c r="AC39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD39">
-        <v>68281.61900000001</v>
+        <v>20948</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>68323.864</v>
+        <v>63193</v>
       </c>
       <c r="AG39">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-63663.33047611614</v>
+        <v>-58532.46647611614</v>
       </c>
       <c r="AM39">
-        <v>27830.84022688872</v>
+        <v>22699.97622688872</v>
       </c>
       <c r="AN39">
-        <v>-63671.33047611614</v>
+        <v>-58540.46647611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.0001820010170791943</v>
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>67055.73000000001</v>
+        <v>61791</v>
       </c>
       <c r="Y40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46.196</v>
+        <v>46196</v>
       </c>
       <c r="AB40">
-        <v>40.926</v>
+        <v>40926</v>
       </c>
       <c r="AC40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AD40">
-        <v>67006.804</v>
+        <v>20857</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>67047.73</v>
+        <v>61783</v>
       </c>
       <c r="AG40">
-        <v>5.27</v>
+        <v>5270</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-63475.40908013706</v>
+        <v>-58210.67908013707</v>
       </c>
       <c r="AM40">
-        <v>28130.26158416251</v>
+        <v>22865.53158416251</v>
       </c>
       <c r="AN40">
-        <v>-63483.40908013708</v>
+        <v>-58218.67908013707</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.0001771940556449786</v>
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>63647.65</v>
+        <v>56305</v>
       </c>
       <c r="Y41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42.52</v>
+        <v>42520</v>
       </c>
       <c r="AB41">
-        <v>35.17</v>
+        <v>35170</v>
       </c>
       <c r="AC41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AD41">
-        <v>63604.48</v>
+        <v>21127</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>63639.65</v>
+        <v>56297</v>
       </c>
       <c r="AG41">
-        <v>7.35</v>
+        <v>7350</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-66757.26802964605</v>
+        <v>-59414.61802964604</v>
       </c>
       <c r="AM41">
-        <v>31563.43642734698</v>
+        <v>24220.78642734698</v>
       </c>
       <c r="AN41">
-        <v>-66765.26802964605</v>
+        <v>-59422.61802964604</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.0001620313209744439</v>
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>60518.789</v>
+        <v>55313</v>
       </c>
       <c r="Y42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39.48200000000001</v>
+        <v>39482</v>
       </c>
       <c r="AB42">
-        <v>34.27100000000001</v>
+        <v>34271</v>
       </c>
       <c r="AC42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AD42">
-        <v>60476.518</v>
+        <v>21034</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>60510.789</v>
+        <v>55305</v>
       </c>
       <c r="AG42">
-        <v>5.211</v>
+        <v>5211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-64943.72026595174</v>
+        <v>-59737.93126595175</v>
       </c>
       <c r="AM42">
-        <v>29453.79132790778</v>
+        <v>24248.00232790778</v>
       </c>
       <c r="AN42">
-        <v>-64951.72026595174</v>
+        <v>-59745.93126595175</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.0001506045007255962</v>
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>60822.122</v>
+        <v>53951</v>
       </c>
       <c r="Y43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39.98</v>
+        <v>39980</v>
       </c>
       <c r="AB43">
-        <v>33.102</v>
+        <v>33102</v>
       </c>
       <c r="AC43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AD43">
-        <v>60781.02</v>
+        <v>20841</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>60814.122</v>
+        <v>53943</v>
       </c>
       <c r="AG43">
-        <v>6.878</v>
+        <v>6878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-66610.39008109934</v>
+        <v>-59739.26808109933</v>
       </c>
       <c r="AM43">
-        <v>30305.68790361747</v>
+        <v>23434.56590361747</v>
       </c>
       <c r="AN43">
-        <v>-66618.39008109932</v>
+        <v>-59747.26808109933</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.0001540801348505641</v>
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>60785.27499999999</v>
+        <v>54067</v>
       </c>
       <c r="Y44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39.533</v>
+        <v>39533</v>
       </c>
       <c r="AB44">
-        <v>32.808</v>
+        <v>32808</v>
       </c>
       <c r="AC44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AD44">
-        <v>60360.467</v>
+        <v>20867</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>60393.275</v>
+        <v>53675</v>
       </c>
       <c r="AG44">
-        <v>6.725</v>
+        <v>6725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-68326.05192497035</v>
+        <v>-61607.77692497036</v>
       </c>
       <c r="AM44">
-        <v>30247.16461489405</v>
+        <v>23528.88961489405</v>
       </c>
       <c r="AN44">
-        <v>-68718.05192497035</v>
+        <v>-61999.77692497036</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.000153450834966544</v>
+        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>60340.773</v>
+        <v>53121</v>
       </c>
       <c r="Y45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38.991</v>
+        <v>38991</v>
       </c>
       <c r="AB45">
-        <v>31.764</v>
+        <v>31764</v>
       </c>
       <c r="AC45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AD45">
-        <v>59917.009</v>
+        <v>20965</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>59948.773</v>
+        <v>52729</v>
       </c>
       <c r="AG45">
-        <v>7.227</v>
+        <v>7227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-70022.5307420106</v>
+        <v>-62802.7577420106</v>
       </c>
       <c r="AM45">
-        <v>31093.43313737703</v>
+        <v>23873.66013737703</v>
       </c>
       <c r="AN45">
-        <v>-70414.5307420106</v>
+        <v>-63194.7577420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.0001510540895364002</v>
+        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>59260.82</v>
+        <v>52088</v>
       </c>
       <c r="Y46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37.90000000000001</v>
+        <v>37900</v>
       </c>
       <c r="AB46">
-        <v>30.72000000000001</v>
+        <v>30720</v>
       </c>
       <c r="AC46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AD46">
-        <v>58829.1</v>
+        <v>20967</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>58859.82</v>
+        <v>51687</v>
       </c>
       <c r="AG46">
-        <v>7.180000000000001</v>
+        <v>7180</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-77767.45127309064</v>
+        <v>-70594.63127309064</v>
       </c>
       <c r="AM46">
-        <v>30914.3720056798</v>
+        <v>23741.5520056798</v>
       </c>
       <c r="AN46">
-        <v>-78168.45127309064</v>
+        <v>-70995.63127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.0001433119814866633</v>
+        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>65285.743</v>
+        <v>59035</v>
       </c>
       <c r="Y47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43.317</v>
+        <v>43317</v>
       </c>
       <c r="AB47">
-        <v>37.06</v>
+        <v>37060</v>
       </c>
       <c r="AC47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AD47">
-        <v>64270.683</v>
+        <v>20997</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>64307.743</v>
+        <v>58057</v>
       </c>
       <c r="AG47">
-        <v>6.257</v>
+        <v>6257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-85559.8154316205</v>
+        <v>-79309.0724316205</v>
       </c>
       <c r="AM47">
-        <v>29722.4142718762</v>
+        <v>23471.6712718762</v>
       </c>
       <c r="AN47">
-        <v>-86537.81543162049</v>
+        <v>-80287.0724316205</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.0001630892047913144</v>
+        <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6964,34 +6964,34 @@
         <v>64695.074</v>
       </c>
       <c r="X48">
-        <v>64688.948</v>
+        <v>58569.074</v>
       </c>
       <c r="Y48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="Z48">
         <v>1.074</v>
       </c>
       <c r="AA48">
-        <v>43.704</v>
+        <v>43704</v>
       </c>
       <c r="AB48">
-        <v>37.578</v>
+        <v>37578</v>
       </c>
       <c r="AC48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AD48">
-        <v>64650.296</v>
+        <v>20990</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>64687.874</v>
+        <v>58568</v>
       </c>
       <c r="AG48">
-        <v>6.126</v>
+        <v>6126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,13 +7006,13 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-86308.51792217299</v>
+        <v>-80188.64392217298</v>
       </c>
       <c r="AM48">
-        <v>29774.95725948758</v>
+        <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-86309.59192217299</v>
+        <v>-80189.71792217298</v>
       </c>
       <c r="AO48">
         <v>167585.6346626854</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.0001656444835941124</v>
+        <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>65395.918</v>
+        <v>59320</v>
       </c>
       <c r="Y49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43.911</v>
+        <v>43911</v>
       </c>
       <c r="AB49">
-        <v>37.829</v>
+        <v>37829</v>
       </c>
       <c r="AC49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="AD49">
-        <v>64799.089</v>
+        <v>20932</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>64836.918</v>
+        <v>58761</v>
       </c>
       <c r="AG49">
-        <v>6.082000000000001</v>
+        <v>6082</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-86520.15780579674</v>
+        <v>-80444.23980579675</v>
       </c>
       <c r="AM49">
-        <v>29452.56026413988</v>
+        <v>23376.64226413988</v>
       </c>
       <c r="AN49">
-        <v>-87079.15780579674</v>
+        <v>-81003.23980579675</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.0001684415666266357</v>
+        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>65005.43</v>
+        <v>59441</v>
       </c>
       <c r="Y50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43.133</v>
+        <v>43133</v>
       </c>
       <c r="AB50">
-        <v>37.563</v>
+        <v>37563</v>
       </c>
       <c r="AC50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="AD50">
-        <v>64155.867</v>
+        <v>21066</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>64193.43</v>
+        <v>58629</v>
       </c>
       <c r="AG50">
-        <v>5.57</v>
+        <v>5570</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-86351.33169867058</v>
+        <v>-80786.90169867058</v>
       </c>
       <c r="AM50">
-        <v>29505.36375184638</v>
+        <v>23940.93375184638</v>
       </c>
       <c r="AN50">
-        <v>-87163.33169867058</v>
+        <v>-81598.90169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.0001650201759766311</v>
+        <v>0.1650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>65692.32800000001</v>
+        <v>60026</v>
       </c>
       <c r="Y51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43.80499999999999</v>
+        <v>43805</v>
       </c>
       <c r="AB51">
-        <v>38.133</v>
+        <v>38133</v>
       </c>
       <c r="AC51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="AD51">
-        <v>64837.195</v>
+        <v>21076</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>64875.328</v>
+        <v>59209</v>
       </c>
       <c r="AG51">
-        <v>5.672000000000001</v>
+        <v>5672</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-85803.61756118754</v>
+        <v>-80137.28956118753</v>
       </c>
       <c r="AM51">
-        <v>30008.95882919862</v>
+        <v>24342.63082919862</v>
       </c>
       <c r="AN51">
-        <v>-86620.61756118754</v>
+        <v>-80954.28956118753</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.0001687833198232185</v>
+        <v>0.1687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>65426.71900000001</v>
+        <v>60151</v>
       </c>
       <c r="Y52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43.70200000000001</v>
+        <v>43702</v>
       </c>
       <c r="AB52">
-        <v>38.42100000000001</v>
+        <v>38421</v>
       </c>
       <c r="AC52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="AD52">
-        <v>64566.298</v>
+        <v>20908</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>64604.719</v>
+        <v>59329</v>
       </c>
       <c r="AG52">
-        <v>5.281</v>
+        <v>5281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-83605.88000697407</v>
+        <v>-78330.16100697407</v>
       </c>
       <c r="AM52">
-        <v>29343.63841559015</v>
+        <v>24067.91941559015</v>
       </c>
       <c r="AN52">
-        <v>-84427.88000697407</v>
+        <v>-79152.16100697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.0001711225071831944</v>
+        <v>0.1711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>67116.39600000001</v>
+        <v>61518</v>
       </c>
       <c r="Y53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42.84699999999999</v>
+        <v>42847</v>
       </c>
       <c r="AB53">
-        <v>37.243</v>
+        <v>37243</v>
       </c>
       <c r="AC53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="AD53">
-        <v>66516.15300000001</v>
+        <v>23712</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>66553.39599999999</v>
+        <v>60955</v>
       </c>
       <c r="AG53">
-        <v>5.603999999999999</v>
+        <v>5604</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-80233.10894718282</v>
+        <v>-74634.71294718282</v>
       </c>
       <c r="AM53">
-        <v>29832.21393969442</v>
+        <v>24233.81793969441</v>
       </c>
       <c r="AN53">
-        <v>-80796.10894718283</v>
+        <v>-75197.71294718282</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,7 +7709,7 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.0001695880266032385</v>
+        <v>0.1695880266032386</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7786,34 +7786,34 @@
         <v>64510</v>
       </c>
       <c r="X54">
-        <v>64504.698</v>
+        <v>59208</v>
       </c>
       <c r="Y54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="Z54">
         <v>563</v>
       </c>
       <c r="AA54">
-        <v>40.219</v>
+        <v>40219</v>
       </c>
       <c r="AB54">
-        <v>34.917</v>
+        <v>34917</v>
       </c>
       <c r="AC54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AD54">
-        <v>63906.781</v>
+        <v>23728</v>
       </c>
       <c r="AE54">
         <v>63947</v>
       </c>
       <c r="AF54">
-        <v>63941.698</v>
+        <v>58645</v>
       </c>
       <c r="AG54">
-        <v>5.302</v>
+        <v>5302</v>
       </c>
       <c r="AH54">
         <v>15619.12079336691</v>
@@ -7828,13 +7828,13 @@
         <v>-48327.87920663309</v>
       </c>
       <c r="AL54">
-        <v>-78798.30291272671</v>
+        <v>-73501.6049127267</v>
       </c>
       <c r="AM54">
-        <v>30470.4236321958</v>
+        <v>25173.7256321958</v>
       </c>
       <c r="AN54">
-        <v>-79361.30291272671</v>
+        <v>-74064.6049127267</v>
       </c>
       <c r="AO54">
         <v>163737.8792066331</v>
@@ -7846,7 +7846,7 @@
         <v>0.5568016578578456</v>
       </c>
       <c r="AR54">
-        <v>0.0001603551216653967</v>
+        <v>0.1603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -7923,34 +7923,34 @@
         <v>63570</v>
       </c>
       <c r="X55">
-        <v>63565.763</v>
+        <v>59333</v>
       </c>
       <c r="Y55">
-        <v>4.237</v>
+        <v>4237</v>
       </c>
       <c r="Z55">
         <v>567</v>
       </c>
       <c r="AA55">
-        <v>39.207</v>
+        <v>39207</v>
       </c>
       <c r="AB55">
-        <v>34.97</v>
+        <v>34970</v>
       </c>
       <c r="AC55">
-        <v>4.237</v>
+        <v>4237</v>
       </c>
       <c r="AD55">
-        <v>62963.793</v>
+        <v>23796</v>
       </c>
       <c r="AE55">
         <v>63003</v>
       </c>
       <c r="AF55">
-        <v>62998.763</v>
+        <v>58766</v>
       </c>
       <c r="AG55">
-        <v>4.237</v>
+        <v>4237</v>
       </c>
       <c r="AH55">
         <v>19607.87223876208</v>
@@ -7965,13 +7965,13 @@
         <v>-43395.12776123792</v>
       </c>
       <c r="AL55">
-        <v>-75202.03138681222</v>
+        <v>-70969.26838681221</v>
       </c>
       <c r="AM55">
-        <v>31806.9036255743</v>
+        <v>27574.1406255743</v>
       </c>
       <c r="AN55">
-        <v>-75769.03138681222</v>
+        <v>-71536.26838681221</v>
       </c>
       <c r="AO55">
         <v>157972.1277612379</v>
@@ -7983,7 +7983,7 @@
         <v>0.5526094202262959</v>
       </c>
       <c r="AR55">
-        <v>0.000161140639153801</v>
+        <v>0.161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
@@ -8060,34 +8060,34 @@
         <v>61901</v>
       </c>
       <c r="X56">
-        <v>60941.466</v>
+        <v>58410</v>
       </c>
       <c r="Y56">
-        <v>959.534</v>
+        <v>3491</v>
       </c>
       <c r="Z56">
         <v>770</v>
       </c>
       <c r="AA56">
-        <v>37.19100000000003</v>
+        <v>37191</v>
       </c>
       <c r="AB56">
-        <v>-922.343</v>
+        <v>33700</v>
       </c>
       <c r="AC56">
-        <v>959.534</v>
+        <v>3491</v>
       </c>
       <c r="AD56">
-        <v>61093.809</v>
+        <v>23940</v>
       </c>
       <c r="AE56">
         <v>61131</v>
       </c>
       <c r="AF56">
-        <v>60171.466</v>
+        <v>57640</v>
       </c>
       <c r="AG56">
-        <v>959.534</v>
+        <v>3491</v>
       </c>
       <c r="AH56">
         <v>17975.91939518282</v>
@@ -8102,13 +8102,13 @@
         <v>-43155.08060481718</v>
       </c>
       <c r="AL56">
-        <v>-74830.22927253309</v>
+        <v>-72298.76327253309</v>
       </c>
       <c r="AM56">
-        <v>31675.14852719148</v>
+        <v>29143.68252719148</v>
       </c>
       <c r="AN56">
-        <v>-75600.22927253309</v>
+        <v>-73068.76327253309</v>
       </c>
       <c r="AO56">
         <v>157068.0806048172</v>
@@ -8120,7 +8120,7 @@
         <v>0.5402985602290906</v>
       </c>
       <c r="AR56">
-        <v>0.0001529121707866667</v>
+        <v>0.1529121707866666</v>
       </c>
       <c r="AS56">
         <v>14.2324</v>
@@ -8197,34 +8197,34 @@
         <v>60796.139</v>
       </c>
       <c r="X57">
-        <v>59975.605</v>
+        <v>57444.139</v>
       </c>
       <c r="Y57">
-        <v>820.534</v>
+        <v>3352</v>
       </c>
       <c r="Z57">
         <v>1.139</v>
       </c>
       <c r="AA57">
-        <v>36.91700000000003</v>
+        <v>36917</v>
       </c>
       <c r="AB57">
-        <v>-783.617</v>
+        <v>33565</v>
       </c>
       <c r="AC57">
-        <v>820.534</v>
+        <v>3352</v>
       </c>
       <c r="AD57">
-        <v>60758.083</v>
+        <v>23878</v>
       </c>
       <c r="AE57">
         <v>60795</v>
       </c>
       <c r="AF57">
-        <v>59974.466</v>
+        <v>57443</v>
       </c>
       <c r="AG57">
-        <v>820.534</v>
+        <v>3352</v>
       </c>
       <c r="AH57">
         <v>17976.1543367347</v>
@@ -8239,13 +8239,13 @@
         <v>-42818.8456632653</v>
       </c>
       <c r="AL57">
-        <v>-74162.92915192744</v>
+        <v>-71631.46315192744</v>
       </c>
       <c r="AM57">
-        <v>31344.08334693878</v>
+        <v>28812.61734693878</v>
       </c>
       <c r="AN57">
-        <v>-74164.06815192744</v>
+        <v>-71632.60215192745</v>
       </c>
       <c r="AO57">
         <v>153079.9846632653</v>
@@ -8257,7 +8257,7 @@
         <v>0.5513785597678215</v>
       </c>
       <c r="AR57">
-        <v>0.000153469158756044</v>
+        <v>0.1534691587560439</v>
       </c>
       <c r="AS57">
         <v>14.112</v>
@@ -8334,34 +8334,34 @@
         <v>59742.352</v>
       </c>
       <c r="X58">
-        <v>59738.646</v>
+        <v>56036.352</v>
       </c>
       <c r="Y58">
-        <v>3.706</v>
+        <v>3706</v>
       </c>
       <c r="Z58">
         <v>1.352</v>
       </c>
       <c r="AA58">
-        <v>35.84700000000001</v>
+        <v>35847</v>
       </c>
       <c r="AB58">
-        <v>32.14100000000001</v>
+        <v>32141</v>
       </c>
       <c r="AC58">
-        <v>3.706</v>
+        <v>3706</v>
       </c>
       <c r="AD58">
-        <v>59705.153</v>
+        <v>23894</v>
       </c>
       <c r="AE58">
         <v>59741</v>
       </c>
       <c r="AF58">
-        <v>59737.294</v>
+        <v>56035</v>
       </c>
       <c r="AG58">
-        <v>3.706</v>
+        <v>3706</v>
       </c>
       <c r="AH58">
         <v>15675.86797571811</v>
@@ -8376,13 +8376,13 @@
         <v>-44065.13202428189</v>
       </c>
       <c r="AL58">
-        <v>-77542.68657978094</v>
+        <v>-73840.39257978094</v>
       </c>
       <c r="AM58">
-        <v>33477.55448767254</v>
+        <v>29775.26048767254</v>
       </c>
       <c r="AN58">
-        <v>-77544.03857978093</v>
+        <v>-73841.74457978093</v>
       </c>
       <c r="AO58">
         <v>152929.4840242819</v>
@@ -8394,7 +8394,7 @@
         <v>0.548772310151291</v>
       </c>
       <c r="AR58">
-        <v>0.0001476820627287256</v>
+        <v>0.1476820627287255</v>
       </c>
       <c r="AS58">
         <v>14.7435</v>
@@ -8471,34 +8471,34 @@
         <v>62505.432</v>
       </c>
       <c r="X59">
-        <v>62501.80300000001</v>
+        <v>58876.432</v>
       </c>
       <c r="Y59">
-        <v>3.629</v>
+        <v>3629</v>
       </c>
       <c r="Z59">
         <v>1.432</v>
       </c>
       <c r="AA59">
-        <v>-925.177</v>
+        <v>38858</v>
       </c>
       <c r="AB59">
-        <v>-928.806</v>
+        <v>35229</v>
       </c>
       <c r="AC59">
-        <v>3.629</v>
+        <v>3629</v>
       </c>
       <c r="AD59">
-        <v>63429.177</v>
+        <v>23646</v>
       </c>
       <c r="AE59">
         <v>62504</v>
       </c>
       <c r="AF59">
-        <v>62500.371</v>
+        <v>58875</v>
       </c>
       <c r="AG59">
-        <v>3.629</v>
+        <v>3629</v>
       </c>
       <c r="AH59">
         <v>17024.47288628944</v>
@@ -8513,13 +8513,13 @@
         <v>-45479.52711371056</v>
       </c>
       <c r="AL59">
-        <v>-78288.95077327415</v>
+        <v>-74663.57977327415</v>
       </c>
       <c r="AM59">
-        <v>32809.42365956359</v>
+        <v>29184.05265956359</v>
       </c>
       <c r="AN59">
-        <v>-78290.38277327415</v>
+        <v>-74665.01177327415</v>
       </c>
       <c r="AO59">
         <v>154187.9591137106</v>
@@ -8531,7 +8531,7 @@
         <v>0.5749767724249588</v>
       </c>
       <c r="AR59">
-        <v>-0.00380641895363994</v>
+        <v>0.1598719247241779</v>
       </c>
       <c r="AS59">
         <v>14.6697</v>
@@ -8608,34 +8608,34 @@
         <v>62475.432</v>
       </c>
       <c r="X60">
-        <v>62471.721</v>
+        <v>58764.432</v>
       </c>
       <c r="Y60">
-        <v>3.711</v>
+        <v>3711</v>
       </c>
       <c r="Z60">
         <v>1.432</v>
       </c>
       <c r="AA60">
-        <v>-870.252</v>
+        <v>38838</v>
       </c>
       <c r="AB60">
-        <v>-873.963</v>
+        <v>35127</v>
       </c>
       <c r="AC60">
-        <v>3.711</v>
+        <v>3711</v>
       </c>
       <c r="AD60">
-        <v>63344.252</v>
+        <v>23636</v>
       </c>
       <c r="AE60">
         <v>62474</v>
       </c>
       <c r="AF60">
-        <v>62470.289</v>
+        <v>58763</v>
       </c>
       <c r="AG60">
-        <v>3.711</v>
+        <v>3711</v>
       </c>
       <c r="AH60">
         <v>15772.29862244827</v>
@@ -8650,13 +8650,13 @@
         <v>-46701.70137755173</v>
       </c>
       <c r="AL60">
-        <v>-79693.64590867143</v>
+        <v>-75986.35690867144</v>
       </c>
       <c r="AM60">
-        <v>32991.94453111971</v>
+        <v>29284.65553111972</v>
       </c>
       <c r="AN60">
-        <v>-79695.07790867143</v>
+        <v>-75987.78890867144</v>
       </c>
       <c r="AO60">
         <v>154739.1333775517</v>
@@ -8668,7 +8668,7 @@
         <v>0.5782702062275538</v>
       </c>
       <c r="AR60">
-        <v>-0.003553285522953825</v>
+        <v>0.1585776339962225</v>
       </c>
       <c r="AS60">
         <v>14.8234</v>
@@ -8745,34 +8745,34 @@
         <v>61898.115</v>
       </c>
       <c r="X61">
-        <v>61894.33499999999</v>
+        <v>58118.115</v>
       </c>
       <c r="Y61">
-        <v>3.78</v>
+        <v>3780</v>
       </c>
       <c r="Z61">
         <v>1.115</v>
       </c>
       <c r="AA61">
-        <v>-745.9690000000001</v>
+        <v>38246</v>
       </c>
       <c r="AB61">
-        <v>-749.749</v>
+        <v>34466</v>
       </c>
       <c r="AC61">
-        <v>3.78</v>
+        <v>3780</v>
       </c>
       <c r="AD61">
-        <v>62642.969</v>
+        <v>23651</v>
       </c>
       <c r="AE61">
         <v>61897</v>
       </c>
       <c r="AF61">
-        <v>61893.22</v>
+        <v>58117</v>
       </c>
       <c r="AG61">
-        <v>3.78</v>
+        <v>3780</v>
       </c>
       <c r="AH61">
         <v>16217.39894514626</v>
@@ -8787,13 +8787,13 @@
         <v>-45679.60105485375</v>
       </c>
       <c r="AL61">
-        <v>-78557.61672476106</v>
+        <v>-74781.39672476106</v>
       </c>
       <c r="AM61">
-        <v>32878.01560158775</v>
+        <v>29101.79560158775</v>
       </c>
       <c r="AN61">
-        <v>-78558.73172476105</v>
+        <v>-74782.51172476105</v>
       </c>
       <c r="AO61">
         <v>154641.7160548538</v>
@@ -8805,7 +8805,7 @@
         <v>0.5680656381641137</v>
       </c>
       <c r="AR61">
-        <v>-0.003067724897534348</v>
+        <v>0.157282952014224</v>
       </c>
       <c r="AS61">
         <v>14.6371</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -796,16 +796,16 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>51781.285</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
         <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
         <v>39899</v>
@@ -847,10 +847,10 @@
         <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-68191.53040106723</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -933,16 +933,16 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>52826.426</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
         <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
         <v>40389</v>
@@ -984,10 +984,10 @@
         <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-68382.3920753017</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -6961,16 +6961,16 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>64695.074</v>
+        <v>65768</v>
       </c>
       <c r="X48">
-        <v>58569.074</v>
+        <v>59642</v>
       </c>
       <c r="Y48">
         <v>6126</v>
       </c>
       <c r="Z48">
-        <v>1.074</v>
+        <v>1074</v>
       </c>
       <c r="AA48">
         <v>43704</v>
@@ -7012,10 +7012,10 @@
         <v>23655.08325948758</v>
       </c>
       <c r="AN48">
-        <v>-80189.71792217298</v>
+        <v>-81262.64392217298</v>
       </c>
       <c r="AO48">
-        <v>167585.6346626854</v>
+        <v>168658.5606626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -8194,16 +8194,16 @@
         <v>942.9275793650794</v>
       </c>
       <c r="W57">
-        <v>60796.139</v>
+        <v>61934</v>
       </c>
       <c r="X57">
-        <v>57444.139</v>
+        <v>58582</v>
       </c>
       <c r="Y57">
         <v>3352</v>
       </c>
       <c r="Z57">
-        <v>1.139</v>
+        <v>1139</v>
       </c>
       <c r="AA57">
         <v>36917</v>
@@ -8245,10 +8245,10 @@
         <v>28812.61734693878</v>
       </c>
       <c r="AN57">
-        <v>-71632.60215192745</v>
+        <v>-72770.46315192744</v>
       </c>
       <c r="AO57">
-        <v>153079.9846632653</v>
+        <v>154217.8456632653</v>
       </c>
       <c r="AP57">
         <v>240549.96</v>
@@ -8331,16 +8331,16 @@
         <v>785.6953233628378</v>
       </c>
       <c r="W58">
-        <v>59742.352</v>
+        <v>61093</v>
       </c>
       <c r="X58">
-        <v>56036.352</v>
+        <v>57387</v>
       </c>
       <c r="Y58">
         <v>3706</v>
       </c>
       <c r="Z58">
-        <v>1.352</v>
+        <v>1352</v>
       </c>
       <c r="AA58">
         <v>35847</v>
@@ -8382,10 +8382,10 @@
         <v>29775.26048767254</v>
       </c>
       <c r="AN58">
-        <v>-73841.74457978093</v>
+        <v>-75192.39257978094</v>
       </c>
       <c r="AO58">
-        <v>152929.4840242819</v>
+        <v>154280.1320242819</v>
       </c>
       <c r="AP58">
         <v>242730.9</v>
@@ -8468,16 +8468,16 @@
         <v>642.3187931586876</v>
       </c>
       <c r="W59">
-        <v>62505.432</v>
+        <v>63936</v>
       </c>
       <c r="X59">
-        <v>58876.432</v>
+        <v>60307</v>
       </c>
       <c r="Y59">
         <v>3629</v>
       </c>
       <c r="Z59">
-        <v>1.432</v>
+        <v>1432</v>
       </c>
       <c r="AA59">
         <v>38858</v>
@@ -8519,10 +8519,10 @@
         <v>29184.05265956359</v>
       </c>
       <c r="AN59">
-        <v>-74665.01177327415</v>
+        <v>-76095.57977327415</v>
       </c>
       <c r="AO59">
-        <v>154187.9591137106</v>
+        <v>155618.5271137106</v>
       </c>
       <c r="AP59">
         <v>243057.06</v>
@@ -8605,16 +8605,16 @@
         <v>629.4280664355007</v>
       </c>
       <c r="W60">
-        <v>62475.432</v>
+        <v>63906</v>
       </c>
       <c r="X60">
-        <v>58764.432</v>
+        <v>60195</v>
       </c>
       <c r="Y60">
         <v>3711</v>
       </c>
       <c r="Z60">
-        <v>1.432</v>
+        <v>1432</v>
       </c>
       <c r="AA60">
         <v>38838</v>
@@ -8656,10 +8656,10 @@
         <v>29284.65553111972</v>
       </c>
       <c r="AN60">
-        <v>-75987.78890867144</v>
+        <v>-77418.35690867144</v>
       </c>
       <c r="AO60">
-        <v>154739.1333775517</v>
+        <v>156169.7013775517</v>
       </c>
       <c r="AP60">
         <v>244914.74</v>
@@ -8742,16 +8742,16 @@
         <v>644.0719131521954</v>
       </c>
       <c r="W61">
-        <v>61898.115</v>
+        <v>63012</v>
       </c>
       <c r="X61">
-        <v>58118.115</v>
+        <v>59232</v>
       </c>
       <c r="Y61">
         <v>3780</v>
       </c>
       <c r="Z61">
-        <v>1.115</v>
+        <v>1115</v>
       </c>
       <c r="AA61">
         <v>38246</v>
@@ -8793,10 +8793,10 @@
         <v>29101.79560158775</v>
       </c>
       <c r="AN61">
-        <v>-74782.51172476105</v>
+        <v>-75896.39672476106</v>
       </c>
       <c r="AO61">
-        <v>154641.7160548538</v>
+        <v>155755.6010548538</v>
       </c>
       <c r="AP61">
         <v>243166.85</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS61"/>
+  <dimension ref="A1:AS62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,36 +661,12 @@
       <c r="W2">
         <v>60658</v>
       </c>
-      <c r="X2">
-        <v>55099</v>
-      </c>
-      <c r="Y2">
-        <v>5559</v>
-      </c>
       <c r="Z2">
         <v>1397</v>
       </c>
-      <c r="AA2">
-        <v>44039</v>
-      </c>
-      <c r="AB2">
-        <v>38480</v>
-      </c>
-      <c r="AC2">
-        <v>5559</v>
-      </c>
-      <c r="AD2">
-        <v>15222</v>
-      </c>
       <c r="AE2">
         <v>59261</v>
       </c>
-      <c r="AF2">
-        <v>53702</v>
-      </c>
-      <c r="AG2">
-        <v>5559</v>
-      </c>
       <c r="AH2">
         <v>14388.55263228834</v>
       </c>
@@ -703,15 +679,6 @@
       <c r="AK2">
         <v>-44872.44736771166</v>
       </c>
-      <c r="AL2">
-        <v>-72057.23398118447</v>
-      </c>
-      <c r="AM2">
-        <v>27184.78661347279</v>
-      </c>
-      <c r="AN2">
-        <v>-73454.23398118447</v>
-      </c>
       <c r="AO2">
         <v>139475.4473677117</v>
       </c>
@@ -720,9 +687,6 @@
       </c>
       <c r="AQ2">
         <v>0.6358067077226787</v>
-      </c>
-      <c r="AR2">
-        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -795,39 +759,9 @@
       <c r="V3">
         <v>791.0103988378615</v>
       </c>
-      <c r="W3">
-        <v>58285</v>
-      </c>
-      <c r="X3">
-        <v>53065</v>
-      </c>
-      <c r="Y3">
-        <v>5220</v>
-      </c>
-      <c r="Z3">
-        <v>1285</v>
-      </c>
-      <c r="AA3">
-        <v>39899</v>
-      </c>
-      <c r="AB3">
-        <v>34679</v>
-      </c>
-      <c r="AC3">
-        <v>5220</v>
-      </c>
-      <c r="AD3">
-        <v>17101</v>
-      </c>
       <c r="AE3">
         <v>57000</v>
       </c>
-      <c r="AF3">
-        <v>51780</v>
-      </c>
-      <c r="AG3">
-        <v>5220</v>
-      </c>
       <c r="AH3">
         <v>12008.14986983474</v>
       </c>
@@ -840,26 +774,11 @@
       <c r="AK3">
         <v>-44991.85013016526</v>
       </c>
-      <c r="AL3">
-        <v>-68190.24540106722</v>
-      </c>
-      <c r="AM3">
-        <v>23198.39512707294</v>
-      </c>
-      <c r="AN3">
-        <v>-69475.24540106722</v>
-      </c>
-      <c r="AO3">
-        <v>140324.8501301653</v>
-      </c>
       <c r="AP3">
         <v>264440.29</v>
       </c>
       <c r="AQ3">
         <v>0.6060734943858456</v>
-      </c>
-      <c r="AR3">
-        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -932,39 +851,9 @@
       <c r="V4">
         <v>370.5564206662588</v>
       </c>
-      <c r="W4">
-        <v>59426</v>
-      </c>
-      <c r="X4">
-        <v>54251</v>
-      </c>
-      <c r="Y4">
-        <v>5175</v>
-      </c>
-      <c r="Z4">
-        <v>1426</v>
-      </c>
-      <c r="AA4">
-        <v>40389</v>
-      </c>
-      <c r="AB4">
-        <v>35214</v>
-      </c>
-      <c r="AC4">
-        <v>5175</v>
-      </c>
-      <c r="AD4">
-        <v>17611</v>
-      </c>
       <c r="AE4">
         <v>58000</v>
       </c>
-      <c r="AF4">
-        <v>52825</v>
-      </c>
-      <c r="AG4">
-        <v>5175</v>
-      </c>
       <c r="AH4">
         <v>13760.6340303654</v>
       </c>
@@ -977,26 +866,11 @@
       <c r="AK4">
         <v>-44239.3659696346</v>
       </c>
-      <c r="AL4">
-        <v>-68380.96607530171</v>
-      </c>
-      <c r="AM4">
-        <v>24141.60010566709</v>
-      </c>
-      <c r="AN4">
-        <v>-69806.96607530171</v>
-      </c>
-      <c r="AO4">
-        <v>140878.3659696346</v>
-      </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
         <v>0.6091605137953849</v>
-      </c>
-      <c r="AR4">
-        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1072,36 +946,12 @@
       <c r="W5">
         <v>58686</v>
       </c>
-      <c r="X5">
-        <v>53490</v>
-      </c>
-      <c r="Y5">
-        <v>5196</v>
-      </c>
       <c r="Z5">
         <v>986</v>
       </c>
-      <c r="AA5">
-        <v>40305</v>
-      </c>
-      <c r="AB5">
-        <v>35109</v>
-      </c>
-      <c r="AC5">
-        <v>5196</v>
-      </c>
-      <c r="AD5">
-        <v>17395</v>
-      </c>
       <c r="AE5">
         <v>57700</v>
       </c>
-      <c r="AF5">
-        <v>52504</v>
-      </c>
-      <c r="AG5">
-        <v>5196</v>
-      </c>
       <c r="AH5">
         <v>11439.30199667221</v>
       </c>
@@ -1114,15 +964,6 @@
       <c r="AK5">
         <v>-46260.69800332779</v>
       </c>
-      <c r="AL5">
-        <v>-67715.74027159036</v>
-      </c>
-      <c r="AM5">
-        <v>21455.04213407761</v>
-      </c>
-      <c r="AN5">
-        <v>-68701.74027159036</v>
-      </c>
       <c r="AO5">
         <v>138909.6980033278</v>
       </c>
@@ -1131,9 +972,6 @@
       </c>
       <c r="AQ5">
         <v>0.6294797246435312</v>
-      </c>
-      <c r="AR5">
-        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1209,36 +1047,12 @@
       <c r="W6">
         <v>58586</v>
       </c>
-      <c r="X6">
-        <v>53411</v>
-      </c>
-      <c r="Y6">
-        <v>5175</v>
-      </c>
       <c r="Z6">
         <v>986</v>
       </c>
-      <c r="AA6">
-        <v>40170</v>
-      </c>
-      <c r="AB6">
-        <v>34995</v>
-      </c>
-      <c r="AC6">
-        <v>5175</v>
-      </c>
-      <c r="AD6">
-        <v>17430</v>
-      </c>
       <c r="AE6">
         <v>57600</v>
       </c>
-      <c r="AF6">
-        <v>52425</v>
-      </c>
-      <c r="AG6">
-        <v>5175</v>
-      </c>
       <c r="AH6">
         <v>10818.54305133924</v>
       </c>
@@ -1251,15 +1065,6 @@
       <c r="AK6">
         <v>-46781.45694866077</v>
       </c>
-      <c r="AL6">
-        <v>-68618.66730247428</v>
-      </c>
-      <c r="AM6">
-        <v>21837.21035381351</v>
-      </c>
-      <c r="AN6">
-        <v>-69604.66730247428</v>
-      </c>
       <c r="AO6">
         <v>139378.4569486608</v>
       </c>
@@ -1268,9 +1073,6 @@
       </c>
       <c r="AQ6">
         <v>0.6287454563316632</v>
-      </c>
-      <c r="AR6">
-        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1346,36 +1148,12 @@
       <c r="W7">
         <v>63086</v>
       </c>
-      <c r="X7">
-        <v>57837</v>
-      </c>
-      <c r="Y7">
-        <v>5249</v>
-      </c>
       <c r="Z7">
         <v>986</v>
       </c>
-      <c r="AA7">
-        <v>44786</v>
-      </c>
-      <c r="AB7">
-        <v>39537</v>
-      </c>
-      <c r="AC7">
-        <v>5249</v>
-      </c>
-      <c r="AD7">
-        <v>17314</v>
-      </c>
       <c r="AE7">
         <v>62100</v>
       </c>
-      <c r="AF7">
-        <v>56851</v>
-      </c>
-      <c r="AG7">
-        <v>5249</v>
-      </c>
       <c r="AH7">
         <v>13538.77104313896</v>
       </c>
@@ -1388,15 +1166,6 @@
       <c r="AK7">
         <v>-48561.22895686104</v>
       </c>
-      <c r="AL7">
-        <v>-70479.84269105439</v>
-      </c>
-      <c r="AM7">
-        <v>21918.61373419334</v>
-      </c>
-      <c r="AN7">
-        <v>-71465.84269105439</v>
-      </c>
       <c r="AO7">
         <v>142708.228956861</v>
       </c>
@@ -1405,9 +1174,6 @@
       </c>
       <c r="AQ7">
         <v>0.6665879498931957</v>
-      </c>
-      <c r="AR7">
-        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1483,36 +1249,12 @@
       <c r="W8">
         <v>60986</v>
       </c>
-      <c r="X8">
-        <v>55850</v>
-      </c>
-      <c r="Y8">
-        <v>5136</v>
-      </c>
       <c r="Z8">
         <v>986</v>
       </c>
-      <c r="AA8">
-        <v>42779</v>
-      </c>
-      <c r="AB8">
-        <v>37643</v>
-      </c>
-      <c r="AC8">
-        <v>5136</v>
-      </c>
-      <c r="AD8">
-        <v>17221</v>
-      </c>
       <c r="AE8">
         <v>60000</v>
       </c>
-      <c r="AF8">
-        <v>54864</v>
-      </c>
-      <c r="AG8">
-        <v>5136</v>
-      </c>
       <c r="AH8">
         <v>12649.32289790829</v>
       </c>
@@ -1525,15 +1267,6 @@
       <c r="AK8">
         <v>-47350.67710209171</v>
       </c>
-      <c r="AL8">
-        <v>-70677.94115276607</v>
-      </c>
-      <c r="AM8">
-        <v>23327.26405067436</v>
-      </c>
-      <c r="AN8">
-        <v>-71663.94115276607</v>
-      </c>
       <c r="AO8">
         <v>138974.6771020917</v>
       </c>
@@ -1542,9 +1275,6 @@
       </c>
       <c r="AQ8">
         <v>0.6619740064873453</v>
-      </c>
-      <c r="AR8">
-        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1620,36 +1350,12 @@
       <c r="W9">
         <v>60740</v>
       </c>
-      <c r="X9">
-        <v>55552</v>
-      </c>
-      <c r="Y9">
-        <v>5188</v>
-      </c>
       <c r="Z9">
         <v>840</v>
       </c>
-      <c r="AA9">
-        <v>42721</v>
-      </c>
-      <c r="AB9">
-        <v>37533</v>
-      </c>
-      <c r="AC9">
-        <v>5188</v>
-      </c>
-      <c r="AD9">
-        <v>17179</v>
-      </c>
       <c r="AE9">
         <v>59900</v>
       </c>
-      <c r="AF9">
-        <v>54712</v>
-      </c>
-      <c r="AG9">
-        <v>5188</v>
-      </c>
       <c r="AH9">
         <v>10542.33164845117</v>
       </c>
@@ -1662,15 +1368,6 @@
       <c r="AK9">
         <v>-49357.66835154883</v>
       </c>
-      <c r="AL9">
-        <v>-72433.78558752616</v>
-      </c>
-      <c r="AM9">
-        <v>23076.11723597733</v>
-      </c>
-      <c r="AN9">
-        <v>-73273.78558752616</v>
-      </c>
       <c r="AO9">
         <v>137643.6683515488</v>
       </c>
@@ -1679,9 +1376,6 @@
       </c>
       <c r="AQ9">
         <v>0.6849941678292889</v>
-      </c>
-      <c r="AR9">
-        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1757,36 +1451,12 @@
       <c r="W10">
         <v>59940</v>
       </c>
-      <c r="X10">
-        <v>54738</v>
-      </c>
-      <c r="Y10">
-        <v>5202</v>
-      </c>
       <c r="Z10">
         <v>840</v>
       </c>
-      <c r="AA10">
-        <v>41961</v>
-      </c>
-      <c r="AB10">
-        <v>36759</v>
-      </c>
-      <c r="AC10">
-        <v>5202</v>
-      </c>
-      <c r="AD10">
-        <v>17139</v>
-      </c>
       <c r="AE10">
         <v>59100</v>
       </c>
-      <c r="AF10">
-        <v>53898</v>
-      </c>
-      <c r="AG10">
-        <v>5202</v>
-      </c>
       <c r="AH10">
         <v>9789.02978483279</v>
       </c>
@@ -1799,15 +1469,6 @@
       <c r="AK10">
         <v>-49310.97021516721</v>
       </c>
-      <c r="AL10">
-        <v>-72774.9737235948</v>
-      </c>
-      <c r="AM10">
-        <v>23464.00338575529</v>
-      </c>
-      <c r="AN10">
-        <v>-73614.9737235948</v>
-      </c>
       <c r="AO10">
         <v>139470.9702151672</v>
       </c>
@@ -1816,9 +1477,6 @@
       </c>
       <c r="AQ10">
         <v>0.66166592028661</v>
-      </c>
-      <c r="AR10">
-        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1894,36 +1552,12 @@
       <c r="W11">
         <v>60440</v>
       </c>
-      <c r="X11">
-        <v>55171</v>
-      </c>
-      <c r="Y11">
-        <v>5269</v>
-      </c>
       <c r="Z11">
         <v>840</v>
       </c>
-      <c r="AA11">
-        <v>42328</v>
-      </c>
-      <c r="AB11">
-        <v>37059</v>
-      </c>
-      <c r="AC11">
-        <v>5269</v>
-      </c>
-      <c r="AD11">
-        <v>17272</v>
-      </c>
       <c r="AE11">
         <v>59600</v>
       </c>
-      <c r="AF11">
-        <v>54331</v>
-      </c>
-      <c r="AG11">
-        <v>5269</v>
-      </c>
       <c r="AH11">
         <v>10446.55566174735</v>
       </c>
@@ -1936,15 +1570,6 @@
       <c r="AK11">
         <v>-49153.44433825265</v>
       </c>
-      <c r="AL11">
-        <v>-72793.09459207865</v>
-      </c>
-      <c r="AM11">
-        <v>23639.65025382601</v>
-      </c>
-      <c r="AN11">
-        <v>-73633.09459207865</v>
-      </c>
       <c r="AO11">
         <v>139533.4443382527</v>
       </c>
@@ -1953,9 +1578,6 @@
       </c>
       <c r="AQ11">
         <v>0.6656243019879383</v>
-      </c>
-      <c r="AR11">
-        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2031,36 +1653,12 @@
       <c r="W12">
         <v>60640</v>
       </c>
-      <c r="X12">
-        <v>55488</v>
-      </c>
-      <c r="Y12">
-        <v>5152</v>
-      </c>
       <c r="Z12">
         <v>840</v>
       </c>
-      <c r="AA12">
-        <v>42432</v>
-      </c>
-      <c r="AB12">
-        <v>37280</v>
-      </c>
-      <c r="AC12">
-        <v>5152</v>
-      </c>
-      <c r="AD12">
-        <v>17368</v>
-      </c>
       <c r="AE12">
         <v>59800</v>
       </c>
-      <c r="AF12">
-        <v>54648</v>
-      </c>
-      <c r="AG12">
-        <v>5152</v>
-      </c>
       <c r="AH12">
         <v>12436.09154231263</v>
       </c>
@@ -2073,15 +1671,6 @@
       <c r="AK12">
         <v>-47363.90845768737</v>
       </c>
-      <c r="AL12">
-        <v>-71823.73229012988</v>
-      </c>
-      <c r="AM12">
-        <v>24459.8238324425</v>
-      </c>
-      <c r="AN12">
-        <v>-72663.73229012988</v>
-      </c>
       <c r="AO12">
         <v>136879.9084576874</v>
       </c>
@@ -2090,9 +1679,6 @@
       </c>
       <c r="AQ12">
         <v>0.6743651044250981</v>
-      </c>
-      <c r="AR12">
-        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2168,36 +1754,12 @@
       <c r="W13">
         <v>61618</v>
       </c>
-      <c r="X13">
-        <v>56034</v>
-      </c>
-      <c r="Y13">
-        <v>5584</v>
-      </c>
       <c r="Z13">
         <v>918</v>
       </c>
-      <c r="AA13">
-        <v>43217</v>
-      </c>
-      <c r="AB13">
-        <v>37633</v>
-      </c>
-      <c r="AC13">
-        <v>5584</v>
-      </c>
-      <c r="AD13">
-        <v>17483</v>
-      </c>
       <c r="AE13">
         <v>60700</v>
       </c>
-      <c r="AF13">
-        <v>55116</v>
-      </c>
-      <c r="AG13">
-        <v>5584</v>
-      </c>
       <c r="AH13">
         <v>11821.82953530757</v>
       </c>
@@ -2210,15 +1772,6 @@
       <c r="AK13">
         <v>-48878.17046469243</v>
       </c>
-      <c r="AL13">
-        <v>-73191.21739874988</v>
-      </c>
-      <c r="AM13">
-        <v>24313.0468117378</v>
-      </c>
-      <c r="AN13">
-        <v>-74109.21739874988</v>
-      </c>
       <c r="AO13">
         <v>137646.1704646924</v>
       </c>
@@ -2227,9 +1780,6 @@
       </c>
       <c r="AQ13">
         <v>0.690950483779169</v>
-      </c>
-      <c r="AR13">
-        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2305,36 +1855,12 @@
       <c r="W14">
         <v>60359</v>
       </c>
-      <c r="X14">
-        <v>54793</v>
-      </c>
-      <c r="Y14">
-        <v>5566</v>
-      </c>
       <c r="Z14">
         <v>559</v>
       </c>
-      <c r="AA14">
-        <v>42279</v>
-      </c>
-      <c r="AB14">
-        <v>36713</v>
-      </c>
-      <c r="AC14">
-        <v>5566</v>
-      </c>
-      <c r="AD14">
-        <v>17521</v>
-      </c>
       <c r="AE14">
         <v>59800</v>
       </c>
-      <c r="AF14">
-        <v>54234</v>
-      </c>
-      <c r="AG14">
-        <v>5566</v>
-      </c>
       <c r="AH14">
         <v>11938.8719510727</v>
       </c>
@@ -2347,15 +1873,6 @@
       <c r="AK14">
         <v>-47861.12804892731</v>
       </c>
-      <c r="AL14">
-        <v>-72314.3682068816</v>
-      </c>
-      <c r="AM14">
-        <v>24453.2401579543</v>
-      </c>
-      <c r="AN14">
-        <v>-72873.3682068816</v>
-      </c>
       <c r="AO14">
         <v>138746.1280489273</v>
       </c>
@@ -2364,9 +1881,6 @@
       </c>
       <c r="AQ14">
         <v>0.6620463653875962</v>
-      </c>
-      <c r="AR14">
-        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2442,36 +1956,12 @@
       <c r="W15">
         <v>60459</v>
       </c>
-      <c r="X15">
-        <v>54883</v>
-      </c>
-      <c r="Y15">
-        <v>5576</v>
-      </c>
       <c r="Z15">
         <v>559</v>
       </c>
-      <c r="AA15">
-        <v>42298</v>
-      </c>
-      <c r="AB15">
-        <v>36722</v>
-      </c>
-      <c r="AC15">
-        <v>5576</v>
-      </c>
-      <c r="AD15">
-        <v>17602</v>
-      </c>
       <c r="AE15">
         <v>59900</v>
       </c>
-      <c r="AF15">
-        <v>54324</v>
-      </c>
-      <c r="AG15">
-        <v>5576</v>
-      </c>
       <c r="AH15">
         <v>12571.17474990041</v>
       </c>
@@ -2484,15 +1974,6 @@
       <c r="AK15">
         <v>-47328.82525009959</v>
       </c>
-      <c r="AL15">
-        <v>-72406.1377991239</v>
-      </c>
-      <c r="AM15">
-        <v>25077.31254902434</v>
-      </c>
-      <c r="AN15">
-        <v>-72965.1377991239</v>
-      </c>
       <c r="AO15">
         <v>139861.8252500996</v>
       </c>
@@ -2501,9 +1982,6 @@
       </c>
       <c r="AQ15">
         <v>0.6512710113727793</v>
-      </c>
-      <c r="AR15">
-        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2579,36 +2057,12 @@
       <c r="W16">
         <v>60759</v>
       </c>
-      <c r="X16">
-        <v>55083</v>
-      </c>
-      <c r="Y16">
-        <v>5676</v>
-      </c>
       <c r="Z16">
         <v>559</v>
       </c>
-      <c r="AA16">
-        <v>42514</v>
-      </c>
-      <c r="AB16">
-        <v>36838</v>
-      </c>
-      <c r="AC16">
-        <v>5676</v>
-      </c>
-      <c r="AD16">
-        <v>17686</v>
-      </c>
       <c r="AE16">
         <v>60200</v>
       </c>
-      <c r="AF16">
-        <v>54524</v>
-      </c>
-      <c r="AG16">
-        <v>5676</v>
-      </c>
       <c r="AH16">
         <v>13415.28280897132</v>
       </c>
@@ -2621,15 +2075,6 @@
       <c r="AK16">
         <v>-46784.71719102869</v>
       </c>
-      <c r="AL16">
-        <v>-72812.30058908578</v>
-      </c>
-      <c r="AM16">
-        <v>26027.58339805709</v>
-      </c>
-      <c r="AN16">
-        <v>-73371.30058908578</v>
-      </c>
       <c r="AO16">
         <v>139790.7171910287</v>
       </c>
@@ -2638,9 +2083,6 @@
       </c>
       <c r="AQ16">
         <v>0.6511839215983212</v>
-      </c>
-      <c r="AR16">
-        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2716,36 +2158,12 @@
       <c r="W17">
         <v>60559</v>
       </c>
-      <c r="X17">
-        <v>54714</v>
-      </c>
-      <c r="Y17">
-        <v>5845</v>
-      </c>
       <c r="Z17">
         <v>559</v>
       </c>
-      <c r="AA17">
-        <v>42317</v>
-      </c>
-      <c r="AB17">
-        <v>36472</v>
-      </c>
-      <c r="AC17">
-        <v>5845</v>
-      </c>
-      <c r="AD17">
-        <v>17683</v>
-      </c>
       <c r="AE17">
         <v>60000</v>
       </c>
-      <c r="AF17">
-        <v>54155</v>
-      </c>
-      <c r="AG17">
-        <v>5845</v>
-      </c>
       <c r="AH17">
         <v>12205.08689206975</v>
       </c>
@@ -2758,15 +2176,6 @@
       <c r="AK17">
         <v>-47794.91310793025</v>
       </c>
-      <c r="AL17">
-        <v>-74231.46712047723</v>
-      </c>
-      <c r="AM17">
-        <v>26436.55401254699</v>
-      </c>
-      <c r="AN17">
-        <v>-74790.46712047723</v>
-      </c>
       <c r="AO17">
         <v>140957.9131079303</v>
       </c>
@@ -2775,9 +2184,6 @@
       </c>
       <c r="AQ17">
         <v>0.6479201762342879</v>
-      </c>
-      <c r="AR17">
-        <v>0.1649499468883545</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2853,36 +2259,12 @@
       <c r="W18">
         <v>62406</v>
       </c>
-      <c r="X18">
-        <v>56537</v>
-      </c>
-      <c r="Y18">
-        <v>5869</v>
-      </c>
       <c r="Z18">
         <v>306</v>
       </c>
-      <c r="AA18">
-        <v>44400</v>
-      </c>
-      <c r="AB18">
-        <v>38531</v>
-      </c>
-      <c r="AC18">
-        <v>5869</v>
-      </c>
-      <c r="AD18">
-        <v>17700</v>
-      </c>
       <c r="AE18">
         <v>62100</v>
       </c>
-      <c r="AF18">
-        <v>56231</v>
-      </c>
-      <c r="AG18">
-        <v>5869</v>
-      </c>
       <c r="AH18">
         <v>14537.84400041749</v>
       </c>
@@ -2895,15 +2277,6 @@
       <c r="AK18">
         <v>-47562.15599958251</v>
       </c>
-      <c r="AL18">
-        <v>-73931.67159142304</v>
-      </c>
-      <c r="AM18">
-        <v>26369.5157078081</v>
-      </c>
-      <c r="AN18">
-        <v>-74237.67159142304</v>
-      </c>
       <c r="AO18">
         <v>141554.1559995825</v>
       </c>
@@ -2912,9 +2285,6 @@
       </c>
       <c r="AQ18">
         <v>0.662852507311658</v>
-      </c>
-      <c r="AR18">
-        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2990,36 +2360,12 @@
       <c r="W19">
         <v>63212</v>
       </c>
-      <c r="X19">
-        <v>57251</v>
-      </c>
-      <c r="Y19">
-        <v>5961</v>
-      </c>
       <c r="Z19">
         <v>306</v>
       </c>
-      <c r="AA19">
-        <v>45204</v>
-      </c>
-      <c r="AB19">
-        <v>39243</v>
-      </c>
-      <c r="AC19">
-        <v>5961</v>
-      </c>
-      <c r="AD19">
-        <v>17702</v>
-      </c>
       <c r="AE19">
         <v>62906</v>
       </c>
-      <c r="AF19">
-        <v>56945</v>
-      </c>
-      <c r="AG19">
-        <v>5961</v>
-      </c>
       <c r="AH19">
         <v>14771.25992521655</v>
       </c>
@@ -3032,15 +2378,6 @@
       <c r="AK19">
         <v>-48134.74007478345</v>
       </c>
-      <c r="AL19">
-        <v>-73753.18434470714</v>
-      </c>
-      <c r="AM19">
-        <v>25618.44426992369</v>
-      </c>
-      <c r="AN19">
-        <v>-74059.18434470714</v>
-      </c>
       <c r="AO19">
         <v>143306.7400747835</v>
       </c>
@@ -3049,9 +2386,6 @@
       </c>
       <c r="AQ19">
         <v>0.6631037463369385</v>
-      </c>
-      <c r="AR19">
-        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3127,36 +2461,12 @@
       <c r="W20">
         <v>66718</v>
       </c>
-      <c r="X20">
-        <v>60793</v>
-      </c>
-      <c r="Y20">
-        <v>5925</v>
-      </c>
       <c r="Z20">
         <v>306</v>
       </c>
-      <c r="AA20">
-        <v>45735</v>
-      </c>
-      <c r="AB20">
-        <v>39810</v>
-      </c>
-      <c r="AC20">
-        <v>5925</v>
-      </c>
-      <c r="AD20">
-        <v>20677</v>
-      </c>
       <c r="AE20">
         <v>66412</v>
       </c>
-      <c r="AF20">
-        <v>60487</v>
-      </c>
-      <c r="AG20">
-        <v>5925</v>
-      </c>
       <c r="AH20">
         <v>18308.86003501732</v>
       </c>
@@ -3169,15 +2479,6 @@
       <c r="AK20">
         <v>-48103.13996498268</v>
       </c>
-      <c r="AL20">
-        <v>-72506.33290817805</v>
-      </c>
-      <c r="AM20">
-        <v>24403.19305914683</v>
-      </c>
-      <c r="AN20">
-        <v>-72812.33290817805</v>
-      </c>
       <c r="AO20">
         <v>145731.1399649827</v>
       </c>
@@ -3186,9 +2487,6 @@
       </c>
       <c r="AQ20">
         <v>0.6823945253899427</v>
-      </c>
-      <c r="AR20">
-        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3264,36 +2562,12 @@
       <c r="W21">
         <v>66547</v>
       </c>
-      <c r="X21">
-        <v>60931</v>
-      </c>
-      <c r="Y21">
-        <v>5616</v>
-      </c>
       <c r="Z21">
         <v>306</v>
       </c>
-      <c r="AA21">
-        <v>45503</v>
-      </c>
-      <c r="AB21">
-        <v>39887</v>
-      </c>
-      <c r="AC21">
-        <v>5616</v>
-      </c>
-      <c r="AD21">
-        <v>20738</v>
-      </c>
       <c r="AE21">
         <v>66241</v>
       </c>
-      <c r="AF21">
-        <v>60625</v>
-      </c>
-      <c r="AG21">
-        <v>5616</v>
-      </c>
       <c r="AH21">
         <v>20771.28202048663</v>
       </c>
@@ -3306,15 +2580,6 @@
       <c r="AK21">
         <v>-45469.71797951337</v>
       </c>
-      <c r="AL21">
-        <v>-69552.41942189324</v>
-      </c>
-      <c r="AM21">
-        <v>24082.70144237987</v>
-      </c>
-      <c r="AN21">
-        <v>-69858.41942189324</v>
-      </c>
       <c r="AO21">
         <v>145933.7179795134</v>
       </c>
@@ -3323,9 +2588,6 @@
       </c>
       <c r="AQ21">
         <v>0.6613650432316939</v>
-      </c>
-      <c r="AR21">
-        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3401,36 +2663,12 @@
       <c r="W22">
         <v>65478</v>
       </c>
-      <c r="X22">
-        <v>59917</v>
-      </c>
-      <c r="Y22">
-        <v>5561</v>
-      </c>
       <c r="Z22">
         <v>234</v>
       </c>
-      <c r="AA22">
-        <v>44766</v>
-      </c>
-      <c r="AB22">
-        <v>39205</v>
-      </c>
-      <c r="AC22">
-        <v>5561</v>
-      </c>
-      <c r="AD22">
-        <v>20478</v>
-      </c>
       <c r="AE22">
         <v>65244</v>
       </c>
-      <c r="AF22">
-        <v>59683</v>
-      </c>
-      <c r="AG22">
-        <v>5561</v>
-      </c>
       <c r="AH22">
         <v>20286.75645399223</v>
       </c>
@@ -3443,15 +2681,6 @@
       <c r="AK22">
         <v>-44957.24354600777</v>
       </c>
-      <c r="AL22">
-        <v>-69045.32777060669</v>
-      </c>
-      <c r="AM22">
-        <v>24088.08457034852</v>
-      </c>
-      <c r="AN22">
-        <v>-69279.32777060669</v>
-      </c>
       <c r="AO22">
         <v>145404.2435460078</v>
       </c>
@@ -3460,9 +2689,6 @@
       </c>
       <c r="AQ22">
         <v>0.6510532565635198</v>
-      </c>
-      <c r="AR22">
-        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3538,36 +2764,12 @@
       <c r="W23">
         <v>65540</v>
       </c>
-      <c r="X23">
-        <v>60032</v>
-      </c>
-      <c r="Y23">
-        <v>5508</v>
-      </c>
       <c r="Z23">
         <v>234</v>
       </c>
-      <c r="AA23">
-        <v>44508</v>
-      </c>
-      <c r="AB23">
-        <v>39000</v>
-      </c>
-      <c r="AC23">
-        <v>5508</v>
-      </c>
-      <c r="AD23">
-        <v>20798</v>
-      </c>
       <c r="AE23">
         <v>65306</v>
       </c>
-      <c r="AF23">
-        <v>59798</v>
-      </c>
-      <c r="AG23">
-        <v>5508</v>
-      </c>
       <c r="AH23">
         <v>23105.36228947702</v>
       </c>
@@ -3580,15 +2782,6 @@
       <c r="AK23">
         <v>-42200.63771052298</v>
       </c>
-      <c r="AL23">
-        <v>-66639.01426318394</v>
-      </c>
-      <c r="AM23">
-        <v>24438.37666777948</v>
-      </c>
-      <c r="AN23">
-        <v>-66873.01426318394</v>
-      </c>
       <c r="AO23">
         <v>146502.637710523</v>
       </c>
@@ -3597,9 +2790,6 @@
       </c>
       <c r="AQ23">
         <v>0.6275319983087981</v>
-      </c>
-      <c r="AR23">
-        <v>0.1739509438640434</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3675,36 +2865,12 @@
       <c r="W24">
         <v>65788</v>
       </c>
-      <c r="X24">
-        <v>60263</v>
-      </c>
-      <c r="Y24">
-        <v>5525</v>
-      </c>
       <c r="Z24">
         <v>234</v>
       </c>
-      <c r="AA24">
-        <v>44771</v>
-      </c>
-      <c r="AB24">
-        <v>39246</v>
-      </c>
-      <c r="AC24">
-        <v>5525</v>
-      </c>
-      <c r="AD24">
-        <v>20783</v>
-      </c>
       <c r="AE24">
         <v>65554</v>
       </c>
-      <c r="AF24">
-        <v>60029</v>
-      </c>
-      <c r="AG24">
-        <v>5525</v>
-      </c>
       <c r="AH24">
         <v>23989.58115718215</v>
       </c>
@@ -3717,15 +2883,6 @@
       <c r="AK24">
         <v>-41564.41884281785</v>
       </c>
-      <c r="AL24">
-        <v>-66265.13196242585</v>
-      </c>
-      <c r="AM24">
-        <v>24700.713119608</v>
-      </c>
-      <c r="AN24">
-        <v>-66499.13196242585</v>
-      </c>
       <c r="AO24">
         <v>146684.4188428178</v>
       </c>
@@ -3734,9 +2891,6 @@
       </c>
       <c r="AQ24">
         <v>0.6250023835402246</v>
-      </c>
-      <c r="AR24">
-        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3812,36 +2966,12 @@
       <c r="W25">
         <v>65634</v>
       </c>
-      <c r="X25">
-        <v>60109</v>
-      </c>
-      <c r="Y25">
-        <v>5525</v>
-      </c>
       <c r="Z25">
         <v>234</v>
       </c>
-      <c r="AA25">
-        <v>44771</v>
-      </c>
-      <c r="AB25">
-        <v>39246</v>
-      </c>
-      <c r="AC25">
-        <v>5525</v>
-      </c>
-      <c r="AD25">
-        <v>20629</v>
-      </c>
       <c r="AE25">
         <v>65400</v>
       </c>
-      <c r="AF25">
-        <v>59875</v>
-      </c>
-      <c r="AG25">
-        <v>5525</v>
-      </c>
       <c r="AH25">
         <v>23649.58778599043</v>
       </c>
@@ -3854,15 +2984,6 @@
       <c r="AK25">
         <v>-41750.41221400957</v>
       </c>
-      <c r="AL25">
-        <v>-66286.43363611795</v>
-      </c>
-      <c r="AM25">
-        <v>24536.02142210837</v>
-      </c>
-      <c r="AN25">
-        <v>-66520.43363611795</v>
-      </c>
       <c r="AO25">
         <v>146423.4122140096</v>
       </c>
@@ -3871,9 +2992,6 @@
       </c>
       <c r="AQ25">
         <v>0.6262028552552208</v>
-      </c>
-      <c r="AR25">
-        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3949,36 +3067,12 @@
       <c r="W26">
         <v>66231</v>
       </c>
-      <c r="X26">
-        <v>60694</v>
-      </c>
-      <c r="Y26">
-        <v>5537</v>
-      </c>
       <c r="Z26">
         <v>234</v>
       </c>
-      <c r="AA26">
-        <v>45164</v>
-      </c>
-      <c r="AB26">
-        <v>39627</v>
-      </c>
-      <c r="AC26">
-        <v>5537</v>
-      </c>
-      <c r="AD26">
-        <v>20833</v>
-      </c>
       <c r="AE26">
         <v>65997</v>
       </c>
-      <c r="AF26">
-        <v>60460</v>
-      </c>
-      <c r="AG26">
-        <v>5537</v>
-      </c>
       <c r="AH26">
         <v>24471.45619299794</v>
       </c>
@@ -3991,15 +3085,6 @@
       <c r="AK26">
         <v>-41525.54380700206</v>
       </c>
-      <c r="AL26">
-        <v>-66073.54068843779</v>
-      </c>
-      <c r="AM26">
-        <v>24547.99699911739</v>
-      </c>
-      <c r="AN26">
-        <v>-66307.54068843779</v>
-      </c>
       <c r="AO26">
         <v>147479.5438070021</v>
       </c>
@@ -4008,9 +3093,6 @@
       </c>
       <c r="AQ26">
         <v>0.6242622020431328</v>
-      </c>
-      <c r="AR26">
-        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4086,36 +3168,12 @@
       <c r="W27">
         <v>66549</v>
       </c>
-      <c r="X27">
-        <v>61024</v>
-      </c>
-      <c r="Y27">
-        <v>5525</v>
-      </c>
       <c r="Z27">
         <v>152</v>
       </c>
-      <c r="AA27">
-        <v>45606</v>
-      </c>
-      <c r="AB27">
-        <v>40081</v>
-      </c>
-      <c r="AC27">
-        <v>5525</v>
-      </c>
-      <c r="AD27">
-        <v>20791</v>
-      </c>
       <c r="AE27">
         <v>66397</v>
       </c>
-      <c r="AF27">
-        <v>60872</v>
-      </c>
-      <c r="AG27">
-        <v>5525</v>
-      </c>
       <c r="AH27">
         <v>25037.29161877505</v>
       </c>
@@ -4128,15 +3186,6 @@
       <c r="AK27">
         <v>-41359.70838122495</v>
       </c>
-      <c r="AL27">
-        <v>-65709.13975745351</v>
-      </c>
-      <c r="AM27">
-        <v>24349.43137622857</v>
-      </c>
-      <c r="AN27">
-        <v>-65861.13975745351</v>
-      </c>
       <c r="AO27">
         <v>150520.708381225</v>
       </c>
@@ -4145,9 +3194,6 @@
       </c>
       <c r="AQ27">
         <v>0.6090964966195451</v>
-      </c>
-      <c r="AR27">
-        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4223,36 +3269,12 @@
       <c r="W28">
         <v>65610</v>
       </c>
-      <c r="X28">
-        <v>60182</v>
-      </c>
-      <c r="Y28">
-        <v>5428</v>
-      </c>
       <c r="Z28">
         <v>152</v>
       </c>
-      <c r="AA28">
-        <v>44845</v>
-      </c>
-      <c r="AB28">
-        <v>39417</v>
-      </c>
-      <c r="AC28">
-        <v>5428</v>
-      </c>
-      <c r="AD28">
-        <v>20613</v>
-      </c>
       <c r="AE28">
         <v>65458</v>
       </c>
-      <c r="AF28">
-        <v>60030</v>
-      </c>
-      <c r="AG28">
-        <v>5428</v>
-      </c>
       <c r="AH28">
         <v>23973.08591626518</v>
       </c>
@@ -4265,15 +3287,6 @@
       <c r="AK28">
         <v>-41484.91408373482</v>
       </c>
-      <c r="AL28">
-        <v>-64906.46608261493</v>
-      </c>
-      <c r="AM28">
-        <v>23421.55188222531</v>
-      </c>
-      <c r="AN28">
-        <v>-65058.46608261493</v>
-      </c>
       <c r="AO28">
         <v>148734.9140837348</v>
       </c>
@@ -4282,9 +3295,6 @@
       </c>
       <c r="AQ28">
         <v>0.6111972212366245</v>
-      </c>
-      <c r="AR28">
-        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4360,36 +3370,12 @@
       <c r="W29">
         <v>66565</v>
       </c>
-      <c r="X29">
-        <v>61352</v>
-      </c>
-      <c r="Y29">
-        <v>5213</v>
-      </c>
       <c r="Z29">
         <v>152</v>
       </c>
-      <c r="AA29">
-        <v>45849</v>
-      </c>
-      <c r="AB29">
-        <v>40636</v>
-      </c>
-      <c r="AC29">
-        <v>5213</v>
-      </c>
-      <c r="AD29">
-        <v>20564</v>
-      </c>
       <c r="AE29">
         <v>66413</v>
       </c>
-      <c r="AF29">
-        <v>61200</v>
-      </c>
-      <c r="AG29">
-        <v>5213</v>
-      </c>
       <c r="AH29">
         <v>25633.38693000905</v>
       </c>
@@ -4402,15 +3388,6 @@
       <c r="AK29">
         <v>-40779.61306999096</v>
       </c>
-      <c r="AL29">
-        <v>-64783.69459881801</v>
-      </c>
-      <c r="AM29">
-        <v>24004.08152882706</v>
-      </c>
-      <c r="AN29">
-        <v>-64935.69459881801</v>
-      </c>
       <c r="AO29">
         <v>149486.6130699909</v>
       </c>
@@ -4419,9 +3396,6 @@
       </c>
       <c r="AQ29">
         <v>0.6117912578877067</v>
-      </c>
-      <c r="AR29">
-        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4497,36 +3471,12 @@
       <c r="W30">
         <v>66980</v>
       </c>
-      <c r="X30">
-        <v>61735</v>
-      </c>
-      <c r="Y30">
-        <v>5245</v>
-      </c>
       <c r="Z30">
         <v>152</v>
       </c>
-      <c r="AA30">
-        <v>46031</v>
-      </c>
-      <c r="AB30">
-        <v>40786</v>
-      </c>
-      <c r="AC30">
-        <v>5245</v>
-      </c>
-      <c r="AD30">
-        <v>20797</v>
-      </c>
       <c r="AE30">
         <v>66828</v>
       </c>
-      <c r="AF30">
-        <v>61583</v>
-      </c>
-      <c r="AG30">
-        <v>5245</v>
-      </c>
       <c r="AH30">
         <v>26305.79604680657</v>
       </c>
@@ -4539,15 +3489,6 @@
       <c r="AK30">
         <v>-40522.20395319343</v>
       </c>
-      <c r="AL30">
-        <v>-64478.00564741917</v>
-      </c>
-      <c r="AM30">
-        <v>23955.80169422575</v>
-      </c>
-      <c r="AN30">
-        <v>-64630.00564741917</v>
-      </c>
       <c r="AO30">
         <v>158938.2039531934</v>
       </c>
@@ -4556,9 +3497,6 @@
       </c>
       <c r="AQ30">
         <v>0.5650747480213759</v>
-      </c>
-      <c r="AR30">
-        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4634,36 +3572,12 @@
       <c r="W31">
         <v>67453</v>
       </c>
-      <c r="X31">
-        <v>62256</v>
-      </c>
-      <c r="Y31">
-        <v>5197</v>
-      </c>
       <c r="Z31">
         <v>43</v>
       </c>
-      <c r="AA31">
-        <v>46570</v>
-      </c>
-      <c r="AB31">
-        <v>41373</v>
-      </c>
-      <c r="AC31">
-        <v>5197</v>
-      </c>
-      <c r="AD31">
-        <v>20840</v>
-      </c>
       <c r="AE31">
         <v>67410</v>
       </c>
-      <c r="AF31">
-        <v>62213</v>
-      </c>
-      <c r="AG31">
-        <v>5197</v>
-      </c>
       <c r="AH31">
         <v>27708.62671087821</v>
       </c>
@@ -4676,15 +3590,6 @@
       <c r="AK31">
         <v>-39701.3732891218</v>
       </c>
-      <c r="AL31">
-        <v>-64176.07107330005</v>
-      </c>
-      <c r="AM31">
-        <v>24474.69778417824</v>
-      </c>
-      <c r="AN31">
-        <v>-64219.07107330005</v>
-      </c>
       <c r="AO31">
         <v>158941.3732891218</v>
       </c>
@@ -4693,9 +3598,6 @@
       </c>
       <c r="AQ31">
         <v>0.5655343674756915</v>
-      </c>
-      <c r="AR31">
-        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4771,36 +3673,12 @@
       <c r="W32">
         <v>68089</v>
       </c>
-      <c r="X32">
-        <v>62998</v>
-      </c>
-      <c r="Y32">
-        <v>5091</v>
-      </c>
       <c r="Z32">
         <v>43</v>
       </c>
-      <c r="AA32">
-        <v>47249</v>
-      </c>
-      <c r="AB32">
-        <v>42158</v>
-      </c>
-      <c r="AC32">
-        <v>5091</v>
-      </c>
-      <c r="AD32">
-        <v>20797</v>
-      </c>
       <c r="AE32">
         <v>68046</v>
       </c>
-      <c r="AF32">
-        <v>62955</v>
-      </c>
-      <c r="AG32">
-        <v>5091</v>
-      </c>
       <c r="AH32">
         <v>28717.79699958656</v>
       </c>
@@ -4813,15 +3691,6 @@
       <c r="AK32">
         <v>-39328.20300041344</v>
       </c>
-      <c r="AL32">
-        <v>-63248.25279073889</v>
-      </c>
-      <c r="AM32">
-        <v>23920.04967219893</v>
-      </c>
-      <c r="AN32">
-        <v>-63291.25279073889</v>
-      </c>
       <c r="AO32">
         <v>159512.2030004134</v>
       </c>
@@ -4830,9 +3699,6 @@
       </c>
       <c r="AQ32">
         <v>0.5663844982145978</v>
-      </c>
-      <c r="AR32">
-        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4908,36 +3774,12 @@
       <c r="W33">
         <v>68596</v>
       </c>
-      <c r="X33">
-        <v>63179</v>
-      </c>
-      <c r="Y33">
-        <v>5417</v>
-      </c>
       <c r="Z33">
         <v>43</v>
       </c>
-      <c r="AA33">
-        <v>47673</v>
-      </c>
-      <c r="AB33">
-        <v>42256</v>
-      </c>
-      <c r="AC33">
-        <v>5417</v>
-      </c>
-      <c r="AD33">
-        <v>20880</v>
-      </c>
       <c r="AE33">
         <v>68553</v>
       </c>
-      <c r="AF33">
-        <v>63136</v>
-      </c>
-      <c r="AG33">
-        <v>5417</v>
-      </c>
       <c r="AH33">
         <v>28243.16689177982</v>
       </c>
@@ -4950,15 +3792,6 @@
       <c r="AK33">
         <v>-40309.83310822018</v>
       </c>
-      <c r="AL33">
-        <v>-62951.71706831591</v>
-      </c>
-      <c r="AM33">
-        <v>22641.88396009574</v>
-      </c>
-      <c r="AN33">
-        <v>-62994.71706831591</v>
-      </c>
       <c r="AO33">
         <v>161138.8331082202</v>
       </c>
@@ -4967,9 +3800,6 @@
       </c>
       <c r="AQ33">
         <v>0.5675574983855745</v>
-      </c>
-      <c r="AR33">
-        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5045,36 +3875,12 @@
       <c r="W34">
         <v>67822</v>
       </c>
-      <c r="X34">
-        <v>62429</v>
-      </c>
-      <c r="Y34">
-        <v>5393</v>
-      </c>
       <c r="Z34">
         <v>43</v>
       </c>
-      <c r="AA34">
-        <v>46964</v>
-      </c>
-      <c r="AB34">
-        <v>41571</v>
-      </c>
-      <c r="AC34">
-        <v>5393</v>
-      </c>
-      <c r="AD34">
-        <v>20815</v>
-      </c>
       <c r="AE34">
         <v>67779</v>
       </c>
-      <c r="AF34">
-        <v>62386</v>
-      </c>
-      <c r="AG34">
-        <v>5393</v>
-      </c>
       <c r="AH34">
         <v>30285.18677815763</v>
       </c>
@@ -5087,15 +3893,6 @@
       <c r="AK34">
         <v>-37493.81322184237</v>
       </c>
-      <c r="AL34">
-        <v>-60113.70343250486</v>
-      </c>
-      <c r="AM34">
-        <v>22619.89032615726</v>
-      </c>
-      <c r="AN34">
-        <v>-60156.70343250486</v>
-      </c>
       <c r="AO34">
         <v>159579.8132218424</v>
       </c>
@@ -5104,9 +3901,6 @@
       </c>
       <c r="AQ34">
         <v>0.5553698286669453</v>
-      </c>
-      <c r="AR34">
-        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5182,36 +3976,12 @@
       <c r="W35">
         <v>66633</v>
       </c>
-      <c r="X35">
-        <v>61558</v>
-      </c>
-      <c r="Y35">
-        <v>5075</v>
-      </c>
       <c r="Z35">
         <v>17</v>
       </c>
-      <c r="AA35">
-        <v>45884</v>
-      </c>
-      <c r="AB35">
-        <v>40809</v>
-      </c>
-      <c r="AC35">
-        <v>5075</v>
-      </c>
-      <c r="AD35">
-        <v>20732</v>
-      </c>
       <c r="AE35">
         <v>66616</v>
       </c>
-      <c r="AF35">
-        <v>61541</v>
-      </c>
-      <c r="AG35">
-        <v>5075</v>
-      </c>
       <c r="AH35">
         <v>29143.72692459311</v>
       </c>
@@ -5224,15 +3994,6 @@
       <c r="AK35">
         <v>-37472.27307540689</v>
       </c>
-      <c r="AL35">
-        <v>-59516.31812806218</v>
-      </c>
-      <c r="AM35">
-        <v>22044.04494002365</v>
-      </c>
-      <c r="AN35">
-        <v>-59533.31812806218</v>
-      </c>
       <c r="AO35">
         <v>159210.2730754069</v>
       </c>
@@ -5241,9 +4002,6 @@
       </c>
       <c r="AQ35">
         <v>0.5472843634212666</v>
-      </c>
-      <c r="AR35">
-        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5319,36 +4077,12 @@
       <c r="W36">
         <v>66994</v>
       </c>
-      <c r="X36">
-        <v>61914</v>
-      </c>
-      <c r="Y36">
-        <v>5080</v>
-      </c>
       <c r="Z36">
         <v>17</v>
       </c>
-      <c r="AA36">
-        <v>46150</v>
-      </c>
-      <c r="AB36">
-        <v>41070</v>
-      </c>
-      <c r="AC36">
-        <v>5080</v>
-      </c>
-      <c r="AD36">
-        <v>20827</v>
-      </c>
       <c r="AE36">
         <v>66977</v>
       </c>
-      <c r="AF36">
-        <v>61897</v>
-      </c>
-      <c r="AG36">
-        <v>5080</v>
-      </c>
       <c r="AH36">
         <v>29463.91628389893</v>
       </c>
@@ -5361,15 +4095,6 @@
       <c r="AK36">
         <v>-37513.08371610107</v>
       </c>
-      <c r="AL36">
-        <v>-58822.86921193104</v>
-      </c>
-      <c r="AM36">
-        <v>21309.78560868535</v>
-      </c>
-      <c r="AN36">
-        <v>-58839.86921193104</v>
-      </c>
       <c r="AO36">
         <v>160992.0837161011</v>
       </c>
@@ -5378,9 +4103,6 @@
       </c>
       <c r="AQ36">
         <v>0.5424908068879494</v>
-      </c>
-      <c r="AR36">
-        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5456,36 +4178,12 @@
       <c r="W37">
         <v>68067</v>
       </c>
-      <c r="X37">
-        <v>62836</v>
-      </c>
-      <c r="Y37">
-        <v>5231</v>
-      </c>
       <c r="Z37">
         <v>17</v>
       </c>
-      <c r="AA37">
-        <v>47076</v>
-      </c>
-      <c r="AB37">
-        <v>41845</v>
-      </c>
-      <c r="AC37">
-        <v>5231</v>
-      </c>
-      <c r="AD37">
-        <v>20974</v>
-      </c>
       <c r="AE37">
         <v>68050</v>
       </c>
-      <c r="AF37">
-        <v>62819</v>
-      </c>
-      <c r="AG37">
-        <v>5231</v>
-      </c>
       <c r="AH37">
         <v>31970.11192789009</v>
       </c>
@@ -5498,15 +4196,6 @@
       <c r="AK37">
         <v>-36079.88807210991</v>
       </c>
-      <c r="AL37">
-        <v>-58819.57747002711</v>
-      </c>
-      <c r="AM37">
-        <v>22739.68939791721</v>
-      </c>
-      <c r="AN37">
-        <v>-58836.57747002711</v>
-      </c>
       <c r="AO37">
         <v>161823.8880721099</v>
       </c>
@@ -5515,9 +4204,6 @@
       </c>
       <c r="AQ37">
         <v>0.5412520779148472</v>
-      </c>
-      <c r="AR37">
-        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5593,36 +4279,12 @@
       <c r="W38">
         <v>68272</v>
       </c>
-      <c r="X38">
-        <v>62970</v>
-      </c>
-      <c r="Y38">
-        <v>5302</v>
-      </c>
       <c r="Z38">
         <v>17</v>
       </c>
-      <c r="AA38">
-        <v>47365</v>
-      </c>
-      <c r="AB38">
-        <v>42063</v>
-      </c>
-      <c r="AC38">
-        <v>5302</v>
-      </c>
-      <c r="AD38">
-        <v>20890</v>
-      </c>
       <c r="AE38">
         <v>68255</v>
       </c>
-      <c r="AF38">
-        <v>62953</v>
-      </c>
-      <c r="AG38">
-        <v>5302</v>
-      </c>
       <c r="AH38">
         <v>32272.43446374535</v>
       </c>
@@ -5635,15 +4297,6 @@
       <c r="AK38">
         <v>-35982.56553625465</v>
       </c>
-      <c r="AL38">
-        <v>-58652.07016164642</v>
-      </c>
-      <c r="AM38">
-        <v>22669.50451769926</v>
-      </c>
-      <c r="AN38">
-        <v>-58669.07016164642</v>
-      </c>
       <c r="AO38">
         <v>161140.5655362547</v>
       </c>
@@ -5652,9 +4305,6 @@
       </c>
       <c r="AQ38">
         <v>0.5454247608697389</v>
-      </c>
-      <c r="AR38">
-        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5730,36 +4380,12 @@
       <c r="W39">
         <v>68337</v>
       </c>
-      <c r="X39">
-        <v>63201</v>
-      </c>
-      <c r="Y39">
-        <v>5136</v>
-      </c>
       <c r="Z39">
         <v>8</v>
       </c>
-      <c r="AA39">
-        <v>47381</v>
-      </c>
-      <c r="AB39">
-        <v>42245</v>
-      </c>
-      <c r="AC39">
-        <v>5136</v>
-      </c>
-      <c r="AD39">
-        <v>20948</v>
-      </c>
       <c r="AE39">
         <v>68329</v>
       </c>
-      <c r="AF39">
-        <v>63193</v>
-      </c>
-      <c r="AG39">
-        <v>5136</v>
-      </c>
       <c r="AH39">
         <v>32496.50975077257</v>
       </c>
@@ -5772,15 +4398,6 @@
       <c r="AK39">
         <v>-35832.49024922743</v>
       </c>
-      <c r="AL39">
-        <v>-58532.46647611614</v>
-      </c>
-      <c r="AM39">
-        <v>22699.97622688872</v>
-      </c>
-      <c r="AN39">
-        <v>-58540.46647611614</v>
-      </c>
       <c r="AO39">
         <v>159623.4902492274</v>
       </c>
@@ -5789,9 +4406,6 @@
       </c>
       <c r="AQ39">
         <v>0.5520063336645581</v>
-      </c>
-      <c r="AR39">
-        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5867,36 +4481,12 @@
       <c r="W40">
         <v>67061</v>
       </c>
-      <c r="X40">
-        <v>61791</v>
-      </c>
-      <c r="Y40">
-        <v>5270</v>
-      </c>
       <c r="Z40">
         <v>8</v>
       </c>
-      <c r="AA40">
-        <v>46196</v>
-      </c>
-      <c r="AB40">
-        <v>40926</v>
-      </c>
-      <c r="AC40">
-        <v>5270</v>
-      </c>
-      <c r="AD40">
-        <v>20857</v>
-      </c>
       <c r="AE40">
         <v>67053</v>
       </c>
-      <c r="AF40">
-        <v>61783</v>
-      </c>
-      <c r="AG40">
-        <v>5270</v>
-      </c>
       <c r="AH40">
         <v>31707.85260724166</v>
       </c>
@@ -5909,15 +4499,6 @@
       <c r="AK40">
         <v>-35345.14739275834</v>
       </c>
-      <c r="AL40">
-        <v>-58210.67908013707</v>
-      </c>
-      <c r="AM40">
-        <v>22865.53158416251</v>
-      </c>
-      <c r="AN40">
-        <v>-58218.67908013707</v>
-      </c>
       <c r="AO40">
         <v>160796.1473927583</v>
       </c>
@@ -5926,9 +4507,6 @@
       </c>
       <c r="AQ40">
         <v>0.5345296270019052</v>
-      </c>
-      <c r="AR40">
-        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6004,36 +4582,12 @@
       <c r="W41">
         <v>63655</v>
       </c>
-      <c r="X41">
-        <v>56305</v>
-      </c>
-      <c r="Y41">
-        <v>7350</v>
-      </c>
       <c r="Z41">
         <v>8</v>
       </c>
-      <c r="AA41">
-        <v>42520</v>
-      </c>
-      <c r="AB41">
-        <v>35170</v>
-      </c>
-      <c r="AC41">
-        <v>7350</v>
-      </c>
-      <c r="AD41">
-        <v>21127</v>
-      </c>
       <c r="AE41">
         <v>63647</v>
       </c>
-      <c r="AF41">
-        <v>56297</v>
-      </c>
-      <c r="AG41">
-        <v>7350</v>
-      </c>
       <c r="AH41">
         <v>28453.16839770094</v>
       </c>
@@ -6046,15 +4600,6 @@
       <c r="AK41">
         <v>-35193.83160229906</v>
       </c>
-      <c r="AL41">
-        <v>-59414.61802964604</v>
-      </c>
-      <c r="AM41">
-        <v>24220.78642734698</v>
-      </c>
-      <c r="AN41">
-        <v>-59422.61802964604</v>
-      </c>
       <c r="AO41">
         <v>162891.8316022991</v>
       </c>
@@ -6063,9 +4608,6 @@
       </c>
       <c r="AQ41">
         <v>0.4984493695669199</v>
-      </c>
-      <c r="AR41">
-        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6141,36 +4683,12 @@
       <c r="W42">
         <v>60524</v>
       </c>
-      <c r="X42">
-        <v>55313</v>
-      </c>
-      <c r="Y42">
-        <v>5211</v>
-      </c>
       <c r="Z42">
         <v>8</v>
       </c>
-      <c r="AA42">
-        <v>39482</v>
-      </c>
-      <c r="AB42">
-        <v>34271</v>
-      </c>
-      <c r="AC42">
-        <v>5211</v>
-      </c>
-      <c r="AD42">
-        <v>21034</v>
-      </c>
       <c r="AE42">
         <v>60516</v>
       </c>
-      <c r="AF42">
-        <v>55305</v>
-      </c>
-      <c r="AG42">
-        <v>5211</v>
-      </c>
       <c r="AH42">
         <v>25026.07115544631</v>
       </c>
@@ -6183,15 +4701,6 @@
       <c r="AK42">
         <v>-35489.9288445537</v>
       </c>
-      <c r="AL42">
-        <v>-59737.93126595175</v>
-      </c>
-      <c r="AM42">
-        <v>24248.00232790778</v>
-      </c>
-      <c r="AN42">
-        <v>-59745.93126595175</v>
-      </c>
       <c r="AO42">
         <v>163900.9288445537</v>
       </c>
@@ -6200,9 +4709,6 @@
       </c>
       <c r="AQ42">
         <v>0.4712973995934675</v>
-      </c>
-      <c r="AR42">
-        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6278,36 +4784,12 @@
       <c r="W43">
         <v>60829</v>
       </c>
-      <c r="X43">
-        <v>53951</v>
-      </c>
-      <c r="Y43">
-        <v>6878</v>
-      </c>
       <c r="Z43">
         <v>8</v>
       </c>
-      <c r="AA43">
-        <v>39980</v>
-      </c>
-      <c r="AB43">
-        <v>33102</v>
-      </c>
-      <c r="AC43">
-        <v>6878</v>
-      </c>
-      <c r="AD43">
-        <v>20841</v>
-      </c>
       <c r="AE43">
         <v>60821</v>
       </c>
-      <c r="AF43">
-        <v>53943</v>
-      </c>
-      <c r="AG43">
-        <v>6878</v>
-      </c>
       <c r="AH43">
         <v>24516.29790585078</v>
       </c>
@@ -6320,15 +4802,6 @@
       <c r="AK43">
         <v>-36304.70209414922</v>
       </c>
-      <c r="AL43">
-        <v>-59739.26808109933</v>
-      </c>
-      <c r="AM43">
-        <v>23434.56590361747</v>
-      </c>
-      <c r="AN43">
-        <v>-59747.26808109933</v>
-      </c>
       <c r="AO43">
         <v>162457.7020941492</v>
       </c>
@@ -6337,9 +4810,6 @@
       </c>
       <c r="AQ43">
         <v>0.4821514923302548</v>
-      </c>
-      <c r="AR43">
-        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6415,36 +4885,12 @@
       <c r="W44">
         <v>60792</v>
       </c>
-      <c r="X44">
-        <v>54067</v>
-      </c>
-      <c r="Y44">
-        <v>6725</v>
-      </c>
       <c r="Z44">
         <v>392</v>
       </c>
-      <c r="AA44">
-        <v>39533</v>
-      </c>
-      <c r="AB44">
-        <v>32808</v>
-      </c>
-      <c r="AC44">
-        <v>6725</v>
-      </c>
-      <c r="AD44">
-        <v>20867</v>
-      </c>
       <c r="AE44">
         <v>60400</v>
       </c>
-      <c r="AF44">
-        <v>53675</v>
-      </c>
-      <c r="AG44">
-        <v>6725</v>
-      </c>
       <c r="AH44">
         <v>22321.1126899237</v>
       </c>
@@ -6457,15 +4903,6 @@
       <c r="AK44">
         <v>-38078.8873100763</v>
       </c>
-      <c r="AL44">
-        <v>-61607.77692497036</v>
-      </c>
-      <c r="AM44">
-        <v>23528.88961489405</v>
-      </c>
-      <c r="AN44">
-        <v>-61999.77692497036</v>
-      </c>
       <c r="AO44">
         <v>162495.8873100763</v>
       </c>
@@ -6474,9 +4911,6 @@
       </c>
       <c r="AQ44">
         <v>0.4869985889941544</v>
-      </c>
-      <c r="AR44">
-        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6552,36 +4986,12 @@
       <c r="W45">
         <v>60348</v>
       </c>
-      <c r="X45">
-        <v>53121</v>
-      </c>
-      <c r="Y45">
-        <v>7227</v>
-      </c>
       <c r="Z45">
         <v>392</v>
       </c>
-      <c r="AA45">
-        <v>38991</v>
-      </c>
-      <c r="AB45">
-        <v>31764</v>
-      </c>
-      <c r="AC45">
-        <v>7227</v>
-      </c>
-      <c r="AD45">
-        <v>20965</v>
-      </c>
       <c r="AE45">
         <v>59956</v>
       </c>
-      <c r="AF45">
-        <v>52729</v>
-      </c>
-      <c r="AG45">
-        <v>7227</v>
-      </c>
       <c r="AH45">
         <v>21026.9024681297</v>
       </c>
@@ -6594,15 +5004,6 @@
       <c r="AK45">
         <v>-38929.0975318703</v>
       </c>
-      <c r="AL45">
-        <v>-62802.7577420106</v>
-      </c>
-      <c r="AM45">
-        <v>23873.66013737703</v>
-      </c>
-      <c r="AN45">
-        <v>-63194.7577420106</v>
-      </c>
       <c r="AO45">
         <v>162211.0975318703</v>
       </c>
@@ -6611,9 +5012,6 @@
       </c>
       <c r="AQ45">
         <v>0.4878834730246562</v>
-      </c>
-      <c r="AR45">
-        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6689,36 +5087,12 @@
       <c r="W46">
         <v>59268</v>
       </c>
-      <c r="X46">
-        <v>52088</v>
-      </c>
-      <c r="Y46">
-        <v>7180</v>
-      </c>
       <c r="Z46">
         <v>401</v>
       </c>
-      <c r="AA46">
-        <v>37900</v>
-      </c>
-      <c r="AB46">
-        <v>30720</v>
-      </c>
-      <c r="AC46">
-        <v>7180</v>
-      </c>
-      <c r="AD46">
-        <v>20967</v>
-      </c>
       <c r="AE46">
         <v>58867</v>
       </c>
-      <c r="AF46">
-        <v>51687</v>
-      </c>
-      <c r="AG46">
-        <v>7180</v>
-      </c>
       <c r="AH46">
         <v>12013.92079832761</v>
       </c>
@@ -6731,15 +5105,6 @@
       <c r="AK46">
         <v>-46853.07920167239</v>
       </c>
-      <c r="AL46">
-        <v>-70594.63127309064</v>
-      </c>
-      <c r="AM46">
-        <v>23741.5520056798</v>
-      </c>
-      <c r="AN46">
-        <v>-70995.63127309064</v>
-      </c>
       <c r="AO46">
         <v>164127.0792016724</v>
       </c>
@@ -6748,9 +5113,6 @@
       </c>
       <c r="AQ46">
         <v>0.5036834854927998</v>
-      </c>
-      <c r="AR46">
-        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6826,36 +5188,12 @@
       <c r="W47">
         <v>65292</v>
       </c>
-      <c r="X47">
-        <v>59035</v>
-      </c>
-      <c r="Y47">
-        <v>6257</v>
-      </c>
       <c r="Z47">
         <v>978</v>
       </c>
-      <c r="AA47">
-        <v>43317</v>
-      </c>
-      <c r="AB47">
-        <v>37060</v>
-      </c>
-      <c r="AC47">
-        <v>6257</v>
-      </c>
-      <c r="AD47">
-        <v>20997</v>
-      </c>
       <c r="AE47">
         <v>64314</v>
       </c>
-      <c r="AF47">
-        <v>58057</v>
-      </c>
-      <c r="AG47">
-        <v>6257</v>
-      </c>
       <c r="AH47">
         <v>8476.598752925565</v>
       </c>
@@ -6868,15 +5206,6 @@
       <c r="AK47">
         <v>-55837.40124707444</v>
       </c>
-      <c r="AL47">
-        <v>-79309.0724316205</v>
-      </c>
-      <c r="AM47">
-        <v>23471.6712718762</v>
-      </c>
-      <c r="AN47">
-        <v>-80287.0724316205</v>
-      </c>
       <c r="AO47">
         <v>167740.4012470744</v>
       </c>
@@ -6885,9 +5214,6 @@
       </c>
       <c r="AQ47">
         <v>0.5797971602434077</v>
-      </c>
-      <c r="AR47">
-        <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6960,39 +5286,9 @@
       <c r="V48">
         <v>456.7588518589867</v>
       </c>
-      <c r="W48">
-        <v>65768</v>
-      </c>
-      <c r="X48">
-        <v>59642</v>
-      </c>
-      <c r="Y48">
-        <v>6126</v>
-      </c>
-      <c r="Z48">
-        <v>1074</v>
-      </c>
-      <c r="AA48">
-        <v>43704</v>
-      </c>
-      <c r="AB48">
-        <v>37578</v>
-      </c>
-      <c r="AC48">
-        <v>6126</v>
-      </c>
-      <c r="AD48">
-        <v>20990</v>
-      </c>
       <c r="AE48">
         <v>64694</v>
       </c>
-      <c r="AF48">
-        <v>58568</v>
-      </c>
-      <c r="AG48">
-        <v>6126</v>
-      </c>
       <c r="AH48">
         <v>8160.439337314572</v>
       </c>
@@ -7005,26 +5301,11 @@
       <c r="AK48">
         <v>-56533.56066268543</v>
       </c>
-      <c r="AL48">
-        <v>-80188.64392217298</v>
-      </c>
-      <c r="AM48">
-        <v>23655.08325948758</v>
-      </c>
-      <c r="AN48">
-        <v>-81262.64392217298</v>
-      </c>
-      <c r="AO48">
-        <v>168658.5606626854</v>
-      </c>
       <c r="AP48">
         <v>263842.17</v>
       </c>
       <c r="AQ48">
         <v>0.5825611655905845</v>
-      </c>
-      <c r="AR48">
-        <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7100,36 +5381,12 @@
       <c r="W49">
         <v>65402</v>
       </c>
-      <c r="X49">
-        <v>59320</v>
-      </c>
-      <c r="Y49">
-        <v>6082</v>
-      </c>
       <c r="Z49">
         <v>559</v>
       </c>
-      <c r="AA49">
-        <v>43911</v>
-      </c>
-      <c r="AB49">
-        <v>37829</v>
-      </c>
-      <c r="AC49">
-        <v>6082</v>
-      </c>
-      <c r="AD49">
-        <v>20932</v>
-      </c>
       <c r="AE49">
         <v>64843</v>
       </c>
-      <c r="AF49">
-        <v>58761</v>
-      </c>
-      <c r="AG49">
-        <v>6082</v>
-      </c>
       <c r="AH49">
         <v>7775.402458343117</v>
       </c>
@@ -7142,15 +5399,6 @@
       <c r="AK49">
         <v>-57067.59754165688</v>
       </c>
-      <c r="AL49">
-        <v>-80444.23980579675</v>
-      </c>
-      <c r="AM49">
-        <v>23376.64226413988</v>
-      </c>
-      <c r="AN49">
-        <v>-81003.23980579675</v>
-      </c>
       <c r="AO49">
         <v>167069.5975416569</v>
       </c>
@@ -7159,9 +5407,6 @@
       </c>
       <c r="AQ49">
         <v>0.5924819312336102</v>
-      </c>
-      <c r="AR49">
-        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7237,36 +5482,12 @@
       <c r="W50">
         <v>65011</v>
       </c>
-      <c r="X50">
-        <v>59441</v>
-      </c>
-      <c r="Y50">
-        <v>5570</v>
-      </c>
       <c r="Z50">
         <v>812</v>
       </c>
-      <c r="AA50">
-        <v>43133</v>
-      </c>
-      <c r="AB50">
-        <v>37563</v>
-      </c>
-      <c r="AC50">
-        <v>5570</v>
-      </c>
-      <c r="AD50">
-        <v>21066</v>
-      </c>
       <c r="AE50">
         <v>64199</v>
       </c>
-      <c r="AF50">
-        <v>58629</v>
-      </c>
-      <c r="AG50">
-        <v>5570</v>
-      </c>
       <c r="AH50">
         <v>7353.03205317579</v>
       </c>
@@ -7279,15 +5500,6 @@
       <c r="AK50">
         <v>-56845.96794682421</v>
       </c>
-      <c r="AL50">
-        <v>-80786.90169867058</v>
-      </c>
-      <c r="AM50">
-        <v>23940.93375184638</v>
-      </c>
-      <c r="AN50">
-        <v>-81598.90169867058</v>
-      </c>
       <c r="AO50">
         <v>167205.9679468242</v>
       </c>
@@ -7296,9 +5508,6 @@
       </c>
       <c r="AQ50">
         <v>0.5860353452367911</v>
-      </c>
-      <c r="AR50">
-        <v>0.1650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7374,36 +5583,12 @@
       <c r="W51">
         <v>65698</v>
       </c>
-      <c r="X51">
-        <v>60026</v>
-      </c>
-      <c r="Y51">
-        <v>5672</v>
-      </c>
       <c r="Z51">
         <v>817</v>
       </c>
-      <c r="AA51">
-        <v>43805</v>
-      </c>
-      <c r="AB51">
-        <v>38133</v>
-      </c>
-      <c r="AC51">
-        <v>5672</v>
-      </c>
-      <c r="AD51">
-        <v>21076</v>
-      </c>
       <c r="AE51">
         <v>64881</v>
       </c>
-      <c r="AF51">
-        <v>59209</v>
-      </c>
-      <c r="AG51">
-        <v>5672</v>
-      </c>
       <c r="AH51">
         <v>9086.341268011092</v>
       </c>
@@ -7416,15 +5601,6 @@
       <c r="AK51">
         <v>-55794.65873198891</v>
       </c>
-      <c r="AL51">
-        <v>-80137.28956118753</v>
-      </c>
-      <c r="AM51">
-        <v>24342.63082919862</v>
-      </c>
-      <c r="AN51">
-        <v>-80954.28956118753</v>
-      </c>
       <c r="AO51">
         <v>166424.6587319889</v>
       </c>
@@ -7433,9 +5609,6 @@
       </c>
       <c r="AQ51">
         <v>0.5908316865944834</v>
-      </c>
-      <c r="AR51">
-        <v>0.1687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7511,36 +5684,12 @@
       <c r="W52">
         <v>65432</v>
       </c>
-      <c r="X52">
-        <v>60151</v>
-      </c>
-      <c r="Y52">
-        <v>5281</v>
-      </c>
       <c r="Z52">
         <v>822</v>
       </c>
-      <c r="AA52">
-        <v>43702</v>
-      </c>
-      <c r="AB52">
-        <v>38421</v>
-      </c>
-      <c r="AC52">
-        <v>5281</v>
-      </c>
-      <c r="AD52">
-        <v>20908</v>
-      </c>
       <c r="AE52">
         <v>64610</v>
       </c>
-      <c r="AF52">
-        <v>59329</v>
-      </c>
-      <c r="AG52">
-        <v>5281</v>
-      </c>
       <c r="AH52">
         <v>10347.75840861608</v>
       </c>
@@ -7553,15 +5702,6 @@
       <c r="AK52">
         <v>-54262.24159138392</v>
       </c>
-      <c r="AL52">
-        <v>-78330.16100697407</v>
-      </c>
-      <c r="AM52">
-        <v>24067.91941559015</v>
-      </c>
-      <c r="AN52">
-        <v>-79152.16100697407</v>
-      </c>
       <c r="AO52">
         <v>165297.2415913839</v>
       </c>
@@ -7570,9 +5710,6 @@
       </c>
       <c r="AQ52">
         <v>0.5862284848429858</v>
-      </c>
-      <c r="AR52">
-        <v>0.1711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7648,36 +5785,12 @@
       <c r="W53">
         <v>67122</v>
       </c>
-      <c r="X53">
-        <v>61518</v>
-      </c>
-      <c r="Y53">
-        <v>5604</v>
-      </c>
       <c r="Z53">
         <v>563</v>
       </c>
-      <c r="AA53">
-        <v>42847</v>
-      </c>
-      <c r="AB53">
-        <v>37243</v>
-      </c>
-      <c r="AC53">
-        <v>5604</v>
-      </c>
-      <c r="AD53">
-        <v>23712</v>
-      </c>
       <c r="AE53">
         <v>66559</v>
       </c>
-      <c r="AF53">
-        <v>60955</v>
-      </c>
-      <c r="AG53">
-        <v>5604</v>
-      </c>
       <c r="AH53">
         <v>16158.10506628892</v>
       </c>
@@ -7690,15 +5803,6 @@
       <c r="AK53">
         <v>-50400.89493371108</v>
       </c>
-      <c r="AL53">
-        <v>-74634.71294718282</v>
-      </c>
-      <c r="AM53">
-        <v>24233.81793969441</v>
-      </c>
-      <c r="AN53">
-        <v>-75197.71294718282</v>
-      </c>
       <c r="AO53">
         <v>165618.8949337111</v>
       </c>
@@ -7707,9 +5811,6 @@
       </c>
       <c r="AQ53">
         <v>0.5805154594217435</v>
-      </c>
-      <c r="AR53">
-        <v>0.1695880266032386</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7785,36 +5886,12 @@
       <c r="W54">
         <v>64510</v>
       </c>
-      <c r="X54">
-        <v>59208</v>
-      </c>
-      <c r="Y54">
-        <v>5302</v>
-      </c>
       <c r="Z54">
         <v>563</v>
       </c>
-      <c r="AA54">
-        <v>40219</v>
-      </c>
-      <c r="AB54">
-        <v>34917</v>
-      </c>
-      <c r="AC54">
-        <v>5302</v>
-      </c>
-      <c r="AD54">
-        <v>23728</v>
-      </c>
       <c r="AE54">
         <v>63947</v>
       </c>
-      <c r="AF54">
-        <v>58645</v>
-      </c>
-      <c r="AG54">
-        <v>5302</v>
-      </c>
       <c r="AH54">
         <v>15619.12079336691</v>
       </c>
@@ -7827,15 +5904,6 @@
       <c r="AK54">
         <v>-48327.87920663309</v>
       </c>
-      <c r="AL54">
-        <v>-73501.6049127267</v>
-      </c>
-      <c r="AM54">
-        <v>25173.7256321958</v>
-      </c>
-      <c r="AN54">
-        <v>-74064.6049127267</v>
-      </c>
       <c r="AO54">
         <v>163737.8792066331</v>
       </c>
@@ -7844,9 +5912,6 @@
       </c>
       <c r="AQ54">
         <v>0.5568016578578456</v>
-      </c>
-      <c r="AR54">
-        <v>0.1603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -7922,36 +5987,12 @@
       <c r="W55">
         <v>63570</v>
       </c>
-      <c r="X55">
-        <v>59333</v>
-      </c>
-      <c r="Y55">
-        <v>4237</v>
-      </c>
       <c r="Z55">
         <v>567</v>
       </c>
-      <c r="AA55">
-        <v>39207</v>
-      </c>
-      <c r="AB55">
-        <v>34970</v>
-      </c>
-      <c r="AC55">
-        <v>4237</v>
-      </c>
-      <c r="AD55">
-        <v>23796</v>
-      </c>
       <c r="AE55">
         <v>63003</v>
       </c>
-      <c r="AF55">
-        <v>58766</v>
-      </c>
-      <c r="AG55">
-        <v>4237</v>
-      </c>
       <c r="AH55">
         <v>19607.87223876208</v>
       </c>
@@ -7964,15 +6005,6 @@
       <c r="AK55">
         <v>-43395.12776123792</v>
       </c>
-      <c r="AL55">
-        <v>-70969.26838681221</v>
-      </c>
-      <c r="AM55">
-        <v>27574.1406255743</v>
-      </c>
-      <c r="AN55">
-        <v>-71536.26838681221</v>
-      </c>
       <c r="AO55">
         <v>157972.1277612379</v>
       </c>
@@ -7981,9 +6013,6 @@
       </c>
       <c r="AQ55">
         <v>0.5526094202262959</v>
-      </c>
-      <c r="AR55">
-        <v>0.161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
@@ -8059,36 +6088,12 @@
       <c r="W56">
         <v>61901</v>
       </c>
-      <c r="X56">
-        <v>58410</v>
-      </c>
-      <c r="Y56">
-        <v>3491</v>
-      </c>
       <c r="Z56">
         <v>770</v>
       </c>
-      <c r="AA56">
-        <v>37191</v>
-      </c>
-      <c r="AB56">
-        <v>33700</v>
-      </c>
-      <c r="AC56">
-        <v>3491</v>
-      </c>
-      <c r="AD56">
-        <v>23940</v>
-      </c>
       <c r="AE56">
         <v>61131</v>
       </c>
-      <c r="AF56">
-        <v>57640</v>
-      </c>
-      <c r="AG56">
-        <v>3491</v>
-      </c>
       <c r="AH56">
         <v>17975.91939518282</v>
       </c>
@@ -8101,15 +6106,6 @@
       <c r="AK56">
         <v>-43155.08060481718</v>
       </c>
-      <c r="AL56">
-        <v>-72298.76327253309</v>
-      </c>
-      <c r="AM56">
-        <v>29143.68252719148</v>
-      </c>
-      <c r="AN56">
-        <v>-73068.76327253309</v>
-      </c>
       <c r="AO56">
         <v>157068.0806048172</v>
       </c>
@@ -8118,9 +6114,6 @@
       </c>
       <c r="AQ56">
         <v>0.5402985602290906</v>
-      </c>
-      <c r="AR56">
-        <v>0.1529121707866666</v>
       </c>
       <c r="AS56">
         <v>14.2324</v>
@@ -8193,39 +6186,9 @@
       <c r="V57">
         <v>942.9275793650794</v>
       </c>
-      <c r="W57">
-        <v>61934</v>
-      </c>
-      <c r="X57">
-        <v>58582</v>
-      </c>
-      <c r="Y57">
-        <v>3352</v>
-      </c>
-      <c r="Z57">
-        <v>1139</v>
-      </c>
-      <c r="AA57">
-        <v>36917</v>
-      </c>
-      <c r="AB57">
-        <v>33565</v>
-      </c>
-      <c r="AC57">
-        <v>3352</v>
-      </c>
-      <c r="AD57">
-        <v>23878</v>
-      </c>
       <c r="AE57">
         <v>60795</v>
       </c>
-      <c r="AF57">
-        <v>57443</v>
-      </c>
-      <c r="AG57">
-        <v>3352</v>
-      </c>
       <c r="AH57">
         <v>17976.1543367347</v>
       </c>
@@ -8238,26 +6201,11 @@
       <c r="AK57">
         <v>-42818.8456632653</v>
       </c>
-      <c r="AL57">
-        <v>-71631.46315192744</v>
-      </c>
-      <c r="AM57">
-        <v>28812.61734693878</v>
-      </c>
-      <c r="AN57">
-        <v>-72770.46315192744</v>
-      </c>
-      <c r="AO57">
-        <v>154217.8456632653</v>
-      </c>
       <c r="AP57">
         <v>240549.96</v>
       </c>
       <c r="AQ57">
         <v>0.5513785597678215</v>
-      </c>
-      <c r="AR57">
-        <v>0.1534691587560439</v>
       </c>
       <c r="AS57">
         <v>14.112</v>
@@ -8330,39 +6278,9 @@
       <c r="V58">
         <v>785.6953233628378</v>
       </c>
-      <c r="W58">
-        <v>61093</v>
-      </c>
-      <c r="X58">
-        <v>57387</v>
-      </c>
-      <c r="Y58">
-        <v>3706</v>
-      </c>
-      <c r="Z58">
-        <v>1352</v>
-      </c>
-      <c r="AA58">
-        <v>35847</v>
-      </c>
-      <c r="AB58">
-        <v>32141</v>
-      </c>
-      <c r="AC58">
-        <v>3706</v>
-      </c>
-      <c r="AD58">
-        <v>23894</v>
-      </c>
       <c r="AE58">
         <v>59741</v>
       </c>
-      <c r="AF58">
-        <v>56035</v>
-      </c>
-      <c r="AG58">
-        <v>3706</v>
-      </c>
       <c r="AH58">
         <v>15675.86797571811</v>
       </c>
@@ -8375,26 +6293,11 @@
       <c r="AK58">
         <v>-44065.13202428189</v>
       </c>
-      <c r="AL58">
-        <v>-73840.39257978094</v>
-      </c>
-      <c r="AM58">
-        <v>29775.26048767254</v>
-      </c>
-      <c r="AN58">
-        <v>-75192.39257978094</v>
-      </c>
-      <c r="AO58">
-        <v>154280.1320242819</v>
-      </c>
       <c r="AP58">
         <v>242730.9</v>
       </c>
       <c r="AQ58">
         <v>0.548772310151291</v>
-      </c>
-      <c r="AR58">
-        <v>0.1476820627287255</v>
       </c>
       <c r="AS58">
         <v>14.7435</v>
@@ -8467,39 +6370,9 @@
       <c r="V59">
         <v>642.3187931586876</v>
       </c>
-      <c r="W59">
-        <v>63936</v>
-      </c>
-      <c r="X59">
-        <v>60307</v>
-      </c>
-      <c r="Y59">
-        <v>3629</v>
-      </c>
-      <c r="Z59">
-        <v>1432</v>
-      </c>
-      <c r="AA59">
-        <v>38858</v>
-      </c>
-      <c r="AB59">
-        <v>35229</v>
-      </c>
-      <c r="AC59">
-        <v>3629</v>
-      </c>
-      <c r="AD59">
-        <v>23646</v>
-      </c>
       <c r="AE59">
         <v>62504</v>
       </c>
-      <c r="AF59">
-        <v>58875</v>
-      </c>
-      <c r="AG59">
-        <v>3629</v>
-      </c>
       <c r="AH59">
         <v>17024.47288628944</v>
       </c>
@@ -8512,26 +6385,11 @@
       <c r="AK59">
         <v>-45479.52711371056</v>
       </c>
-      <c r="AL59">
-        <v>-74663.57977327415</v>
-      </c>
-      <c r="AM59">
-        <v>29184.05265956359</v>
-      </c>
-      <c r="AN59">
-        <v>-76095.57977327415</v>
-      </c>
-      <c r="AO59">
-        <v>155618.5271137106</v>
-      </c>
       <c r="AP59">
         <v>243057.06</v>
       </c>
       <c r="AQ59">
         <v>0.5749767724249588</v>
-      </c>
-      <c r="AR59">
-        <v>0.1598719247241779</v>
       </c>
       <c r="AS59">
         <v>14.6697</v>
@@ -8604,39 +6462,9 @@
       <c r="V60">
         <v>629.4280664355007</v>
       </c>
-      <c r="W60">
-        <v>63906</v>
-      </c>
-      <c r="X60">
-        <v>60195</v>
-      </c>
-      <c r="Y60">
-        <v>3711</v>
-      </c>
-      <c r="Z60">
-        <v>1432</v>
-      </c>
-      <c r="AA60">
-        <v>38838</v>
-      </c>
-      <c r="AB60">
-        <v>35127</v>
-      </c>
-      <c r="AC60">
-        <v>3711</v>
-      </c>
-      <c r="AD60">
-        <v>23636</v>
-      </c>
       <c r="AE60">
         <v>62474</v>
       </c>
-      <c r="AF60">
-        <v>58763</v>
-      </c>
-      <c r="AG60">
-        <v>3711</v>
-      </c>
       <c r="AH60">
         <v>15772.29862244827</v>
       </c>
@@ -8649,26 +6477,11 @@
       <c r="AK60">
         <v>-46701.70137755173</v>
       </c>
-      <c r="AL60">
-        <v>-75986.35690867144</v>
-      </c>
-      <c r="AM60">
-        <v>29284.65553111972</v>
-      </c>
-      <c r="AN60">
-        <v>-77418.35690867144</v>
-      </c>
-      <c r="AO60">
-        <v>156169.7013775517</v>
-      </c>
       <c r="AP60">
         <v>244914.74</v>
       </c>
       <c r="AQ60">
         <v>0.5782702062275538</v>
-      </c>
-      <c r="AR60">
-        <v>0.1585776339962225</v>
       </c>
       <c r="AS60">
         <v>14.8234</v>
@@ -8741,39 +6554,9 @@
       <c r="V61">
         <v>644.0719131521954</v>
       </c>
-      <c r="W61">
-        <v>63012</v>
-      </c>
-      <c r="X61">
-        <v>59232</v>
-      </c>
-      <c r="Y61">
-        <v>3780</v>
-      </c>
-      <c r="Z61">
-        <v>1115</v>
-      </c>
-      <c r="AA61">
-        <v>38246</v>
-      </c>
-      <c r="AB61">
-        <v>34466</v>
-      </c>
-      <c r="AC61">
-        <v>3780</v>
-      </c>
-      <c r="AD61">
-        <v>23651</v>
-      </c>
       <c r="AE61">
         <v>61897</v>
       </c>
-      <c r="AF61">
-        <v>58117</v>
-      </c>
-      <c r="AG61">
-        <v>3780</v>
-      </c>
       <c r="AH61">
         <v>16217.39894514626</v>
       </c>
@@ -8786,29 +6569,106 @@
       <c r="AK61">
         <v>-45679.60105485375</v>
       </c>
-      <c r="AL61">
-        <v>-74781.39672476106</v>
-      </c>
-      <c r="AM61">
-        <v>29101.79560158775</v>
-      </c>
-      <c r="AN61">
-        <v>-75896.39672476106</v>
-      </c>
-      <c r="AO61">
-        <v>155755.6010548538</v>
-      </c>
       <c r="AP61">
         <v>243166.85</v>
       </c>
       <c r="AQ61">
         <v>0.5680656381641137</v>
       </c>
-      <c r="AR61">
-        <v>0.157282952014224</v>
-      </c>
       <c r="AS61">
         <v>14.6371</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B62">
+        <v>109911</v>
+      </c>
+      <c r="C62">
+        <v>60111.80993149523</v>
+      </c>
+      <c r="D62">
+        <v>42194</v>
+      </c>
+      <c r="E62">
+        <v>7605.190068504777</v>
+      </c>
+      <c r="F62">
+        <v>7334.498027687065</v>
+      </c>
+      <c r="G62">
+        <v>52777.31190380816</v>
+      </c>
+      <c r="H62">
+        <v>91791.50737665406</v>
+      </c>
+      <c r="I62">
+        <v>82573.62382798444</v>
+      </c>
+      <c r="J62">
+        <v>9217.88348077589</v>
+      </c>
+      <c r="K62">
+        <v>255.4627976291509</v>
+      </c>
+      <c r="L62">
+        <v>7605.190068504777</v>
+      </c>
+      <c r="M62">
+        <v>5872.126295921624</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>78058.72821459851</v>
+      </c>
+      <c r="P62">
+        <v>49986.10629442796</v>
+      </c>
+      <c r="Q62">
+        <v>41397.71985688002</v>
+      </c>
+      <c r="R62">
+        <v>8588.38643754795</v>
+      </c>
+      <c r="S62">
+        <v>28072.62192017055</v>
+      </c>
+      <c r="T62">
+        <v>26803.25774497756</v>
+      </c>
+      <c r="U62">
+        <v>639.8670640713156</v>
+      </c>
+      <c r="V62">
+        <v>629.4970432279397</v>
+      </c>
+      <c r="AE62">
+        <v>63050</v>
+      </c>
+      <c r="AH62">
+        <v>18119.49262334594</v>
+      </c>
+      <c r="AI62">
+        <v>-14856.62382798444</v>
+      </c>
+      <c r="AJ62">
+        <v>32976.11651922411</v>
+      </c>
+      <c r="AK62">
+        <v>-44930.50737665406</v>
+      </c>
+      <c r="AP62">
+        <v>243040.03</v>
+      </c>
+      <c r="AQ62">
+        <v>0.5736459499049231</v>
+      </c>
+      <c r="AS62">
+        <v>14.7289</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -661,12 +661,36 @@
       <c r="W2">
         <v>60658</v>
       </c>
+      <c r="X2">
+        <v>55099</v>
+      </c>
+      <c r="Y2">
+        <v>5559</v>
+      </c>
       <c r="Z2">
         <v>1397</v>
       </c>
+      <c r="AA2">
+        <v>44039</v>
+      </c>
+      <c r="AB2">
+        <v>38480</v>
+      </c>
+      <c r="AC2">
+        <v>5559</v>
+      </c>
+      <c r="AD2">
+        <v>15222</v>
+      </c>
       <c r="AE2">
         <v>59261</v>
       </c>
+      <c r="AF2">
+        <v>53702</v>
+      </c>
+      <c r="AG2">
+        <v>5559</v>
+      </c>
       <c r="AH2">
         <v>14388.55263228834</v>
       </c>
@@ -679,6 +703,15 @@
       <c r="AK2">
         <v>-44872.44736771166</v>
       </c>
+      <c r="AL2">
+        <v>-72057.23398118447</v>
+      </c>
+      <c r="AM2">
+        <v>27184.78661347279</v>
+      </c>
+      <c r="AN2">
+        <v>-73454.23398118447</v>
+      </c>
       <c r="AO2">
         <v>139475.4473677117</v>
       </c>
@@ -687,6 +720,9 @@
       </c>
       <c r="AQ2">
         <v>0.6358067077226787</v>
+      </c>
+      <c r="AR2">
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -759,9 +795,30 @@
       <c r="V3">
         <v>791.0103988378615</v>
       </c>
+      <c r="Y3">
+        <v>5220</v>
+      </c>
+      <c r="AA3">
+        <v>39899</v>
+      </c>
+      <c r="AB3">
+        <v>34679</v>
+      </c>
+      <c r="AC3">
+        <v>5220</v>
+      </c>
+      <c r="AD3">
+        <v>17101</v>
+      </c>
       <c r="AE3">
         <v>57000</v>
       </c>
+      <c r="AF3">
+        <v>51780</v>
+      </c>
+      <c r="AG3">
+        <v>5220</v>
+      </c>
       <c r="AH3">
         <v>12008.14986983474</v>
       </c>
@@ -774,11 +831,20 @@
       <c r="AK3">
         <v>-44991.85013016526</v>
       </c>
+      <c r="AL3">
+        <v>-68190.24540106722</v>
+      </c>
+      <c r="AM3">
+        <v>23198.39512707294</v>
+      </c>
       <c r="AP3">
         <v>264440.29</v>
       </c>
       <c r="AQ3">
         <v>0.6060734943858456</v>
+      </c>
+      <c r="AR3">
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -851,9 +917,30 @@
       <c r="V4">
         <v>370.5564206662588</v>
       </c>
+      <c r="Y4">
+        <v>5175</v>
+      </c>
+      <c r="AA4">
+        <v>40389</v>
+      </c>
+      <c r="AB4">
+        <v>35214</v>
+      </c>
+      <c r="AC4">
+        <v>5175</v>
+      </c>
+      <c r="AD4">
+        <v>17611</v>
+      </c>
       <c r="AE4">
         <v>58000</v>
       </c>
+      <c r="AF4">
+        <v>52825</v>
+      </c>
+      <c r="AG4">
+        <v>5175</v>
+      </c>
       <c r="AH4">
         <v>13760.6340303654</v>
       </c>
@@ -866,11 +953,20 @@
       <c r="AK4">
         <v>-44239.3659696346</v>
       </c>
+      <c r="AL4">
+        <v>-68380.96607530171</v>
+      </c>
+      <c r="AM4">
+        <v>24141.60010566709</v>
+      </c>
       <c r="AP4">
         <v>262229.34</v>
       </c>
       <c r="AQ4">
         <v>0.6091605137953849</v>
+      </c>
+      <c r="AR4">
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -946,12 +1042,36 @@
       <c r="W5">
         <v>58686</v>
       </c>
+      <c r="X5">
+        <v>53490</v>
+      </c>
+      <c r="Y5">
+        <v>5196</v>
+      </c>
       <c r="Z5">
         <v>986</v>
       </c>
+      <c r="AA5">
+        <v>40305</v>
+      </c>
+      <c r="AB5">
+        <v>35109</v>
+      </c>
+      <c r="AC5">
+        <v>5196</v>
+      </c>
+      <c r="AD5">
+        <v>17395</v>
+      </c>
       <c r="AE5">
         <v>57700</v>
       </c>
+      <c r="AF5">
+        <v>52504</v>
+      </c>
+      <c r="AG5">
+        <v>5196</v>
+      </c>
       <c r="AH5">
         <v>11439.30199667221</v>
       </c>
@@ -964,6 +1084,15 @@
       <c r="AK5">
         <v>-46260.69800332779</v>
       </c>
+      <c r="AL5">
+        <v>-67715.74027159036</v>
+      </c>
+      <c r="AM5">
+        <v>21455.04213407761</v>
+      </c>
+      <c r="AN5">
+        <v>-68701.74027159036</v>
+      </c>
       <c r="AO5">
         <v>138909.6980033278</v>
       </c>
@@ -972,6 +1101,9 @@
       </c>
       <c r="AQ5">
         <v>0.6294797246435312</v>
+      </c>
+      <c r="AR5">
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1047,12 +1179,36 @@
       <c r="W6">
         <v>58586</v>
       </c>
+      <c r="X6">
+        <v>53411</v>
+      </c>
+      <c r="Y6">
+        <v>5175</v>
+      </c>
       <c r="Z6">
         <v>986</v>
       </c>
+      <c r="AA6">
+        <v>40170</v>
+      </c>
+      <c r="AB6">
+        <v>34995</v>
+      </c>
+      <c r="AC6">
+        <v>5175</v>
+      </c>
+      <c r="AD6">
+        <v>17430</v>
+      </c>
       <c r="AE6">
         <v>57600</v>
       </c>
+      <c r="AF6">
+        <v>52425</v>
+      </c>
+      <c r="AG6">
+        <v>5175</v>
+      </c>
       <c r="AH6">
         <v>10818.54305133924</v>
       </c>
@@ -1065,6 +1221,15 @@
       <c r="AK6">
         <v>-46781.45694866077</v>
       </c>
+      <c r="AL6">
+        <v>-68618.66730247428</v>
+      </c>
+      <c r="AM6">
+        <v>21837.21035381351</v>
+      </c>
+      <c r="AN6">
+        <v>-69604.66730247428</v>
+      </c>
       <c r="AO6">
         <v>139378.4569486608</v>
       </c>
@@ -1073,6 +1238,9 @@
       </c>
       <c r="AQ6">
         <v>0.6287454563316632</v>
+      </c>
+      <c r="AR6">
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1148,12 +1316,36 @@
       <c r="W7">
         <v>63086</v>
       </c>
+      <c r="X7">
+        <v>57837</v>
+      </c>
+      <c r="Y7">
+        <v>5249</v>
+      </c>
       <c r="Z7">
         <v>986</v>
       </c>
+      <c r="AA7">
+        <v>44786</v>
+      </c>
+      <c r="AB7">
+        <v>39537</v>
+      </c>
+      <c r="AC7">
+        <v>5249</v>
+      </c>
+      <c r="AD7">
+        <v>17314</v>
+      </c>
       <c r="AE7">
         <v>62100</v>
       </c>
+      <c r="AF7">
+        <v>56851</v>
+      </c>
+      <c r="AG7">
+        <v>5249</v>
+      </c>
       <c r="AH7">
         <v>13538.77104313896</v>
       </c>
@@ -1166,6 +1358,15 @@
       <c r="AK7">
         <v>-48561.22895686104</v>
       </c>
+      <c r="AL7">
+        <v>-70479.84269105439</v>
+      </c>
+      <c r="AM7">
+        <v>21918.61373419334</v>
+      </c>
+      <c r="AN7">
+        <v>-71465.84269105439</v>
+      </c>
       <c r="AO7">
         <v>142708.228956861</v>
       </c>
@@ -1174,6 +1375,9 @@
       </c>
       <c r="AQ7">
         <v>0.6665879498931957</v>
+      </c>
+      <c r="AR7">
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1249,12 +1453,36 @@
       <c r="W8">
         <v>60986</v>
       </c>
+      <c r="X8">
+        <v>55850</v>
+      </c>
+      <c r="Y8">
+        <v>5136</v>
+      </c>
       <c r="Z8">
         <v>986</v>
       </c>
+      <c r="AA8">
+        <v>42779</v>
+      </c>
+      <c r="AB8">
+        <v>37643</v>
+      </c>
+      <c r="AC8">
+        <v>5136</v>
+      </c>
+      <c r="AD8">
+        <v>17221</v>
+      </c>
       <c r="AE8">
         <v>60000</v>
       </c>
+      <c r="AF8">
+        <v>54864</v>
+      </c>
+      <c r="AG8">
+        <v>5136</v>
+      </c>
       <c r="AH8">
         <v>12649.32289790829</v>
       </c>
@@ -1267,6 +1495,15 @@
       <c r="AK8">
         <v>-47350.67710209171</v>
       </c>
+      <c r="AL8">
+        <v>-70677.94115276607</v>
+      </c>
+      <c r="AM8">
+        <v>23327.26405067436</v>
+      </c>
+      <c r="AN8">
+        <v>-71663.94115276607</v>
+      </c>
       <c r="AO8">
         <v>138974.6771020917</v>
       </c>
@@ -1275,6 +1512,9 @@
       </c>
       <c r="AQ8">
         <v>0.6619740064873453</v>
+      </c>
+      <c r="AR8">
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1350,12 +1590,36 @@
       <c r="W9">
         <v>60740</v>
       </c>
+      <c r="X9">
+        <v>55552</v>
+      </c>
+      <c r="Y9">
+        <v>5188</v>
+      </c>
       <c r="Z9">
         <v>840</v>
       </c>
+      <c r="AA9">
+        <v>42721</v>
+      </c>
+      <c r="AB9">
+        <v>37533</v>
+      </c>
+      <c r="AC9">
+        <v>5188</v>
+      </c>
+      <c r="AD9">
+        <v>17179</v>
+      </c>
       <c r="AE9">
         <v>59900</v>
       </c>
+      <c r="AF9">
+        <v>54712</v>
+      </c>
+      <c r="AG9">
+        <v>5188</v>
+      </c>
       <c r="AH9">
         <v>10542.33164845117</v>
       </c>
@@ -1368,6 +1632,15 @@
       <c r="AK9">
         <v>-49357.66835154883</v>
       </c>
+      <c r="AL9">
+        <v>-72433.78558752616</v>
+      </c>
+      <c r="AM9">
+        <v>23076.11723597733</v>
+      </c>
+      <c r="AN9">
+        <v>-73273.78558752616</v>
+      </c>
       <c r="AO9">
         <v>137643.6683515488</v>
       </c>
@@ -1376,6 +1649,9 @@
       </c>
       <c r="AQ9">
         <v>0.6849941678292889</v>
+      </c>
+      <c r="AR9">
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1451,12 +1727,36 @@
       <c r="W10">
         <v>59940</v>
       </c>
+      <c r="X10">
+        <v>54738</v>
+      </c>
+      <c r="Y10">
+        <v>5202</v>
+      </c>
       <c r="Z10">
         <v>840</v>
       </c>
+      <c r="AA10">
+        <v>41961</v>
+      </c>
+      <c r="AB10">
+        <v>36759</v>
+      </c>
+      <c r="AC10">
+        <v>5202</v>
+      </c>
+      <c r="AD10">
+        <v>17139</v>
+      </c>
       <c r="AE10">
         <v>59100</v>
       </c>
+      <c r="AF10">
+        <v>53898</v>
+      </c>
+      <c r="AG10">
+        <v>5202</v>
+      </c>
       <c r="AH10">
         <v>9789.02978483279</v>
       </c>
@@ -1469,6 +1769,15 @@
       <c r="AK10">
         <v>-49310.97021516721</v>
       </c>
+      <c r="AL10">
+        <v>-72774.9737235948</v>
+      </c>
+      <c r="AM10">
+        <v>23464.00338575529</v>
+      </c>
+      <c r="AN10">
+        <v>-73614.9737235948</v>
+      </c>
       <c r="AO10">
         <v>139470.9702151672</v>
       </c>
@@ -1477,6 +1786,9 @@
       </c>
       <c r="AQ10">
         <v>0.66166592028661</v>
+      </c>
+      <c r="AR10">
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1552,12 +1864,36 @@
       <c r="W11">
         <v>60440</v>
       </c>
+      <c r="X11">
+        <v>55171</v>
+      </c>
+      <c r="Y11">
+        <v>5269</v>
+      </c>
       <c r="Z11">
         <v>840</v>
       </c>
+      <c r="AA11">
+        <v>42328</v>
+      </c>
+      <c r="AB11">
+        <v>37059</v>
+      </c>
+      <c r="AC11">
+        <v>5269</v>
+      </c>
+      <c r="AD11">
+        <v>17272</v>
+      </c>
       <c r="AE11">
         <v>59600</v>
       </c>
+      <c r="AF11">
+        <v>54331</v>
+      </c>
+      <c r="AG11">
+        <v>5269</v>
+      </c>
       <c r="AH11">
         <v>10446.55566174735</v>
       </c>
@@ -1570,6 +1906,15 @@
       <c r="AK11">
         <v>-49153.44433825265</v>
       </c>
+      <c r="AL11">
+        <v>-72793.09459207865</v>
+      </c>
+      <c r="AM11">
+        <v>23639.65025382601</v>
+      </c>
+      <c r="AN11">
+        <v>-73633.09459207865</v>
+      </c>
       <c r="AO11">
         <v>139533.4443382527</v>
       </c>
@@ -1578,6 +1923,9 @@
       </c>
       <c r="AQ11">
         <v>0.6656243019879383</v>
+      </c>
+      <c r="AR11">
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -1653,12 +2001,36 @@
       <c r="W12">
         <v>60640</v>
       </c>
+      <c r="X12">
+        <v>55488</v>
+      </c>
+      <c r="Y12">
+        <v>5152</v>
+      </c>
       <c r="Z12">
         <v>840</v>
       </c>
+      <c r="AA12">
+        <v>42432</v>
+      </c>
+      <c r="AB12">
+        <v>37280</v>
+      </c>
+      <c r="AC12">
+        <v>5152</v>
+      </c>
+      <c r="AD12">
+        <v>17368</v>
+      </c>
       <c r="AE12">
         <v>59800</v>
       </c>
+      <c r="AF12">
+        <v>54648</v>
+      </c>
+      <c r="AG12">
+        <v>5152</v>
+      </c>
       <c r="AH12">
         <v>12436.09154231263</v>
       </c>
@@ -1671,6 +2043,15 @@
       <c r="AK12">
         <v>-47363.90845768737</v>
       </c>
+      <c r="AL12">
+        <v>-71823.73229012988</v>
+      </c>
+      <c r="AM12">
+        <v>24459.8238324425</v>
+      </c>
+      <c r="AN12">
+        <v>-72663.73229012988</v>
+      </c>
       <c r="AO12">
         <v>136879.9084576874</v>
       </c>
@@ -1679,6 +2060,9 @@
       </c>
       <c r="AQ12">
         <v>0.6743651044250981</v>
+      </c>
+      <c r="AR12">
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -1754,12 +2138,36 @@
       <c r="W13">
         <v>61618</v>
       </c>
+      <c r="X13">
+        <v>56034</v>
+      </c>
+      <c r="Y13">
+        <v>5584</v>
+      </c>
       <c r="Z13">
         <v>918</v>
       </c>
+      <c r="AA13">
+        <v>43217</v>
+      </c>
+      <c r="AB13">
+        <v>37633</v>
+      </c>
+      <c r="AC13">
+        <v>5584</v>
+      </c>
+      <c r="AD13">
+        <v>17483</v>
+      </c>
       <c r="AE13">
         <v>60700</v>
       </c>
+      <c r="AF13">
+        <v>55116</v>
+      </c>
+      <c r="AG13">
+        <v>5584</v>
+      </c>
       <c r="AH13">
         <v>11821.82953530757</v>
       </c>
@@ -1772,6 +2180,15 @@
       <c r="AK13">
         <v>-48878.17046469243</v>
       </c>
+      <c r="AL13">
+        <v>-73191.21739874988</v>
+      </c>
+      <c r="AM13">
+        <v>24313.0468117378</v>
+      </c>
+      <c r="AN13">
+        <v>-74109.21739874988</v>
+      </c>
       <c r="AO13">
         <v>137646.1704646924</v>
       </c>
@@ -1780,6 +2197,9 @@
       </c>
       <c r="AQ13">
         <v>0.690950483779169</v>
+      </c>
+      <c r="AR13">
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -1855,12 +2275,36 @@
       <c r="W14">
         <v>60359</v>
       </c>
+      <c r="X14">
+        <v>54793</v>
+      </c>
+      <c r="Y14">
+        <v>5566</v>
+      </c>
       <c r="Z14">
         <v>559</v>
       </c>
+      <c r="AA14">
+        <v>42279</v>
+      </c>
+      <c r="AB14">
+        <v>36713</v>
+      </c>
+      <c r="AC14">
+        <v>5566</v>
+      </c>
+      <c r="AD14">
+        <v>17521</v>
+      </c>
       <c r="AE14">
         <v>59800</v>
       </c>
+      <c r="AF14">
+        <v>54234</v>
+      </c>
+      <c r="AG14">
+        <v>5566</v>
+      </c>
       <c r="AH14">
         <v>11938.8719510727</v>
       </c>
@@ -1873,6 +2317,15 @@
       <c r="AK14">
         <v>-47861.12804892731</v>
       </c>
+      <c r="AL14">
+        <v>-72314.3682068816</v>
+      </c>
+      <c r="AM14">
+        <v>24453.2401579543</v>
+      </c>
+      <c r="AN14">
+        <v>-72873.3682068816</v>
+      </c>
       <c r="AO14">
         <v>138746.1280489273</v>
       </c>
@@ -1881,6 +2334,9 @@
       </c>
       <c r="AQ14">
         <v>0.6620463653875962</v>
+      </c>
+      <c r="AR14">
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -1956,12 +2412,36 @@
       <c r="W15">
         <v>60459</v>
       </c>
+      <c r="X15">
+        <v>54883</v>
+      </c>
+      <c r="Y15">
+        <v>5576</v>
+      </c>
       <c r="Z15">
         <v>559</v>
       </c>
+      <c r="AA15">
+        <v>42298</v>
+      </c>
+      <c r="AB15">
+        <v>36722</v>
+      </c>
+      <c r="AC15">
+        <v>5576</v>
+      </c>
+      <c r="AD15">
+        <v>17602</v>
+      </c>
       <c r="AE15">
         <v>59900</v>
       </c>
+      <c r="AF15">
+        <v>54324</v>
+      </c>
+      <c r="AG15">
+        <v>5576</v>
+      </c>
       <c r="AH15">
         <v>12571.17474990041</v>
       </c>
@@ -1974,6 +2454,15 @@
       <c r="AK15">
         <v>-47328.82525009959</v>
       </c>
+      <c r="AL15">
+        <v>-72406.1377991239</v>
+      </c>
+      <c r="AM15">
+        <v>25077.31254902434</v>
+      </c>
+      <c r="AN15">
+        <v>-72965.1377991239</v>
+      </c>
       <c r="AO15">
         <v>139861.8252500996</v>
       </c>
@@ -1982,6 +2471,9 @@
       </c>
       <c r="AQ15">
         <v>0.6512710113727793</v>
+      </c>
+      <c r="AR15">
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2057,12 +2549,36 @@
       <c r="W16">
         <v>60759</v>
       </c>
+      <c r="X16">
+        <v>55083</v>
+      </c>
+      <c r="Y16">
+        <v>5676</v>
+      </c>
       <c r="Z16">
         <v>559</v>
       </c>
+      <c r="AA16">
+        <v>42514</v>
+      </c>
+      <c r="AB16">
+        <v>36838</v>
+      </c>
+      <c r="AC16">
+        <v>5676</v>
+      </c>
+      <c r="AD16">
+        <v>17686</v>
+      </c>
       <c r="AE16">
         <v>60200</v>
       </c>
+      <c r="AF16">
+        <v>54524</v>
+      </c>
+      <c r="AG16">
+        <v>5676</v>
+      </c>
       <c r="AH16">
         <v>13415.28280897132</v>
       </c>
@@ -2075,6 +2591,15 @@
       <c r="AK16">
         <v>-46784.71719102869</v>
       </c>
+      <c r="AL16">
+        <v>-72812.30058908578</v>
+      </c>
+      <c r="AM16">
+        <v>26027.58339805709</v>
+      </c>
+      <c r="AN16">
+        <v>-73371.30058908578</v>
+      </c>
       <c r="AO16">
         <v>139790.7171910287</v>
       </c>
@@ -2083,6 +2608,9 @@
       </c>
       <c r="AQ16">
         <v>0.6511839215983212</v>
+      </c>
+      <c r="AR16">
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2158,12 +2686,36 @@
       <c r="W17">
         <v>60559</v>
       </c>
+      <c r="X17">
+        <v>54714</v>
+      </c>
+      <c r="Y17">
+        <v>5845</v>
+      </c>
       <c r="Z17">
         <v>559</v>
       </c>
+      <c r="AA17">
+        <v>42317</v>
+      </c>
+      <c r="AB17">
+        <v>36472</v>
+      </c>
+      <c r="AC17">
+        <v>5845</v>
+      </c>
+      <c r="AD17">
+        <v>17683</v>
+      </c>
       <c r="AE17">
         <v>60000</v>
       </c>
+      <c r="AF17">
+        <v>54155</v>
+      </c>
+      <c r="AG17">
+        <v>5845</v>
+      </c>
       <c r="AH17">
         <v>12205.08689206975</v>
       </c>
@@ -2176,6 +2728,15 @@
       <c r="AK17">
         <v>-47794.91310793025</v>
       </c>
+      <c r="AL17">
+        <v>-74231.46712047723</v>
+      </c>
+      <c r="AM17">
+        <v>26436.55401254699</v>
+      </c>
+      <c r="AN17">
+        <v>-74790.46712047723</v>
+      </c>
       <c r="AO17">
         <v>140957.9131079303</v>
       </c>
@@ -2184,6 +2745,9 @@
       </c>
       <c r="AQ17">
         <v>0.6479201762342879</v>
+      </c>
+      <c r="AR17">
+        <v>0.1649499468883545</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2259,12 +2823,36 @@
       <c r="W18">
         <v>62406</v>
       </c>
+      <c r="X18">
+        <v>56537</v>
+      </c>
+      <c r="Y18">
+        <v>5869</v>
+      </c>
       <c r="Z18">
         <v>306</v>
       </c>
+      <c r="AA18">
+        <v>44400</v>
+      </c>
+      <c r="AB18">
+        <v>38531</v>
+      </c>
+      <c r="AC18">
+        <v>5869</v>
+      </c>
+      <c r="AD18">
+        <v>17700</v>
+      </c>
       <c r="AE18">
         <v>62100</v>
       </c>
+      <c r="AF18">
+        <v>56231</v>
+      </c>
+      <c r="AG18">
+        <v>5869</v>
+      </c>
       <c r="AH18">
         <v>14537.84400041749</v>
       </c>
@@ -2277,6 +2865,15 @@
       <c r="AK18">
         <v>-47562.15599958251</v>
       </c>
+      <c r="AL18">
+        <v>-73931.67159142304</v>
+      </c>
+      <c r="AM18">
+        <v>26369.5157078081</v>
+      </c>
+      <c r="AN18">
+        <v>-74237.67159142304</v>
+      </c>
       <c r="AO18">
         <v>141554.1559995825</v>
       </c>
@@ -2285,6 +2882,9 @@
       </c>
       <c r="AQ18">
         <v>0.662852507311658</v>
+      </c>
+      <c r="AR18">
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2360,12 +2960,36 @@
       <c r="W19">
         <v>63212</v>
       </c>
+      <c r="X19">
+        <v>57251</v>
+      </c>
+      <c r="Y19">
+        <v>5961</v>
+      </c>
       <c r="Z19">
         <v>306</v>
       </c>
+      <c r="AA19">
+        <v>45204</v>
+      </c>
+      <c r="AB19">
+        <v>39243</v>
+      </c>
+      <c r="AC19">
+        <v>5961</v>
+      </c>
+      <c r="AD19">
+        <v>17702</v>
+      </c>
       <c r="AE19">
         <v>62906</v>
       </c>
+      <c r="AF19">
+        <v>56945</v>
+      </c>
+      <c r="AG19">
+        <v>5961</v>
+      </c>
       <c r="AH19">
         <v>14771.25992521655</v>
       </c>
@@ -2378,6 +3002,15 @@
       <c r="AK19">
         <v>-48134.74007478345</v>
       </c>
+      <c r="AL19">
+        <v>-73753.18434470714</v>
+      </c>
+      <c r="AM19">
+        <v>25618.44426992369</v>
+      </c>
+      <c r="AN19">
+        <v>-74059.18434470714</v>
+      </c>
       <c r="AO19">
         <v>143306.7400747835</v>
       </c>
@@ -2386,6 +3019,9 @@
       </c>
       <c r="AQ19">
         <v>0.6631037463369385</v>
+      </c>
+      <c r="AR19">
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -2461,12 +3097,36 @@
       <c r="W20">
         <v>66718</v>
       </c>
+      <c r="X20">
+        <v>60793</v>
+      </c>
+      <c r="Y20">
+        <v>5925</v>
+      </c>
       <c r="Z20">
         <v>306</v>
       </c>
+      <c r="AA20">
+        <v>45735</v>
+      </c>
+      <c r="AB20">
+        <v>39810</v>
+      </c>
+      <c r="AC20">
+        <v>5925</v>
+      </c>
+      <c r="AD20">
+        <v>20677</v>
+      </c>
       <c r="AE20">
         <v>66412</v>
       </c>
+      <c r="AF20">
+        <v>60487</v>
+      </c>
+      <c r="AG20">
+        <v>5925</v>
+      </c>
       <c r="AH20">
         <v>18308.86003501732</v>
       </c>
@@ -2479,6 +3139,15 @@
       <c r="AK20">
         <v>-48103.13996498268</v>
       </c>
+      <c r="AL20">
+        <v>-72506.33290817805</v>
+      </c>
+      <c r="AM20">
+        <v>24403.19305914683</v>
+      </c>
+      <c r="AN20">
+        <v>-72812.33290817805</v>
+      </c>
       <c r="AO20">
         <v>145731.1399649827</v>
       </c>
@@ -2487,6 +3156,9 @@
       </c>
       <c r="AQ20">
         <v>0.6823945253899427</v>
+      </c>
+      <c r="AR20">
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -2562,12 +3234,36 @@
       <c r="W21">
         <v>66547</v>
       </c>
+      <c r="X21">
+        <v>60931</v>
+      </c>
+      <c r="Y21">
+        <v>5616</v>
+      </c>
       <c r="Z21">
         <v>306</v>
       </c>
+      <c r="AA21">
+        <v>45503</v>
+      </c>
+      <c r="AB21">
+        <v>39887</v>
+      </c>
+      <c r="AC21">
+        <v>5616</v>
+      </c>
+      <c r="AD21">
+        <v>20738</v>
+      </c>
       <c r="AE21">
         <v>66241</v>
       </c>
+      <c r="AF21">
+        <v>60625</v>
+      </c>
+      <c r="AG21">
+        <v>5616</v>
+      </c>
       <c r="AH21">
         <v>20771.28202048663</v>
       </c>
@@ -2580,6 +3276,15 @@
       <c r="AK21">
         <v>-45469.71797951337</v>
       </c>
+      <c r="AL21">
+        <v>-69552.41942189324</v>
+      </c>
+      <c r="AM21">
+        <v>24082.70144237987</v>
+      </c>
+      <c r="AN21">
+        <v>-69858.41942189324</v>
+      </c>
       <c r="AO21">
         <v>145933.7179795134</v>
       </c>
@@ -2588,6 +3293,9 @@
       </c>
       <c r="AQ21">
         <v>0.6613650432316939</v>
+      </c>
+      <c r="AR21">
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -2663,12 +3371,36 @@
       <c r="W22">
         <v>65478</v>
       </c>
+      <c r="X22">
+        <v>59917</v>
+      </c>
+      <c r="Y22">
+        <v>5561</v>
+      </c>
       <c r="Z22">
         <v>234</v>
       </c>
+      <c r="AA22">
+        <v>44766</v>
+      </c>
+      <c r="AB22">
+        <v>39205</v>
+      </c>
+      <c r="AC22">
+        <v>5561</v>
+      </c>
+      <c r="AD22">
+        <v>20478</v>
+      </c>
       <c r="AE22">
         <v>65244</v>
       </c>
+      <c r="AF22">
+        <v>59683</v>
+      </c>
+      <c r="AG22">
+        <v>5561</v>
+      </c>
       <c r="AH22">
         <v>20286.75645399223</v>
       </c>
@@ -2681,6 +3413,15 @@
       <c r="AK22">
         <v>-44957.24354600777</v>
       </c>
+      <c r="AL22">
+        <v>-69045.32777060669</v>
+      </c>
+      <c r="AM22">
+        <v>24088.08457034852</v>
+      </c>
+      <c r="AN22">
+        <v>-69279.32777060669</v>
+      </c>
       <c r="AO22">
         <v>145404.2435460078</v>
       </c>
@@ -2689,6 +3430,9 @@
       </c>
       <c r="AQ22">
         <v>0.6510532565635198</v>
+      </c>
+      <c r="AR22">
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -2764,12 +3508,36 @@
       <c r="W23">
         <v>65540</v>
       </c>
+      <c r="X23">
+        <v>60032</v>
+      </c>
+      <c r="Y23">
+        <v>5508</v>
+      </c>
       <c r="Z23">
         <v>234</v>
       </c>
+      <c r="AA23">
+        <v>44508</v>
+      </c>
+      <c r="AB23">
+        <v>39000</v>
+      </c>
+      <c r="AC23">
+        <v>5508</v>
+      </c>
+      <c r="AD23">
+        <v>20798</v>
+      </c>
       <c r="AE23">
         <v>65306</v>
       </c>
+      <c r="AF23">
+        <v>59798</v>
+      </c>
+      <c r="AG23">
+        <v>5508</v>
+      </c>
       <c r="AH23">
         <v>23105.36228947702</v>
       </c>
@@ -2782,6 +3550,15 @@
       <c r="AK23">
         <v>-42200.63771052298</v>
       </c>
+      <c r="AL23">
+        <v>-66639.01426318394</v>
+      </c>
+      <c r="AM23">
+        <v>24438.37666777948</v>
+      </c>
+      <c r="AN23">
+        <v>-66873.01426318394</v>
+      </c>
       <c r="AO23">
         <v>146502.637710523</v>
       </c>
@@ -2790,6 +3567,9 @@
       </c>
       <c r="AQ23">
         <v>0.6275319983087981</v>
+      </c>
+      <c r="AR23">
+        <v>0.1739509438640434</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -2865,12 +3645,36 @@
       <c r="W24">
         <v>65788</v>
       </c>
+      <c r="X24">
+        <v>60263</v>
+      </c>
+      <c r="Y24">
+        <v>5525</v>
+      </c>
       <c r="Z24">
         <v>234</v>
       </c>
+      <c r="AA24">
+        <v>44771</v>
+      </c>
+      <c r="AB24">
+        <v>39246</v>
+      </c>
+      <c r="AC24">
+        <v>5525</v>
+      </c>
+      <c r="AD24">
+        <v>20783</v>
+      </c>
       <c r="AE24">
         <v>65554</v>
       </c>
+      <c r="AF24">
+        <v>60029</v>
+      </c>
+      <c r="AG24">
+        <v>5525</v>
+      </c>
       <c r="AH24">
         <v>23989.58115718215</v>
       </c>
@@ -2883,6 +3687,15 @@
       <c r="AK24">
         <v>-41564.41884281785</v>
       </c>
+      <c r="AL24">
+        <v>-66265.13196242585</v>
+      </c>
+      <c r="AM24">
+        <v>24700.713119608</v>
+      </c>
+      <c r="AN24">
+        <v>-66499.13196242585</v>
+      </c>
       <c r="AO24">
         <v>146684.4188428178</v>
       </c>
@@ -2891,6 +3704,9 @@
       </c>
       <c r="AQ24">
         <v>0.6250023835402246</v>
+      </c>
+      <c r="AR24">
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -2966,12 +3782,36 @@
       <c r="W25">
         <v>65634</v>
       </c>
+      <c r="X25">
+        <v>60109</v>
+      </c>
+      <c r="Y25">
+        <v>5525</v>
+      </c>
       <c r="Z25">
         <v>234</v>
       </c>
+      <c r="AA25">
+        <v>44771</v>
+      </c>
+      <c r="AB25">
+        <v>39246</v>
+      </c>
+      <c r="AC25">
+        <v>5525</v>
+      </c>
+      <c r="AD25">
+        <v>20629</v>
+      </c>
       <c r="AE25">
         <v>65400</v>
       </c>
+      <c r="AF25">
+        <v>59875</v>
+      </c>
+      <c r="AG25">
+        <v>5525</v>
+      </c>
       <c r="AH25">
         <v>23649.58778599043</v>
       </c>
@@ -2984,6 +3824,15 @@
       <c r="AK25">
         <v>-41750.41221400957</v>
       </c>
+      <c r="AL25">
+        <v>-66286.43363611795</v>
+      </c>
+      <c r="AM25">
+        <v>24536.02142210837</v>
+      </c>
+      <c r="AN25">
+        <v>-66520.43363611795</v>
+      </c>
       <c r="AO25">
         <v>146423.4122140096</v>
       </c>
@@ -2992,6 +3841,9 @@
       </c>
       <c r="AQ25">
         <v>0.6262028552552208</v>
+      </c>
+      <c r="AR25">
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3067,12 +3919,36 @@
       <c r="W26">
         <v>66231</v>
       </c>
+      <c r="X26">
+        <v>60694</v>
+      </c>
+      <c r="Y26">
+        <v>5537</v>
+      </c>
       <c r="Z26">
         <v>234</v>
       </c>
+      <c r="AA26">
+        <v>45164</v>
+      </c>
+      <c r="AB26">
+        <v>39627</v>
+      </c>
+      <c r="AC26">
+        <v>5537</v>
+      </c>
+      <c r="AD26">
+        <v>20833</v>
+      </c>
       <c r="AE26">
         <v>65997</v>
       </c>
+      <c r="AF26">
+        <v>60460</v>
+      </c>
+      <c r="AG26">
+        <v>5537</v>
+      </c>
       <c r="AH26">
         <v>24471.45619299794</v>
       </c>
@@ -3085,6 +3961,15 @@
       <c r="AK26">
         <v>-41525.54380700206</v>
       </c>
+      <c r="AL26">
+        <v>-66073.54068843779</v>
+      </c>
+      <c r="AM26">
+        <v>24547.99699911739</v>
+      </c>
+      <c r="AN26">
+        <v>-66307.54068843779</v>
+      </c>
       <c r="AO26">
         <v>147479.5438070021</v>
       </c>
@@ -3093,6 +3978,9 @@
       </c>
       <c r="AQ26">
         <v>0.6242622020431328</v>
+      </c>
+      <c r="AR26">
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -3168,12 +4056,36 @@
       <c r="W27">
         <v>66549</v>
       </c>
+      <c r="X27">
+        <v>61024</v>
+      </c>
+      <c r="Y27">
+        <v>5525</v>
+      </c>
       <c r="Z27">
         <v>152</v>
       </c>
+      <c r="AA27">
+        <v>45606</v>
+      </c>
+      <c r="AB27">
+        <v>40081</v>
+      </c>
+      <c r="AC27">
+        <v>5525</v>
+      </c>
+      <c r="AD27">
+        <v>20791</v>
+      </c>
       <c r="AE27">
         <v>66397</v>
       </c>
+      <c r="AF27">
+        <v>60872</v>
+      </c>
+      <c r="AG27">
+        <v>5525</v>
+      </c>
       <c r="AH27">
         <v>25037.29161877505</v>
       </c>
@@ -3186,6 +4098,15 @@
       <c r="AK27">
         <v>-41359.70838122495</v>
       </c>
+      <c r="AL27">
+        <v>-65709.13975745351</v>
+      </c>
+      <c r="AM27">
+        <v>24349.43137622857</v>
+      </c>
+      <c r="AN27">
+        <v>-65861.13975745351</v>
+      </c>
       <c r="AO27">
         <v>150520.708381225</v>
       </c>
@@ -3194,6 +4115,9 @@
       </c>
       <c r="AQ27">
         <v>0.6090964966195451</v>
+      </c>
+      <c r="AR27">
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -3269,12 +4193,36 @@
       <c r="W28">
         <v>65610</v>
       </c>
+      <c r="X28">
+        <v>60182</v>
+      </c>
+      <c r="Y28">
+        <v>5428</v>
+      </c>
       <c r="Z28">
         <v>152</v>
       </c>
+      <c r="AA28">
+        <v>44845</v>
+      </c>
+      <c r="AB28">
+        <v>39417</v>
+      </c>
+      <c r="AC28">
+        <v>5428</v>
+      </c>
+      <c r="AD28">
+        <v>20613</v>
+      </c>
       <c r="AE28">
         <v>65458</v>
       </c>
+      <c r="AF28">
+        <v>60030</v>
+      </c>
+      <c r="AG28">
+        <v>5428</v>
+      </c>
       <c r="AH28">
         <v>23973.08591626518</v>
       </c>
@@ -3287,6 +4235,15 @@
       <c r="AK28">
         <v>-41484.91408373482</v>
       </c>
+      <c r="AL28">
+        <v>-64906.46608261493</v>
+      </c>
+      <c r="AM28">
+        <v>23421.55188222531</v>
+      </c>
+      <c r="AN28">
+        <v>-65058.46608261493</v>
+      </c>
       <c r="AO28">
         <v>148734.9140837348</v>
       </c>
@@ -3295,6 +4252,9 @@
       </c>
       <c r="AQ28">
         <v>0.6111972212366245</v>
+      </c>
+      <c r="AR28">
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -3370,12 +4330,36 @@
       <c r="W29">
         <v>66565</v>
       </c>
+      <c r="X29">
+        <v>61352</v>
+      </c>
+      <c r="Y29">
+        <v>5213</v>
+      </c>
       <c r="Z29">
         <v>152</v>
       </c>
+      <c r="AA29">
+        <v>45849</v>
+      </c>
+      <c r="AB29">
+        <v>40636</v>
+      </c>
+      <c r="AC29">
+        <v>5213</v>
+      </c>
+      <c r="AD29">
+        <v>20564</v>
+      </c>
       <c r="AE29">
         <v>66413</v>
       </c>
+      <c r="AF29">
+        <v>61200</v>
+      </c>
+      <c r="AG29">
+        <v>5213</v>
+      </c>
       <c r="AH29">
         <v>25633.38693000905</v>
       </c>
@@ -3388,6 +4372,15 @@
       <c r="AK29">
         <v>-40779.61306999096</v>
       </c>
+      <c r="AL29">
+        <v>-64783.69459881801</v>
+      </c>
+      <c r="AM29">
+        <v>24004.08152882706</v>
+      </c>
+      <c r="AN29">
+        <v>-64935.69459881801</v>
+      </c>
       <c r="AO29">
         <v>149486.6130699909</v>
       </c>
@@ -3396,6 +4389,9 @@
       </c>
       <c r="AQ29">
         <v>0.6117912578877067</v>
+      </c>
+      <c r="AR29">
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -3471,12 +4467,36 @@
       <c r="W30">
         <v>66980</v>
       </c>
+      <c r="X30">
+        <v>61735</v>
+      </c>
+      <c r="Y30">
+        <v>5245</v>
+      </c>
       <c r="Z30">
         <v>152</v>
       </c>
+      <c r="AA30">
+        <v>46031</v>
+      </c>
+      <c r="AB30">
+        <v>40786</v>
+      </c>
+      <c r="AC30">
+        <v>5245</v>
+      </c>
+      <c r="AD30">
+        <v>20797</v>
+      </c>
       <c r="AE30">
         <v>66828</v>
       </c>
+      <c r="AF30">
+        <v>61583</v>
+      </c>
+      <c r="AG30">
+        <v>5245</v>
+      </c>
       <c r="AH30">
         <v>26305.79604680657</v>
       </c>
@@ -3489,6 +4509,15 @@
       <c r="AK30">
         <v>-40522.20395319343</v>
       </c>
+      <c r="AL30">
+        <v>-64478.00564741917</v>
+      </c>
+      <c r="AM30">
+        <v>23955.80169422575</v>
+      </c>
+      <c r="AN30">
+        <v>-64630.00564741917</v>
+      </c>
       <c r="AO30">
         <v>158938.2039531934</v>
       </c>
@@ -3497,6 +4526,9 @@
       </c>
       <c r="AQ30">
         <v>0.5650747480213759</v>
+      </c>
+      <c r="AR30">
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -3572,12 +4604,36 @@
       <c r="W31">
         <v>67453</v>
       </c>
+      <c r="X31">
+        <v>62256</v>
+      </c>
+      <c r="Y31">
+        <v>5197</v>
+      </c>
       <c r="Z31">
         <v>43</v>
       </c>
+      <c r="AA31">
+        <v>46570</v>
+      </c>
+      <c r="AB31">
+        <v>41373</v>
+      </c>
+      <c r="AC31">
+        <v>5197</v>
+      </c>
+      <c r="AD31">
+        <v>20840</v>
+      </c>
       <c r="AE31">
         <v>67410</v>
       </c>
+      <c r="AF31">
+        <v>62213</v>
+      </c>
+      <c r="AG31">
+        <v>5197</v>
+      </c>
       <c r="AH31">
         <v>27708.62671087821</v>
       </c>
@@ -3590,6 +4646,15 @@
       <c r="AK31">
         <v>-39701.3732891218</v>
       </c>
+      <c r="AL31">
+        <v>-64176.07107330005</v>
+      </c>
+      <c r="AM31">
+        <v>24474.69778417824</v>
+      </c>
+      <c r="AN31">
+        <v>-64219.07107330005</v>
+      </c>
       <c r="AO31">
         <v>158941.3732891218</v>
       </c>
@@ -3598,6 +4663,9 @@
       </c>
       <c r="AQ31">
         <v>0.5655343674756915</v>
+      </c>
+      <c r="AR31">
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -3673,12 +4741,36 @@
       <c r="W32">
         <v>68089</v>
       </c>
+      <c r="X32">
+        <v>62998</v>
+      </c>
+      <c r="Y32">
+        <v>5091</v>
+      </c>
       <c r="Z32">
         <v>43</v>
       </c>
+      <c r="AA32">
+        <v>47249</v>
+      </c>
+      <c r="AB32">
+        <v>42158</v>
+      </c>
+      <c r="AC32">
+        <v>5091</v>
+      </c>
+      <c r="AD32">
+        <v>20797</v>
+      </c>
       <c r="AE32">
         <v>68046</v>
       </c>
+      <c r="AF32">
+        <v>62955</v>
+      </c>
+      <c r="AG32">
+        <v>5091</v>
+      </c>
       <c r="AH32">
         <v>28717.79699958656</v>
       </c>
@@ -3691,6 +4783,15 @@
       <c r="AK32">
         <v>-39328.20300041344</v>
       </c>
+      <c r="AL32">
+        <v>-63248.25279073889</v>
+      </c>
+      <c r="AM32">
+        <v>23920.04967219893</v>
+      </c>
+      <c r="AN32">
+        <v>-63291.25279073889</v>
+      </c>
       <c r="AO32">
         <v>159512.2030004134</v>
       </c>
@@ -3699,6 +4800,9 @@
       </c>
       <c r="AQ32">
         <v>0.5663844982145978</v>
+      </c>
+      <c r="AR32">
+        <v>0.177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -3774,12 +4878,36 @@
       <c r="W33">
         <v>68596</v>
       </c>
+      <c r="X33">
+        <v>63179</v>
+      </c>
+      <c r="Y33">
+        <v>5417</v>
+      </c>
       <c r="Z33">
         <v>43</v>
       </c>
+      <c r="AA33">
+        <v>47673</v>
+      </c>
+      <c r="AB33">
+        <v>42256</v>
+      </c>
+      <c r="AC33">
+        <v>5417</v>
+      </c>
+      <c r="AD33">
+        <v>20880</v>
+      </c>
       <c r="AE33">
         <v>68553</v>
       </c>
+      <c r="AF33">
+        <v>63136</v>
+      </c>
+      <c r="AG33">
+        <v>5417</v>
+      </c>
       <c r="AH33">
         <v>28243.16689177982</v>
       </c>
@@ -3792,6 +4920,15 @@
       <c r="AK33">
         <v>-40309.83310822018</v>
       </c>
+      <c r="AL33">
+        <v>-62951.71706831591</v>
+      </c>
+      <c r="AM33">
+        <v>22641.88396009574</v>
+      </c>
+      <c r="AN33">
+        <v>-62994.71706831591</v>
+      </c>
       <c r="AO33">
         <v>161138.8331082202</v>
       </c>
@@ -3800,6 +4937,9 @@
       </c>
       <c r="AQ33">
         <v>0.5675574983855745</v>
+      </c>
+      <c r="AR33">
+        <v>0.1797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -3875,12 +5015,36 @@
       <c r="W34">
         <v>67822</v>
       </c>
+      <c r="X34">
+        <v>62429</v>
+      </c>
+      <c r="Y34">
+        <v>5393</v>
+      </c>
       <c r="Z34">
         <v>43</v>
       </c>
+      <c r="AA34">
+        <v>46964</v>
+      </c>
+      <c r="AB34">
+        <v>41571</v>
+      </c>
+      <c r="AC34">
+        <v>5393</v>
+      </c>
+      <c r="AD34">
+        <v>20815</v>
+      </c>
       <c r="AE34">
         <v>67779</v>
       </c>
+      <c r="AF34">
+        <v>62386</v>
+      </c>
+      <c r="AG34">
+        <v>5393</v>
+      </c>
       <c r="AH34">
         <v>30285.18677815763</v>
       </c>
@@ -3893,6 +5057,15 @@
       <c r="AK34">
         <v>-37493.81322184237</v>
       </c>
+      <c r="AL34">
+        <v>-60113.70343250486</v>
+      </c>
+      <c r="AM34">
+        <v>22619.89032615726</v>
+      </c>
+      <c r="AN34">
+        <v>-60156.70343250486</v>
+      </c>
       <c r="AO34">
         <v>159579.8132218424</v>
       </c>
@@ -3901,6 +5074,9 @@
       </c>
       <c r="AQ34">
         <v>0.5553698286669453</v>
+      </c>
+      <c r="AR34">
+        <v>0.1783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -3976,12 +5152,36 @@
       <c r="W35">
         <v>66633</v>
       </c>
+      <c r="X35">
+        <v>61558</v>
+      </c>
+      <c r="Y35">
+        <v>5075</v>
+      </c>
       <c r="Z35">
         <v>17</v>
       </c>
+      <c r="AA35">
+        <v>45884</v>
+      </c>
+      <c r="AB35">
+        <v>40809</v>
+      </c>
+      <c r="AC35">
+        <v>5075</v>
+      </c>
+      <c r="AD35">
+        <v>20732</v>
+      </c>
       <c r="AE35">
         <v>66616</v>
       </c>
+      <c r="AF35">
+        <v>61541</v>
+      </c>
+      <c r="AG35">
+        <v>5075</v>
+      </c>
       <c r="AH35">
         <v>29143.72692459311</v>
       </c>
@@ -3994,6 +5194,15 @@
       <c r="AK35">
         <v>-37472.27307540689</v>
       </c>
+      <c r="AL35">
+        <v>-59516.31812806218</v>
+      </c>
+      <c r="AM35">
+        <v>22044.04494002365</v>
+      </c>
+      <c r="AN35">
+        <v>-59533.31812806218</v>
+      </c>
       <c r="AO35">
         <v>159210.2730754069</v>
       </c>
@@ -4002,6 +5211,9 @@
       </c>
       <c r="AQ35">
         <v>0.5472843634212666</v>
+      </c>
+      <c r="AR35">
+        <v>0.1762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -4077,12 +5289,36 @@
       <c r="W36">
         <v>66994</v>
       </c>
+      <c r="X36">
+        <v>61914</v>
+      </c>
+      <c r="Y36">
+        <v>5080</v>
+      </c>
       <c r="Z36">
         <v>17</v>
       </c>
+      <c r="AA36">
+        <v>46150</v>
+      </c>
+      <c r="AB36">
+        <v>41070</v>
+      </c>
+      <c r="AC36">
+        <v>5080</v>
+      </c>
+      <c r="AD36">
+        <v>20827</v>
+      </c>
       <c r="AE36">
         <v>66977</v>
       </c>
+      <c r="AF36">
+        <v>61897</v>
+      </c>
+      <c r="AG36">
+        <v>5080</v>
+      </c>
       <c r="AH36">
         <v>29463.91628389893</v>
       </c>
@@ -4095,6 +5331,15 @@
       <c r="AK36">
         <v>-37513.08371610107</v>
       </c>
+      <c r="AL36">
+        <v>-58822.86921193104</v>
+      </c>
+      <c r="AM36">
+        <v>21309.78560868535</v>
+      </c>
+      <c r="AN36">
+        <v>-58839.86921193104</v>
+      </c>
       <c r="AO36">
         <v>160992.0837161011</v>
       </c>
@@ -4103,6 +5348,9 @@
       </c>
       <c r="AQ36">
         <v>0.5424908068879494</v>
+      </c>
+      <c r="AR36">
+        <v>0.1763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -4178,12 +5426,36 @@
       <c r="W37">
         <v>68067</v>
       </c>
+      <c r="X37">
+        <v>62836</v>
+      </c>
+      <c r="Y37">
+        <v>5231</v>
+      </c>
       <c r="Z37">
         <v>17</v>
       </c>
+      <c r="AA37">
+        <v>47076</v>
+      </c>
+      <c r="AB37">
+        <v>41845</v>
+      </c>
+      <c r="AC37">
+        <v>5231</v>
+      </c>
+      <c r="AD37">
+        <v>20974</v>
+      </c>
       <c r="AE37">
         <v>68050</v>
       </c>
+      <c r="AF37">
+        <v>62819</v>
+      </c>
+      <c r="AG37">
+        <v>5231</v>
+      </c>
       <c r="AH37">
         <v>31970.11192789009</v>
       </c>
@@ -4196,6 +5468,15 @@
       <c r="AK37">
         <v>-36079.88807210991</v>
       </c>
+      <c r="AL37">
+        <v>-58819.57747002711</v>
+      </c>
+      <c r="AM37">
+        <v>22739.68939791721</v>
+      </c>
+      <c r="AN37">
+        <v>-58836.57747002711</v>
+      </c>
       <c r="AO37">
         <v>161823.8880721099</v>
       </c>
@@ -4204,6 +5485,9 @@
       </c>
       <c r="AQ37">
         <v>0.5412520779148472</v>
+      </c>
+      <c r="AR37">
+        <v>0.1795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -4279,12 +5563,36 @@
       <c r="W38">
         <v>68272</v>
       </c>
+      <c r="X38">
+        <v>62970</v>
+      </c>
+      <c r="Y38">
+        <v>5302</v>
+      </c>
       <c r="Z38">
         <v>17</v>
       </c>
+      <c r="AA38">
+        <v>47365</v>
+      </c>
+      <c r="AB38">
+        <v>42063</v>
+      </c>
+      <c r="AC38">
+        <v>5302</v>
+      </c>
+      <c r="AD38">
+        <v>20890</v>
+      </c>
       <c r="AE38">
         <v>68255</v>
       </c>
+      <c r="AF38">
+        <v>62953</v>
+      </c>
+      <c r="AG38">
+        <v>5302</v>
+      </c>
       <c r="AH38">
         <v>32272.43446374535</v>
       </c>
@@ -4297,6 +5605,15 @@
       <c r="AK38">
         <v>-35982.56553625465</v>
       </c>
+      <c r="AL38">
+        <v>-58652.07016164642</v>
+      </c>
+      <c r="AM38">
+        <v>22669.50451769926</v>
+      </c>
+      <c r="AN38">
+        <v>-58669.07016164642</v>
+      </c>
       <c r="AO38">
         <v>161140.5655362547</v>
       </c>
@@ -4305,6 +5622,9 @@
       </c>
       <c r="AQ38">
         <v>0.5454247608697389</v>
+      </c>
+      <c r="AR38">
+        <v>0.1804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -4380,12 +5700,36 @@
       <c r="W39">
         <v>68337</v>
       </c>
+      <c r="X39">
+        <v>63201</v>
+      </c>
+      <c r="Y39">
+        <v>5136</v>
+      </c>
       <c r="Z39">
         <v>8</v>
       </c>
+      <c r="AA39">
+        <v>47381</v>
+      </c>
+      <c r="AB39">
+        <v>42245</v>
+      </c>
+      <c r="AC39">
+        <v>5136</v>
+      </c>
+      <c r="AD39">
+        <v>20948</v>
+      </c>
       <c r="AE39">
         <v>68329</v>
       </c>
+      <c r="AF39">
+        <v>63193</v>
+      </c>
+      <c r="AG39">
+        <v>5136</v>
+      </c>
       <c r="AH39">
         <v>32496.50975077257</v>
       </c>
@@ -4398,6 +5742,15 @@
       <c r="AK39">
         <v>-35832.49024922743</v>
       </c>
+      <c r="AL39">
+        <v>-58532.46647611614</v>
+      </c>
+      <c r="AM39">
+        <v>22699.97622688872</v>
+      </c>
+      <c r="AN39">
+        <v>-58540.46647611614</v>
+      </c>
       <c r="AO39">
         <v>159623.4902492274</v>
       </c>
@@ -4406,6 +5759,9 @@
       </c>
       <c r="AQ39">
         <v>0.5520063336645581</v>
+      </c>
+      <c r="AR39">
+        <v>0.1820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -4481,12 +5837,36 @@
       <c r="W40">
         <v>67061</v>
       </c>
+      <c r="X40">
+        <v>61791</v>
+      </c>
+      <c r="Y40">
+        <v>5270</v>
+      </c>
       <c r="Z40">
         <v>8</v>
       </c>
+      <c r="AA40">
+        <v>46196</v>
+      </c>
+      <c r="AB40">
+        <v>40926</v>
+      </c>
+      <c r="AC40">
+        <v>5270</v>
+      </c>
+      <c r="AD40">
+        <v>20857</v>
+      </c>
       <c r="AE40">
         <v>67053</v>
       </c>
+      <c r="AF40">
+        <v>61783</v>
+      </c>
+      <c r="AG40">
+        <v>5270</v>
+      </c>
       <c r="AH40">
         <v>31707.85260724166</v>
       </c>
@@ -4499,6 +5879,15 @@
       <c r="AK40">
         <v>-35345.14739275834</v>
       </c>
+      <c r="AL40">
+        <v>-58210.67908013707</v>
+      </c>
+      <c r="AM40">
+        <v>22865.53158416251</v>
+      </c>
+      <c r="AN40">
+        <v>-58218.67908013707</v>
+      </c>
       <c r="AO40">
         <v>160796.1473927583</v>
       </c>
@@ -4507,6 +5896,9 @@
       </c>
       <c r="AQ40">
         <v>0.5345296270019052</v>
+      </c>
+      <c r="AR40">
+        <v>0.1771940556449785</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -4582,12 +5974,36 @@
       <c r="W41">
         <v>63655</v>
       </c>
+      <c r="X41">
+        <v>56305</v>
+      </c>
+      <c r="Y41">
+        <v>7350</v>
+      </c>
       <c r="Z41">
         <v>8</v>
       </c>
+      <c r="AA41">
+        <v>42520</v>
+      </c>
+      <c r="AB41">
+        <v>35170</v>
+      </c>
+      <c r="AC41">
+        <v>7350</v>
+      </c>
+      <c r="AD41">
+        <v>21127</v>
+      </c>
       <c r="AE41">
         <v>63647</v>
       </c>
+      <c r="AF41">
+        <v>56297</v>
+      </c>
+      <c r="AG41">
+        <v>7350</v>
+      </c>
       <c r="AH41">
         <v>28453.16839770094</v>
       </c>
@@ -4600,6 +6016,15 @@
       <c r="AK41">
         <v>-35193.83160229906</v>
       </c>
+      <c r="AL41">
+        <v>-59414.61802964604</v>
+      </c>
+      <c r="AM41">
+        <v>24220.78642734698</v>
+      </c>
+      <c r="AN41">
+        <v>-59422.61802964604</v>
+      </c>
       <c r="AO41">
         <v>162891.8316022991</v>
       </c>
@@ -4608,6 +6033,9 @@
       </c>
       <c r="AQ41">
         <v>0.4984493695669199</v>
+      </c>
+      <c r="AR41">
+        <v>0.1620313209744438</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -4683,12 +6111,36 @@
       <c r="W42">
         <v>60524</v>
       </c>
+      <c r="X42">
+        <v>55313</v>
+      </c>
+      <c r="Y42">
+        <v>5211</v>
+      </c>
       <c r="Z42">
         <v>8</v>
       </c>
+      <c r="AA42">
+        <v>39482</v>
+      </c>
+      <c r="AB42">
+        <v>34271</v>
+      </c>
+      <c r="AC42">
+        <v>5211</v>
+      </c>
+      <c r="AD42">
+        <v>21034</v>
+      </c>
       <c r="AE42">
         <v>60516</v>
       </c>
+      <c r="AF42">
+        <v>55305</v>
+      </c>
+      <c r="AG42">
+        <v>5211</v>
+      </c>
       <c r="AH42">
         <v>25026.07115544631</v>
       </c>
@@ -4701,6 +6153,15 @@
       <c r="AK42">
         <v>-35489.9288445537</v>
       </c>
+      <c r="AL42">
+        <v>-59737.93126595175</v>
+      </c>
+      <c r="AM42">
+        <v>24248.00232790778</v>
+      </c>
+      <c r="AN42">
+        <v>-59745.93126595175</v>
+      </c>
       <c r="AO42">
         <v>163900.9288445537</v>
       </c>
@@ -4709,6 +6170,9 @@
       </c>
       <c r="AQ42">
         <v>0.4712973995934675</v>
+      </c>
+      <c r="AR42">
+        <v>0.1506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -4784,12 +6248,36 @@
       <c r="W43">
         <v>60829</v>
       </c>
+      <c r="X43">
+        <v>53951</v>
+      </c>
+      <c r="Y43">
+        <v>6878</v>
+      </c>
       <c r="Z43">
         <v>8</v>
       </c>
+      <c r="AA43">
+        <v>39980</v>
+      </c>
+      <c r="AB43">
+        <v>33102</v>
+      </c>
+      <c r="AC43">
+        <v>6878</v>
+      </c>
+      <c r="AD43">
+        <v>20841</v>
+      </c>
       <c r="AE43">
         <v>60821</v>
       </c>
+      <c r="AF43">
+        <v>53943</v>
+      </c>
+      <c r="AG43">
+        <v>6878</v>
+      </c>
       <c r="AH43">
         <v>24516.29790585078</v>
       </c>
@@ -4802,6 +6290,15 @@
       <c r="AK43">
         <v>-36304.70209414922</v>
       </c>
+      <c r="AL43">
+        <v>-59739.26808109933</v>
+      </c>
+      <c r="AM43">
+        <v>23434.56590361747</v>
+      </c>
+      <c r="AN43">
+        <v>-59747.26808109933</v>
+      </c>
       <c r="AO43">
         <v>162457.7020941492</v>
       </c>
@@ -4810,6 +6307,9 @@
       </c>
       <c r="AQ43">
         <v>0.4821514923302548</v>
+      </c>
+      <c r="AR43">
+        <v>0.154080134850564</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -4885,12 +6385,36 @@
       <c r="W44">
         <v>60792</v>
       </c>
+      <c r="X44">
+        <v>54067</v>
+      </c>
+      <c r="Y44">
+        <v>6725</v>
+      </c>
       <c r="Z44">
         <v>392</v>
       </c>
+      <c r="AA44">
+        <v>39533</v>
+      </c>
+      <c r="AB44">
+        <v>32808</v>
+      </c>
+      <c r="AC44">
+        <v>6725</v>
+      </c>
+      <c r="AD44">
+        <v>20867</v>
+      </c>
       <c r="AE44">
         <v>60400</v>
       </c>
+      <c r="AF44">
+        <v>53675</v>
+      </c>
+      <c r="AG44">
+        <v>6725</v>
+      </c>
       <c r="AH44">
         <v>22321.1126899237</v>
       </c>
@@ -4903,6 +6427,15 @@
       <c r="AK44">
         <v>-38078.8873100763</v>
       </c>
+      <c r="AL44">
+        <v>-61607.77692497036</v>
+      </c>
+      <c r="AM44">
+        <v>23528.88961489405</v>
+      </c>
+      <c r="AN44">
+        <v>-61999.77692497036</v>
+      </c>
       <c r="AO44">
         <v>162495.8873100763</v>
       </c>
@@ -4911,6 +6444,9 @@
       </c>
       <c r="AQ44">
         <v>0.4869985889941544</v>
+      </c>
+      <c r="AR44">
+        <v>0.153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -4986,12 +6522,36 @@
       <c r="W45">
         <v>60348</v>
       </c>
+      <c r="X45">
+        <v>53121</v>
+      </c>
+      <c r="Y45">
+        <v>7227</v>
+      </c>
       <c r="Z45">
         <v>392</v>
       </c>
+      <c r="AA45">
+        <v>38991</v>
+      </c>
+      <c r="AB45">
+        <v>31764</v>
+      </c>
+      <c r="AC45">
+        <v>7227</v>
+      </c>
+      <c r="AD45">
+        <v>20965</v>
+      </c>
       <c r="AE45">
         <v>59956</v>
       </c>
+      <c r="AF45">
+        <v>52729</v>
+      </c>
+      <c r="AG45">
+        <v>7227</v>
+      </c>
       <c r="AH45">
         <v>21026.9024681297</v>
       </c>
@@ -5004,6 +6564,15 @@
       <c r="AK45">
         <v>-38929.0975318703</v>
       </c>
+      <c r="AL45">
+        <v>-62802.7577420106</v>
+      </c>
+      <c r="AM45">
+        <v>23873.66013737703</v>
+      </c>
+      <c r="AN45">
+        <v>-63194.7577420106</v>
+      </c>
       <c r="AO45">
         <v>162211.0975318703</v>
       </c>
@@ -5012,6 +6581,9 @@
       </c>
       <c r="AQ45">
         <v>0.4878834730246562</v>
+      </c>
+      <c r="AR45">
+        <v>0.1510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -5087,12 +6659,36 @@
       <c r="W46">
         <v>59268</v>
       </c>
+      <c r="X46">
+        <v>52088</v>
+      </c>
+      <c r="Y46">
+        <v>7180</v>
+      </c>
       <c r="Z46">
         <v>401</v>
       </c>
+      <c r="AA46">
+        <v>37900</v>
+      </c>
+      <c r="AB46">
+        <v>30720</v>
+      </c>
+      <c r="AC46">
+        <v>7180</v>
+      </c>
+      <c r="AD46">
+        <v>20967</v>
+      </c>
       <c r="AE46">
         <v>58867</v>
       </c>
+      <c r="AF46">
+        <v>51687</v>
+      </c>
+      <c r="AG46">
+        <v>7180</v>
+      </c>
       <c r="AH46">
         <v>12013.92079832761</v>
       </c>
@@ -5105,6 +6701,15 @@
       <c r="AK46">
         <v>-46853.07920167239</v>
       </c>
+      <c r="AL46">
+        <v>-70594.63127309064</v>
+      </c>
+      <c r="AM46">
+        <v>23741.5520056798</v>
+      </c>
+      <c r="AN46">
+        <v>-70995.63127309064</v>
+      </c>
       <c r="AO46">
         <v>164127.0792016724</v>
       </c>
@@ -5113,6 +6718,9 @@
       </c>
       <c r="AQ46">
         <v>0.5036834854927998</v>
+      </c>
+      <c r="AR46">
+        <v>0.1433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -5188,12 +6796,36 @@
       <c r="W47">
         <v>65292</v>
       </c>
+      <c r="X47">
+        <v>59035</v>
+      </c>
+      <c r="Y47">
+        <v>6257</v>
+      </c>
       <c r="Z47">
         <v>978</v>
       </c>
+      <c r="AA47">
+        <v>43317</v>
+      </c>
+      <c r="AB47">
+        <v>37060</v>
+      </c>
+      <c r="AC47">
+        <v>6257</v>
+      </c>
+      <c r="AD47">
+        <v>20997</v>
+      </c>
       <c r="AE47">
         <v>64314</v>
       </c>
+      <c r="AF47">
+        <v>58057</v>
+      </c>
+      <c r="AG47">
+        <v>6257</v>
+      </c>
       <c r="AH47">
         <v>8476.598752925565</v>
       </c>
@@ -5206,6 +6838,15 @@
       <c r="AK47">
         <v>-55837.40124707444</v>
       </c>
+      <c r="AL47">
+        <v>-79309.0724316205</v>
+      </c>
+      <c r="AM47">
+        <v>23471.6712718762</v>
+      </c>
+      <c r="AN47">
+        <v>-80287.0724316205</v>
+      </c>
       <c r="AO47">
         <v>167740.4012470744</v>
       </c>
@@ -5214,6 +6855,9 @@
       </c>
       <c r="AQ47">
         <v>0.5797971602434077</v>
+      </c>
+      <c r="AR47">
+        <v>0.1630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -5286,9 +6930,30 @@
       <c r="V48">
         <v>456.7588518589867</v>
       </c>
+      <c r="Y48">
+        <v>6126</v>
+      </c>
+      <c r="AA48">
+        <v>43704</v>
+      </c>
+      <c r="AB48">
+        <v>37578</v>
+      </c>
+      <c r="AC48">
+        <v>6126</v>
+      </c>
+      <c r="AD48">
+        <v>20990</v>
+      </c>
       <c r="AE48">
         <v>64694</v>
       </c>
+      <c r="AF48">
+        <v>58568</v>
+      </c>
+      <c r="AG48">
+        <v>6126</v>
+      </c>
       <c r="AH48">
         <v>8160.439337314572</v>
       </c>
@@ -5301,11 +6966,20 @@
       <c r="AK48">
         <v>-56533.56066268543</v>
       </c>
+      <c r="AL48">
+        <v>-80188.64392217298</v>
+      </c>
+      <c r="AM48">
+        <v>23655.08325948758</v>
+      </c>
       <c r="AP48">
         <v>263842.17</v>
       </c>
       <c r="AQ48">
         <v>0.5825611655905845</v>
+      </c>
+      <c r="AR48">
+        <v>0.1656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -5381,12 +7055,36 @@
       <c r="W49">
         <v>65402</v>
       </c>
+      <c r="X49">
+        <v>59320</v>
+      </c>
+      <c r="Y49">
+        <v>6082</v>
+      </c>
       <c r="Z49">
         <v>559</v>
       </c>
+      <c r="AA49">
+        <v>43911</v>
+      </c>
+      <c r="AB49">
+        <v>37829</v>
+      </c>
+      <c r="AC49">
+        <v>6082</v>
+      </c>
+      <c r="AD49">
+        <v>20932</v>
+      </c>
       <c r="AE49">
         <v>64843</v>
       </c>
+      <c r="AF49">
+        <v>58761</v>
+      </c>
+      <c r="AG49">
+        <v>6082</v>
+      </c>
       <c r="AH49">
         <v>7775.402458343117</v>
       </c>
@@ -5399,6 +7097,15 @@
       <c r="AK49">
         <v>-57067.59754165688</v>
       </c>
+      <c r="AL49">
+        <v>-80444.23980579675</v>
+      </c>
+      <c r="AM49">
+        <v>23376.64226413988</v>
+      </c>
+      <c r="AN49">
+        <v>-81003.23980579675</v>
+      </c>
       <c r="AO49">
         <v>167069.5975416569</v>
       </c>
@@ -5407,6 +7114,9 @@
       </c>
       <c r="AQ49">
         <v>0.5924819312336102</v>
+      </c>
+      <c r="AR49">
+        <v>0.1684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -5482,12 +7192,36 @@
       <c r="W50">
         <v>65011</v>
       </c>
+      <c r="X50">
+        <v>59441</v>
+      </c>
+      <c r="Y50">
+        <v>5570</v>
+      </c>
       <c r="Z50">
         <v>812</v>
       </c>
+      <c r="AA50">
+        <v>43133</v>
+      </c>
+      <c r="AB50">
+        <v>37563</v>
+      </c>
+      <c r="AC50">
+        <v>5570</v>
+      </c>
+      <c r="AD50">
+        <v>21066</v>
+      </c>
       <c r="AE50">
         <v>64199</v>
       </c>
+      <c r="AF50">
+        <v>58629</v>
+      </c>
+      <c r="AG50">
+        <v>5570</v>
+      </c>
       <c r="AH50">
         <v>7353.03205317579</v>
       </c>
@@ -5500,6 +7234,15 @@
       <c r="AK50">
         <v>-56845.96794682421</v>
       </c>
+      <c r="AL50">
+        <v>-80786.90169867058</v>
+      </c>
+      <c r="AM50">
+        <v>23940.93375184638</v>
+      </c>
+      <c r="AN50">
+        <v>-81598.90169867058</v>
+      </c>
       <c r="AO50">
         <v>167205.9679468242</v>
       </c>
@@ -5508,6 +7251,9 @@
       </c>
       <c r="AQ50">
         <v>0.5860353452367911</v>
+      </c>
+      <c r="AR50">
+        <v>0.1650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -5583,12 +7329,36 @@
       <c r="W51">
         <v>65698</v>
       </c>
+      <c r="X51">
+        <v>60026</v>
+      </c>
+      <c r="Y51">
+        <v>5672</v>
+      </c>
       <c r="Z51">
         <v>817</v>
       </c>
+      <c r="AA51">
+        <v>43805</v>
+      </c>
+      <c r="AB51">
+        <v>38133</v>
+      </c>
+      <c r="AC51">
+        <v>5672</v>
+      </c>
+      <c r="AD51">
+        <v>21076</v>
+      </c>
       <c r="AE51">
         <v>64881</v>
       </c>
+      <c r="AF51">
+        <v>59209</v>
+      </c>
+      <c r="AG51">
+        <v>5672</v>
+      </c>
       <c r="AH51">
         <v>9086.341268011092</v>
       </c>
@@ -5601,6 +7371,15 @@
       <c r="AK51">
         <v>-55794.65873198891</v>
       </c>
+      <c r="AL51">
+        <v>-80137.28956118753</v>
+      </c>
+      <c r="AM51">
+        <v>24342.63082919862</v>
+      </c>
+      <c r="AN51">
+        <v>-80954.28956118753</v>
+      </c>
       <c r="AO51">
         <v>166424.6587319889</v>
       </c>
@@ -5609,6 +7388,9 @@
       </c>
       <c r="AQ51">
         <v>0.5908316865944834</v>
+      </c>
+      <c r="AR51">
+        <v>0.1687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -5684,12 +7466,36 @@
       <c r="W52">
         <v>65432</v>
       </c>
+      <c r="X52">
+        <v>60151</v>
+      </c>
+      <c r="Y52">
+        <v>5281</v>
+      </c>
       <c r="Z52">
         <v>822</v>
       </c>
+      <c r="AA52">
+        <v>43702</v>
+      </c>
+      <c r="AB52">
+        <v>38421</v>
+      </c>
+      <c r="AC52">
+        <v>5281</v>
+      </c>
+      <c r="AD52">
+        <v>20908</v>
+      </c>
       <c r="AE52">
         <v>64610</v>
       </c>
+      <c r="AF52">
+        <v>59329</v>
+      </c>
+      <c r="AG52">
+        <v>5281</v>
+      </c>
       <c r="AH52">
         <v>10347.75840861608</v>
       </c>
@@ -5702,6 +7508,15 @@
       <c r="AK52">
         <v>-54262.24159138392</v>
       </c>
+      <c r="AL52">
+        <v>-78330.16100697407</v>
+      </c>
+      <c r="AM52">
+        <v>24067.91941559015</v>
+      </c>
+      <c r="AN52">
+        <v>-79152.16100697407</v>
+      </c>
       <c r="AO52">
         <v>165297.2415913839</v>
       </c>
@@ -5710,6 +7525,9 @@
       </c>
       <c r="AQ52">
         <v>0.5862284848429858</v>
+      </c>
+      <c r="AR52">
+        <v>0.1711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -5785,12 +7603,36 @@
       <c r="W53">
         <v>67122</v>
       </c>
+      <c r="X53">
+        <v>61518</v>
+      </c>
+      <c r="Y53">
+        <v>5604</v>
+      </c>
       <c r="Z53">
         <v>563</v>
       </c>
+      <c r="AA53">
+        <v>42847</v>
+      </c>
+      <c r="AB53">
+        <v>37243</v>
+      </c>
+      <c r="AC53">
+        <v>5604</v>
+      </c>
+      <c r="AD53">
+        <v>23712</v>
+      </c>
       <c r="AE53">
         <v>66559</v>
       </c>
+      <c r="AF53">
+        <v>60955</v>
+      </c>
+      <c r="AG53">
+        <v>5604</v>
+      </c>
       <c r="AH53">
         <v>16158.10506628892</v>
       </c>
@@ -5803,6 +7645,15 @@
       <c r="AK53">
         <v>-50400.89493371108</v>
       </c>
+      <c r="AL53">
+        <v>-74634.71294718282</v>
+      </c>
+      <c r="AM53">
+        <v>24233.81793969441</v>
+      </c>
+      <c r="AN53">
+        <v>-75197.71294718282</v>
+      </c>
       <c r="AO53">
         <v>165618.8949337111</v>
       </c>
@@ -5811,6 +7662,9 @@
       </c>
       <c r="AQ53">
         <v>0.5805154594217435</v>
+      </c>
+      <c r="AR53">
+        <v>0.1695880266032386</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -5886,12 +7740,36 @@
       <c r="W54">
         <v>64510</v>
       </c>
+      <c r="X54">
+        <v>59208</v>
+      </c>
+      <c r="Y54">
+        <v>5302</v>
+      </c>
       <c r="Z54">
         <v>563</v>
       </c>
+      <c r="AA54">
+        <v>40219</v>
+      </c>
+      <c r="AB54">
+        <v>34917</v>
+      </c>
+      <c r="AC54">
+        <v>5302</v>
+      </c>
+      <c r="AD54">
+        <v>23728</v>
+      </c>
       <c r="AE54">
         <v>63947</v>
       </c>
+      <c r="AF54">
+        <v>58645</v>
+      </c>
+      <c r="AG54">
+        <v>5302</v>
+      </c>
       <c r="AH54">
         <v>15619.12079336691</v>
       </c>
@@ -5904,6 +7782,15 @@
       <c r="AK54">
         <v>-48327.87920663309</v>
       </c>
+      <c r="AL54">
+        <v>-73501.6049127267</v>
+      </c>
+      <c r="AM54">
+        <v>25173.7256321958</v>
+      </c>
+      <c r="AN54">
+        <v>-74064.6049127267</v>
+      </c>
       <c r="AO54">
         <v>163737.8792066331</v>
       </c>
@@ -5912,6 +7799,9 @@
       </c>
       <c r="AQ54">
         <v>0.5568016578578456</v>
+      </c>
+      <c r="AR54">
+        <v>0.1603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -5987,12 +7877,36 @@
       <c r="W55">
         <v>63570</v>
       </c>
+      <c r="X55">
+        <v>59333</v>
+      </c>
+      <c r="Y55">
+        <v>4237</v>
+      </c>
       <c r="Z55">
         <v>567</v>
       </c>
+      <c r="AA55">
+        <v>39207</v>
+      </c>
+      <c r="AB55">
+        <v>34970</v>
+      </c>
+      <c r="AC55">
+        <v>4237</v>
+      </c>
+      <c r="AD55">
+        <v>23796</v>
+      </c>
       <c r="AE55">
         <v>63003</v>
       </c>
+      <c r="AF55">
+        <v>58766</v>
+      </c>
+      <c r="AG55">
+        <v>4237</v>
+      </c>
       <c r="AH55">
         <v>19607.87223876208</v>
       </c>
@@ -6005,6 +7919,15 @@
       <c r="AK55">
         <v>-43395.12776123792</v>
       </c>
+      <c r="AL55">
+        <v>-70969.26838681221</v>
+      </c>
+      <c r="AM55">
+        <v>27574.1406255743</v>
+      </c>
+      <c r="AN55">
+        <v>-71536.26838681221</v>
+      </c>
       <c r="AO55">
         <v>157972.1277612379</v>
       </c>
@@ -6013,6 +7936,9 @@
       </c>
       <c r="AQ55">
         <v>0.5526094202262959</v>
+      </c>
+      <c r="AR55">
+        <v>0.161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
@@ -6088,12 +8014,36 @@
       <c r="W56">
         <v>61901</v>
       </c>
+      <c r="X56">
+        <v>58410</v>
+      </c>
+      <c r="Y56">
+        <v>3491</v>
+      </c>
       <c r="Z56">
         <v>770</v>
       </c>
+      <c r="AA56">
+        <v>37191</v>
+      </c>
+      <c r="AB56">
+        <v>33700</v>
+      </c>
+      <c r="AC56">
+        <v>3491</v>
+      </c>
+      <c r="AD56">
+        <v>23940</v>
+      </c>
       <c r="AE56">
         <v>61131</v>
       </c>
+      <c r="AF56">
+        <v>57640</v>
+      </c>
+      <c r="AG56">
+        <v>3491</v>
+      </c>
       <c r="AH56">
         <v>17975.91939518282</v>
       </c>
@@ -6106,6 +8056,15 @@
       <c r="AK56">
         <v>-43155.08060481718</v>
       </c>
+      <c r="AL56">
+        <v>-72298.76327253309</v>
+      </c>
+      <c r="AM56">
+        <v>29143.68252719148</v>
+      </c>
+      <c r="AN56">
+        <v>-73068.76327253309</v>
+      </c>
       <c r="AO56">
         <v>157068.0806048172</v>
       </c>
@@ -6114,6 +8073,9 @@
       </c>
       <c r="AQ56">
         <v>0.5402985602290906</v>
+      </c>
+      <c r="AR56">
+        <v>0.1529121707866666</v>
       </c>
       <c r="AS56">
         <v>14.2324</v>
@@ -6186,9 +8148,30 @@
       <c r="V57">
         <v>942.9275793650794</v>
       </c>
+      <c r="Y57">
+        <v>3352</v>
+      </c>
+      <c r="AA57">
+        <v>36917</v>
+      </c>
+      <c r="AB57">
+        <v>33565</v>
+      </c>
+      <c r="AC57">
+        <v>3352</v>
+      </c>
+      <c r="AD57">
+        <v>23878</v>
+      </c>
       <c r="AE57">
         <v>60795</v>
       </c>
+      <c r="AF57">
+        <v>57443</v>
+      </c>
+      <c r="AG57">
+        <v>3352</v>
+      </c>
       <c r="AH57">
         <v>17976.1543367347</v>
       </c>
@@ -6201,11 +8184,20 @@
       <c r="AK57">
         <v>-42818.8456632653</v>
       </c>
+      <c r="AL57">
+        <v>-71631.46315192744</v>
+      </c>
+      <c r="AM57">
+        <v>28812.61734693878</v>
+      </c>
       <c r="AP57">
         <v>240549.96</v>
       </c>
       <c r="AQ57">
         <v>0.5513785597678215</v>
+      </c>
+      <c r="AR57">
+        <v>0.1534691587560439</v>
       </c>
       <c r="AS57">
         <v>14.112</v>
@@ -6278,9 +8270,30 @@
       <c r="V58">
         <v>785.6953233628378</v>
       </c>
+      <c r="Y58">
+        <v>3706</v>
+      </c>
+      <c r="AA58">
+        <v>35847</v>
+      </c>
+      <c r="AB58">
+        <v>32141</v>
+      </c>
+      <c r="AC58">
+        <v>3706</v>
+      </c>
+      <c r="AD58">
+        <v>23894</v>
+      </c>
       <c r="AE58">
         <v>59741</v>
       </c>
+      <c r="AF58">
+        <v>56035</v>
+      </c>
+      <c r="AG58">
+        <v>3706</v>
+      </c>
       <c r="AH58">
         <v>15675.86797571811</v>
       </c>
@@ -6293,11 +8306,20 @@
       <c r="AK58">
         <v>-44065.13202428189</v>
       </c>
+      <c r="AL58">
+        <v>-73840.39257978094</v>
+      </c>
+      <c r="AM58">
+        <v>29775.26048767254</v>
+      </c>
       <c r="AP58">
         <v>242730.9</v>
       </c>
       <c r="AQ58">
         <v>0.548772310151291</v>
+      </c>
+      <c r="AR58">
+        <v>0.1476820627287255</v>
       </c>
       <c r="AS58">
         <v>14.7435</v>
@@ -6370,9 +8392,30 @@
       <c r="V59">
         <v>642.3187931586876</v>
       </c>
+      <c r="Y59">
+        <v>3629</v>
+      </c>
+      <c r="AA59">
+        <v>38858</v>
+      </c>
+      <c r="AB59">
+        <v>35229</v>
+      </c>
+      <c r="AC59">
+        <v>3629</v>
+      </c>
+      <c r="AD59">
+        <v>23646</v>
+      </c>
       <c r="AE59">
         <v>62504</v>
       </c>
+      <c r="AF59">
+        <v>58875</v>
+      </c>
+      <c r="AG59">
+        <v>3629</v>
+      </c>
       <c r="AH59">
         <v>17024.47288628944</v>
       </c>
@@ -6385,11 +8428,20 @@
       <c r="AK59">
         <v>-45479.52711371056</v>
       </c>
+      <c r="AL59">
+        <v>-74663.57977327415</v>
+      </c>
+      <c r="AM59">
+        <v>29184.05265956359</v>
+      </c>
       <c r="AP59">
         <v>243057.06</v>
       </c>
       <c r="AQ59">
         <v>0.5749767724249588</v>
+      </c>
+      <c r="AR59">
+        <v>0.1598719247241779</v>
       </c>
       <c r="AS59">
         <v>14.6697</v>
@@ -6462,9 +8514,30 @@
       <c r="V60">
         <v>629.4280664355007</v>
       </c>
+      <c r="Y60">
+        <v>3711</v>
+      </c>
+      <c r="AA60">
+        <v>38838</v>
+      </c>
+      <c r="AB60">
+        <v>35127</v>
+      </c>
+      <c r="AC60">
+        <v>3711</v>
+      </c>
+      <c r="AD60">
+        <v>23636</v>
+      </c>
       <c r="AE60">
         <v>62474</v>
       </c>
+      <c r="AF60">
+        <v>58763</v>
+      </c>
+      <c r="AG60">
+        <v>3711</v>
+      </c>
       <c r="AH60">
         <v>15772.29862244827</v>
       </c>
@@ -6477,11 +8550,20 @@
       <c r="AK60">
         <v>-46701.70137755173</v>
       </c>
+      <c r="AL60">
+        <v>-75986.35690867144</v>
+      </c>
+      <c r="AM60">
+        <v>29284.65553111972</v>
+      </c>
       <c r="AP60">
         <v>244914.74</v>
       </c>
       <c r="AQ60">
         <v>0.5782702062275538</v>
+      </c>
+      <c r="AR60">
+        <v>0.1585776339962225</v>
       </c>
       <c r="AS60">
         <v>14.8234</v>
@@ -6554,9 +8636,30 @@
       <c r="V61">
         <v>644.0719131521954</v>
       </c>
+      <c r="Y61">
+        <v>3780</v>
+      </c>
+      <c r="AA61">
+        <v>38246</v>
+      </c>
+      <c r="AB61">
+        <v>34466</v>
+      </c>
+      <c r="AC61">
+        <v>3780</v>
+      </c>
+      <c r="AD61">
+        <v>23651</v>
+      </c>
       <c r="AE61">
         <v>61897</v>
       </c>
+      <c r="AF61">
+        <v>58117</v>
+      </c>
+      <c r="AG61">
+        <v>3780</v>
+      </c>
       <c r="AH61">
         <v>16217.39894514626</v>
       </c>
@@ -6569,11 +8672,20 @@
       <c r="AK61">
         <v>-45679.60105485375</v>
       </c>
+      <c r="AL61">
+        <v>-74781.39672476106</v>
+      </c>
+      <c r="AM61">
+        <v>29101.79560158775</v>
+      </c>
       <c r="AP61">
         <v>243166.85</v>
       </c>
       <c r="AQ61">
         <v>0.5680656381641137</v>
+      </c>
+      <c r="AR61">
+        <v>0.157282952014224</v>
       </c>
       <c r="AS61">
         <v>14.6371</v>
@@ -6646,9 +8758,30 @@
       <c r="V62">
         <v>629.4970432279397</v>
       </c>
+      <c r="Y62">
+        <v>3785</v>
+      </c>
+      <c r="AA62">
+        <v>39406</v>
+      </c>
+      <c r="AB62">
+        <v>35621</v>
+      </c>
+      <c r="AC62">
+        <v>3785</v>
+      </c>
+      <c r="AD62">
+        <v>23644</v>
+      </c>
       <c r="AE62">
         <v>63050</v>
       </c>
+      <c r="AF62">
+        <v>59265</v>
+      </c>
+      <c r="AG62">
+        <v>3785</v>
+      </c>
       <c r="AH62">
         <v>18119.49262334594</v>
       </c>
@@ -6661,11 +8794,20 @@
       <c r="AK62">
         <v>-44930.50737665406</v>
       </c>
+      <c r="AL62">
+        <v>-74121.62382798444</v>
+      </c>
+      <c r="AM62">
+        <v>29191.11651922411</v>
+      </c>
       <c r="AP62">
         <v>243040.03</v>
       </c>
       <c r="AQ62">
         <v>0.5736459499049231</v>
+      </c>
+      <c r="AR62">
+        <v>0.1621378996702724</v>
       </c>
       <c r="AS62">
         <v>14.7289</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -795,9 +795,18 @@
       <c r="V3">
         <v>791.0103988378615</v>
       </c>
+      <c r="W3">
+        <v>58285</v>
+      </c>
+      <c r="X3">
+        <v>53065</v>
+      </c>
       <c r="Y3">
         <v>5220</v>
       </c>
+      <c r="Z3">
+        <v>1285</v>
+      </c>
       <c r="AA3">
         <v>39899</v>
       </c>
@@ -836,6 +845,12 @@
       </c>
       <c r="AM3">
         <v>23198.39512707294</v>
+      </c>
+      <c r="AN3">
+        <v>-69475.24540106722</v>
+      </c>
+      <c r="AO3">
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -917,9 +932,18 @@
       <c r="V4">
         <v>370.5564206662588</v>
       </c>
+      <c r="W4">
+        <v>59426</v>
+      </c>
+      <c r="X4">
+        <v>54251</v>
+      </c>
       <c r="Y4">
         <v>5175</v>
       </c>
+      <c r="Z4">
+        <v>1426</v>
+      </c>
       <c r="AA4">
         <v>40389</v>
       </c>
@@ -958,6 +982,12 @@
       </c>
       <c r="AM4">
         <v>24141.60010566709</v>
+      </c>
+      <c r="AN4">
+        <v>-69806.96607530171</v>
+      </c>
+      <c r="AO4">
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -6930,9 +6960,18 @@
       <c r="V48">
         <v>456.7588518589867</v>
       </c>
+      <c r="W48">
+        <v>65768</v>
+      </c>
+      <c r="X48">
+        <v>59642</v>
+      </c>
       <c r="Y48">
         <v>6126</v>
       </c>
+      <c r="Z48">
+        <v>1074</v>
+      </c>
       <c r="AA48">
         <v>43704</v>
       </c>
@@ -6971,6 +7010,12 @@
       </c>
       <c r="AM48">
         <v>23655.08325948758</v>
+      </c>
+      <c r="AN48">
+        <v>-81262.64392217298</v>
+      </c>
+      <c r="AO48">
+        <v>168658.5606626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -8148,9 +8193,18 @@
       <c r="V57">
         <v>942.9275793650794</v>
       </c>
+      <c r="W57">
+        <v>61934</v>
+      </c>
+      <c r="X57">
+        <v>58582</v>
+      </c>
       <c r="Y57">
         <v>3352</v>
       </c>
+      <c r="Z57">
+        <v>1139</v>
+      </c>
       <c r="AA57">
         <v>36917</v>
       </c>
@@ -8189,6 +8243,12 @@
       </c>
       <c r="AM57">
         <v>28812.61734693878</v>
+      </c>
+      <c r="AN57">
+        <v>-72770.46315192744</v>
+      </c>
+      <c r="AO57">
+        <v>154217.8456632653</v>
       </c>
       <c r="AP57">
         <v>240549.96</v>
@@ -8270,9 +8330,18 @@
       <c r="V58">
         <v>785.6953233628378</v>
       </c>
+      <c r="W58">
+        <v>61093</v>
+      </c>
+      <c r="X58">
+        <v>57387</v>
+      </c>
       <c r="Y58">
         <v>3706</v>
       </c>
+      <c r="Z58">
+        <v>1352</v>
+      </c>
       <c r="AA58">
         <v>35847</v>
       </c>
@@ -8311,6 +8380,12 @@
       </c>
       <c r="AM58">
         <v>29775.26048767254</v>
+      </c>
+      <c r="AN58">
+        <v>-75192.39257978094</v>
+      </c>
+      <c r="AO58">
+        <v>154280.1320242819</v>
       </c>
       <c r="AP58">
         <v>242730.9</v>
@@ -8392,9 +8467,18 @@
       <c r="V59">
         <v>642.3187931586876</v>
       </c>
+      <c r="W59">
+        <v>63936</v>
+      </c>
+      <c r="X59">
+        <v>60307</v>
+      </c>
       <c r="Y59">
         <v>3629</v>
       </c>
+      <c r="Z59">
+        <v>1432</v>
+      </c>
       <c r="AA59">
         <v>38858</v>
       </c>
@@ -8433,6 +8517,12 @@
       </c>
       <c r="AM59">
         <v>29184.05265956359</v>
+      </c>
+      <c r="AN59">
+        <v>-76095.57977327415</v>
+      </c>
+      <c r="AO59">
+        <v>155618.5271137106</v>
       </c>
       <c r="AP59">
         <v>243057.06</v>
@@ -8514,9 +8604,18 @@
       <c r="V60">
         <v>629.4280664355007</v>
       </c>
+      <c r="W60">
+        <v>63906</v>
+      </c>
+      <c r="X60">
+        <v>60195</v>
+      </c>
       <c r="Y60">
         <v>3711</v>
       </c>
+      <c r="Z60">
+        <v>1432</v>
+      </c>
       <c r="AA60">
         <v>38838</v>
       </c>
@@ -8555,6 +8654,12 @@
       </c>
       <c r="AM60">
         <v>29284.65553111972</v>
+      </c>
+      <c r="AN60">
+        <v>-77418.35690867144</v>
+      </c>
+      <c r="AO60">
+        <v>156169.7013775517</v>
       </c>
       <c r="AP60">
         <v>244914.74</v>
@@ -8636,9 +8741,18 @@
       <c r="V61">
         <v>644.0719131521954</v>
       </c>
+      <c r="W61">
+        <v>63012</v>
+      </c>
+      <c r="X61">
+        <v>59232</v>
+      </c>
       <c r="Y61">
         <v>3780</v>
       </c>
+      <c r="Z61">
+        <v>1115</v>
+      </c>
       <c r="AA61">
         <v>38246</v>
       </c>
@@ -8677,6 +8791,12 @@
       </c>
       <c r="AM61">
         <v>29101.79560158775</v>
+      </c>
+      <c r="AN61">
+        <v>-75896.39672476106</v>
+      </c>
+      <c r="AO61">
+        <v>155755.6010548538</v>
       </c>
       <c r="AP61">
         <v>243166.85</v>
@@ -8758,9 +8878,18 @@
       <c r="V62">
         <v>629.4970432279397</v>
       </c>
+      <c r="W62">
+        <v>64165</v>
+      </c>
+      <c r="X62">
+        <v>60380</v>
+      </c>
       <c r="Y62">
         <v>3785</v>
       </c>
+      <c r="Z62">
+        <v>1115</v>
+      </c>
       <c r="AA62">
         <v>39406</v>
       </c>
@@ -8799,6 +8928,12 @@
       </c>
       <c r="AM62">
         <v>29191.11651922411</v>
+      </c>
+      <c r="AN62">
+        <v>-75236.62382798444</v>
+      </c>
+      <c r="AO62">
+        <v>155956.5073766541</v>
       </c>
       <c r="AP62">
         <v>243040.03</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS62"/>
+  <dimension ref="A1:AS63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8948,6 +8948,143 @@
         <v>14.7289</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B63">
+        <v>112296</v>
+      </c>
+      <c r="C63">
+        <v>61435.03236416712</v>
+      </c>
+      <c r="D63">
+        <v>43260</v>
+      </c>
+      <c r="E63">
+        <v>7600.967635832883</v>
+      </c>
+      <c r="F63">
+        <v>7238.020598493829</v>
+      </c>
+      <c r="G63">
+        <v>54197.01176567329</v>
+      </c>
+      <c r="H63">
+        <v>93356.41801374604</v>
+      </c>
+      <c r="I63">
+        <v>83941.82056149055</v>
+      </c>
+      <c r="J63">
+        <v>9414.597589304682</v>
+      </c>
+      <c r="K63">
+        <v>255.2506972377735</v>
+      </c>
+      <c r="L63">
+        <v>7600.967635832883</v>
+      </c>
+      <c r="M63">
+        <v>5873.09141866473</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>79627.10826201065</v>
+      </c>
+      <c r="P63">
+        <v>50293.52956493734</v>
+      </c>
+      <c r="Q63">
+        <v>41488.61792740505</v>
+      </c>
+      <c r="R63">
+        <v>8804.91170605689</v>
+      </c>
+      <c r="S63">
+        <v>29333.57869707332</v>
+      </c>
+      <c r="T63">
+        <v>28057.22208136611</v>
+      </c>
+      <c r="U63">
+        <v>666.6708009840132</v>
+      </c>
+      <c r="V63">
+        <v>609.6858832477918</v>
+      </c>
+      <c r="W63">
+        <v>64765</v>
+      </c>
+      <c r="X63">
+        <v>60965</v>
+      </c>
+      <c r="Y63">
+        <v>3800</v>
+      </c>
+      <c r="Z63">
+        <v>1115</v>
+      </c>
+      <c r="AA63">
+        <v>39966</v>
+      </c>
+      <c r="AB63">
+        <v>36166</v>
+      </c>
+      <c r="AC63">
+        <v>3800</v>
+      </c>
+      <c r="AD63">
+        <v>23684</v>
+      </c>
+      <c r="AE63">
+        <v>63650</v>
+      </c>
+      <c r="AF63">
+        <v>59850</v>
+      </c>
+      <c r="AG63">
+        <v>3800</v>
+      </c>
+      <c r="AH63">
+        <v>18939.58198625398</v>
+      </c>
+      <c r="AI63">
+        <v>-14905.82056149055</v>
+      </c>
+      <c r="AJ63">
+        <v>33845.40241069532</v>
+      </c>
+      <c r="AK63">
+        <v>-44710.41801374602</v>
+      </c>
+      <c r="AL63">
+        <v>-74755.82056149055</v>
+      </c>
+      <c r="AM63">
+        <v>30045.40241069532</v>
+      </c>
+      <c r="AN63">
+        <v>-75870.82056149055</v>
+      </c>
+      <c r="AO63">
+        <v>158121.418013746</v>
+      </c>
+      <c r="AP63">
+        <v>244494.62</v>
+      </c>
+      <c r="AQ63">
+        <v>0.5668055852390111</v>
+      </c>
+      <c r="AR63">
+        <v>0.1634637195697803</v>
+      </c>
+      <c r="AS63">
+        <v>14.5933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS63"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9085,6 +9085,143 @@
         <v>14.5933</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B64">
+        <v>108915</v>
+      </c>
+      <c r="C64">
+        <v>58518.26162136353</v>
+      </c>
+      <c r="D64">
+        <v>42820</v>
+      </c>
+      <c r="E64">
+        <v>7576.738378636473</v>
+      </c>
+      <c r="F64">
+        <v>7181.256437365711</v>
+      </c>
+      <c r="G64">
+        <v>51337.00518399782</v>
+      </c>
+      <c r="H64">
+        <v>91955.33003649261</v>
+      </c>
+      <c r="I64">
+        <v>82657.30970976432</v>
+      </c>
+      <c r="J64">
+        <v>9298.020258517785</v>
+      </c>
+      <c r="K64">
+        <v>255.003717472119</v>
+      </c>
+      <c r="L64">
+        <v>7576.738378636473</v>
+      </c>
+      <c r="M64">
+        <v>5874.015961256438</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>78249.57197912759</v>
+      </c>
+      <c r="P64">
+        <v>50190.32788786194</v>
+      </c>
+      <c r="Q64">
+        <v>41495.55581323966</v>
+      </c>
+      <c r="R64">
+        <v>8694.772074622284</v>
+      </c>
+      <c r="S64">
+        <v>28059.24402305515</v>
+      </c>
+      <c r="T64">
+        <v>26789.0866614372</v>
+      </c>
+      <c r="U64">
+        <v>666.9091777224514</v>
+      </c>
+      <c r="V64">
+        <v>603.2481838955015</v>
+      </c>
+      <c r="W64">
+        <v>65159</v>
+      </c>
+      <c r="X64">
+        <v>61365</v>
+      </c>
+      <c r="Y64">
+        <v>3794</v>
+      </c>
+      <c r="Z64">
+        <v>1115</v>
+      </c>
+      <c r="AA64">
+        <v>40457</v>
+      </c>
+      <c r="AB64">
+        <v>36663</v>
+      </c>
+      <c r="AC64">
+        <v>3794</v>
+      </c>
+      <c r="AD64">
+        <v>23587</v>
+      </c>
+      <c r="AE64">
+        <v>64044</v>
+      </c>
+      <c r="AF64">
+        <v>60250</v>
+      </c>
+      <c r="AG64">
+        <v>3794</v>
+      </c>
+      <c r="AH64">
+        <v>16959.66996350738</v>
+      </c>
+      <c r="AI64">
+        <v>-16562.30970976432</v>
+      </c>
+      <c r="AJ64">
+        <v>33521.97974148222</v>
+      </c>
+      <c r="AK64">
+        <v>-47084.33003649263</v>
+      </c>
+      <c r="AL64">
+        <v>-76812.30970976432</v>
+      </c>
+      <c r="AM64">
+        <v>29727.97974148222</v>
+      </c>
+      <c r="AN64">
+        <v>-77927.30970976432</v>
+      </c>
+      <c r="AO64">
+        <v>157114.3300364926</v>
+      </c>
+      <c r="AP64">
+        <v>243960.55</v>
+      </c>
+      <c r="AQ64">
+        <v>0.5880181793141441</v>
+      </c>
+      <c r="AR64">
+        <v>0.1658341891752581</v>
+      </c>
+      <c r="AS64">
+        <v>14.6605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>55099</v>
+        <v>60652.44100000001</v>
       </c>
       <c r="Y2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44039</v>
+        <v>44.039</v>
       </c>
       <c r="AB2">
-        <v>38480</v>
+        <v>38.48</v>
       </c>
       <c r="AC2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AD2">
-        <v>15222</v>
+        <v>59216.961</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>53702</v>
+        <v>59255.441</v>
       </c>
       <c r="AG2">
-        <v>5559</v>
+        <v>5.559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-72057.23398118447</v>
+        <v>-77610.67498118448</v>
       </c>
       <c r="AM2">
-        <v>27184.78661347279</v>
+        <v>32738.22761347279</v>
       </c>
       <c r="AN2">
-        <v>-73454.23398118447</v>
+        <v>-79007.67498118448</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.1669603451077423</v>
+        <v>0.0001669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>58285</v>
+        <v>57001.285</v>
       </c>
       <c r="X3">
-        <v>53065</v>
+        <v>56996.065</v>
       </c>
       <c r="Y3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="Z3">
-        <v>1285</v>
+        <v>1.285</v>
       </c>
       <c r="AA3">
-        <v>39899</v>
+        <v>39.899</v>
       </c>
       <c r="AB3">
-        <v>34679</v>
+        <v>34.679</v>
       </c>
       <c r="AC3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AD3">
-        <v>17101</v>
+        <v>56960.101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>51780</v>
+        <v>56994.78</v>
       </c>
       <c r="AG3">
-        <v>5220</v>
+        <v>5.22</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-68190.24540106722</v>
+        <v>-73405.02540106722</v>
       </c>
       <c r="AM3">
-        <v>23198.39512707294</v>
+        <v>28413.17512707294</v>
       </c>
       <c r="AN3">
-        <v>-69475.24540106722</v>
+        <v>-73406.31040106723</v>
       </c>
       <c r="AO3">
-        <v>140324.8501301653</v>
+        <v>139041.1351301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.1508809417808459</v>
+        <v>0.0001508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>59426</v>
+        <v>58001.426</v>
       </c>
       <c r="X4">
-        <v>54251</v>
+        <v>57996.251</v>
       </c>
       <c r="Y4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z4">
-        <v>1426</v>
+        <v>1.426</v>
       </c>
       <c r="AA4">
-        <v>40389</v>
+        <v>40.389</v>
       </c>
       <c r="AB4">
-        <v>35214</v>
+        <v>35.21400000000001</v>
       </c>
       <c r="AC4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD4">
-        <v>17611</v>
+        <v>57959.611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>52825</v>
+        <v>57994.825</v>
       </c>
       <c r="AG4">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-68380.96607530171</v>
+        <v>-73550.79107530171</v>
       </c>
       <c r="AM4">
-        <v>24141.60010566709</v>
+        <v>29311.4251056671</v>
       </c>
       <c r="AN4">
-        <v>-69806.96607530171</v>
+        <v>-73552.21707530171</v>
       </c>
       <c r="AO4">
-        <v>140878.3659696346</v>
+        <v>139453.7919696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.1540216666830645</v>
+        <v>0.0001540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>53490</v>
+        <v>58680.804</v>
       </c>
       <c r="Y5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40305</v>
+        <v>40.305</v>
       </c>
       <c r="AB5">
-        <v>35109</v>
+        <v>35.109</v>
       </c>
       <c r="AC5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AD5">
-        <v>17395</v>
+        <v>57659.695</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>52504</v>
+        <v>57694.804</v>
       </c>
       <c r="AG5">
-        <v>5196</v>
+        <v>5.196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-67715.74027159036</v>
+        <v>-72906.54427159036</v>
       </c>
       <c r="AM5">
-        <v>21455.04213407761</v>
+        <v>26645.84613407761</v>
       </c>
       <c r="AN5">
-        <v>-68701.74027159036</v>
+        <v>-73892.54427159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.1552733834376522</v>
+        <v>0.0001552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>53411</v>
+        <v>58580.825</v>
       </c>
       <c r="Y6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40170</v>
+        <v>40.17</v>
       </c>
       <c r="AB6">
-        <v>34995</v>
+        <v>34.99500000000001</v>
       </c>
       <c r="AC6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AD6">
-        <v>17430</v>
+        <v>57559.83</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>52425</v>
+        <v>57594.825</v>
       </c>
       <c r="AG6">
-        <v>5175</v>
+        <v>5.175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-68618.66730247428</v>
+        <v>-73788.49230247428</v>
       </c>
       <c r="AM6">
-        <v>21837.21035381351</v>
+        <v>27007.03535381351</v>
       </c>
       <c r="AN6">
-        <v>-69604.66730247428</v>
+        <v>-74774.49230247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.1548523844684408</v>
+        <v>0.0001548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>57837</v>
+        <v>63080.751</v>
       </c>
       <c r="Y7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44786</v>
+        <v>44.786</v>
       </c>
       <c r="AB7">
-        <v>39537</v>
+        <v>39.537</v>
       </c>
       <c r="AC7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AD7">
-        <v>17314</v>
+        <v>62055.214</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>56851</v>
+        <v>62094.751</v>
       </c>
       <c r="AG7">
-        <v>5249</v>
+        <v>5.249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-70479.84269105439</v>
+        <v>-75723.59369105438</v>
       </c>
       <c r="AM7">
-        <v>21918.61373419334</v>
+        <v>27162.36473419334</v>
       </c>
       <c r="AN7">
-        <v>-71465.84269105439</v>
+        <v>-76709.59369105438</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.1711286424205766</v>
+        <v>0.0001711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>55850</v>
+        <v>60980.86399999999</v>
       </c>
       <c r="Y8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42779</v>
+        <v>42.779</v>
       </c>
       <c r="AB8">
-        <v>37643</v>
+        <v>37.643</v>
       </c>
       <c r="AC8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD8">
-        <v>17221</v>
+        <v>59957.221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>54864</v>
+        <v>59994.864</v>
       </c>
       <c r="AG8">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-70677.94115276607</v>
+        <v>-75808.80515276607</v>
       </c>
       <c r="AM8">
-        <v>23327.26405067436</v>
+        <v>28458.12805067436</v>
       </c>
       <c r="AN8">
-        <v>-71663.94115276607</v>
+        <v>-76794.80515276606</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.169458761099947</v>
+        <v>0.000169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>55552</v>
+        <v>60734.81200000001</v>
       </c>
       <c r="Y9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42721</v>
+        <v>42.721</v>
       </c>
       <c r="AB9">
-        <v>37533</v>
+        <v>37.53299999999999</v>
       </c>
       <c r="AC9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AD9">
-        <v>17179</v>
+        <v>59857.279</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>54712</v>
+        <v>59894.812</v>
       </c>
       <c r="AG9">
-        <v>5188</v>
+        <v>5.188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-72433.78558752616</v>
+        <v>-77616.59758752617</v>
       </c>
       <c r="AM9">
-        <v>23076.11723597733</v>
+        <v>28258.92923597734</v>
       </c>
       <c r="AN9">
-        <v>-73273.78558752616</v>
+        <v>-78456.59758752617</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.1711120718583385</v>
+        <v>0.0001711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>54738</v>
+        <v>59934.798</v>
       </c>
       <c r="Y10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41961</v>
+        <v>41.961</v>
       </c>
       <c r="AB10">
-        <v>36759</v>
+        <v>36.759</v>
       </c>
       <c r="AC10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AD10">
-        <v>17139</v>
+        <v>59058.039</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>53898</v>
+        <v>59094.798</v>
       </c>
       <c r="AG10">
-        <v>5202</v>
+        <v>5.202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-72774.9737235948</v>
+        <v>-77971.77172359481</v>
       </c>
       <c r="AM10">
-        <v>23464.00338575529</v>
+        <v>28660.80138575529</v>
       </c>
       <c r="AN10">
-        <v>-73614.9737235948</v>
+        <v>-78811.77172359479</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.1668596216735144</v>
+        <v>0.0001668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>55171</v>
+        <v>60434.731</v>
       </c>
       <c r="Y11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42328</v>
+        <v>42.328</v>
       </c>
       <c r="AB11">
-        <v>37059</v>
+        <v>37.05900000000001</v>
       </c>
       <c r="AC11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AD11">
-        <v>17272</v>
+        <v>59557.672</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>54331</v>
+        <v>59594.731</v>
       </c>
       <c r="AG11">
-        <v>5269</v>
+        <v>5.269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-72793.09459207865</v>
+        <v>-78056.82559207865</v>
       </c>
       <c r="AM11">
-        <v>23639.65025382601</v>
+        <v>28903.38125382601</v>
       </c>
       <c r="AN11">
-        <v>-73633.09459207865</v>
+        <v>-78896.82559207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.1664977157503071</v>
+        <v>0.0001664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>55488</v>
+        <v>60634.848</v>
       </c>
       <c r="Y12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42432</v>
+        <v>42.432</v>
       </c>
       <c r="AB12">
-        <v>37280</v>
+        <v>37.28</v>
       </c>
       <c r="AC12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AD12">
-        <v>17368</v>
+        <v>59757.568</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>54648</v>
+        <v>59794.848</v>
       </c>
       <c r="AG12">
-        <v>5152</v>
+        <v>5.152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-71823.73229012988</v>
+        <v>-76970.58029012987</v>
       </c>
       <c r="AM12">
-        <v>24459.8238324425</v>
+        <v>29606.6718324425</v>
       </c>
       <c r="AN12">
-        <v>-72663.73229012988</v>
+        <v>-77810.58029012987</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.1676833298419065</v>
+        <v>0.0001676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>56034</v>
+        <v>61612.41600000001</v>
       </c>
       <c r="Y13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43217</v>
+        <v>43.217</v>
       </c>
       <c r="AB13">
-        <v>37633</v>
+        <v>37.633</v>
       </c>
       <c r="AC13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AD13">
-        <v>17483</v>
+        <v>60656.783</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>55116</v>
+        <v>60694.416</v>
       </c>
       <c r="AG13">
-        <v>5584</v>
+        <v>5.584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-73191.21739874988</v>
+        <v>-78769.63339874988</v>
       </c>
       <c r="AM13">
-        <v>24313.0468117378</v>
+        <v>29891.4628117378</v>
       </c>
       <c r="AN13">
-        <v>-74109.21739874988</v>
+        <v>-79687.6333987499</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.1708803606561344</v>
+        <v>0.0001708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>54793</v>
+        <v>60353.434</v>
       </c>
       <c r="Y14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42279</v>
+        <v>42.279</v>
       </c>
       <c r="AB14">
-        <v>36713</v>
+        <v>36.713</v>
       </c>
       <c r="AC14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AD14">
-        <v>17521</v>
+        <v>59757.721</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>54234</v>
+        <v>59794.434</v>
       </c>
       <c r="AG14">
-        <v>5566</v>
+        <v>5.566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-72314.3682068816</v>
+        <v>-77874.80220688161</v>
       </c>
       <c r="AM14">
-        <v>24453.2401579543</v>
+        <v>30013.6741579543</v>
       </c>
       <c r="AN14">
-        <v>-72873.3682068816</v>
+        <v>-78433.80220688161</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.1662283214938068</v>
+        <v>0.0001662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>54883</v>
+        <v>60453.424</v>
       </c>
       <c r="Y15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42298</v>
+        <v>42.298</v>
       </c>
       <c r="AB15">
-        <v>36722</v>
+        <v>36.722</v>
       </c>
       <c r="AC15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AD15">
-        <v>17602</v>
+        <v>59857.702</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>54324</v>
+        <v>59894.424</v>
       </c>
       <c r="AG15">
-        <v>5576</v>
+        <v>5.576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-72406.1377991239</v>
+        <v>-77976.5617991239</v>
       </c>
       <c r="AM15">
-        <v>25077.31254902434</v>
+        <v>30647.73654902434</v>
       </c>
       <c r="AN15">
-        <v>-72965.1377991239</v>
+        <v>-78535.5617991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.1658049822480322</v>
+        <v>0.0001658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>55083</v>
+        <v>60753.324</v>
       </c>
       <c r="Y16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42514</v>
+        <v>42.514</v>
       </c>
       <c r="AB16">
-        <v>36838</v>
+        <v>36.838</v>
       </c>
       <c r="AC16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AD16">
-        <v>17686</v>
+        <v>60157.486</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>54524</v>
+        <v>60194.324</v>
       </c>
       <c r="AG16">
-        <v>5676</v>
+        <v>5.676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-72812.30058908578</v>
+        <v>-78482.62458908578</v>
       </c>
       <c r="AM16">
-        <v>26027.58339805709</v>
+        <v>31697.90739805709</v>
       </c>
       <c r="AN16">
-        <v>-73371.30058908578</v>
+        <v>-79041.62458908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.1662293862306202</v>
+        <v>0.0001662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>54714</v>
+        <v>60553.155</v>
       </c>
       <c r="Y17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42317</v>
+        <v>42.317</v>
       </c>
       <c r="AB17">
-        <v>36472</v>
+        <v>36.472</v>
       </c>
       <c r="AC17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AD17">
-        <v>17683</v>
+        <v>59957.683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>54155</v>
+        <v>59994.155</v>
       </c>
       <c r="AG17">
-        <v>5845</v>
+        <v>5.845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-74231.46712047723</v>
+        <v>-80070.62212047723</v>
       </c>
       <c r="AM17">
-        <v>26436.55401254699</v>
+        <v>32275.70901254699</v>
       </c>
       <c r="AN17">
-        <v>-74790.46712047723</v>
+        <v>-80629.62212047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.1649499468883545</v>
+        <v>0.0001649499468883546</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>56537</v>
+        <v>62400.131</v>
       </c>
       <c r="Y18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44400</v>
+        <v>44.4</v>
       </c>
       <c r="AB18">
-        <v>38531</v>
+        <v>38.531</v>
       </c>
       <c r="AC18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AD18">
-        <v>17700</v>
+        <v>62055.6</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>56231</v>
+        <v>62094.131</v>
       </c>
       <c r="AG18">
-        <v>5869</v>
+        <v>5.869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-73931.67159142304</v>
+        <v>-79794.80259142304</v>
       </c>
       <c r="AM18">
-        <v>26369.5157078081</v>
+        <v>32232.6467078081</v>
       </c>
       <c r="AN18">
-        <v>-74237.67159142304</v>
+        <v>-80100.80259142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.1739791460131738</v>
+        <v>0.0001739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>57251</v>
+        <v>63206.039</v>
       </c>
       <c r="Y19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45204</v>
+        <v>45.204</v>
       </c>
       <c r="AB19">
-        <v>39243</v>
+        <v>39.243</v>
       </c>
       <c r="AC19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AD19">
-        <v>17702</v>
+        <v>62860.796</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>56945</v>
+        <v>62900.039</v>
       </c>
       <c r="AG19">
-        <v>5961</v>
+        <v>5.961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-73753.18434470714</v>
+        <v>-79708.22334470713</v>
       </c>
       <c r="AM19">
-        <v>25618.44426992369</v>
+        <v>31573.48326992369</v>
       </c>
       <c r="AN19">
-        <v>-74059.18434470714</v>
+        <v>-80014.22334470715</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.1764507289522178</v>
+        <v>0.0001764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>60793</v>
+        <v>66712.075</v>
       </c>
       <c r="Y20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45735</v>
+        <v>45.735</v>
       </c>
       <c r="AB20">
-        <v>39810</v>
+        <v>39.81</v>
       </c>
       <c r="AC20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AD20">
-        <v>20677</v>
+        <v>66366.265</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>60487</v>
+        <v>66406.075</v>
       </c>
       <c r="AG20">
-        <v>5925</v>
+        <v>5.925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-72506.33290817805</v>
+        <v>-78425.40790817805</v>
       </c>
       <c r="AM20">
-        <v>24403.19305914683</v>
+        <v>30322.26805914683</v>
       </c>
       <c r="AN20">
-        <v>-72812.33290817805</v>
+        <v>-78731.40790817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.1803540333704058</v>
+        <v>0.0001803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>60931</v>
+        <v>66541.38400000001</v>
       </c>
       <c r="Y21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45503</v>
+        <v>45.503</v>
       </c>
       <c r="AB21">
-        <v>39887</v>
+        <v>39.887</v>
       </c>
       <c r="AC21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AD21">
-        <v>20738</v>
+        <v>66195.497</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>60625</v>
+        <v>66235.38400000001</v>
       </c>
       <c r="AG21">
-        <v>5616</v>
+        <v>5.616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-69552.41942189324</v>
+        <v>-75162.80342189324</v>
       </c>
       <c r="AM21">
-        <v>24082.70144237987</v>
+        <v>29693.08544237987</v>
       </c>
       <c r="AN21">
-        <v>-69858.41942189324</v>
+        <v>-75468.80342189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.1788816849968338</v>
+        <v>0.0001788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>59917</v>
+        <v>65472.439</v>
       </c>
       <c r="Y22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44766</v>
+        <v>44.766</v>
       </c>
       <c r="AB22">
-        <v>39205</v>
+        <v>39.205</v>
       </c>
       <c r="AC22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AD22">
-        <v>20478</v>
+        <v>65199.234</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>59683</v>
+        <v>65238.439</v>
       </c>
       <c r="AG22">
-        <v>5561</v>
+        <v>5.561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-69045.32777060669</v>
+        <v>-74600.76677060669</v>
       </c>
       <c r="AM22">
-        <v>24088.08457034852</v>
+        <v>29643.52357034852</v>
       </c>
       <c r="AN22">
-        <v>-69279.32777060669</v>
+        <v>-74834.76677060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.1766020195024396</v>
+        <v>0.0001766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>60032</v>
+        <v>65534.492</v>
       </c>
       <c r="Y23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44508</v>
+        <v>44.508</v>
       </c>
       <c r="AB23">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="AC23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AD23">
-        <v>20798</v>
+        <v>65261.492</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>59798</v>
+        <v>65300.492</v>
       </c>
       <c r="AG23">
-        <v>5508</v>
+        <v>5.508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-66639.01426318394</v>
+        <v>-72141.50626318394</v>
       </c>
       <c r="AM23">
-        <v>24438.37666777948</v>
+        <v>29940.86866777948</v>
       </c>
       <c r="AN23">
-        <v>-66873.01426318394</v>
+        <v>-72375.50626318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.1739509438640434</v>
+        <v>0.0001739509438640435</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>60263</v>
+        <v>65782.47500000001</v>
       </c>
       <c r="Y24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB24">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD24">
-        <v>20783</v>
+        <v>65509.229</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>60029</v>
+        <v>65548.47500000001</v>
       </c>
       <c r="AG24">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-66265.13196242585</v>
+        <v>-71784.60696242585</v>
       </c>
       <c r="AM24">
-        <v>24700.713119608</v>
+        <v>30220.188119608</v>
       </c>
       <c r="AN24">
-        <v>-66499.13196242585</v>
+        <v>-72018.60696242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.1739517687628455</v>
+        <v>0.0001739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>60109</v>
+        <v>65628.47500000001</v>
       </c>
       <c r="Y25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44771</v>
+        <v>44.771</v>
       </c>
       <c r="AB25">
-        <v>39246</v>
+        <v>39.246</v>
       </c>
       <c r="AC25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD25">
-        <v>20629</v>
+        <v>65355.229</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>59875</v>
+        <v>65394.475</v>
       </c>
       <c r="AG25">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-66286.43363611795</v>
+        <v>-71805.90863611794</v>
       </c>
       <c r="AM25">
-        <v>24536.02142210837</v>
+        <v>30055.49642210837</v>
       </c>
       <c r="AN25">
-        <v>-66520.43363611795</v>
+        <v>-72039.90863611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.173610673517976</v>
+        <v>0.0001736106735179759</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>60694</v>
+        <v>66225.46299999999</v>
       </c>
       <c r="Y26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45164</v>
+        <v>45.164</v>
       </c>
       <c r="AB26">
-        <v>39627</v>
+        <v>39.627</v>
       </c>
       <c r="AC26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AD26">
-        <v>20833</v>
+        <v>65951.836</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>60460</v>
+        <v>65991.463</v>
       </c>
       <c r="AG26">
-        <v>5537</v>
+        <v>5.537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-66073.54068843779</v>
+        <v>-71605.00368843779</v>
       </c>
       <c r="AM26">
-        <v>24547.99699911739</v>
+        <v>30079.45999911739</v>
       </c>
       <c r="AN26">
-        <v>-66307.54068843779</v>
+        <v>-71839.00368843778</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.1736684365614742</v>
+        <v>0.0001736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>61024</v>
+        <v>66543.47500000001</v>
       </c>
       <c r="Y27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45606</v>
+        <v>45.606</v>
       </c>
       <c r="AB27">
-        <v>40081</v>
+        <v>40.081</v>
       </c>
       <c r="AC27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AD27">
-        <v>20791</v>
+        <v>66351.394</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>60872</v>
+        <v>66391.47500000001</v>
       </c>
       <c r="AG27">
-        <v>5525</v>
+        <v>5.525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-65709.13975745351</v>
+        <v>-71228.61475745351</v>
       </c>
       <c r="AM27">
-        <v>24349.43137622857</v>
+        <v>29868.90637622857</v>
       </c>
       <c r="AN27">
-        <v>-65861.13975745351</v>
+        <v>-71380.61475745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.1750558704056854</v>
+        <v>0.0001750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>60182</v>
+        <v>65604.572</v>
       </c>
       <c r="Y28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44845</v>
+        <v>44.845</v>
       </c>
       <c r="AB28">
-        <v>39417</v>
+        <v>39.417</v>
       </c>
       <c r="AC28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AD28">
-        <v>20613</v>
+        <v>65413.155</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>60030</v>
+        <v>65452.572</v>
       </c>
       <c r="AG28">
-        <v>5428</v>
+        <v>5.428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-64906.46608261493</v>
+        <v>-70329.03808261493</v>
       </c>
       <c r="AM28">
-        <v>23421.55188222531</v>
+        <v>28844.12388222531</v>
       </c>
       <c r="AN28">
-        <v>-65058.46608261493</v>
+        <v>-70481.03808261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.171465521875743</v>
+        <v>0.000171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>61352</v>
+        <v>66559.787</v>
       </c>
       <c r="Y29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45849</v>
+        <v>45.849</v>
       </c>
       <c r="AB29">
-        <v>40636</v>
+        <v>40.636</v>
       </c>
       <c r="AC29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AD29">
-        <v>20564</v>
+        <v>66367.151</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>61200</v>
+        <v>66407.787</v>
       </c>
       <c r="AG29">
-        <v>5213</v>
+        <v>5.213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-64783.69459881801</v>
+        <v>-69991.48159881801</v>
       </c>
       <c r="AM29">
-        <v>24004.08152882706</v>
+        <v>29211.86852882706</v>
       </c>
       <c r="AN29">
-        <v>-64935.69459881801</v>
+        <v>-70143.48159881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.1763246413195909</v>
+        <v>0.0001763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>61735</v>
+        <v>66974.75499999999</v>
       </c>
       <c r="Y30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46031</v>
+        <v>46.031</v>
       </c>
       <c r="AB30">
-        <v>40786</v>
+        <v>40.786</v>
       </c>
       <c r="AC30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AD30">
-        <v>20797</v>
+        <v>66781.969</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>61583</v>
+        <v>66822.75500000001</v>
       </c>
       <c r="AG30">
-        <v>5245</v>
+        <v>5.245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-64478.00564741917</v>
+        <v>-69717.76064741917</v>
       </c>
       <c r="AM30">
-        <v>23955.80169422575</v>
+        <v>29195.55669422575</v>
       </c>
       <c r="AN30">
-        <v>-64630.00564741917</v>
+        <v>-69869.76064741916</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.1737831058024665</v>
+        <v>0.0001737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>62256</v>
+        <v>67447.803</v>
       </c>
       <c r="Y31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46570</v>
+        <v>46.57</v>
       </c>
       <c r="AB31">
-        <v>41373</v>
+        <v>41.373</v>
       </c>
       <c r="AC31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AD31">
-        <v>20840</v>
+        <v>67363.42999999999</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>62213</v>
+        <v>67404.803</v>
       </c>
       <c r="AG31">
-        <v>5197</v>
+        <v>5.197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-64176.07107330005</v>
+        <v>-69367.87407330005</v>
       </c>
       <c r="AM31">
-        <v>24474.69778417824</v>
+        <v>29666.50078417824</v>
       </c>
       <c r="AN31">
-        <v>-64219.07107330005</v>
+        <v>-69410.87407330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.1748415838387357</v>
+        <v>0.0001748415838387358</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>62998</v>
+        <v>68083.909</v>
       </c>
       <c r="Y32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47249</v>
+        <v>47.249</v>
       </c>
       <c r="AB32">
-        <v>42158</v>
+        <v>42.158</v>
       </c>
       <c r="AC32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AD32">
-        <v>20797</v>
+        <v>67998.751</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>62955</v>
+        <v>68040.909</v>
       </c>
       <c r="AG32">
-        <v>5091</v>
+        <v>5.091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>-63248.25279073889</v>
+        <v>-68334.16179073889</v>
       </c>
       <c r="AM32">
-        <v>23920.04967219893</v>
+        <v>29005.95867219893</v>
       </c>
       <c r="AN32">
-        <v>-63291.25279073889</v>
+        <v>-68377.16179073889</v>
       </c>
       <c r="AO32">
         <v>159512.2030004134</v>
@@ -4832,7 +4832,7 @@
         <v>0.5663844982145978</v>
       </c>
       <c r="AR32">
-        <v>0.177564750685546</v>
+        <v>0.000177564750685546</v>
       </c>
       <c r="AS32">
         <v>8.465500000000001</v>
@@ -4909,34 +4909,34 @@
         <v>68596</v>
       </c>
       <c r="X33">
-        <v>63179</v>
+        <v>68590.583</v>
       </c>
       <c r="Y33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="Z33">
         <v>43</v>
       </c>
       <c r="AA33">
-        <v>47673</v>
+        <v>47.673</v>
       </c>
       <c r="AB33">
-        <v>42256</v>
+        <v>42.256</v>
       </c>
       <c r="AC33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AD33">
-        <v>20880</v>
+        <v>68505.32700000001</v>
       </c>
       <c r="AE33">
         <v>68553</v>
       </c>
       <c r="AF33">
-        <v>63136</v>
+        <v>68547.583</v>
       </c>
       <c r="AG33">
-        <v>5417</v>
+        <v>5.417</v>
       </c>
       <c r="AH33">
         <v>28243.16689177982</v>
@@ -4951,13 +4951,13 @@
         <v>-40309.83310822018</v>
       </c>
       <c r="AL33">
-        <v>-62951.71706831591</v>
+        <v>-68363.3000683159</v>
       </c>
       <c r="AM33">
-        <v>22641.88396009574</v>
+        <v>28053.46696009574</v>
       </c>
       <c r="AN33">
-        <v>-62994.71706831591</v>
+        <v>-68406.3000683159</v>
       </c>
       <c r="AO33">
         <v>161138.8331082202</v>
@@ -4969,7 +4969,7 @@
         <v>0.5675574983855745</v>
       </c>
       <c r="AR33">
-        <v>0.1797691610572627</v>
+        <v>0.0001797691610572627</v>
       </c>
       <c r="AS33">
         <v>8.440200000000001</v>
@@ -5046,34 +5046,34 @@
         <v>67822</v>
       </c>
       <c r="X34">
-        <v>62429</v>
+        <v>67816.60699999999</v>
       </c>
       <c r="Y34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="Z34">
         <v>43</v>
       </c>
       <c r="AA34">
-        <v>46964</v>
+        <v>46.964</v>
       </c>
       <c r="AB34">
-        <v>41571</v>
+        <v>41.571</v>
       </c>
       <c r="AC34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AD34">
-        <v>20815</v>
+        <v>67732.03599999999</v>
       </c>
       <c r="AE34">
         <v>67779</v>
       </c>
       <c r="AF34">
-        <v>62386</v>
+        <v>67773.607</v>
       </c>
       <c r="AG34">
-        <v>5393</v>
+        <v>5.393</v>
       </c>
       <c r="AH34">
         <v>30285.18677815763</v>
@@ -5088,13 +5088,13 @@
         <v>-37493.81322184237</v>
       </c>
       <c r="AL34">
-        <v>-60113.70343250486</v>
+        <v>-65501.31043250486</v>
       </c>
       <c r="AM34">
-        <v>22619.89032615726</v>
+        <v>28007.49732615726</v>
       </c>
       <c r="AN34">
-        <v>-60156.70343250486</v>
+        <v>-65544.31043250485</v>
       </c>
       <c r="AO34">
         <v>159579.8132218424</v>
@@ -5106,7 +5106,7 @@
         <v>0.5553698286669453</v>
       </c>
       <c r="AR34">
-        <v>0.1783782092049294</v>
+        <v>0.0001783782092049294</v>
       </c>
       <c r="AS34">
         <v>8.6584</v>
@@ -5183,34 +5183,34 @@
         <v>66633</v>
       </c>
       <c r="X35">
-        <v>61558</v>
+        <v>66627.92499999999</v>
       </c>
       <c r="Y35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="Z35">
         <v>17</v>
       </c>
       <c r="AA35">
-        <v>45884</v>
+        <v>45.884</v>
       </c>
       <c r="AB35">
-        <v>40809</v>
+        <v>40.809</v>
       </c>
       <c r="AC35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AD35">
-        <v>20732</v>
+        <v>66570.116</v>
       </c>
       <c r="AE35">
         <v>66616</v>
       </c>
       <c r="AF35">
-        <v>61541</v>
+        <v>66610.925</v>
       </c>
       <c r="AG35">
-        <v>5075</v>
+        <v>5.075</v>
       </c>
       <c r="AH35">
         <v>29143.72692459311</v>
@@ -5225,13 +5225,13 @@
         <v>-37472.27307540689</v>
       </c>
       <c r="AL35">
-        <v>-59516.31812806218</v>
+        <v>-64586.24312806218</v>
       </c>
       <c r="AM35">
-        <v>22044.04494002365</v>
+        <v>27113.96994002365</v>
       </c>
       <c r="AN35">
-        <v>-59533.31812806218</v>
+        <v>-64603.24312806217</v>
       </c>
       <c r="AO35">
         <v>159210.2730754069</v>
@@ -5243,7 +5243,7 @@
         <v>0.5472843634212666</v>
       </c>
       <c r="AR35">
-        <v>0.1762943296152996</v>
+        <v>0.0001762943296152996</v>
       </c>
       <c r="AS35">
         <v>8.878500000000001</v>
@@ -5320,34 +5320,34 @@
         <v>66994</v>
       </c>
       <c r="X36">
-        <v>61914</v>
+        <v>66988.92000000001</v>
       </c>
       <c r="Y36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="Z36">
         <v>17</v>
       </c>
       <c r="AA36">
-        <v>46150</v>
+        <v>46.15</v>
       </c>
       <c r="AB36">
-        <v>41070</v>
+        <v>41.07</v>
       </c>
       <c r="AC36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AD36">
-        <v>20827</v>
+        <v>66930.85000000001</v>
       </c>
       <c r="AE36">
         <v>66977</v>
       </c>
       <c r="AF36">
-        <v>61897</v>
+        <v>66971.92</v>
       </c>
       <c r="AG36">
-        <v>5080</v>
+        <v>5.08</v>
       </c>
       <c r="AH36">
         <v>29463.91628389893</v>
@@ -5362,13 +5362,13 @@
         <v>-37513.08371610107</v>
       </c>
       <c r="AL36">
-        <v>-58822.86921193104</v>
+        <v>-63897.78921193104</v>
       </c>
       <c r="AM36">
-        <v>21309.78560868535</v>
+        <v>26384.70560868535</v>
       </c>
       <c r="AN36">
-        <v>-58839.86921193104</v>
+        <v>-63914.78921193106</v>
       </c>
       <c r="AO36">
         <v>160992.0837161011</v>
@@ -5380,7 +5380,7 @@
         <v>0.5424908068879494</v>
       </c>
       <c r="AR36">
-        <v>0.1763108107065246</v>
+        <v>0.0001763108107065246</v>
       </c>
       <c r="AS36">
         <v>8.860900000000001</v>
@@ -5457,34 +5457,34 @@
         <v>68067</v>
       </c>
       <c r="X37">
-        <v>62836</v>
+        <v>68061.769</v>
       </c>
       <c r="Y37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="Z37">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>47076</v>
+        <v>47.076</v>
       </c>
       <c r="AB37">
-        <v>41845</v>
+        <v>41.845</v>
       </c>
       <c r="AC37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AD37">
-        <v>20974</v>
+        <v>68002.924</v>
       </c>
       <c r="AE37">
         <v>68050</v>
       </c>
       <c r="AF37">
-        <v>62819</v>
+        <v>68044.769</v>
       </c>
       <c r="AG37">
-        <v>5231</v>
+        <v>5.231</v>
       </c>
       <c r="AH37">
         <v>31970.11192789009</v>
@@ -5499,13 +5499,13 @@
         <v>-36079.88807210991</v>
       </c>
       <c r="AL37">
-        <v>-58819.57747002711</v>
+        <v>-64045.34647002711</v>
       </c>
       <c r="AM37">
-        <v>22739.68939791721</v>
+        <v>27965.45839791721</v>
       </c>
       <c r="AN37">
-        <v>-58836.57747002711</v>
+        <v>-64062.34647002711</v>
       </c>
       <c r="AO37">
         <v>161823.8880721099</v>
@@ -5517,7 +5517,7 @@
         <v>0.5412520779148472</v>
       </c>
       <c r="AR37">
-        <v>0.1795289207797175</v>
+        <v>0.0001795289207797175</v>
       </c>
       <c r="AS37">
         <v>9.1416</v>
@@ -5594,34 +5594,34 @@
         <v>68272</v>
       </c>
       <c r="X38">
-        <v>62970</v>
+        <v>68266.69799999999</v>
       </c>
       <c r="Y38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z38">
         <v>17</v>
       </c>
       <c r="AA38">
-        <v>47365</v>
+        <v>47.365</v>
       </c>
       <c r="AB38">
-        <v>42063</v>
+        <v>42.063</v>
       </c>
       <c r="AC38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD38">
-        <v>20890</v>
+        <v>68207.635</v>
       </c>
       <c r="AE38">
         <v>68255</v>
       </c>
       <c r="AF38">
-        <v>62953</v>
+        <v>68249.698</v>
       </c>
       <c r="AG38">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH38">
         <v>32272.43446374535</v>
@@ -5636,13 +5636,13 @@
         <v>-35982.56553625465</v>
       </c>
       <c r="AL38">
-        <v>-58652.07016164642</v>
+        <v>-63948.76816164643</v>
       </c>
       <c r="AM38">
-        <v>22669.50451769926</v>
+        <v>27966.20251769926</v>
       </c>
       <c r="AN38">
-        <v>-58669.07016164642</v>
+        <v>-63965.76816164641</v>
       </c>
       <c r="AO38">
         <v>161140.5655362547</v>
@@ -5654,7 +5654,7 @@
         <v>0.5454247608697389</v>
       </c>
       <c r="AR38">
-        <v>0.1804796158628646</v>
+        <v>0.0001804796158628646</v>
       </c>
       <c r="AS38">
         <v>9.2857</v>
@@ -5731,34 +5731,34 @@
         <v>68337</v>
       </c>
       <c r="X39">
-        <v>63201</v>
+        <v>68331.864</v>
       </c>
       <c r="Y39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="Z39">
         <v>8</v>
       </c>
       <c r="AA39">
-        <v>47381</v>
+        <v>47.381</v>
       </c>
       <c r="AB39">
-        <v>42245</v>
+        <v>42.245</v>
       </c>
       <c r="AC39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AD39">
-        <v>20948</v>
+        <v>68281.61900000001</v>
       </c>
       <c r="AE39">
         <v>68329</v>
       </c>
       <c r="AF39">
-        <v>63193</v>
+        <v>68323.864</v>
       </c>
       <c r="AG39">
-        <v>5136</v>
+        <v>5.136</v>
       </c>
       <c r="AH39">
         <v>32496.50975077257</v>
@@ -5773,13 +5773,13 @@
         <v>-35832.49024922743</v>
       </c>
       <c r="AL39">
-        <v>-58532.46647611614</v>
+        <v>-63663.33047611614</v>
       </c>
       <c r="AM39">
-        <v>22699.97622688872</v>
+        <v>27830.84022688872</v>
       </c>
       <c r="AN39">
-        <v>-58540.46647611614</v>
+        <v>-63671.33047611614</v>
       </c>
       <c r="AO39">
         <v>159623.4902492274</v>
@@ -5791,7 +5791,7 @@
         <v>0.5520063336645581</v>
       </c>
       <c r="AR39">
-        <v>0.1820010170791943</v>
+        <v>0.0001820010170791943</v>
       </c>
       <c r="AS39">
         <v>9.481299999999999</v>
@@ -5868,34 +5868,34 @@
         <v>67061</v>
       </c>
       <c r="X40">
-        <v>61791</v>
+        <v>67055.73000000001</v>
       </c>
       <c r="Y40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="Z40">
         <v>8</v>
       </c>
       <c r="AA40">
-        <v>46196</v>
+        <v>46.196</v>
       </c>
       <c r="AB40">
-        <v>40926</v>
+        <v>40.926</v>
       </c>
       <c r="AC40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AD40">
-        <v>20857</v>
+        <v>67006.804</v>
       </c>
       <c r="AE40">
         <v>67053</v>
       </c>
       <c r="AF40">
-        <v>61783</v>
+        <v>67047.73</v>
       </c>
       <c r="AG40">
-        <v>5270</v>
+        <v>5.27</v>
       </c>
       <c r="AH40">
         <v>31707.85260724166</v>
@@ -5910,13 +5910,13 @@
         <v>-35345.14739275834</v>
       </c>
       <c r="AL40">
-        <v>-58210.67908013707</v>
+        <v>-63475.40908013706</v>
       </c>
       <c r="AM40">
-        <v>22865.53158416251</v>
+        <v>28130.26158416251</v>
       </c>
       <c r="AN40">
-        <v>-58218.67908013707</v>
+        <v>-63483.40908013708</v>
       </c>
       <c r="AO40">
         <v>160796.1473927583</v>
@@ -5928,7 +5928,7 @@
         <v>0.5345296270019052</v>
       </c>
       <c r="AR40">
-        <v>0.1771940556449785</v>
+        <v>0.0001771940556449786</v>
       </c>
       <c r="AS40">
         <v>9.6884</v>
@@ -6005,34 +6005,34 @@
         <v>63655</v>
       </c>
       <c r="X41">
-        <v>56305</v>
+        <v>63647.65</v>
       </c>
       <c r="Y41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="Z41">
         <v>8</v>
       </c>
       <c r="AA41">
-        <v>42520</v>
+        <v>42.52</v>
       </c>
       <c r="AB41">
-        <v>35170</v>
+        <v>35.17</v>
       </c>
       <c r="AC41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AD41">
-        <v>21127</v>
+        <v>63604.48</v>
       </c>
       <c r="AE41">
         <v>63647</v>
       </c>
       <c r="AF41">
-        <v>56297</v>
+        <v>63639.65</v>
       </c>
       <c r="AG41">
-        <v>7350</v>
+        <v>7.35</v>
       </c>
       <c r="AH41">
         <v>28453.16839770094</v>
@@ -6047,13 +6047,13 @@
         <v>-35193.83160229906</v>
       </c>
       <c r="AL41">
-        <v>-59414.61802964604</v>
+        <v>-66757.26802964605</v>
       </c>
       <c r="AM41">
-        <v>24220.78642734698</v>
+        <v>31563.43642734698</v>
       </c>
       <c r="AN41">
-        <v>-59422.61802964604</v>
+        <v>-66765.26802964605</v>
       </c>
       <c r="AO41">
         <v>162891.8316022991</v>
@@ -6065,7 +6065,7 @@
         <v>0.4984493695669199</v>
       </c>
       <c r="AR41">
-        <v>0.1620313209744438</v>
+        <v>0.0001620313209744439</v>
       </c>
       <c r="AS41">
         <v>9.917</v>
@@ -6142,34 +6142,34 @@
         <v>60524</v>
       </c>
       <c r="X42">
-        <v>55313</v>
+        <v>60518.789</v>
       </c>
       <c r="Y42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="Z42">
         <v>8</v>
       </c>
       <c r="AA42">
-        <v>39482</v>
+        <v>39.48200000000001</v>
       </c>
       <c r="AB42">
-        <v>34271</v>
+        <v>34.27100000000001</v>
       </c>
       <c r="AC42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AD42">
-        <v>21034</v>
+        <v>60476.518</v>
       </c>
       <c r="AE42">
         <v>60516</v>
       </c>
       <c r="AF42">
-        <v>55305</v>
+        <v>60510.789</v>
       </c>
       <c r="AG42">
-        <v>5211</v>
+        <v>5.211</v>
       </c>
       <c r="AH42">
         <v>25026.07115544631</v>
@@ -6184,13 +6184,13 @@
         <v>-35489.9288445537</v>
       </c>
       <c r="AL42">
-        <v>-59737.93126595175</v>
+        <v>-64943.72026595174</v>
       </c>
       <c r="AM42">
-        <v>24248.00232790778</v>
+        <v>29453.79132790778</v>
       </c>
       <c r="AN42">
-        <v>-59745.93126595175</v>
+        <v>-64951.72026595174</v>
       </c>
       <c r="AO42">
         <v>163900.9288445537</v>
@@ -6202,7 +6202,7 @@
         <v>0.4712973995934675</v>
       </c>
       <c r="AR42">
-        <v>0.1506045007255962</v>
+        <v>0.0001506045007255962</v>
       </c>
       <c r="AS42">
         <v>10.6963</v>
@@ -6279,34 +6279,34 @@
         <v>60829</v>
       </c>
       <c r="X43">
-        <v>53951</v>
+        <v>60822.122</v>
       </c>
       <c r="Y43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="Z43">
         <v>8</v>
       </c>
       <c r="AA43">
-        <v>39980</v>
+        <v>39.98</v>
       </c>
       <c r="AB43">
-        <v>33102</v>
+        <v>33.102</v>
       </c>
       <c r="AC43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AD43">
-        <v>20841</v>
+        <v>60781.02</v>
       </c>
       <c r="AE43">
         <v>60821</v>
       </c>
       <c r="AF43">
-        <v>53943</v>
+        <v>60814.122</v>
       </c>
       <c r="AG43">
-        <v>6878</v>
+        <v>6.878</v>
       </c>
       <c r="AH43">
         <v>24516.29790585078</v>
@@ -6321,13 +6321,13 @@
         <v>-36304.70209414922</v>
       </c>
       <c r="AL43">
-        <v>-59739.26808109933</v>
+        <v>-66610.39008109934</v>
       </c>
       <c r="AM43">
-        <v>23434.56590361747</v>
+        <v>30305.68790361747</v>
       </c>
       <c r="AN43">
-        <v>-59747.26808109933</v>
+        <v>-66618.39008109932</v>
       </c>
       <c r="AO43">
         <v>162457.7020941492</v>
@@ -6339,7 +6339,7 @@
         <v>0.4821514923302548</v>
       </c>
       <c r="AR43">
-        <v>0.154080134850564</v>
+        <v>0.0001540801348505641</v>
       </c>
       <c r="AS43">
         <v>12.0001</v>
@@ -6416,34 +6416,34 @@
         <v>60792</v>
       </c>
       <c r="X44">
-        <v>54067</v>
+        <v>60785.27499999999</v>
       </c>
       <c r="Y44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="Z44">
         <v>392</v>
       </c>
       <c r="AA44">
-        <v>39533</v>
+        <v>39.533</v>
       </c>
       <c r="AB44">
-        <v>32808</v>
+        <v>32.808</v>
       </c>
       <c r="AC44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AD44">
-        <v>20867</v>
+        <v>60360.467</v>
       </c>
       <c r="AE44">
         <v>60400</v>
       </c>
       <c r="AF44">
-        <v>53675</v>
+        <v>60393.275</v>
       </c>
       <c r="AG44">
-        <v>6725</v>
+        <v>6.725</v>
       </c>
       <c r="AH44">
         <v>22321.1126899237</v>
@@ -6458,13 +6458,13 @@
         <v>-38078.8873100763</v>
       </c>
       <c r="AL44">
-        <v>-61607.77692497036</v>
+        <v>-68326.05192497035</v>
       </c>
       <c r="AM44">
-        <v>23528.88961489405</v>
+        <v>30247.16461489405</v>
       </c>
       <c r="AN44">
-        <v>-61999.77692497036</v>
+        <v>-68718.05192497035</v>
       </c>
       <c r="AO44">
         <v>162495.8873100763</v>
@@ -6476,7 +6476,7 @@
         <v>0.4869985889941544</v>
       </c>
       <c r="AR44">
-        <v>0.153450834966544</v>
+        <v>0.000153450834966544</v>
       </c>
       <c r="AS44">
         <v>13.4067</v>
@@ -6553,34 +6553,34 @@
         <v>60348</v>
       </c>
       <c r="X45">
-        <v>53121</v>
+        <v>60340.773</v>
       </c>
       <c r="Y45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="Z45">
         <v>392</v>
       </c>
       <c r="AA45">
-        <v>38991</v>
+        <v>38.991</v>
       </c>
       <c r="AB45">
-        <v>31764</v>
+        <v>31.764</v>
       </c>
       <c r="AC45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AD45">
-        <v>20965</v>
+        <v>59917.009</v>
       </c>
       <c r="AE45">
         <v>59956</v>
       </c>
       <c r="AF45">
-        <v>52729</v>
+        <v>59948.773</v>
       </c>
       <c r="AG45">
-        <v>7227</v>
+        <v>7.227</v>
       </c>
       <c r="AH45">
         <v>21026.9024681297</v>
@@ -6595,13 +6595,13 @@
         <v>-38929.0975318703</v>
       </c>
       <c r="AL45">
-        <v>-62802.7577420106</v>
+        <v>-70022.5307420106</v>
       </c>
       <c r="AM45">
-        <v>23873.66013737703</v>
+        <v>31093.43313737703</v>
       </c>
       <c r="AN45">
-        <v>-63194.7577420106</v>
+        <v>-70414.5307420106</v>
       </c>
       <c r="AO45">
         <v>162211.0975318703</v>
@@ -6613,7 +6613,7 @@
         <v>0.4878834730246562</v>
       </c>
       <c r="AR45">
-        <v>0.1510540895364002</v>
+        <v>0.0001510540895364002</v>
       </c>
       <c r="AS45">
         <v>13.7432</v>
@@ -6690,34 +6690,34 @@
         <v>59268</v>
       </c>
       <c r="X46">
-        <v>52088</v>
+        <v>59260.82</v>
       </c>
       <c r="Y46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="Z46">
         <v>401</v>
       </c>
       <c r="AA46">
-        <v>37900</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="AB46">
-        <v>30720</v>
+        <v>30.72000000000001</v>
       </c>
       <c r="AC46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AD46">
-        <v>20967</v>
+        <v>58829.1</v>
       </c>
       <c r="AE46">
         <v>58867</v>
       </c>
       <c r="AF46">
-        <v>51687</v>
+        <v>58859.82</v>
       </c>
       <c r="AG46">
-        <v>7180</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="AH46">
         <v>12013.92079832761</v>
@@ -6732,13 +6732,13 @@
         <v>-46853.07920167239</v>
       </c>
       <c r="AL46">
-        <v>-70594.63127309064</v>
+        <v>-77767.45127309064</v>
       </c>
       <c r="AM46">
-        <v>23741.5520056798</v>
+        <v>30914.3720056798</v>
       </c>
       <c r="AN46">
-        <v>-70995.63127309064</v>
+        <v>-78168.45127309064</v>
       </c>
       <c r="AO46">
         <v>164127.0792016724</v>
@@ -6750,7 +6750,7 @@
         <v>0.5036834854927998</v>
       </c>
       <c r="AR46">
-        <v>0.1433119814866633</v>
+        <v>0.0001433119814866633</v>
       </c>
       <c r="AS46">
         <v>15.2118</v>
@@ -6827,34 +6827,34 @@
         <v>65292</v>
       </c>
       <c r="X47">
-        <v>59035</v>
+        <v>65285.743</v>
       </c>
       <c r="Y47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="Z47">
         <v>978</v>
       </c>
       <c r="AA47">
-        <v>43317</v>
+        <v>43.317</v>
       </c>
       <c r="AB47">
-        <v>37060</v>
+        <v>37.06</v>
       </c>
       <c r="AC47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AD47">
-        <v>20997</v>
+        <v>64270.683</v>
       </c>
       <c r="AE47">
         <v>64314</v>
       </c>
       <c r="AF47">
-        <v>58057</v>
+        <v>64307.743</v>
       </c>
       <c r="AG47">
-        <v>6257</v>
+        <v>6.257</v>
       </c>
       <c r="AH47">
         <v>8476.598752925565</v>
@@ -6869,13 +6869,13 @@
         <v>-55837.40124707444</v>
       </c>
       <c r="AL47">
-        <v>-79309.0724316205</v>
+        <v>-85559.8154316205</v>
       </c>
       <c r="AM47">
-        <v>23471.6712718762</v>
+        <v>29722.4142718762</v>
       </c>
       <c r="AN47">
-        <v>-80287.0724316205</v>
+        <v>-86537.81543162049</v>
       </c>
       <c r="AO47">
         <v>167740.4012470744</v>
@@ -6887,7 +6887,7 @@
         <v>0.5797971602434077</v>
       </c>
       <c r="AR47">
-        <v>0.1630892047913144</v>
+        <v>0.0001630892047913144</v>
       </c>
       <c r="AS47">
         <v>11.4508</v>
@@ -6961,37 +6961,37 @@
         <v>456.7588518589867</v>
       </c>
       <c r="W48">
-        <v>65768</v>
+        <v>64695.074</v>
       </c>
       <c r="X48">
-        <v>59642</v>
+        <v>64688.948</v>
       </c>
       <c r="Y48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="Z48">
-        <v>1074</v>
+        <v>1.074</v>
       </c>
       <c r="AA48">
-        <v>43704</v>
+        <v>43.704</v>
       </c>
       <c r="AB48">
-        <v>37578</v>
+        <v>37.578</v>
       </c>
       <c r="AC48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AD48">
-        <v>20990</v>
+        <v>64650.296</v>
       </c>
       <c r="AE48">
         <v>64694</v>
       </c>
       <c r="AF48">
-        <v>58568</v>
+        <v>64687.874</v>
       </c>
       <c r="AG48">
-        <v>6126</v>
+        <v>6.126</v>
       </c>
       <c r="AH48">
         <v>8160.439337314572</v>
@@ -7006,16 +7006,16 @@
         <v>-56533.56066268543</v>
       </c>
       <c r="AL48">
-        <v>-80188.64392217298</v>
+        <v>-86308.51792217299</v>
       </c>
       <c r="AM48">
-        <v>23655.08325948758</v>
+        <v>29774.95725948758</v>
       </c>
       <c r="AN48">
-        <v>-81262.64392217298</v>
+        <v>-86309.59192217299</v>
       </c>
       <c r="AO48">
-        <v>168658.5606626854</v>
+        <v>167585.6346626854</v>
       </c>
       <c r="AP48">
         <v>263842.17</v>
@@ -7024,7 +7024,7 @@
         <v>0.5825611655905845</v>
       </c>
       <c r="AR48">
-        <v>0.1656444835941124</v>
+        <v>0.0001656444835941124</v>
       </c>
       <c r="AS48">
         <v>12.9775</v>
@@ -7101,34 +7101,34 @@
         <v>65402</v>
       </c>
       <c r="X49">
-        <v>59320</v>
+        <v>65395.918</v>
       </c>
       <c r="Y49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="Z49">
         <v>559</v>
       </c>
       <c r="AA49">
-        <v>43911</v>
+        <v>43.911</v>
       </c>
       <c r="AB49">
-        <v>37829</v>
+        <v>37.829</v>
       </c>
       <c r="AC49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AD49">
-        <v>20932</v>
+        <v>64799.089</v>
       </c>
       <c r="AE49">
         <v>64843</v>
       </c>
       <c r="AF49">
-        <v>58761</v>
+        <v>64836.918</v>
       </c>
       <c r="AG49">
-        <v>6082</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="AH49">
         <v>7775.402458343117</v>
@@ -7143,13 +7143,13 @@
         <v>-57067.59754165688</v>
       </c>
       <c r="AL49">
-        <v>-80444.23980579675</v>
+        <v>-86520.15780579674</v>
       </c>
       <c r="AM49">
-        <v>23376.64226413988</v>
+        <v>29452.56026413988</v>
       </c>
       <c r="AN49">
-        <v>-81003.23980579675</v>
+        <v>-87079.15780579674</v>
       </c>
       <c r="AO49">
         <v>167069.5975416569</v>
@@ -7161,7 +7161,7 @@
         <v>0.5924819312336102</v>
       </c>
       <c r="AR49">
-        <v>0.1684415666266357</v>
+        <v>0.0001684415666266357</v>
       </c>
       <c r="AS49">
         <v>13.6352</v>
@@ -7238,34 +7238,34 @@
         <v>65011</v>
       </c>
       <c r="X50">
-        <v>59441</v>
+        <v>65005.43</v>
       </c>
       <c r="Y50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="Z50">
         <v>812</v>
       </c>
       <c r="AA50">
-        <v>43133</v>
+        <v>43.133</v>
       </c>
       <c r="AB50">
-        <v>37563</v>
+        <v>37.563</v>
       </c>
       <c r="AC50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AD50">
-        <v>21066</v>
+        <v>64155.867</v>
       </c>
       <c r="AE50">
         <v>64199</v>
       </c>
       <c r="AF50">
-        <v>58629</v>
+        <v>64193.43</v>
       </c>
       <c r="AG50">
-        <v>5570</v>
+        <v>5.57</v>
       </c>
       <c r="AH50">
         <v>7353.03205317579</v>
@@ -7280,13 +7280,13 @@
         <v>-56845.96794682421</v>
       </c>
       <c r="AL50">
-        <v>-80786.90169867058</v>
+        <v>-86351.33169867058</v>
       </c>
       <c r="AM50">
-        <v>23940.93375184638</v>
+        <v>29505.36375184638</v>
       </c>
       <c r="AN50">
-        <v>-81598.90169867058</v>
+        <v>-87163.33169867058</v>
       </c>
       <c r="AO50">
         <v>167205.9679468242</v>
@@ -7298,7 +7298,7 @@
         <v>0.5860353452367911</v>
       </c>
       <c r="AR50">
-        <v>0.1650201759766311</v>
+        <v>0.0001650201759766311</v>
       </c>
       <c r="AS50">
         <v>13.54</v>
@@ -7375,34 +7375,34 @@
         <v>65698</v>
       </c>
       <c r="X51">
-        <v>60026</v>
+        <v>65692.32800000001</v>
       </c>
       <c r="Y51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="Z51">
         <v>817</v>
       </c>
       <c r="AA51">
-        <v>43805</v>
+        <v>43.80499999999999</v>
       </c>
       <c r="AB51">
-        <v>38133</v>
+        <v>38.133</v>
       </c>
       <c r="AC51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AD51">
-        <v>21076</v>
+        <v>64837.195</v>
       </c>
       <c r="AE51">
         <v>64881</v>
       </c>
       <c r="AF51">
-        <v>59209</v>
+        <v>64875.328</v>
       </c>
       <c r="AG51">
-        <v>5672</v>
+        <v>5.672000000000001</v>
       </c>
       <c r="AH51">
         <v>9086.341268011092</v>
@@ -7417,13 +7417,13 @@
         <v>-55794.65873198891</v>
       </c>
       <c r="AL51">
-        <v>-80137.28956118753</v>
+        <v>-85803.61756118754</v>
       </c>
       <c r="AM51">
-        <v>24342.63082919862</v>
+        <v>30008.95882919862</v>
       </c>
       <c r="AN51">
-        <v>-80954.28956118753</v>
+        <v>-86620.61756118754</v>
       </c>
       <c r="AO51">
         <v>166424.6587319889</v>
@@ -7435,7 +7435,7 @@
         <v>0.5908316865944834</v>
       </c>
       <c r="AR51">
-        <v>0.1687833198232185</v>
+        <v>0.0001687833198232185</v>
       </c>
       <c r="AS51">
         <v>13.4431</v>
@@ -7512,34 +7512,34 @@
         <v>65432</v>
       </c>
       <c r="X52">
-        <v>60151</v>
+        <v>65426.71900000001</v>
       </c>
       <c r="Y52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="Z52">
         <v>822</v>
       </c>
       <c r="AA52">
-        <v>43702</v>
+        <v>43.70200000000001</v>
       </c>
       <c r="AB52">
-        <v>38421</v>
+        <v>38.42100000000001</v>
       </c>
       <c r="AC52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AD52">
-        <v>20908</v>
+        <v>64566.298</v>
       </c>
       <c r="AE52">
         <v>64610</v>
       </c>
       <c r="AF52">
-        <v>59329</v>
+        <v>64604.719</v>
       </c>
       <c r="AG52">
-        <v>5281</v>
+        <v>5.281</v>
       </c>
       <c r="AH52">
         <v>10347.75840861608</v>
@@ -7554,13 +7554,13 @@
         <v>-54262.24159138392</v>
       </c>
       <c r="AL52">
-        <v>-78330.16100697407</v>
+        <v>-83605.88000697407</v>
       </c>
       <c r="AM52">
-        <v>24067.91941559015</v>
+        <v>29343.63841559015</v>
       </c>
       <c r="AN52">
-        <v>-79152.16100697407</v>
+        <v>-84427.88000697407</v>
       </c>
       <c r="AO52">
         <v>165297.2415913839</v>
@@ -7572,7 +7572,7 @@
         <v>0.5862284848429858</v>
       </c>
       <c r="AR52">
-        <v>0.1711225071831944</v>
+        <v>0.0001711225071831944</v>
       </c>
       <c r="AS52">
         <v>13.5932</v>
@@ -7649,34 +7649,34 @@
         <v>67122</v>
       </c>
       <c r="X53">
-        <v>61518</v>
+        <v>67116.39600000001</v>
       </c>
       <c r="Y53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="Z53">
         <v>563</v>
       </c>
       <c r="AA53">
-        <v>42847</v>
+        <v>42.84699999999999</v>
       </c>
       <c r="AB53">
-        <v>37243</v>
+        <v>37.243</v>
       </c>
       <c r="AC53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AD53">
-        <v>23712</v>
+        <v>66516.15300000001</v>
       </c>
       <c r="AE53">
         <v>66559</v>
       </c>
       <c r="AF53">
-        <v>60955</v>
+        <v>66553.39599999999</v>
       </c>
       <c r="AG53">
-        <v>5604</v>
+        <v>5.603999999999999</v>
       </c>
       <c r="AH53">
         <v>16158.10506628892</v>
@@ -7691,13 +7691,13 @@
         <v>-50400.89493371108</v>
       </c>
       <c r="AL53">
-        <v>-74634.71294718282</v>
+        <v>-80233.10894718282</v>
       </c>
       <c r="AM53">
-        <v>24233.81793969441</v>
+        <v>29832.21393969442</v>
       </c>
       <c r="AN53">
-        <v>-75197.71294718282</v>
+        <v>-80796.10894718283</v>
       </c>
       <c r="AO53">
         <v>165618.8949337111</v>
@@ -7709,7 +7709,7 @@
         <v>0.5805154594217435</v>
       </c>
       <c r="AR53">
-        <v>0.1695880266032386</v>
+        <v>0.0001695880266032385</v>
       </c>
       <c r="AS53">
         <v>13.5543</v>
@@ -7786,34 +7786,34 @@
         <v>64510</v>
       </c>
       <c r="X54">
-        <v>59208</v>
+        <v>64504.698</v>
       </c>
       <c r="Y54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="Z54">
         <v>563</v>
       </c>
       <c r="AA54">
-        <v>40219</v>
+        <v>40.219</v>
       </c>
       <c r="AB54">
-        <v>34917</v>
+        <v>34.917</v>
       </c>
       <c r="AC54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AD54">
-        <v>23728</v>
+        <v>63906.781</v>
       </c>
       <c r="AE54">
         <v>63947</v>
       </c>
       <c r="AF54">
-        <v>58645</v>
+        <v>63941.698</v>
       </c>
       <c r="AG54">
-        <v>5302</v>
+        <v>5.302</v>
       </c>
       <c r="AH54">
         <v>15619.12079336691</v>
@@ -7828,13 +7828,13 @@
         <v>-48327.87920663309</v>
       </c>
       <c r="AL54">
-        <v>-73501.6049127267</v>
+        <v>-78798.30291272671</v>
       </c>
       <c r="AM54">
-        <v>25173.7256321958</v>
+        <v>30470.4236321958</v>
       </c>
       <c r="AN54">
-        <v>-74064.6049127267</v>
+        <v>-79361.30291272671</v>
       </c>
       <c r="AO54">
         <v>163737.8792066331</v>
@@ -7846,7 +7846,7 @@
         <v>0.5568016578578456</v>
       </c>
       <c r="AR54">
-        <v>0.1603551216653967</v>
+        <v>0.0001603551216653967</v>
       </c>
       <c r="AS54">
         <v>13.5322</v>
@@ -7923,34 +7923,34 @@
         <v>63570</v>
       </c>
       <c r="X55">
-        <v>59333</v>
+        <v>63565.763</v>
       </c>
       <c r="Y55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="Z55">
         <v>567</v>
       </c>
       <c r="AA55">
-        <v>39207</v>
+        <v>39.207</v>
       </c>
       <c r="AB55">
-        <v>34970</v>
+        <v>34.97</v>
       </c>
       <c r="AC55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="AD55">
-        <v>23796</v>
+        <v>62963.793</v>
       </c>
       <c r="AE55">
         <v>63003</v>
       </c>
       <c r="AF55">
-        <v>58766</v>
+        <v>62998.763</v>
       </c>
       <c r="AG55">
-        <v>4237</v>
+        <v>4.237</v>
       </c>
       <c r="AH55">
         <v>19607.87223876208</v>
@@ -7965,13 +7965,13 @@
         <v>-43395.12776123792</v>
       </c>
       <c r="AL55">
-        <v>-70969.26838681221</v>
+        <v>-75202.03138681222</v>
       </c>
       <c r="AM55">
-        <v>27574.1406255743</v>
+        <v>31806.9036255743</v>
       </c>
       <c r="AN55">
-        <v>-71536.26838681221</v>
+        <v>-75769.03138681222</v>
       </c>
       <c r="AO55">
         <v>157972.1277612379</v>
@@ -7983,7 +7983,7 @@
         <v>0.5526094202262959</v>
       </c>
       <c r="AR55">
-        <v>0.161140639153801</v>
+        <v>0.000161140639153801</v>
       </c>
       <c r="AS55">
         <v>13.6035</v>
@@ -8060,34 +8060,34 @@
         <v>61901</v>
       </c>
       <c r="X56">
-        <v>58410</v>
+        <v>60941.466</v>
       </c>
       <c r="Y56">
-        <v>3491</v>
+        <v>959.534</v>
       </c>
       <c r="Z56">
         <v>770</v>
       </c>
       <c r="AA56">
-        <v>37191</v>
+        <v>37.19100000000003</v>
       </c>
       <c r="AB56">
-        <v>33700</v>
+        <v>-922.343</v>
       </c>
       <c r="AC56">
-        <v>3491</v>
+        <v>959.534</v>
       </c>
       <c r="AD56">
-        <v>23940</v>
+        <v>61093.809</v>
       </c>
       <c r="AE56">
         <v>61131</v>
       </c>
       <c r="AF56">
-        <v>57640</v>
+        <v>60171.466</v>
       </c>
       <c r="AG56">
-        <v>3491</v>
+        <v>959.534</v>
       </c>
       <c r="AH56">
         <v>17975.91939518282</v>
@@ -8102,13 +8102,13 @@
         <v>-43155.08060481718</v>
       </c>
       <c r="AL56">
-        <v>-72298.76327253309</v>
+        <v>-74830.22927253309</v>
       </c>
       <c r="AM56">
-        <v>29143.68252719148</v>
+        <v>31675.14852719148</v>
       </c>
       <c r="AN56">
-        <v>-73068.76327253309</v>
+        <v>-75600.22927253309</v>
       </c>
       <c r="AO56">
         <v>157068.0806048172</v>
@@ -8120,7 +8120,7 @@
         <v>0.5402985602290906</v>
       </c>
       <c r="AR56">
-        <v>0.1529121707866666</v>
+        <v>0.0001529121707866667</v>
       </c>
       <c r="AS56">
         <v>14.2324</v>
@@ -8194,37 +8194,37 @@
         <v>942.9275793650794</v>
       </c>
       <c r="W57">
-        <v>61934</v>
+        <v>60796.139</v>
       </c>
       <c r="X57">
-        <v>58582</v>
+        <v>59975.605</v>
       </c>
       <c r="Y57">
-        <v>3352</v>
+        <v>820.534</v>
       </c>
       <c r="Z57">
-        <v>1139</v>
+        <v>1.139</v>
       </c>
       <c r="AA57">
-        <v>36917</v>
+        <v>36.91700000000003</v>
       </c>
       <c r="AB57">
-        <v>33565</v>
+        <v>-783.617</v>
       </c>
       <c r="AC57">
-        <v>3352</v>
+        <v>820.534</v>
       </c>
       <c r="AD57">
-        <v>23878</v>
+        <v>60758.083</v>
       </c>
       <c r="AE57">
         <v>60795</v>
       </c>
       <c r="AF57">
-        <v>57443</v>
+        <v>59974.466</v>
       </c>
       <c r="AG57">
-        <v>3352</v>
+        <v>820.534</v>
       </c>
       <c r="AH57">
         <v>17976.1543367347</v>
@@ -8239,16 +8239,16 @@
         <v>-42818.8456632653</v>
       </c>
       <c r="AL57">
-        <v>-71631.46315192744</v>
+        <v>-74162.92915192744</v>
       </c>
       <c r="AM57">
-        <v>28812.61734693878</v>
+        <v>31344.08334693878</v>
       </c>
       <c r="AN57">
-        <v>-72770.46315192744</v>
+        <v>-74164.06815192744</v>
       </c>
       <c r="AO57">
-        <v>154217.8456632653</v>
+        <v>153079.9846632653</v>
       </c>
       <c r="AP57">
         <v>240549.96</v>
@@ -8257,7 +8257,7 @@
         <v>0.5513785597678215</v>
       </c>
       <c r="AR57">
-        <v>0.1534691587560439</v>
+        <v>0.000153469158756044</v>
       </c>
       <c r="AS57">
         <v>14.112</v>
@@ -8331,37 +8331,37 @@
         <v>785.6953233628378</v>
       </c>
       <c r="W58">
-        <v>61093</v>
+        <v>59742.352</v>
       </c>
       <c r="X58">
-        <v>57387</v>
+        <v>59738.646</v>
       </c>
       <c r="Y58">
-        <v>3706</v>
+        <v>3.706</v>
       </c>
       <c r="Z58">
-        <v>1352</v>
+        <v>1.352</v>
       </c>
       <c r="AA58">
-        <v>35847</v>
+        <v>35.84700000000001</v>
       </c>
       <c r="AB58">
-        <v>32141</v>
+        <v>32.14100000000001</v>
       </c>
       <c r="AC58">
-        <v>3706</v>
+        <v>3.706</v>
       </c>
       <c r="AD58">
-        <v>23894</v>
+        <v>59705.153</v>
       </c>
       <c r="AE58">
         <v>59741</v>
       </c>
       <c r="AF58">
-        <v>56035</v>
+        <v>59737.294</v>
       </c>
       <c r="AG58">
-        <v>3706</v>
+        <v>3.706</v>
       </c>
       <c r="AH58">
         <v>15675.86797571811</v>
@@ -8376,16 +8376,16 @@
         <v>-44065.13202428189</v>
       </c>
       <c r="AL58">
-        <v>-73840.39257978094</v>
+        <v>-77542.68657978094</v>
       </c>
       <c r="AM58">
-        <v>29775.26048767254</v>
+        <v>33477.55448767254</v>
       </c>
       <c r="AN58">
-        <v>-75192.39257978094</v>
+        <v>-77544.03857978093</v>
       </c>
       <c r="AO58">
-        <v>154280.1320242819</v>
+        <v>152929.4840242819</v>
       </c>
       <c r="AP58">
         <v>242730.9</v>
@@ -8394,7 +8394,7 @@
         <v>0.548772310151291</v>
       </c>
       <c r="AR58">
-        <v>0.1476820627287255</v>
+        <v>0.0001476820627287256</v>
       </c>
       <c r="AS58">
         <v>14.7435</v>
@@ -8468,37 +8468,37 @@
         <v>642.3187931586876</v>
       </c>
       <c r="W59">
-        <v>63936</v>
+        <v>62505.432</v>
       </c>
       <c r="X59">
-        <v>60307</v>
+        <v>62501.80300000001</v>
       </c>
       <c r="Y59">
-        <v>3629</v>
+        <v>3.629</v>
       </c>
       <c r="Z59">
-        <v>1432</v>
+        <v>1.432</v>
       </c>
       <c r="AA59">
-        <v>38858</v>
+        <v>-925.177</v>
       </c>
       <c r="AB59">
-        <v>35229</v>
+        <v>-928.806</v>
       </c>
       <c r="AC59">
-        <v>3629</v>
+        <v>3.629</v>
       </c>
       <c r="AD59">
-        <v>23646</v>
+        <v>63429.177</v>
       </c>
       <c r="AE59">
         <v>62504</v>
       </c>
       <c r="AF59">
-        <v>58875</v>
+        <v>62500.371</v>
       </c>
       <c r="AG59">
-        <v>3629</v>
+        <v>3.629</v>
       </c>
       <c r="AH59">
         <v>17024.47288628944</v>
@@ -8513,16 +8513,16 @@
         <v>-45479.52711371056</v>
       </c>
       <c r="AL59">
-        <v>-74663.57977327415</v>
+        <v>-78288.95077327415</v>
       </c>
       <c r="AM59">
-        <v>29184.05265956359</v>
+        <v>32809.42365956359</v>
       </c>
       <c r="AN59">
-        <v>-76095.57977327415</v>
+        <v>-78290.38277327415</v>
       </c>
       <c r="AO59">
-        <v>155618.5271137106</v>
+        <v>154187.9591137106</v>
       </c>
       <c r="AP59">
         <v>243057.06</v>
@@ -8531,7 +8531,7 @@
         <v>0.5749767724249588</v>
       </c>
       <c r="AR59">
-        <v>0.1598719247241779</v>
+        <v>-0.00380641895363994</v>
       </c>
       <c r="AS59">
         <v>14.6697</v>
@@ -8605,37 +8605,37 @@
         <v>629.4280664355007</v>
       </c>
       <c r="W60">
-        <v>63906</v>
+        <v>62475.432</v>
       </c>
       <c r="X60">
-        <v>60195</v>
+        <v>62471.721</v>
       </c>
       <c r="Y60">
-        <v>3711</v>
+        <v>3.711</v>
       </c>
       <c r="Z60">
-        <v>1432</v>
+        <v>1.432</v>
       </c>
       <c r="AA60">
-        <v>38838</v>
+        <v>-870.252</v>
       </c>
       <c r="AB60">
-        <v>35127</v>
+        <v>-873.963</v>
       </c>
       <c r="AC60">
-        <v>3711</v>
+        <v>3.711</v>
       </c>
       <c r="AD60">
-        <v>23636</v>
+        <v>63344.252</v>
       </c>
       <c r="AE60">
         <v>62474</v>
       </c>
       <c r="AF60">
-        <v>58763</v>
+        <v>62470.289</v>
       </c>
       <c r="AG60">
-        <v>3711</v>
+        <v>3.711</v>
       </c>
       <c r="AH60">
         <v>15772.29862244827</v>
@@ -8650,16 +8650,16 @@
         <v>-46701.70137755173</v>
       </c>
       <c r="AL60">
-        <v>-75986.35690867144</v>
+        <v>-79693.64590867143</v>
       </c>
       <c r="AM60">
-        <v>29284.65553111972</v>
+        <v>32991.94453111971</v>
       </c>
       <c r="AN60">
-        <v>-77418.35690867144</v>
+        <v>-79695.07790867143</v>
       </c>
       <c r="AO60">
-        <v>156169.7013775517</v>
+        <v>154739.1333775517</v>
       </c>
       <c r="AP60">
         <v>244914.74</v>
@@ -8668,7 +8668,7 @@
         <v>0.5782702062275538</v>
       </c>
       <c r="AR60">
-        <v>0.1585776339962225</v>
+        <v>-0.003553285522953825</v>
       </c>
       <c r="AS60">
         <v>14.8234</v>
@@ -8742,37 +8742,37 @@
         <v>644.0719131521954</v>
       </c>
       <c r="W61">
-        <v>63012</v>
+        <v>61898.115</v>
       </c>
       <c r="X61">
-        <v>59232</v>
+        <v>61894.33499999999</v>
       </c>
       <c r="Y61">
-        <v>3780</v>
+        <v>3.78</v>
       </c>
       <c r="Z61">
-        <v>1115</v>
+        <v>1.115</v>
       </c>
       <c r="AA61">
-        <v>38246</v>
+        <v>-745.9690000000001</v>
       </c>
       <c r="AB61">
-        <v>34466</v>
+        <v>-749.749</v>
       </c>
       <c r="AC61">
-        <v>3780</v>
+        <v>3.78</v>
       </c>
       <c r="AD61">
-        <v>23651</v>
+        <v>62642.969</v>
       </c>
       <c r="AE61">
         <v>61897</v>
       </c>
       <c r="AF61">
-        <v>58117</v>
+        <v>61893.22</v>
       </c>
       <c r="AG61">
-        <v>3780</v>
+        <v>3.78</v>
       </c>
       <c r="AH61">
         <v>16217.39894514626</v>
@@ -8787,16 +8787,16 @@
         <v>-45679.60105485375</v>
       </c>
       <c r="AL61">
-        <v>-74781.39672476106</v>
+        <v>-78557.61672476106</v>
       </c>
       <c r="AM61">
-        <v>29101.79560158775</v>
+        <v>32878.01560158775</v>
       </c>
       <c r="AN61">
-        <v>-75896.39672476106</v>
+        <v>-78558.73172476105</v>
       </c>
       <c r="AO61">
-        <v>155755.6010548538</v>
+        <v>154641.7160548538</v>
       </c>
       <c r="AP61">
         <v>243166.85</v>
@@ -8805,7 +8805,7 @@
         <v>0.5680656381641137</v>
       </c>
       <c r="AR61">
-        <v>0.157282952014224</v>
+        <v>-0.003067724897534348</v>
       </c>
       <c r="AS61">
         <v>14.6371</v>
@@ -8879,37 +8879,37 @@
         <v>629.4970432279397</v>
       </c>
       <c r="W62">
-        <v>64165</v>
+        <v>63051.115</v>
       </c>
       <c r="X62">
-        <v>60380</v>
+        <v>63047.32999999999</v>
       </c>
       <c r="Y62">
-        <v>3785</v>
+        <v>3.785</v>
       </c>
       <c r="Z62">
-        <v>1115</v>
+        <v>1.115</v>
       </c>
       <c r="AA62">
-        <v>39406</v>
+        <v>-629.924</v>
       </c>
       <c r="AB62">
-        <v>35621</v>
+        <v>-633.709</v>
       </c>
       <c r="AC62">
-        <v>3785</v>
+        <v>3.785</v>
       </c>
       <c r="AD62">
-        <v>23644</v>
+        <v>63679.924</v>
       </c>
       <c r="AE62">
         <v>63050</v>
       </c>
       <c r="AF62">
-        <v>59265</v>
+        <v>63046.215</v>
       </c>
       <c r="AG62">
-        <v>3785</v>
+        <v>3.785</v>
       </c>
       <c r="AH62">
         <v>18119.49262334594</v>
@@ -8924,16 +8924,16 @@
         <v>-44930.50737665406</v>
       </c>
       <c r="AL62">
-        <v>-74121.62382798444</v>
+        <v>-77902.83882798444</v>
       </c>
       <c r="AM62">
-        <v>29191.11651922411</v>
+        <v>32972.33151922411</v>
       </c>
       <c r="AN62">
-        <v>-75236.62382798444</v>
+        <v>-77903.95382798443</v>
       </c>
       <c r="AO62">
-        <v>155956.5073766541</v>
+        <v>154842.6223766541</v>
       </c>
       <c r="AP62">
         <v>243040.03</v>
@@ -8942,7 +8942,7 @@
         <v>0.5736459499049231</v>
       </c>
       <c r="AR62">
-        <v>0.1621378996702724</v>
+        <v>-0.002591852872960886</v>
       </c>
       <c r="AS62">
         <v>14.7289</v>
@@ -9016,37 +9016,37 @@
         <v>609.6858832477918</v>
       </c>
       <c r="W63">
-        <v>64765</v>
+        <v>63651.115</v>
       </c>
       <c r="X63">
-        <v>60965</v>
+        <v>63647.315</v>
       </c>
       <c r="Y63">
-        <v>3800</v>
+        <v>3.8</v>
       </c>
       <c r="Z63">
-        <v>1115</v>
+        <v>1.115</v>
       </c>
       <c r="AA63">
-        <v>39966</v>
+        <v>-574.419</v>
       </c>
       <c r="AB63">
-        <v>36166</v>
+        <v>-578.2189999999999</v>
       </c>
       <c r="AC63">
-        <v>3800</v>
+        <v>3.8</v>
       </c>
       <c r="AD63">
-        <v>23684</v>
+        <v>64224.419</v>
       </c>
       <c r="AE63">
         <v>63650</v>
       </c>
       <c r="AF63">
-        <v>59850</v>
+        <v>63646.2</v>
       </c>
       <c r="AG63">
-        <v>3800</v>
+        <v>3.8</v>
       </c>
       <c r="AH63">
         <v>18939.58198625398</v>
@@ -9061,16 +9061,16 @@
         <v>-44710.41801374602</v>
       </c>
       <c r="AL63">
-        <v>-74755.82056149055</v>
+        <v>-78552.02056149054</v>
       </c>
       <c r="AM63">
-        <v>30045.40241069532</v>
+        <v>33841.60241069531</v>
       </c>
       <c r="AN63">
-        <v>-75870.82056149055</v>
+        <v>-78553.13556149055</v>
       </c>
       <c r="AO63">
-        <v>158121.418013746</v>
+        <v>157007.533013746</v>
       </c>
       <c r="AP63">
         <v>244494.62</v>
@@ -9079,7 +9079,7 @@
         <v>0.5668055852390111</v>
       </c>
       <c r="AR63">
-        <v>0.1634637195697803</v>
+        <v>-0.002349413659899756</v>
       </c>
       <c r="AS63">
         <v>14.5933</v>
@@ -9153,37 +9153,37 @@
         <v>603.2481838955015</v>
       </c>
       <c r="W64">
-        <v>65159</v>
+        <v>64045.115</v>
       </c>
       <c r="X64">
-        <v>61365</v>
+        <v>64041.321</v>
       </c>
       <c r="Y64">
-        <v>3794</v>
+        <v>3.794</v>
       </c>
       <c r="Z64">
-        <v>1115</v>
+        <v>1.115</v>
       </c>
       <c r="AA64">
-        <v>40457</v>
+        <v>-613.888</v>
       </c>
       <c r="AB64">
-        <v>36663</v>
+        <v>-617.682</v>
       </c>
       <c r="AC64">
-        <v>3794</v>
+        <v>3.794</v>
       </c>
       <c r="AD64">
-        <v>23587</v>
+        <v>64657.888</v>
       </c>
       <c r="AE64">
         <v>64044</v>
       </c>
       <c r="AF64">
-        <v>60250</v>
+        <v>64040.206</v>
       </c>
       <c r="AG64">
-        <v>3794</v>
+        <v>3.794</v>
       </c>
       <c r="AH64">
         <v>16959.66996350738</v>
@@ -9198,16 +9198,16 @@
         <v>-47084.33003649263</v>
       </c>
       <c r="AL64">
-        <v>-76812.30970976432</v>
+        <v>-80602.51570976432</v>
       </c>
       <c r="AM64">
-        <v>29727.97974148222</v>
+        <v>33518.18574148222</v>
       </c>
       <c r="AN64">
-        <v>-77927.30970976432</v>
+        <v>-80603.63070976432</v>
       </c>
       <c r="AO64">
-        <v>157114.3300364926</v>
+        <v>156000.4450364926</v>
       </c>
       <c r="AP64">
         <v>243960.55</v>
@@ -9216,7 +9216,7 @@
         <v>0.5880181793141441</v>
       </c>
       <c r="AR64">
-        <v>0.1658341891752581</v>
+        <v>-0.002516341269110928</v>
       </c>
       <c r="AS64">
         <v>14.6605</v>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS64"/>
+  <dimension ref="A1:AS65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9222,6 +9222,143 @@
         <v>14.6605</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B65">
+        <v>106864</v>
+      </c>
+      <c r="C65">
+        <v>57963.14418327717</v>
+      </c>
+      <c r="D65">
+        <v>41466</v>
+      </c>
+      <c r="E65">
+        <v>7434.855816722825</v>
+      </c>
+      <c r="F65">
+        <v>6959.703581915858</v>
+      </c>
+      <c r="G65">
+        <v>51003.44060136132</v>
+      </c>
+      <c r="H65">
+        <v>90053.57934478139</v>
+      </c>
+      <c r="I65">
+        <v>81002.10902718575</v>
+      </c>
+      <c r="J65">
+        <v>9051.470317595638</v>
+      </c>
+      <c r="K65">
+        <v>244.9958727452334</v>
+      </c>
+      <c r="L65">
+        <v>7434.855816722825</v>
+      </c>
+      <c r="M65">
+        <v>5792.736505230112</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>76580.99115008322</v>
+      </c>
+      <c r="P65">
+        <v>49700.86780605962</v>
+      </c>
+      <c r="Q65">
+        <v>41230.07462888537</v>
+      </c>
+      <c r="R65">
+        <v>8470.793177174252</v>
+      </c>
+      <c r="S65">
+        <v>26880.1233440236</v>
+      </c>
+      <c r="T65">
+        <v>25759.84370559818</v>
+      </c>
+      <c r="U65">
+        <v>539.6024980040326</v>
+      </c>
+      <c r="V65">
+        <v>580.677140421386</v>
+      </c>
+      <c r="W65">
+        <v>64612.115</v>
+      </c>
+      <c r="X65">
+        <v>64608.549</v>
+      </c>
+      <c r="Y65">
+        <v>3.566</v>
+      </c>
+      <c r="Z65">
+        <v>1.115</v>
+      </c>
+      <c r="AA65">
+        <v>-603.096</v>
+      </c>
+      <c r="AB65">
+        <v>-606.662</v>
+      </c>
+      <c r="AC65">
+        <v>3.566</v>
+      </c>
+      <c r="AD65">
+        <v>65214.096</v>
+      </c>
+      <c r="AE65">
+        <v>64611</v>
+      </c>
+      <c r="AF65">
+        <v>64607.434</v>
+      </c>
+      <c r="AG65">
+        <v>3.566</v>
+      </c>
+      <c r="AH65">
+        <v>16810.42065521861</v>
+      </c>
+      <c r="AI65">
+        <v>-15604.10902718575</v>
+      </c>
+      <c r="AJ65">
+        <v>32414.52968240436</v>
+      </c>
+      <c r="AK65">
+        <v>-47800.57934478139</v>
+      </c>
+      <c r="AL65">
+        <v>-80211.54302718575</v>
+      </c>
+      <c r="AM65">
+        <v>32410.96368240436</v>
+      </c>
+      <c r="AN65">
+        <v>-80212.65802718575</v>
+      </c>
+      <c r="AO65">
+        <v>154665.6943447814</v>
+      </c>
+      <c r="AP65">
+        <v>243960.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.6046095972450966</v>
+      </c>
+      <c r="AR65">
+        <v>-0.002472105115377285</v>
+      </c>
+      <c r="AS65">
+        <v>14.7798</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Tablo.xlsx
+++ b/docs/Tablo.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS65"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,34 +662,34 @@
         <v>60658</v>
       </c>
       <c r="X2">
-        <v>60652.44100000001</v>
+        <v>55099</v>
       </c>
       <c r="Y2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="Z2">
         <v>1397</v>
       </c>
       <c r="AA2">
-        <v>44.039</v>
+        <v>44039</v>
       </c>
       <c r="AB2">
-        <v>38.48</v>
+        <v>38480</v>
       </c>
       <c r="AC2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AD2">
-        <v>59216.961</v>
+        <v>15222</v>
       </c>
       <c r="AE2">
         <v>59261</v>
       </c>
       <c r="AF2">
-        <v>59255.441</v>
+        <v>53702</v>
       </c>
       <c r="AG2">
-        <v>5.559</v>
+        <v>5559</v>
       </c>
       <c r="AH2">
         <v>14388.55263228834</v>
@@ -704,13 +704,13 @@
         <v>-44872.44736771166</v>
       </c>
       <c r="AL2">
-        <v>-77610.67498118448</v>
+        <v>-72057.23398118447</v>
       </c>
       <c r="AM2">
-        <v>32738.22761347279</v>
+        <v>27184.78661347279</v>
       </c>
       <c r="AN2">
-        <v>-79007.67498118448</v>
+        <v>-73454.23398118447</v>
       </c>
       <c r="AO2">
         <v>139475.4473677117</v>
@@ -722,7 +722,7 @@
         <v>0.6358067077226787</v>
       </c>
       <c r="AR2">
-        <v>0.0001669603451077423</v>
+        <v>0.1669603451077423</v>
       </c>
       <c r="AS2">
         <v>7.4194</v>
@@ -796,37 +796,37 @@
         <v>791.0103988378615</v>
       </c>
       <c r="W3">
-        <v>57001.285</v>
+        <v>58285</v>
       </c>
       <c r="X3">
-        <v>56996.065</v>
+        <v>53065</v>
       </c>
       <c r="Y3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="Z3">
-        <v>1.285</v>
+        <v>1285</v>
       </c>
       <c r="AA3">
-        <v>39.899</v>
+        <v>39899</v>
       </c>
       <c r="AB3">
-        <v>34.679</v>
+        <v>34679</v>
       </c>
       <c r="AC3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AD3">
-        <v>56960.101</v>
+        <v>17101</v>
       </c>
       <c r="AE3">
         <v>57000</v>
       </c>
       <c r="AF3">
-        <v>56994.78</v>
+        <v>51780</v>
       </c>
       <c r="AG3">
-        <v>5.22</v>
+        <v>5220</v>
       </c>
       <c r="AH3">
         <v>12008.14986983474</v>
@@ -841,16 +841,16 @@
         <v>-44991.85013016526</v>
       </c>
       <c r="AL3">
-        <v>-73405.02540106722</v>
+        <v>-68190.24540106722</v>
       </c>
       <c r="AM3">
-        <v>28413.17512707294</v>
+        <v>23198.39512707294</v>
       </c>
       <c r="AN3">
-        <v>-73406.31040106723</v>
+        <v>-69475.24540106722</v>
       </c>
       <c r="AO3">
-        <v>139041.1351301653</v>
+        <v>140324.8501301653</v>
       </c>
       <c r="AP3">
         <v>264440.29</v>
@@ -859,7 +859,7 @@
         <v>0.6060734943858456</v>
       </c>
       <c r="AR3">
-        <v>0.0001508809417808459</v>
+        <v>0.1508809417808459</v>
       </c>
       <c r="AS3">
         <v>6.9527</v>
@@ -933,37 +933,37 @@
         <v>370.5564206662588</v>
       </c>
       <c r="W4">
-        <v>58001.426</v>
+        <v>59426</v>
       </c>
       <c r="X4">
-        <v>57996.251</v>
+        <v>54251</v>
       </c>
       <c r="Y4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z4">
-        <v>1.426</v>
+        <v>1426</v>
       </c>
       <c r="AA4">
-        <v>40.389</v>
+        <v>40389</v>
       </c>
       <c r="AB4">
-        <v>35.21400000000001</v>
+        <v>35214</v>
       </c>
       <c r="AC4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD4">
-        <v>57959.611</v>
+        <v>17611</v>
       </c>
       <c r="AE4">
         <v>58000</v>
       </c>
       <c r="AF4">
-        <v>57994.825</v>
+        <v>52825</v>
       </c>
       <c r="AG4">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH4">
         <v>13760.6340303654</v>
@@ -978,16 +978,16 @@
         <v>-44239.3659696346</v>
       </c>
       <c r="AL4">
-        <v>-73550.79107530171</v>
+        <v>-68380.96607530171</v>
       </c>
       <c r="AM4">
-        <v>29311.4251056671</v>
+        <v>24141.60010566709</v>
       </c>
       <c r="AN4">
-        <v>-73552.21707530171</v>
+        <v>-69806.96607530171</v>
       </c>
       <c r="AO4">
-        <v>139453.7919696346</v>
+        <v>140878.3659696346</v>
       </c>
       <c r="AP4">
         <v>262229.34</v>
@@ -996,7 +996,7 @@
         <v>0.6091605137953849</v>
       </c>
       <c r="AR4">
-        <v>0.0001540216666830645</v>
+        <v>0.1540216666830645</v>
       </c>
       <c r="AS4">
         <v>7.1924</v>
@@ -1073,34 +1073,34 @@
         <v>58686</v>
       </c>
       <c r="X5">
-        <v>58680.804</v>
+        <v>53490</v>
       </c>
       <c r="Y5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="Z5">
         <v>986</v>
       </c>
       <c r="AA5">
-        <v>40.305</v>
+        <v>40305</v>
       </c>
       <c r="AB5">
-        <v>35.109</v>
+        <v>35109</v>
       </c>
       <c r="AC5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AD5">
-        <v>57659.695</v>
+        <v>17395</v>
       </c>
       <c r="AE5">
         <v>57700</v>
       </c>
       <c r="AF5">
-        <v>57694.804</v>
+        <v>52504</v>
       </c>
       <c r="AG5">
-        <v>5.196</v>
+        <v>5196</v>
       </c>
       <c r="AH5">
         <v>11439.30199667221</v>
@@ -1115,13 +1115,13 @@
         <v>-46260.69800332779</v>
       </c>
       <c r="AL5">
-        <v>-72906.54427159036</v>
+        <v>-67715.74027159036</v>
       </c>
       <c r="AM5">
-        <v>26645.84613407761</v>
+        <v>21455.04213407761</v>
       </c>
       <c r="AN5">
-        <v>-73892.54427159036</v>
+        <v>-68701.74027159036</v>
       </c>
       <c r="AO5">
         <v>138909.6980033278</v>
@@ -1133,7 +1133,7 @@
         <v>0.6294797246435312</v>
       </c>
       <c r="AR5">
-        <v>0.0001552733834376522</v>
+        <v>0.1552733834376522</v>
       </c>
       <c r="AS5">
         <v>7.4524</v>
@@ -1210,34 +1210,34 @@
         <v>58586</v>
       </c>
       <c r="X6">
-        <v>58580.825</v>
+        <v>53411</v>
       </c>
       <c r="Y6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="Z6">
         <v>986</v>
       </c>
       <c r="AA6">
-        <v>40.17</v>
+        <v>40170</v>
       </c>
       <c r="AB6">
-        <v>34.99500000000001</v>
+        <v>34995</v>
       </c>
       <c r="AC6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AD6">
-        <v>57559.83</v>
+        <v>17430</v>
       </c>
       <c r="AE6">
         <v>57600</v>
       </c>
       <c r="AF6">
-        <v>57594.825</v>
+        <v>52425</v>
       </c>
       <c r="AG6">
-        <v>5.175</v>
+        <v>5175</v>
       </c>
       <c r="AH6">
         <v>10818.54305133924</v>
@@ -1252,13 +1252,13 @@
         <v>-46781.45694866077</v>
       </c>
       <c r="AL6">
-        <v>-73788.49230247428</v>
+        <v>-68618.66730247428</v>
       </c>
       <c r="AM6">
-        <v>27007.03535381351</v>
+        <v>21837.21035381351</v>
       </c>
       <c r="AN6">
-        <v>-74774.49230247428</v>
+        <v>-69604.66730247428</v>
       </c>
       <c r="AO6">
         <v>139378.4569486608</v>
@@ -1270,7 +1270,7 @@
         <v>0.6287454563316632</v>
       </c>
       <c r="AR6">
-        <v>0.0001548523844684408</v>
+        <v>0.1548523844684408</v>
       </c>
       <c r="AS6">
         <v>7.4446</v>
@@ -1347,34 +1347,34 @@
         <v>63086</v>
       </c>
       <c r="X7">
-        <v>63080.751</v>
+        <v>57837</v>
       </c>
       <c r="Y7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="Z7">
         <v>986</v>
       </c>
       <c r="AA7">
-        <v>44.786</v>
+        <v>44786</v>
       </c>
       <c r="AB7">
-        <v>39.537</v>
+        <v>39537</v>
       </c>
       <c r="AC7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AD7">
-        <v>62055.214</v>
+        <v>17314</v>
       </c>
       <c r="AE7">
         <v>62100</v>
       </c>
       <c r="AF7">
-        <v>62094.751</v>
+        <v>56851</v>
       </c>
       <c r="AG7">
-        <v>5.249</v>
+        <v>5249</v>
       </c>
       <c r="AH7">
         <v>13538.77104313896</v>
@@ -1389,13 +1389,13 @@
         <v>-48561.22895686104</v>
       </c>
       <c r="AL7">
-        <v>-75723.59369105438</v>
+        <v>-70479.84269105439</v>
       </c>
       <c r="AM7">
-        <v>27162.36473419334</v>
+        <v>21918.61373419334</v>
       </c>
       <c r="AN7">
-        <v>-76709.59369105438</v>
+        <v>-71465.84269105439</v>
       </c>
       <c r="AO7">
         <v>142708.228956861</v>
@@ -1407,7 +1407,7 @@
         <v>0.6665879498931957</v>
       </c>
       <c r="AR7">
-        <v>0.0001711286424205766</v>
+        <v>0.1711286424205766</v>
       </c>
       <c r="AS7">
         <v>7.4573</v>
@@ -1484,34 +1484,34 @@
         <v>60986</v>
       </c>
       <c r="X8">
-        <v>60980.86399999999</v>
+        <v>55850</v>
       </c>
       <c r="Y8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="Z8">
         <v>986</v>
       </c>
       <c r="AA8">
-        <v>42.779</v>
+        <v>42779</v>
       </c>
       <c r="AB8">
-        <v>37.643</v>
+        <v>37643</v>
       </c>
       <c r="AC8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AD8">
-        <v>59957.221</v>
+        <v>17221</v>
       </c>
       <c r="AE8">
         <v>60000</v>
       </c>
       <c r="AF8">
-        <v>59994.864</v>
+        <v>54864</v>
       </c>
       <c r="AG8">
-        <v>5.136</v>
+        <v>5136</v>
       </c>
       <c r="AH8">
         <v>12649.32289790829</v>
@@ -1526,13 +1526,13 @@
         <v>-47350.67710209171</v>
       </c>
       <c r="AL8">
-        <v>-75808.80515276607</v>
+        <v>-70677.94115276607</v>
       </c>
       <c r="AM8">
-        <v>28458.12805067436</v>
+        <v>23327.26405067436</v>
       </c>
       <c r="AN8">
-        <v>-76794.80515276606</v>
+        <v>-71663.94115276607</v>
       </c>
       <c r="AO8">
         <v>138974.6771020917</v>
@@ -1544,7 +1544,7 @@
         <v>0.6619740064873453</v>
       </c>
       <c r="AR8">
-        <v>0.000169458761099947</v>
+        <v>0.169458761099947</v>
       </c>
       <c r="AS8">
         <v>7.9409</v>
@@ -1621,34 +1621,34 @@
         <v>60740</v>
       </c>
       <c r="X9">
-        <v>60734.81200000001</v>
+        <v>55552</v>
       </c>
       <c r="Y9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="Z9">
         <v>840</v>
       </c>
       <c r="AA9">
-        <v>42.721</v>
+        <v>42721</v>
       </c>
       <c r="AB9">
-        <v>37.53299999999999</v>
+        <v>37533</v>
       </c>
       <c r="AC9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AD9">
-        <v>59857.279</v>
+        <v>17179</v>
       </c>
       <c r="AE9">
         <v>59900</v>
       </c>
       <c r="AF9">
-        <v>59894.812</v>
+        <v>54712</v>
       </c>
       <c r="AG9">
-        <v>5.188</v>
+        <v>5188</v>
       </c>
       <c r="AH9">
         <v>10542.33164845117</v>
@@ -1663,13 +1663,13 @@
         <v>-49357.66835154883</v>
       </c>
       <c r="AL9">
-        <v>-77616.59758752617</v>
+        <v>-72433.78558752616</v>
       </c>
       <c r="AM9">
-        <v>28258.92923597734</v>
+        <v>23076.11723597733</v>
       </c>
       <c r="AN9">
-        <v>-78456.59758752617</v>
+        <v>-73273.78558752616</v>
       </c>
       <c r="AO9">
         <v>137643.6683515488</v>
@@ -1681,7 +1681,7 @@
         <v>0.6849941678292889</v>
       </c>
       <c r="AR9">
-        <v>0.0001711120718583385</v>
+        <v>0.1711120718583385</v>
       </c>
       <c r="AS9">
         <v>8.1707</v>
@@ -1758,34 +1758,34 @@
         <v>59940</v>
       </c>
       <c r="X10">
-        <v>59934.798</v>
+        <v>54738</v>
       </c>
       <c r="Y10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="Z10">
         <v>840</v>
       </c>
       <c r="AA10">
-        <v>41.961</v>
+        <v>41961</v>
       </c>
       <c r="AB10">
-        <v>36.759</v>
+        <v>36759</v>
       </c>
       <c r="AC10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AD10">
-        <v>59058.039</v>
+        <v>17139</v>
       </c>
       <c r="AE10">
         <v>59100</v>
       </c>
       <c r="AF10">
-        <v>59094.798</v>
+        <v>53898</v>
       </c>
       <c r="AG10">
-        <v>5.202</v>
+        <v>5202</v>
       </c>
       <c r="AH10">
         <v>9789.02978483279</v>
@@ -1800,13 +1800,13 @@
         <v>-49310.97021516721</v>
       </c>
       <c r="AL10">
-        <v>-77971.77172359481</v>
+        <v>-72774.9737235948</v>
       </c>
       <c r="AM10">
-        <v>28660.80138575529</v>
+        <v>23464.00338575529</v>
       </c>
       <c r="AN10">
-        <v>-78811.77172359479</v>
+        <v>-73614.9737235948</v>
       </c>
       <c r="AO10">
         <v>139470.9702151672</v>
@@ -1818,7 +1818,7 @@
         <v>0.66166592028661</v>
       </c>
       <c r="AR10">
-        <v>0.0001668596216735144</v>
+        <v>0.1668596216735144</v>
       </c>
       <c r="AS10">
         <v>8.1518</v>
@@ -1895,34 +1895,34 @@
         <v>60440</v>
       </c>
       <c r="X11">
-        <v>60434.731</v>
+        <v>55171</v>
       </c>
       <c r="Y11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="Z11">
         <v>840</v>
       </c>
       <c r="AA11">
-        <v>42.328</v>
+        <v>42328</v>
       </c>
       <c r="AB11">
-        <v>37.05900000000001</v>
+        <v>37059</v>
       </c>
       <c r="AC11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AD11">
-        <v>59557.672</v>
+        <v>17272</v>
       </c>
       <c r="AE11">
         <v>59600</v>
       </c>
       <c r="AF11">
-        <v>59594.731</v>
+        <v>54331</v>
       </c>
       <c r="AG11">
-        <v>5.269</v>
+        <v>5269</v>
       </c>
       <c r="AH11">
         <v>10446.55566174735</v>
@@ -1937,13 +1937,13 @@
         <v>-49153.44433825265</v>
       </c>
       <c r="AL11">
-        <v>-78056.82559207865</v>
+        <v>-72793.09459207865</v>
       </c>
       <c r="AM11">
-        <v>28903.38125382601</v>
+        <v>23639.65025382601</v>
       </c>
       <c r="AN11">
-        <v>-78896.82559207865</v>
+        <v>-73633.09459207865</v>
       </c>
       <c r="AO11">
         <v>139533.4443382527</v>
@@ -1955,7 +1955,7 @@
         <v>0.6656243019879383</v>
       </c>
       <c r="AR11">
-        <v>0.0001664977157503071</v>
+        <v>0.1664977157503071</v>
       </c>
       <c r="AS11">
         <v>8.056699999999999</v>
@@ -2032,34 +2032,34 @@
         <v>60640</v>
       </c>
       <c r="X12">
-        <v>60634.848</v>
+        <v>55488</v>
       </c>
       <c r="Y12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="Z12">
         <v>840</v>
       </c>
       <c r="AA12">
-        <v>42.432</v>
+        <v>42432</v>
       </c>
       <c r="AB12">
-        <v>37.28</v>
+        <v>37280</v>
       </c>
       <c r="AC12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AD12">
-        <v>59757.568</v>
+        <v>17368</v>
       </c>
       <c r="AE12">
         <v>59800</v>
       </c>
       <c r="AF12">
-        <v>59794.848</v>
+        <v>54648</v>
       </c>
       <c r="AG12">
-        <v>5.152</v>
+        <v>5152</v>
       </c>
       <c r="AH12">
         <v>12436.09154231263</v>
@@ -2074,13 +2074,13 @@
         <v>-47363.90845768737</v>
       </c>
       <c r="AL12">
-        <v>-76970.58029012987</v>
+        <v>-71823.73229012988</v>
       </c>
       <c r="AM12">
-        <v>29606.6718324425</v>
+        <v>24459.8238324425</v>
       </c>
       <c r="AN12">
-        <v>-77810.58029012987</v>
+        <v>-72663.73229012988</v>
       </c>
       <c r="AO12">
         <v>136879.9084576874</v>
@@ -2092,7 +2092,7 @@
         <v>0.6743651044250981</v>
       </c>
       <c r="AR12">
-        <v>0.0001676833298419065</v>
+        <v>0.1676833298419065</v>
       </c>
       <c r="AS12">
         <v>8.269399999999999</v>
@@ -2169,34 +2169,34 @@
         <v>61618</v>
       </c>
       <c r="X13">
-        <v>61612.41600000001</v>
+        <v>56034</v>
       </c>
       <c r="Y13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="Z13">
         <v>918</v>
       </c>
       <c r="AA13">
-        <v>43.217</v>
+        <v>43217</v>
       </c>
       <c r="AB13">
-        <v>37.633</v>
+        <v>37633</v>
       </c>
       <c r="AC13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AD13">
-        <v>60656.783</v>
+        <v>17483</v>
       </c>
       <c r="AE13">
         <v>60700</v>
       </c>
       <c r="AF13">
-        <v>60694.416</v>
+        <v>55116</v>
       </c>
       <c r="AG13">
-        <v>5.584</v>
+        <v>5584</v>
       </c>
       <c r="AH13">
         <v>11821.82953530757</v>
@@ -2211,13 +2211,13 @@
         <v>-48878.17046469243</v>
       </c>
       <c r="AL13">
-        <v>-78769.63339874988</v>
+        <v>-73191.21739874988</v>
       </c>
       <c r="AM13">
-        <v>29891.4628117378</v>
+        <v>24313.0468117378</v>
       </c>
       <c r="AN13">
-        <v>-79687.6333987499</v>
+        <v>-74109.21739874988</v>
       </c>
       <c r="AO13">
         <v>137646.1704646924</v>
@@ -2229,7 +2229,7 @@
         <v>0.690950483779169</v>
       </c>
       <c r="AR13">
-        <v>0.0001708803606561344</v>
+        <v>0.1708803606561344</v>
       </c>
       <c r="AS13">
         <v>8.1753</v>
@@ -2306,34 +2306,34 @@
         <v>60359</v>
       </c>
       <c r="X14">
-        <v>60353.434</v>
+        <v>54793</v>
       </c>
       <c r="Y14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="Z14">
         <v>559</v>
       </c>
       <c r="AA14">
-        <v>42.279</v>
+        <v>42279</v>
       </c>
       <c r="AB14">
-        <v>36.713</v>
+        <v>36713</v>
       </c>
       <c r="AC14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AD14">
-        <v>59757.721</v>
+        <v>17521</v>
       </c>
       <c r="AE14">
         <v>59800</v>
       </c>
       <c r="AF14">
-        <v>59794.434</v>
+        <v>54234</v>
       </c>
       <c r="AG14">
-        <v>5.566</v>
+        <v>5566</v>
       </c>
       <c r="AH14">
         <v>11938.8719510727</v>
@@ -2348,13 +2348,13 @@
         <v>-47861.12804892731</v>
       </c>
       <c r="AL14">
-        <v>-77874.80220688161</v>
+        <v>-72314.3682068816</v>
       </c>
       <c r="AM14">
-        <v>30013.6741579543</v>
+        <v>24453.2401579543</v>
       </c>
       <c r="AN14">
-        <v>-78433.80220688161</v>
+        <v>-72873.3682068816</v>
       </c>
       <c r="AO14">
         <v>138746.1280489273</v>
@@ -2366,7 +2366,7 @@
         <v>0.6620463653875962</v>
       </c>
       <c r="AR14">
-        <v>0.0001662283214938068</v>
+        <v>0.1662283214938068</v>
       </c>
       <c r="AS14">
         <v>8.306200000000001</v>
@@ -2443,34 +2443,34 @@
         <v>60459</v>
       </c>
       <c r="X15">
-        <v>60453.424</v>
+        <v>54883</v>
       </c>
       <c r="Y15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="Z15">
         <v>559</v>
       </c>
       <c r="AA15">
-        <v>42.298</v>
+        <v>42298</v>
       </c>
       <c r="AB15">
-        <v>36.722</v>
+        <v>36722</v>
       </c>
       <c r="AC15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AD15">
-        <v>59857.702</v>
+        <v>17602</v>
       </c>
       <c r="AE15">
         <v>59900</v>
       </c>
       <c r="AF15">
-        <v>59894.424</v>
+        <v>54324</v>
       </c>
       <c r="AG15">
-        <v>5.576</v>
+        <v>5576</v>
       </c>
       <c r="AH15">
         <v>12571.17474990041</v>
@@ -2485,13 +2485,13 @@
         <v>-47328.82525009959</v>
       </c>
       <c r="AL15">
-        <v>-77976.5617991239</v>
+        <v>-72406.1377991239</v>
       </c>
       <c r="AM15">
-        <v>30647.73654902434</v>
+        <v>25077.31254902434</v>
       </c>
       <c r="AN15">
-        <v>-78535.5617991239</v>
+        <v>-72965.1377991239</v>
       </c>
       <c r="AO15">
         <v>139861.8252500996</v>
@@ -2503,7 +2503,7 @@
         <v>0.6512710113727793</v>
       </c>
       <c r="AR15">
-        <v>0.0001658049822480322</v>
+        <v>0.1658049822480322</v>
       </c>
       <c r="AS15">
         <v>8.2867</v>
@@ -2580,34 +2580,34 @@
         <v>60759</v>
       </c>
       <c r="X16">
-        <v>60753.324</v>
+        <v>55083</v>
       </c>
       <c r="Y16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="Z16">
         <v>559</v>
       </c>
       <c r="AA16">
-        <v>42.514</v>
+        <v>42514</v>
       </c>
       <c r="AB16">
-        <v>36.838</v>
+        <v>36838</v>
       </c>
       <c r="AC16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AD16">
-        <v>60157.486</v>
+        <v>17686</v>
       </c>
       <c r="AE16">
         <v>60200</v>
       </c>
       <c r="AF16">
-        <v>60194.324</v>
+        <v>54524</v>
       </c>
       <c r="AG16">
-        <v>5.676</v>
+        <v>5676</v>
       </c>
       <c r="AH16">
         <v>13415.28280897132</v>
@@ -2622,13 +2622,13 @@
         <v>-46784.71719102869</v>
       </c>
       <c r="AL16">
-        <v>-78482.62458908578</v>
+        <v>-72812.30058908578</v>
       </c>
       <c r="AM16">
-        <v>31697.90739805709</v>
+        <v>26027.58339805709</v>
       </c>
       <c r="AN16">
-        <v>-79041.62458908578</v>
+        <v>-73371.30058908578</v>
       </c>
       <c r="AO16">
         <v>139790.7171910287</v>
@@ -2640,7 +2640,7 @@
         <v>0.6511839215983212</v>
       </c>
       <c r="AR16">
-        <v>0.0001662293862306202</v>
+        <v>0.1662293862306202</v>
       </c>
       <c r="AS16">
         <v>8.3689</v>
@@ -2717,34 +2717,34 @@
         <v>60559</v>
       </c>
       <c r="X17">
-        <v>60553.155</v>
+        <v>54714</v>
       </c>
       <c r="Y17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="Z17">
         <v>559</v>
       </c>
       <c r="AA17">
-        <v>42.317</v>
+        <v>42317</v>
       </c>
       <c r="AB17">
-        <v>36.472</v>
+        <v>36472</v>
       </c>
       <c r="AC17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AD17">
-        <v>59957.683</v>
+        <v>17683</v>
       </c>
       <c r="AE17">
         <v>60000</v>
       </c>
       <c r="AF17">
-        <v>59994.155</v>
+        <v>54155</v>
       </c>
       <c r="AG17">
-        <v>5.845</v>
+        <v>5845</v>
       </c>
       <c r="AH17">
         <v>12205.08689206975</v>
@@ -2759,13 +2759,13 @@
         <v>-47794.91310793025</v>
       </c>
       <c r="AL17">
-        <v>-80070.62212047723</v>
+        <v>-74231.46712047723</v>
       </c>
       <c r="AM17">
-        <v>32275.70901254699</v>
+        <v>26436.55401254699</v>
       </c>
       <c r="AN17">
-        <v>-80629.62212047723</v>
+        <v>-74790.46712047723</v>
       </c>
       <c r="AO17">
         <v>140957.9131079303</v>
@@ -2777,7 +2777,7 @@
         <v>0.6479201762342879</v>
       </c>
       <c r="AR17">
-        <v>0.0001649499468883546</v>
+        <v>0.1649499468883545</v>
       </c>
       <c r="AS17">
         <v>8.4323</v>
@@ -2854,34 +2854,34 @@
         <v>62406</v>
       </c>
       <c r="X18">
-        <v>62400.131</v>
+        <v>56537</v>
       </c>
       <c r="Y18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="Z18">
         <v>306</v>
       </c>
       <c r="AA18">
-        <v>44.4</v>
+        <v>44400</v>
       </c>
       <c r="AB18">
-        <v>38.531</v>
+        <v>38531</v>
       </c>
       <c r="AC18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AD18">
-        <v>62055.6</v>
+        <v>17700</v>
       </c>
       <c r="AE18">
         <v>62100</v>
       </c>
       <c r="AF18">
-        <v>62094.131</v>
+        <v>56231</v>
       </c>
       <c r="AG18">
-        <v>5.869</v>
+        <v>5869</v>
       </c>
       <c r="AH18">
         <v>14537.84400041749</v>
@@ -2896,13 +2896,13 @@
         <v>-47562.15599958251</v>
       </c>
       <c r="AL18">
-        <v>-79794.80259142304</v>
+        <v>-73931.67159142304</v>
       </c>
       <c r="AM18">
-        <v>32232.6467078081</v>
+        <v>26369.5157078081</v>
       </c>
       <c r="AN18">
-        <v>-80100.80259142304</v>
+        <v>-74237.67159142304</v>
       </c>
       <c r="AO18">
         <v>141554.1559995825</v>
@@ -2914,7 +2914,7 @@
         <v>0.662852507311658</v>
       </c>
       <c r="AR18">
-        <v>0.0001739791460131738</v>
+        <v>0.1739791460131738</v>
       </c>
       <c r="AS18">
         <v>8.623100000000001</v>
@@ -2991,34 +2991,34 @@
         <v>63212</v>
       </c>
       <c r="X19">
-        <v>63206.039</v>
+        <v>57251</v>
       </c>
       <c r="Y19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="Z19">
         <v>306</v>
       </c>
       <c r="AA19">
-        <v>45.204</v>
+        <v>45204</v>
       </c>
       <c r="AB19">
-        <v>39.243</v>
+        <v>39243</v>
       </c>
       <c r="AC19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AD19">
-        <v>62860.796</v>
+        <v>17702</v>
       </c>
       <c r="AE19">
         <v>62906</v>
       </c>
       <c r="AF19">
-        <v>62900.039</v>
+        <v>56945</v>
       </c>
       <c r="AG19">
-        <v>5.961</v>
+        <v>5961</v>
       </c>
       <c r="AH19">
         <v>14771.25992521655</v>
@@ -3033,13 +3033,13 @@
         <v>-48134.74007478345</v>
       </c>
       <c r="AL19">
-        <v>-79708.22334470713</v>
+        <v>-73753.18434470714</v>
       </c>
       <c r="AM19">
-        <v>31573.48326992369</v>
+        <v>25618.44426992369</v>
       </c>
       <c r="AN19">
-        <v>-80014.22334470715</v>
+        <v>-74059.18434470714</v>
       </c>
       <c r="AO19">
         <v>143306.7400747835</v>
@@ -3051,7 +3051,7 @@
         <v>0.6631037463369385</v>
       </c>
       <c r="AR19">
-        <v>0.0001764507289522178</v>
+        <v>0.1764507289522178</v>
       </c>
       <c r="AS19">
         <v>8.5313</v>
@@ -3128,34 +3128,34 @@
         <v>66718</v>
       </c>
       <c r="X20">
-        <v>66712.075</v>
+        <v>60793</v>
       </c>
       <c r="Y20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="Z20">
         <v>306</v>
       </c>
       <c r="AA20">
-        <v>45.735</v>
+        <v>45735</v>
       </c>
       <c r="AB20">
-        <v>39.81</v>
+        <v>39810</v>
       </c>
       <c r="AC20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AD20">
-        <v>66366.265</v>
+        <v>20677</v>
       </c>
       <c r="AE20">
         <v>66412</v>
       </c>
       <c r="AF20">
-        <v>66406.075</v>
+        <v>60487</v>
       </c>
       <c r="AG20">
-        <v>5.925</v>
+        <v>5925</v>
       </c>
       <c r="AH20">
         <v>18308.86003501732</v>
@@ -3170,13 +3170,13 @@
         <v>-48103.13996498268</v>
       </c>
       <c r="AL20">
-        <v>-78425.40790817805</v>
+        <v>-72506.33290817805</v>
       </c>
       <c r="AM20">
-        <v>30322.26805914683</v>
+        <v>24403.19305914683</v>
       </c>
       <c r="AN20">
-        <v>-78731.40790817805</v>
+        <v>-72812.33290817805</v>
       </c>
       <c r="AO20">
         <v>145731.1399649827</v>
@@ -3188,7 +3188,7 @@
         <v>0.6823945253899427</v>
       </c>
       <c r="AR20">
-        <v>0.0001803540333704058</v>
+        <v>0.1803540333704058</v>
       </c>
       <c r="AS20">
         <v>8.6243</v>
@@ -3265,34 +3265,34 @@
         <v>66547</v>
       </c>
       <c r="X21">
-        <v>66541.38400000001</v>
+        <v>60931</v>
       </c>
       <c r="Y21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="Z21">
         <v>306</v>
       </c>
       <c r="AA21">
-        <v>45.503</v>
+        <v>45503</v>
       </c>
       <c r="AB21">
-        <v>39.887</v>
+        <v>39887</v>
       </c>
       <c r="AC21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AD21">
-        <v>66195.497</v>
+        <v>20738</v>
       </c>
       <c r="AE21">
         <v>66241</v>
       </c>
       <c r="AF21">
-        <v>66235.38400000001</v>
+        <v>60625</v>
       </c>
       <c r="AG21">
-        <v>5.616</v>
+        <v>5616</v>
       </c>
       <c r="AH21">
         <v>20771.28202048663</v>
@@ -3307,13 +3307,13 @@
         <v>-45469.71797951337</v>
       </c>
       <c r="AL21">
-        <v>-75162.80342189324</v>
+        <v>-69552.41942189324</v>
       </c>
       <c r="AM21">
-        <v>29693.08544237987</v>
+        <v>24082.70144237987</v>
       </c>
       <c r="AN21">
-        <v>-75468.80342189324</v>
+        <v>-69858.41942189324</v>
       </c>
       <c r="AO21">
         <v>145933.7179795134</v>
@@ -3325,7 +3325,7 @@
         <v>0.6613650432316939</v>
       </c>
       <c r="AR21">
-        <v>0.0001788816849968338</v>
+        <v>0.1788816849968338</v>
       </c>
       <c r="AS21">
         <v>8.6593</v>
@@ -3402,34 +3402,34 @@
         <v>65478</v>
       </c>
       <c r="X22">
-        <v>65472.439</v>
+        <v>59917</v>
       </c>
       <c r="Y22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="Z22">
         <v>234</v>
       </c>
       <c r="AA22">
-        <v>44.766</v>
+        <v>44766</v>
       </c>
       <c r="AB22">
-        <v>39.205</v>
+        <v>39205</v>
       </c>
       <c r="AC22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AD22">
-        <v>65199.234</v>
+        <v>20478</v>
       </c>
       <c r="AE22">
         <v>65244</v>
       </c>
       <c r="AF22">
-        <v>65238.439</v>
+        <v>59683</v>
       </c>
       <c r="AG22">
-        <v>5.561</v>
+        <v>5561</v>
       </c>
       <c r="AH22">
         <v>20286.75645399223</v>
@@ -3444,13 +3444,13 @@
         <v>-44957.24354600777</v>
       </c>
       <c r="AL22">
-        <v>-74600.76677060669</v>
+        <v>-69045.32777060669</v>
       </c>
       <c r="AM22">
-        <v>29643.52357034852</v>
+        <v>24088.08457034852</v>
       </c>
       <c r="AN22">
-        <v>-74834.76677060669</v>
+        <v>-69279.32777060669</v>
       </c>
       <c r="AO22">
         <v>145404.2435460078</v>
@@ -3462,7 +3462,7 @@
         <v>0.6510532565635198</v>
       </c>
       <c r="AR22">
-        <v>0.0001766020195024396</v>
+        <v>0.1766020195024396</v>
       </c>
       <c r="AS22">
         <v>8.6768</v>
@@ -3539,34 +3539,34 @@
         <v>65540</v>
       </c>
       <c r="X23">
-        <v>65534.492</v>
+        <v>60032</v>
       </c>
       <c r="Y23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="Z23">
         <v>234</v>
       </c>
       <c r="AA23">
-        <v>44.508</v>
+        <v>44508</v>
       </c>
       <c r="AB23">
-        <v>39</v>
+        <v>39000</v>
       </c>
       <c r="AC23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AD23">
-        <v>65261.492</v>
+        <v>20798</v>
       </c>
       <c r="AE23">
         <v>65306</v>
       </c>
       <c r="AF23">
-        <v>65300.492</v>
+        <v>59798</v>
       </c>
       <c r="AG23">
-        <v>5.508</v>
+        <v>5508</v>
       </c>
       <c r="AH23">
         <v>23105.36228947702</v>
@@ -3581,13 +3581,13 @@
         <v>-42200.63771052298</v>
       </c>
       <c r="AL23">
-        <v>-72141.50626318394</v>
+        <v>-66639.01426318394</v>
       </c>
       <c r="AM23">
-        <v>29940.86866777948</v>
+        <v>24438.37666777948</v>
       </c>
       <c r="AN23">
-        <v>-72375.50626318394</v>
+        <v>-66873.01426318394</v>
       </c>
       <c r="AO23">
         <v>146502.637710523</v>
@@ -3599,7 +3599,7 @@
         <v>0.6275319983087981</v>
       </c>
       <c r="AR23">
-        <v>0.0001739509438640435</v>
+        <v>0.1739509438640434</v>
       </c>
       <c r="AS23">
         <v>8.6867</v>
@@ -3676,34 +3676,34 @@
         <v>65788</v>
       </c>
       <c r="X24">
-        <v>65782.47500000001</v>
+        <v>60263</v>
       </c>
       <c r="Y24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z24">
         <v>234</v>
       </c>
       <c r="AA24">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB24">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD24">
-        <v>65509.229</v>
+        <v>20783</v>
       </c>
       <c r="AE24">
         <v>65554</v>
       </c>
       <c r="AF24">
-        <v>65548.47500000001</v>
+        <v>60029</v>
       </c>
       <c r="AG24">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH24">
         <v>23989.58115718215</v>
@@ -3718,13 +3718,13 @@
         <v>-41564.41884281785</v>
       </c>
       <c r="AL24">
-        <v>-71784.60696242585</v>
+        <v>-66265.13196242585</v>
       </c>
       <c r="AM24">
-        <v>30220.188119608</v>
+        <v>24700.713119608</v>
       </c>
       <c r="AN24">
-        <v>-72018.60696242585</v>
+        <v>-66499.13196242585</v>
       </c>
       <c r="AO24">
         <v>146684.4188428178</v>
@@ -3736,7 +3736,7 @@
         <v>0.6250023835402246</v>
       </c>
       <c r="AR24">
-        <v>0.0001739517687628455</v>
+        <v>0.1739517687628455</v>
       </c>
       <c r="AS24">
         <v>8.612299999999999</v>
@@ -3813,34 +3813,34 @@
         <v>65634</v>
       </c>
       <c r="X25">
-        <v>65628.47500000001</v>
+        <v>60109</v>
       </c>
       <c r="Y25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z25">
         <v>234</v>
       </c>
       <c r="AA25">
-        <v>44.771</v>
+        <v>44771</v>
       </c>
       <c r="AB25">
-        <v>39.246</v>
+        <v>39246</v>
       </c>
       <c r="AC25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD25">
-        <v>65355.229</v>
+        <v>20629</v>
       </c>
       <c r="AE25">
         <v>65400</v>
       </c>
       <c r="AF25">
-        <v>65394.475</v>
+        <v>59875</v>
       </c>
       <c r="AG25">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH25">
         <v>23649.58778599043</v>
@@ -3855,13 +3855,13 @@
         <v>-41750.41221400957</v>
       </c>
       <c r="AL25">
-        <v>-71805.90863611794</v>
+        <v>-66286.43363611795</v>
       </c>
       <c r="AM25">
-        <v>30055.49642210837</v>
+        <v>24536.02142210837</v>
       </c>
       <c r="AN25">
-        <v>-72039.90863611795</v>
+        <v>-66520.43363611795</v>
       </c>
       <c r="AO25">
         <v>146423.4122140096</v>
@@ -3873,7 +3873,7 @@
         <v>0.6262028552552208</v>
       </c>
       <c r="AR25">
-        <v>0.0001736106735179759</v>
+        <v>0.173610673517976</v>
       </c>
       <c r="AS25">
         <v>8.5099</v>
@@ -3950,34 +3950,34 @@
         <v>66231</v>
       </c>
       <c r="X26">
-        <v>66225.46299999999</v>
+        <v>60694</v>
       </c>
       <c r="Y26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="Z26">
         <v>234</v>
       </c>
       <c r="AA26">
-        <v>45.164</v>
+        <v>45164</v>
       </c>
       <c r="AB26">
-        <v>39.627</v>
+        <v>39627</v>
       </c>
       <c r="AC26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AD26">
-        <v>65951.836</v>
+        <v>20833</v>
       </c>
       <c r="AE26">
         <v>65997</v>
       </c>
       <c r="AF26">
-        <v>65991.463</v>
+        <v>60460</v>
       </c>
       <c r="AG26">
-        <v>5.537</v>
+        <v>5537</v>
       </c>
       <c r="AH26">
         <v>24471.45619299794</v>
@@ -3992,13 +3992,13 @@
         <v>-41525.54380700206</v>
       </c>
       <c r="AL26">
-        <v>-71605.00368843779</v>
+        <v>-66073.54068843779</v>
       </c>
       <c r="AM26">
-        <v>30079.45999911739</v>
+        <v>24547.99699911739</v>
       </c>
       <c r="AN26">
-        <v>-71839.00368843778</v>
+        <v>-66307.54068843779</v>
       </c>
       <c r="AO26">
         <v>147479.5438070021</v>
@@ -4010,7 +4010,7 @@
         <v>0.6242622020431328</v>
       </c>
       <c r="AR26">
-        <v>0.0001736684365614742</v>
+        <v>0.1736684365614742</v>
       </c>
       <c r="AS26">
         <v>8.497500000000001</v>
@@ -4087,34 +4087,34 @@
         <v>66549</v>
       </c>
       <c r="X27">
-        <v>66543.47500000001</v>
+        <v>61024</v>
       </c>
       <c r="Y27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="Z27">
         <v>152</v>
       </c>
       <c r="AA27">
-        <v>45.606</v>
+        <v>45606</v>
       </c>
       <c r="AB27">
-        <v>40.081</v>
+        <v>40081</v>
       </c>
       <c r="AC27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AD27">
-        <v>66351.394</v>
+        <v>20791</v>
       </c>
       <c r="AE27">
         <v>66397</v>
       </c>
       <c r="AF27">
-        <v>66391.47500000001</v>
+        <v>60872</v>
       </c>
       <c r="AG27">
-        <v>5.525</v>
+        <v>5525</v>
       </c>
       <c r="AH27">
         <v>25037.29161877505</v>
@@ -4129,13 +4129,13 @@
         <v>-41359.70838122495</v>
       </c>
       <c r="AL27">
-        <v>-71228.61475745351</v>
+        <v>-65709.13975745351</v>
       </c>
       <c r="AM27">
-        <v>29868.90637622857</v>
+        <v>24349.43137622857</v>
       </c>
       <c r="AN27">
-        <v>-71380.61475745351</v>
+        <v>-65861.13975745351</v>
       </c>
       <c r="AO27">
         <v>150520.708381225</v>
@@ -4147,7 +4147,7 @@
         <v>0.6090964966195451</v>
       </c>
       <c r="AR27">
-        <v>0.0001750558704056854</v>
+        <v>0.1750558704056854</v>
       </c>
       <c r="AS27">
         <v>8.526199999999999</v>
@@ -4224,34 +4224,34 @@
         <v>65610</v>
       </c>
       <c r="X28">
-        <v>65604.572</v>
+        <v>60182</v>
       </c>
       <c r="Y28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="Z28">
         <v>152</v>
       </c>
       <c r="AA28">
-        <v>44.845</v>
+        <v>44845</v>
       </c>
       <c r="AB28">
-        <v>39.417</v>
+        <v>39417</v>
       </c>
       <c r="AC28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AD28">
-        <v>65413.155</v>
+        <v>20613</v>
       </c>
       <c r="AE28">
         <v>65458</v>
       </c>
       <c r="AF28">
-        <v>65452.572</v>
+        <v>60030</v>
       </c>
       <c r="AG28">
-        <v>5.428</v>
+        <v>5428</v>
       </c>
       <c r="AH28">
         <v>23973.08591626518</v>
@@ -4266,13 +4266,13 @@
         <v>-41484.91408373482</v>
       </c>
       <c r="AL28">
-        <v>-70329.03808261493</v>
+        <v>-64906.46608261493</v>
       </c>
       <c r="AM28">
-        <v>28844.12388222531</v>
+        <v>23421.55188222531</v>
       </c>
       <c r="AN28">
-        <v>-70481.03808261493</v>
+        <v>-65058.46608261493</v>
       </c>
       <c r="AO28">
         <v>148734.9140837348</v>
@@ -4284,7 +4284,7 @@
         <v>0.6111972212366245</v>
       </c>
       <c r="AR28">
-        <v>0.000171465521875743</v>
+        <v>0.171465521875743</v>
       </c>
       <c r="AS28">
         <v>8.5723</v>
@@ -4361,34 +4361,34 @@
         <v>66565</v>
       </c>
       <c r="X29">
-        <v>66559.787</v>
+        <v>61352</v>
       </c>
       <c r="Y29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="Z29">
         <v>152</v>
       </c>
       <c r="AA29">
-        <v>45.849</v>
+        <v>45849</v>
       </c>
       <c r="AB29">
-        <v>40.636</v>
+        <v>40636</v>
       </c>
       <c r="AC29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AD29">
-        <v>66367.151</v>
+        <v>20564</v>
       </c>
       <c r="AE29">
         <v>66413</v>
       </c>
       <c r="AF29">
-        <v>66407.787</v>
+        <v>61200</v>
       </c>
       <c r="AG29">
-        <v>5.213</v>
+        <v>5213</v>
       </c>
       <c r="AH29">
         <v>25633.38693000905</v>
@@ -4403,13 +4403,13 @@
         <v>-40779.61306999096</v>
       </c>
       <c r="AL29">
-        <v>-69991.48159881801</v>
+        <v>-64783.69459881801</v>
       </c>
       <c r="AM29">
-        <v>29211.86852882706</v>
+        <v>24004.08152882706</v>
       </c>
       <c r="AN29">
-        <v>-70143.48159881801</v>
+        <v>-64935.69459881801</v>
       </c>
       <c r="AO29">
         <v>149486.6130699909</v>
@@ -4421,7 +4421,7 @@
         <v>0.6117912578877067</v>
       </c>
       <c r="AR29">
-        <v>0.0001763246413195909</v>
+        <v>0.1763246413195909</v>
       </c>
       <c r="AS29">
         <v>8.511100000000001</v>
@@ -4498,34 +4498,34 @@
         <v>66980</v>
       </c>
       <c r="X30">
-        <v>66974.75499999999</v>
+        <v>61735</v>
       </c>
       <c r="Y30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="Z30">
         <v>152</v>
       </c>
       <c r="AA30">
-        <v>46.031</v>
+        <v>46031</v>
       </c>
       <c r="AB30">
-        <v>40.786</v>
+        <v>40786</v>
       </c>
       <c r="AC30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AD30">
-        <v>66781.969</v>
+        <v>20797</v>
       </c>
       <c r="AE30">
         <v>66828</v>
       </c>
       <c r="AF30">
-        <v>66822.75500000001</v>
+        <v>61583</v>
       </c>
       <c r="AG30">
-        <v>5.245</v>
+        <v>5245</v>
       </c>
       <c r="AH30">
         <v>26305.79604680657</v>
@@ -4540,13 +4540,13 @@
         <v>-40522.20395319343</v>
       </c>
       <c r="AL30">
-        <v>-69717.76064741917</v>
+        <v>-64478.00564741917</v>
       </c>
       <c r="AM30">
-        <v>29195.55669422575</v>
+        <v>23955.80169422575</v>
       </c>
       <c r="AN30">
-        <v>-69869.76064741916</v>
+        <v>-64630.00564741917</v>
       </c>
       <c r="AO30">
         <v>158938.2039531934</v>
@@ -4558,7 +4558,7 @@
         <v>0.5650747480213759</v>
       </c>
       <c r="AR30">
-        <v>0.0001737831058024665</v>
+        <v>0.1737831058024665</v>
       </c>
       <c r="AS30">
         <v>8.357799999999999</v>
@@ -4635,34 +4635,34 @@
         <v>67453</v>
       </c>
       <c r="X31">
-        <v>67447.803</v>
+        <v>62256</v>
       </c>
       <c r="Y31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="Z31">
         <v>43</v>
       </c>
       <c r="AA31">
-        <v>46.57</v>
+        <v>46570</v>
       </c>
       <c r="AB31">
-        <v>41.373</v>
+        <v>41373</v>
       </c>
       <c r="AC31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AD31">
-        <v>67363.42999999999</v>
+        <v>20840</v>
       </c>
       <c r="AE31">
         <v>67410</v>
       </c>
       <c r="AF31">
-        <v>67404.803</v>
+        <v>62213</v>
       </c>
       <c r="AG31">
-        <v>5.197</v>
+        <v>5197</v>
       </c>
       <c r="AH31">
         <v>27708.62671087821</v>
@@ -4677,13 +4677,13 @@
         <v>-39701.3732891218</v>
       </c>
       <c r="AL31">
-        <v>-69367.87407330005</v>
+        <v>-64176.07107330005</v>
       </c>
       <c r="AM31">
-        <v>29666.50078417824</v>
+        <v>24474.69778417824</v>
       </c>
       <c r="AN31">
-        <v>-69410.87407330005</v>
+        <v>-64219.07107330005</v>
       </c>
       <c r="AO31">
         <v>158941.3732891218</v>
@@ -4695,7 +4695,7 @@
         <v>0.5655343674756915</v>
       </c>
       <c r="AR31">
-        <v>0.0001748415838387358</v>
+        <v>0.1748415838387357</v>
       </c>
       <c r="AS31">
         <v>8.263299999999999</v>
@@ -4772,34 +4772,34 @@
         <v>68089</v>
       </c>
       <c r="X32">
-        <v>68083.909</v>
+        <v>62998</v>
       </c>
       <c r="Y32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="Z32">
         <v>43</v>
       </c>
       <c r="AA32">
-        <v>47.249</v>
+        <v>47249</v>
       </c>
       <c r="AB32">
-        <v>42.158</v>
+        <v>42158</v>
       </c>
       <c r="AC32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AD32">
-        <v>67998.751</v>
+        <v>20797</v>
       </c>
       <c r="AE32">
         <v>68046</v>
       </c>
       <c r="AF32">
-        <v>68040.909</v>
+        <v>62955</v>
       </c>
       <c r="AG32">
-        <v>5.091</v>
+        <v>5091</v>
       </c>
       <c r="AH32">
         <v>28717.79699958656</v>
@@ -4814,13 +4814,13 @@
         <v>-39328.20300041344</v>
       </c>
       <c r="AL32">
-        <v>